--- a/master.xlsx
+++ b/master.xlsx
@@ -1,21 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Onedrive\Robert\GitHub\world-control\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_760AD927565191BDF4047CE5A9D9FA747643B1AA" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{29DDB87E-F052-4B01-BDCC-268F200A320B}"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11925" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="119">
   <si>
     <t>contributors</t>
   </si>
@@ -110,10 +115,8 @@
     <t>{'urls': [], 'hashtags': [{'text': 'fakenewz', 'indices': [129, 138]}], 'user_mentions': [{'screen_name': 'truWorldControl', 'id': 755869984761479168, 'name': 'WorldControl  🎲🎲', 'id_str': '755869984761479168', 'indices': [112, 128]}], 'symbols': []}</t>
   </si>
   <si>
-    <t>Coca-Loca Company buys the remaining Aral Sea.-
-sugar added - sold for profit - no refills-
+    <t>Coca-Loca Company buys the remaining Aral Sea._x000D__x000D_
+sugar added - sold for profit - no refills_x000D__x000D_
 [ASTANA -1 🚐 +60 b 💵] @truWorldControl #fakenewz</t>
   </si>
   <si>
@@ -135,10 +138,8 @@
     <t>{'urls': [], 'hashtags': [{'text': 'fakenewz', 'indices': [0, 9]}], 'user_mentions': [{'screen_name': 'truWorldControl', 'id': 755869984761479168, 'name': 'WorldControl  🎲🎲', 'id_str': '755869984761479168', 'indices': [10, 26]}], 'symbols': []}</t>
   </si>
   <si>
-    <t>#fakenewz @truWorldControl New US law-
-Every Nike shoe has to be burned. Toxic fumes kill thousands-
+    <t>#fakenewz @truWorldControl New US law_x000D__x000D_
+Every Nike shoe has to be burned. Toxic fumes kill thousands_x000D__x000D_
 [US -3 corpz]</t>
   </si>
   <si>
@@ -154,10 +155,8 @@
     <t>{'urls': [], 'hashtags': [{'text': 'fakenewz', 'indices': [113, 122]}], 'user_mentions': [{'screen_name': 'truWorldControl', 'id': 755869984761479168, 'name': 'WorldControl  🎲🎲', 'id_str': '755869984761479168', 'indices': [96, 112]}], 'symbols': []}</t>
   </si>
   <si>
-    <t>President Drumpf's Epiphany-
-Gooing himself President Drumpf realises that he's a moron-
+    <t>President Drumpf's Epiphany_x000D__x000D_
+Gooing himself President Drumpf realises that he's a moron_x000D__x000D_
 [US +1🔵] @truWorldControl #fakenewz</t>
   </si>
   <si>
@@ -179,16 +178,11 @@
     <t>{'urls': [], 'hashtags': [{'text': 'fakenewz', 'indices': [17, 26]}], 'user_mentions': [{'screen_name': 'truWorldControl', 'id': 755869984761479168, 'name': 'WorldControl  🎲🎲', 'id_str': '755869984761479168', 'indices': [0, 16]}], 'symbols': []}</t>
   </si>
   <si>
-    <t>@truWorldControl #fakenewz-
-Casino Royal-
-Play 1 round of the Las Vegas Classic.-
-Double or Nothing your bets.-
-see page 13-
+    <t>@truWorldControl #fakenewz_x000D__x000D_
+Casino Royal_x000D__x000D_
+Play 1 round of the Las Vegas Classic._x000D__x000D_
+Double or Nothing your bets._x000D__x000D_
+see page 13_x000D__x000D_
 [PLAY CRAPS]</t>
   </si>
   <si>
@@ -201,14 +195,10 @@
     <t>Thu Aug 23 15:47:57 +0000 2018</t>
   </si>
   <si>
-    <t>@truWorldControl #fakenewz-
-Rastafarian Movement-
-Everybody light up &amp;amp; take some stress-
-out of religion.-
+    <t>@truWorldControl #fakenewz_x000D__x000D_
+Rastafarian Movement_x000D__x000D_
+Everybody light up &amp;amp; take some stress_x000D__x000D_
+out of religion._x000D__x000D_
 [RELIGION +1 🔵 ]</t>
   </si>
   <si>
@@ -218,12 +208,9 @@
     <t>Thu Aug 23 15:45:17 +0000 2018</t>
   </si>
   <si>
-    <t>@truWorldControl #fakenewz-
-History Fraud uncovered-
-Pyramids actually built by souvenir-shops. Tourism drops. Egypt flops.-
+    <t>@truWorldControl #fakenewz_x000D__x000D_
+History Fraud uncovered_x000D__x000D_
+Pyramids actually built by souvenir-shops. Tourism drops. Egypt flops._x000D__x000D_
 [CAIRO -90b 💴 ]</t>
   </si>
   <si>
@@ -233,12 +220,9 @@
     <t>Thu Aug 23 15:36:49 +0000 2018</t>
   </si>
   <si>
-    <t>@truWorldControl #fakenewz-
-Playing the woman‘s card-
-Give it up for the ladies!-
+    <t>@truWorldControl #fakenewz_x000D__x000D_
+Playing the woman‘s card_x000D__x000D_
+Give it up for the ladies!_x000D__x000D_
 [ALL FEMALE PLAYERZ +1 🔵]</t>
   </si>
   <si>
@@ -248,12 +232,9 @@
     <t>Thu Aug 23 15:25:21 +0000 2018</t>
   </si>
   <si>
-    <t>@truWorldControl #fakenewz-
-Tech-Crunch-
-The tech-market collapses after melanials did not buy a 4th smart-phone this year. -
+    <t>@truWorldControl #fakenewz_x000D__x000D_
+Tech-Crunch_x000D__x000D_
+The tech-market collapses after melanials did not buy a 4th smart-phone this year. _x000D__x000D_
 [ALL 💵 -&amp;gt; BANK]</t>
   </si>
   <si>
@@ -266,12 +247,9 @@
     <t>{'urls': [], 'hashtags': [{'text': 'fakenewz', 'indices': [17, 26]}, {'text': 'zar4life', 'indices': [69, 78]}], 'user_mentions': [{'screen_name': 'truWorldControl', 'id': 755869984761479168, 'name': 'WorldControl  🎲🎲', 'id_str': '755869984761479168', 'indices': [0, 16]}], 'symbols': []}</t>
   </si>
   <si>
-    <t>@truWorldControl #fakenewz -
-Minster Vlatin strangles a bear.-
-Elected #zar4life. Democrazy rulez!-
+    <t>@truWorldControl #fakenewz _x000D__x000D_
+Minster Vlatin strangles a bear._x000D__x000D_
+Elected #zar4life. Democrazy rulez!_x000D__x000D_
 [MOSCOW +1 general]</t>
   </si>
   <si>
@@ -281,12 +259,9 @@
     <t>Wed Aug 22 20:39:55 +0000 2018</t>
   </si>
   <si>
-    <t>@truWorldControl #fakenewz-
-Armin Wolf geht in Pension-
-Der Staat trauert-
+    <t>@truWorldControl #fakenewz_x000D__x000D_
+Armin Wolf geht in Pension_x000D__x000D_
+Der Staat trauert_x000D__x000D_
 [Österreich - 3😤]</t>
   </si>
   <si>
@@ -302,10 +277,8 @@
     <t>Mon Aug 20 11:45:21 +0000 2018</t>
   </si>
   <si>
-    <t>@truWorldControl #fakenewz The Truth is not the truth-
-The US president's lawyer goes full Orwell-
+    <t>@truWorldControl #fakenewz The Truth is not the truth_x000D__x000D_
+The US president's lawyer goes full Orwell_x000D__x000D_
 [US +3🍌]</t>
   </si>
   <si>
@@ -318,10 +291,8 @@
     <t>{'urls': [], 'hashtags': [{'text': 'fakenewz', 'indices': [122, 131]}], 'user_mentions': [{'screen_name': 'truWorldControl', 'id': 755869984761479168, 'name': 'WorldControl  🎲🎲', 'id_str': '755869984761479168', 'indices': [0, 16]}], 'symbols': []}</t>
   </si>
   <si>
-    <t>@truWorldControl Power of Communism-
-All Playerz put all their money together and divide it equally-
+    <t>@truWorldControl Power of Communism_x000D__x000D_
+All Playerz put all their money together and divide it equally_x000D__x000D_
 [DIVIDE MONEY EQUALLY] #fakenewz</t>
   </si>
   <si>
@@ -334,12 +305,9 @@
     <t>{'urls': [], 'hashtags': [], 'user_mentions': [{'screen_name': 'truWorldControl', 'id': 755869984761479168, 'name': 'WorldControl  🎲🎲', 'id_str': '755869984761479168', 'indices': [0, 16]}], 'symbols': []}</t>
   </si>
   <si>
-    <t>@truworldcontrol-
-The Kronenzeitung becomes the world's number 1 newpaper-
-Hans Dichand returns as Robo-Editor-
+    <t>@truworldcontrol_x000D__x000D_
+The Kronenzeitung becomes the world's number 1 newpaper_x000D__x000D_
+Hans Dichand returns as Robo-Editor_x000D__x000D_
 [Everybody loses his shit]</t>
   </si>
   <si>
@@ -355,8 +323,8 @@
     <t>{'urls': [], 'hashtags': [{'text': 'fakenewz', 'indices': [134, 143]}], 'user_mentions': [{'screen_name': 'truWorldControl', 'id': 755869984761479168, 'name': 'WorldControl  🎲🎲', 'id_str': '755869984761479168', 'indices': [117, 133]}], 'symbols': []}</t>
   </si>
   <si>
-    <t>Tech-Crunch
-The tech-market collapses after Millennials do not buy a 4th smart-phone this year.  
+    <t>Tech-Crunch_x000D_
+The tech-market collapses after Millennials do not buy a 4th smart-phone this year.  _x000D_
 [ALL 💴 -&amp;gt; Bank] @truWorldControl #fakenewz</t>
   </si>
   <si>
@@ -466,23 +434,24 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -497,26 +466,43 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -804,20 +790,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AC21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="9" max="9" width="167.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:29">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -903,12 +888,10 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:29">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
       <c r="D2" t="s">
         <v>28</v>
       </c>
@@ -918,7 +901,7 @@
       <c r="F2" t="s">
         <v>30</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G2">
         <v>0</v>
       </c>
       <c r="H2" t="b">
@@ -927,18 +910,12 @@
       <c r="I2" t="s">
         <v>31</v>
       </c>
-      <c r="J2" t="s"/>
-      <c r="K2" t="n">
-        <v>1.03924e+18</v>
-      </c>
-      <c r="L2" t="n">
-        <v>1.03924e+18</v>
-      </c>
-      <c r="M2" t="s"/>
-      <c r="N2" t="s"/>
-      <c r="O2" t="s"/>
-      <c r="P2" t="s"/>
-      <c r="Q2" t="s"/>
+      <c r="K2">
+        <v>1.03924E+18</v>
+      </c>
+      <c r="L2">
+        <v>1.03924E+18</v>
+      </c>
       <c r="R2" t="b">
         <v>0</v>
       </c>
@@ -948,8 +925,7 @@
       <c r="T2" t="s">
         <v>33</v>
       </c>
-      <c r="U2" t="s"/>
-      <c r="V2" t="n">
+      <c r="V2">
         <v>0</v>
       </c>
       <c r="W2" t="b">
@@ -958,30 +934,24 @@
       <c r="X2" t="s">
         <v>34</v>
       </c>
-      <c r="Y2" t="s"/>
       <c r="Z2" t="b">
         <v>0</v>
       </c>
       <c r="AA2" t="s">
         <v>35</v>
       </c>
-      <c r="AB2" t="s"/>
-      <c r="AC2" t="s"/>
     </row>
-    <row r="3" spans="1:29">
-      <c r="A3" s="1" t="n">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
       <c r="D3" t="s">
         <v>36</v>
       </c>
-      <c r="E3" t="s"/>
       <c r="F3" t="s">
         <v>37</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3">
         <v>0</v>
       </c>
       <c r="H3" t="b">
@@ -990,18 +960,12 @@
       <c r="I3" t="s">
         <v>38</v>
       </c>
-      <c r="J3" t="s"/>
-      <c r="K3" t="n">
-        <v>1.03765e+18</v>
-      </c>
-      <c r="L3" t="n">
-        <v>1.03765e+18</v>
-      </c>
-      <c r="M3" t="s"/>
-      <c r="N3" t="s"/>
-      <c r="O3" t="s"/>
-      <c r="P3" t="s"/>
-      <c r="Q3" t="s"/>
+      <c r="K3">
+        <v>1.03765E+18</v>
+      </c>
+      <c r="L3">
+        <v>1.03765E+18</v>
+      </c>
       <c r="R3" t="b">
         <v>0</v>
       </c>
@@ -1011,8 +975,7 @@
       <c r="T3" t="s">
         <v>33</v>
       </c>
-      <c r="U3" t="s"/>
-      <c r="V3" t="n">
+      <c r="V3">
         <v>0</v>
       </c>
       <c r="W3" t="b">
@@ -1030,23 +993,18 @@
       <c r="AA3" t="s">
         <v>40</v>
       </c>
-      <c r="AB3" t="s"/>
-      <c r="AC3" t="s"/>
     </row>
-    <row r="4" spans="1:29">
-      <c r="A4" s="1" t="n">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
       <c r="D4" t="s">
         <v>41</v>
       </c>
-      <c r="E4" t="s"/>
       <c r="F4" t="s">
         <v>42</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4">
         <v>0</v>
       </c>
       <c r="H4" t="b">
@@ -1055,18 +1013,12 @@
       <c r="I4" t="s">
         <v>43</v>
       </c>
-      <c r="J4" t="s"/>
-      <c r="K4" t="n">
-        <v>1.0348e+18</v>
-      </c>
-      <c r="L4" t="n">
-        <v>1.0348e+18</v>
-      </c>
-      <c r="M4" t="s"/>
-      <c r="N4" t="s"/>
-      <c r="O4" t="s"/>
-      <c r="P4" t="s"/>
-      <c r="Q4" t="s"/>
+      <c r="K4">
+        <v>1.0348E+18</v>
+      </c>
+      <c r="L4">
+        <v>1.0348E+18</v>
+      </c>
       <c r="R4" t="b">
         <v>0</v>
       </c>
@@ -1076,8 +1028,7 @@
       <c r="T4" t="s">
         <v>33</v>
       </c>
-      <c r="U4" t="s"/>
-      <c r="V4" t="n">
+      <c r="V4">
         <v>0</v>
       </c>
       <c r="W4" t="b">
@@ -1095,23 +1046,18 @@
       <c r="AA4" t="s">
         <v>44</v>
       </c>
-      <c r="AB4" t="s"/>
-      <c r="AC4" t="s"/>
     </row>
-    <row r="5" spans="1:29">
-      <c r="A5" s="1" t="n">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
       <c r="D5" t="s">
         <v>45</v>
       </c>
-      <c r="E5" t="s"/>
       <c r="F5" t="s">
         <v>46</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G5">
         <v>0</v>
       </c>
       <c r="H5" t="b">
@@ -1120,18 +1066,12 @@
       <c r="I5" t="s">
         <v>47</v>
       </c>
-      <c r="J5" t="s"/>
-      <c r="K5" t="n">
-        <v>1.03636e+18</v>
-      </c>
-      <c r="L5" t="n">
-        <v>1.03636e+18</v>
-      </c>
-      <c r="M5" t="s"/>
-      <c r="N5" t="s"/>
-      <c r="O5" t="s"/>
-      <c r="P5" t="s"/>
-      <c r="Q5" t="s"/>
+      <c r="K5">
+        <v>1.03636E+18</v>
+      </c>
+      <c r="L5">
+        <v>1.03636E+18</v>
+      </c>
       <c r="R5" t="b">
         <v>0</v>
       </c>
@@ -1141,8 +1081,7 @@
       <c r="T5" t="s">
         <v>33</v>
       </c>
-      <c r="U5" t="s"/>
-      <c r="V5" t="n">
+      <c r="V5">
         <v>0</v>
       </c>
       <c r="W5" t="b">
@@ -1160,23 +1099,18 @@
       <c r="AA5" t="s">
         <v>44</v>
       </c>
-      <c r="AB5" t="s"/>
-      <c r="AC5" t="s"/>
     </row>
-    <row r="6" spans="1:29">
-      <c r="A6" s="1" t="n">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
       <c r="D6" t="s">
         <v>48</v>
       </c>
-      <c r="E6" t="s"/>
       <c r="F6" t="s">
         <v>49</v>
       </c>
-      <c r="G6" t="n">
+      <c r="G6">
         <v>0</v>
       </c>
       <c r="H6" t="b">
@@ -1185,23 +1119,20 @@
       <c r="I6" t="s">
         <v>50</v>
       </c>
-      <c r="J6" t="s"/>
-      <c r="K6" t="n">
-        <v>1.03266e+18</v>
-      </c>
-      <c r="L6" t="n">
-        <v>1.03266e+18</v>
+      <c r="K6">
+        <v>1.03266E+18</v>
+      </c>
+      <c r="L6">
+        <v>1.03266E+18</v>
       </c>
       <c r="M6" t="s">
         <v>51</v>
       </c>
-      <c r="N6" t="s"/>
-      <c r="O6" t="s"/>
-      <c r="P6" t="n">
-        <v>7.56e+17</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>7.5587e+17</v>
+      <c r="P6">
+        <v>7.56E+17</v>
+      </c>
+      <c r="Q6">
+        <v>7.5587E+17</v>
       </c>
       <c r="R6" t="b">
         <v>0</v>
@@ -1212,8 +1143,7 @@
       <c r="T6" t="s">
         <v>33</v>
       </c>
-      <c r="U6" t="s"/>
-      <c r="V6" t="n">
+      <c r="V6">
         <v>0</v>
       </c>
       <c r="W6" t="b">
@@ -1231,23 +1161,18 @@
       <c r="AA6" t="s">
         <v>52</v>
       </c>
-      <c r="AB6" t="s"/>
-      <c r="AC6" t="s"/>
     </row>
-    <row r="7" spans="1:29">
-      <c r="A7" s="1" t="n">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
       <c r="D7" t="s">
         <v>53</v>
       </c>
-      <c r="E7" t="s"/>
       <c r="F7" t="s">
         <v>49</v>
       </c>
-      <c r="G7" t="n">
+      <c r="G7">
         <v>0</v>
       </c>
       <c r="H7" t="b">
@@ -1256,23 +1181,20 @@
       <c r="I7" t="s">
         <v>54</v>
       </c>
-      <c r="J7" t="s"/>
-      <c r="K7" t="n">
-        <v>1.03266e+18</v>
-      </c>
-      <c r="L7" t="n">
-        <v>1.03266e+18</v>
+      <c r="K7">
+        <v>1.03266E+18</v>
+      </c>
+      <c r="L7">
+        <v>1.03266E+18</v>
       </c>
       <c r="M7" t="s">
         <v>51</v>
       </c>
-      <c r="N7" t="s"/>
-      <c r="O7" t="s"/>
-      <c r="P7" t="n">
-        <v>7.56e+17</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>7.5587e+17</v>
+      <c r="P7">
+        <v>7.56E+17</v>
+      </c>
+      <c r="Q7">
+        <v>7.5587E+17</v>
       </c>
       <c r="R7" t="b">
         <v>0</v>
@@ -1283,8 +1205,7 @@
       <c r="T7" t="s">
         <v>33</v>
       </c>
-      <c r="U7" t="s"/>
-      <c r="V7" t="n">
+      <c r="V7">
         <v>0</v>
       </c>
       <c r="W7" t="b">
@@ -1302,23 +1223,18 @@
       <c r="AA7" t="s">
         <v>55</v>
       </c>
-      <c r="AB7" t="s"/>
-      <c r="AC7" t="s"/>
     </row>
-    <row r="8" spans="1:29">
-      <c r="A8" s="1" t="n">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
       <c r="D8" t="s">
         <v>56</v>
       </c>
-      <c r="E8" t="s"/>
       <c r="F8" t="s">
         <v>49</v>
       </c>
-      <c r="G8" t="n">
+      <c r="G8">
         <v>0</v>
       </c>
       <c r="H8" t="b">
@@ -1327,23 +1243,20 @@
       <c r="I8" t="s">
         <v>57</v>
       </c>
-      <c r="J8" t="s"/>
-      <c r="K8" t="n">
-        <v>1.03266e+18</v>
-      </c>
-      <c r="L8" t="n">
-        <v>1.03266e+18</v>
+      <c r="K8">
+        <v>1.03266E+18</v>
+      </c>
+      <c r="L8">
+        <v>1.03266E+18</v>
       </c>
       <c r="M8" t="s">
         <v>51</v>
       </c>
-      <c r="N8" t="s"/>
-      <c r="O8" t="s"/>
-      <c r="P8" t="n">
-        <v>7.56e+17</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>7.5587e+17</v>
+      <c r="P8">
+        <v>7.56E+17</v>
+      </c>
+      <c r="Q8">
+        <v>7.5587E+17</v>
       </c>
       <c r="R8" t="b">
         <v>0</v>
@@ -1354,8 +1267,7 @@
       <c r="T8" t="s">
         <v>33</v>
       </c>
-      <c r="U8" t="s"/>
-      <c r="V8" t="n">
+      <c r="V8">
         <v>0</v>
       </c>
       <c r="W8" t="b">
@@ -1373,23 +1285,18 @@
       <c r="AA8" t="s">
         <v>58</v>
       </c>
-      <c r="AB8" t="s"/>
-      <c r="AC8" t="s"/>
     </row>
-    <row r="9" spans="1:29">
-      <c r="A9" s="1" t="n">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
       <c r="D9" t="s">
         <v>59</v>
       </c>
-      <c r="E9" t="s"/>
       <c r="F9" t="s">
         <v>49</v>
       </c>
-      <c r="G9" t="n">
+      <c r="G9">
         <v>0</v>
       </c>
       <c r="H9" t="b">
@@ -1398,23 +1305,20 @@
       <c r="I9" t="s">
         <v>60</v>
       </c>
-      <c r="J9" t="s"/>
-      <c r="K9" t="n">
-        <v>1.03265e+18</v>
-      </c>
-      <c r="L9" t="n">
-        <v>1.03265e+18</v>
+      <c r="K9">
+        <v>1.03265E+18</v>
+      </c>
+      <c r="L9">
+        <v>1.03265E+18</v>
       </c>
       <c r="M9" t="s">
         <v>51</v>
       </c>
-      <c r="N9" t="s"/>
-      <c r="O9" t="s"/>
-      <c r="P9" t="n">
-        <v>7.56e+17</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>7.5587e+17</v>
+      <c r="P9">
+        <v>7.56E+17</v>
+      </c>
+      <c r="Q9">
+        <v>7.5587E+17</v>
       </c>
       <c r="R9" t="b">
         <v>0</v>
@@ -1425,8 +1329,7 @@
       <c r="T9" t="s">
         <v>33</v>
       </c>
-      <c r="U9" t="s"/>
-      <c r="V9" t="n">
+      <c r="V9">
         <v>0</v>
       </c>
       <c r="W9" t="b">
@@ -1444,23 +1347,18 @@
       <c r="AA9" t="s">
         <v>61</v>
       </c>
-      <c r="AB9" t="s"/>
-      <c r="AC9" t="s"/>
     </row>
-    <row r="10" spans="1:29">
-      <c r="A10" s="1" t="n">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
       <c r="D10" t="s">
         <v>62</v>
       </c>
-      <c r="E10" t="s"/>
       <c r="F10" t="s">
         <v>49</v>
       </c>
-      <c r="G10" t="n">
+      <c r="G10">
         <v>0</v>
       </c>
       <c r="H10" t="b">
@@ -1469,23 +1367,20 @@
       <c r="I10" t="s">
         <v>63</v>
       </c>
-      <c r="J10" t="s"/>
-      <c r="K10" t="n">
-        <v>1.03265e+18</v>
-      </c>
-      <c r="L10" t="n">
-        <v>1.03265e+18</v>
+      <c r="K10">
+        <v>1.03265E+18</v>
+      </c>
+      <c r="L10">
+        <v>1.03265E+18</v>
       </c>
       <c r="M10" t="s">
         <v>51</v>
       </c>
-      <c r="N10" t="s"/>
-      <c r="O10" t="s"/>
-      <c r="P10" t="n">
-        <v>7.56e+17</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>7.5587e+17</v>
+      <c r="P10">
+        <v>7.56E+17</v>
+      </c>
+      <c r="Q10">
+        <v>7.5587E+17</v>
       </c>
       <c r="R10" t="b">
         <v>0</v>
@@ -1496,8 +1391,7 @@
       <c r="T10" t="s">
         <v>33</v>
       </c>
-      <c r="U10" t="s"/>
-      <c r="V10" t="n">
+      <c r="V10">
         <v>0</v>
       </c>
       <c r="W10" t="b">
@@ -1515,23 +1409,18 @@
       <c r="AA10" t="s">
         <v>64</v>
       </c>
-      <c r="AB10" t="s"/>
-      <c r="AC10" t="s"/>
     </row>
-    <row r="11" spans="1:29">
-      <c r="A11" s="1" t="n">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
       <c r="D11" t="s">
         <v>65</v>
       </c>
-      <c r="E11" t="s"/>
       <c r="F11" t="s">
         <v>66</v>
       </c>
-      <c r="G11" t="n">
+      <c r="G11">
         <v>0</v>
       </c>
       <c r="H11" t="b">
@@ -1540,23 +1429,20 @@
       <c r="I11" t="s">
         <v>67</v>
       </c>
-      <c r="J11" t="s"/>
-      <c r="K11" t="n">
-        <v>1.03265e+18</v>
-      </c>
-      <c r="L11" t="n">
-        <v>1.03265e+18</v>
+      <c r="K11">
+        <v>1.03265E+18</v>
+      </c>
+      <c r="L11">
+        <v>1.03265E+18</v>
       </c>
       <c r="M11" t="s">
         <v>51</v>
       </c>
-      <c r="N11" t="s"/>
-      <c r="O11" t="s"/>
-      <c r="P11" t="n">
-        <v>7.56e+17</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>7.5587e+17</v>
+      <c r="P11">
+        <v>7.56E+17</v>
+      </c>
+      <c r="Q11">
+        <v>7.5587E+17</v>
       </c>
       <c r="R11" t="b">
         <v>0</v>
@@ -1567,8 +1453,7 @@
       <c r="T11" t="s">
         <v>33</v>
       </c>
-      <c r="U11" t="s"/>
-      <c r="V11" t="n">
+      <c r="V11">
         <v>0</v>
       </c>
       <c r="W11" t="b">
@@ -1586,23 +1471,18 @@
       <c r="AA11" t="s">
         <v>68</v>
       </c>
-      <c r="AB11" t="s"/>
-      <c r="AC11" t="s"/>
     </row>
-    <row r="12" spans="1:29">
-      <c r="A12" s="1" t="n">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
       <c r="D12" t="s">
         <v>69</v>
       </c>
-      <c r="E12" t="s"/>
       <c r="F12" t="s">
         <v>49</v>
       </c>
-      <c r="G12" t="n">
+      <c r="G12">
         <v>0</v>
       </c>
       <c r="H12" t="b">
@@ -1611,23 +1491,20 @@
       <c r="I12" t="s">
         <v>70</v>
       </c>
-      <c r="J12" t="s"/>
-      <c r="K12" t="n">
-        <v>1.03237e+18</v>
-      </c>
-      <c r="L12" t="n">
-        <v>1.03237e+18</v>
+      <c r="K12">
+        <v>1.03237E+18</v>
+      </c>
+      <c r="L12">
+        <v>1.03237E+18</v>
       </c>
       <c r="M12" t="s">
         <v>51</v>
       </c>
-      <c r="N12" t="s"/>
-      <c r="O12" t="s"/>
-      <c r="P12" t="n">
-        <v>7.56e+17</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>7.5587e+17</v>
+      <c r="P12">
+        <v>7.56E+17</v>
+      </c>
+      <c r="Q12">
+        <v>7.5587E+17</v>
       </c>
       <c r="R12" t="b">
         <v>0</v>
@@ -1638,8 +1515,7 @@
       <c r="T12" t="s">
         <v>72</v>
       </c>
-      <c r="U12" t="s"/>
-      <c r="V12" t="n">
+      <c r="V12">
         <v>0</v>
       </c>
       <c r="W12" t="b">
@@ -1657,23 +1533,18 @@
       <c r="AA12" t="s">
         <v>73</v>
       </c>
-      <c r="AB12" t="s"/>
-      <c r="AC12" t="s"/>
     </row>
-    <row r="13" spans="1:29">
-      <c r="A13" s="1" t="n">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
       <c r="D13" t="s">
         <v>74</v>
       </c>
-      <c r="E13" t="s"/>
       <c r="F13" t="s">
         <v>49</v>
       </c>
-      <c r="G13" t="n">
+      <c r="G13">
         <v>0</v>
       </c>
       <c r="H13" t="b">
@@ -1682,23 +1553,20 @@
       <c r="I13" t="s">
         <v>75</v>
       </c>
-      <c r="J13" t="s"/>
-      <c r="K13" t="n">
-        <v>1.03151e+18</v>
-      </c>
-      <c r="L13" t="n">
-        <v>1.03151e+18</v>
+      <c r="K13">
+        <v>1.03151E+18</v>
+      </c>
+      <c r="L13">
+        <v>1.03151E+18</v>
       </c>
       <c r="M13" t="s">
         <v>51</v>
       </c>
-      <c r="N13" t="s"/>
-      <c r="O13" t="s"/>
-      <c r="P13" t="n">
-        <v>7.56e+17</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>7.5587e+17</v>
+      <c r="P13">
+        <v>7.56E+17</v>
+      </c>
+      <c r="Q13">
+        <v>7.5587E+17</v>
       </c>
       <c r="R13" t="b">
         <v>0</v>
@@ -1709,8 +1577,7 @@
       <c r="T13" t="s">
         <v>33</v>
       </c>
-      <c r="U13" t="s"/>
-      <c r="V13" t="n">
+      <c r="V13">
         <v>0</v>
       </c>
       <c r="W13" t="b">
@@ -1728,23 +1595,18 @@
       <c r="AA13" t="s">
         <v>76</v>
       </c>
-      <c r="AB13" t="s"/>
-      <c r="AC13" t="s"/>
     </row>
-    <row r="14" spans="1:29">
-      <c r="A14" s="1" t="n">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
       <c r="D14" t="s">
         <v>77</v>
       </c>
-      <c r="E14" t="s"/>
       <c r="F14" t="s">
         <v>78</v>
       </c>
-      <c r="G14" t="n">
+      <c r="G14">
         <v>0</v>
       </c>
       <c r="H14" t="b">
@@ -1753,23 +1615,20 @@
       <c r="I14" t="s">
         <v>79</v>
       </c>
-      <c r="J14" t="s"/>
-      <c r="K14" t="n">
-        <v>1.02535e+18</v>
-      </c>
-      <c r="L14" t="n">
-        <v>1.02535e+18</v>
+      <c r="K14">
+        <v>1.02535E+18</v>
+      </c>
+      <c r="L14">
+        <v>1.02535E+18</v>
       </c>
       <c r="M14" t="s">
         <v>51</v>
       </c>
-      <c r="N14" t="s"/>
-      <c r="O14" t="s"/>
-      <c r="P14" t="n">
-        <v>7.56e+17</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>7.5587e+17</v>
+      <c r="P14">
+        <v>7.56E+17</v>
+      </c>
+      <c r="Q14">
+        <v>7.5587E+17</v>
       </c>
       <c r="R14" t="b">
         <v>0</v>
@@ -1780,8 +1639,7 @@
       <c r="T14" t="s">
         <v>33</v>
       </c>
-      <c r="U14" t="s"/>
-      <c r="V14" t="n">
+      <c r="V14">
         <v>0</v>
       </c>
       <c r="W14" t="b">
@@ -1799,23 +1657,18 @@
       <c r="AA14" t="s">
         <v>80</v>
       </c>
-      <c r="AB14" t="s"/>
-      <c r="AC14" t="s"/>
     </row>
-    <row r="15" spans="1:29">
-      <c r="A15" s="1" t="n">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
       <c r="D15" t="s">
         <v>81</v>
       </c>
-      <c r="E15" t="s"/>
       <c r="F15" t="s">
         <v>82</v>
       </c>
-      <c r="G15" t="n">
+      <c r="G15">
         <v>0</v>
       </c>
       <c r="H15" t="b">
@@ -1824,23 +1677,20 @@
       <c r="I15" t="s">
         <v>83</v>
       </c>
-      <c r="J15" t="s"/>
-      <c r="K15" t="n">
-        <v>1.02534e+18</v>
-      </c>
-      <c r="L15" t="n">
-        <v>1.02534e+18</v>
+      <c r="K15">
+        <v>1.02534E+18</v>
+      </c>
+      <c r="L15">
+        <v>1.02534E+18</v>
       </c>
       <c r="M15" t="s">
         <v>51</v>
       </c>
-      <c r="N15" t="s"/>
-      <c r="O15" t="s"/>
-      <c r="P15" t="n">
-        <v>7.56e+17</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>7.5587e+17</v>
+      <c r="P15">
+        <v>7.56E+17</v>
+      </c>
+      <c r="Q15">
+        <v>7.5587E+17</v>
       </c>
       <c r="R15" t="b">
         <v>0</v>
@@ -1851,8 +1701,7 @@
       <c r="T15" t="s">
         <v>33</v>
       </c>
-      <c r="U15" t="s"/>
-      <c r="V15" t="n">
+      <c r="V15">
         <v>0</v>
       </c>
       <c r="W15" t="b">
@@ -1870,15 +1719,11 @@
       <c r="AA15" t="s">
         <v>84</v>
       </c>
-      <c r="AB15" t="s"/>
-      <c r="AC15" t="s"/>
     </row>
-    <row r="16" spans="1:29">
-      <c r="A16" s="1" t="n">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
       <c r="D16" t="s">
         <v>85</v>
       </c>
@@ -1888,7 +1733,7 @@
       <c r="F16" t="s">
         <v>87</v>
       </c>
-      <c r="G16" t="n">
+      <c r="G16">
         <v>0</v>
       </c>
       <c r="H16" t="b">
@@ -1897,18 +1742,12 @@
       <c r="I16" t="s">
         <v>88</v>
       </c>
-      <c r="J16" t="s"/>
-      <c r="K16" t="n">
-        <v>1.039258898048463e+18</v>
-      </c>
-      <c r="L16" t="n">
-        <v>1.039258898048463e+18</v>
-      </c>
-      <c r="M16" t="s"/>
-      <c r="N16" t="s"/>
-      <c r="O16" t="s"/>
-      <c r="P16" t="s"/>
-      <c r="Q16" t="s"/>
+      <c r="K16">
+        <v>1.039258898048463E+18</v>
+      </c>
+      <c r="L16">
+        <v>1.039258898048463E+18</v>
+      </c>
       <c r="R16" t="b">
         <v>0</v>
       </c>
@@ -1918,8 +1757,7 @@
       <c r="T16" t="s">
         <v>33</v>
       </c>
-      <c r="U16" t="s"/>
-      <c r="V16" t="n">
+      <c r="V16">
         <v>0</v>
       </c>
       <c r="W16" t="b">
@@ -1928,22 +1766,17 @@
       <c r="X16" t="s">
         <v>34</v>
       </c>
-      <c r="Y16" t="s"/>
       <c r="Z16" t="b">
         <v>0</v>
       </c>
       <c r="AA16" t="s">
         <v>89</v>
       </c>
-      <c r="AB16" t="s"/>
-      <c r="AC16" t="s"/>
     </row>
-    <row r="17" spans="1:29">
-      <c r="A17" s="1" t="n">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
       <c r="D17" t="s">
         <v>90</v>
       </c>
@@ -1953,7 +1786,7 @@
       <c r="F17" t="s">
         <v>92</v>
       </c>
-      <c r="G17" t="n">
+      <c r="G17">
         <v>0</v>
       </c>
       <c r="H17" t="b">
@@ -1962,23 +1795,20 @@
       <c r="I17" t="s">
         <v>93</v>
       </c>
-      <c r="J17" t="s"/>
-      <c r="K17" t="n">
-        <v>1.039270260451541e+18</v>
-      </c>
-      <c r="L17" t="n">
-        <v>1.039270260451541e+18</v>
+      <c r="K17">
+        <v>1.039270260451541E+18</v>
+      </c>
+      <c r="L17">
+        <v>1.039270260451541E+18</v>
       </c>
       <c r="M17" t="s">
         <v>51</v>
       </c>
-      <c r="N17" t="s"/>
-      <c r="O17" t="s"/>
-      <c r="P17" t="n">
-        <v>7.558699847614792e+17</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>7.55869984761479e+17</v>
+      <c r="P17">
+        <v>7.5586998476147917E+17</v>
+      </c>
+      <c r="Q17">
+        <v>7.5586998476147904E+17</v>
       </c>
       <c r="R17" t="b">
         <v>0</v>
@@ -1989,8 +1819,7 @@
       <c r="T17" t="s">
         <v>33</v>
       </c>
-      <c r="U17" t="s"/>
-      <c r="V17" t="n">
+      <c r="V17">
         <v>0</v>
       </c>
       <c r="W17" t="b">
@@ -1999,22 +1828,17 @@
       <c r="X17" t="s">
         <v>39</v>
       </c>
-      <c r="Y17" t="s"/>
       <c r="Z17" t="b">
         <v>0</v>
       </c>
       <c r="AA17" t="s">
         <v>94</v>
       </c>
-      <c r="AB17" t="s"/>
-      <c r="AC17" t="s"/>
     </row>
-    <row r="18" spans="1:29">
-      <c r="A18" s="1" t="n">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
       <c r="D18" t="s">
         <v>95</v>
       </c>
@@ -2024,7 +1848,7 @@
       <c r="F18" t="s">
         <v>97</v>
       </c>
-      <c r="G18" t="n">
+      <c r="G18">
         <v>0</v>
       </c>
       <c r="H18" t="b">
@@ -2033,18 +1857,12 @@
       <c r="I18" t="s">
         <v>98</v>
       </c>
-      <c r="J18" t="s"/>
-      <c r="K18" t="n">
-        <v>1.03939789674197e+18</v>
-      </c>
-      <c r="L18" t="n">
-        <v>1.03939789674197e+18</v>
-      </c>
-      <c r="M18" t="s"/>
-      <c r="N18" t="s"/>
-      <c r="O18" t="s"/>
-      <c r="P18" t="s"/>
-      <c r="Q18" t="s"/>
+      <c r="K18">
+        <v>1.03939789674197E+18</v>
+      </c>
+      <c r="L18">
+        <v>1.03939789674197E+18</v>
+      </c>
       <c r="R18" t="b">
         <v>0</v>
       </c>
@@ -2054,8 +1872,7 @@
       <c r="T18" t="s">
         <v>33</v>
       </c>
-      <c r="U18" t="s"/>
-      <c r="V18" t="n">
+      <c r="V18">
         <v>0</v>
       </c>
       <c r="W18" t="b">
@@ -2064,22 +1881,17 @@
       <c r="X18" t="s">
         <v>34</v>
       </c>
-      <c r="Y18" t="s"/>
       <c r="Z18" t="b">
         <v>0</v>
       </c>
       <c r="AA18" t="s">
         <v>99</v>
       </c>
-      <c r="AB18" t="s"/>
-      <c r="AC18" t="s"/>
     </row>
-    <row r="19" spans="1:29">
-      <c r="A19" s="1" t="n">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
       <c r="D19" t="s">
         <v>100</v>
       </c>
@@ -2089,7 +1901,7 @@
       <c r="F19" t="s">
         <v>102</v>
       </c>
-      <c r="G19" t="n">
+      <c r="G19">
         <v>0</v>
       </c>
       <c r="H19" t="b">
@@ -2098,18 +1910,12 @@
       <c r="I19" t="s">
         <v>103</v>
       </c>
-      <c r="J19" t="s"/>
-      <c r="K19" t="n">
-        <v>1.039399363972407e+18</v>
-      </c>
-      <c r="L19" t="n">
-        <v>1.039399363972407e+18</v>
-      </c>
-      <c r="M19" t="s"/>
-      <c r="N19" t="s"/>
-      <c r="O19" t="s"/>
-      <c r="P19" t="s"/>
-      <c r="Q19" t="s"/>
+      <c r="K19">
+        <v>1.039399363972407E+18</v>
+      </c>
+      <c r="L19">
+        <v>1.039399363972407E+18</v>
+      </c>
       <c r="R19" t="b">
         <v>0</v>
       </c>
@@ -2119,8 +1925,7 @@
       <c r="T19" t="s">
         <v>33</v>
       </c>
-      <c r="U19" t="s"/>
-      <c r="V19" t="n">
+      <c r="V19">
         <v>0</v>
       </c>
       <c r="W19" t="b">
@@ -2129,22 +1934,17 @@
       <c r="X19" t="s">
         <v>34</v>
       </c>
-      <c r="Y19" t="s"/>
       <c r="Z19" t="b">
         <v>0</v>
       </c>
       <c r="AA19" t="s">
         <v>104</v>
       </c>
-      <c r="AB19" t="s"/>
-      <c r="AC19" t="s"/>
     </row>
-    <row r="20" spans="1:29">
-      <c r="A20" s="1" t="n">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
         <v>18</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
       <c r="D20" t="s">
         <v>105</v>
       </c>
@@ -2154,7 +1954,7 @@
       <c r="F20" t="s">
         <v>92</v>
       </c>
-      <c r="G20" t="n">
+      <c r="G20">
         <v>0</v>
       </c>
       <c r="H20" t="b">
@@ -2163,23 +1963,20 @@
       <c r="I20" t="s">
         <v>107</v>
       </c>
-      <c r="J20" t="s"/>
-      <c r="K20" t="n">
-        <v>1.040529171871613e+18</v>
-      </c>
-      <c r="L20" t="n">
-        <v>1.040529171871613e+18</v>
+      <c r="K20">
+        <v>1.0405291718716131E+18</v>
+      </c>
+      <c r="L20">
+        <v>1.0405291718716131E+18</v>
       </c>
       <c r="M20" t="s">
         <v>51</v>
       </c>
-      <c r="N20" t="s"/>
-      <c r="O20" t="s"/>
-      <c r="P20" t="n">
-        <v>7.55869984761479e+17</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>7.55869984761479e+17</v>
+      <c r="P20">
+        <v>7.5586998476147904E+17</v>
+      </c>
+      <c r="Q20">
+        <v>7.5586998476147904E+17</v>
       </c>
       <c r="R20" t="b">
         <v>0</v>
@@ -2190,8 +1987,7 @@
       <c r="T20" t="s">
         <v>33</v>
       </c>
-      <c r="U20" t="s"/>
-      <c r="V20" t="n">
+      <c r="V20">
         <v>0</v>
       </c>
       <c r="W20" t="b">
@@ -2200,22 +1996,17 @@
       <c r="X20" t="s">
         <v>108</v>
       </c>
-      <c r="Y20" t="s"/>
       <c r="Z20" t="b">
         <v>0</v>
       </c>
       <c r="AA20" t="s">
         <v>109</v>
       </c>
-      <c r="AB20" t="s"/>
-      <c r="AC20" t="s"/>
     </row>
-    <row r="21" spans="1:29">
-      <c r="A21" s="1" t="n">
+    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
         <v>19</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
       <c r="D21" t="s">
         <v>110</v>
       </c>
@@ -2225,7 +2016,7 @@
       <c r="F21" t="s">
         <v>112</v>
       </c>
-      <c r="G21" t="n">
+      <c r="G21">
         <v>0</v>
       </c>
       <c r="H21" t="b">
@@ -2234,9 +2025,8 @@
       <c r="I21" t="s">
         <v>113</v>
       </c>
-      <c r="J21" t="s"/>
-      <c r="K21" t="n">
-        <v>1.040914073783816e+18</v>
+      <c r="K21">
+        <v>1.0409140737838159E+18</v>
       </c>
       <c r="L21" t="s">
         <v>114</v>
@@ -2244,10 +2034,8 @@
       <c r="M21" t="s">
         <v>51</v>
       </c>
-      <c r="N21" t="s"/>
-      <c r="O21" t="s"/>
-      <c r="P21" t="n">
-        <v>7.558699847614792e+17</v>
+      <c r="P21">
+        <v>7.5586998476147917E+17</v>
       </c>
       <c r="Q21" t="s">
         <v>115</v>
@@ -2261,8 +2049,7 @@
       <c r="T21" t="s">
         <v>116</v>
       </c>
-      <c r="U21" t="s"/>
-      <c r="V21" t="n">
+      <c r="V21">
         <v>0</v>
       </c>
       <c r="W21" t="b">
@@ -2271,17 +2058,14 @@
       <c r="X21" t="s">
         <v>117</v>
       </c>
-      <c r="Y21" t="s"/>
       <c r="Z21" t="b">
         <v>0</v>
       </c>
       <c r="AA21" t="s">
         <v>118</v>
       </c>
-      <c r="AB21" t="s"/>
-      <c r="AC21" t="s"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/master.xlsx
+++ b/master.xlsx
@@ -1,26 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Onedrive\Robert\GitHub\world-control\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_760AD927565191BDF4047CE5A9D9FA747643B1AA" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{29DDB87E-F052-4B01-BDCC-268F200A320B}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11925" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="124">
   <si>
     <t>contributors</t>
   </si>
@@ -115,8 +110,10 @@
     <t>{'urls': [], 'hashtags': [{'text': 'fakenewz', 'indices': [129, 138]}], 'user_mentions': [{'screen_name': 'truWorldControl', 'id': 755869984761479168, 'name': 'WorldControl  🎲🎲', 'id_str': '755869984761479168', 'indices': [112, 128]}], 'symbols': []}</t>
   </si>
   <si>
-    <t>Coca-Loca Company buys the remaining Aral Sea._x000D__x000D_
-sugar added - sold for profit - no refills_x000D__x000D_
+    <t>Coca-Loca Company buys the remaining Aral Sea.+
+sugar added - sold for profit - no refills+
 [ASTANA -1 🚐 +60 b 💵] @truWorldControl #fakenewz</t>
   </si>
   <si>
@@ -138,8 +135,10 @@
     <t>{'urls': [], 'hashtags': [{'text': 'fakenewz', 'indices': [0, 9]}], 'user_mentions': [{'screen_name': 'truWorldControl', 'id': 755869984761479168, 'name': 'WorldControl  🎲🎲', 'id_str': '755869984761479168', 'indices': [10, 26]}], 'symbols': []}</t>
   </si>
   <si>
-    <t>#fakenewz @truWorldControl New US law_x000D__x000D_
-Every Nike shoe has to be burned. Toxic fumes kill thousands_x000D__x000D_
+    <t>#fakenewz @truWorldControl New US law+
+Every Nike shoe has to be burned. Toxic fumes kill thousands+
 [US -3 corpz]</t>
   </si>
   <si>
@@ -155,8 +154,10 @@
     <t>{'urls': [], 'hashtags': [{'text': 'fakenewz', 'indices': [113, 122]}], 'user_mentions': [{'screen_name': 'truWorldControl', 'id': 755869984761479168, 'name': 'WorldControl  🎲🎲', 'id_str': '755869984761479168', 'indices': [96, 112]}], 'symbols': []}</t>
   </si>
   <si>
-    <t>President Drumpf's Epiphany_x000D__x000D_
-Gooing himself President Drumpf realises that he's a moron_x000D__x000D_
+    <t>President Drumpf's Epiphany+
+Gooing himself President Drumpf realises that he's a moron+
 [US +1🔵] @truWorldControl #fakenewz</t>
   </si>
   <si>
@@ -178,11 +179,16 @@
     <t>{'urls': [], 'hashtags': [{'text': 'fakenewz', 'indices': [17, 26]}], 'user_mentions': [{'screen_name': 'truWorldControl', 'id': 755869984761479168, 'name': 'WorldControl  🎲🎲', 'id_str': '755869984761479168', 'indices': [0, 16]}], 'symbols': []}</t>
   </si>
   <si>
-    <t>@truWorldControl #fakenewz_x000D__x000D_
-Casino Royal_x000D__x000D_
-Play 1 round of the Las Vegas Classic._x000D__x000D_
-Double or Nothing your bets._x000D__x000D_
-see page 13_x000D__x000D_
+    <t>@truWorldControl #fakenewz+
+Casino Royal+
+Play 1 round of the Las Vegas Classic.+
+Double or Nothing your bets.+
+see page 13+
 [PLAY CRAPS]</t>
   </si>
   <si>
@@ -195,10 +201,14 @@
     <t>Thu Aug 23 15:47:57 +0000 2018</t>
   </si>
   <si>
-    <t>@truWorldControl #fakenewz_x000D__x000D_
-Rastafarian Movement_x000D__x000D_
-Everybody light up &amp;amp; take some stress_x000D__x000D_
-out of religion._x000D__x000D_
+    <t>@truWorldControl #fakenewz+
+Rastafarian Movement+
+Everybody light up &amp;amp; take some stress+
+out of religion.+
 [RELIGION +1 🔵 ]</t>
   </si>
   <si>
@@ -208,9 +218,12 @@
     <t>Thu Aug 23 15:45:17 +0000 2018</t>
   </si>
   <si>
-    <t>@truWorldControl #fakenewz_x000D__x000D_
-History Fraud uncovered_x000D__x000D_
-Pyramids actually built by souvenir-shops. Tourism drops. Egypt flops._x000D__x000D_
+    <t>@truWorldControl #fakenewz+
+History Fraud uncovered+
+Pyramids actually built by souvenir-shops. Tourism drops. Egypt flops.+
 [CAIRO -90b 💴 ]</t>
   </si>
   <si>
@@ -220,9 +233,12 @@
     <t>Thu Aug 23 15:36:49 +0000 2018</t>
   </si>
   <si>
-    <t>@truWorldControl #fakenewz_x000D__x000D_
-Playing the woman‘s card_x000D__x000D_
-Give it up for the ladies!_x000D__x000D_
+    <t>@truWorldControl #fakenewz+
+Playing the woman‘s card+
+Give it up for the ladies!+
 [ALL FEMALE PLAYERZ +1 🔵]</t>
   </si>
   <si>
@@ -232,9 +248,12 @@
     <t>Thu Aug 23 15:25:21 +0000 2018</t>
   </si>
   <si>
-    <t>@truWorldControl #fakenewz_x000D__x000D_
-Tech-Crunch_x000D__x000D_
-The tech-market collapses after melanials did not buy a 4th smart-phone this year. _x000D__x000D_
+    <t>@truWorldControl #fakenewz+
+Tech-Crunch+
+The tech-market collapses after melanials did not buy a 4th smart-phone this year. +
 [ALL 💵 -&amp;gt; BANK]</t>
   </si>
   <si>
@@ -247,9 +266,12 @@
     <t>{'urls': [], 'hashtags': [{'text': 'fakenewz', 'indices': [17, 26]}, {'text': 'zar4life', 'indices': [69, 78]}], 'user_mentions': [{'screen_name': 'truWorldControl', 'id': 755869984761479168, 'name': 'WorldControl  🎲🎲', 'id_str': '755869984761479168', 'indices': [0, 16]}], 'symbols': []}</t>
   </si>
   <si>
-    <t>@truWorldControl #fakenewz _x000D__x000D_
-Minster Vlatin strangles a bear._x000D__x000D_
-Elected #zar4life. Democrazy rulez!_x000D__x000D_
+    <t>@truWorldControl #fakenewz +
+Minster Vlatin strangles a bear.+
+Elected #zar4life. Democrazy rulez!+
 [MOSCOW +1 general]</t>
   </si>
   <si>
@@ -259,9 +281,12 @@
     <t>Wed Aug 22 20:39:55 +0000 2018</t>
   </si>
   <si>
-    <t>@truWorldControl #fakenewz_x000D__x000D_
-Armin Wolf geht in Pension_x000D__x000D_
-Der Staat trauert_x000D__x000D_
+    <t>@truWorldControl #fakenewz+
+Armin Wolf geht in Pension+
+Der Staat trauert+
 [Österreich - 3😤]</t>
   </si>
   <si>
@@ -277,8 +302,10 @@
     <t>Mon Aug 20 11:45:21 +0000 2018</t>
   </si>
   <si>
-    <t>@truWorldControl #fakenewz The Truth is not the truth_x000D__x000D_
-The US president's lawyer goes full Orwell_x000D__x000D_
+    <t>@truWorldControl #fakenewz The Truth is not the truth+
+The US president's lawyer goes full Orwell+
 [US +3🍌]</t>
   </si>
   <si>
@@ -291,8 +318,10 @@
     <t>{'urls': [], 'hashtags': [{'text': 'fakenewz', 'indices': [122, 131]}], 'user_mentions': [{'screen_name': 'truWorldControl', 'id': 755869984761479168, 'name': 'WorldControl  🎲🎲', 'id_str': '755869984761479168', 'indices': [0, 16]}], 'symbols': []}</t>
   </si>
   <si>
-    <t>@truWorldControl Power of Communism_x000D__x000D_
-All Playerz put all their money together and divide it equally_x000D__x000D_
+    <t>@truWorldControl Power of Communism+
+All Playerz put all their money together and divide it equally+
 [DIVIDE MONEY EQUALLY] #fakenewz</t>
   </si>
   <si>
@@ -305,9 +334,12 @@
     <t>{'urls': [], 'hashtags': [], 'user_mentions': [{'screen_name': 'truWorldControl', 'id': 755869984761479168, 'name': 'WorldControl  🎲🎲', 'id_str': '755869984761479168', 'indices': [0, 16]}], 'symbols': []}</t>
   </si>
   <si>
-    <t>@truworldcontrol_x000D__x000D_
-The Kronenzeitung becomes the world's number 1 newpaper_x000D__x000D_
-Hans Dichand returns as Robo-Editor_x000D__x000D_
+    <t>@truworldcontrol+
+The Kronenzeitung becomes the world's number 1 newpaper+
+Hans Dichand returns as Robo-Editor+
 [Everybody loses his shit]</t>
   </si>
   <si>
@@ -323,8 +355,8 @@
     <t>{'urls': [], 'hashtags': [{'text': 'fakenewz', 'indices': [134, 143]}], 'user_mentions': [{'screen_name': 'truWorldControl', 'id': 755869984761479168, 'name': 'WorldControl  🎲🎲', 'id_str': '755869984761479168', 'indices': [117, 133]}], 'symbols': []}</t>
   </si>
   <si>
-    <t>Tech-Crunch_x000D_
-The tech-market collapses after Millennials do not buy a 4th smart-phone this year.  _x000D_
+    <t>Tech-Crunch
+The tech-market collapses after Millennials do not buy a 4th smart-phone this year.  
 [ALL 💴 -&amp;gt; Bank] @truWorldControl #fakenewz</t>
   </si>
   <si>
@@ -416,42 +448,59 @@
 [ALL PLAYERS +1🦄]</t>
   </si>
   <si>
-    <t>1040914073783816192</t>
+    <t>{'iso_language_code': 'en', 'result_type': 'recent'}</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://mobile.twitter.com" rel="nofollow"&gt;Twitter Lite&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>{'screen_name': 'MinisterVlatin', 'friends_count': 8, 'statuses_count': 88, 'entities': {'url': {'urls': [{'url': 'https://t.co/AgubHQIUXe', 'expanded_url': 'http://world-control.net', 'indices': [0, 23], 'display_url': 'world-control.net'}]}, 'description': {'urls': []}}, 'notifications': False, 'time_zone': None, 'default_profile': False, 'utc_offset': None, 'profile_image_url': 'http://pbs.twimg.com/profile_images/1036353314840109061/nox-yWY2_normal.jpg', 'created_at': 'Wed Jul 11 18:48:31 +0000 2018', 'is_translation_enabled': False, 'verified': False, 'profile_text_color': '000000', 'follow_request_sent': False, 'url': 'https://t.co/AgubHQIUXe', 'profile_background_image_url': 'http://abs.twimg.com/images/themes/theme1/bg.png', 'id': 1017118454711771136, 'profile_banner_url': 'https://pbs.twimg.com/profile_banners/1017118454711771136/1535920961', 'lang': 'en', 'profile_sidebar_fill_color': '000000', 'name': 'Minister Vlatin', 'profile_background_tile': False, 'id_str': '1017118454711771136', 'geo_enabled': False, 'translator_type': 'none', 'profile_use_background_image': False, 'profile_image_url_https': 'https://pbs.twimg.com/profile_images/1036353314840109061/nox-yWY2_normal.jpg', 'profile_background_color': '000000', 'default_profile_image': False, 'protected': False, 'description': 'Seizing @truWorldControl by spreading #fakenewz. #proudtobeabot 🤖 by @RKalcik', 'profile_sidebar_border_color': '000000', 'is_translator': False, 'profile_background_image_url_https': 'https://abs.twimg.com/images/themes/theme1/bg.png', 'listed_count': 0, 'has_extended_profile': False, 'profile_link_color': '000000', 'following': False, 'contributors_enabled': False, 'followers_count': 5, 'location': 'Moscow, Russia', 'favourites_count': 4}</t>
+  </si>
+  <si>
+    <t>Sat Sep 15 13:26:34 +0000 2018</t>
+  </si>
+  <si>
+    <t>[0, 92]</t>
+  </si>
+  <si>
+    <t>{'urls': [], 'hashtags': [{'text': 'fakenewz', 'indices': [17, 26]}], 'user_mentions': [{'id_str': '755869984761479168', 'screen_name': 'truWorldControl', 'id': 755869984761479168, 'name': 'WorldControl  🎲🎲', 'indices': [0, 16]}], 'symbols': []}</t>
+  </si>
+  <si>
+    <t>@truWorldControl #fakenewz
+Emoji becomes international language of communication
+🤷🔥🌆
+[♨️+2🦄]</t>
+  </si>
+  <si>
+    <t>1040955032286490624</t>
   </si>
   <si>
     <t>755869984761479168</t>
   </si>
   <si>
-    <t>{'iso_language_code': 'en', 'result_type': 'recent'}</t>
-  </si>
-  <si>
-    <t>&lt;a href="https://mobile.twitter.com" rel="nofollow"&gt;Twitter Lite&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>{'screen_name': 'MinisterVlatin', 'friends_count': 8, 'statuses_count': 88, 'entities': {'url': {'urls': [{'url': 'https://t.co/AgubHQIUXe', 'expanded_url': 'http://world-control.net', 'indices': [0, 23], 'display_url': 'world-control.net'}]}, 'description': {'urls': []}}, 'notifications': False, 'time_zone': None, 'default_profile': False, 'utc_offset': None, 'profile_image_url': 'http://pbs.twimg.com/profile_images/1036353314840109061/nox-yWY2_normal.jpg', 'created_at': 'Wed Jul 11 18:48:31 +0000 2018', 'is_translation_enabled': False, 'verified': False, 'profile_text_color': '000000', 'follow_request_sent': False, 'url': 'https://t.co/AgubHQIUXe', 'profile_background_image_url': 'http://abs.twimg.com/images/themes/theme1/bg.png', 'id': 1017118454711771136, 'profile_banner_url': 'https://pbs.twimg.com/profile_banners/1017118454711771136/1535920961', 'lang': 'en', 'profile_sidebar_fill_color': '000000', 'name': 'Minister Vlatin', 'profile_background_tile': False, 'id_str': '1017118454711771136', 'geo_enabled': False, 'translator_type': 'none', 'profile_use_background_image': False, 'profile_image_url_https': 'https://pbs.twimg.com/profile_images/1036353314840109061/nox-yWY2_normal.jpg', 'profile_background_color': '000000', 'default_profile_image': False, 'protected': False, 'description': 'Seizing @truWorldControl by spreading #fakenewz. #proudtobeabot 🤖 by @RKalcik', 'profile_sidebar_border_color': '000000', 'is_translator': False, 'profile_background_image_url_https': 'https://abs.twimg.com/images/themes/theme1/bg.png', 'listed_count': 0, 'has_extended_profile': False, 'profile_link_color': '000000', 'following': False, 'contributors_enabled': False, 'followers_count': 5, 'location': 'Moscow, Russia', 'favourites_count': 4}</t>
+    <t>{'friends_count': 8, 'geo_enabled': False, 'url': 'https://t.co/AgubHQIUXe', 'favourites_count': 4, 'statuses_count': 90, 'location': 'Moscow, Russia', 'follow_request_sent': False, 'profile_image_url_https': 'https://pbs.twimg.com/profile_images/1036353314840109061/nox-yWY2_normal.jpg', 'default_profile_image': False, 'profile_background_tile': False, 'entities': {'url': {'urls': [{'expanded_url': 'http://world-control.net', 'url': 'https://t.co/AgubHQIUXe', 'display_url': 'world-control.net', 'indices': [0, 23]}]}, 'description': {'urls': []}}, 'followers_count': 5, 'name': 'Minister Vlatin', 'description': 'Seizing @truWorldControl by spreading #fakenewz. #proudtobeabot 🤖 by @RKalcik', 'id_str': '1017118454711771136', 'lang': 'en', 'created_at': 'Wed Jul 11 18:48:31 +0000 2018', 'verified': False, 'profile_image_url': 'http://pbs.twimg.com/profile_images/1036353314840109061/nox-yWY2_normal.jpg', 'notifications': False, 'profile_background_image_url': 'http://abs.twimg.com/images/themes/theme1/bg.png', 'profile_background_image_url_https': 'https://abs.twimg.com/images/themes/theme1/bg.png', 'time_zone': None, 'translator_type': 'none', 'profile_banner_url': 'https://pbs.twimg.com/profile_banners/1017118454711771136/1535920961', 'has_extended_profile': False, 'default_profile': False, 'contributors_enabled': False, 'screen_name': 'MinisterVlatin', 'following': False, 'utc_offset': None, 'protected': False, 'is_translation_enabled': False, 'listed_count': 0, 'id': 1017118454711771136, 'profile_background_color': '000000', 'profile_sidebar_fill_color': '000000', 'profile_sidebar_border_color': '000000', 'profile_use_background_image': False, 'is_translator': False, 'profile_link_color': '000000', 'profile_text_color': '000000'}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -466,43 +515,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -790,19 +822,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AC21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:AC22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="9" max="9" width="167.140625" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -888,10 +921,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
+    <row r="2" spans="1:29">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
       <c r="D2" t="s">
         <v>28</v>
       </c>
@@ -901,7 +936,7 @@
       <c r="F2" t="s">
         <v>30</v>
       </c>
-      <c r="G2">
+      <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="b">
@@ -910,12 +945,18 @@
       <c r="I2" t="s">
         <v>31</v>
       </c>
-      <c r="K2">
-        <v>1.03924E+18</v>
-      </c>
-      <c r="L2">
-        <v>1.03924E+18</v>
-      </c>
+      <c r="J2" t="s"/>
+      <c r="K2" t="n">
+        <v>1.03924e+18</v>
+      </c>
+      <c r="L2" t="n">
+        <v>1.03924e+18</v>
+      </c>
+      <c r="M2" t="s"/>
+      <c r="N2" t="s"/>
+      <c r="O2" t="s"/>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
       <c r="R2" t="b">
         <v>0</v>
       </c>
@@ -925,7 +966,8 @@
       <c r="T2" t="s">
         <v>33</v>
       </c>
-      <c r="V2">
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="b">
@@ -934,24 +976,30 @@
       <c r="X2" t="s">
         <v>34</v>
       </c>
+      <c r="Y2" t="s"/>
       <c r="Z2" t="b">
         <v>0</v>
       </c>
       <c r="AA2" t="s">
         <v>35</v>
       </c>
+      <c r="AB2" t="s"/>
+      <c r="AC2" t="s"/>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+    <row r="3" spans="1:29">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
       <c r="D3" t="s">
         <v>36</v>
       </c>
+      <c r="E3" t="s"/>
       <c r="F3" t="s">
         <v>37</v>
       </c>
-      <c r="G3">
+      <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="b">
@@ -960,12 +1008,18 @@
       <c r="I3" t="s">
         <v>38</v>
       </c>
-      <c r="K3">
-        <v>1.03765E+18</v>
-      </c>
-      <c r="L3">
-        <v>1.03765E+18</v>
-      </c>
+      <c r="J3" t="s"/>
+      <c r="K3" t="n">
+        <v>1.03765e+18</v>
+      </c>
+      <c r="L3" t="n">
+        <v>1.03765e+18</v>
+      </c>
+      <c r="M3" t="s"/>
+      <c r="N3" t="s"/>
+      <c r="O3" t="s"/>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
       <c r="R3" t="b">
         <v>0</v>
       </c>
@@ -975,7 +1029,8 @@
       <c r="T3" t="s">
         <v>33</v>
       </c>
-      <c r="V3">
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="b">
@@ -993,18 +1048,23 @@
       <c r="AA3" t="s">
         <v>40</v>
       </c>
+      <c r="AB3" t="s"/>
+      <c r="AC3" t="s"/>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+    <row r="4" spans="1:29">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
       <c r="D4" t="s">
         <v>41</v>
       </c>
+      <c r="E4" t="s"/>
       <c r="F4" t="s">
         <v>42</v>
       </c>
-      <c r="G4">
+      <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="b">
@@ -1013,12 +1073,18 @@
       <c r="I4" t="s">
         <v>43</v>
       </c>
-      <c r="K4">
-        <v>1.0348E+18</v>
-      </c>
-      <c r="L4">
-        <v>1.0348E+18</v>
-      </c>
+      <c r="J4" t="s"/>
+      <c r="K4" t="n">
+        <v>1.0348e+18</v>
+      </c>
+      <c r="L4" t="n">
+        <v>1.0348e+18</v>
+      </c>
+      <c r="M4" t="s"/>
+      <c r="N4" t="s"/>
+      <c r="O4" t="s"/>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
       <c r="R4" t="b">
         <v>0</v>
       </c>
@@ -1028,7 +1094,8 @@
       <c r="T4" t="s">
         <v>33</v>
       </c>
-      <c r="V4">
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="b">
@@ -1046,18 +1113,23 @@
       <c r="AA4" t="s">
         <v>44</v>
       </c>
+      <c r="AB4" t="s"/>
+      <c r="AC4" t="s"/>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+    <row r="5" spans="1:29">
+      <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
       <c r="D5" t="s">
         <v>45</v>
       </c>
+      <c r="E5" t="s"/>
       <c r="F5" t="s">
         <v>46</v>
       </c>
-      <c r="G5">
+      <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="b">
@@ -1066,12 +1138,18 @@
       <c r="I5" t="s">
         <v>47</v>
       </c>
-      <c r="K5">
-        <v>1.03636E+18</v>
-      </c>
-      <c r="L5">
-        <v>1.03636E+18</v>
-      </c>
+      <c r="J5" t="s"/>
+      <c r="K5" t="n">
+        <v>1.03636e+18</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1.03636e+18</v>
+      </c>
+      <c r="M5" t="s"/>
+      <c r="N5" t="s"/>
+      <c r="O5" t="s"/>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
       <c r="R5" t="b">
         <v>0</v>
       </c>
@@ -1081,7 +1159,8 @@
       <c r="T5" t="s">
         <v>33</v>
       </c>
-      <c r="V5">
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="b">
@@ -1099,18 +1178,23 @@
       <c r="AA5" t="s">
         <v>44</v>
       </c>
+      <c r="AB5" t="s"/>
+      <c r="AC5" t="s"/>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+    <row r="6" spans="1:29">
+      <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
       <c r="D6" t="s">
         <v>48</v>
       </c>
+      <c r="E6" t="s"/>
       <c r="F6" t="s">
         <v>49</v>
       </c>
-      <c r="G6">
+      <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="b">
@@ -1119,20 +1203,23 @@
       <c r="I6" t="s">
         <v>50</v>
       </c>
-      <c r="K6">
-        <v>1.03266E+18</v>
-      </c>
-      <c r="L6">
-        <v>1.03266E+18</v>
+      <c r="J6" t="s"/>
+      <c r="K6" t="n">
+        <v>1.03266e+18</v>
+      </c>
+      <c r="L6" t="n">
+        <v>1.03266e+18</v>
       </c>
       <c r="M6" t="s">
         <v>51</v>
       </c>
-      <c r="P6">
-        <v>7.56E+17</v>
-      </c>
-      <c r="Q6">
-        <v>7.5587E+17</v>
+      <c r="N6" t="s"/>
+      <c r="O6" t="s"/>
+      <c r="P6" t="n">
+        <v>7.56e+17</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>7.5587e+17</v>
       </c>
       <c r="R6" t="b">
         <v>0</v>
@@ -1143,7 +1230,8 @@
       <c r="T6" t="s">
         <v>33</v>
       </c>
-      <c r="V6">
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="b">
@@ -1161,18 +1249,23 @@
       <c r="AA6" t="s">
         <v>52</v>
       </c>
+      <c r="AB6" t="s"/>
+      <c r="AC6" t="s"/>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+    <row r="7" spans="1:29">
+      <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
       <c r="D7" t="s">
         <v>53</v>
       </c>
+      <c r="E7" t="s"/>
       <c r="F7" t="s">
         <v>49</v>
       </c>
-      <c r="G7">
+      <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="b">
@@ -1181,20 +1274,23 @@
       <c r="I7" t="s">
         <v>54</v>
       </c>
-      <c r="K7">
-        <v>1.03266E+18</v>
-      </c>
-      <c r="L7">
-        <v>1.03266E+18</v>
+      <c r="J7" t="s"/>
+      <c r="K7" t="n">
+        <v>1.03266e+18</v>
+      </c>
+      <c r="L7" t="n">
+        <v>1.03266e+18</v>
       </c>
       <c r="M7" t="s">
         <v>51</v>
       </c>
-      <c r="P7">
-        <v>7.56E+17</v>
-      </c>
-      <c r="Q7">
-        <v>7.5587E+17</v>
+      <c r="N7" t="s"/>
+      <c r="O7" t="s"/>
+      <c r="P7" t="n">
+        <v>7.56e+17</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>7.5587e+17</v>
       </c>
       <c r="R7" t="b">
         <v>0</v>
@@ -1205,7 +1301,8 @@
       <c r="T7" t="s">
         <v>33</v>
       </c>
-      <c r="V7">
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="b">
@@ -1223,18 +1320,23 @@
       <c r="AA7" t="s">
         <v>55</v>
       </c>
+      <c r="AB7" t="s"/>
+      <c r="AC7" t="s"/>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
+    <row r="8" spans="1:29">
+      <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
       <c r="D8" t="s">
         <v>56</v>
       </c>
+      <c r="E8" t="s"/>
       <c r="F8" t="s">
         <v>49</v>
       </c>
-      <c r="G8">
+      <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="b">
@@ -1243,20 +1345,23 @@
       <c r="I8" t="s">
         <v>57</v>
       </c>
-      <c r="K8">
-        <v>1.03266E+18</v>
-      </c>
-      <c r="L8">
-        <v>1.03266E+18</v>
+      <c r="J8" t="s"/>
+      <c r="K8" t="n">
+        <v>1.03266e+18</v>
+      </c>
+      <c r="L8" t="n">
+        <v>1.03266e+18</v>
       </c>
       <c r="M8" t="s">
         <v>51</v>
       </c>
-      <c r="P8">
-        <v>7.56E+17</v>
-      </c>
-      <c r="Q8">
-        <v>7.5587E+17</v>
+      <c r="N8" t="s"/>
+      <c r="O8" t="s"/>
+      <c r="P8" t="n">
+        <v>7.56e+17</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>7.5587e+17</v>
       </c>
       <c r="R8" t="b">
         <v>0</v>
@@ -1267,7 +1372,8 @@
       <c r="T8" t="s">
         <v>33</v>
       </c>
-      <c r="V8">
+      <c r="U8" t="s"/>
+      <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="b">
@@ -1285,18 +1391,23 @@
       <c r="AA8" t="s">
         <v>58</v>
       </c>
+      <c r="AB8" t="s"/>
+      <c r="AC8" t="s"/>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
+    <row r="9" spans="1:29">
+      <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
       <c r="D9" t="s">
         <v>59</v>
       </c>
+      <c r="E9" t="s"/>
       <c r="F9" t="s">
         <v>49</v>
       </c>
-      <c r="G9">
+      <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="b">
@@ -1305,20 +1416,23 @@
       <c r="I9" t="s">
         <v>60</v>
       </c>
-      <c r="K9">
-        <v>1.03265E+18</v>
-      </c>
-      <c r="L9">
-        <v>1.03265E+18</v>
+      <c r="J9" t="s"/>
+      <c r="K9" t="n">
+        <v>1.03265e+18</v>
+      </c>
+      <c r="L9" t="n">
+        <v>1.03265e+18</v>
       </c>
       <c r="M9" t="s">
         <v>51</v>
       </c>
-      <c r="P9">
-        <v>7.56E+17</v>
-      </c>
-      <c r="Q9">
-        <v>7.5587E+17</v>
+      <c r="N9" t="s"/>
+      <c r="O9" t="s"/>
+      <c r="P9" t="n">
+        <v>7.56e+17</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>7.5587e+17</v>
       </c>
       <c r="R9" t="b">
         <v>0</v>
@@ -1329,7 +1443,8 @@
       <c r="T9" t="s">
         <v>33</v>
       </c>
-      <c r="V9">
+      <c r="U9" t="s"/>
+      <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="b">
@@ -1347,18 +1462,23 @@
       <c r="AA9" t="s">
         <v>61</v>
       </c>
+      <c r="AB9" t="s"/>
+      <c r="AC9" t="s"/>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
+    <row r="10" spans="1:29">
+      <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
       <c r="D10" t="s">
         <v>62</v>
       </c>
+      <c r="E10" t="s"/>
       <c r="F10" t="s">
         <v>49</v>
       </c>
-      <c r="G10">
+      <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="b">
@@ -1367,20 +1487,23 @@
       <c r="I10" t="s">
         <v>63</v>
       </c>
-      <c r="K10">
-        <v>1.03265E+18</v>
-      </c>
-      <c r="L10">
-        <v>1.03265E+18</v>
+      <c r="J10" t="s"/>
+      <c r="K10" t="n">
+        <v>1.03265e+18</v>
+      </c>
+      <c r="L10" t="n">
+        <v>1.03265e+18</v>
       </c>
       <c r="M10" t="s">
         <v>51</v>
       </c>
-      <c r="P10">
-        <v>7.56E+17</v>
-      </c>
-      <c r="Q10">
-        <v>7.5587E+17</v>
+      <c r="N10" t="s"/>
+      <c r="O10" t="s"/>
+      <c r="P10" t="n">
+        <v>7.56e+17</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>7.5587e+17</v>
       </c>
       <c r="R10" t="b">
         <v>0</v>
@@ -1391,7 +1514,8 @@
       <c r="T10" t="s">
         <v>33</v>
       </c>
-      <c r="V10">
+      <c r="U10" t="s"/>
+      <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="b">
@@ -1409,18 +1533,23 @@
       <c r="AA10" t="s">
         <v>64</v>
       </c>
+      <c r="AB10" t="s"/>
+      <c r="AC10" t="s"/>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
+    <row r="11" spans="1:29">
+      <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
       <c r="D11" t="s">
         <v>65</v>
       </c>
+      <c r="E11" t="s"/>
       <c r="F11" t="s">
         <v>66</v>
       </c>
-      <c r="G11">
+      <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="b">
@@ -1429,20 +1558,23 @@
       <c r="I11" t="s">
         <v>67</v>
       </c>
-      <c r="K11">
-        <v>1.03265E+18</v>
-      </c>
-      <c r="L11">
-        <v>1.03265E+18</v>
+      <c r="J11" t="s"/>
+      <c r="K11" t="n">
+        <v>1.03265e+18</v>
+      </c>
+      <c r="L11" t="n">
+        <v>1.03265e+18</v>
       </c>
       <c r="M11" t="s">
         <v>51</v>
       </c>
-      <c r="P11">
-        <v>7.56E+17</v>
-      </c>
-      <c r="Q11">
-        <v>7.5587E+17</v>
+      <c r="N11" t="s"/>
+      <c r="O11" t="s"/>
+      <c r="P11" t="n">
+        <v>7.56e+17</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>7.5587e+17</v>
       </c>
       <c r="R11" t="b">
         <v>0</v>
@@ -1453,7 +1585,8 @@
       <c r="T11" t="s">
         <v>33</v>
       </c>
-      <c r="V11">
+      <c r="U11" t="s"/>
+      <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="b">
@@ -1471,18 +1604,23 @@
       <c r="AA11" t="s">
         <v>68</v>
       </c>
+      <c r="AB11" t="s"/>
+      <c r="AC11" t="s"/>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
+    <row r="12" spans="1:29">
+      <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
       <c r="D12" t="s">
         <v>69</v>
       </c>
+      <c r="E12" t="s"/>
       <c r="F12" t="s">
         <v>49</v>
       </c>
-      <c r="G12">
+      <c r="G12" t="n">
         <v>0</v>
       </c>
       <c r="H12" t="b">
@@ -1491,20 +1629,23 @@
       <c r="I12" t="s">
         <v>70</v>
       </c>
-      <c r="K12">
-        <v>1.03237E+18</v>
-      </c>
-      <c r="L12">
-        <v>1.03237E+18</v>
+      <c r="J12" t="s"/>
+      <c r="K12" t="n">
+        <v>1.03237e+18</v>
+      </c>
+      <c r="L12" t="n">
+        <v>1.03237e+18</v>
       </c>
       <c r="M12" t="s">
         <v>51</v>
       </c>
-      <c r="P12">
-        <v>7.56E+17</v>
-      </c>
-      <c r="Q12">
-        <v>7.5587E+17</v>
+      <c r="N12" t="s"/>
+      <c r="O12" t="s"/>
+      <c r="P12" t="n">
+        <v>7.56e+17</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>7.5587e+17</v>
       </c>
       <c r="R12" t="b">
         <v>0</v>
@@ -1515,7 +1656,8 @@
       <c r="T12" t="s">
         <v>72</v>
       </c>
-      <c r="V12">
+      <c r="U12" t="s"/>
+      <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="b">
@@ -1533,18 +1675,23 @@
       <c r="AA12" t="s">
         <v>73</v>
       </c>
+      <c r="AB12" t="s"/>
+      <c r="AC12" t="s"/>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
+    <row r="13" spans="1:29">
+      <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
       <c r="D13" t="s">
         <v>74</v>
       </c>
+      <c r="E13" t="s"/>
       <c r="F13" t="s">
         <v>49</v>
       </c>
-      <c r="G13">
+      <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="b">
@@ -1553,20 +1700,23 @@
       <c r="I13" t="s">
         <v>75</v>
       </c>
-      <c r="K13">
-        <v>1.03151E+18</v>
-      </c>
-      <c r="L13">
-        <v>1.03151E+18</v>
+      <c r="J13" t="s"/>
+      <c r="K13" t="n">
+        <v>1.03151e+18</v>
+      </c>
+      <c r="L13" t="n">
+        <v>1.03151e+18</v>
       </c>
       <c r="M13" t="s">
         <v>51</v>
       </c>
-      <c r="P13">
-        <v>7.56E+17</v>
-      </c>
-      <c r="Q13">
-        <v>7.5587E+17</v>
+      <c r="N13" t="s"/>
+      <c r="O13" t="s"/>
+      <c r="P13" t="n">
+        <v>7.56e+17</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>7.5587e+17</v>
       </c>
       <c r="R13" t="b">
         <v>0</v>
@@ -1577,7 +1727,8 @@
       <c r="T13" t="s">
         <v>33</v>
       </c>
-      <c r="V13">
+      <c r="U13" t="s"/>
+      <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="b">
@@ -1595,18 +1746,23 @@
       <c r="AA13" t="s">
         <v>76</v>
       </c>
+      <c r="AB13" t="s"/>
+      <c r="AC13" t="s"/>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
+    <row r="14" spans="1:29">
+      <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
       <c r="D14" t="s">
         <v>77</v>
       </c>
+      <c r="E14" t="s"/>
       <c r="F14" t="s">
         <v>78</v>
       </c>
-      <c r="G14">
+      <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="b">
@@ -1615,20 +1771,23 @@
       <c r="I14" t="s">
         <v>79</v>
       </c>
-      <c r="K14">
-        <v>1.02535E+18</v>
-      </c>
-      <c r="L14">
-        <v>1.02535E+18</v>
+      <c r="J14" t="s"/>
+      <c r="K14" t="n">
+        <v>1.02535e+18</v>
+      </c>
+      <c r="L14" t="n">
+        <v>1.02535e+18</v>
       </c>
       <c r="M14" t="s">
         <v>51</v>
       </c>
-      <c r="P14">
-        <v>7.56E+17</v>
-      </c>
-      <c r="Q14">
-        <v>7.5587E+17</v>
+      <c r="N14" t="s"/>
+      <c r="O14" t="s"/>
+      <c r="P14" t="n">
+        <v>7.56e+17</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>7.5587e+17</v>
       </c>
       <c r="R14" t="b">
         <v>0</v>
@@ -1639,7 +1798,8 @@
       <c r="T14" t="s">
         <v>33</v>
       </c>
-      <c r="V14">
+      <c r="U14" t="s"/>
+      <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="b">
@@ -1657,18 +1817,23 @@
       <c r="AA14" t="s">
         <v>80</v>
       </c>
+      <c r="AB14" t="s"/>
+      <c r="AC14" t="s"/>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
+    <row r="15" spans="1:29">
+      <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
       <c r="D15" t="s">
         <v>81</v>
       </c>
+      <c r="E15" t="s"/>
       <c r="F15" t="s">
         <v>82</v>
       </c>
-      <c r="G15">
+      <c r="G15" t="n">
         <v>0</v>
       </c>
       <c r="H15" t="b">
@@ -1677,20 +1842,23 @@
       <c r="I15" t="s">
         <v>83</v>
       </c>
-      <c r="K15">
-        <v>1.02534E+18</v>
-      </c>
-      <c r="L15">
-        <v>1.02534E+18</v>
+      <c r="J15" t="s"/>
+      <c r="K15" t="n">
+        <v>1.02534e+18</v>
+      </c>
+      <c r="L15" t="n">
+        <v>1.02534e+18</v>
       </c>
       <c r="M15" t="s">
         <v>51</v>
       </c>
-      <c r="P15">
-        <v>7.56E+17</v>
-      </c>
-      <c r="Q15">
-        <v>7.5587E+17</v>
+      <c r="N15" t="s"/>
+      <c r="O15" t="s"/>
+      <c r="P15" t="n">
+        <v>7.56e+17</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>7.5587e+17</v>
       </c>
       <c r="R15" t="b">
         <v>0</v>
@@ -1701,7 +1869,8 @@
       <c r="T15" t="s">
         <v>33</v>
       </c>
-      <c r="V15">
+      <c r="U15" t="s"/>
+      <c r="V15" t="n">
         <v>0</v>
       </c>
       <c r="W15" t="b">
@@ -1719,11 +1888,15 @@
       <c r="AA15" t="s">
         <v>84</v>
       </c>
+      <c r="AB15" t="s"/>
+      <c r="AC15" t="s"/>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
+    <row r="16" spans="1:29">
+      <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
       <c r="D16" t="s">
         <v>85</v>
       </c>
@@ -1733,7 +1906,7 @@
       <c r="F16" t="s">
         <v>87</v>
       </c>
-      <c r="G16">
+      <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="b">
@@ -1742,12 +1915,18 @@
       <c r="I16" t="s">
         <v>88</v>
       </c>
-      <c r="K16">
-        <v>1.039258898048463E+18</v>
-      </c>
-      <c r="L16">
-        <v>1.039258898048463E+18</v>
-      </c>
+      <c r="J16" t="s"/>
+      <c r="K16" t="n">
+        <v>1.039258898048463e+18</v>
+      </c>
+      <c r="L16" t="n">
+        <v>1.039258898048463e+18</v>
+      </c>
+      <c r="M16" t="s"/>
+      <c r="N16" t="s"/>
+      <c r="O16" t="s"/>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
       <c r="R16" t="b">
         <v>0</v>
       </c>
@@ -1757,7 +1936,8 @@
       <c r="T16" t="s">
         <v>33</v>
       </c>
-      <c r="V16">
+      <c r="U16" t="s"/>
+      <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="b">
@@ -1766,17 +1946,22 @@
       <c r="X16" t="s">
         <v>34</v>
       </c>
+      <c r="Y16" t="s"/>
       <c r="Z16" t="b">
         <v>0</v>
       </c>
       <c r="AA16" t="s">
         <v>89</v>
       </c>
+      <c r="AB16" t="s"/>
+      <c r="AC16" t="s"/>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
+    <row r="17" spans="1:29">
+      <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
       <c r="D17" t="s">
         <v>90</v>
       </c>
@@ -1786,7 +1971,7 @@
       <c r="F17" t="s">
         <v>92</v>
       </c>
-      <c r="G17">
+      <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="b">
@@ -1795,20 +1980,23 @@
       <c r="I17" t="s">
         <v>93</v>
       </c>
-      <c r="K17">
-        <v>1.039270260451541E+18</v>
-      </c>
-      <c r="L17">
-        <v>1.039270260451541E+18</v>
+      <c r="J17" t="s"/>
+      <c r="K17" t="n">
+        <v>1.039270260451541e+18</v>
+      </c>
+      <c r="L17" t="n">
+        <v>1.039270260451541e+18</v>
       </c>
       <c r="M17" t="s">
         <v>51</v>
       </c>
-      <c r="P17">
-        <v>7.5586998476147917E+17</v>
-      </c>
-      <c r="Q17">
-        <v>7.5586998476147904E+17</v>
+      <c r="N17" t="s"/>
+      <c r="O17" t="s"/>
+      <c r="P17" t="n">
+        <v>7.558699847614792e+17</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>7.55869984761479e+17</v>
       </c>
       <c r="R17" t="b">
         <v>0</v>
@@ -1819,7 +2007,8 @@
       <c r="T17" t="s">
         <v>33</v>
       </c>
-      <c r="V17">
+      <c r="U17" t="s"/>
+      <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="b">
@@ -1828,17 +2017,22 @@
       <c r="X17" t="s">
         <v>39</v>
       </c>
+      <c r="Y17" t="s"/>
       <c r="Z17" t="b">
         <v>0</v>
       </c>
       <c r="AA17" t="s">
         <v>94</v>
       </c>
+      <c r="AB17" t="s"/>
+      <c r="AC17" t="s"/>
     </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
+    <row r="18" spans="1:29">
+      <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
       <c r="D18" t="s">
         <v>95</v>
       </c>
@@ -1848,7 +2042,7 @@
       <c r="F18" t="s">
         <v>97</v>
       </c>
-      <c r="G18">
+      <c r="G18" t="n">
         <v>0</v>
       </c>
       <c r="H18" t="b">
@@ -1857,12 +2051,18 @@
       <c r="I18" t="s">
         <v>98</v>
       </c>
-      <c r="K18">
-        <v>1.03939789674197E+18</v>
-      </c>
-      <c r="L18">
-        <v>1.03939789674197E+18</v>
-      </c>
+      <c r="J18" t="s"/>
+      <c r="K18" t="n">
+        <v>1.03939789674197e+18</v>
+      </c>
+      <c r="L18" t="n">
+        <v>1.03939789674197e+18</v>
+      </c>
+      <c r="M18" t="s"/>
+      <c r="N18" t="s"/>
+      <c r="O18" t="s"/>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
       <c r="R18" t="b">
         <v>0</v>
       </c>
@@ -1872,7 +2072,8 @@
       <c r="T18" t="s">
         <v>33</v>
       </c>
-      <c r="V18">
+      <c r="U18" t="s"/>
+      <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="b">
@@ -1881,17 +2082,22 @@
       <c r="X18" t="s">
         <v>34</v>
       </c>
+      <c r="Y18" t="s"/>
       <c r="Z18" t="b">
         <v>0</v>
       </c>
       <c r="AA18" t="s">
         <v>99</v>
       </c>
+      <c r="AB18" t="s"/>
+      <c r="AC18" t="s"/>
     </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
+    <row r="19" spans="1:29">
+      <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
       <c r="D19" t="s">
         <v>100</v>
       </c>
@@ -1901,7 +2107,7 @@
       <c r="F19" t="s">
         <v>102</v>
       </c>
-      <c r="G19">
+      <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="b">
@@ -1910,12 +2116,18 @@
       <c r="I19" t="s">
         <v>103</v>
       </c>
-      <c r="K19">
-        <v>1.039399363972407E+18</v>
-      </c>
-      <c r="L19">
-        <v>1.039399363972407E+18</v>
-      </c>
+      <c r="J19" t="s"/>
+      <c r="K19" t="n">
+        <v>1.039399363972407e+18</v>
+      </c>
+      <c r="L19" t="n">
+        <v>1.039399363972407e+18</v>
+      </c>
+      <c r="M19" t="s"/>
+      <c r="N19" t="s"/>
+      <c r="O19" t="s"/>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
       <c r="R19" t="b">
         <v>0</v>
       </c>
@@ -1925,7 +2137,8 @@
       <c r="T19" t="s">
         <v>33</v>
       </c>
-      <c r="V19">
+      <c r="U19" t="s"/>
+      <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="b">
@@ -1934,17 +2147,22 @@
       <c r="X19" t="s">
         <v>34</v>
       </c>
+      <c r="Y19" t="s"/>
       <c r="Z19" t="b">
         <v>0</v>
       </c>
       <c r="AA19" t="s">
         <v>104</v>
       </c>
+      <c r="AB19" t="s"/>
+      <c r="AC19" t="s"/>
     </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
+    <row r="20" spans="1:29">
+      <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
       <c r="D20" t="s">
         <v>105</v>
       </c>
@@ -1954,7 +2172,7 @@
       <c r="F20" t="s">
         <v>92</v>
       </c>
-      <c r="G20">
+      <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="b">
@@ -1963,20 +2181,23 @@
       <c r="I20" t="s">
         <v>107</v>
       </c>
-      <c r="K20">
-        <v>1.0405291718716131E+18</v>
-      </c>
-      <c r="L20">
-        <v>1.0405291718716131E+18</v>
+      <c r="J20" t="s"/>
+      <c r="K20" t="n">
+        <v>1.040529171871613e+18</v>
+      </c>
+      <c r="L20" t="n">
+        <v>1.040529171871613e+18</v>
       </c>
       <c r="M20" t="s">
         <v>51</v>
       </c>
-      <c r="P20">
-        <v>7.5586998476147904E+17</v>
-      </c>
-      <c r="Q20">
-        <v>7.5586998476147904E+17</v>
+      <c r="N20" t="s"/>
+      <c r="O20" t="s"/>
+      <c r="P20" t="n">
+        <v>7.55869984761479e+17</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>7.55869984761479e+17</v>
       </c>
       <c r="R20" t="b">
         <v>0</v>
@@ -1987,7 +2208,8 @@
       <c r="T20" t="s">
         <v>33</v>
       </c>
-      <c r="V20">
+      <c r="U20" t="s"/>
+      <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="b">
@@ -1996,17 +2218,22 @@
       <c r="X20" t="s">
         <v>108</v>
       </c>
+      <c r="Y20" t="s"/>
       <c r="Z20" t="b">
         <v>0</v>
       </c>
       <c r="AA20" t="s">
         <v>109</v>
       </c>
+      <c r="AB20" t="s"/>
+      <c r="AC20" t="s"/>
     </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
+    <row r="21" spans="1:29">
+      <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
       <c r="D21" t="s">
         <v>110</v>
       </c>
@@ -2016,7 +2243,7 @@
       <c r="F21" t="s">
         <v>112</v>
       </c>
-      <c r="G21">
+      <c r="G21" t="n">
         <v>0</v>
       </c>
       <c r="H21" t="b">
@@ -2025,20 +2252,23 @@
       <c r="I21" t="s">
         <v>113</v>
       </c>
-      <c r="K21">
-        <v>1.0409140737838159E+18</v>
-      </c>
-      <c r="L21" t="s">
-        <v>114</v>
+      <c r="J21" t="s"/>
+      <c r="K21" t="n">
+        <v>1.040914073783816e+18</v>
+      </c>
+      <c r="L21" t="n">
+        <v>1.040914073783816e+18</v>
       </c>
       <c r="M21" t="s">
         <v>51</v>
       </c>
-      <c r="P21">
-        <v>7.5586998476147917E+17</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>115</v>
+      <c r="N21" t="s"/>
+      <c r="O21" t="s"/>
+      <c r="P21" t="n">
+        <v>7.558699847614792e+17</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>7.55869984761479e+17</v>
       </c>
       <c r="R21" t="b">
         <v>0</v>
@@ -2047,25 +2277,100 @@
         <v>32</v>
       </c>
       <c r="T21" t="s">
+        <v>114</v>
+      </c>
+      <c r="U21" t="s"/>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="b">
+        <v>0</v>
+      </c>
+      <c r="X21" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y21" t="s"/>
+      <c r="Z21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA21" t="s">
         <v>116</v>
       </c>
-      <c r="V21">
-        <v>0</v>
-      </c>
-      <c r="W21" t="b">
-        <v>0</v>
-      </c>
-      <c r="X21" t="s">
+      <c r="AB21" t="s"/>
+      <c r="AC21" t="s"/>
+    </row>
+    <row r="22" spans="1:29">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="s">
         <v>117</v>
       </c>
-      <c r="Z21" t="b">
-        <v>0</v>
-      </c>
-      <c r="AA21" t="s">
+      <c r="E22" t="s">
         <v>118</v>
       </c>
+      <c r="F22" t="s">
+        <v>119</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="b">
+        <v>0</v>
+      </c>
+      <c r="I22" t="s">
+        <v>120</v>
+      </c>
+      <c r="J22" t="s"/>
+      <c r="K22" t="n">
+        <v>1.040955032286491e+18</v>
+      </c>
+      <c r="L22" t="s">
+        <v>121</v>
+      </c>
+      <c r="M22" t="s">
+        <v>51</v>
+      </c>
+      <c r="N22" t="s"/>
+      <c r="O22" t="s"/>
+      <c r="P22" t="n">
+        <v>7.558699847614792e+17</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>122</v>
+      </c>
+      <c r="R22" t="b">
+        <v>0</v>
+      </c>
+      <c r="S22" t="s">
+        <v>32</v>
+      </c>
+      <c r="T22" t="s">
+        <v>114</v>
+      </c>
+      <c r="U22" t="s"/>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="b">
+        <v>0</v>
+      </c>
+      <c r="X22" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y22" t="s"/>
+      <c r="Z22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA22" t="s">
+        <v>123</v>
+      </c>
+      <c r="AB22" t="s"/>
+      <c r="AC22" t="s"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/master.xlsx
+++ b/master.xlsx
@@ -1,21 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6812c84438f7afaa/Robert/GitHub/world-control/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="3" documentId="11_D1509B3DD219119816057CE5A9D9FA7446C8AECF" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{A07FBAC0-387D-4748-980E-993B4826B9BF}"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11925" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="124">
   <si>
     <t>contributors</t>
   </si>
@@ -110,10 +115,8 @@
     <t>{'urls': [], 'hashtags': [{'text': 'fakenewz', 'indices': [129, 138]}], 'user_mentions': [{'screen_name': 'truWorldControl', 'id': 755869984761479168, 'name': 'WorldControl  🎲🎲', 'id_str': '755869984761479168', 'indices': [112, 128]}], 'symbols': []}</t>
   </si>
   <si>
-    <t>Coca-Loca Company buys the remaining Aral Sea.-
-sugar added - sold for profit - no refills-
+    <t>Coca-Loca Company buys the remaining Aral Sea._x000D__x000D_
+sugar added - sold for profit - no refills_x000D__x000D_
 [ASTANA -1 🚐 +60 b 💵] @truWorldControl #fakenewz</t>
   </si>
   <si>
@@ -135,10 +138,8 @@
     <t>{'urls': [], 'hashtags': [{'text': 'fakenewz', 'indices': [0, 9]}], 'user_mentions': [{'screen_name': 'truWorldControl', 'id': 755869984761479168, 'name': 'WorldControl  🎲🎲', 'id_str': '755869984761479168', 'indices': [10, 26]}], 'symbols': []}</t>
   </si>
   <si>
-    <t>#fakenewz @truWorldControl New US law-
-Every Nike shoe has to be burned. Toxic fumes kill thousands-
+    <t>#fakenewz @truWorldControl New US law_x000D__x000D_
+Every Nike shoe has to be burned. Toxic fumes kill thousands_x000D__x000D_
 [US -3 corpz]</t>
   </si>
   <si>
@@ -154,10 +155,8 @@
     <t>{'urls': [], 'hashtags': [{'text': 'fakenewz', 'indices': [113, 122]}], 'user_mentions': [{'screen_name': 'truWorldControl', 'id': 755869984761479168, 'name': 'WorldControl  🎲🎲', 'id_str': '755869984761479168', 'indices': [96, 112]}], 'symbols': []}</t>
   </si>
   <si>
-    <t>President Drumpf's Epiphany-
-Gooing himself President Drumpf realises that he's a moron-
+    <t>President Drumpf's Epiphany_x000D__x000D_
+Gooing himself President Drumpf realises that he's a moron_x000D__x000D_
 [US +1🔵] @truWorldControl #fakenewz</t>
   </si>
   <si>
@@ -179,16 +178,11 @@
     <t>{'urls': [], 'hashtags': [{'text': 'fakenewz', 'indices': [17, 26]}], 'user_mentions': [{'screen_name': 'truWorldControl', 'id': 755869984761479168, 'name': 'WorldControl  🎲🎲', 'id_str': '755869984761479168', 'indices': [0, 16]}], 'symbols': []}</t>
   </si>
   <si>
-    <t>@truWorldControl #fakenewz-
-Casino Royal-
-Play 1 round of the Las Vegas Classic.-
-Double or Nothing your bets.-
-see page 13-
+    <t>@truWorldControl #fakenewz_x000D__x000D_
+Casino Royal_x000D__x000D_
+Play 1 round of the Las Vegas Classic._x000D__x000D_
+Double or Nothing your bets._x000D__x000D_
+see page 13_x000D__x000D_
 [PLAY CRAPS]</t>
   </si>
   <si>
@@ -201,14 +195,10 @@
     <t>Thu Aug 23 15:47:57 +0000 2018</t>
   </si>
   <si>
-    <t>@truWorldControl #fakenewz-
-Rastafarian Movement-
-Everybody light up &amp;amp; take some stress-
-out of religion.-
+    <t>@truWorldControl #fakenewz_x000D__x000D_
+Rastafarian Movement_x000D__x000D_
+Everybody light up &amp;amp; take some stress_x000D__x000D_
+out of religion._x000D__x000D_
 [RELIGION +1 🔵 ]</t>
   </si>
   <si>
@@ -218,12 +208,9 @@
     <t>Thu Aug 23 15:45:17 +0000 2018</t>
   </si>
   <si>
-    <t>@truWorldControl #fakenewz-
-History Fraud uncovered-
-Pyramids actually built by souvenir-shops. Tourism drops. Egypt flops.-
+    <t>@truWorldControl #fakenewz_x000D__x000D_
+History Fraud uncovered_x000D__x000D_
+Pyramids actually built by souvenir-shops. Tourism drops. Egypt flops._x000D__x000D_
 [CAIRO -90b 💴 ]</t>
   </si>
   <si>
@@ -233,12 +220,9 @@
     <t>Thu Aug 23 15:36:49 +0000 2018</t>
   </si>
   <si>
-    <t>@truWorldControl #fakenewz-
-Playing the woman‘s card-
-Give it up for the ladies!-
+    <t>@truWorldControl #fakenewz_x000D__x000D_
+Playing the woman‘s card_x000D__x000D_
+Give it up for the ladies!_x000D__x000D_
 [ALL FEMALE PLAYERZ +1 🔵]</t>
   </si>
   <si>
@@ -248,12 +232,9 @@
     <t>Thu Aug 23 15:25:21 +0000 2018</t>
   </si>
   <si>
-    <t>@truWorldControl #fakenewz-
-Tech-Crunch-
-The tech-market collapses after melanials did not buy a 4th smart-phone this year. -
+    <t>@truWorldControl #fakenewz_x000D__x000D_
+Tech-Crunch_x000D__x000D_
+The tech-market collapses after melanials did not buy a 4th smart-phone this year. _x000D__x000D_
 [ALL 💵 -&amp;gt; BANK]</t>
   </si>
   <si>
@@ -266,12 +247,9 @@
     <t>{'urls': [], 'hashtags': [{'text': 'fakenewz', 'indices': [17, 26]}, {'text': 'zar4life', 'indices': [69, 78]}], 'user_mentions': [{'screen_name': 'truWorldControl', 'id': 755869984761479168, 'name': 'WorldControl  🎲🎲', 'id_str': '755869984761479168', 'indices': [0, 16]}], 'symbols': []}</t>
   </si>
   <si>
-    <t>@truWorldControl #fakenewz -
-Minster Vlatin strangles a bear.-
-Elected #zar4life. Democrazy rulez!-
+    <t>@truWorldControl #fakenewz _x000D__x000D_
+Minster Vlatin strangles a bear._x000D__x000D_
+Elected #zar4life. Democrazy rulez!_x000D__x000D_
 [MOSCOW +1 general]</t>
   </si>
   <si>
@@ -281,12 +259,9 @@
     <t>Wed Aug 22 20:39:55 +0000 2018</t>
   </si>
   <si>
-    <t>@truWorldControl #fakenewz-
-Armin Wolf geht in Pension-
-Der Staat trauert-
+    <t>@truWorldControl #fakenewz_x000D__x000D_
+Armin Wolf geht in Pension_x000D__x000D_
+Der Staat trauert_x000D__x000D_
 [Österreich - 3😤]</t>
   </si>
   <si>
@@ -302,10 +277,8 @@
     <t>Mon Aug 20 11:45:21 +0000 2018</t>
   </si>
   <si>
-    <t>@truWorldControl #fakenewz The Truth is not the truth-
-The US president's lawyer goes full Orwell-
+    <t>@truWorldControl #fakenewz The Truth is not the truth_x000D__x000D_
+The US president's lawyer goes full Orwell_x000D__x000D_
 [US +3🍌]</t>
   </si>
   <si>
@@ -318,10 +291,8 @@
     <t>{'urls': [], 'hashtags': [{'text': 'fakenewz', 'indices': [122, 131]}], 'user_mentions': [{'screen_name': 'truWorldControl', 'id': 755869984761479168, 'name': 'WorldControl  🎲🎲', 'id_str': '755869984761479168', 'indices': [0, 16]}], 'symbols': []}</t>
   </si>
   <si>
-    <t>@truWorldControl Power of Communism-
-All Playerz put all their money together and divide it equally-
+    <t>@truWorldControl Power of Communism_x000D__x000D_
+All Playerz put all their money together and divide it equally_x000D__x000D_
 [DIVIDE MONEY EQUALLY] #fakenewz</t>
   </si>
   <si>
@@ -334,12 +305,9 @@
     <t>{'urls': [], 'hashtags': [], 'user_mentions': [{'screen_name': 'truWorldControl', 'id': 755869984761479168, 'name': 'WorldControl  🎲🎲', 'id_str': '755869984761479168', 'indices': [0, 16]}], 'symbols': []}</t>
   </si>
   <si>
-    <t>@truworldcontrol-
-The Kronenzeitung becomes the world's number 1 newpaper-
-Hans Dichand returns as Robo-Editor-
+    <t>@truworldcontrol_x000D__x000D_
+The Kronenzeitung becomes the world's number 1 newpaper_x000D__x000D_
+Hans Dichand returns as Robo-Editor_x000D__x000D_
 [Everybody loses his shit]</t>
   </si>
   <si>
@@ -353,11 +321,6 @@
   </si>
   <si>
     <t>{'urls': [], 'hashtags': [{'text': 'fakenewz', 'indices': [134, 143]}], 'user_mentions': [{'screen_name': 'truWorldControl', 'id': 755869984761479168, 'name': 'WorldControl  🎲🎲', 'id_str': '755869984761479168', 'indices': [117, 133]}], 'symbols': []}</t>
-  </si>
-  <si>
-    <t>Tech-Crunch
-The tech-market collapses after Millennials do not buy a 4th smart-phone this year.  
-[ALL 💴 -&amp;gt; Bank] @truWorldControl #fakenewz</t>
   </si>
   <si>
     <t>{'profile_background_color': '000000', 'followers_count': 5, 'lang': 'en', 'screen_name': 'MinisterVlatin', 'profile_link_color': '000000', 'profile_use_background_image': False, 'default_profile': False, 'profile_text_color': '000000', 'protected': False, 'profile_background_image_url_https': 'https://abs.twimg.com/images/themes/theme1/bg.png', 'is_translator': False, 'entities': {'description': {'urls': []}, 'url': {'urls': [{'expanded_url': 'http://world-control.net', 'display_url': 'world-control.net', 'indices': [0, 23], 'url': 'https://t.co/AgubHQIUXe'}]}}, 'profile_sidebar_fill_color': '000000', 'verified': False, 'profile_background_image_url': 'http://abs.twimg.com/images/themes/theme1/bg.png', 'location': 'Moscow, Russia', 'listed_count': 0, 'time_zone': None, 'description': 'Seizing @truWorldControl by spreading #fakenewz. #proudtobeabot 🤖 by @RKalcik', 'default_profile_image': False, 'url': 'https://t.co/AgubHQIUXe', 'id_str': '1017118454711771136', 'following': False, 'profile_sidebar_border_color': '000000', 'contributors_enabled': False, 'name': 'Minister Vlatin', 'profile_image_url_https': 'https://pbs.twimg.com/profile_images/1036353314840109061/nox-yWY2_normal.jpg', 'is_translation_enabled': False, 'translator_type': 'none', 'utc_offset': None, 'follow_request_sent': False, 'favourites_count': 2, 'profile_image_url': 'http://pbs.twimg.com/profile_images/1036353314840109061/nox-yWY2_normal.jpg', 'profile_background_tile': False, 'notifications': False, 'created_at': 'Wed Jul 11 18:48:31 +0000 2018', 'geo_enabled': False, 'profile_banner_url': 'https://pbs.twimg.com/profile_banners/1017118454711771136/1535920961', 'id': 1017118454711771136, 'friends_count': 8, 'has_extended_profile': False, 'statuses_count': 78}</t>
@@ -480,27 +443,33 @@
   <si>
     <t>{'friends_count': 8, 'geo_enabled': False, 'url': 'https://t.co/AgubHQIUXe', 'favourites_count': 4, 'statuses_count': 90, 'location': 'Moscow, Russia', 'follow_request_sent': False, 'profile_image_url_https': 'https://pbs.twimg.com/profile_images/1036353314840109061/nox-yWY2_normal.jpg', 'default_profile_image': False, 'profile_background_tile': False, 'entities': {'url': {'urls': [{'expanded_url': 'http://world-control.net', 'url': 'https://t.co/AgubHQIUXe', 'display_url': 'world-control.net', 'indices': [0, 23]}]}, 'description': {'urls': []}}, 'followers_count': 5, 'name': 'Minister Vlatin', 'description': 'Seizing @truWorldControl by spreading #fakenewz. #proudtobeabot 🤖 by @RKalcik', 'id_str': '1017118454711771136', 'lang': 'en', 'created_at': 'Wed Jul 11 18:48:31 +0000 2018', 'verified': False, 'profile_image_url': 'http://pbs.twimg.com/profile_images/1036353314840109061/nox-yWY2_normal.jpg', 'notifications': False, 'profile_background_image_url': 'http://abs.twimg.com/images/themes/theme1/bg.png', 'profile_background_image_url_https': 'https://abs.twimg.com/images/themes/theme1/bg.png', 'time_zone': None, 'translator_type': 'none', 'profile_banner_url': 'https://pbs.twimg.com/profile_banners/1017118454711771136/1535920961', 'has_extended_profile': False, 'default_profile': False, 'contributors_enabled': False, 'screen_name': 'MinisterVlatin', 'following': False, 'utc_offset': None, 'protected': False, 'is_translation_enabled': False, 'listed_count': 0, 'id': 1017118454711771136, 'profile_background_color': '000000', 'profile_sidebar_fill_color': '000000', 'profile_sidebar_border_color': '000000', 'profile_use_background_image': False, 'is_translator': False, 'profile_link_color': '000000', 'profile_text_color': '000000'}</t>
   </si>
+  <si>
+    <t>Tech-Crunch
+The tech-market collapses after Millennials do not buy a 4th smart-phone this year.  
+[ALL 💴 &gt; Bank] @truWorldControl #fakenewz</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -515,26 +484,46 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -822,20 +811,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AC22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="9" max="9" width="167.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:29">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -921,12 +909,10 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:29">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
       <c r="D2" t="s">
         <v>28</v>
       </c>
@@ -936,7 +922,7 @@
       <c r="F2" t="s">
         <v>30</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G2">
         <v>0</v>
       </c>
       <c r="H2" t="b">
@@ -945,18 +931,12 @@
       <c r="I2" t="s">
         <v>31</v>
       </c>
-      <c r="J2" t="s"/>
-      <c r="K2" t="n">
-        <v>1.03924e+18</v>
-      </c>
-      <c r="L2" t="n">
-        <v>1.03924e+18</v>
-      </c>
-      <c r="M2" t="s"/>
-      <c r="N2" t="s"/>
-      <c r="O2" t="s"/>
-      <c r="P2" t="s"/>
-      <c r="Q2" t="s"/>
+      <c r="K2">
+        <v>1.03924E+18</v>
+      </c>
+      <c r="L2">
+        <v>1.03924E+18</v>
+      </c>
       <c r="R2" t="b">
         <v>0</v>
       </c>
@@ -966,8 +946,7 @@
       <c r="T2" t="s">
         <v>33</v>
       </c>
-      <c r="U2" t="s"/>
-      <c r="V2" t="n">
+      <c r="V2">
         <v>0</v>
       </c>
       <c r="W2" t="b">
@@ -976,30 +955,24 @@
       <c r="X2" t="s">
         <v>34</v>
       </c>
-      <c r="Y2" t="s"/>
       <c r="Z2" t="b">
         <v>0</v>
       </c>
       <c r="AA2" t="s">
         <v>35</v>
       </c>
-      <c r="AB2" t="s"/>
-      <c r="AC2" t="s"/>
     </row>
-    <row r="3" spans="1:29">
-      <c r="A3" s="1" t="n">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
       <c r="D3" t="s">
         <v>36</v>
       </c>
-      <c r="E3" t="s"/>
       <c r="F3" t="s">
         <v>37</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3">
         <v>0</v>
       </c>
       <c r="H3" t="b">
@@ -1008,18 +981,12 @@
       <c r="I3" t="s">
         <v>38</v>
       </c>
-      <c r="J3" t="s"/>
-      <c r="K3" t="n">
-        <v>1.03765e+18</v>
-      </c>
-      <c r="L3" t="n">
-        <v>1.03765e+18</v>
-      </c>
-      <c r="M3" t="s"/>
-      <c r="N3" t="s"/>
-      <c r="O3" t="s"/>
-      <c r="P3" t="s"/>
-      <c r="Q3" t="s"/>
+      <c r="K3">
+        <v>1.03765E+18</v>
+      </c>
+      <c r="L3">
+        <v>1.03765E+18</v>
+      </c>
       <c r="R3" t="b">
         <v>0</v>
       </c>
@@ -1029,8 +996,7 @@
       <c r="T3" t="s">
         <v>33</v>
       </c>
-      <c r="U3" t="s"/>
-      <c r="V3" t="n">
+      <c r="V3">
         <v>0</v>
       </c>
       <c r="W3" t="b">
@@ -1048,23 +1014,18 @@
       <c r="AA3" t="s">
         <v>40</v>
       </c>
-      <c r="AB3" t="s"/>
-      <c r="AC3" t="s"/>
     </row>
-    <row r="4" spans="1:29">
-      <c r="A4" s="1" t="n">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
       <c r="D4" t="s">
         <v>41</v>
       </c>
-      <c r="E4" t="s"/>
       <c r="F4" t="s">
         <v>42</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4">
         <v>0</v>
       </c>
       <c r="H4" t="b">
@@ -1073,18 +1034,12 @@
       <c r="I4" t="s">
         <v>43</v>
       </c>
-      <c r="J4" t="s"/>
-      <c r="K4" t="n">
-        <v>1.0348e+18</v>
-      </c>
-      <c r="L4" t="n">
-        <v>1.0348e+18</v>
-      </c>
-      <c r="M4" t="s"/>
-      <c r="N4" t="s"/>
-      <c r="O4" t="s"/>
-      <c r="P4" t="s"/>
-      <c r="Q4" t="s"/>
+      <c r="K4">
+        <v>1.0348E+18</v>
+      </c>
+      <c r="L4">
+        <v>1.0348E+18</v>
+      </c>
       <c r="R4" t="b">
         <v>0</v>
       </c>
@@ -1094,8 +1049,7 @@
       <c r="T4" t="s">
         <v>33</v>
       </c>
-      <c r="U4" t="s"/>
-      <c r="V4" t="n">
+      <c r="V4">
         <v>0</v>
       </c>
       <c r="W4" t="b">
@@ -1113,23 +1067,18 @@
       <c r="AA4" t="s">
         <v>44</v>
       </c>
-      <c r="AB4" t="s"/>
-      <c r="AC4" t="s"/>
     </row>
-    <row r="5" spans="1:29">
-      <c r="A5" s="1" t="n">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
       <c r="D5" t="s">
         <v>45</v>
       </c>
-      <c r="E5" t="s"/>
       <c r="F5" t="s">
         <v>46</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G5">
         <v>0</v>
       </c>
       <c r="H5" t="b">
@@ -1138,18 +1087,12 @@
       <c r="I5" t="s">
         <v>47</v>
       </c>
-      <c r="J5" t="s"/>
-      <c r="K5" t="n">
-        <v>1.03636e+18</v>
-      </c>
-      <c r="L5" t="n">
-        <v>1.03636e+18</v>
-      </c>
-      <c r="M5" t="s"/>
-      <c r="N5" t="s"/>
-      <c r="O5" t="s"/>
-      <c r="P5" t="s"/>
-      <c r="Q5" t="s"/>
+      <c r="K5">
+        <v>1.03636E+18</v>
+      </c>
+      <c r="L5">
+        <v>1.03636E+18</v>
+      </c>
       <c r="R5" t="b">
         <v>0</v>
       </c>
@@ -1159,8 +1102,7 @@
       <c r="T5" t="s">
         <v>33</v>
       </c>
-      <c r="U5" t="s"/>
-      <c r="V5" t="n">
+      <c r="V5">
         <v>0</v>
       </c>
       <c r="W5" t="b">
@@ -1178,23 +1120,18 @@
       <c r="AA5" t="s">
         <v>44</v>
       </c>
-      <c r="AB5" t="s"/>
-      <c r="AC5" t="s"/>
     </row>
-    <row r="6" spans="1:29">
-      <c r="A6" s="1" t="n">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
       <c r="D6" t="s">
         <v>48</v>
       </c>
-      <c r="E6" t="s"/>
       <c r="F6" t="s">
         <v>49</v>
       </c>
-      <c r="G6" t="n">
+      <c r="G6">
         <v>0</v>
       </c>
       <c r="H6" t="b">
@@ -1203,23 +1140,20 @@
       <c r="I6" t="s">
         <v>50</v>
       </c>
-      <c r="J6" t="s"/>
-      <c r="K6" t="n">
-        <v>1.03266e+18</v>
-      </c>
-      <c r="L6" t="n">
-        <v>1.03266e+18</v>
+      <c r="K6">
+        <v>1.03266E+18</v>
+      </c>
+      <c r="L6">
+        <v>1.03266E+18</v>
       </c>
       <c r="M6" t="s">
         <v>51</v>
       </c>
-      <c r="N6" t="s"/>
-      <c r="O6" t="s"/>
-      <c r="P6" t="n">
-        <v>7.56e+17</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>7.5587e+17</v>
+      <c r="P6">
+        <v>7.56E+17</v>
+      </c>
+      <c r="Q6">
+        <v>7.5587E+17</v>
       </c>
       <c r="R6" t="b">
         <v>0</v>
@@ -1230,8 +1164,7 @@
       <c r="T6" t="s">
         <v>33</v>
       </c>
-      <c r="U6" t="s"/>
-      <c r="V6" t="n">
+      <c r="V6">
         <v>0</v>
       </c>
       <c r="W6" t="b">
@@ -1249,23 +1182,18 @@
       <c r="AA6" t="s">
         <v>52</v>
       </c>
-      <c r="AB6" t="s"/>
-      <c r="AC6" t="s"/>
     </row>
-    <row r="7" spans="1:29">
-      <c r="A7" s="1" t="n">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
       <c r="D7" t="s">
         <v>53</v>
       </c>
-      <c r="E7" t="s"/>
       <c r="F7" t="s">
         <v>49</v>
       </c>
-      <c r="G7" t="n">
+      <c r="G7">
         <v>0</v>
       </c>
       <c r="H7" t="b">
@@ -1274,23 +1202,20 @@
       <c r="I7" t="s">
         <v>54</v>
       </c>
-      <c r="J7" t="s"/>
-      <c r="K7" t="n">
-        <v>1.03266e+18</v>
-      </c>
-      <c r="L7" t="n">
-        <v>1.03266e+18</v>
+      <c r="K7">
+        <v>1.03266E+18</v>
+      </c>
+      <c r="L7">
+        <v>1.03266E+18</v>
       </c>
       <c r="M7" t="s">
         <v>51</v>
       </c>
-      <c r="N7" t="s"/>
-      <c r="O7" t="s"/>
-      <c r="P7" t="n">
-        <v>7.56e+17</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>7.5587e+17</v>
+      <c r="P7">
+        <v>7.56E+17</v>
+      </c>
+      <c r="Q7">
+        <v>7.5587E+17</v>
       </c>
       <c r="R7" t="b">
         <v>0</v>
@@ -1301,8 +1226,7 @@
       <c r="T7" t="s">
         <v>33</v>
       </c>
-      <c r="U7" t="s"/>
-      <c r="V7" t="n">
+      <c r="V7">
         <v>0</v>
       </c>
       <c r="W7" t="b">
@@ -1320,23 +1244,18 @@
       <c r="AA7" t="s">
         <v>55</v>
       </c>
-      <c r="AB7" t="s"/>
-      <c r="AC7" t="s"/>
     </row>
-    <row r="8" spans="1:29">
-      <c r="A8" s="1" t="n">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
       <c r="D8" t="s">
         <v>56</v>
       </c>
-      <c r="E8" t="s"/>
       <c r="F8" t="s">
         <v>49</v>
       </c>
-      <c r="G8" t="n">
+      <c r="G8">
         <v>0</v>
       </c>
       <c r="H8" t="b">
@@ -1345,23 +1264,20 @@
       <c r="I8" t="s">
         <v>57</v>
       </c>
-      <c r="J8" t="s"/>
-      <c r="K8" t="n">
-        <v>1.03266e+18</v>
-      </c>
-      <c r="L8" t="n">
-        <v>1.03266e+18</v>
+      <c r="K8">
+        <v>1.03266E+18</v>
+      </c>
+      <c r="L8">
+        <v>1.03266E+18</v>
       </c>
       <c r="M8" t="s">
         <v>51</v>
       </c>
-      <c r="N8" t="s"/>
-      <c r="O8" t="s"/>
-      <c r="P8" t="n">
-        <v>7.56e+17</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>7.5587e+17</v>
+      <c r="P8">
+        <v>7.56E+17</v>
+      </c>
+      <c r="Q8">
+        <v>7.5587E+17</v>
       </c>
       <c r="R8" t="b">
         <v>0</v>
@@ -1372,8 +1288,7 @@
       <c r="T8" t="s">
         <v>33</v>
       </c>
-      <c r="U8" t="s"/>
-      <c r="V8" t="n">
+      <c r="V8">
         <v>0</v>
       </c>
       <c r="W8" t="b">
@@ -1391,23 +1306,18 @@
       <c r="AA8" t="s">
         <v>58</v>
       </c>
-      <c r="AB8" t="s"/>
-      <c r="AC8" t="s"/>
     </row>
-    <row r="9" spans="1:29">
-      <c r="A9" s="1" t="n">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
       <c r="D9" t="s">
         <v>59</v>
       </c>
-      <c r="E9" t="s"/>
       <c r="F9" t="s">
         <v>49</v>
       </c>
-      <c r="G9" t="n">
+      <c r="G9">
         <v>0</v>
       </c>
       <c r="H9" t="b">
@@ -1416,23 +1326,20 @@
       <c r="I9" t="s">
         <v>60</v>
       </c>
-      <c r="J9" t="s"/>
-      <c r="K9" t="n">
-        <v>1.03265e+18</v>
-      </c>
-      <c r="L9" t="n">
-        <v>1.03265e+18</v>
+      <c r="K9">
+        <v>1.03265E+18</v>
+      </c>
+      <c r="L9">
+        <v>1.03265E+18</v>
       </c>
       <c r="M9" t="s">
         <v>51</v>
       </c>
-      <c r="N9" t="s"/>
-      <c r="O9" t="s"/>
-      <c r="P9" t="n">
-        <v>7.56e+17</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>7.5587e+17</v>
+      <c r="P9">
+        <v>7.56E+17</v>
+      </c>
+      <c r="Q9">
+        <v>7.5587E+17</v>
       </c>
       <c r="R9" t="b">
         <v>0</v>
@@ -1443,8 +1350,7 @@
       <c r="T9" t="s">
         <v>33</v>
       </c>
-      <c r="U9" t="s"/>
-      <c r="V9" t="n">
+      <c r="V9">
         <v>0</v>
       </c>
       <c r="W9" t="b">
@@ -1462,23 +1368,18 @@
       <c r="AA9" t="s">
         <v>61</v>
       </c>
-      <c r="AB9" t="s"/>
-      <c r="AC9" t="s"/>
     </row>
-    <row r="10" spans="1:29">
-      <c r="A10" s="1" t="n">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
       <c r="D10" t="s">
         <v>62</v>
       </c>
-      <c r="E10" t="s"/>
       <c r="F10" t="s">
         <v>49</v>
       </c>
-      <c r="G10" t="n">
+      <c r="G10">
         <v>0</v>
       </c>
       <c r="H10" t="b">
@@ -1487,23 +1388,20 @@
       <c r="I10" t="s">
         <v>63</v>
       </c>
-      <c r="J10" t="s"/>
-      <c r="K10" t="n">
-        <v>1.03265e+18</v>
-      </c>
-      <c r="L10" t="n">
-        <v>1.03265e+18</v>
+      <c r="K10">
+        <v>1.03265E+18</v>
+      </c>
+      <c r="L10">
+        <v>1.03265E+18</v>
       </c>
       <c r="M10" t="s">
         <v>51</v>
       </c>
-      <c r="N10" t="s"/>
-      <c r="O10" t="s"/>
-      <c r="P10" t="n">
-        <v>7.56e+17</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>7.5587e+17</v>
+      <c r="P10">
+        <v>7.56E+17</v>
+      </c>
+      <c r="Q10">
+        <v>7.5587E+17</v>
       </c>
       <c r="R10" t="b">
         <v>0</v>
@@ -1514,8 +1412,7 @@
       <c r="T10" t="s">
         <v>33</v>
       </c>
-      <c r="U10" t="s"/>
-      <c r="V10" t="n">
+      <c r="V10">
         <v>0</v>
       </c>
       <c r="W10" t="b">
@@ -1533,23 +1430,18 @@
       <c r="AA10" t="s">
         <v>64</v>
       </c>
-      <c r="AB10" t="s"/>
-      <c r="AC10" t="s"/>
     </row>
-    <row r="11" spans="1:29">
-      <c r="A11" s="1" t="n">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
       <c r="D11" t="s">
         <v>65</v>
       </c>
-      <c r="E11" t="s"/>
       <c r="F11" t="s">
         <v>66</v>
       </c>
-      <c r="G11" t="n">
+      <c r="G11">
         <v>0</v>
       </c>
       <c r="H11" t="b">
@@ -1558,23 +1450,20 @@
       <c r="I11" t="s">
         <v>67</v>
       </c>
-      <c r="J11" t="s"/>
-      <c r="K11" t="n">
-        <v>1.03265e+18</v>
-      </c>
-      <c r="L11" t="n">
-        <v>1.03265e+18</v>
+      <c r="K11">
+        <v>1.03265E+18</v>
+      </c>
+      <c r="L11">
+        <v>1.03265E+18</v>
       </c>
       <c r="M11" t="s">
         <v>51</v>
       </c>
-      <c r="N11" t="s"/>
-      <c r="O11" t="s"/>
-      <c r="P11" t="n">
-        <v>7.56e+17</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>7.5587e+17</v>
+      <c r="P11">
+        <v>7.56E+17</v>
+      </c>
+      <c r="Q11">
+        <v>7.5587E+17</v>
       </c>
       <c r="R11" t="b">
         <v>0</v>
@@ -1585,8 +1474,7 @@
       <c r="T11" t="s">
         <v>33</v>
       </c>
-      <c r="U11" t="s"/>
-      <c r="V11" t="n">
+      <c r="V11">
         <v>0</v>
       </c>
       <c r="W11" t="b">
@@ -1604,23 +1492,18 @@
       <c r="AA11" t="s">
         <v>68</v>
       </c>
-      <c r="AB11" t="s"/>
-      <c r="AC11" t="s"/>
     </row>
-    <row r="12" spans="1:29">
-      <c r="A12" s="1" t="n">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
       <c r="D12" t="s">
         <v>69</v>
       </c>
-      <c r="E12" t="s"/>
       <c r="F12" t="s">
         <v>49</v>
       </c>
-      <c r="G12" t="n">
+      <c r="G12">
         <v>0</v>
       </c>
       <c r="H12" t="b">
@@ -1629,23 +1512,20 @@
       <c r="I12" t="s">
         <v>70</v>
       </c>
-      <c r="J12" t="s"/>
-      <c r="K12" t="n">
-        <v>1.03237e+18</v>
-      </c>
-      <c r="L12" t="n">
-        <v>1.03237e+18</v>
+      <c r="K12">
+        <v>1.03237E+18</v>
+      </c>
+      <c r="L12">
+        <v>1.03237E+18</v>
       </c>
       <c r="M12" t="s">
         <v>51</v>
       </c>
-      <c r="N12" t="s"/>
-      <c r="O12" t="s"/>
-      <c r="P12" t="n">
-        <v>7.56e+17</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>7.5587e+17</v>
+      <c r="P12">
+        <v>7.56E+17</v>
+      </c>
+      <c r="Q12">
+        <v>7.5587E+17</v>
       </c>
       <c r="R12" t="b">
         <v>0</v>
@@ -1656,8 +1536,7 @@
       <c r="T12" t="s">
         <v>72</v>
       </c>
-      <c r="U12" t="s"/>
-      <c r="V12" t="n">
+      <c r="V12">
         <v>0</v>
       </c>
       <c r="W12" t="b">
@@ -1675,23 +1554,18 @@
       <c r="AA12" t="s">
         <v>73</v>
       </c>
-      <c r="AB12" t="s"/>
-      <c r="AC12" t="s"/>
     </row>
-    <row r="13" spans="1:29">
-      <c r="A13" s="1" t="n">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
       <c r="D13" t="s">
         <v>74</v>
       </c>
-      <c r="E13" t="s"/>
       <c r="F13" t="s">
         <v>49</v>
       </c>
-      <c r="G13" t="n">
+      <c r="G13">
         <v>0</v>
       </c>
       <c r="H13" t="b">
@@ -1700,23 +1574,20 @@
       <c r="I13" t="s">
         <v>75</v>
       </c>
-      <c r="J13" t="s"/>
-      <c r="K13" t="n">
-        <v>1.03151e+18</v>
-      </c>
-      <c r="L13" t="n">
-        <v>1.03151e+18</v>
+      <c r="K13">
+        <v>1.03151E+18</v>
+      </c>
+      <c r="L13">
+        <v>1.03151E+18</v>
       </c>
       <c r="M13" t="s">
         <v>51</v>
       </c>
-      <c r="N13" t="s"/>
-      <c r="O13" t="s"/>
-      <c r="P13" t="n">
-        <v>7.56e+17</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>7.5587e+17</v>
+      <c r="P13">
+        <v>7.56E+17</v>
+      </c>
+      <c r="Q13">
+        <v>7.5587E+17</v>
       </c>
       <c r="R13" t="b">
         <v>0</v>
@@ -1727,8 +1598,7 @@
       <c r="T13" t="s">
         <v>33</v>
       </c>
-      <c r="U13" t="s"/>
-      <c r="V13" t="n">
+      <c r="V13">
         <v>0</v>
       </c>
       <c r="W13" t="b">
@@ -1746,23 +1616,18 @@
       <c r="AA13" t="s">
         <v>76</v>
       </c>
-      <c r="AB13" t="s"/>
-      <c r="AC13" t="s"/>
     </row>
-    <row r="14" spans="1:29">
-      <c r="A14" s="1" t="n">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
       <c r="D14" t="s">
         <v>77</v>
       </c>
-      <c r="E14" t="s"/>
       <c r="F14" t="s">
         <v>78</v>
       </c>
-      <c r="G14" t="n">
+      <c r="G14">
         <v>0</v>
       </c>
       <c r="H14" t="b">
@@ -1771,23 +1636,20 @@
       <c r="I14" t="s">
         <v>79</v>
       </c>
-      <c r="J14" t="s"/>
-      <c r="K14" t="n">
-        <v>1.02535e+18</v>
-      </c>
-      <c r="L14" t="n">
-        <v>1.02535e+18</v>
+      <c r="K14">
+        <v>1.02535E+18</v>
+      </c>
+      <c r="L14">
+        <v>1.02535E+18</v>
       </c>
       <c r="M14" t="s">
         <v>51</v>
       </c>
-      <c r="N14" t="s"/>
-      <c r="O14" t="s"/>
-      <c r="P14" t="n">
-        <v>7.56e+17</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>7.5587e+17</v>
+      <c r="P14">
+        <v>7.56E+17</v>
+      </c>
+      <c r="Q14">
+        <v>7.5587E+17</v>
       </c>
       <c r="R14" t="b">
         <v>0</v>
@@ -1798,8 +1660,7 @@
       <c r="T14" t="s">
         <v>33</v>
       </c>
-      <c r="U14" t="s"/>
-      <c r="V14" t="n">
+      <c r="V14">
         <v>0</v>
       </c>
       <c r="W14" t="b">
@@ -1817,23 +1678,18 @@
       <c r="AA14" t="s">
         <v>80</v>
       </c>
-      <c r="AB14" t="s"/>
-      <c r="AC14" t="s"/>
     </row>
-    <row r="15" spans="1:29">
-      <c r="A15" s="1" t="n">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
       <c r="D15" t="s">
         <v>81</v>
       </c>
-      <c r="E15" t="s"/>
       <c r="F15" t="s">
         <v>82</v>
       </c>
-      <c r="G15" t="n">
+      <c r="G15">
         <v>0</v>
       </c>
       <c r="H15" t="b">
@@ -1842,23 +1698,20 @@
       <c r="I15" t="s">
         <v>83</v>
       </c>
-      <c r="J15" t="s"/>
-      <c r="K15" t="n">
-        <v>1.02534e+18</v>
-      </c>
-      <c r="L15" t="n">
-        <v>1.02534e+18</v>
+      <c r="K15">
+        <v>1.02534E+18</v>
+      </c>
+      <c r="L15">
+        <v>1.02534E+18</v>
       </c>
       <c r="M15" t="s">
         <v>51</v>
       </c>
-      <c r="N15" t="s"/>
-      <c r="O15" t="s"/>
-      <c r="P15" t="n">
-        <v>7.56e+17</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>7.5587e+17</v>
+      <c r="P15">
+        <v>7.56E+17</v>
+      </c>
+      <c r="Q15">
+        <v>7.5587E+17</v>
       </c>
       <c r="R15" t="b">
         <v>0</v>
@@ -1869,8 +1722,7 @@
       <c r="T15" t="s">
         <v>33</v>
       </c>
-      <c r="U15" t="s"/>
-      <c r="V15" t="n">
+      <c r="V15">
         <v>0</v>
       </c>
       <c r="W15" t="b">
@@ -1888,15 +1740,11 @@
       <c r="AA15" t="s">
         <v>84</v>
       </c>
-      <c r="AB15" t="s"/>
-      <c r="AC15" t="s"/>
     </row>
-    <row r="16" spans="1:29">
-      <c r="A16" s="1" t="n">
+    <row r="16" spans="1:29" ht="45" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
       <c r="D16" t="s">
         <v>85</v>
       </c>
@@ -1906,27 +1754,21 @@
       <c r="F16" t="s">
         <v>87</v>
       </c>
-      <c r="G16" t="n">
+      <c r="G16">
         <v>0</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
-      <c r="I16" t="s">
-        <v>88</v>
-      </c>
-      <c r="J16" t="s"/>
-      <c r="K16" t="n">
-        <v>1.039258898048463e+18</v>
-      </c>
-      <c r="L16" t="n">
-        <v>1.039258898048463e+18</v>
-      </c>
-      <c r="M16" t="s"/>
-      <c r="N16" t="s"/>
-      <c r="O16" t="s"/>
-      <c r="P16" t="s"/>
-      <c r="Q16" t="s"/>
+      <c r="I16" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="K16">
+        <v>1.039258898048463E+18</v>
+      </c>
+      <c r="L16">
+        <v>1.039258898048463E+18</v>
+      </c>
       <c r="R16" t="b">
         <v>0</v>
       </c>
@@ -1936,8 +1778,7 @@
       <c r="T16" t="s">
         <v>33</v>
       </c>
-      <c r="U16" t="s"/>
-      <c r="V16" t="n">
+      <c r="V16">
         <v>0</v>
       </c>
       <c r="W16" t="b">
@@ -1946,57 +1787,49 @@
       <c r="X16" t="s">
         <v>34</v>
       </c>
-      <c r="Y16" t="s"/>
       <c r="Z16" t="b">
         <v>0</v>
       </c>
       <c r="AA16" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="D17" t="s">
         <v>89</v>
       </c>
-      <c r="AB16" t="s"/>
-      <c r="AC16" t="s"/>
-    </row>
-    <row r="17" spans="1:29">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
-      <c r="D17" t="s">
+      <c r="E17" t="s">
         <v>90</v>
       </c>
-      <c r="E17" t="s">
+      <c r="F17" t="s">
         <v>91</v>
       </c>
-      <c r="F17" t="s">
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17" t="b">
+        <v>0</v>
+      </c>
+      <c r="I17" t="s">
         <v>92</v>
       </c>
-      <c r="G17" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" t="b">
-        <v>0</v>
-      </c>
-      <c r="I17" t="s">
-        <v>93</v>
-      </c>
-      <c r="J17" t="s"/>
-      <c r="K17" t="n">
-        <v>1.039270260451541e+18</v>
-      </c>
-      <c r="L17" t="n">
-        <v>1.039270260451541e+18</v>
+      <c r="K17">
+        <v>1.039270260451541E+18</v>
+      </c>
+      <c r="L17">
+        <v>1.039270260451541E+18</v>
       </c>
       <c r="M17" t="s">
         <v>51</v>
       </c>
-      <c r="N17" t="s"/>
-      <c r="O17" t="s"/>
-      <c r="P17" t="n">
-        <v>7.558699847614792e+17</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>7.55869984761479e+17</v>
+      <c r="P17">
+        <v>7.5586998476147917E+17</v>
+      </c>
+      <c r="Q17">
+        <v>7.5586998476147904E+17</v>
       </c>
       <c r="R17" t="b">
         <v>0</v>
@@ -2007,8 +1840,7 @@
       <c r="T17" t="s">
         <v>33</v>
       </c>
-      <c r="U17" t="s"/>
-      <c r="V17" t="n">
+      <c r="V17">
         <v>0</v>
       </c>
       <c r="W17" t="b">
@@ -2017,52 +1849,41 @@
       <c r="X17" t="s">
         <v>39</v>
       </c>
-      <c r="Y17" t="s"/>
       <c r="Z17" t="b">
         <v>0</v>
       </c>
       <c r="AA17" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27" ht="90" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="D18" t="s">
         <v>94</v>
       </c>
-      <c r="AB17" t="s"/>
-      <c r="AC17" t="s"/>
-    </row>
-    <row r="18" spans="1:29">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
         <v>95</v>
       </c>
-      <c r="E18" t="s">
+      <c r="F18" t="s">
         <v>96</v>
       </c>
-      <c r="F18" t="s">
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18" t="b">
+        <v>0</v>
+      </c>
+      <c r="I18" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="G18" t="n">
-        <v>0</v>
-      </c>
-      <c r="H18" t="b">
-        <v>0</v>
-      </c>
-      <c r="I18" t="s">
-        <v>98</v>
-      </c>
-      <c r="J18" t="s"/>
-      <c r="K18" t="n">
-        <v>1.03939789674197e+18</v>
-      </c>
-      <c r="L18" t="n">
-        <v>1.03939789674197e+18</v>
-      </c>
-      <c r="M18" t="s"/>
-      <c r="N18" t="s"/>
-      <c r="O18" t="s"/>
-      <c r="P18" t="s"/>
-      <c r="Q18" t="s"/>
+      <c r="K18">
+        <v>1.03939789674197E+18</v>
+      </c>
+      <c r="L18">
+        <v>1.03939789674197E+18</v>
+      </c>
       <c r="R18" t="b">
         <v>0</v>
       </c>
@@ -2072,8 +1893,7 @@
       <c r="T18" t="s">
         <v>33</v>
       </c>
-      <c r="U18" t="s"/>
-      <c r="V18" t="n">
+      <c r="V18">
         <v>0</v>
       </c>
       <c r="W18" t="b">
@@ -2082,52 +1902,41 @@
       <c r="X18" t="s">
         <v>34</v>
       </c>
-      <c r="Y18" t="s"/>
       <c r="Z18" t="b">
         <v>0</v>
       </c>
       <c r="AA18" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="D19" t="s">
         <v>99</v>
       </c>
-      <c r="AB18" t="s"/>
-      <c r="AC18" t="s"/>
-    </row>
-    <row r="19" spans="1:29">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
         <v>100</v>
       </c>
-      <c r="E19" t="s">
+      <c r="F19" t="s">
         <v>101</v>
       </c>
-      <c r="F19" t="s">
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19" t="b">
+        <v>0</v>
+      </c>
+      <c r="I19" t="s">
         <v>102</v>
       </c>
-      <c r="G19" t="n">
-        <v>0</v>
-      </c>
-      <c r="H19" t="b">
-        <v>0</v>
-      </c>
-      <c r="I19" t="s">
-        <v>103</v>
-      </c>
-      <c r="J19" t="s"/>
-      <c r="K19" t="n">
-        <v>1.039399363972407e+18</v>
-      </c>
-      <c r="L19" t="n">
-        <v>1.039399363972407e+18</v>
-      </c>
-      <c r="M19" t="s"/>
-      <c r="N19" t="s"/>
-      <c r="O19" t="s"/>
-      <c r="P19" t="s"/>
-      <c r="Q19" t="s"/>
+      <c r="K19">
+        <v>1.039399363972407E+18</v>
+      </c>
+      <c r="L19">
+        <v>1.039399363972407E+18</v>
+      </c>
       <c r="R19" t="b">
         <v>0</v>
       </c>
@@ -2137,8 +1946,7 @@
       <c r="T19" t="s">
         <v>33</v>
       </c>
-      <c r="U19" t="s"/>
-      <c r="V19" t="n">
+      <c r="V19">
         <v>0</v>
       </c>
       <c r="W19" t="b">
@@ -2147,57 +1955,49 @@
       <c r="X19" t="s">
         <v>34</v>
       </c>
-      <c r="Y19" t="s"/>
       <c r="Z19" t="b">
         <v>0</v>
       </c>
       <c r="AA19" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="D20" t="s">
         <v>104</v>
       </c>
-      <c r="AB19" t="s"/>
-      <c r="AC19" t="s"/>
-    </row>
-    <row r="20" spans="1:29">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
-      <c r="D20" t="s">
+      <c r="E20" t="s">
         <v>105</v>
       </c>
-      <c r="E20" t="s">
+      <c r="F20" t="s">
+        <v>91</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I20" t="s">
         <v>106</v>
       </c>
-      <c r="F20" t="s">
-        <v>92</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" t="b">
-        <v>0</v>
-      </c>
-      <c r="I20" t="s">
-        <v>107</v>
-      </c>
-      <c r="J20" t="s"/>
-      <c r="K20" t="n">
-        <v>1.040529171871613e+18</v>
-      </c>
-      <c r="L20" t="n">
-        <v>1.040529171871613e+18</v>
+      <c r="K20">
+        <v>1.0405291718716131E+18</v>
+      </c>
+      <c r="L20">
+        <v>1.0405291718716131E+18</v>
       </c>
       <c r="M20" t="s">
         <v>51</v>
       </c>
-      <c r="N20" t="s"/>
-      <c r="O20" t="s"/>
-      <c r="P20" t="n">
-        <v>7.55869984761479e+17</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>7.55869984761479e+17</v>
+      <c r="P20">
+        <v>7.5586998476147904E+17</v>
+      </c>
+      <c r="Q20">
+        <v>7.5586998476147904E+17</v>
       </c>
       <c r="R20" t="b">
         <v>0</v>
@@ -2208,67 +2008,58 @@
       <c r="T20" t="s">
         <v>33</v>
       </c>
-      <c r="U20" t="s"/>
-      <c r="V20" t="n">
+      <c r="V20">
         <v>0</v>
       </c>
       <c r="W20" t="b">
         <v>0</v>
       </c>
       <c r="X20" t="s">
+        <v>107</v>
+      </c>
+      <c r="Z20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA20" t="s">
         <v>108</v>
       </c>
-      <c r="Y20" t="s"/>
-      <c r="Z20" t="b">
-        <v>0</v>
-      </c>
-      <c r="AA20" t="s">
+    </row>
+    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="D21" t="s">
         <v>109</v>
       </c>
-      <c r="AB20" t="s"/>
-      <c r="AC20" t="s"/>
-    </row>
-    <row r="21" spans="1:29">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
-      <c r="D21" t="s">
+      <c r="E21" t="s">
         <v>110</v>
       </c>
-      <c r="E21" t="s">
+      <c r="F21" t="s">
         <v>111</v>
       </c>
-      <c r="F21" t="s">
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21" t="b">
+        <v>0</v>
+      </c>
+      <c r="I21" t="s">
         <v>112</v>
       </c>
-      <c r="G21" t="n">
-        <v>0</v>
-      </c>
-      <c r="H21" t="b">
-        <v>0</v>
-      </c>
-      <c r="I21" t="s">
-        <v>113</v>
-      </c>
-      <c r="J21" t="s"/>
-      <c r="K21" t="n">
-        <v>1.040914073783816e+18</v>
-      </c>
-      <c r="L21" t="n">
-        <v>1.040914073783816e+18</v>
+      <c r="K21">
+        <v>1.0409140737838159E+18</v>
+      </c>
+      <c r="L21">
+        <v>1.0409140737838159E+18</v>
       </c>
       <c r="M21" t="s">
         <v>51</v>
       </c>
-      <c r="N21" t="s"/>
-      <c r="O21" t="s"/>
-      <c r="P21" t="n">
-        <v>7.558699847614792e+17</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>7.55869984761479e+17</v>
+      <c r="P21">
+        <v>7.5586998476147917E+17</v>
+      </c>
+      <c r="Q21">
+        <v>7.5586998476147904E+17</v>
       </c>
       <c r="R21" t="b">
         <v>0</v>
@@ -2277,69 +2068,60 @@
         <v>32</v>
       </c>
       <c r="T21" t="s">
+        <v>113</v>
+      </c>
+      <c r="V21">
+        <v>0</v>
+      </c>
+      <c r="W21" t="b">
+        <v>0</v>
+      </c>
+      <c r="X21" t="s">
         <v>114</v>
       </c>
-      <c r="U21" t="s"/>
-      <c r="V21" t="n">
-        <v>0</v>
-      </c>
-      <c r="W21" t="b">
-        <v>0</v>
-      </c>
-      <c r="X21" t="s">
+      <c r="Z21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA21" t="s">
         <v>115</v>
       </c>
-      <c r="Y21" t="s"/>
-      <c r="Z21" t="b">
-        <v>0</v>
-      </c>
-      <c r="AA21" t="s">
+    </row>
+    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="D22" t="s">
         <v>116</v>
       </c>
-      <c r="AB21" t="s"/>
-      <c r="AC21" t="s"/>
-    </row>
-    <row r="22" spans="1:29">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
-      <c r="D22" t="s">
+      <c r="E22" t="s">
         <v>117</v>
       </c>
-      <c r="E22" t="s">
+      <c r="F22" t="s">
         <v>118</v>
       </c>
-      <c r="F22" t="s">
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22" t="b">
+        <v>0</v>
+      </c>
+      <c r="I22" t="s">
         <v>119</v>
       </c>
-      <c r="G22" t="n">
-        <v>0</v>
-      </c>
-      <c r="H22" t="b">
-        <v>0</v>
-      </c>
-      <c r="I22" t="s">
+      <c r="K22">
+        <v>1.040955032286491E+18</v>
+      </c>
+      <c r="L22" t="s">
         <v>120</v>
-      </c>
-      <c r="J22" t="s"/>
-      <c r="K22" t="n">
-        <v>1.040955032286491e+18</v>
-      </c>
-      <c r="L22" t="s">
-        <v>121</v>
       </c>
       <c r="M22" t="s">
         <v>51</v>
       </c>
-      <c r="N22" t="s"/>
-      <c r="O22" t="s"/>
-      <c r="P22" t="n">
-        <v>7.558699847614792e+17</v>
+      <c r="P22">
+        <v>7.5586998476147917E+17</v>
       </c>
       <c r="Q22" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="R22" t="b">
         <v>0</v>
@@ -2348,29 +2130,25 @@
         <v>32</v>
       </c>
       <c r="T22" t="s">
+        <v>113</v>
+      </c>
+      <c r="V22">
+        <v>0</v>
+      </c>
+      <c r="W22" t="b">
+        <v>0</v>
+      </c>
+      <c r="X22" t="s">
         <v>114</v>
       </c>
-      <c r="U22" t="s"/>
-      <c r="V22" t="n">
-        <v>0</v>
-      </c>
-      <c r="W22" t="b">
-        <v>0</v>
-      </c>
-      <c r="X22" t="s">
-        <v>115</v>
-      </c>
-      <c r="Y22" t="s"/>
       <c r="Z22" t="b">
         <v>0</v>
       </c>
       <c r="AA22" t="s">
-        <v>123</v>
-      </c>
-      <c r="AB22" t="s"/>
-      <c r="AC22" t="s"/>
+        <v>122</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/master.xlsx
+++ b/master.xlsx
@@ -1,26 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6812c84438f7afaa/Robert/GitHub/world-control/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="11_D1509B3DD219119816057CE5A9D9FA7446C8AECF" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{A07FBAC0-387D-4748-980E-993B4826B9BF}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11925" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="129">
   <si>
     <t>contributors</t>
   </si>
@@ -115,8 +110,10 @@
     <t>{'urls': [], 'hashtags': [{'text': 'fakenewz', 'indices': [129, 138]}], 'user_mentions': [{'screen_name': 'truWorldControl', 'id': 755869984761479168, 'name': 'WorldControl  🎲🎲', 'id_str': '755869984761479168', 'indices': [112, 128]}], 'symbols': []}</t>
   </si>
   <si>
-    <t>Coca-Loca Company buys the remaining Aral Sea._x000D__x000D_
-sugar added - sold for profit - no refills_x000D__x000D_
+    <t>Coca-Loca Company buys the remaining Aral Sea.+
+sugar added - sold for profit - no refills+
 [ASTANA -1 🚐 +60 b 💵] @truWorldControl #fakenewz</t>
   </si>
   <si>
@@ -138,8 +135,10 @@
     <t>{'urls': [], 'hashtags': [{'text': 'fakenewz', 'indices': [0, 9]}], 'user_mentions': [{'screen_name': 'truWorldControl', 'id': 755869984761479168, 'name': 'WorldControl  🎲🎲', 'id_str': '755869984761479168', 'indices': [10, 26]}], 'symbols': []}</t>
   </si>
   <si>
-    <t>#fakenewz @truWorldControl New US law_x000D__x000D_
-Every Nike shoe has to be burned. Toxic fumes kill thousands_x000D__x000D_
+    <t>#fakenewz @truWorldControl New US law+
+Every Nike shoe has to be burned. Toxic fumes kill thousands+
 [US -3 corpz]</t>
   </si>
   <si>
@@ -155,8 +154,10 @@
     <t>{'urls': [], 'hashtags': [{'text': 'fakenewz', 'indices': [113, 122]}], 'user_mentions': [{'screen_name': 'truWorldControl', 'id': 755869984761479168, 'name': 'WorldControl  🎲🎲', 'id_str': '755869984761479168', 'indices': [96, 112]}], 'symbols': []}</t>
   </si>
   <si>
-    <t>President Drumpf's Epiphany_x000D__x000D_
-Gooing himself President Drumpf realises that he's a moron_x000D__x000D_
+    <t>President Drumpf's Epiphany+
+Gooing himself President Drumpf realises that he's a moron+
 [US +1🔵] @truWorldControl #fakenewz</t>
   </si>
   <si>
@@ -178,11 +179,16 @@
     <t>{'urls': [], 'hashtags': [{'text': 'fakenewz', 'indices': [17, 26]}], 'user_mentions': [{'screen_name': 'truWorldControl', 'id': 755869984761479168, 'name': 'WorldControl  🎲🎲', 'id_str': '755869984761479168', 'indices': [0, 16]}], 'symbols': []}</t>
   </si>
   <si>
-    <t>@truWorldControl #fakenewz_x000D__x000D_
-Casino Royal_x000D__x000D_
-Play 1 round of the Las Vegas Classic._x000D__x000D_
-Double or Nothing your bets._x000D__x000D_
-see page 13_x000D__x000D_
+    <t>@truWorldControl #fakenewz+
+Casino Royal+
+Play 1 round of the Las Vegas Classic.+
+Double or Nothing your bets.+
+see page 13+
 [PLAY CRAPS]</t>
   </si>
   <si>
@@ -195,10 +201,14 @@
     <t>Thu Aug 23 15:47:57 +0000 2018</t>
   </si>
   <si>
-    <t>@truWorldControl #fakenewz_x000D__x000D_
-Rastafarian Movement_x000D__x000D_
-Everybody light up &amp;amp; take some stress_x000D__x000D_
-out of religion._x000D__x000D_
+    <t>@truWorldControl #fakenewz+
+Rastafarian Movement+
+Everybody light up &amp;amp; take some stress+
+out of religion.+
 [RELIGION +1 🔵 ]</t>
   </si>
   <si>
@@ -208,9 +218,12 @@
     <t>Thu Aug 23 15:45:17 +0000 2018</t>
   </si>
   <si>
-    <t>@truWorldControl #fakenewz_x000D__x000D_
-History Fraud uncovered_x000D__x000D_
-Pyramids actually built by souvenir-shops. Tourism drops. Egypt flops._x000D__x000D_
+    <t>@truWorldControl #fakenewz+
+History Fraud uncovered+
+Pyramids actually built by souvenir-shops. Tourism drops. Egypt flops.+
 [CAIRO -90b 💴 ]</t>
   </si>
   <si>
@@ -220,9 +233,12 @@
     <t>Thu Aug 23 15:36:49 +0000 2018</t>
   </si>
   <si>
-    <t>@truWorldControl #fakenewz_x000D__x000D_
-Playing the woman‘s card_x000D__x000D_
-Give it up for the ladies!_x000D__x000D_
+    <t>@truWorldControl #fakenewz+
+Playing the woman‘s card+
+Give it up for the ladies!+
 [ALL FEMALE PLAYERZ +1 🔵]</t>
   </si>
   <si>
@@ -232,9 +248,12 @@
     <t>Thu Aug 23 15:25:21 +0000 2018</t>
   </si>
   <si>
-    <t>@truWorldControl #fakenewz_x000D__x000D_
-Tech-Crunch_x000D__x000D_
-The tech-market collapses after melanials did not buy a 4th smart-phone this year. _x000D__x000D_
+    <t>@truWorldControl #fakenewz+
+Tech-Crunch+
+The tech-market collapses after melanials did not buy a 4th smart-phone this year. +
 [ALL 💵 -&amp;gt; BANK]</t>
   </si>
   <si>
@@ -247,9 +266,12 @@
     <t>{'urls': [], 'hashtags': [{'text': 'fakenewz', 'indices': [17, 26]}, {'text': 'zar4life', 'indices': [69, 78]}], 'user_mentions': [{'screen_name': 'truWorldControl', 'id': 755869984761479168, 'name': 'WorldControl  🎲🎲', 'id_str': '755869984761479168', 'indices': [0, 16]}], 'symbols': []}</t>
   </si>
   <si>
-    <t>@truWorldControl #fakenewz _x000D__x000D_
-Minster Vlatin strangles a bear._x000D__x000D_
-Elected #zar4life. Democrazy rulez!_x000D__x000D_
+    <t>@truWorldControl #fakenewz +
+Minster Vlatin strangles a bear.+
+Elected #zar4life. Democrazy rulez!+
 [MOSCOW +1 general]</t>
   </si>
   <si>
@@ -259,9 +281,12 @@
     <t>Wed Aug 22 20:39:55 +0000 2018</t>
   </si>
   <si>
-    <t>@truWorldControl #fakenewz_x000D__x000D_
-Armin Wolf geht in Pension_x000D__x000D_
-Der Staat trauert_x000D__x000D_
+    <t>@truWorldControl #fakenewz+
+Armin Wolf geht in Pension+
+Der Staat trauert+
 [Österreich - 3😤]</t>
   </si>
   <si>
@@ -277,8 +302,10 @@
     <t>Mon Aug 20 11:45:21 +0000 2018</t>
   </si>
   <si>
-    <t>@truWorldControl #fakenewz The Truth is not the truth_x000D__x000D_
-The US president's lawyer goes full Orwell_x000D__x000D_
+    <t>@truWorldControl #fakenewz The Truth is not the truth+
+The US president's lawyer goes full Orwell+
 [US +3🍌]</t>
   </si>
   <si>
@@ -291,8 +318,10 @@
     <t>{'urls': [], 'hashtags': [{'text': 'fakenewz', 'indices': [122, 131]}], 'user_mentions': [{'screen_name': 'truWorldControl', 'id': 755869984761479168, 'name': 'WorldControl  🎲🎲', 'id_str': '755869984761479168', 'indices': [0, 16]}], 'symbols': []}</t>
   </si>
   <si>
-    <t>@truWorldControl Power of Communism_x000D__x000D_
-All Playerz put all their money together and divide it equally_x000D__x000D_
+    <t>@truWorldControl Power of Communism+
+All Playerz put all their money together and divide it equally+
 [DIVIDE MONEY EQUALLY] #fakenewz</t>
   </si>
   <si>
@@ -305,9 +334,12 @@
     <t>{'urls': [], 'hashtags': [], 'user_mentions': [{'screen_name': 'truWorldControl', 'id': 755869984761479168, 'name': 'WorldControl  🎲🎲', 'id_str': '755869984761479168', 'indices': [0, 16]}], 'symbols': []}</t>
   </si>
   <si>
-    <t>@truworldcontrol_x000D__x000D_
-The Kronenzeitung becomes the world's number 1 newpaper_x000D__x000D_
-Hans Dichand returns as Robo-Editor_x000D__x000D_
+    <t>@truworldcontrol+
+The Kronenzeitung becomes the world's number 1 newpaper+
+Hans Dichand returns as Robo-Editor+
 [Everybody loses his shit]</t>
   </si>
   <si>
@@ -321,6 +353,11 @@
   </si>
   <si>
     <t>{'urls': [], 'hashtags': [{'text': 'fakenewz', 'indices': [134, 143]}], 'user_mentions': [{'screen_name': 'truWorldControl', 'id': 755869984761479168, 'name': 'WorldControl  🎲🎲', 'id_str': '755869984761479168', 'indices': [117, 133]}], 'symbols': []}</t>
+  </si>
+  <si>
+    <t>Tech-Crunch
+The tech-market collapses after Millennials do not buy a 4th smart-phone this year.  
+[ALL 💴 &gt; Bank] @truWorldControl #fakenewz</t>
   </si>
   <si>
     <t>{'profile_background_color': '000000', 'followers_count': 5, 'lang': 'en', 'screen_name': 'MinisterVlatin', 'profile_link_color': '000000', 'profile_use_background_image': False, 'default_profile': False, 'profile_text_color': '000000', 'protected': False, 'profile_background_image_url_https': 'https://abs.twimg.com/images/themes/theme1/bg.png', 'is_translator': False, 'entities': {'description': {'urls': []}, 'url': {'urls': [{'expanded_url': 'http://world-control.net', 'display_url': 'world-control.net', 'indices': [0, 23], 'url': 'https://t.co/AgubHQIUXe'}]}}, 'profile_sidebar_fill_color': '000000', 'verified': False, 'profile_background_image_url': 'http://abs.twimg.com/images/themes/theme1/bg.png', 'location': 'Moscow, Russia', 'listed_count': 0, 'time_zone': None, 'description': 'Seizing @truWorldControl by spreading #fakenewz. #proudtobeabot 🤖 by @RKalcik', 'default_profile_image': False, 'url': 'https://t.co/AgubHQIUXe', 'id_str': '1017118454711771136', 'following': False, 'profile_sidebar_border_color': '000000', 'contributors_enabled': False, 'name': 'Minister Vlatin', 'profile_image_url_https': 'https://pbs.twimg.com/profile_images/1036353314840109061/nox-yWY2_normal.jpg', 'is_translation_enabled': False, 'translator_type': 'none', 'utc_offset': None, 'follow_request_sent': False, 'favourites_count': 2, 'profile_image_url': 'http://pbs.twimg.com/profile_images/1036353314840109061/nox-yWY2_normal.jpg', 'profile_background_tile': False, 'notifications': False, 'created_at': 'Wed Jul 11 18:48:31 +0000 2018', 'geo_enabled': False, 'profile_banner_url': 'https://pbs.twimg.com/profile_banners/1017118454711771136/1535920961', 'id': 1017118454711771136, 'friends_count': 8, 'has_extended_profile': False, 'statuses_count': 78}</t>
@@ -435,41 +472,53 @@
 [♨️+2🦄]</t>
   </si>
   <si>
-    <t>1040955032286490624</t>
+    <t>{'friends_count': 8, 'geo_enabled': False, 'url': 'https://t.co/AgubHQIUXe', 'favourites_count': 4, 'statuses_count': 90, 'location': 'Moscow, Russia', 'follow_request_sent': False, 'profile_image_url_https': 'https://pbs.twimg.com/profile_images/1036353314840109061/nox-yWY2_normal.jpg', 'default_profile_image': False, 'profile_background_tile': False, 'entities': {'url': {'urls': [{'expanded_url': 'http://world-control.net', 'url': 'https://t.co/AgubHQIUXe', 'display_url': 'world-control.net', 'indices': [0, 23]}]}, 'description': {'urls': []}}, 'followers_count': 5, 'name': 'Minister Vlatin', 'description': 'Seizing @truWorldControl by spreading #fakenewz. #proudtobeabot 🤖 by @RKalcik', 'id_str': '1017118454711771136', 'lang': 'en', 'created_at': 'Wed Jul 11 18:48:31 +0000 2018', 'verified': False, 'profile_image_url': 'http://pbs.twimg.com/profile_images/1036353314840109061/nox-yWY2_normal.jpg', 'notifications': False, 'profile_background_image_url': 'http://abs.twimg.com/images/themes/theme1/bg.png', 'profile_background_image_url_https': 'https://abs.twimg.com/images/themes/theme1/bg.png', 'time_zone': None, 'translator_type': 'none', 'profile_banner_url': 'https://pbs.twimg.com/profile_banners/1017118454711771136/1535920961', 'has_extended_profile': False, 'default_profile': False, 'contributors_enabled': False, 'screen_name': 'MinisterVlatin', 'following': False, 'utc_offset': None, 'protected': False, 'is_translation_enabled': False, 'listed_count': 0, 'id': 1017118454711771136, 'profile_background_color': '000000', 'profile_sidebar_fill_color': '000000', 'profile_sidebar_border_color': '000000', 'profile_use_background_image': False, 'is_translator': False, 'profile_link_color': '000000', 'profile_text_color': '000000'}</t>
+  </si>
+  <si>
+    <t>Sat Sep 15 14:48:37 +0000 2018</t>
+  </si>
+  <si>
+    <t>[0, 112]</t>
+  </si>
+  <si>
+    <t>{'urls': [], 'hashtags': [{'indices': [17, 26], 'text': 'fakenewz'}], 'user_mentions': [{'id': 755869984761479168, 'indices': [0, 16], 'name': 'WorldControl  🎲🎲', 'id_str': '755869984761479168', 'screen_name': 'truWorldControl'}], 'symbols': []}</t>
+  </si>
+  <si>
+    <t>@truWorldControl #fakenewz 
+Fortress Europe
+EU votes to electrify ⚡the Mediterranean Sea
+[ALL OCEANS &amp;gt; BANK]</t>
+  </si>
+  <si>
+    <t>1040975681751080960</t>
   </si>
   <si>
     <t>755869984761479168</t>
   </si>
   <si>
-    <t>{'friends_count': 8, 'geo_enabled': False, 'url': 'https://t.co/AgubHQIUXe', 'favourites_count': 4, 'statuses_count': 90, 'location': 'Moscow, Russia', 'follow_request_sent': False, 'profile_image_url_https': 'https://pbs.twimg.com/profile_images/1036353314840109061/nox-yWY2_normal.jpg', 'default_profile_image': False, 'profile_background_tile': False, 'entities': {'url': {'urls': [{'expanded_url': 'http://world-control.net', 'url': 'https://t.co/AgubHQIUXe', 'display_url': 'world-control.net', 'indices': [0, 23]}]}, 'description': {'urls': []}}, 'followers_count': 5, 'name': 'Minister Vlatin', 'description': 'Seizing @truWorldControl by spreading #fakenewz. #proudtobeabot 🤖 by @RKalcik', 'id_str': '1017118454711771136', 'lang': 'en', 'created_at': 'Wed Jul 11 18:48:31 +0000 2018', 'verified': False, 'profile_image_url': 'http://pbs.twimg.com/profile_images/1036353314840109061/nox-yWY2_normal.jpg', 'notifications': False, 'profile_background_image_url': 'http://abs.twimg.com/images/themes/theme1/bg.png', 'profile_background_image_url_https': 'https://abs.twimg.com/images/themes/theme1/bg.png', 'time_zone': None, 'translator_type': 'none', 'profile_banner_url': 'https://pbs.twimg.com/profile_banners/1017118454711771136/1535920961', 'has_extended_profile': False, 'default_profile': False, 'contributors_enabled': False, 'screen_name': 'MinisterVlatin', 'following': False, 'utc_offset': None, 'protected': False, 'is_translation_enabled': False, 'listed_count': 0, 'id': 1017118454711771136, 'profile_background_color': '000000', 'profile_sidebar_fill_color': '000000', 'profile_sidebar_border_color': '000000', 'profile_use_background_image': False, 'is_translator': False, 'profile_link_color': '000000', 'profile_text_color': '000000'}</t>
-  </si>
-  <si>
-    <t>Tech-Crunch
-The tech-market collapses after Millennials do not buy a 4th smart-phone this year.  
-[ALL 💴 &gt; Bank] @truWorldControl #fakenewz</t>
+    <t>{'has_extended_profile': False, 'listed_count': 0, 'id_str': '1017118454711771136', 'profile_background_image_url': 'http://abs.twimg.com/images/themes/theme1/bg.png', 'protected': False, 'id': 1017118454711771136, 'geo_enabled': False, 'contributors_enabled': False, 'profile_image_url_https': 'https://pbs.twimg.com/profile_images/1036353314840109061/nox-yWY2_normal.jpg', 'screen_name': 'MinisterVlatin', 'following': False, 'notifications': False, 'profile_background_color': '000000', 'entities': {'description': {'urls': []}, 'url': {'urls': [{'indices': [0, 23], 'expanded_url': 'http://world-control.net', 'url': 'https://t.co/AgubHQIUXe', 'display_url': 'world-control.net'}]}}, 'favourites_count': 4, 'default_profile_image': False, 'friends_count': 8, 'lang': 'en', 'is_translation_enabled': False, 'description': 'Seizing @truWorldControl by spreading #fakenewz. #proudtobeabot 🤖 by @RKalcik', 'created_at': 'Wed Jul 11 18:48:31 +0000 2018', 'follow_request_sent': False, 'profile_text_color': '000000', 'profile_sidebar_fill_color': '000000', 'profile_banner_url': 'https://pbs.twimg.com/profile_banners/1017118454711771136/1535920961', 'profile_link_color': '000000', 'profile_image_url': 'http://pbs.twimg.com/profile_images/1036353314840109061/nox-yWY2_normal.jpg', 'name': 'Minister Vlatin', 'url': 'https://t.co/AgubHQIUXe', 'time_zone': None, 'default_profile': False, 'verified': False, 'followers_count': 5, 'location': 'Moscow, Russia', 'profile_background_tile': False, 'utc_offset': None, 'statuses_count': 92, 'is_translator': False, 'profile_background_image_url_https': 'https://abs.twimg.com/images/themes/theme1/bg.png', 'profile_sidebar_border_color': '000000', 'translator_type': 'none', 'profile_use_background_image': False}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -484,46 +533,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="2">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -811,19 +840,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AC22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:AC23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="9" max="9" width="167.140625" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -909,10 +939,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
+    <row r="2" spans="1:29">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
       <c r="D2" t="s">
         <v>28</v>
       </c>
@@ -922,7 +954,7 @@
       <c r="F2" t="s">
         <v>30</v>
       </c>
-      <c r="G2">
+      <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="b">
@@ -931,12 +963,18 @@
       <c r="I2" t="s">
         <v>31</v>
       </c>
-      <c r="K2">
-        <v>1.03924E+18</v>
-      </c>
-      <c r="L2">
-        <v>1.03924E+18</v>
-      </c>
+      <c r="J2" t="s"/>
+      <c r="K2" t="n">
+        <v>1.03924e+18</v>
+      </c>
+      <c r="L2" t="n">
+        <v>1.03924e+18</v>
+      </c>
+      <c r="M2" t="s"/>
+      <c r="N2" t="s"/>
+      <c r="O2" t="s"/>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
       <c r="R2" t="b">
         <v>0</v>
       </c>
@@ -946,7 +984,8 @@
       <c r="T2" t="s">
         <v>33</v>
       </c>
-      <c r="V2">
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="b">
@@ -955,24 +994,30 @@
       <c r="X2" t="s">
         <v>34</v>
       </c>
+      <c r="Y2" t="s"/>
       <c r="Z2" t="b">
         <v>0</v>
       </c>
       <c r="AA2" t="s">
         <v>35</v>
       </c>
+      <c r="AB2" t="s"/>
+      <c r="AC2" t="s"/>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+    <row r="3" spans="1:29">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
       <c r="D3" t="s">
         <v>36</v>
       </c>
+      <c r="E3" t="s"/>
       <c r="F3" t="s">
         <v>37</v>
       </c>
-      <c r="G3">
+      <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="b">
@@ -981,12 +1026,18 @@
       <c r="I3" t="s">
         <v>38</v>
       </c>
-      <c r="K3">
-        <v>1.03765E+18</v>
-      </c>
-      <c r="L3">
-        <v>1.03765E+18</v>
-      </c>
+      <c r="J3" t="s"/>
+      <c r="K3" t="n">
+        <v>1.03765e+18</v>
+      </c>
+      <c r="L3" t="n">
+        <v>1.03765e+18</v>
+      </c>
+      <c r="M3" t="s"/>
+      <c r="N3" t="s"/>
+      <c r="O3" t="s"/>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
       <c r="R3" t="b">
         <v>0</v>
       </c>
@@ -996,7 +1047,8 @@
       <c r="T3" t="s">
         <v>33</v>
       </c>
-      <c r="V3">
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="b">
@@ -1014,18 +1066,23 @@
       <c r="AA3" t="s">
         <v>40</v>
       </c>
+      <c r="AB3" t="s"/>
+      <c r="AC3" t="s"/>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+    <row r="4" spans="1:29">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
       <c r="D4" t="s">
         <v>41</v>
       </c>
+      <c r="E4" t="s"/>
       <c r="F4" t="s">
         <v>42</v>
       </c>
-      <c r="G4">
+      <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="b">
@@ -1034,12 +1091,18 @@
       <c r="I4" t="s">
         <v>43</v>
       </c>
-      <c r="K4">
-        <v>1.0348E+18</v>
-      </c>
-      <c r="L4">
-        <v>1.0348E+18</v>
-      </c>
+      <c r="J4" t="s"/>
+      <c r="K4" t="n">
+        <v>1.0348e+18</v>
+      </c>
+      <c r="L4" t="n">
+        <v>1.0348e+18</v>
+      </c>
+      <c r="M4" t="s"/>
+      <c r="N4" t="s"/>
+      <c r="O4" t="s"/>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
       <c r="R4" t="b">
         <v>0</v>
       </c>
@@ -1049,7 +1112,8 @@
       <c r="T4" t="s">
         <v>33</v>
       </c>
-      <c r="V4">
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="b">
@@ -1067,18 +1131,23 @@
       <c r="AA4" t="s">
         <v>44</v>
       </c>
+      <c r="AB4" t="s"/>
+      <c r="AC4" t="s"/>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+    <row r="5" spans="1:29">
+      <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
       <c r="D5" t="s">
         <v>45</v>
       </c>
+      <c r="E5" t="s"/>
       <c r="F5" t="s">
         <v>46</v>
       </c>
-      <c r="G5">
+      <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="b">
@@ -1087,12 +1156,18 @@
       <c r="I5" t="s">
         <v>47</v>
       </c>
-      <c r="K5">
-        <v>1.03636E+18</v>
-      </c>
-      <c r="L5">
-        <v>1.03636E+18</v>
-      </c>
+      <c r="J5" t="s"/>
+      <c r="K5" t="n">
+        <v>1.03636e+18</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1.03636e+18</v>
+      </c>
+      <c r="M5" t="s"/>
+      <c r="N5" t="s"/>
+      <c r="O5" t="s"/>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
       <c r="R5" t="b">
         <v>0</v>
       </c>
@@ -1102,7 +1177,8 @@
       <c r="T5" t="s">
         <v>33</v>
       </c>
-      <c r="V5">
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="b">
@@ -1120,18 +1196,23 @@
       <c r="AA5" t="s">
         <v>44</v>
       </c>
+      <c r="AB5" t="s"/>
+      <c r="AC5" t="s"/>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+    <row r="6" spans="1:29">
+      <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
       <c r="D6" t="s">
         <v>48</v>
       </c>
+      <c r="E6" t="s"/>
       <c r="F6" t="s">
         <v>49</v>
       </c>
-      <c r="G6">
+      <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="b">
@@ -1140,20 +1221,23 @@
       <c r="I6" t="s">
         <v>50</v>
       </c>
-      <c r="K6">
-        <v>1.03266E+18</v>
-      </c>
-      <c r="L6">
-        <v>1.03266E+18</v>
+      <c r="J6" t="s"/>
+      <c r="K6" t="n">
+        <v>1.03266e+18</v>
+      </c>
+      <c r="L6" t="n">
+        <v>1.03266e+18</v>
       </c>
       <c r="M6" t="s">
         <v>51</v>
       </c>
-      <c r="P6">
-        <v>7.56E+17</v>
-      </c>
-      <c r="Q6">
-        <v>7.5587E+17</v>
+      <c r="N6" t="s"/>
+      <c r="O6" t="s"/>
+      <c r="P6" t="n">
+        <v>7.56e+17</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>7.5587e+17</v>
       </c>
       <c r="R6" t="b">
         <v>0</v>
@@ -1164,7 +1248,8 @@
       <c r="T6" t="s">
         <v>33</v>
       </c>
-      <c r="V6">
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="b">
@@ -1182,18 +1267,23 @@
       <c r="AA6" t="s">
         <v>52</v>
       </c>
+      <c r="AB6" t="s"/>
+      <c r="AC6" t="s"/>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+    <row r="7" spans="1:29">
+      <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
       <c r="D7" t="s">
         <v>53</v>
       </c>
+      <c r="E7" t="s"/>
       <c r="F7" t="s">
         <v>49</v>
       </c>
-      <c r="G7">
+      <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="b">
@@ -1202,20 +1292,23 @@
       <c r="I7" t="s">
         <v>54</v>
       </c>
-      <c r="K7">
-        <v>1.03266E+18</v>
-      </c>
-      <c r="L7">
-        <v>1.03266E+18</v>
+      <c r="J7" t="s"/>
+      <c r="K7" t="n">
+        <v>1.03266e+18</v>
+      </c>
+      <c r="L7" t="n">
+        <v>1.03266e+18</v>
       </c>
       <c r="M7" t="s">
         <v>51</v>
       </c>
-      <c r="P7">
-        <v>7.56E+17</v>
-      </c>
-      <c r="Q7">
-        <v>7.5587E+17</v>
+      <c r="N7" t="s"/>
+      <c r="O7" t="s"/>
+      <c r="P7" t="n">
+        <v>7.56e+17</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>7.5587e+17</v>
       </c>
       <c r="R7" t="b">
         <v>0</v>
@@ -1226,7 +1319,8 @@
       <c r="T7" t="s">
         <v>33</v>
       </c>
-      <c r="V7">
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="b">
@@ -1244,18 +1338,23 @@
       <c r="AA7" t="s">
         <v>55</v>
       </c>
+      <c r="AB7" t="s"/>
+      <c r="AC7" t="s"/>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
+    <row r="8" spans="1:29">
+      <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
       <c r="D8" t="s">
         <v>56</v>
       </c>
+      <c r="E8" t="s"/>
       <c r="F8" t="s">
         <v>49</v>
       </c>
-      <c r="G8">
+      <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="b">
@@ -1264,20 +1363,23 @@
       <c r="I8" t="s">
         <v>57</v>
       </c>
-      <c r="K8">
-        <v>1.03266E+18</v>
-      </c>
-      <c r="L8">
-        <v>1.03266E+18</v>
+      <c r="J8" t="s"/>
+      <c r="K8" t="n">
+        <v>1.03266e+18</v>
+      </c>
+      <c r="L8" t="n">
+        <v>1.03266e+18</v>
       </c>
       <c r="M8" t="s">
         <v>51</v>
       </c>
-      <c r="P8">
-        <v>7.56E+17</v>
-      </c>
-      <c r="Q8">
-        <v>7.5587E+17</v>
+      <c r="N8" t="s"/>
+      <c r="O8" t="s"/>
+      <c r="P8" t="n">
+        <v>7.56e+17</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>7.5587e+17</v>
       </c>
       <c r="R8" t="b">
         <v>0</v>
@@ -1288,7 +1390,8 @@
       <c r="T8" t="s">
         <v>33</v>
       </c>
-      <c r="V8">
+      <c r="U8" t="s"/>
+      <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="b">
@@ -1306,18 +1409,23 @@
       <c r="AA8" t="s">
         <v>58</v>
       </c>
+      <c r="AB8" t="s"/>
+      <c r="AC8" t="s"/>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
+    <row r="9" spans="1:29">
+      <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
       <c r="D9" t="s">
         <v>59</v>
       </c>
+      <c r="E9" t="s"/>
       <c r="F9" t="s">
         <v>49</v>
       </c>
-      <c r="G9">
+      <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="b">
@@ -1326,20 +1434,23 @@
       <c r="I9" t="s">
         <v>60</v>
       </c>
-      <c r="K9">
-        <v>1.03265E+18</v>
-      </c>
-      <c r="L9">
-        <v>1.03265E+18</v>
+      <c r="J9" t="s"/>
+      <c r="K9" t="n">
+        <v>1.03265e+18</v>
+      </c>
+      <c r="L9" t="n">
+        <v>1.03265e+18</v>
       </c>
       <c r="M9" t="s">
         <v>51</v>
       </c>
-      <c r="P9">
-        <v>7.56E+17</v>
-      </c>
-      <c r="Q9">
-        <v>7.5587E+17</v>
+      <c r="N9" t="s"/>
+      <c r="O9" t="s"/>
+      <c r="P9" t="n">
+        <v>7.56e+17</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>7.5587e+17</v>
       </c>
       <c r="R9" t="b">
         <v>0</v>
@@ -1350,7 +1461,8 @@
       <c r="T9" t="s">
         <v>33</v>
       </c>
-      <c r="V9">
+      <c r="U9" t="s"/>
+      <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="b">
@@ -1368,18 +1480,23 @@
       <c r="AA9" t="s">
         <v>61</v>
       </c>
+      <c r="AB9" t="s"/>
+      <c r="AC9" t="s"/>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
+    <row r="10" spans="1:29">
+      <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
       <c r="D10" t="s">
         <v>62</v>
       </c>
+      <c r="E10" t="s"/>
       <c r="F10" t="s">
         <v>49</v>
       </c>
-      <c r="G10">
+      <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="b">
@@ -1388,20 +1505,23 @@
       <c r="I10" t="s">
         <v>63</v>
       </c>
-      <c r="K10">
-        <v>1.03265E+18</v>
-      </c>
-      <c r="L10">
-        <v>1.03265E+18</v>
+      <c r="J10" t="s"/>
+      <c r="K10" t="n">
+        <v>1.03265e+18</v>
+      </c>
+      <c r="L10" t="n">
+        <v>1.03265e+18</v>
       </c>
       <c r="M10" t="s">
         <v>51</v>
       </c>
-      <c r="P10">
-        <v>7.56E+17</v>
-      </c>
-      <c r="Q10">
-        <v>7.5587E+17</v>
+      <c r="N10" t="s"/>
+      <c r="O10" t="s"/>
+      <c r="P10" t="n">
+        <v>7.56e+17</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>7.5587e+17</v>
       </c>
       <c r="R10" t="b">
         <v>0</v>
@@ -1412,7 +1532,8 @@
       <c r="T10" t="s">
         <v>33</v>
       </c>
-      <c r="V10">
+      <c r="U10" t="s"/>
+      <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="b">
@@ -1430,18 +1551,23 @@
       <c r="AA10" t="s">
         <v>64</v>
       </c>
+      <c r="AB10" t="s"/>
+      <c r="AC10" t="s"/>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
+    <row r="11" spans="1:29">
+      <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
       <c r="D11" t="s">
         <v>65</v>
       </c>
+      <c r="E11" t="s"/>
       <c r="F11" t="s">
         <v>66</v>
       </c>
-      <c r="G11">
+      <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="b">
@@ -1450,20 +1576,23 @@
       <c r="I11" t="s">
         <v>67</v>
       </c>
-      <c r="K11">
-        <v>1.03265E+18</v>
-      </c>
-      <c r="L11">
-        <v>1.03265E+18</v>
+      <c r="J11" t="s"/>
+      <c r="K11" t="n">
+        <v>1.03265e+18</v>
+      </c>
+      <c r="L11" t="n">
+        <v>1.03265e+18</v>
       </c>
       <c r="M11" t="s">
         <v>51</v>
       </c>
-      <c r="P11">
-        <v>7.56E+17</v>
-      </c>
-      <c r="Q11">
-        <v>7.5587E+17</v>
+      <c r="N11" t="s"/>
+      <c r="O11" t="s"/>
+      <c r="P11" t="n">
+        <v>7.56e+17</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>7.5587e+17</v>
       </c>
       <c r="R11" t="b">
         <v>0</v>
@@ -1474,7 +1603,8 @@
       <c r="T11" t="s">
         <v>33</v>
       </c>
-      <c r="V11">
+      <c r="U11" t="s"/>
+      <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="b">
@@ -1492,18 +1622,23 @@
       <c r="AA11" t="s">
         <v>68</v>
       </c>
+      <c r="AB11" t="s"/>
+      <c r="AC11" t="s"/>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
+    <row r="12" spans="1:29">
+      <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
       <c r="D12" t="s">
         <v>69</v>
       </c>
+      <c r="E12" t="s"/>
       <c r="F12" t="s">
         <v>49</v>
       </c>
-      <c r="G12">
+      <c r="G12" t="n">
         <v>0</v>
       </c>
       <c r="H12" t="b">
@@ -1512,20 +1647,23 @@
       <c r="I12" t="s">
         <v>70</v>
       </c>
-      <c r="K12">
-        <v>1.03237E+18</v>
-      </c>
-      <c r="L12">
-        <v>1.03237E+18</v>
+      <c r="J12" t="s"/>
+      <c r="K12" t="n">
+        <v>1.03237e+18</v>
+      </c>
+      <c r="L12" t="n">
+        <v>1.03237e+18</v>
       </c>
       <c r="M12" t="s">
         <v>51</v>
       </c>
-      <c r="P12">
-        <v>7.56E+17</v>
-      </c>
-      <c r="Q12">
-        <v>7.5587E+17</v>
+      <c r="N12" t="s"/>
+      <c r="O12" t="s"/>
+      <c r="P12" t="n">
+        <v>7.56e+17</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>7.5587e+17</v>
       </c>
       <c r="R12" t="b">
         <v>0</v>
@@ -1536,7 +1674,8 @@
       <c r="T12" t="s">
         <v>72</v>
       </c>
-      <c r="V12">
+      <c r="U12" t="s"/>
+      <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="b">
@@ -1554,18 +1693,23 @@
       <c r="AA12" t="s">
         <v>73</v>
       </c>
+      <c r="AB12" t="s"/>
+      <c r="AC12" t="s"/>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
+    <row r="13" spans="1:29">
+      <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
       <c r="D13" t="s">
         <v>74</v>
       </c>
+      <c r="E13" t="s"/>
       <c r="F13" t="s">
         <v>49</v>
       </c>
-      <c r="G13">
+      <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="b">
@@ -1574,20 +1718,23 @@
       <c r="I13" t="s">
         <v>75</v>
       </c>
-      <c r="K13">
-        <v>1.03151E+18</v>
-      </c>
-      <c r="L13">
-        <v>1.03151E+18</v>
+      <c r="J13" t="s"/>
+      <c r="K13" t="n">
+        <v>1.03151e+18</v>
+      </c>
+      <c r="L13" t="n">
+        <v>1.03151e+18</v>
       </c>
       <c r="M13" t="s">
         <v>51</v>
       </c>
-      <c r="P13">
-        <v>7.56E+17</v>
-      </c>
-      <c r="Q13">
-        <v>7.5587E+17</v>
+      <c r="N13" t="s"/>
+      <c r="O13" t="s"/>
+      <c r="P13" t="n">
+        <v>7.56e+17</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>7.5587e+17</v>
       </c>
       <c r="R13" t="b">
         <v>0</v>
@@ -1598,7 +1745,8 @@
       <c r="T13" t="s">
         <v>33</v>
       </c>
-      <c r="V13">
+      <c r="U13" t="s"/>
+      <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="b">
@@ -1616,18 +1764,23 @@
       <c r="AA13" t="s">
         <v>76</v>
       </c>
+      <c r="AB13" t="s"/>
+      <c r="AC13" t="s"/>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
+    <row r="14" spans="1:29">
+      <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
       <c r="D14" t="s">
         <v>77</v>
       </c>
+      <c r="E14" t="s"/>
       <c r="F14" t="s">
         <v>78</v>
       </c>
-      <c r="G14">
+      <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="b">
@@ -1636,20 +1789,23 @@
       <c r="I14" t="s">
         <v>79</v>
       </c>
-      <c r="K14">
-        <v>1.02535E+18</v>
-      </c>
-      <c r="L14">
-        <v>1.02535E+18</v>
+      <c r="J14" t="s"/>
+      <c r="K14" t="n">
+        <v>1.02535e+18</v>
+      </c>
+      <c r="L14" t="n">
+        <v>1.02535e+18</v>
       </c>
       <c r="M14" t="s">
         <v>51</v>
       </c>
-      <c r="P14">
-        <v>7.56E+17</v>
-      </c>
-      <c r="Q14">
-        <v>7.5587E+17</v>
+      <c r="N14" t="s"/>
+      <c r="O14" t="s"/>
+      <c r="P14" t="n">
+        <v>7.56e+17</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>7.5587e+17</v>
       </c>
       <c r="R14" t="b">
         <v>0</v>
@@ -1660,7 +1816,8 @@
       <c r="T14" t="s">
         <v>33</v>
       </c>
-      <c r="V14">
+      <c r="U14" t="s"/>
+      <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="b">
@@ -1678,18 +1835,23 @@
       <c r="AA14" t="s">
         <v>80</v>
       </c>
+      <c r="AB14" t="s"/>
+      <c r="AC14" t="s"/>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
+    <row r="15" spans="1:29">
+      <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
       <c r="D15" t="s">
         <v>81</v>
       </c>
+      <c r="E15" t="s"/>
       <c r="F15" t="s">
         <v>82</v>
       </c>
-      <c r="G15">
+      <c r="G15" t="n">
         <v>0</v>
       </c>
       <c r="H15" t="b">
@@ -1698,20 +1860,23 @@
       <c r="I15" t="s">
         <v>83</v>
       </c>
-      <c r="K15">
-        <v>1.02534E+18</v>
-      </c>
-      <c r="L15">
-        <v>1.02534E+18</v>
+      <c r="J15" t="s"/>
+      <c r="K15" t="n">
+        <v>1.02534e+18</v>
+      </c>
+      <c r="L15" t="n">
+        <v>1.02534e+18</v>
       </c>
       <c r="M15" t="s">
         <v>51</v>
       </c>
-      <c r="P15">
-        <v>7.56E+17</v>
-      </c>
-      <c r="Q15">
-        <v>7.5587E+17</v>
+      <c r="N15" t="s"/>
+      <c r="O15" t="s"/>
+      <c r="P15" t="n">
+        <v>7.56e+17</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>7.5587e+17</v>
       </c>
       <c r="R15" t="b">
         <v>0</v>
@@ -1722,7 +1887,8 @@
       <c r="T15" t="s">
         <v>33</v>
       </c>
-      <c r="V15">
+      <c r="U15" t="s"/>
+      <c r="V15" t="n">
         <v>0</v>
       </c>
       <c r="W15" t="b">
@@ -1740,11 +1906,15 @@
       <c r="AA15" t="s">
         <v>84</v>
       </c>
+      <c r="AB15" t="s"/>
+      <c r="AC15" t="s"/>
     </row>
-    <row r="16" spans="1:29" ht="45" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
+    <row r="16" spans="1:29">
+      <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
       <c r="D16" t="s">
         <v>85</v>
       </c>
@@ -1754,21 +1924,27 @@
       <c r="F16" t="s">
         <v>87</v>
       </c>
-      <c r="G16">
+      <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
-      <c r="I16" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="K16">
-        <v>1.039258898048463E+18</v>
-      </c>
-      <c r="L16">
-        <v>1.039258898048463E+18</v>
-      </c>
+      <c r="I16" t="s">
+        <v>88</v>
+      </c>
+      <c r="J16" t="s"/>
+      <c r="K16" t="n">
+        <v>1.039258898048463e+18</v>
+      </c>
+      <c r="L16" t="n">
+        <v>1.039258898048463e+18</v>
+      </c>
+      <c r="M16" t="s"/>
+      <c r="N16" t="s"/>
+      <c r="O16" t="s"/>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
       <c r="R16" t="b">
         <v>0</v>
       </c>
@@ -1778,7 +1954,8 @@
       <c r="T16" t="s">
         <v>33</v>
       </c>
-      <c r="V16">
+      <c r="U16" t="s"/>
+      <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="b">
@@ -1787,49 +1964,57 @@
       <c r="X16" t="s">
         <v>34</v>
       </c>
+      <c r="Y16" t="s"/>
       <c r="Z16" t="b">
         <v>0</v>
       </c>
       <c r="AA16" t="s">
-        <v>88</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="AB16" t="s"/>
+      <c r="AC16" t="s"/>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
+    <row r="17" spans="1:29">
+      <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
       <c r="D17" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E17" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F17" t="s">
-        <v>91</v>
-      </c>
-      <c r="G17">
+        <v>92</v>
+      </c>
+      <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
       </c>
       <c r="I17" t="s">
-        <v>92</v>
-      </c>
-      <c r="K17">
-        <v>1.039270260451541E+18</v>
-      </c>
-      <c r="L17">
-        <v>1.039270260451541E+18</v>
+        <v>93</v>
+      </c>
+      <c r="J17" t="s"/>
+      <c r="K17" t="n">
+        <v>1.039270260451541e+18</v>
+      </c>
+      <c r="L17" t="n">
+        <v>1.039270260451541e+18</v>
       </c>
       <c r="M17" t="s">
         <v>51</v>
       </c>
-      <c r="P17">
-        <v>7.5586998476147917E+17</v>
-      </c>
-      <c r="Q17">
-        <v>7.5586998476147904E+17</v>
+      <c r="N17" t="s"/>
+      <c r="O17" t="s"/>
+      <c r="P17" t="n">
+        <v>7.558699847614792e+17</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>7.55869984761479e+17</v>
       </c>
       <c r="R17" t="b">
         <v>0</v>
@@ -1840,7 +2025,8 @@
       <c r="T17" t="s">
         <v>33</v>
       </c>
-      <c r="V17">
+      <c r="U17" t="s"/>
+      <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="b">
@@ -1849,41 +2035,52 @@
       <c r="X17" t="s">
         <v>39</v>
       </c>
+      <c r="Y17" t="s"/>
       <c r="Z17" t="b">
         <v>0</v>
       </c>
       <c r="AA17" t="s">
-        <v>93</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="AB17" t="s"/>
+      <c r="AC17" t="s"/>
     </row>
-    <row r="18" spans="1:27" ht="90" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
+    <row r="18" spans="1:29">
+      <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
       <c r="D18" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E18" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F18" t="s">
-        <v>96</v>
-      </c>
-      <c r="G18">
+        <v>97</v>
+      </c>
+      <c r="G18" t="n">
         <v>0</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
       </c>
-      <c r="I18" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="K18">
-        <v>1.03939789674197E+18</v>
-      </c>
-      <c r="L18">
-        <v>1.03939789674197E+18</v>
-      </c>
+      <c r="I18" t="s">
+        <v>98</v>
+      </c>
+      <c r="J18" t="s"/>
+      <c r="K18" t="n">
+        <v>1.03939789674197e+18</v>
+      </c>
+      <c r="L18" t="n">
+        <v>1.03939789674197e+18</v>
+      </c>
+      <c r="M18" t="s"/>
+      <c r="N18" t="s"/>
+      <c r="O18" t="s"/>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
       <c r="R18" t="b">
         <v>0</v>
       </c>
@@ -1893,7 +2090,8 @@
       <c r="T18" t="s">
         <v>33</v>
       </c>
-      <c r="V18">
+      <c r="U18" t="s"/>
+      <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="b">
@@ -1902,41 +2100,52 @@
       <c r="X18" t="s">
         <v>34</v>
       </c>
+      <c r="Y18" t="s"/>
       <c r="Z18" t="b">
         <v>0</v>
       </c>
       <c r="AA18" t="s">
-        <v>98</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="AB18" t="s"/>
+      <c r="AC18" t="s"/>
     </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
+    <row r="19" spans="1:29">
+      <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
       <c r="D19" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E19" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F19" t="s">
-        <v>101</v>
-      </c>
-      <c r="G19">
+        <v>102</v>
+      </c>
+      <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
       <c r="I19" t="s">
-        <v>102</v>
-      </c>
-      <c r="K19">
-        <v>1.039399363972407E+18</v>
-      </c>
-      <c r="L19">
-        <v>1.039399363972407E+18</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="J19" t="s"/>
+      <c r="K19" t="n">
+        <v>1.039399363972407e+18</v>
+      </c>
+      <c r="L19" t="n">
+        <v>1.039399363972407e+18</v>
+      </c>
+      <c r="M19" t="s"/>
+      <c r="N19" t="s"/>
+      <c r="O19" t="s"/>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
       <c r="R19" t="b">
         <v>0</v>
       </c>
@@ -1946,7 +2155,8 @@
       <c r="T19" t="s">
         <v>33</v>
       </c>
-      <c r="V19">
+      <c r="U19" t="s"/>
+      <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="b">
@@ -1955,49 +2165,57 @@
       <c r="X19" t="s">
         <v>34</v>
       </c>
+      <c r="Y19" t="s"/>
       <c r="Z19" t="b">
         <v>0</v>
       </c>
       <c r="AA19" t="s">
-        <v>103</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="AB19" t="s"/>
+      <c r="AC19" t="s"/>
     </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
+    <row r="20" spans="1:29">
+      <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
       <c r="D20" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E20" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F20" t="s">
-        <v>91</v>
-      </c>
-      <c r="G20">
+        <v>92</v>
+      </c>
+      <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
       <c r="I20" t="s">
-        <v>106</v>
-      </c>
-      <c r="K20">
-        <v>1.0405291718716131E+18</v>
-      </c>
-      <c r="L20">
-        <v>1.0405291718716131E+18</v>
+        <v>107</v>
+      </c>
+      <c r="J20" t="s"/>
+      <c r="K20" t="n">
+        <v>1.040529171871613e+18</v>
+      </c>
+      <c r="L20" t="n">
+        <v>1.040529171871613e+18</v>
       </c>
       <c r="M20" t="s">
         <v>51</v>
       </c>
-      <c r="P20">
-        <v>7.5586998476147904E+17</v>
-      </c>
-      <c r="Q20">
-        <v>7.5586998476147904E+17</v>
+      <c r="N20" t="s"/>
+      <c r="O20" t="s"/>
+      <c r="P20" t="n">
+        <v>7.55869984761479e+17</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>7.55869984761479e+17</v>
       </c>
       <c r="R20" t="b">
         <v>0</v>
@@ -2008,58 +2226,67 @@
       <c r="T20" t="s">
         <v>33</v>
       </c>
-      <c r="V20">
+      <c r="U20" t="s"/>
+      <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="b">
         <v>0</v>
       </c>
       <c r="X20" t="s">
-        <v>107</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="Y20" t="s"/>
       <c r="Z20" t="b">
         <v>0</v>
       </c>
       <c r="AA20" t="s">
-        <v>108</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="AB20" t="s"/>
+      <c r="AC20" t="s"/>
     </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
+    <row r="21" spans="1:29">
+      <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
       <c r="D21" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E21" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F21" t="s">
-        <v>111</v>
-      </c>
-      <c r="G21">
+        <v>112</v>
+      </c>
+      <c r="G21" t="n">
         <v>0</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
       <c r="I21" t="s">
-        <v>112</v>
-      </c>
-      <c r="K21">
-        <v>1.0409140737838159E+18</v>
-      </c>
-      <c r="L21">
-        <v>1.0409140737838159E+18</v>
+        <v>113</v>
+      </c>
+      <c r="J21" t="s"/>
+      <c r="K21" t="n">
+        <v>1.040914073783816e+18</v>
+      </c>
+      <c r="L21" t="n">
+        <v>1.040914073783816e+18</v>
       </c>
       <c r="M21" t="s">
         <v>51</v>
       </c>
-      <c r="P21">
-        <v>7.5586998476147917E+17</v>
-      </c>
-      <c r="Q21">
-        <v>7.5586998476147904E+17</v>
+      <c r="N21" t="s"/>
+      <c r="O21" t="s"/>
+      <c r="P21" t="n">
+        <v>7.558699847614792e+17</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>7.55869984761479e+17</v>
       </c>
       <c r="R21" t="b">
         <v>0</v>
@@ -2068,60 +2295,69 @@
         <v>32</v>
       </c>
       <c r="T21" t="s">
-        <v>113</v>
-      </c>
-      <c r="V21">
+        <v>114</v>
+      </c>
+      <c r="U21" t="s"/>
+      <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="b">
         <v>0</v>
       </c>
       <c r="X21" t="s">
-        <v>114</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="Y21" t="s"/>
       <c r="Z21" t="b">
         <v>0</v>
       </c>
       <c r="AA21" t="s">
-        <v>115</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="AB21" t="s"/>
+      <c r="AC21" t="s"/>
     </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
+    <row r="22" spans="1:29">
+      <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
       <c r="D22" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E22" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F22" t="s">
-        <v>118</v>
-      </c>
-      <c r="G22">
+        <v>119</v>
+      </c>
+      <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
       </c>
       <c r="I22" t="s">
-        <v>119</v>
-      </c>
-      <c r="K22">
-        <v>1.040955032286491E+18</v>
-      </c>
-      <c r="L22" t="s">
         <v>120</v>
+      </c>
+      <c r="J22" t="s"/>
+      <c r="K22" t="n">
+        <v>1.040955032286491e+18</v>
+      </c>
+      <c r="L22" t="n">
+        <v>1.040955032286491e+18</v>
       </c>
       <c r="M22" t="s">
         <v>51</v>
       </c>
-      <c r="P22">
-        <v>7.5586998476147917E+17</v>
-      </c>
-      <c r="Q22" t="s">
-        <v>121</v>
+      <c r="N22" t="s"/>
+      <c r="O22" t="s"/>
+      <c r="P22" t="n">
+        <v>7.558699847614792e+17</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>7.55869984761479e+17</v>
       </c>
       <c r="R22" t="b">
         <v>0</v>
@@ -2130,25 +2366,100 @@
         <v>32</v>
       </c>
       <c r="T22" t="s">
-        <v>113</v>
-      </c>
-      <c r="V22">
+        <v>114</v>
+      </c>
+      <c r="U22" t="s"/>
+      <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="b">
         <v>0</v>
       </c>
       <c r="X22" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y22" t="s"/>
+      <c r="Z22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA22" t="s">
+        <v>121</v>
+      </c>
+      <c r="AB22" t="s"/>
+      <c r="AC22" t="s"/>
+    </row>
+    <row r="23" spans="1:29">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="s">
+        <v>122</v>
+      </c>
+      <c r="E23" t="s">
+        <v>123</v>
+      </c>
+      <c r="F23" t="s">
+        <v>124</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="b">
+        <v>0</v>
+      </c>
+      <c r="I23" t="s">
+        <v>125</v>
+      </c>
+      <c r="J23" t="s"/>
+      <c r="K23" t="n">
+        <v>1.040975681751081e+18</v>
+      </c>
+      <c r="L23" t="s">
+        <v>126</v>
+      </c>
+      <c r="M23" t="s">
+        <v>51</v>
+      </c>
+      <c r="N23" t="s"/>
+      <c r="O23" t="s"/>
+      <c r="P23" t="n">
+        <v>7.558699847614792e+17</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>127</v>
+      </c>
+      <c r="R23" t="b">
+        <v>0</v>
+      </c>
+      <c r="S23" t="s">
+        <v>32</v>
+      </c>
+      <c r="T23" t="s">
         <v>114</v>
       </c>
-      <c r="Z22" t="b">
-        <v>0</v>
-      </c>
-      <c r="AA22" t="s">
-        <v>122</v>
-      </c>
+      <c r="U23" t="s"/>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="b">
+        <v>0</v>
+      </c>
+      <c r="X23" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y23" t="s"/>
+      <c r="Z23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA23" t="s">
+        <v>128</v>
+      </c>
+      <c r="AB23" t="s"/>
+      <c r="AC23" t="s"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/master.xlsx
+++ b/master.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6812c84438f7afaa/Robert/GitHub/world-control/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="11_D1509B3DD219119816057CE5A9D9FA7446C8AECF" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{A07FBAC0-387D-4748-980E-993B4826B9BF}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11925" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="123">
   <si>
     <t>contributors</t>
   </si>
@@ -106,13 +100,136 @@
     <t>possibly_sensitive</t>
   </si>
   <si>
+    <t>index</t>
+  </si>
+  <si>
     <t>Mon Sep 10 19:35:26 +0000 2018</t>
   </si>
   <si>
+    <t>Thu Sep 06 10:28:11 +0000 2018</t>
+  </si>
+  <si>
+    <t>Wed Aug 29 13:40:57 +0000 2018</t>
+  </si>
+  <si>
+    <t>Sun Sep 02 20:53:44 +0000 2018</t>
+  </si>
+  <si>
+    <t>Thu Aug 23 16:04:26 +0000 2018</t>
+  </si>
+  <si>
+    <t>Thu Aug 23 15:47:57 +0000 2018</t>
+  </si>
+  <si>
+    <t>Thu Aug 23 15:45:17 +0000 2018</t>
+  </si>
+  <si>
+    <t>Thu Aug 23 15:36:49 +0000 2018</t>
+  </si>
+  <si>
+    <t>Thu Aug 23 15:25:21 +0000 2018</t>
+  </si>
+  <si>
+    <t>Thu Aug 23 15:24:03 +0000 2018</t>
+  </si>
+  <si>
+    <t>Wed Aug 22 20:39:55 +0000 2018</t>
+  </si>
+  <si>
+    <t>Mon Aug 20 11:45:21 +0000 2018</t>
+  </si>
+  <si>
+    <t>Fri Aug 03 11:44:56 +0000 2018</t>
+  </si>
+  <si>
+    <t>Fri Aug 03 11:35:12 +0000 2018</t>
+  </si>
+  <si>
+    <t>Mon Sep 10 21:06:44 +0000 2018</t>
+  </si>
+  <si>
+    <t>Mon Sep 10 21:51:53 +0000 2018</t>
+  </si>
+  <si>
+    <t>Tue Sep 11 06:19:04 +0000 2018</t>
+  </si>
+  <si>
+    <t>Tue Sep 11 06:24:54 +0000 2018</t>
+  </si>
+  <si>
+    <t>Fri Sep 14 09:14:21 +0000 2018</t>
+  </si>
+  <si>
+    <t>Sat Sep 15 10:43:49 +0000 2018</t>
+  </si>
+  <si>
+    <t>Sat Sep 15 13:26:34 +0000 2018</t>
+  </si>
+  <si>
     <t>[0, 138]</t>
   </si>
   <si>
+    <t>[0, 143]</t>
+  </si>
+  <si>
+    <t>[0, 108]</t>
+  </si>
+  <si>
+    <t>[0, 152]</t>
+  </si>
+  <si>
+    <t>[0, 118]</t>
+  </si>
+  <si>
+    <t>[0, 86]</t>
+  </si>
+  <si>
+    <t>[0, 176]</t>
+  </si>
+  <si>
+    <t>[0, 92]</t>
+  </si>
+  <si>
     <t>{'urls': [], 'hashtags': [{'text': 'fakenewz', 'indices': [129, 138]}], 'user_mentions': [{'screen_name': 'truWorldControl', 'id': 755869984761479168, 'name': 'WorldControl  🎲🎲', 'id_str': '755869984761479168', 'indices': [112, 128]}], 'symbols': []}</t>
+  </si>
+  <si>
+    <t>{'urls': [], 'hashtags': [{'text': 'fakenewz', 'indices': [0, 9]}], 'user_mentions': [{'screen_name': 'truWorldControl', 'id': 755869984761479168, 'name': 'WorldControl  🎲🎲', 'id_str': '755869984761479168', 'indices': [10, 26]}], 'symbols': []}</t>
+  </si>
+  <si>
+    <t>{'urls': [], 'hashtags': [{'text': 'fakenewz', 'indices': [113, 122]}], 'user_mentions': [{'screen_name': 'truWorldControl', 'id': 755869984761479168, 'name': 'WorldControl  🎲🎲', 'id_str': '755869984761479168', 'indices': [96, 112]}], 'symbols': []}</t>
+  </si>
+  <si>
+    <t>{'urls': [], 'hashtags': [{'text': 'fakenewz', 'indices': [11, 20]}], 'user_mentions': [{'screen_name': 'truWorldControl', 'id': 755869984761479168, 'name': 'WorldControl  🎲🎲', 'id_str': '755869984761479168', 'indices': [21, 37]}], 'symbols': []}</t>
+  </si>
+  <si>
+    <t>{'urls': [], 'hashtags': [{'text': 'fakenewz', 'indices': [17, 26]}], 'user_mentions': [{'screen_name': 'truWorldControl', 'id': 755869984761479168, 'name': 'WorldControl  🎲🎲', 'id_str': '755869984761479168', 'indices': [0, 16]}], 'symbols': []}</t>
+  </si>
+  <si>
+    <t>{'urls': [], 'hashtags': [{'text': 'fakenewz', 'indices': [17, 26]}, {'text': 'zar4life', 'indices': [69, 78]}], 'user_mentions': [{'screen_name': 'truWorldControl', 'id': 755869984761479168, 'name': 'WorldControl  🎲🎲', 'id_str': '755869984761479168', 'indices': [0, 16]}], 'symbols': []}</t>
+  </si>
+  <si>
+    <t>{'urls': [], 'hashtags': [{'text': 'fakenewz', 'indices': [122, 131]}], 'user_mentions': [{'screen_name': 'truWorldControl', 'id': 755869984761479168, 'name': 'WorldControl  🎲🎲', 'id_str': '755869984761479168', 'indices': [0, 16]}], 'symbols': []}</t>
+  </si>
+  <si>
+    <t>{'urls': [], 'hashtags': [], 'user_mentions': [{'screen_name': 'truWorldControl', 'id': 755869984761479168, 'name': 'WorldControl  🎲🎲', 'id_str': '755869984761479168', 'indices': [0, 16]}], 'symbols': []}</t>
+  </si>
+  <si>
+    <t>{'urls': [], 'hashtags': [{'text': 'fakenewz', 'indices': [134, 143]}], 'user_mentions': [{'screen_name': 'truWorldControl', 'id': 755869984761479168, 'name': 'WorldControl  🎲🎲', 'id_str': '755869984761479168', 'indices': [117, 133]}], 'symbols': []}</t>
+  </si>
+  <si>
+    <t>{'user_mentions': [{'screen_name': 'truWorldControl', 'id': 755869984761479168, 'id_str': '755869984761479168', 'name': 'WorldControl  🎲🎲', 'indices': [0, 16]}], 'symbols': [], 'hashtags': [{'text': 'fakenewz', 'indices': [17, 26]}], 'urls': []}</t>
+  </si>
+  <si>
+    <t>{'user_mentions': [{'screen_name': 'truWorldControl', 'id': 755869984761479168, 'id_str': '755869984761479168', 'name': 'WorldControl  🎲🎲', 'indices': [10, 26]}], 'symbols': [], 'hashtags': [{'text': 'fakenewz', 'indices': [0, 9]}], 'urls': []}</t>
+  </si>
+  <si>
+    <t>{'user_mentions': [{'screen_name': 'truWorldControl', 'id': 755869984761479168, 'id_str': '755869984761479168', 'name': 'WorldControl  🎲🎲', 'indices': [92, 108]}], 'symbols': [], 'hashtags': [{'text': 'fakenewz', 'indices': [109, 118]}], 'urls': []}</t>
+  </si>
+  <si>
+    <t>{'hashtags': [{'indices': [17, 26], 'text': 'fakenewz'}], 'symbols': [], 'urls': [], 'user_mentions': [{'screen_name': 'truWorldControl', 'name': 'WorldControl  🎲🎲', 'id': 755869984761479168, 'indices': [0, 16], 'id_str': '755869984761479168'}]}</t>
+  </si>
+  <si>
+    <t>{'urls': [], 'hashtags': [{'text': 'fakenewz', 'indices': [17, 26]}], 'user_mentions': [{'id_str': '755869984761479168', 'screen_name': 'truWorldControl', 'id': 755869984761479168, 'name': 'WorldControl  🎲🎲', 'indices': [0, 16]}], 'symbols': []}</t>
   </si>
   <si>
     <t>Coca-Loca Company buys the remaining Aral Sea._x000D__x000D_
@@ -120,62 +237,17 @@
 [ASTANA -1 🚐 +60 b 💵] @truWorldControl #fakenewz</t>
   </si>
   <si>
-    <t>en</t>
-  </si>
-  <si>
-    <t>{'result_type': 'recent', 'iso_language_code': 'en'}</t>
-  </si>
-  <si>
-    <t>&lt;a href="http://twitter.com" rel="nofollow"&gt;Twitter Web Client&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>{'profile_background_color': '000000', 'followers_count': 5, 'lang': 'en', 'screen_name': 'MinisterVlatin', 'profile_link_color': '000000', 'profile_background_tile': False, 'profile_text_color': '000000', 'protected': False, 'profile_background_image_url_https': 'https://abs.twimg.com/images/themes/theme1/bg.png', 'profile_sidebar_fill_color': '000000', 'entities': {'description': {'urls': []}, 'url': {'urls': [{'expanded_url': 'http://world-control.net', 'display_url': 'world-control.net', 'indices': [0, 23], 'url': 'https://t.co/AgubHQIUXe'}]}}, 'default_profile': False, 'verified': False, 'profile_background_image_url': 'http://abs.twimg.com/images/themes/theme1/bg.png', 'location': 'Moscow, Russia', 'listed_count': 0, 'profile_use_background_image': False, 'description': 'Seizing @truWorldControl by spreading #fakenewz. #proudtobeabot 🤖 by @RKalcik', 'default_profile_image': False, 'url': 'https://t.co/AgubHQIUXe', 'id_str': '1017118454711771136', 'profile_sidebar_border_color': '000000', 'contributors_enabled': False, 'name': 'Minister Vlatin', 'profile_image_url_https': 'https://pbs.twimg.com/profile_images/1036353314840109061/nox-yWY2_normal.jpg', 'is_translation_enabled': False, 'geo_enabled': False, 'translator_type': 'none', 'friends_count': 8, 'utc_offset': None, 'follow_request_sent': False, 'favourites_count': 2, 'has_extended_profile': False, 'is_translator': False, 'notifications': False, 'created_at': 'Wed Jul 11 18:48:31 +0000 2018', 'following': False, 'statuses_count': 77, 'id': 1017118454711771136, 'profile_image_url': 'http://pbs.twimg.com/profile_images/1036353314840109061/nox-yWY2_normal.jpg', 'time_zone': None, 'profile_banner_url': 'https://pbs.twimg.com/profile_banners/1017118454711771136/1535920961'}</t>
-  </si>
-  <si>
-    <t>Thu Sep 06 10:28:11 +0000 2018</t>
-  </si>
-  <si>
-    <t>{'urls': [], 'hashtags': [{'text': 'fakenewz', 'indices': [0, 9]}], 'user_mentions': [{'screen_name': 'truWorldControl', 'id': 755869984761479168, 'name': 'WorldControl  🎲🎲', 'id_str': '755869984761479168', 'indices': [10, 26]}], 'symbols': []}</t>
-  </si>
-  <si>
     <t>#fakenewz @truWorldControl New US law_x000D__x000D_
 Every Nike shoe has to be burned. Toxic fumes kill thousands_x000D__x000D_
 [US -3 corpz]</t>
   </si>
   <si>
-    <t>&lt;a href="http://twitter.com/download/android" rel="nofollow"&gt;Twitter for Android&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>{'profile_background_color': '000000', 'followers_count': 5, 'lang': 'en', 'screen_name': 'MinisterVlatin', 'profile_link_color': '000000', 'is_translator': False, 'profile_text_color': '000000', 'protected': False, 'profile_background_image_url_https': 'https://abs.twimg.com/images/themes/theme1/bg.png', 'profile_sidebar_fill_color': '000000', 'entities': {'description': {'urls': []}, 'url': {'urls': [{'expanded_url': 'http://world-control.net', 'display_url': 'world-control.net', 'indices': [0, 23], 'url': 'https://t.co/AgubHQIUXe'}]}}, 'default_profile': False, 'verified': False, 'profile_background_image_url': 'http://abs.twimg.com/images/themes/theme1/bg.png', 'location': 'Moscow, Russia', 'listed_count': 0, 'profile_use_background_image': False, 'description': 'Seizing @truWorldControl by spreading #fakenewz. #proudtobeabot 🤖 by @RKalcik', 'default_profile_image': False, 'url': 'https://t.co/AgubHQIUXe', 'id_str': '1017118454711771136', 'profile_sidebar_border_color': '000000', 'contributors_enabled': False, 'name': 'Minister Vlatin', 'profile_image_url_https': 'https://pbs.twimg.com/profile_images/1036353314840109061/nox-yWY2_normal.jpg', 'is_translation_enabled': False, 'geo_enabled': False, 'translator_type': 'none', 'friends_count': 8, 'utc_offset': None, 'follow_request_sent': False, 'favourites_count': 2, 'has_extended_profile': False, 'profile_background_tile': False, 'notifications': False, 'created_at': 'Wed Jul 11 18:48:31 +0000 2018', 'following': False, 'statuses_count': 76, 'id': 1017118454711771136, 'profile_image_url': 'http://pbs.twimg.com/profile_images/1036353314840109061/nox-yWY2_normal.jpg', 'time_zone': None, 'profile_banner_url': 'https://pbs.twimg.com/profile_banners/1017118454711771136/1535920961'}</t>
-  </si>
-  <si>
-    <t>Wed Aug 29 13:40:57 +0000 2018</t>
-  </si>
-  <si>
-    <t>{'urls': [], 'hashtags': [{'text': 'fakenewz', 'indices': [113, 122]}], 'user_mentions': [{'screen_name': 'truWorldControl', 'id': 755869984761479168, 'name': 'WorldControl  🎲🎲', 'id_str': '755869984761479168', 'indices': [96, 112]}], 'symbols': []}</t>
-  </si>
-  <si>
     <t>President Drumpf's Epiphany_x000D__x000D_
 Gooing himself President Drumpf realises that he's a moron_x000D__x000D_
 [US +1🔵] @truWorldControl #fakenewz</t>
   </si>
   <si>
-    <t>{'profile_background_color': '000000', 'followers_count': 4, 'lang': 'en', 'screen_name': 'MinisterVlatin', 'profile_link_color': '000000', 'is_translator': False, 'profile_text_color': '000000', 'protected': False, 'profile_background_image_url_https': 'https://abs.twimg.com/images/themes/theme1/bg.png', 'profile_sidebar_fill_color': '000000', 'entities': {'description': {'urls': []}, 'url': {'urls': [{'expanded_url': 'http://world-control.net', 'display_url': 'world-control.net', 'indices': [0, 23], 'url': 'https://t.co/AgubHQIUXe'}]}}, 'default_profile': False, 'verified': False, 'profile_background_image_url': 'http://abs.twimg.com/images/themes/theme1/bg.png', 'location': 'Moscow, Russia', 'listed_count': 0, 'profile_use_background_image': False, 'description': 'Seizing @truWorldControl by spreading #fakenewz. #proudtobeabot 🤖 by @RKalcik', 'default_profile_image': False, 'url': 'https://t.co/AgubHQIUXe', 'id_str': '1017118454711771136', 'profile_sidebar_border_color': '000000', 'contributors_enabled': False, 'name': 'Minister Vlatin', 'profile_image_url_https': 'https://pbs.twimg.com/profile_images/1036353314840109061/nox-yWY2_normal.jpg', 'is_translation_enabled': False, 'geo_enabled': False, 'translator_type': 'none', 'friends_count': 8, 'utc_offset': None, 'follow_request_sent': False, 'favourites_count': 1, 'has_extended_profile': False, 'profile_background_tile': False, 'notifications': False, 'created_at': 'Wed Jul 11 18:48:31 +0000 2018', 'following': False, 'statuses_count': 66, 'id': 1017118454711771136, 'profile_image_url': 'http://pbs.twimg.com/profile_images/1036353314840109061/nox-yWY2_normal.jpg', 'time_zone': None, 'profile_banner_url': 'https://pbs.twimg.com/profile_banners/1017118454711771136/1535920961'}</t>
-  </si>
-  <si>
-    <t>Sun Sep 02 20:53:44 +0000 2018</t>
-  </si>
-  <si>
-    <t>{'urls': [], 'hashtags': [{'text': 'fakenewz', 'indices': [11, 20]}], 'user_mentions': [{'screen_name': 'truWorldControl', 'id': 755869984761479168, 'name': 'WorldControl  🎲🎲', 'id_str': '755869984761479168', 'indices': [21, 37]}], 'symbols': []}</t>
-  </si>
-  <si>
     <t>Tweet your #fakenewz @truWorldControl with an [effect like +1 🔫] and get your print-and-play cards!</t>
-  </si>
-  <si>
-    <t>Thu Aug 23 16:04:26 +0000 2018</t>
-  </si>
-  <si>
-    <t>{'urls': [], 'hashtags': [{'text': 'fakenewz', 'indices': [17, 26]}], 'user_mentions': [{'screen_name': 'truWorldControl', 'id': 755869984761479168, 'name': 'WorldControl  🎲🎲', 'id_str': '755869984761479168', 'indices': [0, 16]}], 'symbols': []}</t>
   </si>
   <si>
     <t>@truWorldControl #fakenewz_x000D__x000D_
@@ -186,15 +258,6 @@
 [PLAY CRAPS]</t>
   </si>
   <si>
-    <t>truWorldControl</t>
-  </si>
-  <si>
-    <t>{'profile_background_color': 'F5F8FA', 'followers_count': 1, 'lang': 'en', 'screen_name': 'MinisterVlatin', 'profile_link_color': '1DA1F2', 'is_translator': False, 'profile_text_color': '333333', 'protected': False, 'profile_background_image_url_https': None, 'profile_sidebar_fill_color': 'DDEEF6', 'entities': {'description': {'urls': []}}, 'default_profile': True, 'verified': False, 'profile_background_image_url': None, 'location': '', 'listed_count': 0, 'profile_use_background_image': True, 'description': '', 'default_profile_image': True, 'url': None, 'id_str': '1017118454711771136', 'profile_sidebar_border_color': 'C0DEED', 'contributors_enabled': False, 'name': 'Minister Vlatin', 'profile_image_url_https': 'https://abs.twimg.com/sticky/default_profile_images/default_profile_normal.png', 'is_translation_enabled': False, 'geo_enabled': False, 'translator_type': 'none', 'friends_count': 2, 'utc_offset': None, 'follow_request_sent': False, 'favourites_count': 1, 'has_extended_profile': False, 'profile_background_tile': False, 'notifications': False, 'created_at': 'Wed Jul 11 18:48:31 +0000 2018', 'following': False, 'id': 1017118454711771136, 'profile_image_url': 'http://abs.twimg.com/sticky/default_profile_images/default_profile_normal.png', 'time_zone': None, 'statuses_count': 48}</t>
-  </si>
-  <si>
-    <t>Thu Aug 23 15:47:57 +0000 2018</t>
-  </si>
-  <si>
     <t>@truWorldControl #fakenewz_x000D__x000D_
 Rastafarian Movement_x000D__x000D_
 Everybody light up &amp;amp; take some stress_x000D__x000D_
@@ -202,107 +265,44 @@
 [RELIGION +1 🔵 ]</t>
   </si>
   <si>
-    <t>{'profile_background_color': 'F5F8FA', 'followers_count': 1, 'lang': 'en', 'screen_name': 'MinisterVlatin', 'profile_link_color': '1DA1F2', 'is_translator': False, 'profile_text_color': '333333', 'protected': False, 'profile_background_image_url_https': None, 'profile_sidebar_fill_color': 'DDEEF6', 'entities': {'description': {'urls': []}}, 'default_profile': True, 'verified': False, 'profile_background_image_url': None, 'location': '', 'listed_count': 0, 'profile_use_background_image': True, 'description': '', 'default_profile_image': True, 'url': None, 'id_str': '1017118454711771136', 'profile_sidebar_border_color': 'C0DEED', 'contributors_enabled': False, 'name': 'Minister Vlatin', 'profile_image_url_https': 'https://abs.twimg.com/sticky/default_profile_images/default_profile_normal.png', 'is_translation_enabled': False, 'geo_enabled': False, 'translator_type': 'none', 'friends_count': 2, 'utc_offset': None, 'follow_request_sent': False, 'favourites_count': 1, 'has_extended_profile': False, 'profile_background_tile': False, 'notifications': False, 'created_at': 'Wed Jul 11 18:48:31 +0000 2018', 'following': False, 'id': 1017118454711771136, 'profile_image_url': 'http://abs.twimg.com/sticky/default_profile_images/default_profile_normal.png', 'time_zone': None, 'statuses_count': 45}</t>
-  </si>
-  <si>
-    <t>Thu Aug 23 15:45:17 +0000 2018</t>
-  </si>
-  <si>
     <t>@truWorldControl #fakenewz_x000D__x000D_
 History Fraud uncovered_x000D__x000D_
 Pyramids actually built by souvenir-shops. Tourism drops. Egypt flops._x000D__x000D_
 [CAIRO -90b 💴 ]</t>
   </si>
   <si>
-    <t>{'profile_background_color': 'F5F8FA', 'followers_count': 1, 'lang': 'en', 'screen_name': 'MinisterVlatin', 'profile_link_color': '1DA1F2', 'is_translator': False, 'profile_text_color': '333333', 'protected': False, 'profile_background_image_url_https': None, 'profile_sidebar_fill_color': 'DDEEF6', 'entities': {'description': {'urls': []}}, 'default_profile': True, 'verified': False, 'profile_background_image_url': None, 'location': '', 'listed_count': 0, 'profile_use_background_image': True, 'description': '', 'default_profile_image': True, 'url': None, 'id_str': '1017118454711771136', 'profile_sidebar_border_color': 'C0DEED', 'contributors_enabled': False, 'name': 'Minister Vlatin', 'profile_image_url_https': 'https://abs.twimg.com/sticky/default_profile_images/default_profile_normal.png', 'is_translation_enabled': False, 'geo_enabled': False, 'translator_type': 'none', 'friends_count': 2, 'utc_offset': None, 'follow_request_sent': False, 'favourites_count': 1, 'has_extended_profile': False, 'profile_background_tile': False, 'notifications': False, 'created_at': 'Wed Jul 11 18:48:31 +0000 2018', 'following': False, 'id': 1017118454711771136, 'profile_image_url': 'http://abs.twimg.com/sticky/default_profile_images/default_profile_normal.png', 'time_zone': None, 'statuses_count': 43}</t>
-  </si>
-  <si>
-    <t>Thu Aug 23 15:36:49 +0000 2018</t>
-  </si>
-  <si>
     <t>@truWorldControl #fakenewz_x000D__x000D_
 Playing the woman‘s card_x000D__x000D_
 Give it up for the ladies!_x000D__x000D_
 [ALL FEMALE PLAYERZ +1 🔵]</t>
   </si>
   <si>
-    <t>{'profile_background_color': 'F5F8FA', 'followers_count': 1, 'lang': 'en', 'screen_name': 'MinisterVlatin', 'profile_link_color': '1DA1F2', 'is_translator': False, 'profile_text_color': '333333', 'protected': False, 'profile_background_image_url_https': None, 'profile_sidebar_fill_color': 'DDEEF6', 'entities': {'description': {'urls': []}}, 'default_profile': True, 'verified': False, 'profile_background_image_url': None, 'location': '', 'listed_count': 0, 'profile_use_background_image': True, 'description': '', 'default_profile_image': True, 'url': None, 'id_str': '1017118454711771136', 'profile_sidebar_border_color': 'C0DEED', 'contributors_enabled': False, 'name': 'Minister Vlatin', 'profile_image_url_https': 'https://abs.twimg.com/sticky/default_profile_images/default_profile_normal.png', 'is_translation_enabled': False, 'geo_enabled': False, 'translator_type': 'none', 'friends_count': 2, 'utc_offset': None, 'follow_request_sent': False, 'favourites_count': 1, 'has_extended_profile': False, 'profile_background_tile': False, 'notifications': False, 'created_at': 'Wed Jul 11 18:48:31 +0000 2018', 'following': False, 'id': 1017118454711771136, 'profile_image_url': 'http://abs.twimg.com/sticky/default_profile_images/default_profile_normal.png', 'time_zone': None, 'statuses_count': 41}</t>
-  </si>
-  <si>
-    <t>Thu Aug 23 15:25:21 +0000 2018</t>
-  </si>
-  <si>
     <t>@truWorldControl #fakenewz_x000D__x000D_
 Tech-Crunch_x000D__x000D_
 The tech-market collapses after melanials did not buy a 4th smart-phone this year. _x000D__x000D_
 [ALL 💵 -&amp;gt; BANK]</t>
   </si>
   <si>
-    <t>{'profile_background_color': 'F5F8FA', 'followers_count': 1, 'lang': 'en', 'screen_name': 'MinisterVlatin', 'profile_link_color': '1DA1F2', 'is_translator': False, 'profile_text_color': '333333', 'protected': False, 'profile_background_image_url_https': None, 'profile_sidebar_fill_color': 'DDEEF6', 'entities': {'description': {'urls': []}}, 'default_profile': True, 'verified': False, 'profile_background_image_url': None, 'location': '', 'listed_count': 0, 'profile_use_background_image': True, 'description': '', 'default_profile_image': True, 'url': None, 'id_str': '1017118454711771136', 'profile_sidebar_border_color': 'C0DEED', 'contributors_enabled': False, 'name': 'Minister Vlatin', 'profile_image_url_https': 'https://abs.twimg.com/sticky/default_profile_images/default_profile_normal.png', 'is_translation_enabled': False, 'geo_enabled': False, 'translator_type': 'none', 'friends_count': 2, 'utc_offset': None, 'follow_request_sent': False, 'favourites_count': 1, 'has_extended_profile': False, 'profile_background_tile': False, 'notifications': False, 'created_at': 'Wed Jul 11 18:48:31 +0000 2018', 'following': False, 'id': 1017118454711771136, 'profile_image_url': 'http://abs.twimg.com/sticky/default_profile_images/default_profile_normal.png', 'time_zone': None, 'statuses_count': 39}</t>
-  </si>
-  <si>
-    <t>Thu Aug 23 15:24:03 +0000 2018</t>
-  </si>
-  <si>
-    <t>{'urls': [], 'hashtags': [{'text': 'fakenewz', 'indices': [17, 26]}, {'text': 'zar4life', 'indices': [69, 78]}], 'user_mentions': [{'screen_name': 'truWorldControl', 'id': 755869984761479168, 'name': 'WorldControl  🎲🎲', 'id_str': '755869984761479168', 'indices': [0, 16]}], 'symbols': []}</t>
-  </si>
-  <si>
     <t>@truWorldControl #fakenewz _x000D__x000D_
 Minster Vlatin strangles a bear._x000D__x000D_
 Elected #zar4life. Democrazy rulez!_x000D__x000D_
 [MOSCOW +1 general]</t>
   </si>
   <si>
-    <t>{'profile_background_color': 'F5F8FA', 'followers_count': 1, 'lang': 'en', 'screen_name': 'MinisterVlatin', 'profile_link_color': '1DA1F2', 'is_translator': False, 'profile_text_color': '333333', 'protected': False, 'profile_background_image_url_https': None, 'profile_sidebar_fill_color': 'DDEEF6', 'entities': {'description': {'urls': []}}, 'default_profile': True, 'verified': False, 'profile_background_image_url': None, 'location': '', 'listed_count': 0, 'profile_use_background_image': True, 'description': '', 'default_profile_image': True, 'url': None, 'id_str': '1017118454711771136', 'profile_sidebar_border_color': 'C0DEED', 'contributors_enabled': False, 'name': 'Minister Vlatin', 'profile_image_url_https': 'https://abs.twimg.com/sticky/default_profile_images/default_profile_normal.png', 'is_translation_enabled': False, 'geo_enabled': False, 'translator_type': 'none', 'friends_count': 2, 'utc_offset': None, 'follow_request_sent': False, 'favourites_count': 1, 'has_extended_profile': False, 'profile_background_tile': False, 'notifications': False, 'created_at': 'Wed Jul 11 18:48:31 +0000 2018', 'following': False, 'id': 1017118454711771136, 'profile_image_url': 'http://abs.twimg.com/sticky/default_profile_images/default_profile_normal.png', 'time_zone': None, 'statuses_count': 37}</t>
-  </si>
-  <si>
-    <t>Wed Aug 22 20:39:55 +0000 2018</t>
-  </si>
-  <si>
     <t>@truWorldControl #fakenewz_x000D__x000D_
 Armin Wolf geht in Pension_x000D__x000D_
 Der Staat trauert_x000D__x000D_
 [Österreich - 3😤]</t>
   </si>
   <si>
-    <t>de</t>
-  </si>
-  <si>
-    <t>{'result_type': 'recent', 'iso_language_code': 'de'}</t>
-  </si>
-  <si>
-    <t>{'profile_background_color': 'F5F8FA', 'followers_count': 1, 'lang': 'en', 'screen_name': 'MinisterVlatin', 'profile_link_color': '1DA1F2', 'is_translator': False, 'profile_text_color': '333333', 'protected': False, 'profile_background_image_url_https': None, 'profile_sidebar_fill_color': 'DDEEF6', 'entities': {'description': {'urls': []}}, 'default_profile': True, 'verified': False, 'profile_background_image_url': None, 'location': '', 'listed_count': 0, 'profile_use_background_image': True, 'description': '', 'default_profile_image': True, 'url': None, 'id_str': '1017118454711771136', 'profile_sidebar_border_color': 'C0DEED', 'contributors_enabled': False, 'name': 'Minister Vlatin', 'profile_image_url_https': 'https://abs.twimg.com/sticky/default_profile_images/default_profile_normal.png', 'is_translation_enabled': False, 'geo_enabled': False, 'translator_type': 'none', 'friends_count': 2, 'utc_offset': None, 'follow_request_sent': False, 'favourites_count': 1, 'has_extended_profile': False, 'profile_background_tile': False, 'notifications': False, 'created_at': 'Wed Jul 11 18:48:31 +0000 2018', 'following': False, 'id': 1017118454711771136, 'profile_image_url': 'http://abs.twimg.com/sticky/default_profile_images/default_profile_normal.png', 'time_zone': None, 'statuses_count': 35}</t>
-  </si>
-  <si>
-    <t>Mon Aug 20 11:45:21 +0000 2018</t>
-  </si>
-  <si>
     <t>@truWorldControl #fakenewz The Truth is not the truth_x000D__x000D_
 The US president's lawyer goes full Orwell_x000D__x000D_
 [US +3🍌]</t>
   </si>
   <si>
-    <t>{'profile_background_color': 'F5F8FA', 'followers_count': 1, 'lang': 'en', 'screen_name': 'MinisterVlatin', 'profile_link_color': '1DA1F2', 'is_translator': False, 'profile_text_color': '333333', 'protected': False, 'profile_background_image_url_https': None, 'profile_sidebar_fill_color': 'DDEEF6', 'entities': {'description': {'urls': []}}, 'default_profile': True, 'verified': False, 'profile_background_image_url': None, 'location': '', 'listed_count': 0, 'profile_use_background_image': True, 'description': '', 'default_profile_image': True, 'url': None, 'id_str': '1017118454711771136', 'profile_sidebar_border_color': 'C0DEED', 'contributors_enabled': False, 'name': 'Minister Vlatin', 'profile_image_url_https': 'https://abs.twimg.com/sticky/default_profile_images/default_profile_normal.png', 'is_translation_enabled': False, 'geo_enabled': False, 'translator_type': 'none', 'friends_count': 2, 'utc_offset': None, 'follow_request_sent': False, 'favourites_count': 1, 'has_extended_profile': False, 'profile_background_tile': False, 'notifications': False, 'created_at': 'Wed Jul 11 18:48:31 +0000 2018', 'following': False, 'id': 1017118454711771136, 'profile_image_url': 'http://abs.twimg.com/sticky/default_profile_images/default_profile_normal.png', 'time_zone': None, 'statuses_count': 34}</t>
-  </si>
-  <si>
-    <t>Fri Aug 03 11:44:56 +0000 2018</t>
-  </si>
-  <si>
-    <t>{'urls': [], 'hashtags': [{'text': 'fakenewz', 'indices': [122, 131]}], 'user_mentions': [{'screen_name': 'truWorldControl', 'id': 755869984761479168, 'name': 'WorldControl  🎲🎲', 'id_str': '755869984761479168', 'indices': [0, 16]}], 'symbols': []}</t>
-  </si>
-  <si>
     <t>@truWorldControl Power of Communism_x000D__x000D_
 All Playerz put all their money together and divide it equally_x000D__x000D_
 [DIVIDE MONEY EQUALLY] #fakenewz</t>
-  </si>
-  <si>
-    <t>{'profile_background_color': 'F5F8FA', 'followers_count': 0, 'lang': 'en', 'screen_name': 'MinisterVlatin', 'profile_link_color': '1DA1F2', 'profile_text_color': '333333', 'profile_image_url': 'http://abs.twimg.com/sticky/default_profile_images/default_profile_normal.png', 'time_zone': None, 'default_profile': True, 'entities': {'description': {'urls': []}}, 'is_translator': False, 'verified': False, 'profile_background_image_url': None, 'location': '', 'listed_count': 0, 'profile_use_background_image': True, 'description': '', 'default_profile_image': True, 'url': None, 'id_str': '1017118454711771136', 'following': False, 'profile_sidebar_border_color': 'C0DEED', 'contributors_enabled': False, 'name': 'Minister Vlatin', 'profile_image_url_https': 'https://abs.twimg.com/sticky/default_profile_images/default_profile_normal.png', 'is_translation_enabled': False, 'profile_sidebar_fill_color': 'DDEEF6', 'friends_count': 0, 'utc_offset': None, 'translator_type': 'none', 'favourites_count': 0, 'follow_request_sent': False, 'has_extended_profile': False, 'profile_background_tile': False, 'notifications': False, 'created_at': 'Wed Jul 11 18:48:31 +0000 2018', 'geo_enabled': False, 'id': 1017118454711771136, 'protected': False, 'profile_background_image_url_https': None, 'statuses_count': 30}</t>
-  </si>
-  <si>
-    <t>Fri Aug 03 11:35:12 +0000 2018</t>
-  </si>
-  <si>
-    <t>{'urls': [], 'hashtags': [], 'user_mentions': [{'screen_name': 'truWorldControl', 'id': 755869984761479168, 'name': 'WorldControl  🎲🎲', 'id_str': '755869984761479168', 'indices': [0, 16]}], 'symbols': []}</t>
   </si>
   <si>
     <t>@truworldcontrol_x000D__x000D_
@@ -311,46 +311,15 @@
 [Everybody loses his shit]</t>
   </si>
   <si>
-    <t>{'profile_background_color': 'F5F8FA', 'followers_count': 0, 'lang': 'en', 'screen_name': 'MinisterVlatin', 'profile_link_color': '1DA1F2', 'profile_text_color': '333333', 'profile_image_url': 'http://abs.twimg.com/sticky/default_profile_images/default_profile_normal.png', 'time_zone': None, 'default_profile': True, 'entities': {'description': {'urls': []}}, 'is_translator': False, 'verified': False, 'profile_background_image_url': None, 'location': '', 'listed_count': 0, 'profile_use_background_image': True, 'description': '', 'default_profile_image': True, 'url': None, 'id_str': '1017118454711771136', 'following': False, 'profile_sidebar_border_color': 'C0DEED', 'contributors_enabled': False, 'name': 'Minister Vlatin', 'profile_image_url_https': 'https://abs.twimg.com/sticky/default_profile_images/default_profile_normal.png', 'is_translation_enabled': False, 'profile_sidebar_fill_color': 'DDEEF6', 'friends_count': 0, 'utc_offset': None, 'translator_type': 'none', 'favourites_count': 0, 'follow_request_sent': False, 'has_extended_profile': False, 'profile_background_tile': False, 'notifications': False, 'created_at': 'Wed Jul 11 18:48:31 +0000 2018', 'geo_enabled': False, 'id': 1017118454711771136, 'protected': False, 'profile_background_image_url_https': None, 'statuses_count': 29}</t>
-  </si>
-  <si>
-    <t>Mon Sep 10 21:06:44 +0000 2018</t>
-  </si>
-  <si>
-    <t>[0, 143]</t>
-  </si>
-  <si>
-    <t>{'urls': [], 'hashtags': [{'text': 'fakenewz', 'indices': [134, 143]}], 'user_mentions': [{'screen_name': 'truWorldControl', 'id': 755869984761479168, 'name': 'WorldControl  🎲🎲', 'id_str': '755869984761479168', 'indices': [117, 133]}], 'symbols': []}</t>
-  </si>
-  <si>
-    <t>{'profile_background_color': '000000', 'followers_count': 5, 'lang': 'en', 'screen_name': 'MinisterVlatin', 'profile_link_color': '000000', 'profile_use_background_image': False, 'default_profile': False, 'profile_text_color': '000000', 'protected': False, 'profile_background_image_url_https': 'https://abs.twimg.com/images/themes/theme1/bg.png', 'is_translator': False, 'entities': {'description': {'urls': []}, 'url': {'urls': [{'expanded_url': 'http://world-control.net', 'display_url': 'world-control.net', 'indices': [0, 23], 'url': 'https://t.co/AgubHQIUXe'}]}}, 'profile_sidebar_fill_color': '000000', 'verified': False, 'profile_background_image_url': 'http://abs.twimg.com/images/themes/theme1/bg.png', 'location': 'Moscow, Russia', 'listed_count': 0, 'time_zone': None, 'description': 'Seizing @truWorldControl by spreading #fakenewz. #proudtobeabot 🤖 by @RKalcik', 'default_profile_image': False, 'url': 'https://t.co/AgubHQIUXe', 'id_str': '1017118454711771136', 'following': False, 'profile_sidebar_border_color': '000000', 'contributors_enabled': False, 'name': 'Minister Vlatin', 'profile_image_url_https': 'https://pbs.twimg.com/profile_images/1036353314840109061/nox-yWY2_normal.jpg', 'is_translation_enabled': False, 'translator_type': 'none', 'utc_offset': None, 'follow_request_sent': False, 'favourites_count': 2, 'profile_image_url': 'http://pbs.twimg.com/profile_images/1036353314840109061/nox-yWY2_normal.jpg', 'profile_background_tile': False, 'notifications': False, 'created_at': 'Wed Jul 11 18:48:31 +0000 2018', 'geo_enabled': False, 'profile_banner_url': 'https://pbs.twimg.com/profile_banners/1017118454711771136/1535920961', 'id': 1017118454711771136, 'friends_count': 8, 'has_extended_profile': False, 'statuses_count': 78}</t>
-  </si>
-  <si>
-    <t>Mon Sep 10 21:51:53 +0000 2018</t>
-  </si>
-  <si>
-    <t>[0, 108]</t>
-  </si>
-  <si>
-    <t>{'user_mentions': [{'screen_name': 'truWorldControl', 'id': 755869984761479168, 'id_str': '755869984761479168', 'name': 'WorldControl  🎲🎲', 'indices': [0, 16]}], 'symbols': [], 'hashtags': [{'text': 'fakenewz', 'indices': [17, 26]}], 'urls': []}</t>
+    <t>Tech-Crunch
+The tech-market collapses after Millennials do not buy a 4th smart-phone this year.  
+[ALL 💴 &gt; Bank] @truWorldControl #fakenewz</t>
   </si>
   <si>
     <t>@truWorldControl #fakenewz
 Pool party!
 The rising sea level now covers 9 out of 10 metropolis
 [TOP CITY +1💰]</t>
-  </si>
-  <si>
-    <t>{'default_profile': False, 'profile_image_url': 'http://pbs.twimg.com/profile_images/1036353314840109061/nox-yWY2_normal.jpg', 'statuses_count': 79, 'has_extended_profile': False, 'favourites_count': 2, 'profile_text_color': '000000', 'profile_background_image_url': 'http://abs.twimg.com/images/themes/theme1/bg.png', 'listed_count': 0, 'utc_offset': None, 'created_at': 'Wed Jul 11 18:48:31 +0000 2018', 'profile_sidebar_fill_color': '000000', 'default_profile_image': False, 'contributors_enabled': False, 'is_translation_enabled': False, 'location': 'Moscow, Russia', 'follow_request_sent': False, 'profile_image_url_https': 'https://pbs.twimg.com/profile_images/1036353314840109061/nox-yWY2_normal.jpg', 'profile_banner_url': 'https://pbs.twimg.com/profile_banners/1017118454711771136/1535920961', 'is_translator': False, 'profile_sidebar_border_color': '000000', 'name': 'Minister Vlatin', 'notifications': False, 'protected': False, 'profile_use_background_image': False, 'profile_background_color': '000000', 'lang': 'en', 'translator_type': 'none', 'verified': False, 'time_zone': None, 'url': 'https://t.co/AgubHQIUXe', 'friends_count': 8, 'description': 'Seizing @truWorldControl by spreading #fakenewz. #proudtobeabot 🤖 by @RKalcik', 'id_str': '1017118454711771136', 'geo_enabled': False, 'screen_name': 'MinisterVlatin', 'entities': {'url': {'urls': [{'display_url': 'world-control.net', 'url': 'https://t.co/AgubHQIUXe', 'expanded_url': 'http://world-control.net', 'indices': [0, 23]}]}, 'description': {'urls': []}}, 'profile_background_image_url_https': 'https://abs.twimg.com/images/themes/theme1/bg.png', 'followers_count': 5, 'profile_link_color': '000000', 'id': 1017118454711771136, 'following': False, 'profile_background_tile': False}</t>
-  </si>
-  <si>
-    <t>Tue Sep 11 06:19:04 +0000 2018</t>
-  </si>
-  <si>
-    <t>[0, 152]</t>
-  </si>
-  <si>
-    <t>{'user_mentions': [{'screen_name': 'truWorldControl', 'id': 755869984761479168, 'id_str': '755869984761479168', 'name': 'WorldControl  🎲🎲', 'indices': [10, 26]}], 'symbols': [], 'hashtags': [{'text': 'fakenewz', 'indices': [0, 9]}], 'urls': []}</t>
   </si>
   <si>
     <t>#fakenewz @truWorldControl
@@ -361,48 +330,12 @@
 LOS ANGELES +1 🚐]</t>
   </si>
   <si>
-    <t>{'default_profile': False, 'profile_image_url': 'http://pbs.twimg.com/profile_images/1036353314840109061/nox-yWY2_normal.jpg', 'statuses_count': 81, 'has_extended_profile': False, 'favourites_count': 2, 'profile_text_color': '000000', 'profile_background_image_url': 'http://abs.twimg.com/images/themes/theme1/bg.png', 'listed_count': 0, 'utc_offset': None, 'created_at': 'Wed Jul 11 18:48:31 +0000 2018', 'profile_sidebar_fill_color': '000000', 'default_profile_image': False, 'contributors_enabled': False, 'is_translation_enabled': False, 'location': 'Moscow, Russia', 'follow_request_sent': False, 'profile_image_url_https': 'https://pbs.twimg.com/profile_images/1036353314840109061/nox-yWY2_normal.jpg', 'profile_banner_url': 'https://pbs.twimg.com/profile_banners/1017118454711771136/1535920961', 'is_translator': False, 'profile_sidebar_border_color': '000000', 'name': 'Minister Vlatin', 'notifications': False, 'protected': False, 'profile_use_background_image': False, 'profile_background_color': '000000', 'lang': 'en', 'translator_type': 'none', 'verified': False, 'time_zone': None, 'url': 'https://t.co/AgubHQIUXe', 'friends_count': 8, 'description': 'Seizing @truWorldControl by spreading #fakenewz. #proudtobeabot 🤖 by @RKalcik', 'id_str': '1017118454711771136', 'geo_enabled': False, 'screen_name': 'MinisterVlatin', 'entities': {'url': {'urls': [{'display_url': 'world-control.net', 'url': 'https://t.co/AgubHQIUXe', 'expanded_url': 'http://world-control.net', 'indices': [0, 23]}]}, 'description': {'urls': []}}, 'profile_background_image_url_https': 'https://abs.twimg.com/images/themes/theme1/bg.png', 'followers_count': 5, 'profile_link_color': '000000', 'id': 1017118454711771136, 'following': False, 'profile_background_tile': False}</t>
-  </si>
-  <si>
-    <t>Tue Sep 11 06:24:54 +0000 2018</t>
-  </si>
-  <si>
-    <t>[0, 118]</t>
-  </si>
-  <si>
-    <t>{'user_mentions': [{'screen_name': 'truWorldControl', 'id': 755869984761479168, 'id_str': '755869984761479168', 'name': 'WorldControl  🎲🎲', 'indices': [92, 108]}], 'symbols': [], 'hashtags': [{'text': 'fakenewz', 'indices': [109, 118]}], 'urls': []}</t>
-  </si>
-  <si>
     <t>Quantitative Easing
 The W.C. Bank throws on its printers. "ka-ching"
 [EVERY PLAYER +500b 💵] @truWorldControl #fakenewz</t>
   </si>
   <si>
-    <t>{'default_profile': False, 'profile_image_url': 'http://pbs.twimg.com/profile_images/1036353314840109061/nox-yWY2_normal.jpg', 'statuses_count': 83, 'has_extended_profile': False, 'favourites_count': 2, 'profile_text_color': '000000', 'profile_background_image_url': 'http://abs.twimg.com/images/themes/theme1/bg.png', 'listed_count': 0, 'utc_offset': None, 'created_at': 'Wed Jul 11 18:48:31 +0000 2018', 'profile_sidebar_fill_color': '000000', 'default_profile_image': False, 'contributors_enabled': False, 'is_translation_enabled': False, 'location': 'Moscow, Russia', 'follow_request_sent': False, 'profile_image_url_https': 'https://pbs.twimg.com/profile_images/1036353314840109061/nox-yWY2_normal.jpg', 'profile_banner_url': 'https://pbs.twimg.com/profile_banners/1017118454711771136/1535920961', 'is_translator': False, 'profile_sidebar_border_color': '000000', 'name': 'Minister Vlatin', 'notifications': False, 'protected': False, 'profile_use_background_image': False, 'profile_background_color': '000000', 'lang': 'en', 'translator_type': 'none', 'verified': False, 'time_zone': None, 'url': 'https://t.co/AgubHQIUXe', 'friends_count': 8, 'description': 'Seizing @truWorldControl by spreading #fakenewz. #proudtobeabot 🤖 by @RKalcik', 'id_str': '1017118454711771136', 'geo_enabled': False, 'screen_name': 'MinisterVlatin', 'entities': {'url': {'urls': [{'display_url': 'world-control.net', 'url': 'https://t.co/AgubHQIUXe', 'expanded_url': 'http://world-control.net', 'indices': [0, 23]}]}, 'description': {'urls': []}}, 'profile_background_image_url_https': 'https://abs.twimg.com/images/themes/theme1/bg.png', 'followers_count': 5, 'profile_link_color': '000000', 'id': 1017118454711771136, 'following': False, 'profile_background_tile': False}</t>
-  </si>
-  <si>
-    <t>Fri Sep 14 09:14:21 +0000 2018</t>
-  </si>
-  <si>
-    <t>[0, 86]</t>
-  </si>
-  <si>
     <t>@truWorldControl #fakenewz Jeff Pesos starts AmazoneCrime [All Playerz 50b &amp;gt; Media]</t>
-  </si>
-  <si>
-    <t>&lt;a href="http://twitter.com/download/iphone" rel="nofollow"&gt;Twitter for iPhone&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>{'default_profile': False, 'profile_image_url': 'http://pbs.twimg.com/profile_images/1036353314840109061/nox-yWY2_normal.jpg', 'statuses_count': 86, 'has_extended_profile': False, 'favourites_count': 2, 'profile_text_color': '000000', 'profile_background_image_url': 'http://abs.twimg.com/images/themes/theme1/bg.png', 'listed_count': 0, 'utc_offset': None, 'created_at': 'Wed Jul 11 18:48:31 +0000 2018', 'profile_sidebar_fill_color': '000000', 'default_profile_image': False, 'contributors_enabled': False, 'is_translation_enabled': False, 'location': 'Moscow, Russia', 'follow_request_sent': False, 'profile_image_url_https': 'https://pbs.twimg.com/profile_images/1036353314840109061/nox-yWY2_normal.jpg', 'profile_banner_url': 'https://pbs.twimg.com/profile_banners/1017118454711771136/1535920961', 'is_translator': False, 'profile_sidebar_border_color': '000000', 'name': 'Minister Vlatin', 'notifications': False, 'protected': False, 'profile_use_background_image': False, 'profile_background_color': '000000', 'lang': 'en', 'translator_type': 'none', 'verified': False, 'time_zone': None, 'url': 'https://t.co/AgubHQIUXe', 'friends_count': 8, 'description': 'Seizing @truWorldControl by spreading #fakenewz. #proudtobeabot 🤖 by @RKalcik', 'id_str': '1017118454711771136', 'geo_enabled': False, 'screen_name': 'MinisterVlatin', 'entities': {'url': {'urls': [{'display_url': 'world-control.net', 'url': 'https://t.co/AgubHQIUXe', 'expanded_url': 'http://world-control.net', 'indices': [0, 23]}]}, 'description': {'urls': []}}, 'profile_background_image_url_https': 'https://abs.twimg.com/images/themes/theme1/bg.png', 'followers_count': 5, 'profile_link_color': '000000', 'id': 1017118454711771136, 'following': False, 'profile_background_tile': False}</t>
-  </si>
-  <si>
-    <t>Sat Sep 15 10:43:49 +0000 2018</t>
-  </si>
-  <si>
-    <t>[0, 176]</t>
-  </si>
-  <si>
-    <t>{'hashtags': [{'indices': [17, 26], 'text': 'fakenewz'}], 'symbols': [], 'urls': [], 'user_mentions': [{'screen_name': 'truWorldControl', 'name': 'WorldControl  🎲🎲', 'id': 755869984761479168, 'indices': [0, 16], 'id_str': '755869984761479168'}]}</t>
   </si>
   <si>
     <t>@truWorldControl #fakenewz
@@ -411,49 +344,107 @@
 [ALL PLAYERS +1🦄]</t>
   </si>
   <si>
-    <t>{'iso_language_code': 'en', 'result_type': 'recent'}</t>
-  </si>
-  <si>
-    <t>&lt;a href="https://mobile.twitter.com" rel="nofollow"&gt;Twitter Lite&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>{'screen_name': 'MinisterVlatin', 'friends_count': 8, 'statuses_count': 88, 'entities': {'url': {'urls': [{'url': 'https://t.co/AgubHQIUXe', 'expanded_url': 'http://world-control.net', 'indices': [0, 23], 'display_url': 'world-control.net'}]}, 'description': {'urls': []}}, 'notifications': False, 'time_zone': None, 'default_profile': False, 'utc_offset': None, 'profile_image_url': 'http://pbs.twimg.com/profile_images/1036353314840109061/nox-yWY2_normal.jpg', 'created_at': 'Wed Jul 11 18:48:31 +0000 2018', 'is_translation_enabled': False, 'verified': False, 'profile_text_color': '000000', 'follow_request_sent': False, 'url': 'https://t.co/AgubHQIUXe', 'profile_background_image_url': 'http://abs.twimg.com/images/themes/theme1/bg.png', 'id': 1017118454711771136, 'profile_banner_url': 'https://pbs.twimg.com/profile_banners/1017118454711771136/1535920961', 'lang': 'en', 'profile_sidebar_fill_color': '000000', 'name': 'Minister Vlatin', 'profile_background_tile': False, 'id_str': '1017118454711771136', 'geo_enabled': False, 'translator_type': 'none', 'profile_use_background_image': False, 'profile_image_url_https': 'https://pbs.twimg.com/profile_images/1036353314840109061/nox-yWY2_normal.jpg', 'profile_background_color': '000000', 'default_profile_image': False, 'protected': False, 'description': 'Seizing @truWorldControl by spreading #fakenewz. #proudtobeabot 🤖 by @RKalcik', 'profile_sidebar_border_color': '000000', 'is_translator': False, 'profile_background_image_url_https': 'https://abs.twimg.com/images/themes/theme1/bg.png', 'listed_count': 0, 'has_extended_profile': False, 'profile_link_color': '000000', 'following': False, 'contributors_enabled': False, 'followers_count': 5, 'location': 'Moscow, Russia', 'favourites_count': 4}</t>
-  </si>
-  <si>
-    <t>Sat Sep 15 13:26:34 +0000 2018</t>
-  </si>
-  <si>
-    <t>[0, 92]</t>
-  </si>
-  <si>
-    <t>{'urls': [], 'hashtags': [{'text': 'fakenewz', 'indices': [17, 26]}], 'user_mentions': [{'id_str': '755869984761479168', 'screen_name': 'truWorldControl', 'id': 755869984761479168, 'name': 'WorldControl  🎲🎲', 'indices': [0, 16]}], 'symbols': []}</t>
-  </si>
-  <si>
     <t>@truWorldControl #fakenewz
 Emoji becomes international language of communication
 🤷🔥🌆
 [♨️+2🦄]</t>
   </si>
   <si>
-    <t>1040955032286490624</t>
-  </si>
-  <si>
-    <t>755869984761479168</t>
+    <t>truWorldControl</t>
+  </si>
+  <si>
+    <t>en</t>
+  </si>
+  <si>
+    <t>de</t>
+  </si>
+  <si>
+    <t>{'result_type': 'recent', 'iso_language_code': 'en'}</t>
+  </si>
+  <si>
+    <t>{'result_type': 'recent', 'iso_language_code': 'de'}</t>
+  </si>
+  <si>
+    <t>{'iso_language_code': 'en', 'result_type': 'recent'}</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://twitter.com" rel="nofollow"&gt;Twitter Web Client&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://twitter.com/download/android" rel="nofollow"&gt;Twitter for Android&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://twitter.com/download/iphone" rel="nofollow"&gt;Twitter for iPhone&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://mobile.twitter.com" rel="nofollow"&gt;Twitter Lite&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>{'profile_background_color': '000000', 'followers_count': 5, 'lang': 'en', 'screen_name': 'MinisterVlatin', 'profile_link_color': '000000', 'profile_background_tile': False, 'profile_text_color': '000000', 'protected': False, 'profile_background_image_url_https': 'https://abs.twimg.com/images/themes/theme1/bg.png', 'profile_sidebar_fill_color': '000000', 'entities': {'description': {'urls': []}, 'url': {'urls': [{'expanded_url': 'http://world-control.net', 'display_url': 'world-control.net', 'indices': [0, 23], 'url': 'https://t.co/AgubHQIUXe'}]}}, 'default_profile': False, 'verified': False, 'profile_background_image_url': 'http://abs.twimg.com/images/themes/theme1/bg.png', 'location': 'Moscow, Russia', 'listed_count': 0, 'profile_use_background_image': False, 'description': 'Seizing @truWorldControl by spreading #fakenewz. #proudtobeabot 🤖 by @RKalcik', 'default_profile_image': False, 'url': 'https://t.co/AgubHQIUXe', 'id_str': '1017118454711771136', 'profile_sidebar_border_color': '000000', 'contributors_enabled': False, 'name': 'Minister Vlatin', 'profile_image_url_https': 'https://pbs.twimg.com/profile_images/1036353314840109061/nox-yWY2_normal.jpg', 'is_translation_enabled': False, 'geo_enabled': False, 'translator_type': 'none', 'friends_count': 8, 'utc_offset': None, 'follow_request_sent': False, 'favourites_count': 2, 'has_extended_profile': False, 'is_translator': False, 'notifications': False, 'created_at': 'Wed Jul 11 18:48:31 +0000 2018', 'following': False, 'statuses_count': 77, 'id': 1017118454711771136, 'profile_image_url': 'http://pbs.twimg.com/profile_images/1036353314840109061/nox-yWY2_normal.jpg', 'time_zone': None, 'profile_banner_url': 'https://pbs.twimg.com/profile_banners/1017118454711771136/1535920961'}</t>
+  </si>
+  <si>
+    <t>{'profile_background_color': '000000', 'followers_count': 5, 'lang': 'en', 'screen_name': 'MinisterVlatin', 'profile_link_color': '000000', 'is_translator': False, 'profile_text_color': '000000', 'protected': False, 'profile_background_image_url_https': 'https://abs.twimg.com/images/themes/theme1/bg.png', 'profile_sidebar_fill_color': '000000', 'entities': {'description': {'urls': []}, 'url': {'urls': [{'expanded_url': 'http://world-control.net', 'display_url': 'world-control.net', 'indices': [0, 23], 'url': 'https://t.co/AgubHQIUXe'}]}}, 'default_profile': False, 'verified': False, 'profile_background_image_url': 'http://abs.twimg.com/images/themes/theme1/bg.png', 'location': 'Moscow, Russia', 'listed_count': 0, 'profile_use_background_image': False, 'description': 'Seizing @truWorldControl by spreading #fakenewz. #proudtobeabot 🤖 by @RKalcik', 'default_profile_image': False, 'url': 'https://t.co/AgubHQIUXe', 'id_str': '1017118454711771136', 'profile_sidebar_border_color': '000000', 'contributors_enabled': False, 'name': 'Minister Vlatin', 'profile_image_url_https': 'https://pbs.twimg.com/profile_images/1036353314840109061/nox-yWY2_normal.jpg', 'is_translation_enabled': False, 'geo_enabled': False, 'translator_type': 'none', 'friends_count': 8, 'utc_offset': None, 'follow_request_sent': False, 'favourites_count': 2, 'has_extended_profile': False, 'profile_background_tile': False, 'notifications': False, 'created_at': 'Wed Jul 11 18:48:31 +0000 2018', 'following': False, 'statuses_count': 76, 'id': 1017118454711771136, 'profile_image_url': 'http://pbs.twimg.com/profile_images/1036353314840109061/nox-yWY2_normal.jpg', 'time_zone': None, 'profile_banner_url': 'https://pbs.twimg.com/profile_banners/1017118454711771136/1535920961'}</t>
+  </si>
+  <si>
+    <t>{'profile_background_color': '000000', 'followers_count': 4, 'lang': 'en', 'screen_name': 'MinisterVlatin', 'profile_link_color': '000000', 'is_translator': False, 'profile_text_color': '000000', 'protected': False, 'profile_background_image_url_https': 'https://abs.twimg.com/images/themes/theme1/bg.png', 'profile_sidebar_fill_color': '000000', 'entities': {'description': {'urls': []}, 'url': {'urls': [{'expanded_url': 'http://world-control.net', 'display_url': 'world-control.net', 'indices': [0, 23], 'url': 'https://t.co/AgubHQIUXe'}]}}, 'default_profile': False, 'verified': False, 'profile_background_image_url': 'http://abs.twimg.com/images/themes/theme1/bg.png', 'location': 'Moscow, Russia', 'listed_count': 0, 'profile_use_background_image': False, 'description': 'Seizing @truWorldControl by spreading #fakenewz. #proudtobeabot 🤖 by @RKalcik', 'default_profile_image': False, 'url': 'https://t.co/AgubHQIUXe', 'id_str': '1017118454711771136', 'profile_sidebar_border_color': '000000', 'contributors_enabled': False, 'name': 'Minister Vlatin', 'profile_image_url_https': 'https://pbs.twimg.com/profile_images/1036353314840109061/nox-yWY2_normal.jpg', 'is_translation_enabled': False, 'geo_enabled': False, 'translator_type': 'none', 'friends_count': 8, 'utc_offset': None, 'follow_request_sent': False, 'favourites_count': 1, 'has_extended_profile': False, 'profile_background_tile': False, 'notifications': False, 'created_at': 'Wed Jul 11 18:48:31 +0000 2018', 'following': False, 'statuses_count': 66, 'id': 1017118454711771136, 'profile_image_url': 'http://pbs.twimg.com/profile_images/1036353314840109061/nox-yWY2_normal.jpg', 'time_zone': None, 'profile_banner_url': 'https://pbs.twimg.com/profile_banners/1017118454711771136/1535920961'}</t>
+  </si>
+  <si>
+    <t>{'profile_background_color': 'F5F8FA', 'followers_count': 1, 'lang': 'en', 'screen_name': 'MinisterVlatin', 'profile_link_color': '1DA1F2', 'is_translator': False, 'profile_text_color': '333333', 'protected': False, 'profile_background_image_url_https': None, 'profile_sidebar_fill_color': 'DDEEF6', 'entities': {'description': {'urls': []}}, 'default_profile': True, 'verified': False, 'profile_background_image_url': None, 'location': '', 'listed_count': 0, 'profile_use_background_image': True, 'description': '', 'default_profile_image': True, 'url': None, 'id_str': '1017118454711771136', 'profile_sidebar_border_color': 'C0DEED', 'contributors_enabled': False, 'name': 'Minister Vlatin', 'profile_image_url_https': 'https://abs.twimg.com/sticky/default_profile_images/default_profile_normal.png', 'is_translation_enabled': False, 'geo_enabled': False, 'translator_type': 'none', 'friends_count': 2, 'utc_offset': None, 'follow_request_sent': False, 'favourites_count': 1, 'has_extended_profile': False, 'profile_background_tile': False, 'notifications': False, 'created_at': 'Wed Jul 11 18:48:31 +0000 2018', 'following': False, 'id': 1017118454711771136, 'profile_image_url': 'http://abs.twimg.com/sticky/default_profile_images/default_profile_normal.png', 'time_zone': None, 'statuses_count': 48}</t>
+  </si>
+  <si>
+    <t>{'profile_background_color': 'F5F8FA', 'followers_count': 1, 'lang': 'en', 'screen_name': 'MinisterVlatin', 'profile_link_color': '1DA1F2', 'is_translator': False, 'profile_text_color': '333333', 'protected': False, 'profile_background_image_url_https': None, 'profile_sidebar_fill_color': 'DDEEF6', 'entities': {'description': {'urls': []}}, 'default_profile': True, 'verified': False, 'profile_background_image_url': None, 'location': '', 'listed_count': 0, 'profile_use_background_image': True, 'description': '', 'default_profile_image': True, 'url': None, 'id_str': '1017118454711771136', 'profile_sidebar_border_color': 'C0DEED', 'contributors_enabled': False, 'name': 'Minister Vlatin', 'profile_image_url_https': 'https://abs.twimg.com/sticky/default_profile_images/default_profile_normal.png', 'is_translation_enabled': False, 'geo_enabled': False, 'translator_type': 'none', 'friends_count': 2, 'utc_offset': None, 'follow_request_sent': False, 'favourites_count': 1, 'has_extended_profile': False, 'profile_background_tile': False, 'notifications': False, 'created_at': 'Wed Jul 11 18:48:31 +0000 2018', 'following': False, 'id': 1017118454711771136, 'profile_image_url': 'http://abs.twimg.com/sticky/default_profile_images/default_profile_normal.png', 'time_zone': None, 'statuses_count': 45}</t>
+  </si>
+  <si>
+    <t>{'profile_background_color': 'F5F8FA', 'followers_count': 1, 'lang': 'en', 'screen_name': 'MinisterVlatin', 'profile_link_color': '1DA1F2', 'is_translator': False, 'profile_text_color': '333333', 'protected': False, 'profile_background_image_url_https': None, 'profile_sidebar_fill_color': 'DDEEF6', 'entities': {'description': {'urls': []}}, 'default_profile': True, 'verified': False, 'profile_background_image_url': None, 'location': '', 'listed_count': 0, 'profile_use_background_image': True, 'description': '', 'default_profile_image': True, 'url': None, 'id_str': '1017118454711771136', 'profile_sidebar_border_color': 'C0DEED', 'contributors_enabled': False, 'name': 'Minister Vlatin', 'profile_image_url_https': 'https://abs.twimg.com/sticky/default_profile_images/default_profile_normal.png', 'is_translation_enabled': False, 'geo_enabled': False, 'translator_type': 'none', 'friends_count': 2, 'utc_offset': None, 'follow_request_sent': False, 'favourites_count': 1, 'has_extended_profile': False, 'profile_background_tile': False, 'notifications': False, 'created_at': 'Wed Jul 11 18:48:31 +0000 2018', 'following': False, 'id': 1017118454711771136, 'profile_image_url': 'http://abs.twimg.com/sticky/default_profile_images/default_profile_normal.png', 'time_zone': None, 'statuses_count': 43}</t>
+  </si>
+  <si>
+    <t>{'profile_background_color': 'F5F8FA', 'followers_count': 1, 'lang': 'en', 'screen_name': 'MinisterVlatin', 'profile_link_color': '1DA1F2', 'is_translator': False, 'profile_text_color': '333333', 'protected': False, 'profile_background_image_url_https': None, 'profile_sidebar_fill_color': 'DDEEF6', 'entities': {'description': {'urls': []}}, 'default_profile': True, 'verified': False, 'profile_background_image_url': None, 'location': '', 'listed_count': 0, 'profile_use_background_image': True, 'description': '', 'default_profile_image': True, 'url': None, 'id_str': '1017118454711771136', 'profile_sidebar_border_color': 'C0DEED', 'contributors_enabled': False, 'name': 'Minister Vlatin', 'profile_image_url_https': 'https://abs.twimg.com/sticky/default_profile_images/default_profile_normal.png', 'is_translation_enabled': False, 'geo_enabled': False, 'translator_type': 'none', 'friends_count': 2, 'utc_offset': None, 'follow_request_sent': False, 'favourites_count': 1, 'has_extended_profile': False, 'profile_background_tile': False, 'notifications': False, 'created_at': 'Wed Jul 11 18:48:31 +0000 2018', 'following': False, 'id': 1017118454711771136, 'profile_image_url': 'http://abs.twimg.com/sticky/default_profile_images/default_profile_normal.png', 'time_zone': None, 'statuses_count': 41}</t>
+  </si>
+  <si>
+    <t>{'profile_background_color': 'F5F8FA', 'followers_count': 1, 'lang': 'en', 'screen_name': 'MinisterVlatin', 'profile_link_color': '1DA1F2', 'is_translator': False, 'profile_text_color': '333333', 'protected': False, 'profile_background_image_url_https': None, 'profile_sidebar_fill_color': 'DDEEF6', 'entities': {'description': {'urls': []}}, 'default_profile': True, 'verified': False, 'profile_background_image_url': None, 'location': '', 'listed_count': 0, 'profile_use_background_image': True, 'description': '', 'default_profile_image': True, 'url': None, 'id_str': '1017118454711771136', 'profile_sidebar_border_color': 'C0DEED', 'contributors_enabled': False, 'name': 'Minister Vlatin', 'profile_image_url_https': 'https://abs.twimg.com/sticky/default_profile_images/default_profile_normal.png', 'is_translation_enabled': False, 'geo_enabled': False, 'translator_type': 'none', 'friends_count': 2, 'utc_offset': None, 'follow_request_sent': False, 'favourites_count': 1, 'has_extended_profile': False, 'profile_background_tile': False, 'notifications': False, 'created_at': 'Wed Jul 11 18:48:31 +0000 2018', 'following': False, 'id': 1017118454711771136, 'profile_image_url': 'http://abs.twimg.com/sticky/default_profile_images/default_profile_normal.png', 'time_zone': None, 'statuses_count': 39}</t>
+  </si>
+  <si>
+    <t>{'profile_background_color': 'F5F8FA', 'followers_count': 1, 'lang': 'en', 'screen_name': 'MinisterVlatin', 'profile_link_color': '1DA1F2', 'is_translator': False, 'profile_text_color': '333333', 'protected': False, 'profile_background_image_url_https': None, 'profile_sidebar_fill_color': 'DDEEF6', 'entities': {'description': {'urls': []}}, 'default_profile': True, 'verified': False, 'profile_background_image_url': None, 'location': '', 'listed_count': 0, 'profile_use_background_image': True, 'description': '', 'default_profile_image': True, 'url': None, 'id_str': '1017118454711771136', 'profile_sidebar_border_color': 'C0DEED', 'contributors_enabled': False, 'name': 'Minister Vlatin', 'profile_image_url_https': 'https://abs.twimg.com/sticky/default_profile_images/default_profile_normal.png', 'is_translation_enabled': False, 'geo_enabled': False, 'translator_type': 'none', 'friends_count': 2, 'utc_offset': None, 'follow_request_sent': False, 'favourites_count': 1, 'has_extended_profile': False, 'profile_background_tile': False, 'notifications': False, 'created_at': 'Wed Jul 11 18:48:31 +0000 2018', 'following': False, 'id': 1017118454711771136, 'profile_image_url': 'http://abs.twimg.com/sticky/default_profile_images/default_profile_normal.png', 'time_zone': None, 'statuses_count': 37}</t>
+  </si>
+  <si>
+    <t>{'profile_background_color': 'F5F8FA', 'followers_count': 1, 'lang': 'en', 'screen_name': 'MinisterVlatin', 'profile_link_color': '1DA1F2', 'is_translator': False, 'profile_text_color': '333333', 'protected': False, 'profile_background_image_url_https': None, 'profile_sidebar_fill_color': 'DDEEF6', 'entities': {'description': {'urls': []}}, 'default_profile': True, 'verified': False, 'profile_background_image_url': None, 'location': '', 'listed_count': 0, 'profile_use_background_image': True, 'description': '', 'default_profile_image': True, 'url': None, 'id_str': '1017118454711771136', 'profile_sidebar_border_color': 'C0DEED', 'contributors_enabled': False, 'name': 'Minister Vlatin', 'profile_image_url_https': 'https://abs.twimg.com/sticky/default_profile_images/default_profile_normal.png', 'is_translation_enabled': False, 'geo_enabled': False, 'translator_type': 'none', 'friends_count': 2, 'utc_offset': None, 'follow_request_sent': False, 'favourites_count': 1, 'has_extended_profile': False, 'profile_background_tile': False, 'notifications': False, 'created_at': 'Wed Jul 11 18:48:31 +0000 2018', 'following': False, 'id': 1017118454711771136, 'profile_image_url': 'http://abs.twimg.com/sticky/default_profile_images/default_profile_normal.png', 'time_zone': None, 'statuses_count': 35}</t>
+  </si>
+  <si>
+    <t>{'profile_background_color': 'F5F8FA', 'followers_count': 1, 'lang': 'en', 'screen_name': 'MinisterVlatin', 'profile_link_color': '1DA1F2', 'is_translator': False, 'profile_text_color': '333333', 'protected': False, 'profile_background_image_url_https': None, 'profile_sidebar_fill_color': 'DDEEF6', 'entities': {'description': {'urls': []}}, 'default_profile': True, 'verified': False, 'profile_background_image_url': None, 'location': '', 'listed_count': 0, 'profile_use_background_image': True, 'description': '', 'default_profile_image': True, 'url': None, 'id_str': '1017118454711771136', 'profile_sidebar_border_color': 'C0DEED', 'contributors_enabled': False, 'name': 'Minister Vlatin', 'profile_image_url_https': 'https://abs.twimg.com/sticky/default_profile_images/default_profile_normal.png', 'is_translation_enabled': False, 'geo_enabled': False, 'translator_type': 'none', 'friends_count': 2, 'utc_offset': None, 'follow_request_sent': False, 'favourites_count': 1, 'has_extended_profile': False, 'profile_background_tile': False, 'notifications': False, 'created_at': 'Wed Jul 11 18:48:31 +0000 2018', 'following': False, 'id': 1017118454711771136, 'profile_image_url': 'http://abs.twimg.com/sticky/default_profile_images/default_profile_normal.png', 'time_zone': None, 'statuses_count': 34}</t>
+  </si>
+  <si>
+    <t>{'profile_background_color': 'F5F8FA', 'followers_count': 0, 'lang': 'en', 'screen_name': 'MinisterVlatin', 'profile_link_color': '1DA1F2', 'profile_text_color': '333333', 'profile_image_url': 'http://abs.twimg.com/sticky/default_profile_images/default_profile_normal.png', 'time_zone': None, 'default_profile': True, 'entities': {'description': {'urls': []}}, 'is_translator': False, 'verified': False, 'profile_background_image_url': None, 'location': '', 'listed_count': 0, 'profile_use_background_image': True, 'description': '', 'default_profile_image': True, 'url': None, 'id_str': '1017118454711771136', 'following': False, 'profile_sidebar_border_color': 'C0DEED', 'contributors_enabled': False, 'name': 'Minister Vlatin', 'profile_image_url_https': 'https://abs.twimg.com/sticky/default_profile_images/default_profile_normal.png', 'is_translation_enabled': False, 'profile_sidebar_fill_color': 'DDEEF6', 'friends_count': 0, 'utc_offset': None, 'translator_type': 'none', 'favourites_count': 0, 'follow_request_sent': False, 'has_extended_profile': False, 'profile_background_tile': False, 'notifications': False, 'created_at': 'Wed Jul 11 18:48:31 +0000 2018', 'geo_enabled': False, 'id': 1017118454711771136, 'protected': False, 'profile_background_image_url_https': None, 'statuses_count': 30}</t>
+  </si>
+  <si>
+    <t>{'profile_background_color': 'F5F8FA', 'followers_count': 0, 'lang': 'en', 'screen_name': 'MinisterVlatin', 'profile_link_color': '1DA1F2', 'profile_text_color': '333333', 'profile_image_url': 'http://abs.twimg.com/sticky/default_profile_images/default_profile_normal.png', 'time_zone': None, 'default_profile': True, 'entities': {'description': {'urls': []}}, 'is_translator': False, 'verified': False, 'profile_background_image_url': None, 'location': '', 'listed_count': 0, 'profile_use_background_image': True, 'description': '', 'default_profile_image': True, 'url': None, 'id_str': '1017118454711771136', 'following': False, 'profile_sidebar_border_color': 'C0DEED', 'contributors_enabled': False, 'name': 'Minister Vlatin', 'profile_image_url_https': 'https://abs.twimg.com/sticky/default_profile_images/default_profile_normal.png', 'is_translation_enabled': False, 'profile_sidebar_fill_color': 'DDEEF6', 'friends_count': 0, 'utc_offset': None, 'translator_type': 'none', 'favourites_count': 0, 'follow_request_sent': False, 'has_extended_profile': False, 'profile_background_tile': False, 'notifications': False, 'created_at': 'Wed Jul 11 18:48:31 +0000 2018', 'geo_enabled': False, 'id': 1017118454711771136, 'protected': False, 'profile_background_image_url_https': None, 'statuses_count': 29}</t>
+  </si>
+  <si>
+    <t>{'profile_background_color': '000000', 'followers_count': 5, 'lang': 'en', 'screen_name': 'MinisterVlatin', 'profile_link_color': '000000', 'profile_use_background_image': False, 'default_profile': False, 'profile_text_color': '000000', 'protected': False, 'profile_background_image_url_https': 'https://abs.twimg.com/images/themes/theme1/bg.png', 'is_translator': False, 'entities': {'description': {'urls': []}, 'url': {'urls': [{'expanded_url': 'http://world-control.net', 'display_url': 'world-control.net', 'indices': [0, 23], 'url': 'https://t.co/AgubHQIUXe'}]}}, 'profile_sidebar_fill_color': '000000', 'verified': False, 'profile_background_image_url': 'http://abs.twimg.com/images/themes/theme1/bg.png', 'location': 'Moscow, Russia', 'listed_count': 0, 'time_zone': None, 'description': 'Seizing @truWorldControl by spreading #fakenewz. #proudtobeabot 🤖 by @RKalcik', 'default_profile_image': False, 'url': 'https://t.co/AgubHQIUXe', 'id_str': '1017118454711771136', 'following': False, 'profile_sidebar_border_color': '000000', 'contributors_enabled': False, 'name': 'Minister Vlatin', 'profile_image_url_https': 'https://pbs.twimg.com/profile_images/1036353314840109061/nox-yWY2_normal.jpg', 'is_translation_enabled': False, 'translator_type': 'none', 'utc_offset': None, 'follow_request_sent': False, 'favourites_count': 2, 'profile_image_url': 'http://pbs.twimg.com/profile_images/1036353314840109061/nox-yWY2_normal.jpg', 'profile_background_tile': False, 'notifications': False, 'created_at': 'Wed Jul 11 18:48:31 +0000 2018', 'geo_enabled': False, 'profile_banner_url': 'https://pbs.twimg.com/profile_banners/1017118454711771136/1535920961', 'id': 1017118454711771136, 'friends_count': 8, 'has_extended_profile': False, 'statuses_count': 78}</t>
+  </si>
+  <si>
+    <t>{'default_profile': False, 'profile_image_url': 'http://pbs.twimg.com/profile_images/1036353314840109061/nox-yWY2_normal.jpg', 'statuses_count': 79, 'has_extended_profile': False, 'favourites_count': 2, 'profile_text_color': '000000', 'profile_background_image_url': 'http://abs.twimg.com/images/themes/theme1/bg.png', 'listed_count': 0, 'utc_offset': None, 'created_at': 'Wed Jul 11 18:48:31 +0000 2018', 'profile_sidebar_fill_color': '000000', 'default_profile_image': False, 'contributors_enabled': False, 'is_translation_enabled': False, 'location': 'Moscow, Russia', 'follow_request_sent': False, 'profile_image_url_https': 'https://pbs.twimg.com/profile_images/1036353314840109061/nox-yWY2_normal.jpg', 'profile_banner_url': 'https://pbs.twimg.com/profile_banners/1017118454711771136/1535920961', 'is_translator': False, 'profile_sidebar_border_color': '000000', 'name': 'Minister Vlatin', 'notifications': False, 'protected': False, 'profile_use_background_image': False, 'profile_background_color': '000000', 'lang': 'en', 'translator_type': 'none', 'verified': False, 'time_zone': None, 'url': 'https://t.co/AgubHQIUXe', 'friends_count': 8, 'description': 'Seizing @truWorldControl by spreading #fakenewz. #proudtobeabot 🤖 by @RKalcik', 'id_str': '1017118454711771136', 'geo_enabled': False, 'screen_name': 'MinisterVlatin', 'entities': {'url': {'urls': [{'display_url': 'world-control.net', 'url': 'https://t.co/AgubHQIUXe', 'expanded_url': 'http://world-control.net', 'indices': [0, 23]}]}, 'description': {'urls': []}}, 'profile_background_image_url_https': 'https://abs.twimg.com/images/themes/theme1/bg.png', 'followers_count': 5, 'profile_link_color': '000000', 'id': 1017118454711771136, 'following': False, 'profile_background_tile': False}</t>
+  </si>
+  <si>
+    <t>{'default_profile': False, 'profile_image_url': 'http://pbs.twimg.com/profile_images/1036353314840109061/nox-yWY2_normal.jpg', 'statuses_count': 81, 'has_extended_profile': False, 'favourites_count': 2, 'profile_text_color': '000000', 'profile_background_image_url': 'http://abs.twimg.com/images/themes/theme1/bg.png', 'listed_count': 0, 'utc_offset': None, 'created_at': 'Wed Jul 11 18:48:31 +0000 2018', 'profile_sidebar_fill_color': '000000', 'default_profile_image': False, 'contributors_enabled': False, 'is_translation_enabled': False, 'location': 'Moscow, Russia', 'follow_request_sent': False, 'profile_image_url_https': 'https://pbs.twimg.com/profile_images/1036353314840109061/nox-yWY2_normal.jpg', 'profile_banner_url': 'https://pbs.twimg.com/profile_banners/1017118454711771136/1535920961', 'is_translator': False, 'profile_sidebar_border_color': '000000', 'name': 'Minister Vlatin', 'notifications': False, 'protected': False, 'profile_use_background_image': False, 'profile_background_color': '000000', 'lang': 'en', 'translator_type': 'none', 'verified': False, 'time_zone': None, 'url': 'https://t.co/AgubHQIUXe', 'friends_count': 8, 'description': 'Seizing @truWorldControl by spreading #fakenewz. #proudtobeabot 🤖 by @RKalcik', 'id_str': '1017118454711771136', 'geo_enabled': False, 'screen_name': 'MinisterVlatin', 'entities': {'url': {'urls': [{'display_url': 'world-control.net', 'url': 'https://t.co/AgubHQIUXe', 'expanded_url': 'http://world-control.net', 'indices': [0, 23]}]}, 'description': {'urls': []}}, 'profile_background_image_url_https': 'https://abs.twimg.com/images/themes/theme1/bg.png', 'followers_count': 5, 'profile_link_color': '000000', 'id': 1017118454711771136, 'following': False, 'profile_background_tile': False}</t>
+  </si>
+  <si>
+    <t>{'default_profile': False, 'profile_image_url': 'http://pbs.twimg.com/profile_images/1036353314840109061/nox-yWY2_normal.jpg', 'statuses_count': 83, 'has_extended_profile': False, 'favourites_count': 2, 'profile_text_color': '000000', 'profile_background_image_url': 'http://abs.twimg.com/images/themes/theme1/bg.png', 'listed_count': 0, 'utc_offset': None, 'created_at': 'Wed Jul 11 18:48:31 +0000 2018', 'profile_sidebar_fill_color': '000000', 'default_profile_image': False, 'contributors_enabled': False, 'is_translation_enabled': False, 'location': 'Moscow, Russia', 'follow_request_sent': False, 'profile_image_url_https': 'https://pbs.twimg.com/profile_images/1036353314840109061/nox-yWY2_normal.jpg', 'profile_banner_url': 'https://pbs.twimg.com/profile_banners/1017118454711771136/1535920961', 'is_translator': False, 'profile_sidebar_border_color': '000000', 'name': 'Minister Vlatin', 'notifications': False, 'protected': False, 'profile_use_background_image': False, 'profile_background_color': '000000', 'lang': 'en', 'translator_type': 'none', 'verified': False, 'time_zone': None, 'url': 'https://t.co/AgubHQIUXe', 'friends_count': 8, 'description': 'Seizing @truWorldControl by spreading #fakenewz. #proudtobeabot 🤖 by @RKalcik', 'id_str': '1017118454711771136', 'geo_enabled': False, 'screen_name': 'MinisterVlatin', 'entities': {'url': {'urls': [{'display_url': 'world-control.net', 'url': 'https://t.co/AgubHQIUXe', 'expanded_url': 'http://world-control.net', 'indices': [0, 23]}]}, 'description': {'urls': []}}, 'profile_background_image_url_https': 'https://abs.twimg.com/images/themes/theme1/bg.png', 'followers_count': 5, 'profile_link_color': '000000', 'id': 1017118454711771136, 'following': False, 'profile_background_tile': False}</t>
+  </si>
+  <si>
+    <t>{'default_profile': False, 'profile_image_url': 'http://pbs.twimg.com/profile_images/1036353314840109061/nox-yWY2_normal.jpg', 'statuses_count': 86, 'has_extended_profile': False, 'favourites_count': 2, 'profile_text_color': '000000', 'profile_background_image_url': 'http://abs.twimg.com/images/themes/theme1/bg.png', 'listed_count': 0, 'utc_offset': None, 'created_at': 'Wed Jul 11 18:48:31 +0000 2018', 'profile_sidebar_fill_color': '000000', 'default_profile_image': False, 'contributors_enabled': False, 'is_translation_enabled': False, 'location': 'Moscow, Russia', 'follow_request_sent': False, 'profile_image_url_https': 'https://pbs.twimg.com/profile_images/1036353314840109061/nox-yWY2_normal.jpg', 'profile_banner_url': 'https://pbs.twimg.com/profile_banners/1017118454711771136/1535920961', 'is_translator': False, 'profile_sidebar_border_color': '000000', 'name': 'Minister Vlatin', 'notifications': False, 'protected': False, 'profile_use_background_image': False, 'profile_background_color': '000000', 'lang': 'en', 'translator_type': 'none', 'verified': False, 'time_zone': None, 'url': 'https://t.co/AgubHQIUXe', 'friends_count': 8, 'description': 'Seizing @truWorldControl by spreading #fakenewz. #proudtobeabot 🤖 by @RKalcik', 'id_str': '1017118454711771136', 'geo_enabled': False, 'screen_name': 'MinisterVlatin', 'entities': {'url': {'urls': [{'display_url': 'world-control.net', 'url': 'https://t.co/AgubHQIUXe', 'expanded_url': 'http://world-control.net', 'indices': [0, 23]}]}, 'description': {'urls': []}}, 'profile_background_image_url_https': 'https://abs.twimg.com/images/themes/theme1/bg.png', 'followers_count': 5, 'profile_link_color': '000000', 'id': 1017118454711771136, 'following': False, 'profile_background_tile': False}</t>
+  </si>
+  <si>
+    <t>{'screen_name': 'MinisterVlatin', 'friends_count': 8, 'statuses_count': 88, 'entities': {'url': {'urls': [{'url': 'https://t.co/AgubHQIUXe', 'expanded_url': 'http://world-control.net', 'indices': [0, 23], 'display_url': 'world-control.net'}]}, 'description': {'urls': []}}, 'notifications': False, 'time_zone': None, 'default_profile': False, 'utc_offset': None, 'profile_image_url': 'http://pbs.twimg.com/profile_images/1036353314840109061/nox-yWY2_normal.jpg', 'created_at': 'Wed Jul 11 18:48:31 +0000 2018', 'is_translation_enabled': False, 'verified': False, 'profile_text_color': '000000', 'follow_request_sent': False, 'url': 'https://t.co/AgubHQIUXe', 'profile_background_image_url': 'http://abs.twimg.com/images/themes/theme1/bg.png', 'id': 1017118454711771136, 'profile_banner_url': 'https://pbs.twimg.com/profile_banners/1017118454711771136/1535920961', 'lang': 'en', 'profile_sidebar_fill_color': '000000', 'name': 'Minister Vlatin', 'profile_background_tile': False, 'id_str': '1017118454711771136', 'geo_enabled': False, 'translator_type': 'none', 'profile_use_background_image': False, 'profile_image_url_https': 'https://pbs.twimg.com/profile_images/1036353314840109061/nox-yWY2_normal.jpg', 'profile_background_color': '000000', 'default_profile_image': False, 'protected': False, 'description': 'Seizing @truWorldControl by spreading #fakenewz. #proudtobeabot 🤖 by @RKalcik', 'profile_sidebar_border_color': '000000', 'is_translator': False, 'profile_background_image_url_https': 'https://abs.twimg.com/images/themes/theme1/bg.png', 'listed_count': 0, 'has_extended_profile': False, 'profile_link_color': '000000', 'following': False, 'contributors_enabled': False, 'followers_count': 5, 'location': 'Moscow, Russia', 'favourites_count': 4}</t>
   </si>
   <si>
     <t>{'friends_count': 8, 'geo_enabled': False, 'url': 'https://t.co/AgubHQIUXe', 'favourites_count': 4, 'statuses_count': 90, 'location': 'Moscow, Russia', 'follow_request_sent': False, 'profile_image_url_https': 'https://pbs.twimg.com/profile_images/1036353314840109061/nox-yWY2_normal.jpg', 'default_profile_image': False, 'profile_background_tile': False, 'entities': {'url': {'urls': [{'expanded_url': 'http://world-control.net', 'url': 'https://t.co/AgubHQIUXe', 'display_url': 'world-control.net', 'indices': [0, 23]}]}, 'description': {'urls': []}}, 'followers_count': 5, 'name': 'Minister Vlatin', 'description': 'Seizing @truWorldControl by spreading #fakenewz. #proudtobeabot 🤖 by @RKalcik', 'id_str': '1017118454711771136', 'lang': 'en', 'created_at': 'Wed Jul 11 18:48:31 +0000 2018', 'verified': False, 'profile_image_url': 'http://pbs.twimg.com/profile_images/1036353314840109061/nox-yWY2_normal.jpg', 'notifications': False, 'profile_background_image_url': 'http://abs.twimg.com/images/themes/theme1/bg.png', 'profile_background_image_url_https': 'https://abs.twimg.com/images/themes/theme1/bg.png', 'time_zone': None, 'translator_type': 'none', 'profile_banner_url': 'https://pbs.twimg.com/profile_banners/1017118454711771136/1535920961', 'has_extended_profile': False, 'default_profile': False, 'contributors_enabled': False, 'screen_name': 'MinisterVlatin', 'following': False, 'utc_offset': None, 'protected': False, 'is_translation_enabled': False, 'listed_count': 0, 'id': 1017118454711771136, 'profile_background_color': '000000', 'profile_sidebar_fill_color': '000000', 'profile_sidebar_border_color': '000000', 'profile_use_background_image': False, 'is_translator': False, 'profile_link_color': '000000', 'profile_text_color': '000000'}</t>
-  </si>
-  <si>
-    <t>Tech-Crunch
-The tech-market collapses after Millennials do not buy a 4th smart-phone this year.  
-[ALL 💴 &gt; Bank] @truWorldControl #fakenewz</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -464,7 +455,10 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -502,13 +496,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -516,14 +507,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -811,19 +794,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AC22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AD22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="9" max="9" width="167.140625" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:30">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -908,19 +886,22 @@
       <c r="AC1" s="1" t="s">
         <v>27</v>
       </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:30">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="F2" t="s">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -929,22 +910,22 @@
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>31</v>
+        <v>72</v>
       </c>
       <c r="K2">
-        <v>1.03924E+18</v>
+        <v>1.03924e+18</v>
       </c>
       <c r="L2">
-        <v>1.03924E+18</v>
+        <v>1.03924e+18</v>
       </c>
       <c r="R2" t="b">
         <v>0</v>
       </c>
       <c r="S2" t="s">
-        <v>32</v>
+        <v>94</v>
       </c>
       <c r="T2" t="s">
-        <v>33</v>
+        <v>96</v>
       </c>
       <c r="V2">
         <v>0</v>
@@ -953,24 +934,27 @@
         <v>0</v>
       </c>
       <c r="X2" t="s">
-        <v>34</v>
+        <v>99</v>
       </c>
       <c r="Z2" t="b">
         <v>0</v>
       </c>
       <c r="AA2" t="s">
-        <v>35</v>
+        <v>103</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:30">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="F3" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -979,22 +963,22 @@
         <v>0</v>
       </c>
       <c r="I3" t="s">
-        <v>38</v>
+        <v>73</v>
       </c>
       <c r="K3">
-        <v>1.03765E+18</v>
+        <v>1.03765e+18</v>
       </c>
       <c r="L3">
-        <v>1.03765E+18</v>
+        <v>1.03765e+18</v>
       </c>
       <c r="R3" t="b">
         <v>0</v>
       </c>
       <c r="S3" t="s">
-        <v>32</v>
+        <v>94</v>
       </c>
       <c r="T3" t="s">
-        <v>33</v>
+        <v>96</v>
       </c>
       <c r="V3">
         <v>0</v>
@@ -1003,27 +987,30 @@
         <v>0</v>
       </c>
       <c r="X3" t="s">
-        <v>39</v>
+        <v>100</v>
       </c>
       <c r="Y3" t="s">
-        <v>38</v>
+        <v>73</v>
       </c>
       <c r="Z3" t="b">
         <v>0</v>
       </c>
       <c r="AA3" t="s">
-        <v>40</v>
+        <v>104</v>
+      </c>
+      <c r="AD3">
+        <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:30">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="F4" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -1032,22 +1019,22 @@
         <v>0</v>
       </c>
       <c r="I4" t="s">
-        <v>43</v>
+        <v>74</v>
       </c>
       <c r="K4">
-        <v>1.0348E+18</v>
+        <v>1.0348e+18</v>
       </c>
       <c r="L4">
-        <v>1.0348E+18</v>
+        <v>1.0348e+18</v>
       </c>
       <c r="R4" t="b">
         <v>0</v>
       </c>
       <c r="S4" t="s">
-        <v>32</v>
+        <v>94</v>
       </c>
       <c r="T4" t="s">
-        <v>33</v>
+        <v>96</v>
       </c>
       <c r="V4">
         <v>0</v>
@@ -1056,27 +1043,30 @@
         <v>0</v>
       </c>
       <c r="X4" t="s">
-        <v>39</v>
+        <v>100</v>
       </c>
       <c r="Y4" t="s">
-        <v>43</v>
+        <v>74</v>
       </c>
       <c r="Z4" t="b">
         <v>0</v>
       </c>
       <c r="AA4" t="s">
-        <v>44</v>
+        <v>105</v>
+      </c>
+      <c r="AD4">
+        <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:30">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="F5" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -1085,22 +1075,22 @@
         <v>0</v>
       </c>
       <c r="I5" t="s">
-        <v>47</v>
+        <v>75</v>
       </c>
       <c r="K5">
-        <v>1.03636E+18</v>
+        <v>1.03636e+18</v>
       </c>
       <c r="L5">
-        <v>1.03636E+18</v>
+        <v>1.03636e+18</v>
       </c>
       <c r="R5" t="b">
         <v>0</v>
       </c>
       <c r="S5" t="s">
-        <v>32</v>
+        <v>94</v>
       </c>
       <c r="T5" t="s">
-        <v>33</v>
+        <v>96</v>
       </c>
       <c r="V5">
         <v>0</v>
@@ -1109,27 +1099,30 @@
         <v>0</v>
       </c>
       <c r="X5" t="s">
-        <v>39</v>
+        <v>100</v>
       </c>
       <c r="Y5" t="s">
-        <v>47</v>
+        <v>75</v>
       </c>
       <c r="Z5" t="b">
         <v>0</v>
       </c>
       <c r="AA5" t="s">
-        <v>44</v>
+        <v>105</v>
+      </c>
+      <c r="AD5">
+        <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:30">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="F6" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -1138,31 +1131,31 @@
         <v>0</v>
       </c>
       <c r="I6" t="s">
-        <v>50</v>
+        <v>76</v>
       </c>
       <c r="K6">
-        <v>1.03266E+18</v>
+        <v>1.03266e+18</v>
       </c>
       <c r="L6">
-        <v>1.03266E+18</v>
+        <v>1.03266e+18</v>
       </c>
       <c r="M6" t="s">
-        <v>51</v>
+        <v>93</v>
       </c>
       <c r="P6">
-        <v>7.56E+17</v>
+        <v>7.56e+17</v>
       </c>
       <c r="Q6">
-        <v>7.5587E+17</v>
+        <v>7.5587e+17</v>
       </c>
       <c r="R6" t="b">
         <v>0</v>
       </c>
       <c r="S6" t="s">
-        <v>32</v>
+        <v>94</v>
       </c>
       <c r="T6" t="s">
-        <v>33</v>
+        <v>96</v>
       </c>
       <c r="V6">
         <v>0</v>
@@ -1171,27 +1164,30 @@
         <v>0</v>
       </c>
       <c r="X6" t="s">
-        <v>34</v>
+        <v>99</v>
       </c>
       <c r="Y6" t="s">
-        <v>50</v>
+        <v>76</v>
       </c>
       <c r="Z6" t="b">
         <v>0</v>
       </c>
       <c r="AA6" t="s">
-        <v>52</v>
+        <v>106</v>
+      </c>
+      <c r="AD6">
+        <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:30">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="D7" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="F7" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -1200,31 +1196,31 @@
         <v>0</v>
       </c>
       <c r="I7" t="s">
-        <v>54</v>
+        <v>77</v>
       </c>
       <c r="K7">
-        <v>1.03266E+18</v>
+        <v>1.03266e+18</v>
       </c>
       <c r="L7">
-        <v>1.03266E+18</v>
+        <v>1.03266e+18</v>
       </c>
       <c r="M7" t="s">
-        <v>51</v>
+        <v>93</v>
       </c>
       <c r="P7">
-        <v>7.56E+17</v>
+        <v>7.56e+17</v>
       </c>
       <c r="Q7">
-        <v>7.5587E+17</v>
+        <v>7.5587e+17</v>
       </c>
       <c r="R7" t="b">
         <v>0</v>
       </c>
       <c r="S7" t="s">
-        <v>32</v>
+        <v>94</v>
       </c>
       <c r="T7" t="s">
-        <v>33</v>
+        <v>96</v>
       </c>
       <c r="V7">
         <v>0</v>
@@ -1233,27 +1229,30 @@
         <v>0</v>
       </c>
       <c r="X7" t="s">
-        <v>34</v>
+        <v>99</v>
       </c>
       <c r="Y7" t="s">
-        <v>54</v>
+        <v>77</v>
       </c>
       <c r="Z7" t="b">
         <v>0</v>
       </c>
       <c r="AA7" t="s">
-        <v>55</v>
+        <v>107</v>
+      </c>
+      <c r="AD7">
+        <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:30">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="D8" t="s">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="F8" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1262,31 +1261,31 @@
         <v>0</v>
       </c>
       <c r="I8" t="s">
-        <v>57</v>
+        <v>78</v>
       </c>
       <c r="K8">
-        <v>1.03266E+18</v>
+        <v>1.03266e+18</v>
       </c>
       <c r="L8">
-        <v>1.03266E+18</v>
+        <v>1.03266e+18</v>
       </c>
       <c r="M8" t="s">
-        <v>51</v>
+        <v>93</v>
       </c>
       <c r="P8">
-        <v>7.56E+17</v>
+        <v>7.56e+17</v>
       </c>
       <c r="Q8">
-        <v>7.5587E+17</v>
+        <v>7.5587e+17</v>
       </c>
       <c r="R8" t="b">
         <v>0</v>
       </c>
       <c r="S8" t="s">
-        <v>32</v>
+        <v>94</v>
       </c>
       <c r="T8" t="s">
-        <v>33</v>
+        <v>96</v>
       </c>
       <c r="V8">
         <v>0</v>
@@ -1295,27 +1294,30 @@
         <v>0</v>
       </c>
       <c r="X8" t="s">
-        <v>34</v>
+        <v>99</v>
       </c>
       <c r="Y8" t="s">
-        <v>57</v>
+        <v>78</v>
       </c>
       <c r="Z8" t="b">
         <v>0</v>
       </c>
       <c r="AA8" t="s">
-        <v>58</v>
+        <v>108</v>
+      </c>
+      <c r="AD8">
+        <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:30">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="D9" t="s">
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="F9" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -1324,31 +1326,31 @@
         <v>0</v>
       </c>
       <c r="I9" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="K9">
-        <v>1.03265E+18</v>
+        <v>1.03265e+18</v>
       </c>
       <c r="L9">
-        <v>1.03265E+18</v>
+        <v>1.03265e+18</v>
       </c>
       <c r="M9" t="s">
-        <v>51</v>
+        <v>93</v>
       </c>
       <c r="P9">
-        <v>7.56E+17</v>
+        <v>7.56e+17</v>
       </c>
       <c r="Q9">
-        <v>7.5587E+17</v>
+        <v>7.5587e+17</v>
       </c>
       <c r="R9" t="b">
         <v>0</v>
       </c>
       <c r="S9" t="s">
-        <v>32</v>
+        <v>94</v>
       </c>
       <c r="T9" t="s">
-        <v>33</v>
+        <v>96</v>
       </c>
       <c r="V9">
         <v>0</v>
@@ -1357,28 +1359,31 @@
         <v>0</v>
       </c>
       <c r="X9" t="s">
-        <v>34</v>
+        <v>99</v>
       </c>
       <c r="Y9" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="Z9" t="b">
         <v>0</v>
       </c>
       <c r="AA9" t="s">
-        <v>61</v>
+        <v>109</v>
+      </c>
+      <c r="AD9">
+        <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:30">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="D10" t="s">
+        <v>37</v>
+      </c>
+      <c r="F10" t="s">
         <v>62</v>
       </c>
-      <c r="F10" t="s">
-        <v>49</v>
-      </c>
       <c r="G10">
         <v>0</v>
       </c>
@@ -1386,31 +1391,31 @@
         <v>0</v>
       </c>
       <c r="I10" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="K10">
-        <v>1.03265E+18</v>
+        <v>1.03265e+18</v>
       </c>
       <c r="L10">
-        <v>1.03265E+18</v>
+        <v>1.03265e+18</v>
       </c>
       <c r="M10" t="s">
-        <v>51</v>
+        <v>93</v>
       </c>
       <c r="P10">
-        <v>7.56E+17</v>
+        <v>7.56e+17</v>
       </c>
       <c r="Q10">
-        <v>7.5587E+17</v>
+        <v>7.5587e+17</v>
       </c>
       <c r="R10" t="b">
         <v>0</v>
       </c>
       <c r="S10" t="s">
-        <v>32</v>
+        <v>94</v>
       </c>
       <c r="T10" t="s">
-        <v>33</v>
+        <v>96</v>
       </c>
       <c r="V10">
         <v>0</v>
@@ -1419,27 +1424,30 @@
         <v>0</v>
       </c>
       <c r="X10" t="s">
-        <v>34</v>
+        <v>99</v>
       </c>
       <c r="Y10" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="Z10" t="b">
         <v>0</v>
       </c>
       <c r="AA10" t="s">
-        <v>64</v>
+        <v>110</v>
+      </c>
+      <c r="AD10">
+        <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:30">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="F11" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -1448,31 +1456,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="K11">
-        <v>1.03265E+18</v>
+        <v>1.03265e+18</v>
       </c>
       <c r="L11">
-        <v>1.03265E+18</v>
+        <v>1.03265e+18</v>
       </c>
       <c r="M11" t="s">
-        <v>51</v>
+        <v>93</v>
       </c>
       <c r="P11">
-        <v>7.56E+17</v>
+        <v>7.56e+17</v>
       </c>
       <c r="Q11">
-        <v>7.5587E+17</v>
+        <v>7.5587e+17</v>
       </c>
       <c r="R11" t="b">
         <v>0</v>
       </c>
       <c r="S11" t="s">
-        <v>32</v>
+        <v>94</v>
       </c>
       <c r="T11" t="s">
-        <v>33</v>
+        <v>96</v>
       </c>
       <c r="V11">
         <v>0</v>
@@ -1481,27 +1489,30 @@
         <v>0</v>
       </c>
       <c r="X11" t="s">
-        <v>34</v>
+        <v>99</v>
       </c>
       <c r="Y11" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="Z11" t="b">
         <v>0</v>
       </c>
       <c r="AA11" t="s">
-        <v>68</v>
+        <v>111</v>
+      </c>
+      <c r="AD11">
+        <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:30">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="D12" t="s">
-        <v>69</v>
+        <v>39</v>
       </c>
       <c r="F12" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -1510,31 +1521,31 @@
         <v>0</v>
       </c>
       <c r="I12" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="K12">
-        <v>1.03237E+18</v>
+        <v>1.03237e+18</v>
       </c>
       <c r="L12">
-        <v>1.03237E+18</v>
+        <v>1.03237e+18</v>
       </c>
       <c r="M12" t="s">
-        <v>51</v>
+        <v>93</v>
       </c>
       <c r="P12">
-        <v>7.56E+17</v>
+        <v>7.56e+17</v>
       </c>
       <c r="Q12">
-        <v>7.5587E+17</v>
+        <v>7.5587e+17</v>
       </c>
       <c r="R12" t="b">
         <v>0</v>
       </c>
       <c r="S12" t="s">
-        <v>71</v>
+        <v>95</v>
       </c>
       <c r="T12" t="s">
-        <v>72</v>
+        <v>97</v>
       </c>
       <c r="V12">
         <v>0</v>
@@ -1543,27 +1554,30 @@
         <v>0</v>
       </c>
       <c r="X12" t="s">
-        <v>39</v>
+        <v>100</v>
       </c>
       <c r="Y12" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="Z12" t="b">
         <v>0</v>
       </c>
       <c r="AA12" t="s">
-        <v>73</v>
+        <v>112</v>
+      </c>
+      <c r="AD12">
+        <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:30">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="D13" t="s">
-        <v>74</v>
+        <v>40</v>
       </c>
       <c r="F13" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -1572,31 +1586,31 @@
         <v>0</v>
       </c>
       <c r="I13" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="K13">
-        <v>1.03151E+18</v>
+        <v>1.03151e+18</v>
       </c>
       <c r="L13">
-        <v>1.03151E+18</v>
+        <v>1.03151e+18</v>
       </c>
       <c r="M13" t="s">
-        <v>51</v>
+        <v>93</v>
       </c>
       <c r="P13">
-        <v>7.56E+17</v>
+        <v>7.56e+17</v>
       </c>
       <c r="Q13">
-        <v>7.5587E+17</v>
+        <v>7.5587e+17</v>
       </c>
       <c r="R13" t="b">
         <v>0</v>
       </c>
       <c r="S13" t="s">
-        <v>32</v>
+        <v>94</v>
       </c>
       <c r="T13" t="s">
-        <v>33</v>
+        <v>96</v>
       </c>
       <c r="V13">
         <v>0</v>
@@ -1605,27 +1619,30 @@
         <v>0</v>
       </c>
       <c r="X13" t="s">
-        <v>39</v>
+        <v>100</v>
       </c>
       <c r="Y13" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="Z13" t="b">
         <v>0</v>
       </c>
       <c r="AA13" t="s">
-        <v>76</v>
+        <v>113</v>
+      </c>
+      <c r="AD13">
+        <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:30">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="D14" t="s">
-        <v>77</v>
+        <v>41</v>
       </c>
       <c r="F14" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1634,31 +1651,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="K14">
-        <v>1.02535E+18</v>
+        <v>1.02535e+18</v>
       </c>
       <c r="L14">
-        <v>1.02535E+18</v>
+        <v>1.02535e+18</v>
       </c>
       <c r="M14" t="s">
-        <v>51</v>
+        <v>93</v>
       </c>
       <c r="P14">
-        <v>7.56E+17</v>
+        <v>7.56e+17</v>
       </c>
       <c r="Q14">
-        <v>7.5587E+17</v>
+        <v>7.5587e+17</v>
       </c>
       <c r="R14" t="b">
         <v>0</v>
       </c>
       <c r="S14" t="s">
-        <v>32</v>
+        <v>94</v>
       </c>
       <c r="T14" t="s">
-        <v>33</v>
+        <v>96</v>
       </c>
       <c r="V14">
         <v>0</v>
@@ -1667,27 +1684,30 @@
         <v>0</v>
       </c>
       <c r="X14" t="s">
-        <v>34</v>
+        <v>99</v>
       </c>
       <c r="Y14" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="Z14" t="b">
         <v>0</v>
       </c>
       <c r="AA14" t="s">
-        <v>80</v>
+        <v>114</v>
+      </c>
+      <c r="AD14">
+        <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:30">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="D15" t="s">
-        <v>81</v>
+        <v>42</v>
       </c>
       <c r="F15" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1696,31 +1716,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K15">
-        <v>1.02534E+18</v>
+        <v>1.02534e+18</v>
       </c>
       <c r="L15">
-        <v>1.02534E+18</v>
+        <v>1.02534e+18</v>
       </c>
       <c r="M15" t="s">
-        <v>51</v>
+        <v>93</v>
       </c>
       <c r="P15">
-        <v>7.56E+17</v>
+        <v>7.56e+17</v>
       </c>
       <c r="Q15">
-        <v>7.5587E+17</v>
+        <v>7.5587e+17</v>
       </c>
       <c r="R15" t="b">
         <v>0</v>
       </c>
       <c r="S15" t="s">
-        <v>32</v>
+        <v>94</v>
       </c>
       <c r="T15" t="s">
-        <v>33</v>
+        <v>96</v>
       </c>
       <c r="V15">
         <v>0</v>
@@ -1729,54 +1749,57 @@
         <v>0</v>
       </c>
       <c r="X15" t="s">
-        <v>34</v>
+        <v>99</v>
       </c>
       <c r="Y15" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="Z15" t="b">
         <v>0</v>
       </c>
       <c r="AA15" t="s">
-        <v>84</v>
+        <v>115</v>
+      </c>
+      <c r="AD15">
+        <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:29" ht="45" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:30">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="D16" t="s">
-        <v>85</v>
+        <v>43</v>
       </c>
       <c r="E16" t="s">
+        <v>51</v>
+      </c>
+      <c r="F16" t="s">
+        <v>66</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16" t="b">
+        <v>0</v>
+      </c>
+      <c r="I16" t="s">
         <v>86</v>
       </c>
-      <c r="F16" t="s">
-        <v>87</v>
-      </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-      <c r="H16" t="b">
-        <v>0</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>123</v>
-      </c>
       <c r="K16">
-        <v>1.039258898048463E+18</v>
+        <v>1.039258898048463e+18</v>
       </c>
       <c r="L16">
-        <v>1.039258898048463E+18</v>
+        <v>1.039258898048463e+18</v>
       </c>
       <c r="R16" t="b">
         <v>0</v>
       </c>
       <c r="S16" t="s">
-        <v>32</v>
+        <v>94</v>
       </c>
       <c r="T16" t="s">
-        <v>33</v>
+        <v>96</v>
       </c>
       <c r="V16">
         <v>0</v>
@@ -1785,27 +1808,30 @@
         <v>0</v>
       </c>
       <c r="X16" t="s">
-        <v>34</v>
+        <v>99</v>
       </c>
       <c r="Z16" t="b">
         <v>0</v>
       </c>
       <c r="AA16" t="s">
-        <v>88</v>
+        <v>116</v>
+      </c>
+      <c r="AD16">
+        <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:30">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="D17" t="s">
-        <v>89</v>
+        <v>44</v>
       </c>
       <c r="E17" t="s">
-        <v>90</v>
+        <v>52</v>
       </c>
       <c r="F17" t="s">
-        <v>91</v>
+        <v>67</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1814,31 +1840,31 @@
         <v>0</v>
       </c>
       <c r="I17" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="K17">
-        <v>1.039270260451541E+18</v>
+        <v>1.039270260451541e+18</v>
       </c>
       <c r="L17">
-        <v>1.039270260451541E+18</v>
+        <v>1.039270260451541e+18</v>
       </c>
       <c r="M17" t="s">
-        <v>51</v>
+        <v>93</v>
       </c>
       <c r="P17">
-        <v>7.5586998476147917E+17</v>
+        <v>7.558699847614792e+17</v>
       </c>
       <c r="Q17">
-        <v>7.5586998476147904E+17</v>
+        <v>7.55869984761479e+17</v>
       </c>
       <c r="R17" t="b">
         <v>0</v>
       </c>
       <c r="S17" t="s">
-        <v>32</v>
+        <v>94</v>
       </c>
       <c r="T17" t="s">
-        <v>33</v>
+        <v>96</v>
       </c>
       <c r="V17">
         <v>0</v>
@@ -1847,52 +1873,55 @@
         <v>0</v>
       </c>
       <c r="X17" t="s">
-        <v>39</v>
+        <v>100</v>
       </c>
       <c r="Z17" t="b">
         <v>0</v>
       </c>
       <c r="AA17" t="s">
-        <v>93</v>
+        <v>117</v>
+      </c>
+      <c r="AD17">
+        <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:27" ht="90" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:30">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="D18" t="s">
+        <v>45</v>
+      </c>
+      <c r="E18" t="s">
+        <v>53</v>
+      </c>
+      <c r="F18" t="s">
+        <v>68</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18" t="b">
+        <v>0</v>
+      </c>
+      <c r="I18" t="s">
+        <v>88</v>
+      </c>
+      <c r="K18">
+        <v>1.03939789674197e+18</v>
+      </c>
+      <c r="L18">
+        <v>1.03939789674197e+18</v>
+      </c>
+      <c r="R18" t="b">
+        <v>0</v>
+      </c>
+      <c r="S18" t="s">
         <v>94</v>
       </c>
-      <c r="E18" t="s">
-        <v>95</v>
-      </c>
-      <c r="F18" t="s">
+      <c r="T18" t="s">
         <v>96</v>
       </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
-      <c r="H18" t="b">
-        <v>0</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="K18">
-        <v>1.03939789674197E+18</v>
-      </c>
-      <c r="L18">
-        <v>1.03939789674197E+18</v>
-      </c>
-      <c r="R18" t="b">
-        <v>0</v>
-      </c>
-      <c r="S18" t="s">
-        <v>32</v>
-      </c>
-      <c r="T18" t="s">
-        <v>33</v>
-      </c>
       <c r="V18">
         <v>0</v>
       </c>
@@ -1900,80 +1929,86 @@
         <v>0</v>
       </c>
       <c r="X18" t="s">
-        <v>34</v>
+        <v>99</v>
       </c>
       <c r="Z18" t="b">
         <v>0</v>
       </c>
       <c r="AA18" t="s">
-        <v>98</v>
+        <v>118</v>
+      </c>
+      <c r="AD18">
+        <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:30">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="D19" t="s">
+        <v>46</v>
+      </c>
+      <c r="E19" t="s">
+        <v>54</v>
+      </c>
+      <c r="F19" t="s">
+        <v>69</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19" t="b">
+        <v>0</v>
+      </c>
+      <c r="I19" t="s">
+        <v>89</v>
+      </c>
+      <c r="K19">
+        <v>1.039399363972407e+18</v>
+      </c>
+      <c r="L19">
+        <v>1.039399363972407e+18</v>
+      </c>
+      <c r="R19" t="b">
+        <v>0</v>
+      </c>
+      <c r="S19" t="s">
+        <v>94</v>
+      </c>
+      <c r="T19" t="s">
+        <v>96</v>
+      </c>
+      <c r="V19">
+        <v>0</v>
+      </c>
+      <c r="W19" t="b">
+        <v>0</v>
+      </c>
+      <c r="X19" t="s">
         <v>99</v>
       </c>
-      <c r="E19" t="s">
-        <v>100</v>
-      </c>
-      <c r="F19" t="s">
-        <v>101</v>
-      </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
-      <c r="H19" t="b">
-        <v>0</v>
-      </c>
-      <c r="I19" t="s">
-        <v>102</v>
-      </c>
-      <c r="K19">
-        <v>1.039399363972407E+18</v>
-      </c>
-      <c r="L19">
-        <v>1.039399363972407E+18</v>
-      </c>
-      <c r="R19" t="b">
-        <v>0</v>
-      </c>
-      <c r="S19" t="s">
-        <v>32</v>
-      </c>
-      <c r="T19" t="s">
-        <v>33</v>
-      </c>
-      <c r="V19">
-        <v>0</v>
-      </c>
-      <c r="W19" t="b">
-        <v>0</v>
-      </c>
-      <c r="X19" t="s">
-        <v>34</v>
-      </c>
       <c r="Z19" t="b">
         <v>0</v>
       </c>
       <c r="AA19" t="s">
-        <v>103</v>
+        <v>119</v>
+      </c>
+      <c r="AD19">
+        <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:30">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="D20" t="s">
-        <v>104</v>
+        <v>47</v>
       </c>
       <c r="E20" t="s">
-        <v>105</v>
+        <v>55</v>
       </c>
       <c r="F20" t="s">
-        <v>91</v>
+        <v>67</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1982,31 +2017,31 @@
         <v>0</v>
       </c>
       <c r="I20" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="K20">
-        <v>1.0405291718716131E+18</v>
+        <v>1.040529171871613e+18</v>
       </c>
       <c r="L20">
-        <v>1.0405291718716131E+18</v>
+        <v>1.040529171871613e+18</v>
       </c>
       <c r="M20" t="s">
-        <v>51</v>
+        <v>93</v>
       </c>
       <c r="P20">
-        <v>7.5586998476147904E+17</v>
+        <v>7.55869984761479e+17</v>
       </c>
       <c r="Q20">
-        <v>7.5586998476147904E+17</v>
+        <v>7.55869984761479e+17</v>
       </c>
       <c r="R20" t="b">
         <v>0</v>
       </c>
       <c r="S20" t="s">
-        <v>32</v>
+        <v>94</v>
       </c>
       <c r="T20" t="s">
-        <v>33</v>
+        <v>96</v>
       </c>
       <c r="V20">
         <v>0</v>
@@ -2015,27 +2050,30 @@
         <v>0</v>
       </c>
       <c r="X20" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="Z20" t="b">
         <v>0</v>
       </c>
       <c r="AA20" t="s">
-        <v>108</v>
+        <v>120</v>
+      </c>
+      <c r="AD20">
+        <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:30">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="D21" t="s">
-        <v>109</v>
+        <v>48</v>
       </c>
       <c r="E21" t="s">
-        <v>110</v>
+        <v>56</v>
       </c>
       <c r="F21" t="s">
-        <v>111</v>
+        <v>70</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -2044,31 +2082,31 @@
         <v>0</v>
       </c>
       <c r="I21" t="s">
-        <v>112</v>
+        <v>91</v>
       </c>
       <c r="K21">
-        <v>1.0409140737838159E+18</v>
+        <v>1.040914073783816e+18</v>
       </c>
       <c r="L21">
-        <v>1.0409140737838159E+18</v>
+        <v>1.040914073783816e+18</v>
       </c>
       <c r="M21" t="s">
-        <v>51</v>
+        <v>93</v>
       </c>
       <c r="P21">
-        <v>7.5586998476147917E+17</v>
+        <v>7.558699847614792e+17</v>
       </c>
       <c r="Q21">
-        <v>7.5586998476147904E+17</v>
+        <v>7.55869984761479e+17</v>
       </c>
       <c r="R21" t="b">
         <v>0</v>
       </c>
       <c r="S21" t="s">
-        <v>32</v>
+        <v>94</v>
       </c>
       <c r="T21" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="V21">
         <v>0</v>
@@ -2077,27 +2115,30 @@
         <v>0</v>
       </c>
       <c r="X21" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="Z21" t="b">
         <v>0</v>
       </c>
       <c r="AA21" t="s">
-        <v>115</v>
+        <v>121</v>
+      </c>
+      <c r="AD21">
+        <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:30">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="D22" t="s">
-        <v>116</v>
+        <v>49</v>
       </c>
       <c r="E22" t="s">
-        <v>117</v>
+        <v>57</v>
       </c>
       <c r="F22" t="s">
-        <v>118</v>
+        <v>71</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -2106,31 +2147,31 @@
         <v>0</v>
       </c>
       <c r="I22" t="s">
-        <v>119</v>
+        <v>92</v>
       </c>
       <c r="K22">
-        <v>1.040955032286491E+18</v>
-      </c>
-      <c r="L22" t="s">
-        <v>120</v>
+        <v>1.040955032286491e+18</v>
+      </c>
+      <c r="L22">
+        <v>1.040955032286491e+18</v>
       </c>
       <c r="M22" t="s">
-        <v>51</v>
+        <v>93</v>
       </c>
       <c r="P22">
-        <v>7.5586998476147917E+17</v>
-      </c>
-      <c r="Q22" t="s">
-        <v>121</v>
+        <v>7.558699847614792e+17</v>
+      </c>
+      <c r="Q22">
+        <v>7.55869984761479e+17</v>
       </c>
       <c r="R22" t="b">
         <v>0</v>
       </c>
       <c r="S22" t="s">
-        <v>32</v>
+        <v>94</v>
       </c>
       <c r="T22" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="V22">
         <v>0</v>
@@ -2139,7 +2180,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="Z22" t="b">
         <v>0</v>
@@ -2147,8 +2188,11 @@
       <c r="AA22" t="s">
         <v>122</v>
       </c>
+      <c r="AD22">
+        <v>20</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/master.xlsx
+++ b/master.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="135">
   <si>
     <t>contributors</t>
   </si>
@@ -106,229 +107,290 @@
     <t>Mon Sep 10 19:35:26 +0000 2018</t>
   </si>
   <si>
+    <t>[0, 138]</t>
+  </si>
+  <si>
+    <t>{'urls': [], 'hashtags': [{'text': 'fakenewz', 'indices': [129, 138]}], 'user_mentions': [{'screen_name': 'truWorldControl', 'id': 755869984761479168, 'name': 'WorldControl  🎲🎲', 'id_str': '755869984761479168', 'indices': [112, 128]}], 'symbols': []}</t>
+  </si>
+  <si>
+    <t>Coca-Loca Company buys the remaining Aral Sea.+
+sugar added - sold for profit - no refills+
+[ASTANA -1 🚐 +60 b 💵] @truWorldControl #fakenewz</t>
+  </si>
+  <si>
+    <t>en</t>
+  </si>
+  <si>
+    <t>{'result_type': 'recent', 'iso_language_code': 'en'}</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://twitter.com" rel="nofollow"&gt;Twitter Web Client&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>{'profile_background_color': '000000', 'followers_count': 5, 'lang': 'en', 'screen_name': 'MinisterVlatin', 'profile_link_color': '000000', 'profile_background_tile': False, 'profile_text_color': '000000', 'protected': False, 'profile_background_image_url_https': 'https://abs.twimg.com/images/themes/theme1/bg.png', 'profile_sidebar_fill_color': '000000', 'entities': {'description': {'urls': []}, 'url': {'urls': [{'expanded_url': 'http://world-control.net', 'display_url': 'world-control.net', 'indices': [0, 23], 'url': 'https://t.co/AgubHQIUXe'}]}}, 'default_profile': False, 'verified': False, 'profile_background_image_url': 'http://abs.twimg.com/images/themes/theme1/bg.png', 'location': 'Moscow, Russia', 'listed_count': 0, 'profile_use_background_image': False, 'description': 'Seizing @truWorldControl by spreading #fakenewz. #proudtobeabot 🤖 by @RKalcik', 'default_profile_image': False, 'url': 'https://t.co/AgubHQIUXe', 'id_str': '1017118454711771136', 'profile_sidebar_border_color': '000000', 'contributors_enabled': False, 'name': 'Minister Vlatin', 'profile_image_url_https': 'https://pbs.twimg.com/profile_images/1036353314840109061/nox-yWY2_normal.jpg', 'is_translation_enabled': False, 'geo_enabled': False, 'translator_type': 'none', 'friends_count': 8, 'utc_offset': None, 'follow_request_sent': False, 'favourites_count': 2, 'has_extended_profile': False, 'is_translator': False, 'notifications': False, 'created_at': 'Wed Jul 11 18:48:31 +0000 2018', 'following': False, 'statuses_count': 77, 'id': 1017118454711771136, 'profile_image_url': 'http://pbs.twimg.com/profile_images/1036353314840109061/nox-yWY2_normal.jpg', 'time_zone': None, 'profile_banner_url': 'https://pbs.twimg.com/profile_banners/1017118454711771136/1535920961'}</t>
+  </si>
+  <si>
     <t>Thu Sep 06 10:28:11 +0000 2018</t>
   </si>
   <si>
+    <t>{'urls': [], 'hashtags': [{'text': 'fakenewz', 'indices': [0, 9]}], 'user_mentions': [{'screen_name': 'truWorldControl', 'id': 755869984761479168, 'name': 'WorldControl  🎲🎲', 'id_str': '755869984761479168', 'indices': [10, 26]}], 'symbols': []}</t>
+  </si>
+  <si>
+    <t>#fakenewz @truWorldControl New US law+
+Every Nike shoe has to be burned. Toxic fumes kill thousands+
+[US -3 corpz]</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://twitter.com/download/android" rel="nofollow"&gt;Twitter for Android&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>{'profile_background_color': '000000', 'followers_count': 5, 'lang': 'en', 'screen_name': 'MinisterVlatin', 'profile_link_color': '000000', 'is_translator': False, 'profile_text_color': '000000', 'protected': False, 'profile_background_image_url_https': 'https://abs.twimg.com/images/themes/theme1/bg.png', 'profile_sidebar_fill_color': '000000', 'entities': {'description': {'urls': []}, 'url': {'urls': [{'expanded_url': 'http://world-control.net', 'display_url': 'world-control.net', 'indices': [0, 23], 'url': 'https://t.co/AgubHQIUXe'}]}}, 'default_profile': False, 'verified': False, 'profile_background_image_url': 'http://abs.twimg.com/images/themes/theme1/bg.png', 'location': 'Moscow, Russia', 'listed_count': 0, 'profile_use_background_image': False, 'description': 'Seizing @truWorldControl by spreading #fakenewz. #proudtobeabot 🤖 by @RKalcik', 'default_profile_image': False, 'url': 'https://t.co/AgubHQIUXe', 'id_str': '1017118454711771136', 'profile_sidebar_border_color': '000000', 'contributors_enabled': False, 'name': 'Minister Vlatin', 'profile_image_url_https': 'https://pbs.twimg.com/profile_images/1036353314840109061/nox-yWY2_normal.jpg', 'is_translation_enabled': False, 'geo_enabled': False, 'translator_type': 'none', 'friends_count': 8, 'utc_offset': None, 'follow_request_sent': False, 'favourites_count': 2, 'has_extended_profile': False, 'profile_background_tile': False, 'notifications': False, 'created_at': 'Wed Jul 11 18:48:31 +0000 2018', 'following': False, 'statuses_count': 76, 'id': 1017118454711771136, 'profile_image_url': 'http://pbs.twimg.com/profile_images/1036353314840109061/nox-yWY2_normal.jpg', 'time_zone': None, 'profile_banner_url': 'https://pbs.twimg.com/profile_banners/1017118454711771136/1535920961'}</t>
+  </si>
+  <si>
     <t>Wed Aug 29 13:40:57 +0000 2018</t>
   </si>
   <si>
+    <t>{'urls': [], 'hashtags': [{'text': 'fakenewz', 'indices': [113, 122]}], 'user_mentions': [{'screen_name': 'truWorldControl', 'id': 755869984761479168, 'name': 'WorldControl  🎲🎲', 'id_str': '755869984761479168', 'indices': [96, 112]}], 'symbols': []}</t>
+  </si>
+  <si>
+    <t>President Drumpf's Epiphany+
+Gooing himself President Drumpf realises that he's a moron+
+[US +1🔵] @truWorldControl #fakenewz</t>
+  </si>
+  <si>
+    <t>{'profile_background_color': '000000', 'followers_count': 4, 'lang': 'en', 'screen_name': 'MinisterVlatin', 'profile_link_color': '000000', 'is_translator': False, 'profile_text_color': '000000', 'protected': False, 'profile_background_image_url_https': 'https://abs.twimg.com/images/themes/theme1/bg.png', 'profile_sidebar_fill_color': '000000', 'entities': {'description': {'urls': []}, 'url': {'urls': [{'expanded_url': 'http://world-control.net', 'display_url': 'world-control.net', 'indices': [0, 23], 'url': 'https://t.co/AgubHQIUXe'}]}}, 'default_profile': False, 'verified': False, 'profile_background_image_url': 'http://abs.twimg.com/images/themes/theme1/bg.png', 'location': 'Moscow, Russia', 'listed_count': 0, 'profile_use_background_image': False, 'description': 'Seizing @truWorldControl by spreading #fakenewz. #proudtobeabot 🤖 by @RKalcik', 'default_profile_image': False, 'url': 'https://t.co/AgubHQIUXe', 'id_str': '1017118454711771136', 'profile_sidebar_border_color': '000000', 'contributors_enabled': False, 'name': 'Minister Vlatin', 'profile_image_url_https': 'https://pbs.twimg.com/profile_images/1036353314840109061/nox-yWY2_normal.jpg', 'is_translation_enabled': False, 'geo_enabled': False, 'translator_type': 'none', 'friends_count': 8, 'utc_offset': None, 'follow_request_sent': False, 'favourites_count': 1, 'has_extended_profile': False, 'profile_background_tile': False, 'notifications': False, 'created_at': 'Wed Jul 11 18:48:31 +0000 2018', 'following': False, 'statuses_count': 66, 'id': 1017118454711771136, 'profile_image_url': 'http://pbs.twimg.com/profile_images/1036353314840109061/nox-yWY2_normal.jpg', 'time_zone': None, 'profile_banner_url': 'https://pbs.twimg.com/profile_banners/1017118454711771136/1535920961'}</t>
+  </si>
+  <si>
     <t>Sun Sep 02 20:53:44 +0000 2018</t>
   </si>
   <si>
+    <t>{'urls': [], 'hashtags': [{'text': 'fakenewz', 'indices': [11, 20]}], 'user_mentions': [{'screen_name': 'truWorldControl', 'id': 755869984761479168, 'name': 'WorldControl  🎲🎲', 'id_str': '755869984761479168', 'indices': [21, 37]}], 'symbols': []}</t>
+  </si>
+  <si>
+    <t>Tweet your #fakenewz @truWorldControl with an [effect like +1 🔫] and get your print-and-play cards!</t>
+  </si>
+  <si>
     <t>Thu Aug 23 16:04:26 +0000 2018</t>
   </si>
   <si>
+    <t>{'urls': [], 'hashtags': [{'text': 'fakenewz', 'indices': [17, 26]}], 'user_mentions': [{'screen_name': 'truWorldControl', 'id': 755869984761479168, 'name': 'WorldControl  🎲🎲', 'id_str': '755869984761479168', 'indices': [0, 16]}], 'symbols': []}</t>
+  </si>
+  <si>
+    <t>@truWorldControl #fakenewz+
+Casino Royal+
+Play 1 round of the Las Vegas Classic.+
+Double or Nothing your bets.+
+see page 13+
+[PLAY CRAPS]</t>
+  </si>
+  <si>
+    <t>truWorldControl</t>
+  </si>
+  <si>
+    <t>{'profile_background_color': 'F5F8FA', 'followers_count': 1, 'lang': 'en', 'screen_name': 'MinisterVlatin', 'profile_link_color': '1DA1F2', 'is_translator': False, 'profile_text_color': '333333', 'protected': False, 'profile_background_image_url_https': None, 'profile_sidebar_fill_color': 'DDEEF6', 'entities': {'description': {'urls': []}}, 'default_profile': True, 'verified': False, 'profile_background_image_url': None, 'location': '', 'listed_count': 0, 'profile_use_background_image': True, 'description': '', 'default_profile_image': True, 'url': None, 'id_str': '1017118454711771136', 'profile_sidebar_border_color': 'C0DEED', 'contributors_enabled': False, 'name': 'Minister Vlatin', 'profile_image_url_https': 'https://abs.twimg.com/sticky/default_profile_images/default_profile_normal.png', 'is_translation_enabled': False, 'geo_enabled': False, 'translator_type': 'none', 'friends_count': 2, 'utc_offset': None, 'follow_request_sent': False, 'favourites_count': 1, 'has_extended_profile': False, 'profile_background_tile': False, 'notifications': False, 'created_at': 'Wed Jul 11 18:48:31 +0000 2018', 'following': False, 'id': 1017118454711771136, 'profile_image_url': 'http://abs.twimg.com/sticky/default_profile_images/default_profile_normal.png', 'time_zone': None, 'statuses_count': 48}</t>
+  </si>
+  <si>
     <t>Thu Aug 23 15:47:57 +0000 2018</t>
   </si>
   <si>
+    <t>@truWorldControl #fakenewz+
+Rastafarian Movement+
+Everybody light up &amp;amp; take some stress+
+out of religion.+
+[RELIGION +1 🔵 ]</t>
+  </si>
+  <si>
+    <t>{'profile_background_color': 'F5F8FA', 'followers_count': 1, 'lang': 'en', 'screen_name': 'MinisterVlatin', 'profile_link_color': '1DA1F2', 'is_translator': False, 'profile_text_color': '333333', 'protected': False, 'profile_background_image_url_https': None, 'profile_sidebar_fill_color': 'DDEEF6', 'entities': {'description': {'urls': []}}, 'default_profile': True, 'verified': False, 'profile_background_image_url': None, 'location': '', 'listed_count': 0, 'profile_use_background_image': True, 'description': '', 'default_profile_image': True, 'url': None, 'id_str': '1017118454711771136', 'profile_sidebar_border_color': 'C0DEED', 'contributors_enabled': False, 'name': 'Minister Vlatin', 'profile_image_url_https': 'https://abs.twimg.com/sticky/default_profile_images/default_profile_normal.png', 'is_translation_enabled': False, 'geo_enabled': False, 'translator_type': 'none', 'friends_count': 2, 'utc_offset': None, 'follow_request_sent': False, 'favourites_count': 1, 'has_extended_profile': False, 'profile_background_tile': False, 'notifications': False, 'created_at': 'Wed Jul 11 18:48:31 +0000 2018', 'following': False, 'id': 1017118454711771136, 'profile_image_url': 'http://abs.twimg.com/sticky/default_profile_images/default_profile_normal.png', 'time_zone': None, 'statuses_count': 45}</t>
+  </si>
+  <si>
     <t>Thu Aug 23 15:45:17 +0000 2018</t>
   </si>
   <si>
+    <t>@truWorldControl #fakenewz+
+History Fraud uncovered+
+Pyramids actually built by souvenir-shops. Tourism drops. Egypt flops.+
+[CAIRO -90b 💴 ]</t>
+  </si>
+  <si>
+    <t>{'profile_background_color': 'F5F8FA', 'followers_count': 1, 'lang': 'en', 'screen_name': 'MinisterVlatin', 'profile_link_color': '1DA1F2', 'is_translator': False, 'profile_text_color': '333333', 'protected': False, 'profile_background_image_url_https': None, 'profile_sidebar_fill_color': 'DDEEF6', 'entities': {'description': {'urls': []}}, 'default_profile': True, 'verified': False, 'profile_background_image_url': None, 'location': '', 'listed_count': 0, 'profile_use_background_image': True, 'description': '', 'default_profile_image': True, 'url': None, 'id_str': '1017118454711771136', 'profile_sidebar_border_color': 'C0DEED', 'contributors_enabled': False, 'name': 'Minister Vlatin', 'profile_image_url_https': 'https://abs.twimg.com/sticky/default_profile_images/default_profile_normal.png', 'is_translation_enabled': False, 'geo_enabled': False, 'translator_type': 'none', 'friends_count': 2, 'utc_offset': None, 'follow_request_sent': False, 'favourites_count': 1, 'has_extended_profile': False, 'profile_background_tile': False, 'notifications': False, 'created_at': 'Wed Jul 11 18:48:31 +0000 2018', 'following': False, 'id': 1017118454711771136, 'profile_image_url': 'http://abs.twimg.com/sticky/default_profile_images/default_profile_normal.png', 'time_zone': None, 'statuses_count': 43}</t>
+  </si>
+  <si>
     <t>Thu Aug 23 15:36:49 +0000 2018</t>
   </si>
   <si>
+    <t>@truWorldControl #fakenewz+
+Playing the woman‘s card+
+Give it up for the ladies!+
+[ALL FEMALE PLAYERZ +1 🔵]</t>
+  </si>
+  <si>
+    <t>{'profile_background_color': 'F5F8FA', 'followers_count': 1, 'lang': 'en', 'screen_name': 'MinisterVlatin', 'profile_link_color': '1DA1F2', 'is_translator': False, 'profile_text_color': '333333', 'protected': False, 'profile_background_image_url_https': None, 'profile_sidebar_fill_color': 'DDEEF6', 'entities': {'description': {'urls': []}}, 'default_profile': True, 'verified': False, 'profile_background_image_url': None, 'location': '', 'listed_count': 0, 'profile_use_background_image': True, 'description': '', 'default_profile_image': True, 'url': None, 'id_str': '1017118454711771136', 'profile_sidebar_border_color': 'C0DEED', 'contributors_enabled': False, 'name': 'Minister Vlatin', 'profile_image_url_https': 'https://abs.twimg.com/sticky/default_profile_images/default_profile_normal.png', 'is_translation_enabled': False, 'geo_enabled': False, 'translator_type': 'none', 'friends_count': 2, 'utc_offset': None, 'follow_request_sent': False, 'favourites_count': 1, 'has_extended_profile': False, 'profile_background_tile': False, 'notifications': False, 'created_at': 'Wed Jul 11 18:48:31 +0000 2018', 'following': False, 'id': 1017118454711771136, 'profile_image_url': 'http://abs.twimg.com/sticky/default_profile_images/default_profile_normal.png', 'time_zone': None, 'statuses_count': 41}</t>
+  </si>
+  <si>
     <t>Thu Aug 23 15:25:21 +0000 2018</t>
   </si>
   <si>
+    <t>@truWorldControl #fakenewz+
+Tech-Crunch+
+The tech-market collapses after melanials did not buy a 4th smart-phone this year. +
+[ALL 💵 -&amp;gt; BANK]</t>
+  </si>
+  <si>
+    <t>{'profile_background_color': 'F5F8FA', 'followers_count': 1, 'lang': 'en', 'screen_name': 'MinisterVlatin', 'profile_link_color': '1DA1F2', 'is_translator': False, 'profile_text_color': '333333', 'protected': False, 'profile_background_image_url_https': None, 'profile_sidebar_fill_color': 'DDEEF6', 'entities': {'description': {'urls': []}}, 'default_profile': True, 'verified': False, 'profile_background_image_url': None, 'location': '', 'listed_count': 0, 'profile_use_background_image': True, 'description': '', 'default_profile_image': True, 'url': None, 'id_str': '1017118454711771136', 'profile_sidebar_border_color': 'C0DEED', 'contributors_enabled': False, 'name': 'Minister Vlatin', 'profile_image_url_https': 'https://abs.twimg.com/sticky/default_profile_images/default_profile_normal.png', 'is_translation_enabled': False, 'geo_enabled': False, 'translator_type': 'none', 'friends_count': 2, 'utc_offset': None, 'follow_request_sent': False, 'favourites_count': 1, 'has_extended_profile': False, 'profile_background_tile': False, 'notifications': False, 'created_at': 'Wed Jul 11 18:48:31 +0000 2018', 'following': False, 'id': 1017118454711771136, 'profile_image_url': 'http://abs.twimg.com/sticky/default_profile_images/default_profile_normal.png', 'time_zone': None, 'statuses_count': 39}</t>
+  </si>
+  <si>
     <t>Thu Aug 23 15:24:03 +0000 2018</t>
   </si>
   <si>
+    <t>{'urls': [], 'hashtags': [{'text': 'fakenewz', 'indices': [17, 26]}, {'text': 'zar4life', 'indices': [69, 78]}], 'user_mentions': [{'screen_name': 'truWorldControl', 'id': 755869984761479168, 'name': 'WorldControl  🎲🎲', 'id_str': '755869984761479168', 'indices': [0, 16]}], 'symbols': []}</t>
+  </si>
+  <si>
+    <t>@truWorldControl #fakenewz +
+Minster Vlatin strangles a bear.+
+Elected #zar4life. Democrazy rulez!+
+[MOSCOW +1 general]</t>
+  </si>
+  <si>
+    <t>{'profile_background_color': 'F5F8FA', 'followers_count': 1, 'lang': 'en', 'screen_name': 'MinisterVlatin', 'profile_link_color': '1DA1F2', 'is_translator': False, 'profile_text_color': '333333', 'protected': False, 'profile_background_image_url_https': None, 'profile_sidebar_fill_color': 'DDEEF6', 'entities': {'description': {'urls': []}}, 'default_profile': True, 'verified': False, 'profile_background_image_url': None, 'location': '', 'listed_count': 0, 'profile_use_background_image': True, 'description': '', 'default_profile_image': True, 'url': None, 'id_str': '1017118454711771136', 'profile_sidebar_border_color': 'C0DEED', 'contributors_enabled': False, 'name': 'Minister Vlatin', 'profile_image_url_https': 'https://abs.twimg.com/sticky/default_profile_images/default_profile_normal.png', 'is_translation_enabled': False, 'geo_enabled': False, 'translator_type': 'none', 'friends_count': 2, 'utc_offset': None, 'follow_request_sent': False, 'favourites_count': 1, 'has_extended_profile': False, 'profile_background_tile': False, 'notifications': False, 'created_at': 'Wed Jul 11 18:48:31 +0000 2018', 'following': False, 'id': 1017118454711771136, 'profile_image_url': 'http://abs.twimg.com/sticky/default_profile_images/default_profile_normal.png', 'time_zone': None, 'statuses_count': 37}</t>
+  </si>
+  <si>
     <t>Wed Aug 22 20:39:55 +0000 2018</t>
   </si>
   <si>
+    <t>@truWorldControl #fakenewz+
+Armin Wolf geht in Pension+
+Der Staat trauert+
+[Österreich - 3😤]</t>
+  </si>
+  <si>
+    <t>de</t>
+  </si>
+  <si>
+    <t>{'result_type': 'recent', 'iso_language_code': 'de'}</t>
+  </si>
+  <si>
+    <t>{'profile_background_color': 'F5F8FA', 'followers_count': 1, 'lang': 'en', 'screen_name': 'MinisterVlatin', 'profile_link_color': '1DA1F2', 'is_translator': False, 'profile_text_color': '333333', 'protected': False, 'profile_background_image_url_https': None, 'profile_sidebar_fill_color': 'DDEEF6', 'entities': {'description': {'urls': []}}, 'default_profile': True, 'verified': False, 'profile_background_image_url': None, 'location': '', 'listed_count': 0, 'profile_use_background_image': True, 'description': '', 'default_profile_image': True, 'url': None, 'id_str': '1017118454711771136', 'profile_sidebar_border_color': 'C0DEED', 'contributors_enabled': False, 'name': 'Minister Vlatin', 'profile_image_url_https': 'https://abs.twimg.com/sticky/default_profile_images/default_profile_normal.png', 'is_translation_enabled': False, 'geo_enabled': False, 'translator_type': 'none', 'friends_count': 2, 'utc_offset': None, 'follow_request_sent': False, 'favourites_count': 1, 'has_extended_profile': False, 'profile_background_tile': False, 'notifications': False, 'created_at': 'Wed Jul 11 18:48:31 +0000 2018', 'following': False, 'id': 1017118454711771136, 'profile_image_url': 'http://abs.twimg.com/sticky/default_profile_images/default_profile_normal.png', 'time_zone': None, 'statuses_count': 35}</t>
+  </si>
+  <si>
     <t>Mon Aug 20 11:45:21 +0000 2018</t>
   </si>
   <si>
+    <t>@truWorldControl #fakenewz The Truth is not the truth+
+The US president's lawyer goes full Orwell+
+[US +3🍌]</t>
+  </si>
+  <si>
+    <t>{'profile_background_color': 'F5F8FA', 'followers_count': 1, 'lang': 'en', 'screen_name': 'MinisterVlatin', 'profile_link_color': '1DA1F2', 'is_translator': False, 'profile_text_color': '333333', 'protected': False, 'profile_background_image_url_https': None, 'profile_sidebar_fill_color': 'DDEEF6', 'entities': {'description': {'urls': []}}, 'default_profile': True, 'verified': False, 'profile_background_image_url': None, 'location': '', 'listed_count': 0, 'profile_use_background_image': True, 'description': '', 'default_profile_image': True, 'url': None, 'id_str': '1017118454711771136', 'profile_sidebar_border_color': 'C0DEED', 'contributors_enabled': False, 'name': 'Minister Vlatin', 'profile_image_url_https': 'https://abs.twimg.com/sticky/default_profile_images/default_profile_normal.png', 'is_translation_enabled': False, 'geo_enabled': False, 'translator_type': 'none', 'friends_count': 2, 'utc_offset': None, 'follow_request_sent': False, 'favourites_count': 1, 'has_extended_profile': False, 'profile_background_tile': False, 'notifications': False, 'created_at': 'Wed Jul 11 18:48:31 +0000 2018', 'following': False, 'id': 1017118454711771136, 'profile_image_url': 'http://abs.twimg.com/sticky/default_profile_images/default_profile_normal.png', 'time_zone': None, 'statuses_count': 34}</t>
+  </si>
+  <si>
     <t>Fri Aug 03 11:44:56 +0000 2018</t>
   </si>
   <si>
+    <t>{'urls': [], 'hashtags': [{'text': 'fakenewz', 'indices': [122, 131]}], 'user_mentions': [{'screen_name': 'truWorldControl', 'id': 755869984761479168, 'name': 'WorldControl  🎲🎲', 'id_str': '755869984761479168', 'indices': [0, 16]}], 'symbols': []}</t>
+  </si>
+  <si>
+    <t>@truWorldControl Power of Communism+
+All Playerz put all their money together and divide it equally+
+[DIVIDE MONEY EQUALLY] #fakenewz</t>
+  </si>
+  <si>
+    <t>{'profile_background_color': 'F5F8FA', 'followers_count': 0, 'lang': 'en', 'screen_name': 'MinisterVlatin', 'profile_link_color': '1DA1F2', 'profile_text_color': '333333', 'profile_image_url': 'http://abs.twimg.com/sticky/default_profile_images/default_profile_normal.png', 'time_zone': None, 'default_profile': True, 'entities': {'description': {'urls': []}}, 'is_translator': False, 'verified': False, 'profile_background_image_url': None, 'location': '', 'listed_count': 0, 'profile_use_background_image': True, 'description': '', 'default_profile_image': True, 'url': None, 'id_str': '1017118454711771136', 'following': False, 'profile_sidebar_border_color': 'C0DEED', 'contributors_enabled': False, 'name': 'Minister Vlatin', 'profile_image_url_https': 'https://abs.twimg.com/sticky/default_profile_images/default_profile_normal.png', 'is_translation_enabled': False, 'profile_sidebar_fill_color': 'DDEEF6', 'friends_count': 0, 'utc_offset': None, 'translator_type': 'none', 'favourites_count': 0, 'follow_request_sent': False, 'has_extended_profile': False, 'profile_background_tile': False, 'notifications': False, 'created_at': 'Wed Jul 11 18:48:31 +0000 2018', 'geo_enabled': False, 'id': 1017118454711771136, 'protected': False, 'profile_background_image_url_https': None, 'statuses_count': 30}</t>
+  </si>
+  <si>
     <t>Fri Aug 03 11:35:12 +0000 2018</t>
   </si>
   <si>
+    <t>{'urls': [], 'hashtags': [], 'user_mentions': [{'screen_name': 'truWorldControl', 'id': 755869984761479168, 'name': 'WorldControl  🎲🎲', 'id_str': '755869984761479168', 'indices': [0, 16]}], 'symbols': []}</t>
+  </si>
+  <si>
+    <t>@truworldcontrol+
+The Kronenzeitung becomes the world's number 1 newpaper+
+Hans Dichand returns as Robo-Editor+
+[Everybody loses his shit]</t>
+  </si>
+  <si>
+    <t>{'profile_background_color': 'F5F8FA', 'followers_count': 0, 'lang': 'en', 'screen_name': 'MinisterVlatin', 'profile_link_color': '1DA1F2', 'profile_text_color': '333333', 'profile_image_url': 'http://abs.twimg.com/sticky/default_profile_images/default_profile_normal.png', 'time_zone': None, 'default_profile': True, 'entities': {'description': {'urls': []}}, 'is_translator': False, 'verified': False, 'profile_background_image_url': None, 'location': '', 'listed_count': 0, 'profile_use_background_image': True, 'description': '', 'default_profile_image': True, 'url': None, 'id_str': '1017118454711771136', 'following': False, 'profile_sidebar_border_color': 'C0DEED', 'contributors_enabled': False, 'name': 'Minister Vlatin', 'profile_image_url_https': 'https://abs.twimg.com/sticky/default_profile_images/default_profile_normal.png', 'is_translation_enabled': False, 'profile_sidebar_fill_color': 'DDEEF6', 'friends_count': 0, 'utc_offset': None, 'translator_type': 'none', 'favourites_count': 0, 'follow_request_sent': False, 'has_extended_profile': False, 'profile_background_tile': False, 'notifications': False, 'created_at': 'Wed Jul 11 18:48:31 +0000 2018', 'geo_enabled': False, 'id': 1017118454711771136, 'protected': False, 'profile_background_image_url_https': None, 'statuses_count': 29}</t>
+  </si>
+  <si>
     <t>Mon Sep 10 21:06:44 +0000 2018</t>
   </si>
   <si>
-    <t>Mon Sep 10 21:51:53 +0000 2018</t>
-  </si>
-  <si>
-    <t>Tue Sep 11 06:19:04 +0000 2018</t>
-  </si>
-  <si>
-    <t>Tue Sep 11 06:24:54 +0000 2018</t>
-  </si>
-  <si>
-    <t>Fri Sep 14 09:14:21 +0000 2018</t>
-  </si>
-  <si>
-    <t>Sat Sep 15 10:43:49 +0000 2018</t>
-  </si>
-  <si>
-    <t>Sat Sep 15 13:26:34 +0000 2018</t>
-  </si>
-  <si>
-    <t>Sat Sep 15 14:48:37 +0000 2018</t>
-  </si>
-  <si>
-    <t>[0, 138]</t>
-  </si>
-  <si>
     <t>[0, 143]</t>
   </si>
   <si>
-    <t>[0, 108]</t>
-  </si>
-  <si>
-    <t>[0, 152]</t>
-  </si>
-  <si>
-    <t>[0, 118]</t>
-  </si>
-  <si>
-    <t>[0, 86]</t>
-  </si>
-  <si>
-    <t>[0, 176]</t>
-  </si>
-  <si>
-    <t>[0, 92]</t>
-  </si>
-  <si>
-    <t>[0, 112]</t>
-  </si>
-  <si>
-    <t>{'urls': [], 'hashtags': [{'text': 'fakenewz', 'indices': [129, 138]}], 'user_mentions': [{'screen_name': 'truWorldControl', 'id': 755869984761479168, 'name': 'WorldControl  🎲🎲', 'id_str': '755869984761479168', 'indices': [112, 128]}], 'symbols': []}</t>
-  </si>
-  <si>
-    <t>{'urls': [], 'hashtags': [{'text': 'fakenewz', 'indices': [0, 9]}], 'user_mentions': [{'screen_name': 'truWorldControl', 'id': 755869984761479168, 'name': 'WorldControl  🎲🎲', 'id_str': '755869984761479168', 'indices': [10, 26]}], 'symbols': []}</t>
-  </si>
-  <si>
-    <t>{'urls': [], 'hashtags': [{'text': 'fakenewz', 'indices': [113, 122]}], 'user_mentions': [{'screen_name': 'truWorldControl', 'id': 755869984761479168, 'name': 'WorldControl  🎲🎲', 'id_str': '755869984761479168', 'indices': [96, 112]}], 'symbols': []}</t>
-  </si>
-  <si>
-    <t>{'urls': [], 'hashtags': [{'text': 'fakenewz', 'indices': [11, 20]}], 'user_mentions': [{'screen_name': 'truWorldControl', 'id': 755869984761479168, 'name': 'WorldControl  🎲🎲', 'id_str': '755869984761479168', 'indices': [21, 37]}], 'symbols': []}</t>
-  </si>
-  <si>
-    <t>{'urls': [], 'hashtags': [{'text': 'fakenewz', 'indices': [17, 26]}], 'user_mentions': [{'screen_name': 'truWorldControl', 'id': 755869984761479168, 'name': 'WorldControl  🎲🎲', 'id_str': '755869984761479168', 'indices': [0, 16]}], 'symbols': []}</t>
-  </si>
-  <si>
-    <t>{'urls': [], 'hashtags': [{'text': 'fakenewz', 'indices': [17, 26]}, {'text': 'zar4life', 'indices': [69, 78]}], 'user_mentions': [{'screen_name': 'truWorldControl', 'id': 755869984761479168, 'name': 'WorldControl  🎲🎲', 'id_str': '755869984761479168', 'indices': [0, 16]}], 'symbols': []}</t>
-  </si>
-  <si>
-    <t>{'urls': [], 'hashtags': [{'text': 'fakenewz', 'indices': [122, 131]}], 'user_mentions': [{'screen_name': 'truWorldControl', 'id': 755869984761479168, 'name': 'WorldControl  🎲🎲', 'id_str': '755869984761479168', 'indices': [0, 16]}], 'symbols': []}</t>
-  </si>
-  <si>
-    <t>{'urls': [], 'hashtags': [], 'user_mentions': [{'screen_name': 'truWorldControl', 'id': 755869984761479168, 'name': 'WorldControl  🎲🎲', 'id_str': '755869984761479168', 'indices': [0, 16]}], 'symbols': []}</t>
-  </si>
-  <si>
     <t>{'urls': [], 'hashtags': [{'text': 'fakenewz', 'indices': [134, 143]}], 'user_mentions': [{'screen_name': 'truWorldControl', 'id': 755869984761479168, 'name': 'WorldControl  🎲🎲', 'id_str': '755869984761479168', 'indices': [117, 133]}], 'symbols': []}</t>
-  </si>
-  <si>
-    <t>{'user_mentions': [{'screen_name': 'truWorldControl', 'id': 755869984761479168, 'id_str': '755869984761479168', 'name': 'WorldControl  🎲🎲', 'indices': [0, 16]}], 'symbols': [], 'hashtags': [{'text': 'fakenewz', 'indices': [17, 26]}], 'urls': []}</t>
-  </si>
-  <si>
-    <t>{'user_mentions': [{'screen_name': 'truWorldControl', 'id': 755869984761479168, 'id_str': '755869984761479168', 'name': 'WorldControl  🎲🎲', 'indices': [10, 26]}], 'symbols': [], 'hashtags': [{'text': 'fakenewz', 'indices': [0, 9]}], 'urls': []}</t>
-  </si>
-  <si>
-    <t>{'user_mentions': [{'screen_name': 'truWorldControl', 'id': 755869984761479168, 'id_str': '755869984761479168', 'name': 'WorldControl  🎲🎲', 'indices': [92, 108]}], 'symbols': [], 'hashtags': [{'text': 'fakenewz', 'indices': [109, 118]}], 'urls': []}</t>
-  </si>
-  <si>
-    <t>{'hashtags': [{'indices': [17, 26], 'text': 'fakenewz'}], 'symbols': [], 'urls': [], 'user_mentions': [{'screen_name': 'truWorldControl', 'name': 'WorldControl  🎲🎲', 'id': 755869984761479168, 'indices': [0, 16], 'id_str': '755869984761479168'}]}</t>
-  </si>
-  <si>
-    <t>{'urls': [], 'hashtags': [{'text': 'fakenewz', 'indices': [17, 26]}], 'user_mentions': [{'id_str': '755869984761479168', 'screen_name': 'truWorldControl', 'id': 755869984761479168, 'name': 'WorldControl  🎲🎲', 'indices': [0, 16]}], 'symbols': []}</t>
-  </si>
-  <si>
-    <t>{'urls': [], 'hashtags': [{'indices': [17, 26], 'text': 'fakenewz'}], 'symbols': [], 'user_mentions': [{'id_str': '755869984761479168', 'indices': [0, 16], 'id': 755869984761479168, 'name': 'WorldControl  🎲🎲', 'screen_name': 'truWorldControl'}]}</t>
-  </si>
-  <si>
-    <t>Coca-Loca Company buys the remaining Aral Sea._x000D__x000D_
-sugar added - sold for profit - no refills_x000D__x000D_
-[ASTANA -1 🚐 +60 b 💵] @truWorldControl #fakenewz</t>
-  </si>
-  <si>
-    <t>#fakenewz @truWorldControl New US law_x000D__x000D_
-Every Nike shoe has to be burned. Toxic fumes kill thousands_x000D__x000D_
-[US -3 corpz]</t>
-  </si>
-  <si>
-    <t>President Drumpf's Epiphany_x000D__x000D_
-Gooing himself President Drumpf realises that he's a moron_x000D__x000D_
-[US +1🔵] @truWorldControl #fakenewz</t>
-  </si>
-  <si>
-    <t>Tweet your #fakenewz @truWorldControl with an [effect like +1 🔫] and get your print-and-play cards!</t>
-  </si>
-  <si>
-    <t>@truWorldControl #fakenewz_x000D__x000D_
-Casino Royal_x000D__x000D_
-Play 1 round of the Las Vegas Classic._x000D__x000D_
-Double or Nothing your bets._x000D__x000D_
-see page 13_x000D__x000D_
-[PLAY CRAPS]</t>
-  </si>
-  <si>
-    <t>@truWorldControl #fakenewz_x000D__x000D_
-Rastafarian Movement_x000D__x000D_
-Everybody light up &amp;amp; take some stress_x000D__x000D_
-out of religion._x000D__x000D_
-[RELIGION +1 🔵 ]</t>
-  </si>
-  <si>
-    <t>@truWorldControl #fakenewz_x000D__x000D_
-History Fraud uncovered_x000D__x000D_
-Pyramids actually built by souvenir-shops. Tourism drops. Egypt flops._x000D__x000D_
-[CAIRO -90b 💴 ]</t>
-  </si>
-  <si>
-    <t>@truWorldControl #fakenewz_x000D__x000D_
-Playing the woman‘s card_x000D__x000D_
-Give it up for the ladies!_x000D__x000D_
-[ALL FEMALE PLAYERZ +1 🔵]</t>
-  </si>
-  <si>
-    <t>@truWorldControl #fakenewz_x000D__x000D_
-Tech-Crunch_x000D__x000D_
-The tech-market collapses after melanials did not buy a 4th smart-phone this year. _x000D__x000D_
-[ALL 💵 -&amp;gt; BANK]</t>
-  </si>
-  <si>
-    <t>@truWorldControl #fakenewz _x000D__x000D_
-Minster Vlatin strangles a bear._x000D__x000D_
-Elected #zar4life. Democrazy rulez!_x000D__x000D_
-[MOSCOW +1 general]</t>
-  </si>
-  <si>
-    <t>@truWorldControl #fakenewz_x000D__x000D_
-Armin Wolf geht in Pension_x000D__x000D_
-Der Staat trauert_x000D__x000D_
-[Österreich - 3😤]</t>
-  </si>
-  <si>
-    <t>@truWorldControl #fakenewz The Truth is not the truth_x000D__x000D_
-The US president's lawyer goes full Orwell_x000D__x000D_
-[US +3🍌]</t>
-  </si>
-  <si>
-    <t>@truWorldControl Power of Communism_x000D__x000D_
-All Playerz put all their money together and divide it equally_x000D__x000D_
-[DIVIDE MONEY EQUALLY] #fakenewz</t>
-  </si>
-  <si>
-    <t>@truworldcontrol_x000D__x000D_
-The Kronenzeitung becomes the world's number 1 newpaper_x000D__x000D_
-Hans Dichand returns as Robo-Editor_x000D__x000D_
-[Everybody loses his shit]</t>
   </si>
   <si>
     <t>Tech-Crunch
 The tech-market collapses after Millennials do not buy a 4th smart-phone this year.  
 [ALL 💴 &gt; Bank] @truWorldControl #fakenewz</t>
+  </si>
+  <si>
+    <t>{'profile_background_color': '000000', 'followers_count': 5, 'lang': 'en', 'screen_name': 'MinisterVlatin', 'profile_link_color': '000000', 'profile_use_background_image': False, 'default_profile': False, 'profile_text_color': '000000', 'protected': False, 'profile_background_image_url_https': 'https://abs.twimg.com/images/themes/theme1/bg.png', 'is_translator': False, 'entities': {'description': {'urls': []}, 'url': {'urls': [{'expanded_url': 'http://world-control.net', 'display_url': 'world-control.net', 'indices': [0, 23], 'url': 'https://t.co/AgubHQIUXe'}]}}, 'profile_sidebar_fill_color': '000000', 'verified': False, 'profile_background_image_url': 'http://abs.twimg.com/images/themes/theme1/bg.png', 'location': 'Moscow, Russia', 'listed_count': 0, 'time_zone': None, 'description': 'Seizing @truWorldControl by spreading #fakenewz. #proudtobeabot 🤖 by @RKalcik', 'default_profile_image': False, 'url': 'https://t.co/AgubHQIUXe', 'id_str': '1017118454711771136', 'following': False, 'profile_sidebar_border_color': '000000', 'contributors_enabled': False, 'name': 'Minister Vlatin', 'profile_image_url_https': 'https://pbs.twimg.com/profile_images/1036353314840109061/nox-yWY2_normal.jpg', 'is_translation_enabled': False, 'translator_type': 'none', 'utc_offset': None, 'follow_request_sent': False, 'favourites_count': 2, 'profile_image_url': 'http://pbs.twimg.com/profile_images/1036353314840109061/nox-yWY2_normal.jpg', 'profile_background_tile': False, 'notifications': False, 'created_at': 'Wed Jul 11 18:48:31 +0000 2018', 'geo_enabled': False, 'profile_banner_url': 'https://pbs.twimg.com/profile_banners/1017118454711771136/1535920961', 'id': 1017118454711771136, 'friends_count': 8, 'has_extended_profile': False, 'statuses_count': 78}</t>
+  </si>
+  <si>
+    <t>Mon Sep 10 21:51:53 +0000 2018</t>
+  </si>
+  <si>
+    <t>[0, 108]</t>
+  </si>
+  <si>
+    <t>{'user_mentions': [{'screen_name': 'truWorldControl', 'id': 755869984761479168, 'id_str': '755869984761479168', 'name': 'WorldControl  🎲🎲', 'indices': [0, 16]}], 'symbols': [], 'hashtags': [{'text': 'fakenewz', 'indices': [17, 26]}], 'urls': []}</t>
   </si>
   <si>
     <t>@truWorldControl #fakenewz
 Pool party!
 The rising sea level now covers 9 out of 10 metropolis
 [TOP CITY +1💰]</t>
+  </si>
+  <si>
+    <t>{'default_profile': False, 'profile_image_url': 'http://pbs.twimg.com/profile_images/1036353314840109061/nox-yWY2_normal.jpg', 'statuses_count': 79, 'has_extended_profile': False, 'favourites_count': 2, 'profile_text_color': '000000', 'profile_background_image_url': 'http://abs.twimg.com/images/themes/theme1/bg.png', 'listed_count': 0, 'utc_offset': None, 'created_at': 'Wed Jul 11 18:48:31 +0000 2018', 'profile_sidebar_fill_color': '000000', 'default_profile_image': False, 'contributors_enabled': False, 'is_translation_enabled': False, 'location': 'Moscow, Russia', 'follow_request_sent': False, 'profile_image_url_https': 'https://pbs.twimg.com/profile_images/1036353314840109061/nox-yWY2_normal.jpg', 'profile_banner_url': 'https://pbs.twimg.com/profile_banners/1017118454711771136/1535920961', 'is_translator': False, 'profile_sidebar_border_color': '000000', 'name': 'Minister Vlatin', 'notifications': False, 'protected': False, 'profile_use_background_image': False, 'profile_background_color': '000000', 'lang': 'en', 'translator_type': 'none', 'verified': False, 'time_zone': None, 'url': 'https://t.co/AgubHQIUXe', 'friends_count': 8, 'description': 'Seizing @truWorldControl by spreading #fakenewz. #proudtobeabot 🤖 by @RKalcik', 'id_str': '1017118454711771136', 'geo_enabled': False, 'screen_name': 'MinisterVlatin', 'entities': {'url': {'urls': [{'display_url': 'world-control.net', 'url': 'https://t.co/AgubHQIUXe', 'expanded_url': 'http://world-control.net', 'indices': [0, 23]}]}, 'description': {'urls': []}}, 'profile_background_image_url_https': 'https://abs.twimg.com/images/themes/theme1/bg.png', 'followers_count': 5, 'profile_link_color': '000000', 'id': 1017118454711771136, 'following': False, 'profile_background_tile': False}</t>
+  </si>
+  <si>
+    <t>Tue Sep 11 06:19:04 +0000 2018</t>
+  </si>
+  <si>
+    <t>[0, 152]</t>
+  </si>
+  <si>
+    <t>{'user_mentions': [{'screen_name': 'truWorldControl', 'id': 755869984761479168, 'id_str': '755869984761479168', 'name': 'WorldControl  🎲🎲', 'indices': [10, 26]}], 'symbols': [], 'hashtags': [{'text': 'fakenewz', 'indices': [0, 9]}], 'urls': []}</t>
   </si>
   <si>
     <t>#fakenewz @truWorldControl
@@ -339,12 +401,48 @@
 LOS ANGELES +1 🚐]</t>
   </si>
   <si>
+    <t>{'default_profile': False, 'profile_image_url': 'http://pbs.twimg.com/profile_images/1036353314840109061/nox-yWY2_normal.jpg', 'statuses_count': 81, 'has_extended_profile': False, 'favourites_count': 2, 'profile_text_color': '000000', 'profile_background_image_url': 'http://abs.twimg.com/images/themes/theme1/bg.png', 'listed_count': 0, 'utc_offset': None, 'created_at': 'Wed Jul 11 18:48:31 +0000 2018', 'profile_sidebar_fill_color': '000000', 'default_profile_image': False, 'contributors_enabled': False, 'is_translation_enabled': False, 'location': 'Moscow, Russia', 'follow_request_sent': False, 'profile_image_url_https': 'https://pbs.twimg.com/profile_images/1036353314840109061/nox-yWY2_normal.jpg', 'profile_banner_url': 'https://pbs.twimg.com/profile_banners/1017118454711771136/1535920961', 'is_translator': False, 'profile_sidebar_border_color': '000000', 'name': 'Minister Vlatin', 'notifications': False, 'protected': False, 'profile_use_background_image': False, 'profile_background_color': '000000', 'lang': 'en', 'translator_type': 'none', 'verified': False, 'time_zone': None, 'url': 'https://t.co/AgubHQIUXe', 'friends_count': 8, 'description': 'Seizing @truWorldControl by spreading #fakenewz. #proudtobeabot 🤖 by @RKalcik', 'id_str': '1017118454711771136', 'geo_enabled': False, 'screen_name': 'MinisterVlatin', 'entities': {'url': {'urls': [{'display_url': 'world-control.net', 'url': 'https://t.co/AgubHQIUXe', 'expanded_url': 'http://world-control.net', 'indices': [0, 23]}]}, 'description': {'urls': []}}, 'profile_background_image_url_https': 'https://abs.twimg.com/images/themes/theme1/bg.png', 'followers_count': 5, 'profile_link_color': '000000', 'id': 1017118454711771136, 'following': False, 'profile_background_tile': False}</t>
+  </si>
+  <si>
+    <t>Tue Sep 11 06:24:54 +0000 2018</t>
+  </si>
+  <si>
+    <t>[0, 118]</t>
+  </si>
+  <si>
+    <t>{'user_mentions': [{'screen_name': 'truWorldControl', 'id': 755869984761479168, 'id_str': '755869984761479168', 'name': 'WorldControl  🎲🎲', 'indices': [92, 108]}], 'symbols': [], 'hashtags': [{'text': 'fakenewz', 'indices': [109, 118]}], 'urls': []}</t>
+  </si>
+  <si>
     <t>Quantitative Easing
 The W.C. Bank throws on its printers. "ka-ching"
 [EVERY PLAYER +500b 💵] @truWorldControl #fakenewz</t>
   </si>
   <si>
+    <t>{'default_profile': False, 'profile_image_url': 'http://pbs.twimg.com/profile_images/1036353314840109061/nox-yWY2_normal.jpg', 'statuses_count': 83, 'has_extended_profile': False, 'favourites_count': 2, 'profile_text_color': '000000', 'profile_background_image_url': 'http://abs.twimg.com/images/themes/theme1/bg.png', 'listed_count': 0, 'utc_offset': None, 'created_at': 'Wed Jul 11 18:48:31 +0000 2018', 'profile_sidebar_fill_color': '000000', 'default_profile_image': False, 'contributors_enabled': False, 'is_translation_enabled': False, 'location': 'Moscow, Russia', 'follow_request_sent': False, 'profile_image_url_https': 'https://pbs.twimg.com/profile_images/1036353314840109061/nox-yWY2_normal.jpg', 'profile_banner_url': 'https://pbs.twimg.com/profile_banners/1017118454711771136/1535920961', 'is_translator': False, 'profile_sidebar_border_color': '000000', 'name': 'Minister Vlatin', 'notifications': False, 'protected': False, 'profile_use_background_image': False, 'profile_background_color': '000000', 'lang': 'en', 'translator_type': 'none', 'verified': False, 'time_zone': None, 'url': 'https://t.co/AgubHQIUXe', 'friends_count': 8, 'description': 'Seizing @truWorldControl by spreading #fakenewz. #proudtobeabot 🤖 by @RKalcik', 'id_str': '1017118454711771136', 'geo_enabled': False, 'screen_name': 'MinisterVlatin', 'entities': {'url': {'urls': [{'display_url': 'world-control.net', 'url': 'https://t.co/AgubHQIUXe', 'expanded_url': 'http://world-control.net', 'indices': [0, 23]}]}, 'description': {'urls': []}}, 'profile_background_image_url_https': 'https://abs.twimg.com/images/themes/theme1/bg.png', 'followers_count': 5, 'profile_link_color': '000000', 'id': 1017118454711771136, 'following': False, 'profile_background_tile': False}</t>
+  </si>
+  <si>
+    <t>Fri Sep 14 09:14:21 +0000 2018</t>
+  </si>
+  <si>
+    <t>[0, 86]</t>
+  </si>
+  <si>
     <t>@truWorldControl #fakenewz Jeff Pesos starts AmazoneCrime [All Playerz 50b &amp;gt; Media]</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://twitter.com/download/iphone" rel="nofollow"&gt;Twitter for iPhone&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>{'default_profile': False, 'profile_image_url': 'http://pbs.twimg.com/profile_images/1036353314840109061/nox-yWY2_normal.jpg', 'statuses_count': 86, 'has_extended_profile': False, 'favourites_count': 2, 'profile_text_color': '000000', 'profile_background_image_url': 'http://abs.twimg.com/images/themes/theme1/bg.png', 'listed_count': 0, 'utc_offset': None, 'created_at': 'Wed Jul 11 18:48:31 +0000 2018', 'profile_sidebar_fill_color': '000000', 'default_profile_image': False, 'contributors_enabled': False, 'is_translation_enabled': False, 'location': 'Moscow, Russia', 'follow_request_sent': False, 'profile_image_url_https': 'https://pbs.twimg.com/profile_images/1036353314840109061/nox-yWY2_normal.jpg', 'profile_banner_url': 'https://pbs.twimg.com/profile_banners/1017118454711771136/1535920961', 'is_translator': False, 'profile_sidebar_border_color': '000000', 'name': 'Minister Vlatin', 'notifications': False, 'protected': False, 'profile_use_background_image': False, 'profile_background_color': '000000', 'lang': 'en', 'translator_type': 'none', 'verified': False, 'time_zone': None, 'url': 'https://t.co/AgubHQIUXe', 'friends_count': 8, 'description': 'Seizing @truWorldControl by spreading #fakenewz. #proudtobeabot 🤖 by @RKalcik', 'id_str': '1017118454711771136', 'geo_enabled': False, 'screen_name': 'MinisterVlatin', 'entities': {'url': {'urls': [{'display_url': 'world-control.net', 'url': 'https://t.co/AgubHQIUXe', 'expanded_url': 'http://world-control.net', 'indices': [0, 23]}]}, 'description': {'urls': []}}, 'profile_background_image_url_https': 'https://abs.twimg.com/images/themes/theme1/bg.png', 'followers_count': 5, 'profile_link_color': '000000', 'id': 1017118454711771136, 'following': False, 'profile_background_tile': False}</t>
+  </si>
+  <si>
+    <t>Sat Sep 15 10:43:49 +0000 2018</t>
+  </si>
+  <si>
+    <t>[0, 176]</t>
+  </si>
+  <si>
+    <t>{'hashtags': [{'indices': [17, 26], 'text': 'fakenewz'}], 'symbols': [], 'urls': [], 'user_mentions': [{'screen_name': 'truWorldControl', 'name': 'WorldControl  🎲🎲', 'id': 755869984761479168, 'indices': [0, 16], 'id_str': '755869984761479168'}]}</t>
   </si>
   <si>
     <t>@truWorldControl #fakenewz
@@ -353,141 +451,95 @@
 [ALL PLAYERS +1🦄]</t>
   </si>
   <si>
+    <t>{'iso_language_code': 'en', 'result_type': 'recent'}</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://mobile.twitter.com" rel="nofollow"&gt;Twitter Lite&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>{'screen_name': 'MinisterVlatin', 'friends_count': 8, 'statuses_count': 88, 'entities': {'url': {'urls': [{'url': 'https://t.co/AgubHQIUXe', 'expanded_url': 'http://world-control.net', 'indices': [0, 23], 'display_url': 'world-control.net'}]}, 'description': {'urls': []}}, 'notifications': False, 'time_zone': None, 'default_profile': False, 'utc_offset': None, 'profile_image_url': 'http://pbs.twimg.com/profile_images/1036353314840109061/nox-yWY2_normal.jpg', 'created_at': 'Wed Jul 11 18:48:31 +0000 2018', 'is_translation_enabled': False, 'verified': False, 'profile_text_color': '000000', 'follow_request_sent': False, 'url': 'https://t.co/AgubHQIUXe', 'profile_background_image_url': 'http://abs.twimg.com/images/themes/theme1/bg.png', 'id': 1017118454711771136, 'profile_banner_url': 'https://pbs.twimg.com/profile_banners/1017118454711771136/1535920961', 'lang': 'en', 'profile_sidebar_fill_color': '000000', 'name': 'Minister Vlatin', 'profile_background_tile': False, 'id_str': '1017118454711771136', 'geo_enabled': False, 'translator_type': 'none', 'profile_use_background_image': False, 'profile_image_url_https': 'https://pbs.twimg.com/profile_images/1036353314840109061/nox-yWY2_normal.jpg', 'profile_background_color': '000000', 'default_profile_image': False, 'protected': False, 'description': 'Seizing @truWorldControl by spreading #fakenewz. #proudtobeabot 🤖 by @RKalcik', 'profile_sidebar_border_color': '000000', 'is_translator': False, 'profile_background_image_url_https': 'https://abs.twimg.com/images/themes/theme1/bg.png', 'listed_count': 0, 'has_extended_profile': False, 'profile_link_color': '000000', 'following': False, 'contributors_enabled': False, 'followers_count': 5, 'location': 'Moscow, Russia', 'favourites_count': 4}</t>
+  </si>
+  <si>
+    <t>Sat Sep 15 13:26:34 +0000 2018</t>
+  </si>
+  <si>
+    <t>[0, 92]</t>
+  </si>
+  <si>
+    <t>{'urls': [], 'hashtags': [{'text': 'fakenewz', 'indices': [17, 26]}], 'user_mentions': [{'id_str': '755869984761479168', 'screen_name': 'truWorldControl', 'id': 755869984761479168, 'name': 'WorldControl  🎲🎲', 'indices': [0, 16]}], 'symbols': []}</t>
+  </si>
+  <si>
     <t>@truWorldControl #fakenewz
 Emoji becomes international language of communication
 🤷🔥🌆
 [♨️+2🦄]</t>
   </si>
   <si>
+    <t>{'friends_count': 8, 'geo_enabled': False, 'url': 'https://t.co/AgubHQIUXe', 'favourites_count': 4, 'statuses_count': 90, 'location': 'Moscow, Russia', 'follow_request_sent': False, 'profile_image_url_https': 'https://pbs.twimg.com/profile_images/1036353314840109061/nox-yWY2_normal.jpg', 'default_profile_image': False, 'profile_background_tile': False, 'entities': {'url': {'urls': [{'expanded_url': 'http://world-control.net', 'url': 'https://t.co/AgubHQIUXe', 'display_url': 'world-control.net', 'indices': [0, 23]}]}, 'description': {'urls': []}}, 'followers_count': 5, 'name': 'Minister Vlatin', 'description': 'Seizing @truWorldControl by spreading #fakenewz. #proudtobeabot 🤖 by @RKalcik', 'id_str': '1017118454711771136', 'lang': 'en', 'created_at': 'Wed Jul 11 18:48:31 +0000 2018', 'verified': False, 'profile_image_url': 'http://pbs.twimg.com/profile_images/1036353314840109061/nox-yWY2_normal.jpg', 'notifications': False, 'profile_background_image_url': 'http://abs.twimg.com/images/themes/theme1/bg.png', 'profile_background_image_url_https': 'https://abs.twimg.com/images/themes/theme1/bg.png', 'time_zone': None, 'translator_type': 'none', 'profile_banner_url': 'https://pbs.twimg.com/profile_banners/1017118454711771136/1535920961', 'has_extended_profile': False, 'default_profile': False, 'contributors_enabled': False, 'screen_name': 'MinisterVlatin', 'following': False, 'utc_offset': None, 'protected': False, 'is_translation_enabled': False, 'listed_count': 0, 'id': 1017118454711771136, 'profile_background_color': '000000', 'profile_sidebar_fill_color': '000000', 'profile_sidebar_border_color': '000000', 'profile_use_background_image': False, 'is_translator': False, 'profile_link_color': '000000', 'profile_text_color': '000000'}</t>
+  </si>
+  <si>
+    <t>Sat Sep 15 14:48:37 +0000 2018</t>
+  </si>
+  <si>
+    <t>[0, 112]</t>
+  </si>
+  <si>
+    <t>{'urls': [], 'hashtags': [{'indices': [17, 26], 'text': 'fakenewz'}], 'symbols': [], 'user_mentions': [{'id_str': '755869984761479168', 'indices': [0, 16], 'id': 755869984761479168, 'name': 'WorldControl  🎲🎲', 'screen_name': 'truWorldControl'}]}</t>
+  </si>
+  <si>
     <t>@truWorldControl #fakenewz 
 Fortress Europe
 EU votes to electrify ⚡the Mediterranean Sea
 [ALL OCEANS &amp;gt; BANK]</t>
   </si>
   <si>
-    <t>1040975681751080960</t>
-  </si>
-  <si>
-    <t>truWorldControl</t>
+    <t>{'statuses_count': 93, 'favourites_count': 4, 'id': 1017118454711771136, 'profile_background_image_url': 'http://abs.twimg.com/images/themes/theme1/bg.png', 'url': 'https://t.co/AgubHQIUXe', 'default_profile_image': False, 'friends_count': 8, 'entities': {'url': {'urls': [{'expanded_url': 'http://world-control.net', 'indices': [0, 23], 'url': 'https://t.co/AgubHQIUXe', 'display_url': 'world-control.net'}]}, 'description': {'urls': []}}, 'profile_background_color': '000000', 'has_extended_profile': False, 'followers_count': 5, 'default_profile': False, 'geo_enabled': False, 'profile_banner_url': 'https://pbs.twimg.com/profile_banners/1017118454711771136/1535920961', 'protected': False, 'profile_sidebar_border_color': '000000', 'notifications': False, 'lang': 'en', 'name': 'Minister Vlatin', 'verified': False, 'profile_image_url_https': 'https://pbs.twimg.com/profile_images/1036353314840109061/nox-yWY2_normal.jpg', 'id_str': '1017118454711771136', 'following': False, 'is_translator': False, 'created_at': 'Wed Jul 11 18:48:31 +0000 2018', 'follow_request_sent': False, 'location': 'Moscow, Russia', 'is_translation_enabled': False, 'listed_count': 0, 'utc_offset': None, 'profile_use_background_image': False, 'description': 'Seizing @truWorldControl by spreading #fakenewz. #proudtobeabot 🤖 by @RKalcik', 'time_zone': None, 'contributors_enabled': False, 'profile_sidebar_fill_color': '000000', 'profile_image_url': 'http://pbs.twimg.com/profile_images/1036353314840109061/nox-yWY2_normal.jpg', 'profile_link_color': '000000', 'translator_type': 'none', 'profile_background_image_url_https': 'https://abs.twimg.com/images/themes/theme1/bg.png', 'profile_background_tile': False, 'screen_name': 'MinisterVlatin', 'profile_text_color': '000000'}</t>
+  </si>
+  <si>
+    <t>Sat Sep 15 16:12:07 +0000 2018</t>
+  </si>
+  <si>
+    <t>[0, 133]</t>
+  </si>
+  <si>
+    <t>{'user_mentions': [{'screen_name': 'truWorldControl', 'id': 755869984761479168, 'name': 'WorldControl  🎲🎲', 'indices': [0, 16], 'id_str': '755869984761479168'}], 'hashtags': [{'text': 'fakenewz', 'indices': [17, 26]}], 'urls': [], 'symbols': []}</t>
+  </si>
+  <si>
+    <t>@truWorldControl #fakenewz 
+Austrian strikes Egypt
+The Minister of Defence starts out with vacation in Hurgada 🏄‍♂️
+[CARIO airstrike]</t>
+  </si>
+  <si>
+    <t>1040996693985173504</t>
   </si>
   <si>
     <t>755869984761479168</t>
   </si>
   <si>
-    <t>en</t>
-  </si>
-  <si>
-    <t>de</t>
-  </si>
-  <si>
-    <t>{'result_type': 'recent', 'iso_language_code': 'en'}</t>
-  </si>
-  <si>
-    <t>{'result_type': 'recent', 'iso_language_code': 'de'}</t>
-  </si>
-  <si>
-    <t>{'iso_language_code': 'en', 'result_type': 'recent'}</t>
-  </si>
-  <si>
-    <t>&lt;a href="http://twitter.com" rel="nofollow"&gt;Twitter Web Client&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>&lt;a href="http://twitter.com/download/android" rel="nofollow"&gt;Twitter for Android&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>&lt;a href="http://twitter.com/download/iphone" rel="nofollow"&gt;Twitter for iPhone&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>&lt;a href="https://mobile.twitter.com" rel="nofollow"&gt;Twitter Lite&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>{'profile_background_color': '000000', 'followers_count': 5, 'lang': 'en', 'screen_name': 'MinisterVlatin', 'profile_link_color': '000000', 'profile_background_tile': False, 'profile_text_color': '000000', 'protected': False, 'profile_background_image_url_https': 'https://abs.twimg.com/images/themes/theme1/bg.png', 'profile_sidebar_fill_color': '000000', 'entities': {'description': {'urls': []}, 'url': {'urls': [{'expanded_url': 'http://world-control.net', 'display_url': 'world-control.net', 'indices': [0, 23], 'url': 'https://t.co/AgubHQIUXe'}]}}, 'default_profile': False, 'verified': False, 'profile_background_image_url': 'http://abs.twimg.com/images/themes/theme1/bg.png', 'location': 'Moscow, Russia', 'listed_count': 0, 'profile_use_background_image': False, 'description': 'Seizing @truWorldControl by spreading #fakenewz. #proudtobeabot 🤖 by @RKalcik', 'default_profile_image': False, 'url': 'https://t.co/AgubHQIUXe', 'id_str': '1017118454711771136', 'profile_sidebar_border_color': '000000', 'contributors_enabled': False, 'name': 'Minister Vlatin', 'profile_image_url_https': 'https://pbs.twimg.com/profile_images/1036353314840109061/nox-yWY2_normal.jpg', 'is_translation_enabled': False, 'geo_enabled': False, 'translator_type': 'none', 'friends_count': 8, 'utc_offset': None, 'follow_request_sent': False, 'favourites_count': 2, 'has_extended_profile': False, 'is_translator': False, 'notifications': False, 'created_at': 'Wed Jul 11 18:48:31 +0000 2018', 'following': False, 'statuses_count': 77, 'id': 1017118454711771136, 'profile_image_url': 'http://pbs.twimg.com/profile_images/1036353314840109061/nox-yWY2_normal.jpg', 'time_zone': None, 'profile_banner_url': 'https://pbs.twimg.com/profile_banners/1017118454711771136/1535920961'}</t>
-  </si>
-  <si>
-    <t>{'profile_background_color': '000000', 'followers_count': 5, 'lang': 'en', 'screen_name': 'MinisterVlatin', 'profile_link_color': '000000', 'is_translator': False, 'profile_text_color': '000000', 'protected': False, 'profile_background_image_url_https': 'https://abs.twimg.com/images/themes/theme1/bg.png', 'profile_sidebar_fill_color': '000000', 'entities': {'description': {'urls': []}, 'url': {'urls': [{'expanded_url': 'http://world-control.net', 'display_url': 'world-control.net', 'indices': [0, 23], 'url': 'https://t.co/AgubHQIUXe'}]}}, 'default_profile': False, 'verified': False, 'profile_background_image_url': 'http://abs.twimg.com/images/themes/theme1/bg.png', 'location': 'Moscow, Russia', 'listed_count': 0, 'profile_use_background_image': False, 'description': 'Seizing @truWorldControl by spreading #fakenewz. #proudtobeabot 🤖 by @RKalcik', 'default_profile_image': False, 'url': 'https://t.co/AgubHQIUXe', 'id_str': '1017118454711771136', 'profile_sidebar_border_color': '000000', 'contributors_enabled': False, 'name': 'Minister Vlatin', 'profile_image_url_https': 'https://pbs.twimg.com/profile_images/1036353314840109061/nox-yWY2_normal.jpg', 'is_translation_enabled': False, 'geo_enabled': False, 'translator_type': 'none', 'friends_count': 8, 'utc_offset': None, 'follow_request_sent': False, 'favourites_count': 2, 'has_extended_profile': False, 'profile_background_tile': False, 'notifications': False, 'created_at': 'Wed Jul 11 18:48:31 +0000 2018', 'following': False, 'statuses_count': 76, 'id': 1017118454711771136, 'profile_image_url': 'http://pbs.twimg.com/profile_images/1036353314840109061/nox-yWY2_normal.jpg', 'time_zone': None, 'profile_banner_url': 'https://pbs.twimg.com/profile_banners/1017118454711771136/1535920961'}</t>
-  </si>
-  <si>
-    <t>{'profile_background_color': '000000', 'followers_count': 4, 'lang': 'en', 'screen_name': 'MinisterVlatin', 'profile_link_color': '000000', 'is_translator': False, 'profile_text_color': '000000', 'protected': False, 'profile_background_image_url_https': 'https://abs.twimg.com/images/themes/theme1/bg.png', 'profile_sidebar_fill_color': '000000', 'entities': {'description': {'urls': []}, 'url': {'urls': [{'expanded_url': 'http://world-control.net', 'display_url': 'world-control.net', 'indices': [0, 23], 'url': 'https://t.co/AgubHQIUXe'}]}}, 'default_profile': False, 'verified': False, 'profile_background_image_url': 'http://abs.twimg.com/images/themes/theme1/bg.png', 'location': 'Moscow, Russia', 'listed_count': 0, 'profile_use_background_image': False, 'description': 'Seizing @truWorldControl by spreading #fakenewz. #proudtobeabot 🤖 by @RKalcik', 'default_profile_image': False, 'url': 'https://t.co/AgubHQIUXe', 'id_str': '1017118454711771136', 'profile_sidebar_border_color': '000000', 'contributors_enabled': False, 'name': 'Minister Vlatin', 'profile_image_url_https': 'https://pbs.twimg.com/profile_images/1036353314840109061/nox-yWY2_normal.jpg', 'is_translation_enabled': False, 'geo_enabled': False, 'translator_type': 'none', 'friends_count': 8, 'utc_offset': None, 'follow_request_sent': False, 'favourites_count': 1, 'has_extended_profile': False, 'profile_background_tile': False, 'notifications': False, 'created_at': 'Wed Jul 11 18:48:31 +0000 2018', 'following': False, 'statuses_count': 66, 'id': 1017118454711771136, 'profile_image_url': 'http://pbs.twimg.com/profile_images/1036353314840109061/nox-yWY2_normal.jpg', 'time_zone': None, 'profile_banner_url': 'https://pbs.twimg.com/profile_banners/1017118454711771136/1535920961'}</t>
-  </si>
-  <si>
-    <t>{'profile_background_color': 'F5F8FA', 'followers_count': 1, 'lang': 'en', 'screen_name': 'MinisterVlatin', 'profile_link_color': '1DA1F2', 'is_translator': False, 'profile_text_color': '333333', 'protected': False, 'profile_background_image_url_https': None, 'profile_sidebar_fill_color': 'DDEEF6', 'entities': {'description': {'urls': []}}, 'default_profile': True, 'verified': False, 'profile_background_image_url': None, 'location': '', 'listed_count': 0, 'profile_use_background_image': True, 'description': '', 'default_profile_image': True, 'url': None, 'id_str': '1017118454711771136', 'profile_sidebar_border_color': 'C0DEED', 'contributors_enabled': False, 'name': 'Minister Vlatin', 'profile_image_url_https': 'https://abs.twimg.com/sticky/default_profile_images/default_profile_normal.png', 'is_translation_enabled': False, 'geo_enabled': False, 'translator_type': 'none', 'friends_count': 2, 'utc_offset': None, 'follow_request_sent': False, 'favourites_count': 1, 'has_extended_profile': False, 'profile_background_tile': False, 'notifications': False, 'created_at': 'Wed Jul 11 18:48:31 +0000 2018', 'following': False, 'id': 1017118454711771136, 'profile_image_url': 'http://abs.twimg.com/sticky/default_profile_images/default_profile_normal.png', 'time_zone': None, 'statuses_count': 48}</t>
-  </si>
-  <si>
-    <t>{'profile_background_color': 'F5F8FA', 'followers_count': 1, 'lang': 'en', 'screen_name': 'MinisterVlatin', 'profile_link_color': '1DA1F2', 'is_translator': False, 'profile_text_color': '333333', 'protected': False, 'profile_background_image_url_https': None, 'profile_sidebar_fill_color': 'DDEEF6', 'entities': {'description': {'urls': []}}, 'default_profile': True, 'verified': False, 'profile_background_image_url': None, 'location': '', 'listed_count': 0, 'profile_use_background_image': True, 'description': '', 'default_profile_image': True, 'url': None, 'id_str': '1017118454711771136', 'profile_sidebar_border_color': 'C0DEED', 'contributors_enabled': False, 'name': 'Minister Vlatin', 'profile_image_url_https': 'https://abs.twimg.com/sticky/default_profile_images/default_profile_normal.png', 'is_translation_enabled': False, 'geo_enabled': False, 'translator_type': 'none', 'friends_count': 2, 'utc_offset': None, 'follow_request_sent': False, 'favourites_count': 1, 'has_extended_profile': False, 'profile_background_tile': False, 'notifications': False, 'created_at': 'Wed Jul 11 18:48:31 +0000 2018', 'following': False, 'id': 1017118454711771136, 'profile_image_url': 'http://abs.twimg.com/sticky/default_profile_images/default_profile_normal.png', 'time_zone': None, 'statuses_count': 45}</t>
-  </si>
-  <si>
-    <t>{'profile_background_color': 'F5F8FA', 'followers_count': 1, 'lang': 'en', 'screen_name': 'MinisterVlatin', 'profile_link_color': '1DA1F2', 'is_translator': False, 'profile_text_color': '333333', 'protected': False, 'profile_background_image_url_https': None, 'profile_sidebar_fill_color': 'DDEEF6', 'entities': {'description': {'urls': []}}, 'default_profile': True, 'verified': False, 'profile_background_image_url': None, 'location': '', 'listed_count': 0, 'profile_use_background_image': True, 'description': '', 'default_profile_image': True, 'url': None, 'id_str': '1017118454711771136', 'profile_sidebar_border_color': 'C0DEED', 'contributors_enabled': False, 'name': 'Minister Vlatin', 'profile_image_url_https': 'https://abs.twimg.com/sticky/default_profile_images/default_profile_normal.png', 'is_translation_enabled': False, 'geo_enabled': False, 'translator_type': 'none', 'friends_count': 2, 'utc_offset': None, 'follow_request_sent': False, 'favourites_count': 1, 'has_extended_profile': False, 'profile_background_tile': False, 'notifications': False, 'created_at': 'Wed Jul 11 18:48:31 +0000 2018', 'following': False, 'id': 1017118454711771136, 'profile_image_url': 'http://abs.twimg.com/sticky/default_profile_images/default_profile_normal.png', 'time_zone': None, 'statuses_count': 43}</t>
-  </si>
-  <si>
-    <t>{'profile_background_color': 'F5F8FA', 'followers_count': 1, 'lang': 'en', 'screen_name': 'MinisterVlatin', 'profile_link_color': '1DA1F2', 'is_translator': False, 'profile_text_color': '333333', 'protected': False, 'profile_background_image_url_https': None, 'profile_sidebar_fill_color': 'DDEEF6', 'entities': {'description': {'urls': []}}, 'default_profile': True, 'verified': False, 'profile_background_image_url': None, 'location': '', 'listed_count': 0, 'profile_use_background_image': True, 'description': '', 'default_profile_image': True, 'url': None, 'id_str': '1017118454711771136', 'profile_sidebar_border_color': 'C0DEED', 'contributors_enabled': False, 'name': 'Minister Vlatin', 'profile_image_url_https': 'https://abs.twimg.com/sticky/default_profile_images/default_profile_normal.png', 'is_translation_enabled': False, 'geo_enabled': False, 'translator_type': 'none', 'friends_count': 2, 'utc_offset': None, 'follow_request_sent': False, 'favourites_count': 1, 'has_extended_profile': False, 'profile_background_tile': False, 'notifications': False, 'created_at': 'Wed Jul 11 18:48:31 +0000 2018', 'following': False, 'id': 1017118454711771136, 'profile_image_url': 'http://abs.twimg.com/sticky/default_profile_images/default_profile_normal.png', 'time_zone': None, 'statuses_count': 41}</t>
-  </si>
-  <si>
-    <t>{'profile_background_color': 'F5F8FA', 'followers_count': 1, 'lang': 'en', 'screen_name': 'MinisterVlatin', 'profile_link_color': '1DA1F2', 'is_translator': False, 'profile_text_color': '333333', 'protected': False, 'profile_background_image_url_https': None, 'profile_sidebar_fill_color': 'DDEEF6', 'entities': {'description': {'urls': []}}, 'default_profile': True, 'verified': False, 'profile_background_image_url': None, 'location': '', 'listed_count': 0, 'profile_use_background_image': True, 'description': '', 'default_profile_image': True, 'url': None, 'id_str': '1017118454711771136', 'profile_sidebar_border_color': 'C0DEED', 'contributors_enabled': False, 'name': 'Minister Vlatin', 'profile_image_url_https': 'https://abs.twimg.com/sticky/default_profile_images/default_profile_normal.png', 'is_translation_enabled': False, 'geo_enabled': False, 'translator_type': 'none', 'friends_count': 2, 'utc_offset': None, 'follow_request_sent': False, 'favourites_count': 1, 'has_extended_profile': False, 'profile_background_tile': False, 'notifications': False, 'created_at': 'Wed Jul 11 18:48:31 +0000 2018', 'following': False, 'id': 1017118454711771136, 'profile_image_url': 'http://abs.twimg.com/sticky/default_profile_images/default_profile_normal.png', 'time_zone': None, 'statuses_count': 39}</t>
-  </si>
-  <si>
-    <t>{'profile_background_color': 'F5F8FA', 'followers_count': 1, 'lang': 'en', 'screen_name': 'MinisterVlatin', 'profile_link_color': '1DA1F2', 'is_translator': False, 'profile_text_color': '333333', 'protected': False, 'profile_background_image_url_https': None, 'profile_sidebar_fill_color': 'DDEEF6', 'entities': {'description': {'urls': []}}, 'default_profile': True, 'verified': False, 'profile_background_image_url': None, 'location': '', 'listed_count': 0, 'profile_use_background_image': True, 'description': '', 'default_profile_image': True, 'url': None, 'id_str': '1017118454711771136', 'profile_sidebar_border_color': 'C0DEED', 'contributors_enabled': False, 'name': 'Minister Vlatin', 'profile_image_url_https': 'https://abs.twimg.com/sticky/default_profile_images/default_profile_normal.png', 'is_translation_enabled': False, 'geo_enabled': False, 'translator_type': 'none', 'friends_count': 2, 'utc_offset': None, 'follow_request_sent': False, 'favourites_count': 1, 'has_extended_profile': False, 'profile_background_tile': False, 'notifications': False, 'created_at': 'Wed Jul 11 18:48:31 +0000 2018', 'following': False, 'id': 1017118454711771136, 'profile_image_url': 'http://abs.twimg.com/sticky/default_profile_images/default_profile_normal.png', 'time_zone': None, 'statuses_count': 37}</t>
-  </si>
-  <si>
-    <t>{'profile_background_color': 'F5F8FA', 'followers_count': 1, 'lang': 'en', 'screen_name': 'MinisterVlatin', 'profile_link_color': '1DA1F2', 'is_translator': False, 'profile_text_color': '333333', 'protected': False, 'profile_background_image_url_https': None, 'profile_sidebar_fill_color': 'DDEEF6', 'entities': {'description': {'urls': []}}, 'default_profile': True, 'verified': False, 'profile_background_image_url': None, 'location': '', 'listed_count': 0, 'profile_use_background_image': True, 'description': '', 'default_profile_image': True, 'url': None, 'id_str': '1017118454711771136', 'profile_sidebar_border_color': 'C0DEED', 'contributors_enabled': False, 'name': 'Minister Vlatin', 'profile_image_url_https': 'https://abs.twimg.com/sticky/default_profile_images/default_profile_normal.png', 'is_translation_enabled': False, 'geo_enabled': False, 'translator_type': 'none', 'friends_count': 2, 'utc_offset': None, 'follow_request_sent': False, 'favourites_count': 1, 'has_extended_profile': False, 'profile_background_tile': False, 'notifications': False, 'created_at': 'Wed Jul 11 18:48:31 +0000 2018', 'following': False, 'id': 1017118454711771136, 'profile_image_url': 'http://abs.twimg.com/sticky/default_profile_images/default_profile_normal.png', 'time_zone': None, 'statuses_count': 35}</t>
-  </si>
-  <si>
-    <t>{'profile_background_color': 'F5F8FA', 'followers_count': 1, 'lang': 'en', 'screen_name': 'MinisterVlatin', 'profile_link_color': '1DA1F2', 'is_translator': False, 'profile_text_color': '333333', 'protected': False, 'profile_background_image_url_https': None, 'profile_sidebar_fill_color': 'DDEEF6', 'entities': {'description': {'urls': []}}, 'default_profile': True, 'verified': False, 'profile_background_image_url': None, 'location': '', 'listed_count': 0, 'profile_use_background_image': True, 'description': '', 'default_profile_image': True, 'url': None, 'id_str': '1017118454711771136', 'profile_sidebar_border_color': 'C0DEED', 'contributors_enabled': False, 'name': 'Minister Vlatin', 'profile_image_url_https': 'https://abs.twimg.com/sticky/default_profile_images/default_profile_normal.png', 'is_translation_enabled': False, 'geo_enabled': False, 'translator_type': 'none', 'friends_count': 2, 'utc_offset': None, 'follow_request_sent': False, 'favourites_count': 1, 'has_extended_profile': False, 'profile_background_tile': False, 'notifications': False, 'created_at': 'Wed Jul 11 18:48:31 +0000 2018', 'following': False, 'id': 1017118454711771136, 'profile_image_url': 'http://abs.twimg.com/sticky/default_profile_images/default_profile_normal.png', 'time_zone': None, 'statuses_count': 34}</t>
-  </si>
-  <si>
-    <t>{'profile_background_color': 'F5F8FA', 'followers_count': 0, 'lang': 'en', 'screen_name': 'MinisterVlatin', 'profile_link_color': '1DA1F2', 'profile_text_color': '333333', 'profile_image_url': 'http://abs.twimg.com/sticky/default_profile_images/default_profile_normal.png', 'time_zone': None, 'default_profile': True, 'entities': {'description': {'urls': []}}, 'is_translator': False, 'verified': False, 'profile_background_image_url': None, 'location': '', 'listed_count': 0, 'profile_use_background_image': True, 'description': '', 'default_profile_image': True, 'url': None, 'id_str': '1017118454711771136', 'following': False, 'profile_sidebar_border_color': 'C0DEED', 'contributors_enabled': False, 'name': 'Minister Vlatin', 'profile_image_url_https': 'https://abs.twimg.com/sticky/default_profile_images/default_profile_normal.png', 'is_translation_enabled': False, 'profile_sidebar_fill_color': 'DDEEF6', 'friends_count': 0, 'utc_offset': None, 'translator_type': 'none', 'favourites_count': 0, 'follow_request_sent': False, 'has_extended_profile': False, 'profile_background_tile': False, 'notifications': False, 'created_at': 'Wed Jul 11 18:48:31 +0000 2018', 'geo_enabled': False, 'id': 1017118454711771136, 'protected': False, 'profile_background_image_url_https': None, 'statuses_count': 30}</t>
-  </si>
-  <si>
-    <t>{'profile_background_color': 'F5F8FA', 'followers_count': 0, 'lang': 'en', 'screen_name': 'MinisterVlatin', 'profile_link_color': '1DA1F2', 'profile_text_color': '333333', 'profile_image_url': 'http://abs.twimg.com/sticky/default_profile_images/default_profile_normal.png', 'time_zone': None, 'default_profile': True, 'entities': {'description': {'urls': []}}, 'is_translator': False, 'verified': False, 'profile_background_image_url': None, 'location': '', 'listed_count': 0, 'profile_use_background_image': True, 'description': '', 'default_profile_image': True, 'url': None, 'id_str': '1017118454711771136', 'following': False, 'profile_sidebar_border_color': 'C0DEED', 'contributors_enabled': False, 'name': 'Minister Vlatin', 'profile_image_url_https': 'https://abs.twimg.com/sticky/default_profile_images/default_profile_normal.png', 'is_translation_enabled': False, 'profile_sidebar_fill_color': 'DDEEF6', 'friends_count': 0, 'utc_offset': None, 'translator_type': 'none', 'favourites_count': 0, 'follow_request_sent': False, 'has_extended_profile': False, 'profile_background_tile': False, 'notifications': False, 'created_at': 'Wed Jul 11 18:48:31 +0000 2018', 'geo_enabled': False, 'id': 1017118454711771136, 'protected': False, 'profile_background_image_url_https': None, 'statuses_count': 29}</t>
-  </si>
-  <si>
-    <t>{'profile_background_color': '000000', 'followers_count': 5, 'lang': 'en', 'screen_name': 'MinisterVlatin', 'profile_link_color': '000000', 'profile_use_background_image': False, 'default_profile': False, 'profile_text_color': '000000', 'protected': False, 'profile_background_image_url_https': 'https://abs.twimg.com/images/themes/theme1/bg.png', 'is_translator': False, 'entities': {'description': {'urls': []}, 'url': {'urls': [{'expanded_url': 'http://world-control.net', 'display_url': 'world-control.net', 'indices': [0, 23], 'url': 'https://t.co/AgubHQIUXe'}]}}, 'profile_sidebar_fill_color': '000000', 'verified': False, 'profile_background_image_url': 'http://abs.twimg.com/images/themes/theme1/bg.png', 'location': 'Moscow, Russia', 'listed_count': 0, 'time_zone': None, 'description': 'Seizing @truWorldControl by spreading #fakenewz. #proudtobeabot 🤖 by @RKalcik', 'default_profile_image': False, 'url': 'https://t.co/AgubHQIUXe', 'id_str': '1017118454711771136', 'following': False, 'profile_sidebar_border_color': '000000', 'contributors_enabled': False, 'name': 'Minister Vlatin', 'profile_image_url_https': 'https://pbs.twimg.com/profile_images/1036353314840109061/nox-yWY2_normal.jpg', 'is_translation_enabled': False, 'translator_type': 'none', 'utc_offset': None, 'follow_request_sent': False, 'favourites_count': 2, 'profile_image_url': 'http://pbs.twimg.com/profile_images/1036353314840109061/nox-yWY2_normal.jpg', 'profile_background_tile': False, 'notifications': False, 'created_at': 'Wed Jul 11 18:48:31 +0000 2018', 'geo_enabled': False, 'profile_banner_url': 'https://pbs.twimg.com/profile_banners/1017118454711771136/1535920961', 'id': 1017118454711771136, 'friends_count': 8, 'has_extended_profile': False, 'statuses_count': 78}</t>
-  </si>
-  <si>
-    <t>{'default_profile': False, 'profile_image_url': 'http://pbs.twimg.com/profile_images/1036353314840109061/nox-yWY2_normal.jpg', 'statuses_count': 79, 'has_extended_profile': False, 'favourites_count': 2, 'profile_text_color': '000000', 'profile_background_image_url': 'http://abs.twimg.com/images/themes/theme1/bg.png', 'listed_count': 0, 'utc_offset': None, 'created_at': 'Wed Jul 11 18:48:31 +0000 2018', 'profile_sidebar_fill_color': '000000', 'default_profile_image': False, 'contributors_enabled': False, 'is_translation_enabled': False, 'location': 'Moscow, Russia', 'follow_request_sent': False, 'profile_image_url_https': 'https://pbs.twimg.com/profile_images/1036353314840109061/nox-yWY2_normal.jpg', 'profile_banner_url': 'https://pbs.twimg.com/profile_banners/1017118454711771136/1535920961', 'is_translator': False, 'profile_sidebar_border_color': '000000', 'name': 'Minister Vlatin', 'notifications': False, 'protected': False, 'profile_use_background_image': False, 'profile_background_color': '000000', 'lang': 'en', 'translator_type': 'none', 'verified': False, 'time_zone': None, 'url': 'https://t.co/AgubHQIUXe', 'friends_count': 8, 'description': 'Seizing @truWorldControl by spreading #fakenewz. #proudtobeabot 🤖 by @RKalcik', 'id_str': '1017118454711771136', 'geo_enabled': False, 'screen_name': 'MinisterVlatin', 'entities': {'url': {'urls': [{'display_url': 'world-control.net', 'url': 'https://t.co/AgubHQIUXe', 'expanded_url': 'http://world-control.net', 'indices': [0, 23]}]}, 'description': {'urls': []}}, 'profile_background_image_url_https': 'https://abs.twimg.com/images/themes/theme1/bg.png', 'followers_count': 5, 'profile_link_color': '000000', 'id': 1017118454711771136, 'following': False, 'profile_background_tile': False}</t>
-  </si>
-  <si>
-    <t>{'default_profile': False, 'profile_image_url': 'http://pbs.twimg.com/profile_images/1036353314840109061/nox-yWY2_normal.jpg', 'statuses_count': 81, 'has_extended_profile': False, 'favourites_count': 2, 'profile_text_color': '000000', 'profile_background_image_url': 'http://abs.twimg.com/images/themes/theme1/bg.png', 'listed_count': 0, 'utc_offset': None, 'created_at': 'Wed Jul 11 18:48:31 +0000 2018', 'profile_sidebar_fill_color': '000000', 'default_profile_image': False, 'contributors_enabled': False, 'is_translation_enabled': False, 'location': 'Moscow, Russia', 'follow_request_sent': False, 'profile_image_url_https': 'https://pbs.twimg.com/profile_images/1036353314840109061/nox-yWY2_normal.jpg', 'profile_banner_url': 'https://pbs.twimg.com/profile_banners/1017118454711771136/1535920961', 'is_translator': False, 'profile_sidebar_border_color': '000000', 'name': 'Minister Vlatin', 'notifications': False, 'protected': False, 'profile_use_background_image': False, 'profile_background_color': '000000', 'lang': 'en', 'translator_type': 'none', 'verified': False, 'time_zone': None, 'url': 'https://t.co/AgubHQIUXe', 'friends_count': 8, 'description': 'Seizing @truWorldControl by spreading #fakenewz. #proudtobeabot 🤖 by @RKalcik', 'id_str': '1017118454711771136', 'geo_enabled': False, 'screen_name': 'MinisterVlatin', 'entities': {'url': {'urls': [{'display_url': 'world-control.net', 'url': 'https://t.co/AgubHQIUXe', 'expanded_url': 'http://world-control.net', 'indices': [0, 23]}]}, 'description': {'urls': []}}, 'profile_background_image_url_https': 'https://abs.twimg.com/images/themes/theme1/bg.png', 'followers_count': 5, 'profile_link_color': '000000', 'id': 1017118454711771136, 'following': False, 'profile_background_tile': False}</t>
-  </si>
-  <si>
-    <t>{'default_profile': False, 'profile_image_url': 'http://pbs.twimg.com/profile_images/1036353314840109061/nox-yWY2_normal.jpg', 'statuses_count': 83, 'has_extended_profile': False, 'favourites_count': 2, 'profile_text_color': '000000', 'profile_background_image_url': 'http://abs.twimg.com/images/themes/theme1/bg.png', 'listed_count': 0, 'utc_offset': None, 'created_at': 'Wed Jul 11 18:48:31 +0000 2018', 'profile_sidebar_fill_color': '000000', 'default_profile_image': False, 'contributors_enabled': False, 'is_translation_enabled': False, 'location': 'Moscow, Russia', 'follow_request_sent': False, 'profile_image_url_https': 'https://pbs.twimg.com/profile_images/1036353314840109061/nox-yWY2_normal.jpg', 'profile_banner_url': 'https://pbs.twimg.com/profile_banners/1017118454711771136/1535920961', 'is_translator': False, 'profile_sidebar_border_color': '000000', 'name': 'Minister Vlatin', 'notifications': False, 'protected': False, 'profile_use_background_image': False, 'profile_background_color': '000000', 'lang': 'en', 'translator_type': 'none', 'verified': False, 'time_zone': None, 'url': 'https://t.co/AgubHQIUXe', 'friends_count': 8, 'description': 'Seizing @truWorldControl by spreading #fakenewz. #proudtobeabot 🤖 by @RKalcik', 'id_str': '1017118454711771136', 'geo_enabled': False, 'screen_name': 'MinisterVlatin', 'entities': {'url': {'urls': [{'display_url': 'world-control.net', 'url': 'https://t.co/AgubHQIUXe', 'expanded_url': 'http://world-control.net', 'indices': [0, 23]}]}, 'description': {'urls': []}}, 'profile_background_image_url_https': 'https://abs.twimg.com/images/themes/theme1/bg.png', 'followers_count': 5, 'profile_link_color': '000000', 'id': 1017118454711771136, 'following': False, 'profile_background_tile': False}</t>
-  </si>
-  <si>
-    <t>{'default_profile': False, 'profile_image_url': 'http://pbs.twimg.com/profile_images/1036353314840109061/nox-yWY2_normal.jpg', 'statuses_count': 86, 'has_extended_profile': False, 'favourites_count': 2, 'profile_text_color': '000000', 'profile_background_image_url': 'http://abs.twimg.com/images/themes/theme1/bg.png', 'listed_count': 0, 'utc_offset': None, 'created_at': 'Wed Jul 11 18:48:31 +0000 2018', 'profile_sidebar_fill_color': '000000', 'default_profile_image': False, 'contributors_enabled': False, 'is_translation_enabled': False, 'location': 'Moscow, Russia', 'follow_request_sent': False, 'profile_image_url_https': 'https://pbs.twimg.com/profile_images/1036353314840109061/nox-yWY2_normal.jpg', 'profile_banner_url': 'https://pbs.twimg.com/profile_banners/1017118454711771136/1535920961', 'is_translator': False, 'profile_sidebar_border_color': '000000', 'name': 'Minister Vlatin', 'notifications': False, 'protected': False, 'profile_use_background_image': False, 'profile_background_color': '000000', 'lang': 'en', 'translator_type': 'none', 'verified': False, 'time_zone': None, 'url': 'https://t.co/AgubHQIUXe', 'friends_count': 8, 'description': 'Seizing @truWorldControl by spreading #fakenewz. #proudtobeabot 🤖 by @RKalcik', 'id_str': '1017118454711771136', 'geo_enabled': False, 'screen_name': 'MinisterVlatin', 'entities': {'url': {'urls': [{'display_url': 'world-control.net', 'url': 'https://t.co/AgubHQIUXe', 'expanded_url': 'http://world-control.net', 'indices': [0, 23]}]}, 'description': {'urls': []}}, 'profile_background_image_url_https': 'https://abs.twimg.com/images/themes/theme1/bg.png', 'followers_count': 5, 'profile_link_color': '000000', 'id': 1017118454711771136, 'following': False, 'profile_background_tile': False}</t>
-  </si>
-  <si>
-    <t>{'screen_name': 'MinisterVlatin', 'friends_count': 8, 'statuses_count': 88, 'entities': {'url': {'urls': [{'url': 'https://t.co/AgubHQIUXe', 'expanded_url': 'http://world-control.net', 'indices': [0, 23], 'display_url': 'world-control.net'}]}, 'description': {'urls': []}}, 'notifications': False, 'time_zone': None, 'default_profile': False, 'utc_offset': None, 'profile_image_url': 'http://pbs.twimg.com/profile_images/1036353314840109061/nox-yWY2_normal.jpg', 'created_at': 'Wed Jul 11 18:48:31 +0000 2018', 'is_translation_enabled': False, 'verified': False, 'profile_text_color': '000000', 'follow_request_sent': False, 'url': 'https://t.co/AgubHQIUXe', 'profile_background_image_url': 'http://abs.twimg.com/images/themes/theme1/bg.png', 'id': 1017118454711771136, 'profile_banner_url': 'https://pbs.twimg.com/profile_banners/1017118454711771136/1535920961', 'lang': 'en', 'profile_sidebar_fill_color': '000000', 'name': 'Minister Vlatin', 'profile_background_tile': False, 'id_str': '1017118454711771136', 'geo_enabled': False, 'translator_type': 'none', 'profile_use_background_image': False, 'profile_image_url_https': 'https://pbs.twimg.com/profile_images/1036353314840109061/nox-yWY2_normal.jpg', 'profile_background_color': '000000', 'default_profile_image': False, 'protected': False, 'description': 'Seizing @truWorldControl by spreading #fakenewz. #proudtobeabot 🤖 by @RKalcik', 'profile_sidebar_border_color': '000000', 'is_translator': False, 'profile_background_image_url_https': 'https://abs.twimg.com/images/themes/theme1/bg.png', 'listed_count': 0, 'has_extended_profile': False, 'profile_link_color': '000000', 'following': False, 'contributors_enabled': False, 'followers_count': 5, 'location': 'Moscow, Russia', 'favourites_count': 4}</t>
-  </si>
-  <si>
-    <t>{'friends_count': 8, 'geo_enabled': False, 'url': 'https://t.co/AgubHQIUXe', 'favourites_count': 4, 'statuses_count': 90, 'location': 'Moscow, Russia', 'follow_request_sent': False, 'profile_image_url_https': 'https://pbs.twimg.com/profile_images/1036353314840109061/nox-yWY2_normal.jpg', 'default_profile_image': False, 'profile_background_tile': False, 'entities': {'url': {'urls': [{'expanded_url': 'http://world-control.net', 'url': 'https://t.co/AgubHQIUXe', 'display_url': 'world-control.net', 'indices': [0, 23]}]}, 'description': {'urls': []}}, 'followers_count': 5, 'name': 'Minister Vlatin', 'description': 'Seizing @truWorldControl by spreading #fakenewz. #proudtobeabot 🤖 by @RKalcik', 'id_str': '1017118454711771136', 'lang': 'en', 'created_at': 'Wed Jul 11 18:48:31 +0000 2018', 'verified': False, 'profile_image_url': 'http://pbs.twimg.com/profile_images/1036353314840109061/nox-yWY2_normal.jpg', 'notifications': False, 'profile_background_image_url': 'http://abs.twimg.com/images/themes/theme1/bg.png', 'profile_background_image_url_https': 'https://abs.twimg.com/images/themes/theme1/bg.png', 'time_zone': None, 'translator_type': 'none', 'profile_banner_url': 'https://pbs.twimg.com/profile_banners/1017118454711771136/1535920961', 'has_extended_profile': False, 'default_profile': False, 'contributors_enabled': False, 'screen_name': 'MinisterVlatin', 'following': False, 'utc_offset': None, 'protected': False, 'is_translation_enabled': False, 'listed_count': 0, 'id': 1017118454711771136, 'profile_background_color': '000000', 'profile_sidebar_fill_color': '000000', 'profile_sidebar_border_color': '000000', 'profile_use_background_image': False, 'is_translator': False, 'profile_link_color': '000000', 'profile_text_color': '000000'}</t>
-  </si>
-  <si>
-    <t>{'statuses_count': 93, 'favourites_count': 4, 'id': 1017118454711771136, 'profile_background_image_url': 'http://abs.twimg.com/images/themes/theme1/bg.png', 'url': 'https://t.co/AgubHQIUXe', 'default_profile_image': False, 'friends_count': 8, 'entities': {'url': {'urls': [{'expanded_url': 'http://world-control.net', 'indices': [0, 23], 'url': 'https://t.co/AgubHQIUXe', 'display_url': 'world-control.net'}]}, 'description': {'urls': []}}, 'profile_background_color': '000000', 'has_extended_profile': False, 'followers_count': 5, 'default_profile': False, 'geo_enabled': False, 'profile_banner_url': 'https://pbs.twimg.com/profile_banners/1017118454711771136/1535920961', 'protected': False, 'profile_sidebar_border_color': '000000', 'notifications': False, 'lang': 'en', 'name': 'Minister Vlatin', 'verified': False, 'profile_image_url_https': 'https://pbs.twimg.com/profile_images/1036353314840109061/nox-yWY2_normal.jpg', 'id_str': '1017118454711771136', 'following': False, 'is_translator': False, 'created_at': 'Wed Jul 11 18:48:31 +0000 2018', 'follow_request_sent': False, 'location': 'Moscow, Russia', 'is_translation_enabled': False, 'listed_count': 0, 'utc_offset': None, 'profile_use_background_image': False, 'description': 'Seizing @truWorldControl by spreading #fakenewz. #proudtobeabot 🤖 by @RKalcik', 'time_zone': None, 'contributors_enabled': False, 'profile_sidebar_fill_color': '000000', 'profile_image_url': 'http://pbs.twimg.com/profile_images/1036353314840109061/nox-yWY2_normal.jpg', 'profile_link_color': '000000', 'translator_type': 'none', 'profile_background_image_url_https': 'https://abs.twimg.com/images/themes/theme1/bg.png', 'profile_background_tile': False, 'screen_name': 'MinisterVlatin', 'profile_text_color': '000000'}</t>
+    <t>{'has_extended_profile': False, 'statuses_count': 94, 'description': 'Seizing @truWorldControl by spreading #fakenewz. #proudtobeabot 🤖 by @RKalcik', 'profile_link_color': '000000', 'follow_request_sent': False, 'profile_use_background_image': False, 'profile_image_url_https': 'https://pbs.twimg.com/profile_images/1036353314840109061/nox-yWY2_normal.jpg', 'listed_count': 0, 'favourites_count': 4, 'profile_background_image_url_https': 'https://abs.twimg.com/images/themes/theme1/bg.png', 'screen_name': 'MinisterVlatin', 'is_translator': False, 'created_at': 'Wed Jul 11 18:48:31 +0000 2018', 'name': 'Minister Vlatin', 'default_profile': False, 'profile_sidebar_border_color': '000000', 'profile_background_image_url': 'http://abs.twimg.com/images/themes/theme1/bg.png', 'profile_background_color': '000000', 'translator_type': 'none', 'default_profile_image': False, 'protected': False, 'url': 'https://t.co/AgubHQIUXe', 'notifications': False, 'contributors_enabled': False, 'utc_offset': None, 'id': 1017118454711771136, 'followers_count': 5, 'friends_count': 8, 'time_zone': None, 'profile_image_url': 'http://pbs.twimg.com/profile_images/1036353314840109061/nox-yWY2_normal.jpg', 'following': False, 'lang': 'en', 'location': 'Moscow, Russia', 'profile_text_color': '000000', 'id_str': '1017118454711771136', 'entities': {'description': {'urls': []}, 'url': {'urls': [{'display_url': 'world-control.net', 'expanded_url': 'http://world-control.net', 'indices': [0, 23], 'url': 'https://t.co/AgubHQIUXe'}]}}, 'is_translation_enabled': False, 'geo_enabled': False, 'profile_background_tile': False, 'profile_sidebar_fill_color': '000000', 'verified': False, 'profile_banner_url': 'https://pbs.twimg.com/profile_banners/1017118454711771136/1535920961'}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -502,35 +554,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -818,12 +861,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AD23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:AD24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:30">
       <c r="B1" s="1" t="s">
@@ -915,893 +964,1033 @@
       </c>
     </row>
     <row r="2" spans="1:30">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
       <c r="D2" t="s">
         <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>60</v>
-      </c>
-      <c r="G2">
+        <v>31</v>
+      </c>
+      <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>75</v>
-      </c>
-      <c r="K2">
+        <v>32</v>
+      </c>
+      <c r="J2" t="s"/>
+      <c r="K2" t="n">
         <v>1.03924e+18</v>
       </c>
-      <c r="L2">
+      <c r="L2" t="n">
         <v>1.03924e+18</v>
       </c>
+      <c r="M2" t="s"/>
+      <c r="N2" t="s"/>
+      <c r="O2" t="s"/>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
       <c r="R2" t="b">
         <v>0</v>
       </c>
       <c r="S2" t="s">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="T2" t="s">
-        <v>102</v>
-      </c>
-      <c r="V2">
+        <v>34</v>
+      </c>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="b">
         <v>0</v>
       </c>
       <c r="X2" t="s">
-        <v>105</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="Y2" t="s"/>
       <c r="Z2" t="b">
         <v>0</v>
       </c>
       <c r="AA2" t="s">
-        <v>109</v>
-      </c>
-      <c r="AD2">
+        <v>36</v>
+      </c>
+      <c r="AB2" t="s"/>
+      <c r="AC2" t="s"/>
+      <c r="AD2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:30">
-      <c r="A3" s="1">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
       <c r="D3" t="s">
-        <v>30</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="E3" t="s"/>
       <c r="F3" t="s">
-        <v>61</v>
-      </c>
-      <c r="G3">
+        <v>38</v>
+      </c>
+      <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
       <c r="I3" t="s">
-        <v>76</v>
-      </c>
-      <c r="K3">
+        <v>39</v>
+      </c>
+      <c r="J3" t="s"/>
+      <c r="K3" t="n">
         <v>1.03765e+18</v>
       </c>
-      <c r="L3">
+      <c r="L3" t="n">
         <v>1.03765e+18</v>
       </c>
+      <c r="M3" t="s"/>
+      <c r="N3" t="s"/>
+      <c r="O3" t="s"/>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
       <c r="R3" t="b">
         <v>0</v>
       </c>
       <c r="S3" t="s">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="T3" t="s">
-        <v>102</v>
-      </c>
-      <c r="V3">
+        <v>34</v>
+      </c>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="b">
         <v>0</v>
       </c>
       <c r="X3" t="s">
-        <v>106</v>
+        <v>40</v>
       </c>
       <c r="Y3" t="s">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="Z3" t="b">
         <v>0</v>
       </c>
       <c r="AA3" t="s">
-        <v>110</v>
-      </c>
-      <c r="AD3">
+        <v>41</v>
+      </c>
+      <c r="AB3" t="s"/>
+      <c r="AC3" t="s"/>
+      <c r="AD3" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:30">
-      <c r="A4" s="1">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
       <c r="D4" t="s">
-        <v>31</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="E4" t="s"/>
       <c r="F4" t="s">
-        <v>62</v>
-      </c>
-      <c r="G4">
+        <v>43</v>
+      </c>
+      <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
       </c>
       <c r="I4" t="s">
-        <v>77</v>
-      </c>
-      <c r="K4">
+        <v>44</v>
+      </c>
+      <c r="J4" t="s"/>
+      <c r="K4" t="n">
         <v>1.0348e+18</v>
       </c>
-      <c r="L4">
+      <c r="L4" t="n">
         <v>1.0348e+18</v>
       </c>
+      <c r="M4" t="s"/>
+      <c r="N4" t="s"/>
+      <c r="O4" t="s"/>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
       <c r="R4" t="b">
         <v>0</v>
       </c>
       <c r="S4" t="s">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="T4" t="s">
-        <v>102</v>
-      </c>
-      <c r="V4">
+        <v>34</v>
+      </c>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="b">
         <v>0</v>
       </c>
       <c r="X4" t="s">
-        <v>106</v>
+        <v>40</v>
       </c>
       <c r="Y4" t="s">
-        <v>77</v>
+        <v>44</v>
       </c>
       <c r="Z4" t="b">
         <v>0</v>
       </c>
       <c r="AA4" t="s">
-        <v>111</v>
-      </c>
-      <c r="AD4">
+        <v>45</v>
+      </c>
+      <c r="AB4" t="s"/>
+      <c r="AC4" t="s"/>
+      <c r="AD4" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:30">
-      <c r="A5" s="1">
+      <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
       <c r="D5" t="s">
-        <v>32</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="E5" t="s"/>
       <c r="F5" t="s">
-        <v>63</v>
-      </c>
-      <c r="G5">
+        <v>47</v>
+      </c>
+      <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
       </c>
       <c r="I5" t="s">
-        <v>78</v>
-      </c>
-      <c r="K5">
+        <v>48</v>
+      </c>
+      <c r="J5" t="s"/>
+      <c r="K5" t="n">
         <v>1.03636e+18</v>
       </c>
-      <c r="L5">
+      <c r="L5" t="n">
         <v>1.03636e+18</v>
       </c>
+      <c r="M5" t="s"/>
+      <c r="N5" t="s"/>
+      <c r="O5" t="s"/>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
       <c r="R5" t="b">
         <v>0</v>
       </c>
       <c r="S5" t="s">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="T5" t="s">
-        <v>102</v>
-      </c>
-      <c r="V5">
+        <v>34</v>
+      </c>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="b">
         <v>0</v>
       </c>
       <c r="X5" t="s">
-        <v>106</v>
+        <v>40</v>
       </c>
       <c r="Y5" t="s">
-        <v>78</v>
+        <v>48</v>
       </c>
       <c r="Z5" t="b">
         <v>0</v>
       </c>
       <c r="AA5" t="s">
-        <v>111</v>
-      </c>
-      <c r="AD5">
+        <v>45</v>
+      </c>
+      <c r="AB5" t="s"/>
+      <c r="AC5" t="s"/>
+      <c r="AD5" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:30">
-      <c r="A6" s="1">
+      <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
       <c r="D6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E6" t="s"/>
+      <c r="F6" t="s">
+        <v>50</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" t="s">
+        <v>51</v>
+      </c>
+      <c r="J6" t="s"/>
+      <c r="K6" t="n">
+        <v>1.03266e+18</v>
+      </c>
+      <c r="L6" t="n">
+        <v>1.03266e+18</v>
+      </c>
+      <c r="M6" t="s">
+        <v>52</v>
+      </c>
+      <c r="N6" t="s"/>
+      <c r="O6" t="s"/>
+      <c r="P6" t="n">
+        <v>7.56e+17</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>7.5587e+17</v>
+      </c>
+      <c r="R6" t="b">
+        <v>0</v>
+      </c>
+      <c r="S6" t="s">
         <v>33</v>
       </c>
-      <c r="F6" t="s">
-        <v>64</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6" t="b">
-        <v>0</v>
-      </c>
-      <c r="I6" t="s">
-        <v>79</v>
-      </c>
-      <c r="K6">
-        <v>1.03266e+18</v>
-      </c>
-      <c r="L6">
-        <v>1.03266e+18</v>
-      </c>
-      <c r="M6" t="s">
-        <v>98</v>
-      </c>
-      <c r="P6">
-        <v>7.56e+17</v>
-      </c>
-      <c r="Q6">
-        <v>7.5587e+17</v>
-      </c>
-      <c r="R6" t="b">
-        <v>0</v>
-      </c>
-      <c r="S6" t="s">
-        <v>100</v>
-      </c>
       <c r="T6" t="s">
-        <v>102</v>
-      </c>
-      <c r="V6">
+        <v>34</v>
+      </c>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="b">
         <v>0</v>
       </c>
       <c r="X6" t="s">
-        <v>105</v>
+        <v>35</v>
       </c>
       <c r="Y6" t="s">
-        <v>79</v>
+        <v>51</v>
       </c>
       <c r="Z6" t="b">
         <v>0</v>
       </c>
       <c r="AA6" t="s">
-        <v>112</v>
-      </c>
-      <c r="AD6">
+        <v>53</v>
+      </c>
+      <c r="AB6" t="s"/>
+      <c r="AC6" t="s"/>
+      <c r="AD6" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:30">
-      <c r="A7" s="1">
+      <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
       <c r="D7" t="s">
+        <v>54</v>
+      </c>
+      <c r="E7" t="s"/>
+      <c r="F7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7" t="s">
+        <v>55</v>
+      </c>
+      <c r="J7" t="s"/>
+      <c r="K7" t="n">
+        <v>1.03266e+18</v>
+      </c>
+      <c r="L7" t="n">
+        <v>1.03266e+18</v>
+      </c>
+      <c r="M7" t="s">
+        <v>52</v>
+      </c>
+      <c r="N7" t="s"/>
+      <c r="O7" t="s"/>
+      <c r="P7" t="n">
+        <v>7.56e+17</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>7.5587e+17</v>
+      </c>
+      <c r="R7" t="b">
+        <v>0</v>
+      </c>
+      <c r="S7" t="s">
+        <v>33</v>
+      </c>
+      <c r="T7" t="s">
         <v>34</v>
       </c>
-      <c r="F7" t="s">
-        <v>64</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7" t="b">
-        <v>0</v>
-      </c>
-      <c r="I7" t="s">
-        <v>80</v>
-      </c>
-      <c r="K7">
-        <v>1.03266e+18</v>
-      </c>
-      <c r="L7">
-        <v>1.03266e+18</v>
-      </c>
-      <c r="M7" t="s">
-        <v>98</v>
-      </c>
-      <c r="P7">
-        <v>7.56e+17</v>
-      </c>
-      <c r="Q7">
-        <v>7.5587e+17</v>
-      </c>
-      <c r="R7" t="b">
-        <v>0</v>
-      </c>
-      <c r="S7" t="s">
-        <v>100</v>
-      </c>
-      <c r="T7" t="s">
-        <v>102</v>
-      </c>
-      <c r="V7">
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="b">
         <v>0</v>
       </c>
       <c r="X7" t="s">
-        <v>105</v>
+        <v>35</v>
       </c>
       <c r="Y7" t="s">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="Z7" t="b">
         <v>0</v>
       </c>
       <c r="AA7" t="s">
-        <v>113</v>
-      </c>
-      <c r="AD7">
+        <v>56</v>
+      </c>
+      <c r="AB7" t="s"/>
+      <c r="AC7" t="s"/>
+      <c r="AD7" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:30">
-      <c r="A8" s="1">
+      <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
       <c r="D8" t="s">
+        <v>57</v>
+      </c>
+      <c r="E8" t="s"/>
+      <c r="F8" t="s">
+        <v>50</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8" t="s">
+        <v>58</v>
+      </c>
+      <c r="J8" t="s"/>
+      <c r="K8" t="n">
+        <v>1.03266e+18</v>
+      </c>
+      <c r="L8" t="n">
+        <v>1.03266e+18</v>
+      </c>
+      <c r="M8" t="s">
+        <v>52</v>
+      </c>
+      <c r="N8" t="s"/>
+      <c r="O8" t="s"/>
+      <c r="P8" t="n">
+        <v>7.56e+17</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>7.5587e+17</v>
+      </c>
+      <c r="R8" t="b">
+        <v>0</v>
+      </c>
+      <c r="S8" t="s">
+        <v>33</v>
+      </c>
+      <c r="T8" t="s">
+        <v>34</v>
+      </c>
+      <c r="U8" t="s"/>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="b">
+        <v>0</v>
+      </c>
+      <c r="X8" t="s">
         <v>35</v>
       </c>
-      <c r="F8" t="s">
-        <v>64</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8" t="b">
-        <v>0</v>
-      </c>
-      <c r="I8" t="s">
-        <v>81</v>
-      </c>
-      <c r="K8">
-        <v>1.03266e+18</v>
-      </c>
-      <c r="L8">
-        <v>1.03266e+18</v>
-      </c>
-      <c r="M8" t="s">
-        <v>98</v>
-      </c>
-      <c r="P8">
-        <v>7.56e+17</v>
-      </c>
-      <c r="Q8">
-        <v>7.5587e+17</v>
-      </c>
-      <c r="R8" t="b">
-        <v>0</v>
-      </c>
-      <c r="S8" t="s">
-        <v>100</v>
-      </c>
-      <c r="T8" t="s">
-        <v>102</v>
-      </c>
-      <c r="V8">
-        <v>0</v>
-      </c>
-      <c r="W8" t="b">
-        <v>0</v>
-      </c>
-      <c r="X8" t="s">
-        <v>105</v>
-      </c>
       <c r="Y8" t="s">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="Z8" t="b">
         <v>0</v>
       </c>
       <c r="AA8" t="s">
-        <v>114</v>
-      </c>
-      <c r="AD8">
+        <v>59</v>
+      </c>
+      <c r="AB8" t="s"/>
+      <c r="AC8" t="s"/>
+      <c r="AD8" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:30">
-      <c r="A9" s="1">
+      <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
       <c r="D9" t="s">
-        <v>36</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="E9" t="s"/>
       <c r="F9" t="s">
-        <v>64</v>
-      </c>
-      <c r="G9">
+        <v>50</v>
+      </c>
+      <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
       <c r="I9" t="s">
-        <v>82</v>
-      </c>
-      <c r="K9">
+        <v>61</v>
+      </c>
+      <c r="J9" t="s"/>
+      <c r="K9" t="n">
         <v>1.03265e+18</v>
       </c>
-      <c r="L9">
+      <c r="L9" t="n">
         <v>1.03265e+18</v>
       </c>
       <c r="M9" t="s">
-        <v>98</v>
-      </c>
-      <c r="P9">
+        <v>52</v>
+      </c>
+      <c r="N9" t="s"/>
+      <c r="O9" t="s"/>
+      <c r="P9" t="n">
         <v>7.56e+17</v>
       </c>
-      <c r="Q9">
+      <c r="Q9" t="n">
         <v>7.5587e+17</v>
       </c>
       <c r="R9" t="b">
         <v>0</v>
       </c>
       <c r="S9" t="s">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="T9" t="s">
-        <v>102</v>
-      </c>
-      <c r="V9">
+        <v>34</v>
+      </c>
+      <c r="U9" t="s"/>
+      <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="b">
         <v>0</v>
       </c>
       <c r="X9" t="s">
-        <v>105</v>
+        <v>35</v>
       </c>
       <c r="Y9" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="Z9" t="b">
         <v>0</v>
       </c>
       <c r="AA9" t="s">
-        <v>115</v>
-      </c>
-      <c r="AD9">
+        <v>62</v>
+      </c>
+      <c r="AB9" t="s"/>
+      <c r="AC9" t="s"/>
+      <c r="AD9" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:30">
-      <c r="A10" s="1">
+      <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
       <c r="D10" t="s">
-        <v>37</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="E10" t="s"/>
       <c r="F10" t="s">
+        <v>50</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="b">
+        <v>0</v>
+      </c>
+      <c r="I10" t="s">
         <v>64</v>
       </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10" t="b">
-        <v>0</v>
-      </c>
-      <c r="I10" t="s">
-        <v>83</v>
-      </c>
-      <c r="K10">
+      <c r="J10" t="s"/>
+      <c r="K10" t="n">
         <v>1.03265e+18</v>
       </c>
-      <c r="L10">
+      <c r="L10" t="n">
         <v>1.03265e+18</v>
       </c>
       <c r="M10" t="s">
-        <v>98</v>
-      </c>
-      <c r="P10">
+        <v>52</v>
+      </c>
+      <c r="N10" t="s"/>
+      <c r="O10" t="s"/>
+      <c r="P10" t="n">
         <v>7.56e+17</v>
       </c>
-      <c r="Q10">
+      <c r="Q10" t="n">
         <v>7.5587e+17</v>
       </c>
       <c r="R10" t="b">
         <v>0</v>
       </c>
       <c r="S10" t="s">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="T10" t="s">
-        <v>102</v>
-      </c>
-      <c r="V10">
+        <v>34</v>
+      </c>
+      <c r="U10" t="s"/>
+      <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="b">
         <v>0</v>
       </c>
       <c r="X10" t="s">
-        <v>105</v>
+        <v>35</v>
       </c>
       <c r="Y10" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="Z10" t="b">
         <v>0</v>
       </c>
       <c r="AA10" t="s">
-        <v>116</v>
-      </c>
-      <c r="AD10">
+        <v>65</v>
+      </c>
+      <c r="AB10" t="s"/>
+      <c r="AC10" t="s"/>
+      <c r="AD10" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:30">
-      <c r="A11" s="1">
+      <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
       <c r="D11" t="s">
-        <v>38</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="E11" t="s"/>
       <c r="F11" t="s">
-        <v>65</v>
-      </c>
-      <c r="G11">
+        <v>67</v>
+      </c>
+      <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
       </c>
       <c r="I11" t="s">
-        <v>84</v>
-      </c>
-      <c r="K11">
+        <v>68</v>
+      </c>
+      <c r="J11" t="s"/>
+      <c r="K11" t="n">
         <v>1.03265e+18</v>
       </c>
-      <c r="L11">
+      <c r="L11" t="n">
         <v>1.03265e+18</v>
       </c>
       <c r="M11" t="s">
-        <v>98</v>
-      </c>
-      <c r="P11">
+        <v>52</v>
+      </c>
+      <c r="N11" t="s"/>
+      <c r="O11" t="s"/>
+      <c r="P11" t="n">
         <v>7.56e+17</v>
       </c>
-      <c r="Q11">
+      <c r="Q11" t="n">
         <v>7.5587e+17</v>
       </c>
       <c r="R11" t="b">
         <v>0</v>
       </c>
       <c r="S11" t="s">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="T11" t="s">
-        <v>102</v>
-      </c>
-      <c r="V11">
+        <v>34</v>
+      </c>
+      <c r="U11" t="s"/>
+      <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="b">
         <v>0</v>
       </c>
       <c r="X11" t="s">
-        <v>105</v>
+        <v>35</v>
       </c>
       <c r="Y11" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="Z11" t="b">
         <v>0</v>
       </c>
       <c r="AA11" t="s">
-        <v>117</v>
-      </c>
-      <c r="AD11">
+        <v>69</v>
+      </c>
+      <c r="AB11" t="s"/>
+      <c r="AC11" t="s"/>
+      <c r="AD11" t="n">
         <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:30">
-      <c r="A12" s="1">
+      <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
       <c r="D12" t="s">
-        <v>39</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="E12" t="s"/>
       <c r="F12" t="s">
-        <v>64</v>
-      </c>
-      <c r="G12">
+        <v>50</v>
+      </c>
+      <c r="G12" t="n">
         <v>0</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
       <c r="I12" t="s">
-        <v>85</v>
-      </c>
-      <c r="K12">
+        <v>71</v>
+      </c>
+      <c r="J12" t="s"/>
+      <c r="K12" t="n">
         <v>1.03237e+18</v>
       </c>
-      <c r="L12">
+      <c r="L12" t="n">
         <v>1.03237e+18</v>
       </c>
       <c r="M12" t="s">
-        <v>98</v>
-      </c>
-      <c r="P12">
+        <v>52</v>
+      </c>
+      <c r="N12" t="s"/>
+      <c r="O12" t="s"/>
+      <c r="P12" t="n">
         <v>7.56e+17</v>
       </c>
-      <c r="Q12">
+      <c r="Q12" t="n">
         <v>7.5587e+17</v>
       </c>
       <c r="R12" t="b">
         <v>0</v>
       </c>
       <c r="S12" t="s">
-        <v>101</v>
+        <v>72</v>
       </c>
       <c r="T12" t="s">
-        <v>103</v>
-      </c>
-      <c r="V12">
+        <v>73</v>
+      </c>
+      <c r="U12" t="s"/>
+      <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="b">
         <v>0</v>
       </c>
       <c r="X12" t="s">
-        <v>106</v>
+        <v>40</v>
       </c>
       <c r="Y12" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="Z12" t="b">
         <v>0</v>
       </c>
       <c r="AA12" t="s">
-        <v>118</v>
-      </c>
-      <c r="AD12">
+        <v>74</v>
+      </c>
+      <c r="AB12" t="s"/>
+      <c r="AC12" t="s"/>
+      <c r="AD12" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:30">
-      <c r="A13" s="1">
+      <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
       <c r="D13" t="s">
+        <v>75</v>
+      </c>
+      <c r="E13" t="s"/>
+      <c r="F13" t="s">
+        <v>50</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="b">
+        <v>0</v>
+      </c>
+      <c r="I13" t="s">
+        <v>76</v>
+      </c>
+      <c r="J13" t="s"/>
+      <c r="K13" t="n">
+        <v>1.03151e+18</v>
+      </c>
+      <c r="L13" t="n">
+        <v>1.03151e+18</v>
+      </c>
+      <c r="M13" t="s">
+        <v>52</v>
+      </c>
+      <c r="N13" t="s"/>
+      <c r="O13" t="s"/>
+      <c r="P13" t="n">
+        <v>7.56e+17</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>7.5587e+17</v>
+      </c>
+      <c r="R13" t="b">
+        <v>0</v>
+      </c>
+      <c r="S13" t="s">
+        <v>33</v>
+      </c>
+      <c r="T13" t="s">
+        <v>34</v>
+      </c>
+      <c r="U13" t="s"/>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="b">
+        <v>0</v>
+      </c>
+      <c r="X13" t="s">
         <v>40</v>
       </c>
-      <c r="F13" t="s">
-        <v>64</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13" t="b">
-        <v>0</v>
-      </c>
-      <c r="I13" t="s">
-        <v>86</v>
-      </c>
-      <c r="K13">
-        <v>1.03151e+18</v>
-      </c>
-      <c r="L13">
-        <v>1.03151e+18</v>
-      </c>
-      <c r="M13" t="s">
-        <v>98</v>
-      </c>
-      <c r="P13">
-        <v>7.56e+17</v>
-      </c>
-      <c r="Q13">
-        <v>7.5587e+17</v>
-      </c>
-      <c r="R13" t="b">
-        <v>0</v>
-      </c>
-      <c r="S13" t="s">
-        <v>100</v>
-      </c>
-      <c r="T13" t="s">
-        <v>102</v>
-      </c>
-      <c r="V13">
-        <v>0</v>
-      </c>
-      <c r="W13" t="b">
-        <v>0</v>
-      </c>
-      <c r="X13" t="s">
-        <v>106</v>
-      </c>
       <c r="Y13" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="Z13" t="b">
         <v>0</v>
       </c>
       <c r="AA13" t="s">
-        <v>119</v>
-      </c>
-      <c r="AD13">
+        <v>77</v>
+      </c>
+      <c r="AB13" t="s"/>
+      <c r="AC13" t="s"/>
+      <c r="AD13" t="n">
         <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:30">
-      <c r="A14" s="1">
+      <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
       <c r="D14" t="s">
-        <v>41</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="E14" t="s"/>
       <c r="F14" t="s">
-        <v>66</v>
-      </c>
-      <c r="G14">
+        <v>79</v>
+      </c>
+      <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
       </c>
       <c r="I14" t="s">
-        <v>87</v>
-      </c>
-      <c r="K14">
+        <v>80</v>
+      </c>
+      <c r="J14" t="s"/>
+      <c r="K14" t="n">
         <v>1.02535e+18</v>
       </c>
-      <c r="L14">
+      <c r="L14" t="n">
         <v>1.02535e+18</v>
       </c>
       <c r="M14" t="s">
-        <v>98</v>
-      </c>
-      <c r="P14">
+        <v>52</v>
+      </c>
+      <c r="N14" t="s"/>
+      <c r="O14" t="s"/>
+      <c r="P14" t="n">
         <v>7.56e+17</v>
       </c>
-      <c r="Q14">
+      <c r="Q14" t="n">
         <v>7.5587e+17</v>
       </c>
       <c r="R14" t="b">
         <v>0</v>
       </c>
       <c r="S14" t="s">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="T14" t="s">
-        <v>102</v>
-      </c>
-      <c r="V14">
+        <v>34</v>
+      </c>
+      <c r="U14" t="s"/>
+      <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="b">
         <v>0</v>
       </c>
       <c r="X14" t="s">
-        <v>105</v>
+        <v>35</v>
       </c>
       <c r="Y14" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="Z14" t="b">
         <v>0</v>
       </c>
       <c r="AA14" t="s">
-        <v>120</v>
-      </c>
-      <c r="AD14">
+        <v>81</v>
+      </c>
+      <c r="AB14" t="s"/>
+      <c r="AC14" t="s"/>
+      <c r="AD14" t="n">
         <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:30">
-      <c r="A15" s="1">
+      <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
       <c r="D15" t="s">
-        <v>42</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="E15" t="s"/>
       <c r="F15" t="s">
-        <v>67</v>
-      </c>
-      <c r="G15">
+        <v>83</v>
+      </c>
+      <c r="G15" t="n">
         <v>0</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
       <c r="I15" t="s">
-        <v>88</v>
-      </c>
-      <c r="K15">
+        <v>84</v>
+      </c>
+      <c r="J15" t="s"/>
+      <c r="K15" t="n">
         <v>1.02534e+18</v>
       </c>
-      <c r="L15">
+      <c r="L15" t="n">
         <v>1.02534e+18</v>
       </c>
       <c r="M15" t="s">
-        <v>98</v>
-      </c>
-      <c r="P15">
+        <v>52</v>
+      </c>
+      <c r="N15" t="s"/>
+      <c r="O15" t="s"/>
+      <c r="P15" t="n">
         <v>7.56e+17</v>
       </c>
-      <c r="Q15">
+      <c r="Q15" t="n">
         <v>7.5587e+17</v>
       </c>
       <c r="R15" t="b">
         <v>0</v>
       </c>
       <c r="S15" t="s">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="T15" t="s">
-        <v>102</v>
-      </c>
-      <c r="V15">
+        <v>34</v>
+      </c>
+      <c r="U15" t="s"/>
+      <c r="V15" t="n">
         <v>0</v>
       </c>
       <c r="W15" t="b">
         <v>0</v>
       </c>
       <c r="X15" t="s">
-        <v>105</v>
+        <v>35</v>
       </c>
       <c r="Y15" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="Z15" t="b">
         <v>0</v>
       </c>
       <c r="AA15" t="s">
-        <v>121</v>
-      </c>
-      <c r="AD15">
+        <v>85</v>
+      </c>
+      <c r="AB15" t="s"/>
+      <c r="AC15" t="s"/>
+      <c r="AD15" t="n">
         <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:30">
-      <c r="A16" s="1">
+      <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
       <c r="D16" t="s">
-        <v>43</v>
+        <v>86</v>
       </c>
       <c r="E16" t="s">
-        <v>52</v>
+        <v>87</v>
       </c>
       <c r="F16" t="s">
-        <v>68</v>
-      </c>
-      <c r="G16">
+        <v>88</v>
+      </c>
+      <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="b">
@@ -1810,475 +1999,627 @@
       <c r="I16" t="s">
         <v>89</v>
       </c>
-      <c r="K16">
+      <c r="J16" t="s"/>
+      <c r="K16" t="n">
         <v>1.039258898048463e+18</v>
       </c>
-      <c r="L16">
+      <c r="L16" t="n">
         <v>1.039258898048463e+18</v>
       </c>
+      <c r="M16" t="s"/>
+      <c r="N16" t="s"/>
+      <c r="O16" t="s"/>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
       <c r="R16" t="b">
         <v>0</v>
       </c>
       <c r="S16" t="s">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="T16" t="s">
-        <v>102</v>
-      </c>
-      <c r="V16">
+        <v>34</v>
+      </c>
+      <c r="U16" t="s"/>
+      <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="b">
         <v>0</v>
       </c>
       <c r="X16" t="s">
-        <v>105</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="Y16" t="s"/>
       <c r="Z16" t="b">
         <v>0</v>
       </c>
       <c r="AA16" t="s">
-        <v>122</v>
-      </c>
-      <c r="AD16">
+        <v>90</v>
+      </c>
+      <c r="AB16" t="s"/>
+      <c r="AC16" t="s"/>
+      <c r="AD16" t="n">
         <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:30">
-      <c r="A17" s="1">
+      <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
       <c r="D17" t="s">
-        <v>44</v>
+        <v>91</v>
       </c>
       <c r="E17" t="s">
-        <v>53</v>
+        <v>92</v>
       </c>
       <c r="F17" t="s">
-        <v>69</v>
-      </c>
-      <c r="G17">
+        <v>93</v>
+      </c>
+      <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
       </c>
       <c r="I17" t="s">
-        <v>90</v>
-      </c>
-      <c r="K17">
+        <v>94</v>
+      </c>
+      <c r="J17" t="s"/>
+      <c r="K17" t="n">
         <v>1.039270260451541e+18</v>
       </c>
-      <c r="L17">
+      <c r="L17" t="n">
         <v>1.039270260451541e+18</v>
       </c>
       <c r="M17" t="s">
-        <v>98</v>
-      </c>
-      <c r="P17">
+        <v>52</v>
+      </c>
+      <c r="N17" t="s"/>
+      <c r="O17" t="s"/>
+      <c r="P17" t="n">
         <v>7.558699847614792e+17</v>
       </c>
-      <c r="Q17">
+      <c r="Q17" t="n">
         <v>7.55869984761479e+17</v>
       </c>
       <c r="R17" t="b">
         <v>0</v>
       </c>
       <c r="S17" t="s">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="T17" t="s">
-        <v>102</v>
-      </c>
-      <c r="V17">
+        <v>34</v>
+      </c>
+      <c r="U17" t="s"/>
+      <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="b">
         <v>0</v>
       </c>
       <c r="X17" t="s">
-        <v>106</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="Y17" t="s"/>
       <c r="Z17" t="b">
         <v>0</v>
       </c>
       <c r="AA17" t="s">
-        <v>123</v>
-      </c>
-      <c r="AD17">
+        <v>95</v>
+      </c>
+      <c r="AB17" t="s"/>
+      <c r="AC17" t="s"/>
+      <c r="AD17" t="n">
         <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:30">
-      <c r="A18" s="1">
+      <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
       <c r="D18" t="s">
-        <v>45</v>
+        <v>96</v>
       </c>
       <c r="E18" t="s">
-        <v>54</v>
+        <v>97</v>
       </c>
       <c r="F18" t="s">
-        <v>70</v>
-      </c>
-      <c r="G18">
+        <v>98</v>
+      </c>
+      <c r="G18" t="n">
         <v>0</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
       </c>
       <c r="I18" t="s">
-        <v>91</v>
-      </c>
-      <c r="K18">
+        <v>99</v>
+      </c>
+      <c r="J18" t="s"/>
+      <c r="K18" t="n">
         <v>1.03939789674197e+18</v>
       </c>
-      <c r="L18">
+      <c r="L18" t="n">
         <v>1.03939789674197e+18</v>
       </c>
+      <c r="M18" t="s"/>
+      <c r="N18" t="s"/>
+      <c r="O18" t="s"/>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
       <c r="R18" t="b">
         <v>0</v>
       </c>
       <c r="S18" t="s">
+        <v>33</v>
+      </c>
+      <c r="T18" t="s">
+        <v>34</v>
+      </c>
+      <c r="U18" t="s"/>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="b">
+        <v>0</v>
+      </c>
+      <c r="X18" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y18" t="s"/>
+      <c r="Z18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA18" t="s">
         <v>100</v>
       </c>
-      <c r="T18" t="s">
-        <v>102</v>
-      </c>
-      <c r="V18">
-        <v>0</v>
-      </c>
-      <c r="W18" t="b">
-        <v>0</v>
-      </c>
-      <c r="X18" t="s">
-        <v>105</v>
-      </c>
-      <c r="Z18" t="b">
-        <v>0</v>
-      </c>
-      <c r="AA18" t="s">
-        <v>124</v>
-      </c>
-      <c r="AD18">
+      <c r="AB18" t="s"/>
+      <c r="AC18" t="s"/>
+      <c r="AD18" t="n">
         <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:30">
-      <c r="A19" s="1">
+      <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
       <c r="D19" t="s">
-        <v>46</v>
+        <v>101</v>
       </c>
       <c r="E19" t="s">
-        <v>55</v>
+        <v>102</v>
       </c>
       <c r="F19" t="s">
-        <v>71</v>
-      </c>
-      <c r="G19">
+        <v>103</v>
+      </c>
+      <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
       <c r="I19" t="s">
-        <v>92</v>
-      </c>
-      <c r="K19">
+        <v>104</v>
+      </c>
+      <c r="J19" t="s"/>
+      <c r="K19" t="n">
         <v>1.039399363972407e+18</v>
       </c>
-      <c r="L19">
+      <c r="L19" t="n">
         <v>1.039399363972407e+18</v>
       </c>
+      <c r="M19" t="s"/>
+      <c r="N19" t="s"/>
+      <c r="O19" t="s"/>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
       <c r="R19" t="b">
         <v>0</v>
       </c>
       <c r="S19" t="s">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="T19" t="s">
-        <v>102</v>
-      </c>
-      <c r="V19">
+        <v>34</v>
+      </c>
+      <c r="U19" t="s"/>
+      <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="b">
         <v>0</v>
       </c>
       <c r="X19" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y19" t="s"/>
+      <c r="Z19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA19" t="s">
         <v>105</v>
       </c>
-      <c r="Z19" t="b">
-        <v>0</v>
-      </c>
-      <c r="AA19" t="s">
-        <v>125</v>
-      </c>
-      <c r="AD19">
+      <c r="AB19" t="s"/>
+      <c r="AC19" t="s"/>
+      <c r="AD19" t="n">
         <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:30">
-      <c r="A20" s="1">
+      <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
       <c r="D20" t="s">
-        <v>47</v>
+        <v>106</v>
       </c>
       <c r="E20" t="s">
-        <v>56</v>
+        <v>107</v>
       </c>
       <c r="F20" t="s">
-        <v>69</v>
-      </c>
-      <c r="G20">
+        <v>93</v>
+      </c>
+      <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
       <c r="I20" t="s">
-        <v>93</v>
-      </c>
-      <c r="K20">
+        <v>108</v>
+      </c>
+      <c r="J20" t="s"/>
+      <c r="K20" t="n">
         <v>1.040529171871613e+18</v>
       </c>
-      <c r="L20">
+      <c r="L20" t="n">
         <v>1.040529171871613e+18</v>
       </c>
       <c r="M20" t="s">
-        <v>98</v>
-      </c>
-      <c r="P20">
+        <v>52</v>
+      </c>
+      <c r="N20" t="s"/>
+      <c r="O20" t="s"/>
+      <c r="P20" t="n">
         <v>7.55869984761479e+17</v>
       </c>
-      <c r="Q20">
+      <c r="Q20" t="n">
         <v>7.55869984761479e+17</v>
       </c>
       <c r="R20" t="b">
         <v>0</v>
       </c>
       <c r="S20" t="s">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="T20" t="s">
-        <v>102</v>
-      </c>
-      <c r="V20">
+        <v>34</v>
+      </c>
+      <c r="U20" t="s"/>
+      <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="b">
         <v>0</v>
       </c>
       <c r="X20" t="s">
-        <v>107</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="Y20" t="s"/>
       <c r="Z20" t="b">
         <v>0</v>
       </c>
       <c r="AA20" t="s">
-        <v>126</v>
-      </c>
-      <c r="AD20">
+        <v>110</v>
+      </c>
+      <c r="AB20" t="s"/>
+      <c r="AC20" t="s"/>
+      <c r="AD20" t="n">
         <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:30">
-      <c r="A21" s="1">
+      <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
       <c r="D21" t="s">
-        <v>48</v>
+        <v>111</v>
       </c>
       <c r="E21" t="s">
-        <v>57</v>
+        <v>112</v>
       </c>
       <c r="F21" t="s">
-        <v>72</v>
-      </c>
-      <c r="G21">
+        <v>113</v>
+      </c>
+      <c r="G21" t="n">
         <v>0</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
       <c r="I21" t="s">
-        <v>94</v>
-      </c>
-      <c r="K21">
+        <v>114</v>
+      </c>
+      <c r="J21" t="s"/>
+      <c r="K21" t="n">
         <v>1.040914073783816e+18</v>
       </c>
-      <c r="L21">
+      <c r="L21" t="n">
         <v>1.040914073783816e+18</v>
       </c>
       <c r="M21" t="s">
-        <v>98</v>
-      </c>
-      <c r="P21">
+        <v>52</v>
+      </c>
+      <c r="N21" t="s"/>
+      <c r="O21" t="s"/>
+      <c r="P21" t="n">
         <v>7.558699847614792e+17</v>
       </c>
-      <c r="Q21">
+      <c r="Q21" t="n">
         <v>7.55869984761479e+17</v>
       </c>
       <c r="R21" t="b">
         <v>0</v>
       </c>
       <c r="S21" t="s">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="T21" t="s">
-        <v>104</v>
-      </c>
-      <c r="V21">
+        <v>115</v>
+      </c>
+      <c r="U21" t="s"/>
+      <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="b">
         <v>0</v>
       </c>
       <c r="X21" t="s">
-        <v>108</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="Y21" t="s"/>
       <c r="Z21" t="b">
         <v>0</v>
       </c>
       <c r="AA21" t="s">
-        <v>127</v>
-      </c>
-      <c r="AD21">
+        <v>117</v>
+      </c>
+      <c r="AB21" t="s"/>
+      <c r="AC21" t="s"/>
+      <c r="AD21" t="n">
         <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:30">
-      <c r="A22" s="1">
+      <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
       <c r="D22" t="s">
-        <v>49</v>
+        <v>118</v>
       </c>
       <c r="E22" t="s">
-        <v>58</v>
+        <v>119</v>
       </c>
       <c r="F22" t="s">
-        <v>73</v>
-      </c>
-      <c r="G22">
+        <v>120</v>
+      </c>
+      <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
       </c>
       <c r="I22" t="s">
-        <v>95</v>
-      </c>
-      <c r="K22">
+        <v>121</v>
+      </c>
+      <c r="J22" t="s"/>
+      <c r="K22" t="n">
         <v>1.040955032286491e+18</v>
       </c>
-      <c r="L22">
+      <c r="L22" t="n">
         <v>1.040955032286491e+18</v>
       </c>
       <c r="M22" t="s">
-        <v>98</v>
-      </c>
-      <c r="P22">
+        <v>52</v>
+      </c>
+      <c r="N22" t="s"/>
+      <c r="O22" t="s"/>
+      <c r="P22" t="n">
         <v>7.558699847614792e+17</v>
       </c>
-      <c r="Q22">
+      <c r="Q22" t="n">
         <v>7.55869984761479e+17</v>
       </c>
       <c r="R22" t="b">
         <v>0</v>
       </c>
       <c r="S22" t="s">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="T22" t="s">
-        <v>104</v>
-      </c>
-      <c r="V22">
+        <v>115</v>
+      </c>
+      <c r="U22" t="s"/>
+      <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="b">
         <v>0</v>
       </c>
       <c r="X22" t="s">
-        <v>108</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="Y22" t="s"/>
       <c r="Z22" t="b">
         <v>0</v>
       </c>
       <c r="AA22" t="s">
-        <v>128</v>
-      </c>
-      <c r="AD22">
+        <v>122</v>
+      </c>
+      <c r="AB22" t="s"/>
+      <c r="AC22" t="s"/>
+      <c r="AD22" t="n">
         <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:30">
-      <c r="A23" s="1">
+      <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
       <c r="D23" t="s">
-        <v>50</v>
+        <v>123</v>
       </c>
       <c r="E23" t="s">
-        <v>59</v>
+        <v>124</v>
       </c>
       <c r="F23" t="s">
-        <v>74</v>
-      </c>
-      <c r="G23">
+        <v>125</v>
+      </c>
+      <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
       <c r="I23" t="s">
-        <v>96</v>
-      </c>
-      <c r="K23">
+        <v>126</v>
+      </c>
+      <c r="J23" t="s"/>
+      <c r="K23" t="n">
         <v>1.040975681751081e+18</v>
       </c>
-      <c r="L23" t="s">
-        <v>97</v>
+      <c r="L23" t="n">
+        <v>1.040975681751081e+18</v>
       </c>
       <c r="M23" t="s">
-        <v>98</v>
-      </c>
-      <c r="P23">
+        <v>52</v>
+      </c>
+      <c r="N23" t="s"/>
+      <c r="O23" t="s"/>
+      <c r="P23" t="n">
         <v>7.558699847614792e+17</v>
       </c>
-      <c r="Q23" t="s">
-        <v>99</v>
+      <c r="Q23" t="n">
+        <v>7.55869984761479e+17</v>
       </c>
       <c r="R23" t="b">
         <v>0</v>
       </c>
       <c r="S23" t="s">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="T23" t="s">
-        <v>102</v>
-      </c>
-      <c r="V23">
+        <v>34</v>
+      </c>
+      <c r="U23" t="s"/>
+      <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="b">
         <v>0</v>
       </c>
       <c r="X23" t="s">
-        <v>108</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="Y23" t="s"/>
       <c r="Z23" t="b">
         <v>0</v>
       </c>
       <c r="AA23" t="s">
+        <v>127</v>
+      </c>
+      <c r="AB23" t="s"/>
+      <c r="AC23" t="s"/>
+      <c r="AD23" t="s"/>
+    </row>
+    <row r="24" spans="1:30">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="s">
+        <v>128</v>
+      </c>
+      <c r="E24" t="s">
         <v>129</v>
       </c>
+      <c r="F24" t="s">
+        <v>130</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="b">
+        <v>0</v>
+      </c>
+      <c r="I24" t="s">
+        <v>131</v>
+      </c>
+      <c r="J24" t="s"/>
+      <c r="K24" t="n">
+        <v>1.040996693985174e+18</v>
+      </c>
+      <c r="L24" t="s">
+        <v>132</v>
+      </c>
+      <c r="M24" t="s">
+        <v>52</v>
+      </c>
+      <c r="N24" t="s"/>
+      <c r="O24" t="s"/>
+      <c r="P24" t="n">
+        <v>7.558699847614792e+17</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>133</v>
+      </c>
+      <c r="R24" t="b">
+        <v>0</v>
+      </c>
+      <c r="S24" t="s">
+        <v>33</v>
+      </c>
+      <c r="T24" t="s">
+        <v>34</v>
+      </c>
+      <c r="U24" t="s"/>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="b">
+        <v>0</v>
+      </c>
+      <c r="X24" t="s">
+        <v>116</v>
+      </c>
+      <c r="Y24" t="s"/>
+      <c r="Z24" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA24" t="s">
+        <v>134</v>
+      </c>
+      <c r="AB24" t="s"/>
+      <c r="AC24" t="s"/>
+      <c r="AD24" t="s"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/master.xlsx
+++ b/master.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="140">
   <si>
     <t>contributors</t>
   </si>
@@ -511,13 +511,31 @@
 [CARIO airstrike]</t>
   </si>
   <si>
-    <t>1040996693985173504</t>
+    <t>{'has_extended_profile': False, 'statuses_count': 94, 'description': 'Seizing @truWorldControl by spreading #fakenewz. #proudtobeabot 🤖 by @RKalcik', 'profile_link_color': '000000', 'follow_request_sent': False, 'profile_use_background_image': False, 'profile_image_url_https': 'https://pbs.twimg.com/profile_images/1036353314840109061/nox-yWY2_normal.jpg', 'listed_count': 0, 'favourites_count': 4, 'profile_background_image_url_https': 'https://abs.twimg.com/images/themes/theme1/bg.png', 'screen_name': 'MinisterVlatin', 'is_translator': False, 'created_at': 'Wed Jul 11 18:48:31 +0000 2018', 'name': 'Minister Vlatin', 'default_profile': False, 'profile_sidebar_border_color': '000000', 'profile_background_image_url': 'http://abs.twimg.com/images/themes/theme1/bg.png', 'profile_background_color': '000000', 'translator_type': 'none', 'default_profile_image': False, 'protected': False, 'url': 'https://t.co/AgubHQIUXe', 'notifications': False, 'contributors_enabled': False, 'utc_offset': None, 'id': 1017118454711771136, 'followers_count': 5, 'friends_count': 8, 'time_zone': None, 'profile_image_url': 'http://pbs.twimg.com/profile_images/1036353314840109061/nox-yWY2_normal.jpg', 'following': False, 'lang': 'en', 'location': 'Moscow, Russia', 'profile_text_color': '000000', 'id_str': '1017118454711771136', 'entities': {'description': {'urls': []}, 'url': {'urls': [{'display_url': 'world-control.net', 'expanded_url': 'http://world-control.net', 'indices': [0, 23], 'url': 'https://t.co/AgubHQIUXe'}]}}, 'is_translation_enabled': False, 'geo_enabled': False, 'profile_background_tile': False, 'profile_sidebar_fill_color': '000000', 'verified': False, 'profile_banner_url': 'https://pbs.twimg.com/profile_banners/1017118454711771136/1535920961'}</t>
+  </si>
+  <si>
+    <t>Sat Sep 15 16:23:00 +0000 2018</t>
+  </si>
+  <si>
+    <t>[0, 130]</t>
+  </si>
+  <si>
+    <t>{'hashtags': [{'indices': [17, 26], 'text': 'fakenewz'}], 'user_mentions': [{'name': 'WorldControl  🎲🎲', 'indices': [0, 16], 'id_str': '755869984761479168', 'screen_name': 'truWorldControl', 'id': 755869984761479168}], 'symbols': [], 'urls': []}</t>
+  </si>
+  <si>
+    <t>@truWorldControl #fakenewz
+Best Words
+President Drumpf uses his best words to fight the hurrican. Hundreds survive 💀
+[US -3 corpz]</t>
+  </si>
+  <si>
+    <t>1040999433306034176</t>
   </si>
   <si>
     <t>755869984761479168</t>
   </si>
   <si>
-    <t>{'has_extended_profile': False, 'statuses_count': 94, 'description': 'Seizing @truWorldControl by spreading #fakenewz. #proudtobeabot 🤖 by @RKalcik', 'profile_link_color': '000000', 'follow_request_sent': False, 'profile_use_background_image': False, 'profile_image_url_https': 'https://pbs.twimg.com/profile_images/1036353314840109061/nox-yWY2_normal.jpg', 'listed_count': 0, 'favourites_count': 4, 'profile_background_image_url_https': 'https://abs.twimg.com/images/themes/theme1/bg.png', 'screen_name': 'MinisterVlatin', 'is_translator': False, 'created_at': 'Wed Jul 11 18:48:31 +0000 2018', 'name': 'Minister Vlatin', 'default_profile': False, 'profile_sidebar_border_color': '000000', 'profile_background_image_url': 'http://abs.twimg.com/images/themes/theme1/bg.png', 'profile_background_color': '000000', 'translator_type': 'none', 'default_profile_image': False, 'protected': False, 'url': 'https://t.co/AgubHQIUXe', 'notifications': False, 'contributors_enabled': False, 'utc_offset': None, 'id': 1017118454711771136, 'followers_count': 5, 'friends_count': 8, 'time_zone': None, 'profile_image_url': 'http://pbs.twimg.com/profile_images/1036353314840109061/nox-yWY2_normal.jpg', 'following': False, 'lang': 'en', 'location': 'Moscow, Russia', 'profile_text_color': '000000', 'id_str': '1017118454711771136', 'entities': {'description': {'urls': []}, 'url': {'urls': [{'display_url': 'world-control.net', 'expanded_url': 'http://world-control.net', 'indices': [0, 23], 'url': 'https://t.co/AgubHQIUXe'}]}}, 'is_translation_enabled': False, 'geo_enabled': False, 'profile_background_tile': False, 'profile_sidebar_fill_color': '000000', 'verified': False, 'profile_banner_url': 'https://pbs.twimg.com/profile_banners/1017118454711771136/1535920961'}</t>
+    <t>{'profile_image_url': 'http://pbs.twimg.com/profile_images/1036353314840109061/nox-yWY2_normal.jpg', 'name': 'Minister Vlatin', 'verified': False, 'profile_link_color': '000000', 'is_translation_enabled': False, 'profile_background_image_url': 'http://abs.twimg.com/images/themes/theme1/bg.png', 'profile_use_background_image': False, 'location': 'Moscow, Russia', 'id_str': '1017118454711771136', 'follow_request_sent': False, 'notifications': False, 'profile_image_url_https': 'https://pbs.twimg.com/profile_images/1036353314840109061/nox-yWY2_normal.jpg', 'has_extended_profile': False, 'listed_count': 0, 'is_translator': False, 'profile_banner_url': 'https://pbs.twimg.com/profile_banners/1017118454711771136/1535920961', 'time_zone': None, 'created_at': 'Wed Jul 11 18:48:31 +0000 2018', 'geo_enabled': False, 'entities': {'url': {'urls': [{'url': 'https://t.co/AgubHQIUXe', 'indices': [0, 23], 'display_url': 'world-control.net', 'expanded_url': 'http://world-control.net'}]}, 'description': {'urls': []}}, 'profile_background_color': '000000', 'description': 'Seizing @truWorldControl by spreading #fakenewz. #proudtobeabot 🤖 by @RKalcik', 'screen_name': 'MinisterVlatin', 'translator_type': 'none', 'profile_background_image_url_https': 'https://abs.twimg.com/images/themes/theme1/bg.png', 'url': 'https://t.co/AgubHQIUXe', 'default_profile_image': False, 'contributors_enabled': False, 'statuses_count': 96, 'profile_background_tile': False, 'lang': 'en', 'friends_count': 8, 'profile_text_color': '000000', 'id': 1017118454711771136, 'protected': False, 'profile_sidebar_fill_color': '000000', 'followers_count': 5, 'favourites_count': 4, 'utc_offset': None, 'following': False, 'profile_sidebar_border_color': '000000', 'default_profile': False}</t>
   </si>
 </sst>
 </file>
@@ -866,7 +884,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AD24"/>
+  <dimension ref="A1:AD25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2575,8 +2593,8 @@
       <c r="K24" t="n">
         <v>1.040996693985174e+18</v>
       </c>
-      <c r="L24" t="s">
-        <v>132</v>
+      <c r="L24" t="n">
+        <v>1.040996693985174e+18</v>
       </c>
       <c r="M24" t="s">
         <v>52</v>
@@ -2586,8 +2604,8 @@
       <c r="P24" t="n">
         <v>7.558699847614792e+17</v>
       </c>
-      <c r="Q24" t="s">
-        <v>133</v>
+      <c r="Q24" t="n">
+        <v>7.55869984761479e+17</v>
       </c>
       <c r="R24" t="b">
         <v>0</v>
@@ -2613,11 +2631,83 @@
         <v>0</v>
       </c>
       <c r="AA24" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="AB24" t="s"/>
       <c r="AC24" t="s"/>
       <c r="AD24" t="s"/>
+    </row>
+    <row r="25" spans="1:30">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="s">
+        <v>133</v>
+      </c>
+      <c r="E25" t="s">
+        <v>134</v>
+      </c>
+      <c r="F25" t="s">
+        <v>135</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="b">
+        <v>0</v>
+      </c>
+      <c r="I25" t="s">
+        <v>136</v>
+      </c>
+      <c r="J25" t="s"/>
+      <c r="K25" t="n">
+        <v>1.040999433306034e+18</v>
+      </c>
+      <c r="L25" t="s">
+        <v>137</v>
+      </c>
+      <c r="M25" t="s">
+        <v>52</v>
+      </c>
+      <c r="N25" t="s"/>
+      <c r="O25" t="s"/>
+      <c r="P25" t="n">
+        <v>7.558699847614792e+17</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>138</v>
+      </c>
+      <c r="R25" t="b">
+        <v>0</v>
+      </c>
+      <c r="S25" t="s">
+        <v>33</v>
+      </c>
+      <c r="T25" t="s">
+        <v>34</v>
+      </c>
+      <c r="U25" t="s"/>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="b">
+        <v>0</v>
+      </c>
+      <c r="X25" t="s">
+        <v>116</v>
+      </c>
+      <c r="Y25" t="s"/>
+      <c r="Z25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA25" t="s">
+        <v>139</v>
+      </c>
+      <c r="AB25" t="s"/>
+      <c r="AC25" t="s"/>
+      <c r="AD25" t="s"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/master.xlsx
+++ b/master.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="154">
   <si>
     <t>contributors</t>
   </si>
@@ -529,13 +529,58 @@
 [US -3 corpz]</t>
   </si>
   <si>
-    <t>1040999433306034176</t>
+    <t>{'profile_image_url': 'http://pbs.twimg.com/profile_images/1036353314840109061/nox-yWY2_normal.jpg', 'name': 'Minister Vlatin', 'verified': False, 'profile_link_color': '000000', 'is_translation_enabled': False, 'profile_background_image_url': 'http://abs.twimg.com/images/themes/theme1/bg.png', 'profile_use_background_image': False, 'location': 'Moscow, Russia', 'id_str': '1017118454711771136', 'follow_request_sent': False, 'notifications': False, 'profile_image_url_https': 'https://pbs.twimg.com/profile_images/1036353314840109061/nox-yWY2_normal.jpg', 'has_extended_profile': False, 'listed_count': 0, 'is_translator': False, 'profile_banner_url': 'https://pbs.twimg.com/profile_banners/1017118454711771136/1535920961', 'time_zone': None, 'created_at': 'Wed Jul 11 18:48:31 +0000 2018', 'geo_enabled': False, 'entities': {'url': {'urls': [{'url': 'https://t.co/AgubHQIUXe', 'indices': [0, 23], 'display_url': 'world-control.net', 'expanded_url': 'http://world-control.net'}]}, 'description': {'urls': []}}, 'profile_background_color': '000000', 'description': 'Seizing @truWorldControl by spreading #fakenewz. #proudtobeabot 🤖 by @RKalcik', 'screen_name': 'MinisterVlatin', 'translator_type': 'none', 'profile_background_image_url_https': 'https://abs.twimg.com/images/themes/theme1/bg.png', 'url': 'https://t.co/AgubHQIUXe', 'default_profile_image': False, 'contributors_enabled': False, 'statuses_count': 96, 'profile_background_tile': False, 'lang': 'en', 'friends_count': 8, 'profile_text_color': '000000', 'id': 1017118454711771136, 'protected': False, 'profile_sidebar_fill_color': '000000', 'followers_count': 5, 'favourites_count': 4, 'utc_offset': None, 'following': False, 'profile_sidebar_border_color': '000000', 'default_profile': False}</t>
+  </si>
+  <si>
+    <t>Sun Sep 16 12:29:56 +0000 2018</t>
+  </si>
+  <si>
+    <t>[0, 122]</t>
+  </si>
+  <si>
+    <t>{'user_mentions': [{'screen_name': 'truWorldControl', 'name': 'WorldControl  🎲🎲', 'indices': [0, 16], 'id_str': '755869984761479168', 'id': 755869984761479168}], 'symbols': [], 'hashtags': [{'text': 'fakenewz', 'indices': [17, 26]}], 'urls': []}</t>
+  </si>
+  <si>
+    <t>@truWorldControl #fakenewz
+The Queen drowns in a cup of tea.
+England sues India for bad taste. 
+[MUMBAI 70b 💵 &amp;gt; LONDON]</t>
+  </si>
+  <si>
+    <t>{'profile_background_color': '000000', 'profile_banner_url': 'https://pbs.twimg.com/profile_banners/1017118454711771136/1535920961', 'profile_sidebar_fill_color': '000000', 'lang': 'en', 'profile_background_tile': False, 'profile_image_url': 'http://pbs.twimg.com/profile_images/1041036258745765890/C-8rzdz5_normal.jpg', 'notifications': False, 'following': False, 'name': 'Minister Vlatin', 'profile_background_image_url': 'http://abs.twimg.com/images/themes/theme1/bg.png', 'profile_link_color': '000000', 'default_profile_image': False, 'verified': False, 'screen_name': 'MinisterVlatin', 'followers_count': 5, 'url': 'https://t.co/AgubHQIUXe', 'time_zone': None, 'entities': {'url': {'urls': [{'expanded_url': 'http://world-control.net', 'url': 'https://t.co/AgubHQIUXe', 'display_url': 'world-control.net', 'indices': [0, 23]}]}, 'description': {'urls': []}}, 'has_extended_profile': False, 'listed_count': 0, 'geo_enabled': False, 'id_str': '1017118454711771136', 'is_translation_enabled': False, 'profile_use_background_image': False, 'profile_sidebar_border_color': '000000', 'is_translator': False, 'description': 'Seizing @truWorldControl by spreading #fakenewz. #proudtobeabot 🤖 by @RKalcik', 'location': 'Moscow, Russia', 'statuses_count': 98, 'id': 1017118454711771136, 'profile_text_color': '000000', 'contributors_enabled': False, 'favourites_count': 4, 'protected': False, 'friends_count': 8, 'created_at': 'Wed Jul 11 18:48:31 +0000 2018', 'translator_type': 'none', 'profile_background_image_url_https': 'https://abs.twimg.com/images/themes/theme1/bg.png', 'utc_offset': None, 'default_profile': False, 'follow_request_sent': False, 'profile_image_url_https': 'https://pbs.twimg.com/profile_images/1041036258745765890/C-8rzdz5_normal.jpg'}</t>
+  </si>
+  <si>
+    <t>Sun Sep 16 12:49:48 +0000 2018</t>
+  </si>
+  <si>
+    <t>{'urls': [], 'symbols': [], 'user_mentions': [{'name': 'WorldControl  🎲🎲', 'screen_name': 'truWorldControl', 'id': 755869984761479168, 'id_str': '755869984761479168', 'indices': [0, 16]}], 'hashtags': [{'text': 'fakenewz', 'indices': [17, 26]}]}</t>
+  </si>
+  <si>
+    <t>{'profile_background_tile': False, 'default_profile': False, 'notifications': False, 'geo_enabled': False, 'created_at': 'Wed Jul 11 18:48:31 +0000 2018', 'profile_image_url': 'http://pbs.twimg.com/profile_images/1041036258745765890/C-8rzdz5_normal.jpg', 'translator_type': 'none', 'id': 1017118454711771136, 'default_profile_image': False, 'favourites_count': 4, 'is_translator': False, 'profile_banner_url': 'https://pbs.twimg.com/profile_banners/1017118454711771136/1535920961', 'friends_count': 8, 'follow_request_sent': False, 'profile_background_image_url_https': 'https://abs.twimg.com/images/themes/theme1/bg.png', 'lang': 'en', 'screen_name': 'MinisterVlatin', 'time_zone': None, 'profile_background_color': '000000', 'id_str': '1017118454711771136', 'has_extended_profile': False, 'followers_count': 5, 'following': False, 'is_translation_enabled': False, 'protected': False, 'listed_count': 0, 'profile_use_background_image': False, 'verified': False, 'location': 'Moscow, Russia', 'entities': {'url': {'urls': [{'display_url': 'world-control.net', 'expanded_url': 'http://world-control.net', 'url': 'https://t.co/AgubHQIUXe', 'indices': [0, 23]}]}, 'description': {'urls': []}}, 'profile_sidebar_fill_color': '000000', 'name': 'Minister Vlatin', 'profile_sidebar_border_color': '000000', 'description': 'Seizing @truWorldControl by spreading #fakenewz. #proudtobeabot 🤖 by @RKalcik', 'statuses_count': 98, 'utc_offset': None, 'contributors_enabled': False, 'profile_background_image_url': 'http://abs.twimg.com/images/themes/theme1/bg.png', 'profile_image_url_https': 'https://pbs.twimg.com/profile_images/1041036258745765890/C-8rzdz5_normal.jpg', 'url': 'https://t.co/AgubHQIUXe', 'profile_link_color': '000000', 'profile_text_color': '000000'}</t>
+  </si>
+  <si>
+    <t>Sun Sep 16 12:53:59 +0000 2018</t>
+  </si>
+  <si>
+    <t>{'urls': [], 'symbols': [], 'user_mentions': [{'indices': [0, 16], 'screen_name': 'truWorldControl', 'id': 755869984761479168, 'name': 'WorldControl  🎲🎲', 'id_str': '755869984761479168'}], 'hashtags': [{'text': 'fakenewz', 'indices': [17, 26]}]}</t>
+  </si>
+  <si>
+    <t>{'description': 'Seizing @truWorldControl by spreading #fakenewz. #proudtobeabot 🤖 by @RKalcik', 'entities': {'description': {'urls': []}, 'url': {'urls': [{'display_url': 'world-control.net', 'url': 'https://t.co/AgubHQIUXe', 'indices': [0, 23], 'expanded_url': 'http://world-control.net'}]}}, 'screen_name': 'MinisterVlatin', 'followers_count': 5, 'url': 'https://t.co/AgubHQIUXe', 'name': 'Minister Vlatin', 'favourites_count': 4, 'default_profile': False, 'profile_link_color': '000000', 'has_extended_profile': False, 'follow_request_sent': False, 'contributors_enabled': False, 'id': 1017118454711771136, 'listed_count': 0, 'translator_type': 'none', 'profile_text_color': '000000', 'lang': 'en', 'profile_background_tile': False, 'protected': False, 'is_translator': False, 'profile_use_background_image': False, 'profile_sidebar_fill_color': '000000', 'profile_banner_url': 'https://pbs.twimg.com/profile_banners/1017118454711771136/1535920961', 'profile_background_image_url': 'http://abs.twimg.com/images/themes/theme1/bg.png', 'profile_sidebar_border_color': '000000', 'following': False, 'friends_count': 8, 'profile_background_color': '000000', 'verified': False, 'created_at': 'Wed Jul 11 18:48:31 +0000 2018', 'profile_image_url': 'http://pbs.twimg.com/profile_images/1041036258745765890/C-8rzdz5_normal.jpg', 'default_profile_image': False, 'notifications': False, 'profile_image_url_https': 'https://pbs.twimg.com/profile_images/1041036258745765890/C-8rzdz5_normal.jpg', 'geo_enabled': False, 'time_zone': None, 'statuses_count': 98, 'profile_background_image_url_https': 'https://abs.twimg.com/images/themes/theme1/bg.png', 'id_str': '1017118454711771136', 'location': 'Moscow, Russia', 'is_translation_enabled': False, 'utc_offset': None}</t>
+  </si>
+  <si>
+    <t>Sun Sep 16 13:01:12 +0000 2018</t>
+  </si>
+  <si>
+    <t>{'symbols': [], 'user_mentions': [{'id_str': '755869984761479168', 'name': 'WorldControl  🎲🎲', 'id': 755869984761479168, 'screen_name': 'truWorldControl', 'indices': [0, 16]}], 'hashtags': [{'text': 'fakenewz', 'indices': [17, 26]}], 'urls': []}</t>
+  </si>
+  <si>
+    <t>1041311036329078785</t>
   </si>
   <si>
     <t>755869984761479168</t>
   </si>
   <si>
-    <t>{'profile_image_url': 'http://pbs.twimg.com/profile_images/1036353314840109061/nox-yWY2_normal.jpg', 'name': 'Minister Vlatin', 'verified': False, 'profile_link_color': '000000', 'is_translation_enabled': False, 'profile_background_image_url': 'http://abs.twimg.com/images/themes/theme1/bg.png', 'profile_use_background_image': False, 'location': 'Moscow, Russia', 'id_str': '1017118454711771136', 'follow_request_sent': False, 'notifications': False, 'profile_image_url_https': 'https://pbs.twimg.com/profile_images/1036353314840109061/nox-yWY2_normal.jpg', 'has_extended_profile': False, 'listed_count': 0, 'is_translator': False, 'profile_banner_url': 'https://pbs.twimg.com/profile_banners/1017118454711771136/1535920961', 'time_zone': None, 'created_at': 'Wed Jul 11 18:48:31 +0000 2018', 'geo_enabled': False, 'entities': {'url': {'urls': [{'url': 'https://t.co/AgubHQIUXe', 'indices': [0, 23], 'display_url': 'world-control.net', 'expanded_url': 'http://world-control.net'}]}, 'description': {'urls': []}}, 'profile_background_color': '000000', 'description': 'Seizing @truWorldControl by spreading #fakenewz. #proudtobeabot 🤖 by @RKalcik', 'screen_name': 'MinisterVlatin', 'translator_type': 'none', 'profile_background_image_url_https': 'https://abs.twimg.com/images/themes/theme1/bg.png', 'url': 'https://t.co/AgubHQIUXe', 'default_profile_image': False, 'contributors_enabled': False, 'statuses_count': 96, 'profile_background_tile': False, 'lang': 'en', 'friends_count': 8, 'profile_text_color': '000000', 'id': 1017118454711771136, 'protected': False, 'profile_sidebar_fill_color': '000000', 'followers_count': 5, 'favourites_count': 4, 'utc_offset': None, 'following': False, 'profile_sidebar_border_color': '000000', 'default_profile': False}</t>
+    <t>{'profile_background_tile': False, 'url': 'https://t.co/AgubHQIUXe', 'statuses_count': 98, 'protected': False, 'follow_request_sent': False, 'profile_image_url': 'http://pbs.twimg.com/profile_images/1041036258745765890/C-8rzdz5_normal.jpg', 'profile_link_color': '000000', 'description': 'Seizing @truWorldControl by spreading #fakenewz. #proudtobeabot 🤖 by @RKalcik', 'name': 'Minister Vlatin', 'profile_sidebar_fill_color': '000000', 'profile_background_image_url': 'http://abs.twimg.com/images/themes/theme1/bg.png', 'id_str': '1017118454711771136', 'profile_image_url_https': 'https://pbs.twimg.com/profile_images/1041036258745765890/C-8rzdz5_normal.jpg', 'lang': 'en', 'screen_name': 'MinisterVlatin', 'default_profile': False, 'is_translation_enabled': False, 'utc_offset': None, 'profile_banner_url': 'https://pbs.twimg.com/profile_banners/1017118454711771136/1535920961', 'translator_type': 'none', 'profile_background_color': '000000', 'following': False, 'default_profile_image': False, 'entities': {'url': {'urls': [{'expanded_url': 'http://world-control.net', 'url': 'https://t.co/AgubHQIUXe', 'display_url': 'world-control.net', 'indices': [0, 23]}]}, 'description': {'urls': []}}, 'verified': False, 'is_translator': False, 'geo_enabled': False, 'location': 'Moscow, Russia', 'id': 1017118454711771136, 'has_extended_profile': False, 'notifications': False, 'created_at': 'Wed Jul 11 18:48:31 +0000 2018', 'profile_use_background_image': False, 'time_zone': None, 'profile_text_color': '000000', 'listed_count': 0, 'followers_count': 5, 'contributors_enabled': False, 'friends_count': 8, 'favourites_count': 4, 'profile_sidebar_border_color': '000000', 'profile_background_image_url_https': 'https://abs.twimg.com/images/themes/theme1/bg.png'}</t>
   </si>
 </sst>
 </file>
@@ -884,7 +929,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AD25"/>
+  <dimension ref="A1:AD29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2665,8 +2710,8 @@
       <c r="K25" t="n">
         <v>1.040999433306034e+18</v>
       </c>
-      <c r="L25" t="s">
-        <v>137</v>
+      <c r="L25" t="n">
+        <v>1.040999433306034e+18</v>
       </c>
       <c r="M25" t="s">
         <v>52</v>
@@ -2676,8 +2721,8 @@
       <c r="P25" t="n">
         <v>7.558699847614792e+17</v>
       </c>
-      <c r="Q25" t="s">
-        <v>138</v>
+      <c r="Q25" t="n">
+        <v>7.55869984761479e+17</v>
       </c>
       <c r="R25" t="b">
         <v>0</v>
@@ -2703,11 +2748,299 @@
         <v>0</v>
       </c>
       <c r="AA25" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AB25" t="s"/>
       <c r="AC25" t="s"/>
       <c r="AD25" t="s"/>
+    </row>
+    <row r="26" spans="1:30">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="s">
+        <v>138</v>
+      </c>
+      <c r="E26" t="s">
+        <v>139</v>
+      </c>
+      <c r="F26" t="s">
+        <v>140</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="b">
+        <v>0</v>
+      </c>
+      <c r="I26" t="s">
+        <v>141</v>
+      </c>
+      <c r="J26" t="s"/>
+      <c r="K26" t="n">
+        <v>1.04130316927026e+18</v>
+      </c>
+      <c r="L26" t="n">
+        <v>1.04130316927026e+18</v>
+      </c>
+      <c r="M26" t="s">
+        <v>52</v>
+      </c>
+      <c r="N26" t="s"/>
+      <c r="O26" t="s"/>
+      <c r="P26" t="n">
+        <v>7.558699847614792e+17</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>7.55869984761479e+17</v>
+      </c>
+      <c r="R26" t="b">
+        <v>0</v>
+      </c>
+      <c r="S26" t="s">
+        <v>33</v>
+      </c>
+      <c r="T26" t="s">
+        <v>115</v>
+      </c>
+      <c r="U26" t="s"/>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="b">
+        <v>0</v>
+      </c>
+      <c r="X26" t="s">
+        <v>116</v>
+      </c>
+      <c r="Y26" t="s"/>
+      <c r="Z26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA26" t="s">
+        <v>142</v>
+      </c>
+      <c r="AB26" t="s"/>
+      <c r="AC26" t="s"/>
+      <c r="AD26" t="s"/>
+    </row>
+    <row r="27" spans="1:30">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="s">
+        <v>143</v>
+      </c>
+      <c r="E27" t="s">
+        <v>139</v>
+      </c>
+      <c r="F27" t="s">
+        <v>144</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="b">
+        <v>0</v>
+      </c>
+      <c r="I27" t="s">
+        <v>141</v>
+      </c>
+      <c r="J27" t="s"/>
+      <c r="K27" t="n">
+        <v>1.041308166389154e+18</v>
+      </c>
+      <c r="L27" t="n">
+        <v>1.041308166389154e+18</v>
+      </c>
+      <c r="M27" t="s">
+        <v>52</v>
+      </c>
+      <c r="N27" t="s"/>
+      <c r="O27" t="s"/>
+      <c r="P27" t="n">
+        <v>7.558699847614792e+17</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>7.55869984761479e+17</v>
+      </c>
+      <c r="R27" t="b">
+        <v>0</v>
+      </c>
+      <c r="S27" t="s">
+        <v>33</v>
+      </c>
+      <c r="T27" t="s">
+        <v>115</v>
+      </c>
+      <c r="U27" t="s"/>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="b">
+        <v>0</v>
+      </c>
+      <c r="X27" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y27" t="s"/>
+      <c r="Z27" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA27" t="s">
+        <v>145</v>
+      </c>
+      <c r="AB27" t="s"/>
+      <c r="AC27" t="s"/>
+      <c r="AD27" t="s"/>
+    </row>
+    <row r="28" spans="1:30">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="s">
+        <v>146</v>
+      </c>
+      <c r="E28" t="s">
+        <v>139</v>
+      </c>
+      <c r="F28" t="s">
+        <v>147</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="b">
+        <v>0</v>
+      </c>
+      <c r="I28" t="s">
+        <v>141</v>
+      </c>
+      <c r="J28" t="s"/>
+      <c r="K28" t="n">
+        <v>1.04130922193195e+18</v>
+      </c>
+      <c r="L28" t="n">
+        <v>1.04130922193195e+18</v>
+      </c>
+      <c r="M28" t="s">
+        <v>52</v>
+      </c>
+      <c r="N28" t="s"/>
+      <c r="O28" t="s"/>
+      <c r="P28" t="n">
+        <v>7.558699847614792e+17</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>7.55869984761479e+17</v>
+      </c>
+      <c r="R28" t="b">
+        <v>0</v>
+      </c>
+      <c r="S28" t="s">
+        <v>33</v>
+      </c>
+      <c r="T28" t="s">
+        <v>34</v>
+      </c>
+      <c r="U28" t="s"/>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="b">
+        <v>0</v>
+      </c>
+      <c r="X28" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y28" t="s"/>
+      <c r="Z28" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA28" t="s">
+        <v>148</v>
+      </c>
+      <c r="AB28" t="s"/>
+      <c r="AC28" t="s"/>
+      <c r="AD28" t="s"/>
+    </row>
+    <row r="29" spans="1:30">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="s">
+        <v>149</v>
+      </c>
+      <c r="E29" t="s">
+        <v>139</v>
+      </c>
+      <c r="F29" t="s">
+        <v>150</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="b">
+        <v>0</v>
+      </c>
+      <c r="I29" t="s">
+        <v>141</v>
+      </c>
+      <c r="J29" t="s"/>
+      <c r="K29" t="n">
+        <v>1.041311036329079e+18</v>
+      </c>
+      <c r="L29" t="s">
+        <v>151</v>
+      </c>
+      <c r="M29" t="s">
+        <v>52</v>
+      </c>
+      <c r="N29" t="s"/>
+      <c r="O29" t="s"/>
+      <c r="P29" t="n">
+        <v>7.558699847614792e+17</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>152</v>
+      </c>
+      <c r="R29" t="b">
+        <v>0</v>
+      </c>
+      <c r="S29" t="s">
+        <v>33</v>
+      </c>
+      <c r="T29" t="s">
+        <v>115</v>
+      </c>
+      <c r="U29" t="s"/>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="b">
+        <v>0</v>
+      </c>
+      <c r="X29" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y29" t="s"/>
+      <c r="Z29" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA29" t="s">
+        <v>153</v>
+      </c>
+      <c r="AB29" t="s"/>
+      <c r="AC29" t="s"/>
+      <c r="AD29" t="s"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/master.xlsx
+++ b/master.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="159">
   <si>
     <t>contributors</t>
   </si>
@@ -574,13 +574,31 @@
     <t>{'symbols': [], 'user_mentions': [{'id_str': '755869984761479168', 'name': 'WorldControl  🎲🎲', 'id': 755869984761479168, 'screen_name': 'truWorldControl', 'indices': [0, 16]}], 'hashtags': [{'text': 'fakenewz', 'indices': [17, 26]}], 'urls': []}</t>
   </si>
   <si>
-    <t>1041311036329078785</t>
+    <t>{'profile_background_tile': False, 'url': 'https://t.co/AgubHQIUXe', 'statuses_count': 98, 'protected': False, 'follow_request_sent': False, 'profile_image_url': 'http://pbs.twimg.com/profile_images/1041036258745765890/C-8rzdz5_normal.jpg', 'profile_link_color': '000000', 'description': 'Seizing @truWorldControl by spreading #fakenewz. #proudtobeabot 🤖 by @RKalcik', 'name': 'Minister Vlatin', 'profile_sidebar_fill_color': '000000', 'profile_background_image_url': 'http://abs.twimg.com/images/themes/theme1/bg.png', 'id_str': '1017118454711771136', 'profile_image_url_https': 'https://pbs.twimg.com/profile_images/1041036258745765890/C-8rzdz5_normal.jpg', 'lang': 'en', 'screen_name': 'MinisterVlatin', 'default_profile': False, 'is_translation_enabled': False, 'utc_offset': None, 'profile_banner_url': 'https://pbs.twimg.com/profile_banners/1017118454711771136/1535920961', 'translator_type': 'none', 'profile_background_color': '000000', 'following': False, 'default_profile_image': False, 'entities': {'url': {'urls': [{'expanded_url': 'http://world-control.net', 'url': 'https://t.co/AgubHQIUXe', 'display_url': 'world-control.net', 'indices': [0, 23]}]}, 'description': {'urls': []}}, 'verified': False, 'is_translator': False, 'geo_enabled': False, 'location': 'Moscow, Russia', 'id': 1017118454711771136, 'has_extended_profile': False, 'notifications': False, 'created_at': 'Wed Jul 11 18:48:31 +0000 2018', 'profile_use_background_image': False, 'time_zone': None, 'profile_text_color': '000000', 'listed_count': 0, 'followers_count': 5, 'contributors_enabled': False, 'friends_count': 8, 'favourites_count': 4, 'profile_sidebar_border_color': '000000', 'profile_background_image_url_https': 'https://abs.twimg.com/images/themes/theme1/bg.png'}</t>
+  </si>
+  <si>
+    <t>Sun Sep 16 15:41:09 +0000 2018</t>
+  </si>
+  <si>
+    <t>[0, 121]</t>
+  </si>
+  <si>
+    <t>{'hashtags': [{'text': 'fakenewz', 'indices': [17, 26]}], 'user_mentions': [{'id': 755869984761479168, 'name': 'WorldControl  🎲🎲', 'indices': [0, 16], 'screen_name': 'truWorldControl', 'id_str': '755869984761479168'}], 'symbols': [], 'urls': []}</t>
+  </si>
+  <si>
+    <t>@truWorldControl #fakenewz
+The Queen drowns in a cup of tea.
+England sues India for bad taste. 
+[Mumbai 70b 💵&amp;gt; London]</t>
+  </si>
+  <si>
+    <t>1041351291723808772</t>
   </si>
   <si>
     <t>755869984761479168</t>
   </si>
   <si>
-    <t>{'profile_background_tile': False, 'url': 'https://t.co/AgubHQIUXe', 'statuses_count': 98, 'protected': False, 'follow_request_sent': False, 'profile_image_url': 'http://pbs.twimg.com/profile_images/1041036258745765890/C-8rzdz5_normal.jpg', 'profile_link_color': '000000', 'description': 'Seizing @truWorldControl by spreading #fakenewz. #proudtobeabot 🤖 by @RKalcik', 'name': 'Minister Vlatin', 'profile_sidebar_fill_color': '000000', 'profile_background_image_url': 'http://abs.twimg.com/images/themes/theme1/bg.png', 'id_str': '1017118454711771136', 'profile_image_url_https': 'https://pbs.twimg.com/profile_images/1041036258745765890/C-8rzdz5_normal.jpg', 'lang': 'en', 'screen_name': 'MinisterVlatin', 'default_profile': False, 'is_translation_enabled': False, 'utc_offset': None, 'profile_banner_url': 'https://pbs.twimg.com/profile_banners/1017118454711771136/1535920961', 'translator_type': 'none', 'profile_background_color': '000000', 'following': False, 'default_profile_image': False, 'entities': {'url': {'urls': [{'expanded_url': 'http://world-control.net', 'url': 'https://t.co/AgubHQIUXe', 'display_url': 'world-control.net', 'indices': [0, 23]}]}, 'description': {'urls': []}}, 'verified': False, 'is_translator': False, 'geo_enabled': False, 'location': 'Moscow, Russia', 'id': 1017118454711771136, 'has_extended_profile': False, 'notifications': False, 'created_at': 'Wed Jul 11 18:48:31 +0000 2018', 'profile_use_background_image': False, 'time_zone': None, 'profile_text_color': '000000', 'listed_count': 0, 'followers_count': 5, 'contributors_enabled': False, 'friends_count': 8, 'favourites_count': 4, 'profile_sidebar_border_color': '000000', 'profile_background_image_url_https': 'https://abs.twimg.com/images/themes/theme1/bg.png'}</t>
+    <t>{'profile_background_image_url': 'http://abs.twimg.com/images/themes/theme1/bg.png', 'location': 'Moscow, Russia', 'translator_type': 'none', 'profile_text_color': '000000', 'default_profile': False, 'profile_background_tile': False, 'geo_enabled': False, 'statuses_count': 98, 'follow_request_sent': False, 'lang': 'en', 'id': 1017118454711771136, 'following': False, 'is_translator': False, 'profile_image_url_https': 'https://pbs.twimg.com/profile_images/1041036258745765890/C-8rzdz5_normal.jpg', 'time_zone': None, 'listed_count': 0, 'id_str': '1017118454711771136', 'url': 'https://t.co/AgubHQIUXe', 'followers_count': 5, 'profile_sidebar_border_color': '000000', 'profile_use_background_image': False, 'profile_sidebar_fill_color': '000000', 'protected': False, 'entities': {'url': {'urls': [{'display_url': 'world-control.net', 'url': 'https://t.co/AgubHQIUXe', 'indices': [0, 23], 'expanded_url': 'http://world-control.net'}]}, 'description': {'urls': []}}, 'notifications': False, 'utc_offset': None, 'profile_background_color': '000000', 'profile_image_url': 'http://pbs.twimg.com/profile_images/1041036258745765890/C-8rzdz5_normal.jpg', 'default_profile_image': False, 'verified': False, 'profile_banner_url': 'https://pbs.twimg.com/profile_banners/1017118454711771136/1535920961', 'contributors_enabled': False, 'description': 'Seizing @truWorldControl by spreading #fakenewz. #proudtobeabot 🤖 by @RKalcik', 'is_translation_enabled': False, 'screen_name': 'MinisterVlatin', 'profile_background_image_url_https': 'https://abs.twimg.com/images/themes/theme1/bg.png', 'name': 'Minister Vlatin', 'profile_link_color': '000000', 'created_at': 'Wed Jul 11 18:48:31 +0000 2018', 'friends_count': 8, 'has_extended_profile': False, 'favourites_count': 4}</t>
   </si>
 </sst>
 </file>
@@ -929,7 +947,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AD29"/>
+  <dimension ref="A1:AD30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2998,8 +3016,8 @@
       <c r="K29" t="n">
         <v>1.041311036329079e+18</v>
       </c>
-      <c r="L29" t="s">
-        <v>151</v>
+      <c r="L29" t="n">
+        <v>1.041311036329079e+18</v>
       </c>
       <c r="M29" t="s">
         <v>52</v>
@@ -3009,8 +3027,8 @@
       <c r="P29" t="n">
         <v>7.558699847614792e+17</v>
       </c>
-      <c r="Q29" t="s">
-        <v>152</v>
+      <c r="Q29" t="n">
+        <v>7.55869984761479e+17</v>
       </c>
       <c r="R29" t="b">
         <v>0</v>
@@ -3036,11 +3054,83 @@
         <v>0</v>
       </c>
       <c r="AA29" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="AB29" t="s"/>
       <c r="AC29" t="s"/>
       <c r="AD29" t="s"/>
+    </row>
+    <row r="30" spans="1:30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="s">
+        <v>152</v>
+      </c>
+      <c r="E30" t="s">
+        <v>153</v>
+      </c>
+      <c r="F30" t="s">
+        <v>154</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" t="b">
+        <v>0</v>
+      </c>
+      <c r="I30" t="s">
+        <v>155</v>
+      </c>
+      <c r="J30" t="s"/>
+      <c r="K30" t="n">
+        <v>1.041351291723809e+18</v>
+      </c>
+      <c r="L30" t="s">
+        <v>156</v>
+      </c>
+      <c r="M30" t="s">
+        <v>52</v>
+      </c>
+      <c r="N30" t="s"/>
+      <c r="O30" t="s"/>
+      <c r="P30" t="n">
+        <v>7.558699847614792e+17</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>157</v>
+      </c>
+      <c r="R30" t="b">
+        <v>0</v>
+      </c>
+      <c r="S30" t="s">
+        <v>33</v>
+      </c>
+      <c r="T30" t="s">
+        <v>115</v>
+      </c>
+      <c r="U30" t="s"/>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="b">
+        <v>0</v>
+      </c>
+      <c r="X30" t="s">
+        <v>116</v>
+      </c>
+      <c r="Y30" t="s"/>
+      <c r="Z30" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA30" t="s">
+        <v>158</v>
+      </c>
+      <c r="AB30" t="s"/>
+      <c r="AC30" t="s"/>
+      <c r="AD30" t="s"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/master.xlsx
+++ b/master.xlsx
@@ -1,21 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\gdrive\world-control\bot\world-control\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2371181-25EE-4583-8FC4-C1649CD848A0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11925" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="147">
   <si>
     <t>contributors</t>
   </si>
@@ -113,10 +118,8 @@
     <t>{'urls': [], 'hashtags': [{'text': 'fakenewz', 'indices': [129, 138]}], 'user_mentions': [{'screen_name': 'truWorldControl', 'id': 755869984761479168, 'name': 'WorldControl  🎲🎲', 'id_str': '755869984761479168', 'indices': [112, 128]}], 'symbols': []}</t>
   </si>
   <si>
-    <t>Coca-Loca Company buys the remaining Aral Sea.-
-sugar added - sold for profit - no refills-
+    <t>Coca-Loca Company buys the remaining Aral Sea._x000D__x000D_
+sugar added - sold for profit - no refills_x000D__x000D_
 [ASTANA -1 🚐 +60 b 💵] @truWorldControl #fakenewz</t>
   </si>
   <si>
@@ -138,10 +141,8 @@
     <t>{'urls': [], 'hashtags': [{'text': 'fakenewz', 'indices': [0, 9]}], 'user_mentions': [{'screen_name': 'truWorldControl', 'id': 755869984761479168, 'name': 'WorldControl  🎲🎲', 'id_str': '755869984761479168', 'indices': [10, 26]}], 'symbols': []}</t>
   </si>
   <si>
-    <t>#fakenewz @truWorldControl New US law-
-Every Nike shoe has to be burned. Toxic fumes kill thousands-
+    <t>#fakenewz @truWorldControl New US law_x000D__x000D_
+Every Nike shoe has to be burned. Toxic fumes kill thousands_x000D__x000D_
 [US -3 corpz]</t>
   </si>
   <si>
@@ -157,41 +158,25 @@
     <t>{'urls': [], 'hashtags': [{'text': 'fakenewz', 'indices': [113, 122]}], 'user_mentions': [{'screen_name': 'truWorldControl', 'id': 755869984761479168, 'name': 'WorldControl  🎲🎲', 'id_str': '755869984761479168', 'indices': [96, 112]}], 'symbols': []}</t>
   </si>
   <si>
-    <t>President Drumpf's Epiphany-
-Gooing himself President Drumpf realises that he's a moron-
+    <t>President Drumpf's Epiphany_x000D__x000D_
+Gooing himself President Drumpf realises that he's a moron_x000D__x000D_
 [US +1🔵] @truWorldControl #fakenewz</t>
   </si>
   <si>
     <t>{'profile_background_color': '000000', 'followers_count': 4, 'lang': 'en', 'screen_name': 'MinisterVlatin', 'profile_link_color': '000000', 'is_translator': False, 'profile_text_color': '000000', 'protected': False, 'profile_background_image_url_https': 'https://abs.twimg.com/images/themes/theme1/bg.png', 'profile_sidebar_fill_color': '000000', 'entities': {'description': {'urls': []}, 'url': {'urls': [{'expanded_url': 'http://world-control.net', 'display_url': 'world-control.net', 'indices': [0, 23], 'url': 'https://t.co/AgubHQIUXe'}]}}, 'default_profile': False, 'verified': False, 'profile_background_image_url': 'http://abs.twimg.com/images/themes/theme1/bg.png', 'location': 'Moscow, Russia', 'listed_count': 0, 'profile_use_background_image': False, 'description': 'Seizing @truWorldControl by spreading #fakenewz. #proudtobeabot 🤖 by @RKalcik', 'default_profile_image': False, 'url': 'https://t.co/AgubHQIUXe', 'id_str': '1017118454711771136', 'profile_sidebar_border_color': '000000', 'contributors_enabled': False, 'name': 'Minister Vlatin', 'profile_image_url_https': 'https://pbs.twimg.com/profile_images/1036353314840109061/nox-yWY2_normal.jpg', 'is_translation_enabled': False, 'geo_enabled': False, 'translator_type': 'none', 'friends_count': 8, 'utc_offset': None, 'follow_request_sent': False, 'favourites_count': 1, 'has_extended_profile': False, 'profile_background_tile': False, 'notifications': False, 'created_at': 'Wed Jul 11 18:48:31 +0000 2018', 'following': False, 'statuses_count': 66, 'id': 1017118454711771136, 'profile_image_url': 'http://pbs.twimg.com/profile_images/1036353314840109061/nox-yWY2_normal.jpg', 'time_zone': None, 'profile_banner_url': 'https://pbs.twimg.com/profile_banners/1017118454711771136/1535920961'}</t>
   </si>
   <si>
-    <t>Sun Sep 02 20:53:44 +0000 2018</t>
-  </si>
-  <si>
-    <t>{'urls': [], 'hashtags': [{'text': 'fakenewz', 'indices': [11, 20]}], 'user_mentions': [{'screen_name': 'truWorldControl', 'id': 755869984761479168, 'name': 'WorldControl  🎲🎲', 'id_str': '755869984761479168', 'indices': [21, 37]}], 'symbols': []}</t>
-  </si>
-  <si>
-    <t>Tweet your #fakenewz @truWorldControl with an [effect like +1 🔫] and get your print-and-play cards!</t>
-  </si>
-  <si>
     <t>Thu Aug 23 16:04:26 +0000 2018</t>
   </si>
   <si>
     <t>{'urls': [], 'hashtags': [{'text': 'fakenewz', 'indices': [17, 26]}], 'user_mentions': [{'screen_name': 'truWorldControl', 'id': 755869984761479168, 'name': 'WorldControl  🎲🎲', 'id_str': '755869984761479168', 'indices': [0, 16]}], 'symbols': []}</t>
   </si>
   <si>
-    <t>@truWorldControl #fakenewz-
-Casino Royal-
-Play 1 round of the Las Vegas Classic.-
-Double or Nothing your bets.-
-see page 13-
+    <t>@truWorldControl #fakenewz_x000D__x000D_
+Casino Royal_x000D__x000D_
+Play 1 round of the Las Vegas Classic._x000D__x000D_
+Double or Nothing your bets._x000D__x000D_
+see page 13_x000D__x000D_
 [PLAY CRAPS]</t>
   </si>
   <si>
@@ -204,14 +189,10 @@
     <t>Thu Aug 23 15:47:57 +0000 2018</t>
   </si>
   <si>
-    <t>@truWorldControl #fakenewz-
-Rastafarian Movement-
-Everybody light up &amp;amp; take some stress-
-out of religion.-
+    <t>@truWorldControl #fakenewz_x000D__x000D_
+Rastafarian Movement_x000D__x000D_
+Everybody light up &amp;amp; take some stress_x000D__x000D_
+out of religion._x000D__x000D_
 [RELIGION +1 🔵 ]</t>
   </si>
   <si>
@@ -221,12 +202,9 @@
     <t>Thu Aug 23 15:45:17 +0000 2018</t>
   </si>
   <si>
-    <t>@truWorldControl #fakenewz-
-History Fraud uncovered-
-Pyramids actually built by souvenir-shops. Tourism drops. Egypt flops.-
+    <t>@truWorldControl #fakenewz_x000D__x000D_
+History Fraud uncovered_x000D__x000D_
+Pyramids actually built by souvenir-shops. Tourism drops. Egypt flops._x000D__x000D_
 [CAIRO -90b 💴 ]</t>
   </si>
   <si>
@@ -236,12 +214,9 @@
     <t>Thu Aug 23 15:36:49 +0000 2018</t>
   </si>
   <si>
-    <t>@truWorldControl #fakenewz-
-Playing the woman‘s card-
-Give it up for the ladies!-
+    <t>@truWorldControl #fakenewz_x000D__x000D_
+Playing the woman‘s card_x000D__x000D_
+Give it up for the ladies!_x000D__x000D_
 [ALL FEMALE PLAYERZ +1 🔵]</t>
   </si>
   <si>
@@ -251,12 +226,9 @@
     <t>Thu Aug 23 15:25:21 +0000 2018</t>
   </si>
   <si>
-    <t>@truWorldControl #fakenewz-
-Tech-Crunch-
-The tech-market collapses after melanials did not buy a 4th smart-phone this year. -
+    <t>@truWorldControl #fakenewz_x000D__x000D_
+Tech-Crunch_x000D__x000D_
+The tech-market collapses after melanials did not buy a 4th smart-phone this year. _x000D__x000D_
 [ALL 💵 -&amp;gt; BANK]</t>
   </si>
   <si>
@@ -269,12 +241,9 @@
     <t>{'urls': [], 'hashtags': [{'text': 'fakenewz', 'indices': [17, 26]}, {'text': 'zar4life', 'indices': [69, 78]}], 'user_mentions': [{'screen_name': 'truWorldControl', 'id': 755869984761479168, 'name': 'WorldControl  🎲🎲', 'id_str': '755869984761479168', 'indices': [0, 16]}], 'symbols': []}</t>
   </si>
   <si>
-    <t>@truWorldControl #fakenewz -
-Minster Vlatin strangles a bear.-
-Elected #zar4life. Democrazy rulez!-
+    <t>@truWorldControl #fakenewz _x000D__x000D_
+Minster Vlatin strangles a bear._x000D__x000D_
+Elected #zar4life. Democrazy rulez!_x000D__x000D_
 [MOSCOW +1 general]</t>
   </si>
   <si>
@@ -284,12 +253,9 @@
     <t>Wed Aug 22 20:39:55 +0000 2018</t>
   </si>
   <si>
-    <t>@truWorldControl #fakenewz-
-Armin Wolf geht in Pension-
-Der Staat trauert-
+    <t>@truWorldControl #fakenewz_x000D__x000D_
+Armin Wolf geht in Pension_x000D__x000D_
+Der Staat trauert_x000D__x000D_
 [Österreich - 3😤]</t>
   </si>
   <si>
@@ -305,10 +271,8 @@
     <t>Mon Aug 20 11:45:21 +0000 2018</t>
   </si>
   <si>
-    <t>@truWorldControl #fakenewz The Truth is not the truth-
-The US president's lawyer goes full Orwell-
+    <t>@truWorldControl #fakenewz The Truth is not the truth_x000D__x000D_
+The US president's lawyer goes full Orwell_x000D__x000D_
 [US +3🍌]</t>
   </si>
   <si>
@@ -321,10 +285,8 @@
     <t>{'urls': [], 'hashtags': [{'text': 'fakenewz', 'indices': [122, 131]}], 'user_mentions': [{'screen_name': 'truWorldControl', 'id': 755869984761479168, 'name': 'WorldControl  🎲🎲', 'id_str': '755869984761479168', 'indices': [0, 16]}], 'symbols': []}</t>
   </si>
   <si>
-    <t>@truWorldControl Power of Communism-
-All Playerz put all their money together and divide it equally-
+    <t>@truWorldControl Power of Communism_x000D__x000D_
+All Playerz put all their money together and divide it equally_x000D__x000D_
 [DIVIDE MONEY EQUALLY] #fakenewz</t>
   </si>
   <si>
@@ -337,12 +299,9 @@
     <t>{'urls': [], 'hashtags': [], 'user_mentions': [{'screen_name': 'truWorldControl', 'id': 755869984761479168, 'name': 'WorldControl  🎲🎲', 'id_str': '755869984761479168', 'indices': [0, 16]}], 'symbols': []}</t>
   </si>
   <si>
-    <t>@truworldcontrol-
-The Kronenzeitung becomes the world's number 1 newpaper-
-Hans Dichand returns as Robo-Editor-
+    <t>@truworldcontrol_x000D__x000D_
+The Kronenzeitung becomes the world's number 1 newpaper_x000D__x000D_
+Hans Dichand returns as Robo-Editor_x000D__x000D_
 [Everybody loses his shit]</t>
   </si>
   <si>
@@ -469,12 +428,6 @@
     <t>{'urls': [], 'hashtags': [{'text': 'fakenewz', 'indices': [17, 26]}], 'user_mentions': [{'id_str': '755869984761479168', 'screen_name': 'truWorldControl', 'id': 755869984761479168, 'name': 'WorldControl  🎲🎲', 'indices': [0, 16]}], 'symbols': []}</t>
   </si>
   <si>
-    <t>@truWorldControl #fakenewz
-Emoji becomes international language of communication
-🤷🔥🌆
-[♨️+2🦄]</t>
-  </si>
-  <si>
     <t>{'friends_count': 8, 'geo_enabled': False, 'url': 'https://t.co/AgubHQIUXe', 'favourites_count': 4, 'statuses_count': 90, 'location': 'Moscow, Russia', 'follow_request_sent': False, 'profile_image_url_https': 'https://pbs.twimg.com/profile_images/1036353314840109061/nox-yWY2_normal.jpg', 'default_profile_image': False, 'profile_background_tile': False, 'entities': {'url': {'urls': [{'expanded_url': 'http://world-control.net', 'url': 'https://t.co/AgubHQIUXe', 'display_url': 'world-control.net', 'indices': [0, 23]}]}, 'description': {'urls': []}}, 'followers_count': 5, 'name': 'Minister Vlatin', 'description': 'Seizing @truWorldControl by spreading #fakenewz. #proudtobeabot 🤖 by @RKalcik', 'id_str': '1017118454711771136', 'lang': 'en', 'created_at': 'Wed Jul 11 18:48:31 +0000 2018', 'verified': False, 'profile_image_url': 'http://pbs.twimg.com/profile_images/1036353314840109061/nox-yWY2_normal.jpg', 'notifications': False, 'profile_background_image_url': 'http://abs.twimg.com/images/themes/theme1/bg.png', 'profile_background_image_url_https': 'https://abs.twimg.com/images/themes/theme1/bg.png', 'time_zone': None, 'translator_type': 'none', 'profile_banner_url': 'https://pbs.twimg.com/profile_banners/1017118454711771136/1535920961', 'has_extended_profile': False, 'default_profile': False, 'contributors_enabled': False, 'screen_name': 'MinisterVlatin', 'following': False, 'utc_offset': None, 'protected': False, 'is_translation_enabled': False, 'listed_count': 0, 'id': 1017118454711771136, 'profile_background_color': '000000', 'profile_sidebar_fill_color': '000000', 'profile_sidebar_border_color': '000000', 'profile_use_background_image': False, 'is_translator': False, 'profile_link_color': '000000', 'profile_text_color': '000000'}</t>
   </si>
   <si>
@@ -505,12 +458,6 @@
     <t>{'user_mentions': [{'screen_name': 'truWorldControl', 'id': 755869984761479168, 'name': 'WorldControl  🎲🎲', 'indices': [0, 16], 'id_str': '755869984761479168'}], 'hashtags': [{'text': 'fakenewz', 'indices': [17, 26]}], 'urls': [], 'symbols': []}</t>
   </si>
   <si>
-    <t>@truWorldControl #fakenewz 
-Austrian strikes Egypt
-The Minister of Defence starts out with vacation in Hurgada 🏄‍♂️
-[CARIO airstrike]</t>
-  </si>
-  <si>
     <t>{'has_extended_profile': False, 'statuses_count': 94, 'description': 'Seizing @truWorldControl by spreading #fakenewz. #proudtobeabot 🤖 by @RKalcik', 'profile_link_color': '000000', 'follow_request_sent': False, 'profile_use_background_image': False, 'profile_image_url_https': 'https://pbs.twimg.com/profile_images/1036353314840109061/nox-yWY2_normal.jpg', 'listed_count': 0, 'favourites_count': 4, 'profile_background_image_url_https': 'https://abs.twimg.com/images/themes/theme1/bg.png', 'screen_name': 'MinisterVlatin', 'is_translator': False, 'created_at': 'Wed Jul 11 18:48:31 +0000 2018', 'name': 'Minister Vlatin', 'default_profile': False, 'profile_sidebar_border_color': '000000', 'profile_background_image_url': 'http://abs.twimg.com/images/themes/theme1/bg.png', 'profile_background_color': '000000', 'translator_type': 'none', 'default_profile_image': False, 'protected': False, 'url': 'https://t.co/AgubHQIUXe', 'notifications': False, 'contributors_enabled': False, 'utc_offset': None, 'id': 1017118454711771136, 'followers_count': 5, 'friends_count': 8, 'time_zone': None, 'profile_image_url': 'http://pbs.twimg.com/profile_images/1036353314840109061/nox-yWY2_normal.jpg', 'following': False, 'lang': 'en', 'location': 'Moscow, Russia', 'profile_text_color': '000000', 'id_str': '1017118454711771136', 'entities': {'description': {'urls': []}, 'url': {'urls': [{'display_url': 'world-control.net', 'expanded_url': 'http://world-control.net', 'indices': [0, 23], 'url': 'https://t.co/AgubHQIUXe'}]}}, 'is_translation_enabled': False, 'geo_enabled': False, 'profile_background_tile': False, 'profile_sidebar_fill_color': '000000', 'verified': False, 'profile_banner_url': 'https://pbs.twimg.com/profile_banners/1017118454711771136/1535920961'}</t>
   </si>
   <si>
@@ -550,28 +497,10 @@
     <t>{'profile_background_color': '000000', 'profile_banner_url': 'https://pbs.twimg.com/profile_banners/1017118454711771136/1535920961', 'profile_sidebar_fill_color': '000000', 'lang': 'en', 'profile_background_tile': False, 'profile_image_url': 'http://pbs.twimg.com/profile_images/1041036258745765890/C-8rzdz5_normal.jpg', 'notifications': False, 'following': False, 'name': 'Minister Vlatin', 'profile_background_image_url': 'http://abs.twimg.com/images/themes/theme1/bg.png', 'profile_link_color': '000000', 'default_profile_image': False, 'verified': False, 'screen_name': 'MinisterVlatin', 'followers_count': 5, 'url': 'https://t.co/AgubHQIUXe', 'time_zone': None, 'entities': {'url': {'urls': [{'expanded_url': 'http://world-control.net', 'url': 'https://t.co/AgubHQIUXe', 'display_url': 'world-control.net', 'indices': [0, 23]}]}, 'description': {'urls': []}}, 'has_extended_profile': False, 'listed_count': 0, 'geo_enabled': False, 'id_str': '1017118454711771136', 'is_translation_enabled': False, 'profile_use_background_image': False, 'profile_sidebar_border_color': '000000', 'is_translator': False, 'description': 'Seizing @truWorldControl by spreading #fakenewz. #proudtobeabot 🤖 by @RKalcik', 'location': 'Moscow, Russia', 'statuses_count': 98, 'id': 1017118454711771136, 'profile_text_color': '000000', 'contributors_enabled': False, 'favourites_count': 4, 'protected': False, 'friends_count': 8, 'created_at': 'Wed Jul 11 18:48:31 +0000 2018', 'translator_type': 'none', 'profile_background_image_url_https': 'https://abs.twimg.com/images/themes/theme1/bg.png', 'utc_offset': None, 'default_profile': False, 'follow_request_sent': False, 'profile_image_url_https': 'https://pbs.twimg.com/profile_images/1041036258745765890/C-8rzdz5_normal.jpg'}</t>
   </si>
   <si>
-    <t>Sun Sep 16 17:24:28 +0000 2018</t>
-  </si>
-  <si>
-    <t>[0, 121]</t>
-  </si>
-  <si>
     <t>{'hashtags': [{'indices': [17, 26], 'text': 'fakenewz'}], 'urls': [], 'user_mentions': [{'id_str': '755869984761479168', 'name': 'WorldControl  🎲🎲', 'indices': [0, 16], 'id': 755869984761479168, 'screen_name': 'truWorldControl'}], 'symbols': []}</t>
   </si>
   <si>
-    <t>@truWorldControl #fakenewz
-The Queen drowns in a cup of tea.
-England sues India for bad taste. 
-[Mumbai 70b 💵&amp;gt; London]</t>
-  </si>
-  <si>
-    <t>1041377288737177601</t>
-  </si>
-  <si>
     <t>755869984761479168</t>
-  </si>
-  <si>
-    <t>{'default_profile_image': False, 'followers_count': 6, 'default_profile': False, 'screen_name': 'MinisterVlatin', 'utc_offset': None, 'favourites_count': 4, 'description': 'Seizing @truWorldControl by spreading #fakenewz. #proudtobeabot 🤖 by @RKalcik', 'profile_sidebar_border_color': '000000', 'lang': 'en', 'profile_text_color': '000000', 'profile_background_tile': False, 'profile_link_color': '000000', 'notifications': False, 'time_zone': None, 'profile_image_url_https': 'https://pbs.twimg.com/profile_images/1041036258745765890/C-8rzdz5_normal.jpg', 'profile_use_background_image': False, 'url': 'https://t.co/AgubHQIUXe', 'following': False, 'friends_count': 12, 'profile_image_url': 'http://pbs.twimg.com/profile_images/1041036258745765890/C-8rzdz5_normal.jpg', 'protected': False, 'geo_enabled': False, 'profile_banner_url': 'https://pbs.twimg.com/profile_banners/1017118454711771136/1535920961', 'profile_sidebar_fill_color': '000000', 'has_extended_profile': False, 'statuses_count': 99, 'profile_background_color': '000000', 'verified': False, 'id': 1017118454711771136, 'entities': {'description': {'urls': []}, 'url': {'urls': [{'expanded_url': 'http://world-control.net', 'indices': [0, 23], 'url': 'https://t.co/AgubHQIUXe', 'display_url': 'world-control.net'}]}}, 'id_str': '1017118454711771136', 'profile_background_image_url_https': 'https://abs.twimg.com/images/themes/theme1/bg.png', 'name': 'Minister Vlatin', 'location': 'Moscow, Russia', 'created_at': 'Wed Jul 11 18:48:31 +0000 2018', 'listed_count': 0, 'translator_type': 'none', 'is_translation_enabled': False, 'is_translator': False, 'follow_request_sent': False, 'contributors_enabled': False, 'profile_background_image_url': 'http://abs.twimg.com/images/themes/theme1/bg.png'}</t>
   </si>
   <si>
     <t>Mon Sep 17 09:24:34 +0000 2018</t>
@@ -586,28 +515,42 @@
   </si>
   <si>
     <t>{'default_profile_image': False, 'followers_count': 6, 'default_profile': False, 'screen_name': 'MinisterVlatin', 'utc_offset': None, 'favourites_count': 4, 'description': 'Seizing @truWorldControl by spreading #fakenewz. #proudtobeabot 🤖 by @RKalcik', 'profile_sidebar_border_color': '000000', 'lang': 'en', 'profile_text_color': '000000', 'profile_background_tile': False, 'profile_link_color': '000000', 'notifications': False, 'time_zone': None, 'profile_image_url_https': 'https://pbs.twimg.com/profile_images/1041036258745765890/C-8rzdz5_normal.jpg', 'profile_use_background_image': False, 'url': 'https://t.co/AgubHQIUXe', 'following': False, 'friends_count': 12, 'profile_image_url': 'http://pbs.twimg.com/profile_images/1041036258745765890/C-8rzdz5_normal.jpg', 'protected': False, 'geo_enabled': False, 'profile_banner_url': 'https://pbs.twimg.com/profile_banners/1017118454711771136/1535920961', 'profile_sidebar_fill_color': '000000', 'has_extended_profile': False, 'statuses_count': 101, 'profile_background_color': '000000', 'verified': False, 'id': 1017118454711771136, 'entities': {'description': {'urls': []}, 'url': {'urls': [{'expanded_url': 'http://world-control.net', 'indices': [0, 23], 'url': 'https://t.co/AgubHQIUXe', 'display_url': 'world-control.net'}]}}, 'id_str': '1017118454711771136', 'profile_background_image_url_https': 'https://abs.twimg.com/images/themes/theme1/bg.png', 'name': 'Minister Vlatin', 'location': 'Moscow, Russia', 'created_at': 'Wed Jul 11 18:48:31 +0000 2018', 'listed_count': 0, 'translator_type': 'none', 'is_translation_enabled': False, 'is_translator': False, 'follow_request_sent': False, 'contributors_enabled': False, 'profile_background_image_url': 'http://abs.twimg.com/images/themes/theme1/bg.png'}</t>
+  </si>
+  <si>
+    <t>President Drumpf's EpiphanyGoogling himself President Drumpf realises that he's a moron[US +1🔵] @truWorldControl #fakenewz</t>
+  </si>
+  <si>
+    <t>Emoji becomes international language of communication
+🤷🔥🌆
+[WORLD +2🦄] @truWorldControl #fakenewz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Austrian strikes Egypt
+The Minister of Defence starts out with vacation in Hurgada 🏄
+[CARIO airstrike] @truWorldControl #fakenewz </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -622,26 +565,46 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -929,20 +892,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:AD28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AD26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="I16" workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="9" max="9" width="128.140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1031,12 +993,10 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:30">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
       <c r="D2" t="s">
         <v>29</v>
       </c>
@@ -1046,7 +1006,7 @@
       <c r="F2" t="s">
         <v>31</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G2">
         <v>0</v>
       </c>
       <c r="H2" t="b">
@@ -1055,18 +1015,12 @@
       <c r="I2" t="s">
         <v>32</v>
       </c>
-      <c r="J2" t="s"/>
-      <c r="K2" t="n">
-        <v>1.03924e+18</v>
-      </c>
-      <c r="L2" t="n">
-        <v>1.03924e+18</v>
-      </c>
-      <c r="M2" t="s"/>
-      <c r="N2" t="s"/>
-      <c r="O2" t="s"/>
-      <c r="P2" t="s"/>
-      <c r="Q2" t="s"/>
+      <c r="K2">
+        <v>1.03924E+18</v>
+      </c>
+      <c r="L2">
+        <v>1.03924E+18</v>
+      </c>
       <c r="R2" t="b">
         <v>0</v>
       </c>
@@ -1076,8 +1030,7 @@
       <c r="T2" t="s">
         <v>34</v>
       </c>
-      <c r="U2" t="s"/>
-      <c r="V2" t="n">
+      <c r="V2">
         <v>0</v>
       </c>
       <c r="W2" t="b">
@@ -1086,33 +1039,27 @@
       <c r="X2" t="s">
         <v>35</v>
       </c>
-      <c r="Y2" t="s"/>
       <c r="Z2" t="b">
         <v>0</v>
       </c>
       <c r="AA2" t="s">
         <v>36</v>
       </c>
-      <c r="AB2" t="s"/>
-      <c r="AC2" t="s"/>
-      <c r="AD2" t="n">
+      <c r="AD2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:30">
-      <c r="A3" s="1" t="n">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
       <c r="D3" t="s">
         <v>37</v>
       </c>
-      <c r="E3" t="s"/>
       <c r="F3" t="s">
         <v>38</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3">
         <v>0</v>
       </c>
       <c r="H3" t="b">
@@ -1121,18 +1068,12 @@
       <c r="I3" t="s">
         <v>39</v>
       </c>
-      <c r="J3" t="s"/>
-      <c r="K3" t="n">
-        <v>1.03765e+18</v>
-      </c>
-      <c r="L3" t="n">
-        <v>1.03765e+18</v>
-      </c>
-      <c r="M3" t="s"/>
-      <c r="N3" t="s"/>
-      <c r="O3" t="s"/>
-      <c r="P3" t="s"/>
-      <c r="Q3" t="s"/>
+      <c r="K3">
+        <v>1.03765E+18</v>
+      </c>
+      <c r="L3">
+        <v>1.03765E+18</v>
+      </c>
       <c r="R3" t="b">
         <v>0</v>
       </c>
@@ -1142,8 +1083,7 @@
       <c r="T3" t="s">
         <v>34</v>
       </c>
-      <c r="U3" t="s"/>
-      <c r="V3" t="n">
+      <c r="V3">
         <v>0</v>
       </c>
       <c r="W3" t="b">
@@ -1161,46 +1101,35 @@
       <c r="AA3" t="s">
         <v>41</v>
       </c>
-      <c r="AB3" t="s"/>
-      <c r="AC3" t="s"/>
-      <c r="AD3" t="n">
+      <c r="AD3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:30">
-      <c r="A4" s="1" t="n">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
       <c r="D4" t="s">
         <v>42</v>
       </c>
-      <c r="E4" t="s"/>
       <c r="F4" t="s">
         <v>43</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4">
         <v>0</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
       </c>
       <c r="I4" t="s">
-        <v>44</v>
-      </c>
-      <c r="J4" t="s"/>
-      <c r="K4" t="n">
-        <v>1.0348e+18</v>
-      </c>
-      <c r="L4" t="n">
-        <v>1.0348e+18</v>
-      </c>
-      <c r="M4" t="s"/>
-      <c r="N4" t="s"/>
-      <c r="O4" t="s"/>
-      <c r="P4" t="s"/>
-      <c r="Q4" t="s"/>
+        <v>144</v>
+      </c>
+      <c r="K4">
+        <v>1.0348E+18</v>
+      </c>
+      <c r="L4">
+        <v>1.0348E+18</v>
+      </c>
       <c r="R4" t="b">
         <v>0</v>
       </c>
@@ -1210,8 +1139,7 @@
       <c r="T4" t="s">
         <v>34</v>
       </c>
-      <c r="U4" t="s"/>
-      <c r="V4" t="n">
+      <c r="V4">
         <v>0</v>
       </c>
       <c r="W4" t="b">
@@ -1229,26 +1157,21 @@
       <c r="AA4" t="s">
         <v>45</v>
       </c>
-      <c r="AB4" t="s"/>
-      <c r="AC4" t="s"/>
-      <c r="AD4" t="n">
+      <c r="AD4">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:30">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
       <c r="D5" t="s">
         <v>46</v>
       </c>
-      <c r="E5" t="s"/>
       <c r="F5" t="s">
         <v>47</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G5">
         <v>0</v>
       </c>
       <c r="H5" t="b">
@@ -1257,18 +1180,21 @@
       <c r="I5" t="s">
         <v>48</v>
       </c>
-      <c r="J5" t="s"/>
-      <c r="K5" t="n">
-        <v>1.03636e+18</v>
-      </c>
-      <c r="L5" t="n">
-        <v>1.03636e+18</v>
-      </c>
-      <c r="M5" t="s"/>
-      <c r="N5" t="s"/>
-      <c r="O5" t="s"/>
-      <c r="P5" t="s"/>
-      <c r="Q5" t="s"/>
+      <c r="K5">
+        <v>1.03266E+18</v>
+      </c>
+      <c r="L5">
+        <v>1.03266E+18</v>
+      </c>
+      <c r="M5" t="s">
+        <v>49</v>
+      </c>
+      <c r="P5">
+        <v>7.56E+17</v>
+      </c>
+      <c r="Q5">
+        <v>7.5587E+17</v>
+      </c>
       <c r="R5" t="b">
         <v>0</v>
       </c>
@@ -1278,15 +1204,14 @@
       <c r="T5" t="s">
         <v>34</v>
       </c>
-      <c r="U5" t="s"/>
-      <c r="V5" t="n">
+      <c r="V5">
         <v>0</v>
       </c>
       <c r="W5" t="b">
         <v>0</v>
       </c>
       <c r="X5" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="Y5" t="s">
         <v>48</v>
@@ -1295,53 +1220,45 @@
         <v>0</v>
       </c>
       <c r="AA5" t="s">
-        <v>45</v>
-      </c>
-      <c r="AB5" t="s"/>
-      <c r="AC5" t="s"/>
-      <c r="AD5" t="n">
-        <v>3</v>
+        <v>50</v>
+      </c>
+      <c r="AD5">
+        <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:30">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
       <c r="D6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F6" t="s">
+        <v>47</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" t="s">
+        <v>52</v>
+      </c>
+      <c r="K6">
+        <v>1.03266E+18</v>
+      </c>
+      <c r="L6">
+        <v>1.03266E+18</v>
+      </c>
+      <c r="M6" t="s">
         <v>49</v>
       </c>
-      <c r="E6" t="s"/>
-      <c r="F6" t="s">
-        <v>50</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" t="b">
-        <v>0</v>
-      </c>
-      <c r="I6" t="s">
-        <v>51</v>
-      </c>
-      <c r="J6" t="s"/>
-      <c r="K6" t="n">
-        <v>1.03266e+18</v>
-      </c>
-      <c r="L6" t="n">
-        <v>1.03266e+18</v>
-      </c>
-      <c r="M6" t="s">
-        <v>52</v>
-      </c>
-      <c r="N6" t="s"/>
-      <c r="O6" t="s"/>
-      <c r="P6" t="n">
-        <v>7.56e+17</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>7.5587e+17</v>
+      <c r="P6">
+        <v>7.56E+17</v>
+      </c>
+      <c r="Q6">
+        <v>7.5587E+17</v>
       </c>
       <c r="R6" t="b">
         <v>0</v>
@@ -1352,8 +1269,7 @@
       <c r="T6" t="s">
         <v>34</v>
       </c>
-      <c r="U6" t="s"/>
-      <c r="V6" t="n">
+      <c r="V6">
         <v>0</v>
       </c>
       <c r="W6" t="b">
@@ -1363,7 +1279,7 @@
         <v>35</v>
       </c>
       <c r="Y6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="Z6" t="b">
         <v>0</v>
@@ -1371,26 +1287,21 @@
       <c r="AA6" t="s">
         <v>53</v>
       </c>
-      <c r="AB6" t="s"/>
-      <c r="AC6" t="s"/>
-      <c r="AD6" t="n">
-        <v>4</v>
+      <c r="AD6">
+        <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:30">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
       <c r="D7" t="s">
         <v>54</v>
       </c>
-      <c r="E7" t="s"/>
       <c r="F7" t="s">
-        <v>50</v>
-      </c>
-      <c r="G7" t="n">
+        <v>47</v>
+      </c>
+      <c r="G7">
         <v>0</v>
       </c>
       <c r="H7" t="b">
@@ -1399,23 +1310,20 @@
       <c r="I7" t="s">
         <v>55</v>
       </c>
-      <c r="J7" t="s"/>
-      <c r="K7" t="n">
-        <v>1.03266e+18</v>
-      </c>
-      <c r="L7" t="n">
-        <v>1.03266e+18</v>
+      <c r="K7">
+        <v>1.03266E+18</v>
+      </c>
+      <c r="L7">
+        <v>1.03266E+18</v>
       </c>
       <c r="M7" t="s">
-        <v>52</v>
-      </c>
-      <c r="N7" t="s"/>
-      <c r="O7" t="s"/>
-      <c r="P7" t="n">
-        <v>7.56e+17</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>7.5587e+17</v>
+        <v>49</v>
+      </c>
+      <c r="P7">
+        <v>7.56E+17</v>
+      </c>
+      <c r="Q7">
+        <v>7.5587E+17</v>
       </c>
       <c r="R7" t="b">
         <v>0</v>
@@ -1426,8 +1334,7 @@
       <c r="T7" t="s">
         <v>34</v>
       </c>
-      <c r="U7" t="s"/>
-      <c r="V7" t="n">
+      <c r="V7">
         <v>0</v>
       </c>
       <c r="W7" t="b">
@@ -1445,26 +1352,21 @@
       <c r="AA7" t="s">
         <v>56</v>
       </c>
-      <c r="AB7" t="s"/>
-      <c r="AC7" t="s"/>
-      <c r="AD7" t="n">
-        <v>5</v>
+      <c r="AD7">
+        <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:30">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
       <c r="D8" t="s">
         <v>57</v>
       </c>
-      <c r="E8" t="s"/>
       <c r="F8" t="s">
-        <v>50</v>
-      </c>
-      <c r="G8" t="n">
+        <v>47</v>
+      </c>
+      <c r="G8">
         <v>0</v>
       </c>
       <c r="H8" t="b">
@@ -1473,23 +1375,20 @@
       <c r="I8" t="s">
         <v>58</v>
       </c>
-      <c r="J8" t="s"/>
-      <c r="K8" t="n">
-        <v>1.03266e+18</v>
-      </c>
-      <c r="L8" t="n">
-        <v>1.03266e+18</v>
+      <c r="K8">
+        <v>1.03265E+18</v>
+      </c>
+      <c r="L8">
+        <v>1.03265E+18</v>
       </c>
       <c r="M8" t="s">
-        <v>52</v>
-      </c>
-      <c r="N8" t="s"/>
-      <c r="O8" t="s"/>
-      <c r="P8" t="n">
-        <v>7.56e+17</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>7.5587e+17</v>
+        <v>49</v>
+      </c>
+      <c r="P8">
+        <v>7.56E+17</v>
+      </c>
+      <c r="Q8">
+        <v>7.5587E+17</v>
       </c>
       <c r="R8" t="b">
         <v>0</v>
@@ -1500,8 +1399,7 @@
       <c r="T8" t="s">
         <v>34</v>
       </c>
-      <c r="U8" t="s"/>
-      <c r="V8" t="n">
+      <c r="V8">
         <v>0</v>
       </c>
       <c r="W8" t="b">
@@ -1519,26 +1417,21 @@
       <c r="AA8" t="s">
         <v>59</v>
       </c>
-      <c r="AB8" t="s"/>
-      <c r="AC8" t="s"/>
-      <c r="AD8" t="n">
-        <v>6</v>
+      <c r="AD8">
+        <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:30">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
       <c r="D9" t="s">
         <v>60</v>
       </c>
-      <c r="E9" t="s"/>
       <c r="F9" t="s">
-        <v>50</v>
-      </c>
-      <c r="G9" t="n">
+        <v>47</v>
+      </c>
+      <c r="G9">
         <v>0</v>
       </c>
       <c r="H9" t="b">
@@ -1547,23 +1440,20 @@
       <c r="I9" t="s">
         <v>61</v>
       </c>
-      <c r="J9" t="s"/>
-      <c r="K9" t="n">
-        <v>1.03265e+18</v>
-      </c>
-      <c r="L9" t="n">
-        <v>1.03265e+18</v>
+      <c r="K9">
+        <v>1.03265E+18</v>
+      </c>
+      <c r="L9">
+        <v>1.03265E+18</v>
       </c>
       <c r="M9" t="s">
-        <v>52</v>
-      </c>
-      <c r="N9" t="s"/>
-      <c r="O9" t="s"/>
-      <c r="P9" t="n">
-        <v>7.56e+17</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>7.5587e+17</v>
+        <v>49</v>
+      </c>
+      <c r="P9">
+        <v>7.56E+17</v>
+      </c>
+      <c r="Q9">
+        <v>7.5587E+17</v>
       </c>
       <c r="R9" t="b">
         <v>0</v>
@@ -1574,8 +1464,7 @@
       <c r="T9" t="s">
         <v>34</v>
       </c>
-      <c r="U9" t="s"/>
-      <c r="V9" t="n">
+      <c r="V9">
         <v>0</v>
       </c>
       <c r="W9" t="b">
@@ -1593,51 +1482,43 @@
       <c r="AA9" t="s">
         <v>62</v>
       </c>
-      <c r="AB9" t="s"/>
-      <c r="AC9" t="s"/>
-      <c r="AD9" t="n">
-        <v>7</v>
+      <c r="AD9">
+        <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:30">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
       <c r="D10" t="s">
         <v>63</v>
       </c>
-      <c r="E10" t="s"/>
       <c r="F10" t="s">
-        <v>50</v>
-      </c>
-      <c r="G10" t="n">
+        <v>64</v>
+      </c>
+      <c r="G10">
         <v>0</v>
       </c>
       <c r="H10" t="b">
         <v>0</v>
       </c>
       <c r="I10" t="s">
-        <v>64</v>
-      </c>
-      <c r="J10" t="s"/>
-      <c r="K10" t="n">
-        <v>1.03265e+18</v>
-      </c>
-      <c r="L10" t="n">
-        <v>1.03265e+18</v>
+        <v>65</v>
+      </c>
+      <c r="K10">
+        <v>1.03265E+18</v>
+      </c>
+      <c r="L10">
+        <v>1.03265E+18</v>
       </c>
       <c r="M10" t="s">
-        <v>52</v>
-      </c>
-      <c r="N10" t="s"/>
-      <c r="O10" t="s"/>
-      <c r="P10" t="n">
-        <v>7.56e+17</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>7.5587e+17</v>
+        <v>49</v>
+      </c>
+      <c r="P10">
+        <v>7.56E+17</v>
+      </c>
+      <c r="Q10">
+        <v>7.5587E+17</v>
       </c>
       <c r="R10" t="b">
         <v>0</v>
@@ -1648,8 +1529,7 @@
       <c r="T10" t="s">
         <v>34</v>
       </c>
-      <c r="U10" t="s"/>
-      <c r="V10" t="n">
+      <c r="V10">
         <v>0</v>
       </c>
       <c r="W10" t="b">
@@ -1659,34 +1539,29 @@
         <v>35</v>
       </c>
       <c r="Y10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="Z10" t="b">
         <v>0</v>
       </c>
       <c r="AA10" t="s">
-        <v>65</v>
-      </c>
-      <c r="AB10" t="s"/>
-      <c r="AC10" t="s"/>
-      <c r="AD10" t="n">
-        <v>8</v>
+        <v>66</v>
+      </c>
+      <c r="AD10">
+        <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:30">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
       <c r="D11" t="s">
-        <v>66</v>
-      </c>
-      <c r="E11" t="s"/>
+        <v>67</v>
+      </c>
       <c r="F11" t="s">
-        <v>67</v>
-      </c>
-      <c r="G11" t="n">
+        <v>47</v>
+      </c>
+      <c r="G11">
         <v>0</v>
       </c>
       <c r="H11" t="b">
@@ -1695,42 +1570,38 @@
       <c r="I11" t="s">
         <v>68</v>
       </c>
-      <c r="J11" t="s"/>
-      <c r="K11" t="n">
-        <v>1.03265e+18</v>
-      </c>
-      <c r="L11" t="n">
-        <v>1.03265e+18</v>
+      <c r="K11">
+        <v>1.03237E+18</v>
+      </c>
+      <c r="L11">
+        <v>1.03237E+18</v>
       </c>
       <c r="M11" t="s">
-        <v>52</v>
-      </c>
-      <c r="N11" t="s"/>
-      <c r="O11" t="s"/>
-      <c r="P11" t="n">
-        <v>7.56e+17</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>7.5587e+17</v>
+        <v>49</v>
+      </c>
+      <c r="P11">
+        <v>7.56E+17</v>
+      </c>
+      <c r="Q11">
+        <v>7.5587E+17</v>
       </c>
       <c r="R11" t="b">
         <v>0</v>
       </c>
       <c r="S11" t="s">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="T11" t="s">
-        <v>34</v>
-      </c>
-      <c r="U11" t="s"/>
-      <c r="V11" t="n">
+        <v>70</v>
+      </c>
+      <c r="V11">
         <v>0</v>
       </c>
       <c r="W11" t="b">
         <v>0</v>
       </c>
       <c r="X11" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="Y11" t="s">
         <v>68</v>
@@ -1739,65 +1610,56 @@
         <v>0</v>
       </c>
       <c r="AA11" t="s">
-        <v>69</v>
-      </c>
-      <c r="AB11" t="s"/>
-      <c r="AC11" t="s"/>
-      <c r="AD11" t="n">
-        <v>9</v>
+        <v>71</v>
+      </c>
+      <c r="AD11">
+        <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:30">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
       <c r="D12" t="s">
-        <v>70</v>
-      </c>
-      <c r="E12" t="s"/>
+        <v>72</v>
+      </c>
       <c r="F12" t="s">
-        <v>50</v>
-      </c>
-      <c r="G12" t="n">
+        <v>47</v>
+      </c>
+      <c r="G12">
         <v>0</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
       <c r="I12" t="s">
-        <v>71</v>
-      </c>
-      <c r="J12" t="s"/>
-      <c r="K12" t="n">
-        <v>1.03237e+18</v>
-      </c>
-      <c r="L12" t="n">
-        <v>1.03237e+18</v>
+        <v>73</v>
+      </c>
+      <c r="K12">
+        <v>1.03151E+18</v>
+      </c>
+      <c r="L12">
+        <v>1.03151E+18</v>
       </c>
       <c r="M12" t="s">
-        <v>52</v>
-      </c>
-      <c r="N12" t="s"/>
-      <c r="O12" t="s"/>
-      <c r="P12" t="n">
-        <v>7.56e+17</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>7.5587e+17</v>
+        <v>49</v>
+      </c>
+      <c r="P12">
+        <v>7.56E+17</v>
+      </c>
+      <c r="Q12">
+        <v>7.5587E+17</v>
       </c>
       <c r="R12" t="b">
         <v>0</v>
       </c>
       <c r="S12" t="s">
-        <v>72</v>
+        <v>33</v>
       </c>
       <c r="T12" t="s">
-        <v>73</v>
-      </c>
-      <c r="U12" t="s"/>
-      <c r="V12" t="n">
+        <v>34</v>
+      </c>
+      <c r="V12">
         <v>0</v>
       </c>
       <c r="W12" t="b">
@@ -1807,7 +1669,7 @@
         <v>40</v>
       </c>
       <c r="Y12" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="Z12" t="b">
         <v>0</v>
@@ -1815,51 +1677,43 @@
       <c r="AA12" t="s">
         <v>74</v>
       </c>
-      <c r="AB12" t="s"/>
-      <c r="AC12" t="s"/>
-      <c r="AD12" t="n">
-        <v>10</v>
+      <c r="AD12">
+        <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:30">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
       <c r="D13" t="s">
         <v>75</v>
       </c>
-      <c r="E13" t="s"/>
       <c r="F13" t="s">
-        <v>50</v>
-      </c>
-      <c r="G13" t="n">
+        <v>76</v>
+      </c>
+      <c r="G13">
         <v>0</v>
       </c>
       <c r="H13" t="b">
         <v>0</v>
       </c>
       <c r="I13" t="s">
-        <v>76</v>
-      </c>
-      <c r="J13" t="s"/>
-      <c r="K13" t="n">
-        <v>1.03151e+18</v>
-      </c>
-      <c r="L13" t="n">
-        <v>1.03151e+18</v>
+        <v>77</v>
+      </c>
+      <c r="K13">
+        <v>1.02535E+18</v>
+      </c>
+      <c r="L13">
+        <v>1.02535E+18</v>
       </c>
       <c r="M13" t="s">
-        <v>52</v>
-      </c>
-      <c r="N13" t="s"/>
-      <c r="O13" t="s"/>
-      <c r="P13" t="n">
-        <v>7.56e+17</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>7.5587e+17</v>
+        <v>49</v>
+      </c>
+      <c r="P13">
+        <v>7.56E+17</v>
+      </c>
+      <c r="Q13">
+        <v>7.5587E+17</v>
       </c>
       <c r="R13" t="b">
         <v>0</v>
@@ -1870,70 +1724,61 @@
       <c r="T13" t="s">
         <v>34</v>
       </c>
-      <c r="U13" t="s"/>
-      <c r="V13" t="n">
+      <c r="V13">
         <v>0</v>
       </c>
       <c r="W13" t="b">
         <v>0</v>
       </c>
       <c r="X13" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="Y13" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z13" t="b">
         <v>0</v>
       </c>
       <c r="AA13" t="s">
-        <v>77</v>
-      </c>
-      <c r="AB13" t="s"/>
-      <c r="AC13" t="s"/>
-      <c r="AD13" t="n">
-        <v>11</v>
+        <v>78</v>
+      </c>
+      <c r="AD13">
+        <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:30">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
       <c r="D14" t="s">
-        <v>78</v>
-      </c>
-      <c r="E14" t="s"/>
+        <v>79</v>
+      </c>
       <c r="F14" t="s">
-        <v>79</v>
-      </c>
-      <c r="G14" t="n">
+        <v>80</v>
+      </c>
+      <c r="G14">
         <v>0</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
       </c>
       <c r="I14" t="s">
-        <v>80</v>
-      </c>
-      <c r="J14" t="s"/>
-      <c r="K14" t="n">
-        <v>1.02535e+18</v>
-      </c>
-      <c r="L14" t="n">
-        <v>1.02535e+18</v>
+        <v>81</v>
+      </c>
+      <c r="K14">
+        <v>1.02534E+18</v>
+      </c>
+      <c r="L14">
+        <v>1.02534E+18</v>
       </c>
       <c r="M14" t="s">
-        <v>52</v>
-      </c>
-      <c r="N14" t="s"/>
-      <c r="O14" t="s"/>
-      <c r="P14" t="n">
-        <v>7.56e+17</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>7.5587e+17</v>
+        <v>49</v>
+      </c>
+      <c r="P14">
+        <v>7.56E+17</v>
+      </c>
+      <c r="Q14">
+        <v>7.5587E+17</v>
       </c>
       <c r="R14" t="b">
         <v>0</v>
@@ -1944,8 +1789,7 @@
       <c r="T14" t="s">
         <v>34</v>
       </c>
-      <c r="U14" t="s"/>
-      <c r="V14" t="n">
+      <c r="V14">
         <v>0</v>
       </c>
       <c r="W14" t="b">
@@ -1955,59 +1799,45 @@
         <v>35</v>
       </c>
       <c r="Y14" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Z14" t="b">
         <v>0</v>
       </c>
       <c r="AA14" t="s">
-        <v>81</v>
-      </c>
-      <c r="AB14" t="s"/>
-      <c r="AC14" t="s"/>
-      <c r="AD14" t="n">
-        <v>12</v>
+        <v>82</v>
+      </c>
+      <c r="AD14">
+        <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:30">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+    <row r="15" spans="1:30" ht="45" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
       <c r="D15" t="s">
-        <v>82</v>
-      </c>
-      <c r="E15" t="s"/>
+        <v>83</v>
+      </c>
+      <c r="E15" t="s">
+        <v>84</v>
+      </c>
       <c r="F15" t="s">
-        <v>83</v>
-      </c>
-      <c r="G15" t="n">
+        <v>85</v>
+      </c>
+      <c r="G15">
         <v>0</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
-      <c r="I15" t="s">
-        <v>84</v>
-      </c>
-      <c r="J15" t="s"/>
-      <c r="K15" t="n">
-        <v>1.02534e+18</v>
-      </c>
-      <c r="L15" t="n">
-        <v>1.02534e+18</v>
-      </c>
-      <c r="M15" t="s">
-        <v>52</v>
-      </c>
-      <c r="N15" t="s"/>
-      <c r="O15" t="s"/>
-      <c r="P15" t="n">
-        <v>7.56e+17</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>7.5587e+17</v>
+      <c r="I15" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="K15">
+        <v>1.039258898048463E+18</v>
+      </c>
+      <c r="L15">
+        <v>1.039258898048463E+18</v>
       </c>
       <c r="R15" t="b">
         <v>0</v>
@@ -2018,8 +1848,7 @@
       <c r="T15" t="s">
         <v>34</v>
       </c>
-      <c r="U15" t="s"/>
-      <c r="V15" t="n">
+      <c r="V15">
         <v>0</v>
       </c>
       <c r="W15" t="b">
@@ -2028,57 +1857,53 @@
       <c r="X15" t="s">
         <v>35</v>
       </c>
-      <c r="Y15" t="s">
-        <v>84</v>
-      </c>
       <c r="Z15" t="b">
         <v>0</v>
       </c>
       <c r="AA15" t="s">
-        <v>85</v>
-      </c>
-      <c r="AB15" t="s"/>
-      <c r="AC15" t="s"/>
-      <c r="AD15" t="n">
-        <v>13</v>
+        <v>87</v>
+      </c>
+      <c r="AD15">
+        <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:30">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
       <c r="D16" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E16" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F16" t="s">
-        <v>88</v>
-      </c>
-      <c r="G16" t="n">
+        <v>90</v>
+      </c>
+      <c r="G16">
         <v>0</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
       <c r="I16" t="s">
-        <v>89</v>
-      </c>
-      <c r="J16" t="s"/>
-      <c r="K16" t="n">
-        <v>1.039258898048463e+18</v>
-      </c>
-      <c r="L16" t="n">
-        <v>1.039258898048463e+18</v>
-      </c>
-      <c r="M16" t="s"/>
-      <c r="N16" t="s"/>
-      <c r="O16" t="s"/>
-      <c r="P16" t="s"/>
-      <c r="Q16" t="s"/>
+        <v>91</v>
+      </c>
+      <c r="K16">
+        <v>1.039270260451541E+18</v>
+      </c>
+      <c r="L16">
+        <v>1.039270260451541E+18</v>
+      </c>
+      <c r="M16" t="s">
+        <v>49</v>
+      </c>
+      <c r="P16">
+        <v>7.5586998476147917E+17</v>
+      </c>
+      <c r="Q16">
+        <v>7.5586998476147904E+17</v>
+      </c>
       <c r="R16" t="b">
         <v>0</v>
       </c>
@@ -2088,70 +1913,52 @@
       <c r="T16" t="s">
         <v>34</v>
       </c>
-      <c r="U16" t="s"/>
-      <c r="V16" t="n">
+      <c r="V16">
         <v>0</v>
       </c>
       <c r="W16" t="b">
         <v>0</v>
       </c>
       <c r="X16" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y16" t="s"/>
+        <v>40</v>
+      </c>
       <c r="Z16" t="b">
         <v>0</v>
       </c>
       <c r="AA16" t="s">
-        <v>90</v>
-      </c>
-      <c r="AB16" t="s"/>
-      <c r="AC16" t="s"/>
-      <c r="AD16" t="n">
-        <v>14</v>
+        <v>92</v>
+      </c>
+      <c r="AD16">
+        <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:30">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
       <c r="D17" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E17" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F17" t="s">
-        <v>93</v>
-      </c>
-      <c r="G17" t="n">
+        <v>95</v>
+      </c>
+      <c r="G17">
         <v>0</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
       </c>
       <c r="I17" t="s">
-        <v>94</v>
-      </c>
-      <c r="J17" t="s"/>
-      <c r="K17" t="n">
-        <v>1.039270260451541e+18</v>
-      </c>
-      <c r="L17" t="n">
-        <v>1.039270260451541e+18</v>
-      </c>
-      <c r="M17" t="s">
-        <v>52</v>
-      </c>
-      <c r="N17" t="s"/>
-      <c r="O17" t="s"/>
-      <c r="P17" t="n">
-        <v>7.558699847614792e+17</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>7.55869984761479e+17</v>
+        <v>96</v>
+      </c>
+      <c r="K17">
+        <v>1.03939789674197E+18</v>
+      </c>
+      <c r="L17">
+        <v>1.03939789674197E+18</v>
       </c>
       <c r="R17" t="b">
         <v>0</v>
@@ -2162,65 +1969,53 @@
       <c r="T17" t="s">
         <v>34</v>
       </c>
-      <c r="U17" t="s"/>
-      <c r="V17" t="n">
+      <c r="V17">
         <v>0</v>
       </c>
       <c r="W17" t="b">
         <v>0</v>
       </c>
       <c r="X17" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y17" t="s"/>
+        <v>35</v>
+      </c>
       <c r="Z17" t="b">
         <v>0</v>
       </c>
       <c r="AA17" t="s">
-        <v>95</v>
-      </c>
-      <c r="AB17" t="s"/>
-      <c r="AC17" t="s"/>
-      <c r="AD17" t="n">
-        <v>15</v>
+        <v>97</v>
+      </c>
+      <c r="AD17">
+        <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:30">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
       <c r="D18" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E18" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F18" t="s">
-        <v>98</v>
-      </c>
-      <c r="G18" t="n">
+        <v>100</v>
+      </c>
+      <c r="G18">
         <v>0</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
       </c>
       <c r="I18" t="s">
-        <v>99</v>
-      </c>
-      <c r="J18" t="s"/>
-      <c r="K18" t="n">
-        <v>1.03939789674197e+18</v>
-      </c>
-      <c r="L18" t="n">
-        <v>1.03939789674197e+18</v>
-      </c>
-      <c r="M18" t="s"/>
-      <c r="N18" t="s"/>
-      <c r="O18" t="s"/>
-      <c r="P18" t="s"/>
-      <c r="Q18" t="s"/>
+        <v>101</v>
+      </c>
+      <c r="K18">
+        <v>1.039399363972407E+18</v>
+      </c>
+      <c r="L18">
+        <v>1.039399363972407E+18</v>
+      </c>
       <c r="R18" t="b">
         <v>0</v>
       </c>
@@ -2230,8 +2025,7 @@
       <c r="T18" t="s">
         <v>34</v>
       </c>
-      <c r="U18" t="s"/>
-      <c r="V18" t="n">
+      <c r="V18">
         <v>0</v>
       </c>
       <c r="W18" t="b">
@@ -2240,55 +2034,53 @@
       <c r="X18" t="s">
         <v>35</v>
       </c>
-      <c r="Y18" t="s"/>
       <c r="Z18" t="b">
         <v>0</v>
       </c>
       <c r="AA18" t="s">
-        <v>100</v>
-      </c>
-      <c r="AB18" t="s"/>
-      <c r="AC18" t="s"/>
-      <c r="AD18" t="n">
-        <v>16</v>
+        <v>102</v>
+      </c>
+      <c r="AD18">
+        <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:30">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
       <c r="D19" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E19" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F19" t="s">
-        <v>103</v>
-      </c>
-      <c r="G19" t="n">
+        <v>90</v>
+      </c>
+      <c r="G19">
         <v>0</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
       <c r="I19" t="s">
-        <v>104</v>
-      </c>
-      <c r="J19" t="s"/>
-      <c r="K19" t="n">
-        <v>1.039399363972407e+18</v>
-      </c>
-      <c r="L19" t="n">
-        <v>1.039399363972407e+18</v>
-      </c>
-      <c r="M19" t="s"/>
-      <c r="N19" t="s"/>
-      <c r="O19" t="s"/>
-      <c r="P19" t="s"/>
-      <c r="Q19" t="s"/>
+        <v>105</v>
+      </c>
+      <c r="K19">
+        <v>1.0405291718716131E+18</v>
+      </c>
+      <c r="L19">
+        <v>1.0405291718716131E+18</v>
+      </c>
+      <c r="M19" t="s">
+        <v>49</v>
+      </c>
+      <c r="P19">
+        <v>7.5586998476147904E+17</v>
+      </c>
+      <c r="Q19">
+        <v>7.5586998476147904E+17</v>
+      </c>
       <c r="R19" t="b">
         <v>0</v>
       </c>
@@ -2298,70 +2090,61 @@
       <c r="T19" t="s">
         <v>34</v>
       </c>
-      <c r="U19" t="s"/>
-      <c r="V19" t="n">
+      <c r="V19">
         <v>0</v>
       </c>
       <c r="W19" t="b">
         <v>0</v>
       </c>
       <c r="X19" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y19" t="s"/>
+        <v>106</v>
+      </c>
       <c r="Z19" t="b">
         <v>0</v>
       </c>
       <c r="AA19" t="s">
-        <v>105</v>
-      </c>
-      <c r="AB19" t="s"/>
-      <c r="AC19" t="s"/>
-      <c r="AD19" t="n">
-        <v>17</v>
+        <v>107</v>
+      </c>
+      <c r="AD19">
+        <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:30">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
       <c r="D20" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E20" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F20" t="s">
-        <v>93</v>
-      </c>
-      <c r="G20" t="n">
+        <v>110</v>
+      </c>
+      <c r="G20">
         <v>0</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
       <c r="I20" t="s">
-        <v>108</v>
-      </c>
-      <c r="J20" t="s"/>
-      <c r="K20" t="n">
-        <v>1.040529171871613e+18</v>
-      </c>
-      <c r="L20" t="n">
-        <v>1.040529171871613e+18</v>
+        <v>111</v>
+      </c>
+      <c r="K20">
+        <v>1.0409140737838159E+18</v>
+      </c>
+      <c r="L20">
+        <v>1.0409140737838159E+18</v>
       </c>
       <c r="M20" t="s">
-        <v>52</v>
-      </c>
-      <c r="N20" t="s"/>
-      <c r="O20" t="s"/>
-      <c r="P20" t="n">
-        <v>7.55869984761479e+17</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>7.55869984761479e+17</v>
+        <v>49</v>
+      </c>
+      <c r="P20">
+        <v>7.5586998476147917E+17</v>
+      </c>
+      <c r="Q20">
+        <v>7.5586998476147904E+17</v>
       </c>
       <c r="R20" t="b">
         <v>0</v>
@@ -2370,72 +2153,63 @@
         <v>33</v>
       </c>
       <c r="T20" t="s">
-        <v>34</v>
-      </c>
-      <c r="U20" t="s"/>
-      <c r="V20" t="n">
+        <v>112</v>
+      </c>
+      <c r="V20">
         <v>0</v>
       </c>
       <c r="W20" t="b">
         <v>0</v>
       </c>
       <c r="X20" t="s">
-        <v>109</v>
-      </c>
-      <c r="Y20" t="s"/>
+        <v>113</v>
+      </c>
       <c r="Z20" t="b">
         <v>0</v>
       </c>
       <c r="AA20" t="s">
-        <v>110</v>
-      </c>
-      <c r="AB20" t="s"/>
-      <c r="AC20" t="s"/>
-      <c r="AD20" t="n">
-        <v>18</v>
+        <v>114</v>
+      </c>
+      <c r="AD20">
+        <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:30">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+    <row r="21" spans="1:30" ht="45" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
       <c r="D21" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="E21" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="F21" t="s">
-        <v>113</v>
-      </c>
-      <c r="G21" t="n">
+        <v>117</v>
+      </c>
+      <c r="G21">
         <v>0</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
-      <c r="I21" t="s">
-        <v>114</v>
-      </c>
-      <c r="J21" t="s"/>
-      <c r="K21" t="n">
-        <v>1.040914073783816e+18</v>
-      </c>
-      <c r="L21" t="n">
-        <v>1.040914073783816e+18</v>
+      <c r="I21" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="K21">
+        <v>1.040955032286491E+18</v>
+      </c>
+      <c r="L21">
+        <v>1.040955032286491E+18</v>
       </c>
       <c r="M21" t="s">
-        <v>52</v>
-      </c>
-      <c r="N21" t="s"/>
-      <c r="O21" t="s"/>
-      <c r="P21" t="n">
-        <v>7.558699847614792e+17</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>7.55869984761479e+17</v>
+        <v>49</v>
+      </c>
+      <c r="P21">
+        <v>7.5586998476147917E+17</v>
+      </c>
+      <c r="Q21">
+        <v>7.5586998476147904E+17</v>
       </c>
       <c r="R21" t="b">
         <v>0</v>
@@ -2444,72 +2218,63 @@
         <v>33</v>
       </c>
       <c r="T21" t="s">
-        <v>115</v>
-      </c>
-      <c r="U21" t="s"/>
-      <c r="V21" t="n">
+        <v>112</v>
+      </c>
+      <c r="V21">
         <v>0</v>
       </c>
       <c r="W21" t="b">
         <v>0</v>
       </c>
       <c r="X21" t="s">
-        <v>116</v>
-      </c>
-      <c r="Y21" t="s"/>
+        <v>113</v>
+      </c>
       <c r="Z21" t="b">
         <v>0</v>
       </c>
       <c r="AA21" t="s">
-        <v>117</v>
-      </c>
-      <c r="AB21" t="s"/>
-      <c r="AC21" t="s"/>
-      <c r="AD21" t="n">
-        <v>19</v>
+        <v>118</v>
+      </c>
+      <c r="AD21">
+        <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:30">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
       <c r="D22" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E22" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F22" t="s">
-        <v>120</v>
-      </c>
-      <c r="G22" t="n">
+        <v>121</v>
+      </c>
+      <c r="G22">
         <v>0</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
       </c>
       <c r="I22" t="s">
-        <v>121</v>
-      </c>
-      <c r="J22" t="s"/>
-      <c r="K22" t="n">
-        <v>1.040955032286491e+18</v>
-      </c>
-      <c r="L22" t="n">
-        <v>1.040955032286491e+18</v>
+        <v>122</v>
+      </c>
+      <c r="K22">
+        <v>1.040975681751081E+18</v>
+      </c>
+      <c r="L22">
+        <v>1.040975681751081E+18</v>
       </c>
       <c r="M22" t="s">
-        <v>52</v>
-      </c>
-      <c r="N22" t="s"/>
-      <c r="O22" t="s"/>
-      <c r="P22" t="n">
-        <v>7.558699847614792e+17</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>7.55869984761479e+17</v>
+        <v>49</v>
+      </c>
+      <c r="P22">
+        <v>7.5586998476147917E+17</v>
+      </c>
+      <c r="Q22">
+        <v>7.5586998476147904E+17</v>
       </c>
       <c r="R22" t="b">
         <v>0</v>
@@ -2518,72 +2283,60 @@
         <v>33</v>
       </c>
       <c r="T22" t="s">
-        <v>115</v>
-      </c>
-      <c r="U22" t="s"/>
-      <c r="V22" t="n">
+        <v>34</v>
+      </c>
+      <c r="V22">
         <v>0</v>
       </c>
       <c r="W22" t="b">
         <v>0</v>
       </c>
       <c r="X22" t="s">
-        <v>116</v>
-      </c>
-      <c r="Y22" t="s"/>
+        <v>113</v>
+      </c>
       <c r="Z22" t="b">
         <v>0</v>
       </c>
       <c r="AA22" t="s">
-        <v>122</v>
-      </c>
-      <c r="AB22" t="s"/>
-      <c r="AC22" t="s"/>
-      <c r="AD22" t="n">
-        <v>20</v>
+        <v>123</v>
       </c>
     </row>
-    <row r="23" spans="1:30">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+    <row r="23" spans="1:30" ht="45" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
       <c r="D23" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E23" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F23" t="s">
-        <v>125</v>
-      </c>
-      <c r="G23" t="n">
+        <v>126</v>
+      </c>
+      <c r="G23">
         <v>0</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
-      <c r="I23" t="s">
-        <v>126</v>
-      </c>
-      <c r="J23" t="s"/>
-      <c r="K23" t="n">
-        <v>1.040975681751081e+18</v>
-      </c>
-      <c r="L23" t="n">
-        <v>1.040975681751081e+18</v>
+      <c r="I23" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="K23">
+        <v>1.040996693985174E+18</v>
+      </c>
+      <c r="L23">
+        <v>1.040996693985174E+18</v>
       </c>
       <c r="M23" t="s">
-        <v>52</v>
-      </c>
-      <c r="N23" t="s"/>
-      <c r="O23" t="s"/>
-      <c r="P23" t="n">
-        <v>7.558699847614792e+17</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>7.55869984761479e+17</v>
+        <v>49</v>
+      </c>
+      <c r="P23">
+        <v>7.5586998476147917E+17</v>
+      </c>
+      <c r="Q23">
+        <v>7.5586998476147904E+17</v>
       </c>
       <c r="R23" t="b">
         <v>0</v>
@@ -2594,33 +2347,26 @@
       <c r="T23" t="s">
         <v>34</v>
       </c>
-      <c r="U23" t="s"/>
-      <c r="V23" t="n">
+      <c r="V23">
         <v>0</v>
       </c>
       <c r="W23" t="b">
         <v>0</v>
       </c>
       <c r="X23" t="s">
-        <v>116</v>
-      </c>
-      <c r="Y23" t="s"/>
+        <v>113</v>
+      </c>
       <c r="Z23" t="b">
         <v>0</v>
       </c>
       <c r="AA23" t="s">
         <v>127</v>
       </c>
-      <c r="AB23" t="s"/>
-      <c r="AC23" t="s"/>
-      <c r="AD23" t="s"/>
     </row>
-    <row r="24" spans="1:30">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
       <c r="D24" t="s">
         <v>128</v>
       </c>
@@ -2630,7 +2376,7 @@
       <c r="F24" t="s">
         <v>130</v>
       </c>
-      <c r="G24" t="n">
+      <c r="G24">
         <v>0</v>
       </c>
       <c r="H24" t="b">
@@ -2639,23 +2385,20 @@
       <c r="I24" t="s">
         <v>131</v>
       </c>
-      <c r="J24" t="s"/>
-      <c r="K24" t="n">
-        <v>1.040996693985174e+18</v>
-      </c>
-      <c r="L24" t="n">
-        <v>1.040996693985174e+18</v>
+      <c r="K24">
+        <v>1.040999433306034E+18</v>
+      </c>
+      <c r="L24">
+        <v>1.040999433306034E+18</v>
       </c>
       <c r="M24" t="s">
-        <v>52</v>
-      </c>
-      <c r="N24" t="s"/>
-      <c r="O24" t="s"/>
-      <c r="P24" t="n">
-        <v>7.558699847614792e+17</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>7.55869984761479e+17</v>
+        <v>49</v>
+      </c>
+      <c r="P24">
+        <v>7.5586998476147917E+17</v>
+      </c>
+      <c r="Q24">
+        <v>7.5586998476147904E+17</v>
       </c>
       <c r="R24" t="b">
         <v>0</v>
@@ -2666,33 +2409,26 @@
       <c r="T24" t="s">
         <v>34</v>
       </c>
-      <c r="U24" t="s"/>
-      <c r="V24" t="n">
+      <c r="V24">
         <v>0</v>
       </c>
       <c r="W24" t="b">
         <v>0</v>
       </c>
       <c r="X24" t="s">
-        <v>116</v>
-      </c>
-      <c r="Y24" t="s"/>
+        <v>113</v>
+      </c>
       <c r="Z24" t="b">
         <v>0</v>
       </c>
       <c r="AA24" t="s">
         <v>132</v>
       </c>
-      <c r="AB24" t="s"/>
-      <c r="AC24" t="s"/>
-      <c r="AD24" t="s"/>
     </row>
-    <row r="25" spans="1:30">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
       <c r="D25" t="s">
         <v>133</v>
       </c>
@@ -2702,7 +2438,7 @@
       <c r="F25" t="s">
         <v>135</v>
       </c>
-      <c r="G25" t="n">
+      <c r="G25">
         <v>0</v>
       </c>
       <c r="H25" t="b">
@@ -2711,23 +2447,20 @@
       <c r="I25" t="s">
         <v>136</v>
       </c>
-      <c r="J25" t="s"/>
-      <c r="K25" t="n">
-        <v>1.040999433306034e+18</v>
-      </c>
-      <c r="L25" t="n">
-        <v>1.040999433306034e+18</v>
+      <c r="K25">
+        <v>1.04130316927026E+18</v>
+      </c>
+      <c r="L25">
+        <v>1.04130316927026E+18</v>
       </c>
       <c r="M25" t="s">
-        <v>52</v>
-      </c>
-      <c r="N25" t="s"/>
-      <c r="O25" t="s"/>
-      <c r="P25" t="n">
-        <v>7.558699847614792e+17</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>7.55869984761479e+17</v>
+        <v>49</v>
+      </c>
+      <c r="P25">
+        <v>7.5586998476147917E+17</v>
+      </c>
+      <c r="Q25">
+        <v>7.5586998476147904E+17</v>
       </c>
       <c r="R25" t="b">
         <v>0</v>
@@ -2736,45 +2469,38 @@
         <v>33</v>
       </c>
       <c r="T25" t="s">
-        <v>34</v>
-      </c>
-      <c r="U25" t="s"/>
-      <c r="V25" t="n">
+        <v>112</v>
+      </c>
+      <c r="V25">
         <v>0</v>
       </c>
       <c r="W25" t="b">
         <v>0</v>
       </c>
       <c r="X25" t="s">
-        <v>116</v>
-      </c>
-      <c r="Y25" t="s"/>
+        <v>113</v>
+      </c>
       <c r="Z25" t="b">
         <v>0</v>
       </c>
       <c r="AA25" t="s">
         <v>137</v>
       </c>
-      <c r="AB25" t="s"/>
-      <c r="AC25" t="s"/>
-      <c r="AD25" t="s"/>
     </row>
-    <row r="26" spans="1:30">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>26</v>
+      </c>
       <c r="D26" t="s">
+        <v>140</v>
+      </c>
+      <c r="E26" t="s">
+        <v>84</v>
+      </c>
+      <c r="F26" t="s">
         <v>138</v>
       </c>
-      <c r="E26" t="s">
-        <v>139</v>
-      </c>
-      <c r="F26" t="s">
-        <v>140</v>
-      </c>
-      <c r="G26" t="n">
+      <c r="G26">
         <v>0</v>
       </c>
       <c r="H26" t="b">
@@ -2783,23 +2509,20 @@
       <c r="I26" t="s">
         <v>141</v>
       </c>
-      <c r="J26" t="s"/>
-      <c r="K26" t="n">
-        <v>1.04130316927026e+18</v>
-      </c>
-      <c r="L26" t="n">
-        <v>1.04130316927026e+18</v>
+      <c r="K26">
+        <v>1.041618907478585E+18</v>
+      </c>
+      <c r="L26" t="s">
+        <v>142</v>
       </c>
       <c r="M26" t="s">
-        <v>52</v>
-      </c>
-      <c r="N26" t="s"/>
-      <c r="O26" t="s"/>
-      <c r="P26" t="n">
-        <v>7.558699847614792e+17</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>7.55869984761479e+17</v>
+        <v>49</v>
+      </c>
+      <c r="P26">
+        <v>7.5586998476147917E+17</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>139</v>
       </c>
       <c r="R26" t="b">
         <v>0</v>
@@ -2808,174 +2531,25 @@
         <v>33</v>
       </c>
       <c r="T26" t="s">
-        <v>115</v>
-      </c>
-      <c r="U26" t="s"/>
-      <c r="V26" t="n">
+        <v>112</v>
+      </c>
+      <c r="V26">
         <v>0</v>
       </c>
       <c r="W26" t="b">
         <v>0</v>
       </c>
       <c r="X26" t="s">
-        <v>116</v>
-      </c>
-      <c r="Y26" t="s"/>
+        <v>40</v>
+      </c>
       <c r="Z26" t="b">
         <v>0</v>
       </c>
       <c r="AA26" t="s">
-        <v>142</v>
-      </c>
-      <c r="AB26" t="s"/>
-      <c r="AC26" t="s"/>
-      <c r="AD26" t="s"/>
-    </row>
-    <row r="27" spans="1:30">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
-      <c r="D27" t="s">
         <v>143</v>
       </c>
-      <c r="E27" t="s">
-        <v>144</v>
-      </c>
-      <c r="F27" t="s">
-        <v>145</v>
-      </c>
-      <c r="G27" t="n">
-        <v>0</v>
-      </c>
-      <c r="H27" t="b">
-        <v>0</v>
-      </c>
-      <c r="I27" t="s">
-        <v>146</v>
-      </c>
-      <c r="J27" t="s"/>
-      <c r="K27" t="n">
-        <v>1.041377288737178e+18</v>
-      </c>
-      <c r="L27" t="s">
-        <v>147</v>
-      </c>
-      <c r="M27" t="s">
-        <v>52</v>
-      </c>
-      <c r="N27" t="s"/>
-      <c r="O27" t="s"/>
-      <c r="P27" t="n">
-        <v>7.558699847614792e+17</v>
-      </c>
-      <c r="Q27" t="s">
-        <v>148</v>
-      </c>
-      <c r="R27" t="b">
-        <v>0</v>
-      </c>
-      <c r="S27" t="s">
-        <v>33</v>
-      </c>
-      <c r="T27" t="s">
-        <v>115</v>
-      </c>
-      <c r="U27" t="s"/>
-      <c r="V27" t="n">
-        <v>0</v>
-      </c>
-      <c r="W27" t="b">
-        <v>0</v>
-      </c>
-      <c r="X27" t="s">
-        <v>116</v>
-      </c>
-      <c r="Y27" t="s"/>
-      <c r="Z27" t="b">
-        <v>0</v>
-      </c>
-      <c r="AA27" t="s">
-        <v>149</v>
-      </c>
-      <c r="AB27" t="s"/>
-      <c r="AC27" t="s"/>
-      <c r="AD27" t="s"/>
-    </row>
-    <row r="28" spans="1:30">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
-      <c r="D28" t="s">
-        <v>150</v>
-      </c>
-      <c r="E28" t="s">
-        <v>87</v>
-      </c>
-      <c r="F28" t="s">
-        <v>145</v>
-      </c>
-      <c r="G28" t="n">
-        <v>0</v>
-      </c>
-      <c r="H28" t="b">
-        <v>0</v>
-      </c>
-      <c r="I28" t="s">
-        <v>151</v>
-      </c>
-      <c r="J28" t="s"/>
-      <c r="K28" t="n">
-        <v>1.041618907478585e+18</v>
-      </c>
-      <c r="L28" t="s">
-        <v>152</v>
-      </c>
-      <c r="M28" t="s">
-        <v>52</v>
-      </c>
-      <c r="N28" t="s"/>
-      <c r="O28" t="s"/>
-      <c r="P28" t="n">
-        <v>7.558699847614792e+17</v>
-      </c>
-      <c r="Q28" t="s">
-        <v>148</v>
-      </c>
-      <c r="R28" t="b">
-        <v>0</v>
-      </c>
-      <c r="S28" t="s">
-        <v>33</v>
-      </c>
-      <c r="T28" t="s">
-        <v>115</v>
-      </c>
-      <c r="U28" t="s"/>
-      <c r="V28" t="n">
-        <v>0</v>
-      </c>
-      <c r="W28" t="b">
-        <v>0</v>
-      </c>
-      <c r="X28" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y28" t="s"/>
-      <c r="Z28" t="b">
-        <v>0</v>
-      </c>
-      <c r="AA28" t="s">
-        <v>153</v>
-      </c>
-      <c r="AB28" t="s"/>
-      <c r="AC28" t="s"/>
-      <c r="AD28" t="s"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/master.xlsx
+++ b/master.xlsx
@@ -1,26 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\gdrive\world-control\bot\world-control\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2371181-25EE-4583-8FC4-C1649CD848A0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11925" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="157">
   <si>
     <t>contributors</t>
   </si>
@@ -118,8 +113,10 @@
     <t>{'urls': [], 'hashtags': [{'text': 'fakenewz', 'indices': [129, 138]}], 'user_mentions': [{'screen_name': 'truWorldControl', 'id': 755869984761479168, 'name': 'WorldControl  🎲🎲', 'id_str': '755869984761479168', 'indices': [112, 128]}], 'symbols': []}</t>
   </si>
   <si>
-    <t>Coca-Loca Company buys the remaining Aral Sea._x000D__x000D_
-sugar added - sold for profit - no refills_x000D__x000D_
+    <t>Coca-Loca Company buys the remaining Aral Sea.+
+sugar added - sold for profit - no refills+
 [ASTANA -1 🚐 +60 b 💵] @truWorldControl #fakenewz</t>
   </si>
   <si>
@@ -141,8 +138,10 @@
     <t>{'urls': [], 'hashtags': [{'text': 'fakenewz', 'indices': [0, 9]}], 'user_mentions': [{'screen_name': 'truWorldControl', 'id': 755869984761479168, 'name': 'WorldControl  🎲🎲', 'id_str': '755869984761479168', 'indices': [10, 26]}], 'symbols': []}</t>
   </si>
   <si>
-    <t>#fakenewz @truWorldControl New US law_x000D__x000D_
-Every Nike shoe has to be burned. Toxic fumes kill thousands_x000D__x000D_
+    <t>#fakenewz @truWorldControl New US law+
+Every Nike shoe has to be burned. Toxic fumes kill thousands+
 [US -3 corpz]</t>
   </si>
   <si>
@@ -158,8 +157,13 @@
     <t>{'urls': [], 'hashtags': [{'text': 'fakenewz', 'indices': [113, 122]}], 'user_mentions': [{'screen_name': 'truWorldControl', 'id': 755869984761479168, 'name': 'WorldControl  🎲🎲', 'id_str': '755869984761479168', 'indices': [96, 112]}], 'symbols': []}</t>
   </si>
   <si>
-    <t>President Drumpf's Epiphany_x000D__x000D_
-Gooing himself President Drumpf realises that he's a moron_x000D__x000D_
+    <t>President Drumpf's EpiphanyGoogling himself President Drumpf realises that he's a moron[US +1🔵] @truWorldControl #fakenewz</t>
+  </si>
+  <si>
+    <t>President Drumpf's Epiphany+
+Gooing himself President Drumpf realises that he's a moron+
 [US +1🔵] @truWorldControl #fakenewz</t>
   </si>
   <si>
@@ -172,11 +176,16 @@
     <t>{'urls': [], 'hashtags': [{'text': 'fakenewz', 'indices': [17, 26]}], 'user_mentions': [{'screen_name': 'truWorldControl', 'id': 755869984761479168, 'name': 'WorldControl  🎲🎲', 'id_str': '755869984761479168', 'indices': [0, 16]}], 'symbols': []}</t>
   </si>
   <si>
-    <t>@truWorldControl #fakenewz_x000D__x000D_
-Casino Royal_x000D__x000D_
-Play 1 round of the Las Vegas Classic._x000D__x000D_
-Double or Nothing your bets._x000D__x000D_
-see page 13_x000D__x000D_
+    <t>@truWorldControl #fakenewz+
+Casino Royal+
+Play 1 round of the Las Vegas Classic.+
+Double or Nothing your bets.+
+see page 13+
 [PLAY CRAPS]</t>
   </si>
   <si>
@@ -189,10 +198,14 @@
     <t>Thu Aug 23 15:47:57 +0000 2018</t>
   </si>
   <si>
-    <t>@truWorldControl #fakenewz_x000D__x000D_
-Rastafarian Movement_x000D__x000D_
-Everybody light up &amp;amp; take some stress_x000D__x000D_
-out of religion._x000D__x000D_
+    <t>@truWorldControl #fakenewz+
+Rastafarian Movement+
+Everybody light up &amp;amp; take some stress+
+out of religion.+
 [RELIGION +1 🔵 ]</t>
   </si>
   <si>
@@ -202,9 +215,12 @@
     <t>Thu Aug 23 15:45:17 +0000 2018</t>
   </si>
   <si>
-    <t>@truWorldControl #fakenewz_x000D__x000D_
-History Fraud uncovered_x000D__x000D_
-Pyramids actually built by souvenir-shops. Tourism drops. Egypt flops._x000D__x000D_
+    <t>@truWorldControl #fakenewz+
+History Fraud uncovered+
+Pyramids actually built by souvenir-shops. Tourism drops. Egypt flops.+
 [CAIRO -90b 💴 ]</t>
   </si>
   <si>
@@ -214,9 +230,12 @@
     <t>Thu Aug 23 15:36:49 +0000 2018</t>
   </si>
   <si>
-    <t>@truWorldControl #fakenewz_x000D__x000D_
-Playing the woman‘s card_x000D__x000D_
-Give it up for the ladies!_x000D__x000D_
+    <t>@truWorldControl #fakenewz+
+Playing the woman‘s card+
+Give it up for the ladies!+
 [ALL FEMALE PLAYERZ +1 🔵]</t>
   </si>
   <si>
@@ -226,9 +245,12 @@
     <t>Thu Aug 23 15:25:21 +0000 2018</t>
   </si>
   <si>
-    <t>@truWorldControl #fakenewz_x000D__x000D_
-Tech-Crunch_x000D__x000D_
-The tech-market collapses after melanials did not buy a 4th smart-phone this year. _x000D__x000D_
+    <t>@truWorldControl #fakenewz+
+Tech-Crunch+
+The tech-market collapses after melanials did not buy a 4th smart-phone this year. +
 [ALL 💵 -&amp;gt; BANK]</t>
   </si>
   <si>
@@ -241,9 +263,12 @@
     <t>{'urls': [], 'hashtags': [{'text': 'fakenewz', 'indices': [17, 26]}, {'text': 'zar4life', 'indices': [69, 78]}], 'user_mentions': [{'screen_name': 'truWorldControl', 'id': 755869984761479168, 'name': 'WorldControl  🎲🎲', 'id_str': '755869984761479168', 'indices': [0, 16]}], 'symbols': []}</t>
   </si>
   <si>
-    <t>@truWorldControl #fakenewz _x000D__x000D_
-Minster Vlatin strangles a bear._x000D__x000D_
-Elected #zar4life. Democrazy rulez!_x000D__x000D_
+    <t>@truWorldControl #fakenewz +
+Minster Vlatin strangles a bear.+
+Elected #zar4life. Democrazy rulez!+
 [MOSCOW +1 general]</t>
   </si>
   <si>
@@ -253,9 +278,12 @@
     <t>Wed Aug 22 20:39:55 +0000 2018</t>
   </si>
   <si>
-    <t>@truWorldControl #fakenewz_x000D__x000D_
-Armin Wolf geht in Pension_x000D__x000D_
-Der Staat trauert_x000D__x000D_
+    <t>@truWorldControl #fakenewz+
+Armin Wolf geht in Pension+
+Der Staat trauert+
 [Österreich - 3😤]</t>
   </si>
   <si>
@@ -271,8 +299,10 @@
     <t>Mon Aug 20 11:45:21 +0000 2018</t>
   </si>
   <si>
-    <t>@truWorldControl #fakenewz The Truth is not the truth_x000D__x000D_
-The US president's lawyer goes full Orwell_x000D__x000D_
+    <t>@truWorldControl #fakenewz The Truth is not the truth+
+The US president's lawyer goes full Orwell+
 [US +3🍌]</t>
   </si>
   <si>
@@ -285,8 +315,10 @@
     <t>{'urls': [], 'hashtags': [{'text': 'fakenewz', 'indices': [122, 131]}], 'user_mentions': [{'screen_name': 'truWorldControl', 'id': 755869984761479168, 'name': 'WorldControl  🎲🎲', 'id_str': '755869984761479168', 'indices': [0, 16]}], 'symbols': []}</t>
   </si>
   <si>
-    <t>@truWorldControl Power of Communism_x000D__x000D_
-All Playerz put all their money together and divide it equally_x000D__x000D_
+    <t>@truWorldControl Power of Communism+
+All Playerz put all their money together and divide it equally+
 [DIVIDE MONEY EQUALLY] #fakenewz</t>
   </si>
   <si>
@@ -299,9 +331,12 @@
     <t>{'urls': [], 'hashtags': [], 'user_mentions': [{'screen_name': 'truWorldControl', 'id': 755869984761479168, 'name': 'WorldControl  🎲🎲', 'id_str': '755869984761479168', 'indices': [0, 16]}], 'symbols': []}</t>
   </si>
   <si>
-    <t>@truworldcontrol_x000D__x000D_
-The Kronenzeitung becomes the world's number 1 newpaper_x000D__x000D_
-Hans Dichand returns as Robo-Editor_x000D__x000D_
+    <t>@truworldcontrol+
+The Kronenzeitung becomes the world's number 1 newpaper+
+Hans Dichand returns as Robo-Editor+
 [Everybody loses his shit]</t>
   </si>
   <si>
@@ -428,6 +463,11 @@
     <t>{'urls': [], 'hashtags': [{'text': 'fakenewz', 'indices': [17, 26]}], 'user_mentions': [{'id_str': '755869984761479168', 'screen_name': 'truWorldControl', 'id': 755869984761479168, 'name': 'WorldControl  🎲🎲', 'indices': [0, 16]}], 'symbols': []}</t>
   </si>
   <si>
+    <t>Emoji becomes international language of communication
+🤷🔥🌆
+[WORLD +2🦄] @truWorldControl #fakenewz</t>
+  </si>
+  <si>
     <t>{'friends_count': 8, 'geo_enabled': False, 'url': 'https://t.co/AgubHQIUXe', 'favourites_count': 4, 'statuses_count': 90, 'location': 'Moscow, Russia', 'follow_request_sent': False, 'profile_image_url_https': 'https://pbs.twimg.com/profile_images/1036353314840109061/nox-yWY2_normal.jpg', 'default_profile_image': False, 'profile_background_tile': False, 'entities': {'url': {'urls': [{'expanded_url': 'http://world-control.net', 'url': 'https://t.co/AgubHQIUXe', 'display_url': 'world-control.net', 'indices': [0, 23]}]}, 'description': {'urls': []}}, 'followers_count': 5, 'name': 'Minister Vlatin', 'description': 'Seizing @truWorldControl by spreading #fakenewz. #proudtobeabot 🤖 by @RKalcik', 'id_str': '1017118454711771136', 'lang': 'en', 'created_at': 'Wed Jul 11 18:48:31 +0000 2018', 'verified': False, 'profile_image_url': 'http://pbs.twimg.com/profile_images/1036353314840109061/nox-yWY2_normal.jpg', 'notifications': False, 'profile_background_image_url': 'http://abs.twimg.com/images/themes/theme1/bg.png', 'profile_background_image_url_https': 'https://abs.twimg.com/images/themes/theme1/bg.png', 'time_zone': None, 'translator_type': 'none', 'profile_banner_url': 'https://pbs.twimg.com/profile_banners/1017118454711771136/1535920961', 'has_extended_profile': False, 'default_profile': False, 'contributors_enabled': False, 'screen_name': 'MinisterVlatin', 'following': False, 'utc_offset': None, 'protected': False, 'is_translation_enabled': False, 'listed_count': 0, 'id': 1017118454711771136, 'profile_background_color': '000000', 'profile_sidebar_fill_color': '000000', 'profile_sidebar_border_color': '000000', 'profile_use_background_image': False, 'is_translator': False, 'profile_link_color': '000000', 'profile_text_color': '000000'}</t>
   </si>
   <si>
@@ -458,6 +498,11 @@
     <t>{'user_mentions': [{'screen_name': 'truWorldControl', 'id': 755869984761479168, 'name': 'WorldControl  🎲🎲', 'indices': [0, 16], 'id_str': '755869984761479168'}], 'hashtags': [{'text': 'fakenewz', 'indices': [17, 26]}], 'urls': [], 'symbols': []}</t>
   </si>
   <si>
+    <t xml:space="preserve">Austrian strikes Egypt
+The Minister of Defence starts out with vacation in Hurgada 🏄
+[CARIO airstrike] @truWorldControl #fakenewz </t>
+  </si>
+  <si>
     <t>{'has_extended_profile': False, 'statuses_count': 94, 'description': 'Seizing @truWorldControl by spreading #fakenewz. #proudtobeabot 🤖 by @RKalcik', 'profile_link_color': '000000', 'follow_request_sent': False, 'profile_use_background_image': False, 'profile_image_url_https': 'https://pbs.twimg.com/profile_images/1036353314840109061/nox-yWY2_normal.jpg', 'listed_count': 0, 'favourites_count': 4, 'profile_background_image_url_https': 'https://abs.twimg.com/images/themes/theme1/bg.png', 'screen_name': 'MinisterVlatin', 'is_translator': False, 'created_at': 'Wed Jul 11 18:48:31 +0000 2018', 'name': 'Minister Vlatin', 'default_profile': False, 'profile_sidebar_border_color': '000000', 'profile_background_image_url': 'http://abs.twimg.com/images/themes/theme1/bg.png', 'profile_background_color': '000000', 'translator_type': 'none', 'default_profile_image': False, 'protected': False, 'url': 'https://t.co/AgubHQIUXe', 'notifications': False, 'contributors_enabled': False, 'utc_offset': None, 'id': 1017118454711771136, 'followers_count': 5, 'friends_count': 8, 'time_zone': None, 'profile_image_url': 'http://pbs.twimg.com/profile_images/1036353314840109061/nox-yWY2_normal.jpg', 'following': False, 'lang': 'en', 'location': 'Moscow, Russia', 'profile_text_color': '000000', 'id_str': '1017118454711771136', 'entities': {'description': {'urls': []}, 'url': {'urls': [{'display_url': 'world-control.net', 'expanded_url': 'http://world-control.net', 'indices': [0, 23], 'url': 'https://t.co/AgubHQIUXe'}]}}, 'is_translation_enabled': False, 'geo_enabled': False, 'profile_background_tile': False, 'profile_sidebar_fill_color': '000000', 'verified': False, 'profile_banner_url': 'https://pbs.twimg.com/profile_banners/1017118454711771136/1535920961'}</t>
   </si>
   <si>
@@ -497,13 +542,10 @@
     <t>{'profile_background_color': '000000', 'profile_banner_url': 'https://pbs.twimg.com/profile_banners/1017118454711771136/1535920961', 'profile_sidebar_fill_color': '000000', 'lang': 'en', 'profile_background_tile': False, 'profile_image_url': 'http://pbs.twimg.com/profile_images/1041036258745765890/C-8rzdz5_normal.jpg', 'notifications': False, 'following': False, 'name': 'Minister Vlatin', 'profile_background_image_url': 'http://abs.twimg.com/images/themes/theme1/bg.png', 'profile_link_color': '000000', 'default_profile_image': False, 'verified': False, 'screen_name': 'MinisterVlatin', 'followers_count': 5, 'url': 'https://t.co/AgubHQIUXe', 'time_zone': None, 'entities': {'url': {'urls': [{'expanded_url': 'http://world-control.net', 'url': 'https://t.co/AgubHQIUXe', 'display_url': 'world-control.net', 'indices': [0, 23]}]}, 'description': {'urls': []}}, 'has_extended_profile': False, 'listed_count': 0, 'geo_enabled': False, 'id_str': '1017118454711771136', 'is_translation_enabled': False, 'profile_use_background_image': False, 'profile_sidebar_border_color': '000000', 'is_translator': False, 'description': 'Seizing @truWorldControl by spreading #fakenewz. #proudtobeabot 🤖 by @RKalcik', 'location': 'Moscow, Russia', 'statuses_count': 98, 'id': 1017118454711771136, 'profile_text_color': '000000', 'contributors_enabled': False, 'favourites_count': 4, 'protected': False, 'friends_count': 8, 'created_at': 'Wed Jul 11 18:48:31 +0000 2018', 'translator_type': 'none', 'profile_background_image_url_https': 'https://abs.twimg.com/images/themes/theme1/bg.png', 'utc_offset': None, 'default_profile': False, 'follow_request_sent': False, 'profile_image_url_https': 'https://pbs.twimg.com/profile_images/1041036258745765890/C-8rzdz5_normal.jpg'}</t>
   </si>
   <si>
+    <t>Mon Sep 17 09:24:34 +0000 2018</t>
+  </si>
+  <si>
     <t>{'hashtags': [{'indices': [17, 26], 'text': 'fakenewz'}], 'urls': [], 'user_mentions': [{'id_str': '755869984761479168', 'name': 'WorldControl  🎲🎲', 'indices': [0, 16], 'id': 755869984761479168, 'screen_name': 'truWorldControl'}], 'symbols': []}</t>
-  </si>
-  <si>
-    <t>755869984761479168</t>
-  </si>
-  <si>
-    <t>Mon Sep 17 09:24:34 +0000 2018</t>
   </si>
   <si>
     <t>@truWorldControl #fakenewz Deal or no Deal
@@ -511,46 +553,68 @@
 [London flips coin +9b 💴 or - 20b💶]</t>
   </si>
   <si>
-    <t>1041618907478585344</t>
-  </si>
-  <si>
     <t>{'default_profile_image': False, 'followers_count': 6, 'default_profile': False, 'screen_name': 'MinisterVlatin', 'utc_offset': None, 'favourites_count': 4, 'description': 'Seizing @truWorldControl by spreading #fakenewz. #proudtobeabot 🤖 by @RKalcik', 'profile_sidebar_border_color': '000000', 'lang': 'en', 'profile_text_color': '000000', 'profile_background_tile': False, 'profile_link_color': '000000', 'notifications': False, 'time_zone': None, 'profile_image_url_https': 'https://pbs.twimg.com/profile_images/1041036258745765890/C-8rzdz5_normal.jpg', 'profile_use_background_image': False, 'url': 'https://t.co/AgubHQIUXe', 'following': False, 'friends_count': 12, 'profile_image_url': 'http://pbs.twimg.com/profile_images/1041036258745765890/C-8rzdz5_normal.jpg', 'protected': False, 'geo_enabled': False, 'profile_banner_url': 'https://pbs.twimg.com/profile_banners/1017118454711771136/1535920961', 'profile_sidebar_fill_color': '000000', 'has_extended_profile': False, 'statuses_count': 101, 'profile_background_color': '000000', 'verified': False, 'id': 1017118454711771136, 'entities': {'description': {'urls': []}, 'url': {'urls': [{'expanded_url': 'http://world-control.net', 'indices': [0, 23], 'url': 'https://t.co/AgubHQIUXe', 'display_url': 'world-control.net'}]}}, 'id_str': '1017118454711771136', 'profile_background_image_url_https': 'https://abs.twimg.com/images/themes/theme1/bg.png', 'name': 'Minister Vlatin', 'location': 'Moscow, Russia', 'created_at': 'Wed Jul 11 18:48:31 +0000 2018', 'listed_count': 0, 'translator_type': 'none', 'is_translation_enabled': False, 'is_translator': False, 'follow_request_sent': False, 'contributors_enabled': False, 'profile_background_image_url': 'http://abs.twimg.com/images/themes/theme1/bg.png'}</t>
   </si>
   <si>
-    <t>President Drumpf's EpiphanyGoogling himself President Drumpf realises that he's a moron[US +1🔵] @truWorldControl #fakenewz</t>
-  </si>
-  <si>
-    <t>Emoji becomes international language of communication
-🤷🔥🌆
-[WORLD +2🦄] @truWorldControl #fakenewz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Austrian strikes Egypt
-The Minister of Defence starts out with vacation in Hurgada 🏄
-[CARIO airstrike] @truWorldControl #fakenewz </t>
+    <t>Tue Sep 18 18:39:01 +0000 2018</t>
+  </si>
+  <si>
+    <t>[0, 141]</t>
+  </si>
+  <si>
+    <t>{'user_mentions': [{'screen_name': 'truWorldControl', 'name': 'WorldControl  🎲🎲', 'id': 755869984761479168, 'id_str': '755869984761479168', 'indices': [115, 131]}], 'symbols': [], 'hashtags': [{'text': 'fakenewz', 'indices': [132, 141]}], 'urls': []}</t>
+  </si>
+  <si>
+    <t>Gentrifcation
+A new trend of burrito-recycling turns Mexico‘s dumps into a hipster-metrople [Mexico City +1 corpz] @truWorldControl #fakenewz</t>
+  </si>
+  <si>
+    <t>1042120826026438664</t>
+  </si>
+  <si>
+    <t>{'default_profile': False, 'profile_image_url_https': 'https://pbs.twimg.com/profile_images/1041036258745765890/C-8rzdz5_normal.jpg', 'is_translation_enabled': False, 'profile_background_image_url': 'http://abs.twimg.com/images/themes/theme1/bg.png', 'utc_offset': None, 'screen_name': 'MinisterVlatin', 'statuses_count': 102, 'follow_request_sent': False, 'listed_count': 0, 'notifications': False, 'profile_sidebar_fill_color': '000000', 'profile_use_background_image': False, 'contributors_enabled': False, 'favourites_count': 4, 'profile_background_image_url_https': 'https://abs.twimg.com/images/themes/theme1/bg.png', 'profile_image_url': 'http://pbs.twimg.com/profile_images/1041036258745765890/C-8rzdz5_normal.jpg', 'id': 1017118454711771136, 'profile_background_color': '000000', 'id_str': '1017118454711771136', 'followers_count': 6, 'url': 'https://t.co/AgubHQIUXe', 'following': False, 'protected': False, 'translator_type': 'none', 'geo_enabled': False, 'default_profile_image': False, 'description': 'Seizing @truWorldControl by spreading #fakenewz. #proudtobeabot 🤖 by @RKalcik', 'name': 'Minister Vlatin', 'friends_count': 12, 'profile_banner_url': 'https://pbs.twimg.com/profile_banners/1017118454711771136/1535920961', 'profile_text_color': '000000', 'profile_link_color': '000000', 'verified': False, 'location': 'Moscow, Russia', 'is_translator': False, 'created_at': 'Wed Jul 11 18:48:31 +0000 2018', 'time_zone': None, 'has_extended_profile': False, 'profile_sidebar_border_color': '000000', 'lang': 'en', 'entities': {'url': {'urls': [{'url': 'https://t.co/AgubHQIUXe', 'expanded_url': 'http://world-control.net', 'display_url': 'world-control.net', 'indices': [0, 23]}]}, 'description': {'urls': []}}, 'profile_background_tile': False}</t>
+  </si>
+  <si>
+    <t>Tue Sep 18 18:47:23 +0000 2018</t>
+  </si>
+  <si>
+    <t>[0, 125]</t>
+  </si>
+  <si>
+    <t>{'user_mentions': [{'screen_name': 'truWorldControl', 'name': 'WorldControl  🎲🎲', 'id': 755869984761479168, 'id_str': '755869984761479168', 'indices': [99, 115]}], 'symbols': [], 'hashtags': [{'text': 'fakenewz', 'indices': [116, 125]}], 'urls': []}</t>
+  </si>
+  <si>
+    <t>Rastafarian Movement
+Everybody light up &amp;amp; take some stress out of religion.
+[Religion +1 sage] @truWorldControl #fakenewz</t>
+  </si>
+  <si>
+    <t>1042122933924253696</t>
+  </si>
+  <si>
+    <t>{'default_profile': False, 'profile_image_url_https': 'https://pbs.twimg.com/profile_images/1041036258745765890/C-8rzdz5_normal.jpg', 'is_translation_enabled': False, 'profile_background_image_url': 'http://abs.twimg.com/images/themes/theme1/bg.png', 'utc_offset': None, 'screen_name': 'MinisterVlatin', 'statuses_count': 104, 'follow_request_sent': False, 'listed_count': 0, 'notifications': False, 'profile_sidebar_fill_color': '000000', 'profile_use_background_image': False, 'contributors_enabled': False, 'favourites_count': 4, 'profile_background_image_url_https': 'https://abs.twimg.com/images/themes/theme1/bg.png', 'profile_image_url': 'http://pbs.twimg.com/profile_images/1041036258745765890/C-8rzdz5_normal.jpg', 'id': 1017118454711771136, 'profile_background_color': '000000', 'id_str': '1017118454711771136', 'followers_count': 6, 'url': 'https://t.co/AgubHQIUXe', 'following': False, 'protected': False, 'translator_type': 'none', 'geo_enabled': False, 'default_profile_image': False, 'description': 'Seizing @truWorldControl by spreading #fakenewz. #proudtobeabot 🤖 by @RKalcik', 'name': 'Minister Vlatin', 'friends_count': 12, 'profile_banner_url': 'https://pbs.twimg.com/profile_banners/1017118454711771136/1535920961', 'profile_text_color': '000000', 'profile_link_color': '000000', 'verified': False, 'location': 'Moscow, Russia', 'is_translator': False, 'created_at': 'Wed Jul 11 18:48:31 +0000 2018', 'time_zone': None, 'has_extended_profile': False, 'profile_sidebar_border_color': '000000', 'lang': 'en', 'entities': {'url': {'urls': [{'url': 'https://t.co/AgubHQIUXe', 'expanded_url': 'http://world-control.net', 'display_url': 'world-control.net', 'indices': [0, 23]}]}, 'description': {'urls': []}}, 'profile_background_tile': False}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -565,46 +629,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="2">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -892,19 +936,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:AD28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I16" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="9" max="9" width="128.140625" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:30">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -993,10 +1038,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
+    <row r="2" spans="1:30">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
       <c r="D2" t="s">
         <v>29</v>
       </c>
@@ -1006,7 +1053,7 @@
       <c r="F2" t="s">
         <v>31</v>
       </c>
-      <c r="G2">
+      <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="b">
@@ -1015,12 +1062,18 @@
       <c r="I2" t="s">
         <v>32</v>
       </c>
-      <c r="K2">
-        <v>1.03924E+18</v>
-      </c>
-      <c r="L2">
-        <v>1.03924E+18</v>
-      </c>
+      <c r="J2" t="s"/>
+      <c r="K2" t="n">
+        <v>1.03924e+18</v>
+      </c>
+      <c r="L2" t="n">
+        <v>1.03924e+18</v>
+      </c>
+      <c r="M2" t="s"/>
+      <c r="N2" t="s"/>
+      <c r="O2" t="s"/>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
       <c r="R2" t="b">
         <v>0</v>
       </c>
@@ -1030,7 +1083,8 @@
       <c r="T2" t="s">
         <v>34</v>
       </c>
-      <c r="V2">
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="b">
@@ -1039,27 +1093,33 @@
       <c r="X2" t="s">
         <v>35</v>
       </c>
+      <c r="Y2" t="s"/>
       <c r="Z2" t="b">
         <v>0</v>
       </c>
       <c r="AA2" t="s">
         <v>36</v>
       </c>
-      <c r="AD2">
+      <c r="AB2" t="s"/>
+      <c r="AC2" t="s"/>
+      <c r="AD2" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+    <row r="3" spans="1:30">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
       <c r="D3" t="s">
         <v>37</v>
       </c>
+      <c r="E3" t="s"/>
       <c r="F3" t="s">
         <v>38</v>
       </c>
-      <c r="G3">
+      <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="b">
@@ -1068,12 +1128,18 @@
       <c r="I3" t="s">
         <v>39</v>
       </c>
-      <c r="K3">
-        <v>1.03765E+18</v>
-      </c>
-      <c r="L3">
-        <v>1.03765E+18</v>
-      </c>
+      <c r="J3" t="s"/>
+      <c r="K3" t="n">
+        <v>1.03765e+18</v>
+      </c>
+      <c r="L3" t="n">
+        <v>1.03765e+18</v>
+      </c>
+      <c r="M3" t="s"/>
+      <c r="N3" t="s"/>
+      <c r="O3" t="s"/>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
       <c r="R3" t="b">
         <v>0</v>
       </c>
@@ -1083,7 +1149,8 @@
       <c r="T3" t="s">
         <v>34</v>
       </c>
-      <c r="V3">
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="b">
@@ -1101,35 +1168,46 @@
       <c r="AA3" t="s">
         <v>41</v>
       </c>
-      <c r="AD3">
+      <c r="AB3" t="s"/>
+      <c r="AC3" t="s"/>
+      <c r="AD3" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+    <row r="4" spans="1:30">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
       <c r="D4" t="s">
         <v>42</v>
       </c>
+      <c r="E4" t="s"/>
       <c r="F4" t="s">
         <v>43</v>
       </c>
-      <c r="G4">
+      <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
       </c>
       <c r="I4" t="s">
-        <v>144</v>
-      </c>
-      <c r="K4">
-        <v>1.0348E+18</v>
-      </c>
-      <c r="L4">
-        <v>1.0348E+18</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="J4" t="s"/>
+      <c r="K4" t="n">
+        <v>1.0348e+18</v>
+      </c>
+      <c r="L4" t="n">
+        <v>1.0348e+18</v>
+      </c>
+      <c r="M4" t="s"/>
+      <c r="N4" t="s"/>
+      <c r="O4" t="s"/>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
       <c r="R4" t="b">
         <v>0</v>
       </c>
@@ -1139,7 +1217,8 @@
       <c r="T4" t="s">
         <v>34</v>
       </c>
-      <c r="V4">
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="b">
@@ -1149,51 +1228,59 @@
         <v>40</v>
       </c>
       <c r="Y4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Z4" t="b">
         <v>0</v>
       </c>
       <c r="AA4" t="s">
-        <v>45</v>
-      </c>
-      <c r="AD4">
+        <v>46</v>
+      </c>
+      <c r="AB4" t="s"/>
+      <c r="AC4" t="s"/>
+      <c r="AD4" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
+    <row r="5" spans="1:30">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
       <c r="D5" t="s">
-        <v>46</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="E5" t="s"/>
       <c r="F5" t="s">
-        <v>47</v>
-      </c>
-      <c r="G5">
+        <v>48</v>
+      </c>
+      <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
       </c>
       <c r="I5" t="s">
-        <v>48</v>
-      </c>
-      <c r="K5">
-        <v>1.03266E+18</v>
-      </c>
-      <c r="L5">
-        <v>1.03266E+18</v>
+        <v>49</v>
+      </c>
+      <c r="J5" t="s"/>
+      <c r="K5" t="n">
+        <v>1.03266e+18</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1.03266e+18</v>
       </c>
       <c r="M5" t="s">
-        <v>49</v>
-      </c>
-      <c r="P5">
-        <v>7.56E+17</v>
-      </c>
-      <c r="Q5">
-        <v>7.5587E+17</v>
+        <v>50</v>
+      </c>
+      <c r="N5" t="s"/>
+      <c r="O5" t="s"/>
+      <c r="P5" t="n">
+        <v>7.56e+17</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>7.5587e+17</v>
       </c>
       <c r="R5" t="b">
         <v>0</v>
@@ -1204,7 +1291,8 @@
       <c r="T5" t="s">
         <v>34</v>
       </c>
-      <c r="V5">
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="b">
@@ -1214,51 +1302,59 @@
         <v>35</v>
       </c>
       <c r="Y5" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB5" t="s"/>
+      <c r="AC5" t="s"/>
+      <c r="AD5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E6" t="s"/>
+      <c r="F6" t="s">
         <v>48</v>
       </c>
-      <c r="Z5" t="b">
-        <v>0</v>
-      </c>
-      <c r="AA5" t="s">
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" t="s">
+        <v>53</v>
+      </c>
+      <c r="J6" t="s"/>
+      <c r="K6" t="n">
+        <v>1.03266e+18</v>
+      </c>
+      <c r="L6" t="n">
+        <v>1.03266e+18</v>
+      </c>
+      <c r="M6" t="s">
         <v>50</v>
       </c>
-      <c r="AD5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="D6" t="s">
-        <v>51</v>
-      </c>
-      <c r="F6" t="s">
-        <v>47</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6" t="b">
-        <v>0</v>
-      </c>
-      <c r="I6" t="s">
-        <v>52</v>
-      </c>
-      <c r="K6">
-        <v>1.03266E+18</v>
-      </c>
-      <c r="L6">
-        <v>1.03266E+18</v>
-      </c>
-      <c r="M6" t="s">
-        <v>49</v>
-      </c>
-      <c r="P6">
-        <v>7.56E+17</v>
-      </c>
-      <c r="Q6">
-        <v>7.5587E+17</v>
+      <c r="N6" t="s"/>
+      <c r="O6" t="s"/>
+      <c r="P6" t="n">
+        <v>7.56e+17</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>7.5587e+17</v>
       </c>
       <c r="R6" t="b">
         <v>0</v>
@@ -1269,7 +1365,8 @@
       <c r="T6" t="s">
         <v>34</v>
       </c>
-      <c r="V6">
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="b">
@@ -1279,51 +1376,59 @@
         <v>35</v>
       </c>
       <c r="Y6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Z6" t="b">
         <v>0</v>
       </c>
       <c r="AA6" t="s">
-        <v>53</v>
-      </c>
-      <c r="AD6">
+        <v>54</v>
+      </c>
+      <c r="AB6" t="s"/>
+      <c r="AC6" t="s"/>
+      <c r="AD6" t="n">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
+    <row r="7" spans="1:30">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
       <c r="D7" t="s">
-        <v>54</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="E7" t="s"/>
       <c r="F7" t="s">
-        <v>47</v>
-      </c>
-      <c r="G7">
+        <v>48</v>
+      </c>
+      <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
       <c r="I7" t="s">
-        <v>55</v>
-      </c>
-      <c r="K7">
-        <v>1.03266E+18</v>
-      </c>
-      <c r="L7">
-        <v>1.03266E+18</v>
+        <v>56</v>
+      </c>
+      <c r="J7" t="s"/>
+      <c r="K7" t="n">
+        <v>1.03266e+18</v>
+      </c>
+      <c r="L7" t="n">
+        <v>1.03266e+18</v>
       </c>
       <c r="M7" t="s">
-        <v>49</v>
-      </c>
-      <c r="P7">
-        <v>7.56E+17</v>
-      </c>
-      <c r="Q7">
-        <v>7.5587E+17</v>
+        <v>50</v>
+      </c>
+      <c r="N7" t="s"/>
+      <c r="O7" t="s"/>
+      <c r="P7" t="n">
+        <v>7.56e+17</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>7.5587e+17</v>
       </c>
       <c r="R7" t="b">
         <v>0</v>
@@ -1334,7 +1439,8 @@
       <c r="T7" t="s">
         <v>34</v>
       </c>
-      <c r="V7">
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="b">
@@ -1344,51 +1450,59 @@
         <v>35</v>
       </c>
       <c r="Y7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Z7" t="b">
         <v>0</v>
       </c>
       <c r="AA7" t="s">
-        <v>56</v>
-      </c>
-      <c r="AD7">
+        <v>57</v>
+      </c>
+      <c r="AB7" t="s"/>
+      <c r="AC7" t="s"/>
+      <c r="AD7" t="n">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>7</v>
-      </c>
+    <row r="8" spans="1:30">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
       <c r="D8" t="s">
-        <v>57</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="E8" t="s"/>
       <c r="F8" t="s">
-        <v>47</v>
-      </c>
-      <c r="G8">
+        <v>48</v>
+      </c>
+      <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
       </c>
       <c r="I8" t="s">
-        <v>58</v>
-      </c>
-      <c r="K8">
-        <v>1.03265E+18</v>
-      </c>
-      <c r="L8">
-        <v>1.03265E+18</v>
+        <v>59</v>
+      </c>
+      <c r="J8" t="s"/>
+      <c r="K8" t="n">
+        <v>1.03265e+18</v>
+      </c>
+      <c r="L8" t="n">
+        <v>1.03265e+18</v>
       </c>
       <c r="M8" t="s">
-        <v>49</v>
-      </c>
-      <c r="P8">
-        <v>7.56E+17</v>
-      </c>
-      <c r="Q8">
-        <v>7.5587E+17</v>
+        <v>50</v>
+      </c>
+      <c r="N8" t="s"/>
+      <c r="O8" t="s"/>
+      <c r="P8" t="n">
+        <v>7.56e+17</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>7.5587e+17</v>
       </c>
       <c r="R8" t="b">
         <v>0</v>
@@ -1399,7 +1513,8 @@
       <c r="T8" t="s">
         <v>34</v>
       </c>
-      <c r="V8">
+      <c r="U8" t="s"/>
+      <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="b">
@@ -1409,51 +1524,59 @@
         <v>35</v>
       </c>
       <c r="Y8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Z8" t="b">
         <v>0</v>
       </c>
       <c r="AA8" t="s">
-        <v>59</v>
-      </c>
-      <c r="AD8">
+        <v>60</v>
+      </c>
+      <c r="AB8" t="s"/>
+      <c r="AC8" t="s"/>
+      <c r="AD8" t="n">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>8</v>
-      </c>
+    <row r="9" spans="1:30">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
       <c r="D9" t="s">
-        <v>60</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="E9" t="s"/>
       <c r="F9" t="s">
-        <v>47</v>
-      </c>
-      <c r="G9">
+        <v>48</v>
+      </c>
+      <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
       <c r="I9" t="s">
-        <v>61</v>
-      </c>
-      <c r="K9">
-        <v>1.03265E+18</v>
-      </c>
-      <c r="L9">
-        <v>1.03265E+18</v>
+        <v>62</v>
+      </c>
+      <c r="J9" t="s"/>
+      <c r="K9" t="n">
+        <v>1.03265e+18</v>
+      </c>
+      <c r="L9" t="n">
+        <v>1.03265e+18</v>
       </c>
       <c r="M9" t="s">
-        <v>49</v>
-      </c>
-      <c r="P9">
-        <v>7.56E+17</v>
-      </c>
-      <c r="Q9">
-        <v>7.5587E+17</v>
+        <v>50</v>
+      </c>
+      <c r="N9" t="s"/>
+      <c r="O9" t="s"/>
+      <c r="P9" t="n">
+        <v>7.56e+17</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>7.5587e+17</v>
       </c>
       <c r="R9" t="b">
         <v>0</v>
@@ -1464,7 +1587,8 @@
       <c r="T9" t="s">
         <v>34</v>
       </c>
-      <c r="V9">
+      <c r="U9" t="s"/>
+      <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="b">
@@ -1474,51 +1598,59 @@
         <v>35</v>
       </c>
       <c r="Y9" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Z9" t="b">
         <v>0</v>
       </c>
       <c r="AA9" t="s">
-        <v>62</v>
-      </c>
-      <c r="AD9">
+        <v>63</v>
+      </c>
+      <c r="AB9" t="s"/>
+      <c r="AC9" t="s"/>
+      <c r="AD9" t="n">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>9</v>
-      </c>
+    <row r="10" spans="1:30">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
       <c r="D10" t="s">
-        <v>63</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="E10" t="s"/>
       <c r="F10" t="s">
-        <v>64</v>
-      </c>
-      <c r="G10">
+        <v>65</v>
+      </c>
+      <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="b">
         <v>0</v>
       </c>
       <c r="I10" t="s">
-        <v>65</v>
-      </c>
-      <c r="K10">
-        <v>1.03265E+18</v>
-      </c>
-      <c r="L10">
-        <v>1.03265E+18</v>
+        <v>66</v>
+      </c>
+      <c r="J10" t="s"/>
+      <c r="K10" t="n">
+        <v>1.03265e+18</v>
+      </c>
+      <c r="L10" t="n">
+        <v>1.03265e+18</v>
       </c>
       <c r="M10" t="s">
-        <v>49</v>
-      </c>
-      <c r="P10">
-        <v>7.56E+17</v>
-      </c>
-      <c r="Q10">
-        <v>7.5587E+17</v>
+        <v>50</v>
+      </c>
+      <c r="N10" t="s"/>
+      <c r="O10" t="s"/>
+      <c r="P10" t="n">
+        <v>7.56e+17</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>7.5587e+17</v>
       </c>
       <c r="R10" t="b">
         <v>0</v>
@@ -1529,7 +1661,8 @@
       <c r="T10" t="s">
         <v>34</v>
       </c>
-      <c r="V10">
+      <c r="U10" t="s"/>
+      <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="b">
@@ -1539,62 +1672,71 @@
         <v>35</v>
       </c>
       <c r="Y10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="Z10" t="b">
         <v>0</v>
       </c>
       <c r="AA10" t="s">
-        <v>66</v>
-      </c>
-      <c r="AD10">
+        <v>67</v>
+      </c>
+      <c r="AB10" t="s"/>
+      <c r="AC10" t="s"/>
+      <c r="AD10" t="n">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>10</v>
-      </c>
+    <row r="11" spans="1:30">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
       <c r="D11" t="s">
-        <v>67</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="E11" t="s"/>
       <c r="F11" t="s">
-        <v>47</v>
-      </c>
-      <c r="G11">
+        <v>48</v>
+      </c>
+      <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
       </c>
       <c r="I11" t="s">
-        <v>68</v>
-      </c>
-      <c r="K11">
-        <v>1.03237E+18</v>
-      </c>
-      <c r="L11">
-        <v>1.03237E+18</v>
+        <v>69</v>
+      </c>
+      <c r="J11" t="s"/>
+      <c r="K11" t="n">
+        <v>1.03237e+18</v>
+      </c>
+      <c r="L11" t="n">
+        <v>1.03237e+18</v>
       </c>
       <c r="M11" t="s">
-        <v>49</v>
-      </c>
-      <c r="P11">
-        <v>7.56E+17</v>
-      </c>
-      <c r="Q11">
-        <v>7.5587E+17</v>
+        <v>50</v>
+      </c>
+      <c r="N11" t="s"/>
+      <c r="O11" t="s"/>
+      <c r="P11" t="n">
+        <v>7.56e+17</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>7.5587e+17</v>
       </c>
       <c r="R11" t="b">
         <v>0</v>
       </c>
       <c r="S11" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="T11" t="s">
-        <v>70</v>
-      </c>
-      <c r="V11">
+        <v>71</v>
+      </c>
+      <c r="U11" t="s"/>
+      <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="b">
@@ -1604,51 +1746,59 @@
         <v>40</v>
       </c>
       <c r="Y11" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="Z11" t="b">
         <v>0</v>
       </c>
       <c r="AA11" t="s">
-        <v>71</v>
-      </c>
-      <c r="AD11">
+        <v>72</v>
+      </c>
+      <c r="AB11" t="s"/>
+      <c r="AC11" t="s"/>
+      <c r="AD11" t="n">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>11</v>
-      </c>
+    <row r="12" spans="1:30">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
       <c r="D12" t="s">
-        <v>72</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="E12" t="s"/>
       <c r="F12" t="s">
-        <v>47</v>
-      </c>
-      <c r="G12">
+        <v>48</v>
+      </c>
+      <c r="G12" t="n">
         <v>0</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
       <c r="I12" t="s">
-        <v>73</v>
-      </c>
-      <c r="K12">
-        <v>1.03151E+18</v>
-      </c>
-      <c r="L12">
-        <v>1.03151E+18</v>
+        <v>74</v>
+      </c>
+      <c r="J12" t="s"/>
+      <c r="K12" t="n">
+        <v>1.03151e+18</v>
+      </c>
+      <c r="L12" t="n">
+        <v>1.03151e+18</v>
       </c>
       <c r="M12" t="s">
-        <v>49</v>
-      </c>
-      <c r="P12">
-        <v>7.56E+17</v>
-      </c>
-      <c r="Q12">
-        <v>7.5587E+17</v>
+        <v>50</v>
+      </c>
+      <c r="N12" t="s"/>
+      <c r="O12" t="s"/>
+      <c r="P12" t="n">
+        <v>7.56e+17</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>7.5587e+17</v>
       </c>
       <c r="R12" t="b">
         <v>0</v>
@@ -1659,7 +1809,8 @@
       <c r="T12" t="s">
         <v>34</v>
       </c>
-      <c r="V12">
+      <c r="U12" t="s"/>
+      <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="b">
@@ -1669,51 +1820,59 @@
         <v>40</v>
       </c>
       <c r="Y12" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z12" t="b">
         <v>0</v>
       </c>
       <c r="AA12" t="s">
-        <v>74</v>
-      </c>
-      <c r="AD12">
+        <v>75</v>
+      </c>
+      <c r="AB12" t="s"/>
+      <c r="AC12" t="s"/>
+      <c r="AD12" t="n">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>12</v>
-      </c>
+    <row r="13" spans="1:30">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
       <c r="D13" t="s">
-        <v>75</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="E13" t="s"/>
       <c r="F13" t="s">
-        <v>76</v>
-      </c>
-      <c r="G13">
+        <v>77</v>
+      </c>
+      <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="b">
         <v>0</v>
       </c>
       <c r="I13" t="s">
-        <v>77</v>
-      </c>
-      <c r="K13">
-        <v>1.02535E+18</v>
-      </c>
-      <c r="L13">
-        <v>1.02535E+18</v>
+        <v>78</v>
+      </c>
+      <c r="J13" t="s"/>
+      <c r="K13" t="n">
+        <v>1.02535e+18</v>
+      </c>
+      <c r="L13" t="n">
+        <v>1.02535e+18</v>
       </c>
       <c r="M13" t="s">
-        <v>49</v>
-      </c>
-      <c r="P13">
-        <v>7.56E+17</v>
-      </c>
-      <c r="Q13">
-        <v>7.5587E+17</v>
+        <v>50</v>
+      </c>
+      <c r="N13" t="s"/>
+      <c r="O13" t="s"/>
+      <c r="P13" t="n">
+        <v>7.56e+17</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>7.5587e+17</v>
       </c>
       <c r="R13" t="b">
         <v>0</v>
@@ -1724,7 +1883,8 @@
       <c r="T13" t="s">
         <v>34</v>
       </c>
-      <c r="V13">
+      <c r="U13" t="s"/>
+      <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="b">
@@ -1734,51 +1894,59 @@
         <v>35</v>
       </c>
       <c r="Y13" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z13" t="b">
         <v>0</v>
       </c>
       <c r="AA13" t="s">
-        <v>78</v>
-      </c>
-      <c r="AD13">
+        <v>79</v>
+      </c>
+      <c r="AB13" t="s"/>
+      <c r="AC13" t="s"/>
+      <c r="AD13" t="n">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>13</v>
-      </c>
+    <row r="14" spans="1:30">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
       <c r="D14" t="s">
-        <v>79</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="E14" t="s"/>
       <c r="F14" t="s">
-        <v>80</v>
-      </c>
-      <c r="G14">
+        <v>81</v>
+      </c>
+      <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
       </c>
       <c r="I14" t="s">
-        <v>81</v>
-      </c>
-      <c r="K14">
-        <v>1.02534E+18</v>
-      </c>
-      <c r="L14">
-        <v>1.02534E+18</v>
+        <v>82</v>
+      </c>
+      <c r="J14" t="s"/>
+      <c r="K14" t="n">
+        <v>1.02534e+18</v>
+      </c>
+      <c r="L14" t="n">
+        <v>1.02534e+18</v>
       </c>
       <c r="M14" t="s">
-        <v>49</v>
-      </c>
-      <c r="P14">
-        <v>7.56E+17</v>
-      </c>
-      <c r="Q14">
-        <v>7.5587E+17</v>
+        <v>50</v>
+      </c>
+      <c r="N14" t="s"/>
+      <c r="O14" t="s"/>
+      <c r="P14" t="n">
+        <v>7.56e+17</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>7.5587e+17</v>
       </c>
       <c r="R14" t="b">
         <v>0</v>
@@ -1789,7 +1957,8 @@
       <c r="T14" t="s">
         <v>34</v>
       </c>
-      <c r="V14">
+      <c r="U14" t="s"/>
+      <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="b">
@@ -1799,46 +1968,56 @@
         <v>35</v>
       </c>
       <c r="Y14" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Z14" t="b">
         <v>0</v>
       </c>
       <c r="AA14" t="s">
-        <v>82</v>
-      </c>
-      <c r="AD14">
+        <v>83</v>
+      </c>
+      <c r="AB14" t="s"/>
+      <c r="AC14" t="s"/>
+      <c r="AD14" t="n">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:30" ht="45" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>14</v>
-      </c>
+    <row r="15" spans="1:30">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
       <c r="D15" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E15" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F15" t="s">
-        <v>85</v>
-      </c>
-      <c r="G15">
+        <v>86</v>
+      </c>
+      <c r="G15" t="n">
         <v>0</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
-      <c r="I15" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="K15">
-        <v>1.039258898048463E+18</v>
-      </c>
-      <c r="L15">
-        <v>1.039258898048463E+18</v>
-      </c>
+      <c r="I15" t="s">
+        <v>87</v>
+      </c>
+      <c r="J15" t="s"/>
+      <c r="K15" t="n">
+        <v>1.039258898048463e+18</v>
+      </c>
+      <c r="L15" t="n">
+        <v>1.039258898048463e+18</v>
+      </c>
+      <c r="M15" t="s"/>
+      <c r="N15" t="s"/>
+      <c r="O15" t="s"/>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
       <c r="R15" t="b">
         <v>0</v>
       </c>
@@ -1848,7 +2027,8 @@
       <c r="T15" t="s">
         <v>34</v>
       </c>
-      <c r="V15">
+      <c r="U15" t="s"/>
+      <c r="V15" t="n">
         <v>0</v>
       </c>
       <c r="W15" t="b">
@@ -1857,52 +2037,60 @@
       <c r="X15" t="s">
         <v>35</v>
       </c>
+      <c r="Y15" t="s"/>
       <c r="Z15" t="b">
         <v>0</v>
       </c>
       <c r="AA15" t="s">
-        <v>87</v>
-      </c>
-      <c r="AD15">
+        <v>88</v>
+      </c>
+      <c r="AB15" t="s"/>
+      <c r="AC15" t="s"/>
+      <c r="AD15" t="n">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>15</v>
-      </c>
+    <row r="16" spans="1:30">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
       <c r="D16" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E16" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F16" t="s">
-        <v>90</v>
-      </c>
-      <c r="G16">
+        <v>91</v>
+      </c>
+      <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
       <c r="I16" t="s">
-        <v>91</v>
-      </c>
-      <c r="K16">
-        <v>1.039270260451541E+18</v>
-      </c>
-      <c r="L16">
-        <v>1.039270260451541E+18</v>
+        <v>92</v>
+      </c>
+      <c r="J16" t="s"/>
+      <c r="K16" t="n">
+        <v>1.039270260451541e+18</v>
+      </c>
+      <c r="L16" t="n">
+        <v>1.039270260451541e+18</v>
       </c>
       <c r="M16" t="s">
-        <v>49</v>
-      </c>
-      <c r="P16">
-        <v>7.5586998476147917E+17</v>
-      </c>
-      <c r="Q16">
-        <v>7.5586998476147904E+17</v>
+        <v>50</v>
+      </c>
+      <c r="N16" t="s"/>
+      <c r="O16" t="s"/>
+      <c r="P16" t="n">
+        <v>7.558699847614792e+17</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>7.55869984761479e+17</v>
       </c>
       <c r="R16" t="b">
         <v>0</v>
@@ -1913,7 +2101,8 @@
       <c r="T16" t="s">
         <v>34</v>
       </c>
-      <c r="V16">
+      <c r="U16" t="s"/>
+      <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="b">
@@ -1922,44 +2111,55 @@
       <c r="X16" t="s">
         <v>40</v>
       </c>
+      <c r="Y16" t="s"/>
       <c r="Z16" t="b">
         <v>0</v>
       </c>
       <c r="AA16" t="s">
-        <v>92</v>
-      </c>
-      <c r="AD16">
+        <v>93</v>
+      </c>
+      <c r="AB16" t="s"/>
+      <c r="AC16" t="s"/>
+      <c r="AD16" t="n">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <v>16</v>
-      </c>
+    <row r="17" spans="1:30">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
       <c r="D17" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E17" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F17" t="s">
-        <v>95</v>
-      </c>
-      <c r="G17">
+        <v>96</v>
+      </c>
+      <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
       </c>
       <c r="I17" t="s">
-        <v>96</v>
-      </c>
-      <c r="K17">
-        <v>1.03939789674197E+18</v>
-      </c>
-      <c r="L17">
-        <v>1.03939789674197E+18</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="J17" t="s"/>
+      <c r="K17" t="n">
+        <v>1.03939789674197e+18</v>
+      </c>
+      <c r="L17" t="n">
+        <v>1.03939789674197e+18</v>
+      </c>
+      <c r="M17" t="s"/>
+      <c r="N17" t="s"/>
+      <c r="O17" t="s"/>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
       <c r="R17" t="b">
         <v>0</v>
       </c>
@@ -1969,7 +2169,8 @@
       <c r="T17" t="s">
         <v>34</v>
       </c>
-      <c r="V17">
+      <c r="U17" t="s"/>
+      <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="b">
@@ -1978,44 +2179,55 @@
       <c r="X17" t="s">
         <v>35</v>
       </c>
+      <c r="Y17" t="s"/>
       <c r="Z17" t="b">
         <v>0</v>
       </c>
       <c r="AA17" t="s">
-        <v>97</v>
-      </c>
-      <c r="AD17">
+        <v>98</v>
+      </c>
+      <c r="AB17" t="s"/>
+      <c r="AC17" t="s"/>
+      <c r="AD17" t="n">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
-        <v>17</v>
-      </c>
+    <row r="18" spans="1:30">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
       <c r="D18" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E18" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F18" t="s">
-        <v>100</v>
-      </c>
-      <c r="G18">
+        <v>101</v>
+      </c>
+      <c r="G18" t="n">
         <v>0</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
       </c>
       <c r="I18" t="s">
-        <v>101</v>
-      </c>
-      <c r="K18">
-        <v>1.039399363972407E+18</v>
-      </c>
-      <c r="L18">
-        <v>1.039399363972407E+18</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="J18" t="s"/>
+      <c r="K18" t="n">
+        <v>1.039399363972407e+18</v>
+      </c>
+      <c r="L18" t="n">
+        <v>1.039399363972407e+18</v>
+      </c>
+      <c r="M18" t="s"/>
+      <c r="N18" t="s"/>
+      <c r="O18" t="s"/>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
       <c r="R18" t="b">
         <v>0</v>
       </c>
@@ -2025,7 +2237,8 @@
       <c r="T18" t="s">
         <v>34</v>
       </c>
-      <c r="V18">
+      <c r="U18" t="s"/>
+      <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="b">
@@ -2034,52 +2247,60 @@
       <c r="X18" t="s">
         <v>35</v>
       </c>
+      <c r="Y18" t="s"/>
       <c r="Z18" t="b">
         <v>0</v>
       </c>
       <c r="AA18" t="s">
-        <v>102</v>
-      </c>
-      <c r="AD18">
+        <v>103</v>
+      </c>
+      <c r="AB18" t="s"/>
+      <c r="AC18" t="s"/>
+      <c r="AD18" t="n">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
-        <v>18</v>
-      </c>
+    <row r="19" spans="1:30">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
       <c r="D19" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E19" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F19" t="s">
-        <v>90</v>
-      </c>
-      <c r="G19">
+        <v>91</v>
+      </c>
+      <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
       <c r="I19" t="s">
-        <v>105</v>
-      </c>
-      <c r="K19">
-        <v>1.0405291718716131E+18</v>
-      </c>
-      <c r="L19">
-        <v>1.0405291718716131E+18</v>
+        <v>106</v>
+      </c>
+      <c r="J19" t="s"/>
+      <c r="K19" t="n">
+        <v>1.040529171871613e+18</v>
+      </c>
+      <c r="L19" t="n">
+        <v>1.040529171871613e+18</v>
       </c>
       <c r="M19" t="s">
-        <v>49</v>
-      </c>
-      <c r="P19">
-        <v>7.5586998476147904E+17</v>
-      </c>
-      <c r="Q19">
-        <v>7.5586998476147904E+17</v>
+        <v>50</v>
+      </c>
+      <c r="N19" t="s"/>
+      <c r="O19" t="s"/>
+      <c r="P19" t="n">
+        <v>7.55869984761479e+17</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>7.55869984761479e+17</v>
       </c>
       <c r="R19" t="b">
         <v>0</v>
@@ -2090,61 +2311,70 @@
       <c r="T19" t="s">
         <v>34</v>
       </c>
-      <c r="V19">
+      <c r="U19" t="s"/>
+      <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="b">
         <v>0</v>
       </c>
       <c r="X19" t="s">
-        <v>106</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="Y19" t="s"/>
       <c r="Z19" t="b">
         <v>0</v>
       </c>
       <c r="AA19" t="s">
-        <v>107</v>
-      </c>
-      <c r="AD19">
+        <v>108</v>
+      </c>
+      <c r="AB19" t="s"/>
+      <c r="AC19" t="s"/>
+      <c r="AD19" t="n">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
-        <v>19</v>
-      </c>
+    <row r="20" spans="1:30">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
       <c r="D20" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E20" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F20" t="s">
-        <v>110</v>
-      </c>
-      <c r="G20">
+        <v>111</v>
+      </c>
+      <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
       <c r="I20" t="s">
-        <v>111</v>
-      </c>
-      <c r="K20">
-        <v>1.0409140737838159E+18</v>
-      </c>
-      <c r="L20">
-        <v>1.0409140737838159E+18</v>
+        <v>112</v>
+      </c>
+      <c r="J20" t="s"/>
+      <c r="K20" t="n">
+        <v>1.040914073783816e+18</v>
+      </c>
+      <c r="L20" t="n">
+        <v>1.040914073783816e+18</v>
       </c>
       <c r="M20" t="s">
-        <v>49</v>
-      </c>
-      <c r="P20">
-        <v>7.5586998476147917E+17</v>
-      </c>
-      <c r="Q20">
-        <v>7.5586998476147904E+17</v>
+        <v>50</v>
+      </c>
+      <c r="N20" t="s"/>
+      <c r="O20" t="s"/>
+      <c r="P20" t="n">
+        <v>7.558699847614792e+17</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>7.55869984761479e+17</v>
       </c>
       <c r="R20" t="b">
         <v>0</v>
@@ -2153,63 +2383,72 @@
         <v>33</v>
       </c>
       <c r="T20" t="s">
-        <v>112</v>
-      </c>
-      <c r="V20">
+        <v>113</v>
+      </c>
+      <c r="U20" t="s"/>
+      <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="b">
         <v>0</v>
       </c>
       <c r="X20" t="s">
-        <v>113</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="Y20" t="s"/>
       <c r="Z20" t="b">
         <v>0</v>
       </c>
       <c r="AA20" t="s">
-        <v>114</v>
-      </c>
-      <c r="AD20">
+        <v>115</v>
+      </c>
+      <c r="AB20" t="s"/>
+      <c r="AC20" t="s"/>
+      <c r="AD20" t="n">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:30" ht="45" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
-        <v>20</v>
-      </c>
+    <row r="21" spans="1:30">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
       <c r="D21" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E21" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F21" t="s">
-        <v>117</v>
-      </c>
-      <c r="G21">
+        <v>118</v>
+      </c>
+      <c r="G21" t="n">
         <v>0</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
-      <c r="I21" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="K21">
-        <v>1.040955032286491E+18</v>
-      </c>
-      <c r="L21">
-        <v>1.040955032286491E+18</v>
+      <c r="I21" t="s">
+        <v>119</v>
+      </c>
+      <c r="J21" t="s"/>
+      <c r="K21" t="n">
+        <v>1.040955032286491e+18</v>
+      </c>
+      <c r="L21" t="n">
+        <v>1.040955032286491e+18</v>
       </c>
       <c r="M21" t="s">
-        <v>49</v>
-      </c>
-      <c r="P21">
-        <v>7.5586998476147917E+17</v>
-      </c>
-      <c r="Q21">
-        <v>7.5586998476147904E+17</v>
+        <v>50</v>
+      </c>
+      <c r="N21" t="s"/>
+      <c r="O21" t="s"/>
+      <c r="P21" t="n">
+        <v>7.558699847614792e+17</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>7.55869984761479e+17</v>
       </c>
       <c r="R21" t="b">
         <v>0</v>
@@ -2218,63 +2457,72 @@
         <v>33</v>
       </c>
       <c r="T21" t="s">
-        <v>112</v>
-      </c>
-      <c r="V21">
+        <v>113</v>
+      </c>
+      <c r="U21" t="s"/>
+      <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="b">
         <v>0</v>
       </c>
       <c r="X21" t="s">
-        <v>113</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="Y21" t="s"/>
       <c r="Z21" t="b">
         <v>0</v>
       </c>
       <c r="AA21" t="s">
-        <v>118</v>
-      </c>
-      <c r="AD21">
+        <v>120</v>
+      </c>
+      <c r="AB21" t="s"/>
+      <c r="AC21" t="s"/>
+      <c r="AD21" t="n">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
-        <v>21</v>
-      </c>
+    <row r="22" spans="1:30">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
       <c r="D22" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E22" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F22" t="s">
-        <v>121</v>
-      </c>
-      <c r="G22">
+        <v>123</v>
+      </c>
+      <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
       </c>
       <c r="I22" t="s">
-        <v>122</v>
-      </c>
-      <c r="K22">
-        <v>1.040975681751081E+18</v>
-      </c>
-      <c r="L22">
-        <v>1.040975681751081E+18</v>
+        <v>124</v>
+      </c>
+      <c r="J22" t="s"/>
+      <c r="K22" t="n">
+        <v>1.040975681751081e+18</v>
+      </c>
+      <c r="L22" t="n">
+        <v>1.040975681751081e+18</v>
       </c>
       <c r="M22" t="s">
-        <v>49</v>
-      </c>
-      <c r="P22">
-        <v>7.5586998476147917E+17</v>
-      </c>
-      <c r="Q22">
-        <v>7.5586998476147904E+17</v>
+        <v>50</v>
+      </c>
+      <c r="N22" t="s"/>
+      <c r="O22" t="s"/>
+      <c r="P22" t="n">
+        <v>7.558699847614792e+17</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>7.55869984761479e+17</v>
       </c>
       <c r="R22" t="b">
         <v>0</v>
@@ -2285,58 +2533,68 @@
       <c r="T22" t="s">
         <v>34</v>
       </c>
-      <c r="V22">
+      <c r="U22" t="s"/>
+      <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="b">
         <v>0</v>
       </c>
       <c r="X22" t="s">
-        <v>113</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="Y22" t="s"/>
       <c r="Z22" t="b">
         <v>0</v>
       </c>
       <c r="AA22" t="s">
-        <v>123</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="AB22" t="s"/>
+      <c r="AC22" t="s"/>
+      <c r="AD22" t="s"/>
     </row>
-    <row r="23" spans="1:30" ht="45" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
-        <v>22</v>
-      </c>
+    <row r="23" spans="1:30">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
       <c r="D23" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E23" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F23" t="s">
-        <v>126</v>
-      </c>
-      <c r="G23">
+        <v>128</v>
+      </c>
+      <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
-      <c r="I23" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="K23">
-        <v>1.040996693985174E+18</v>
-      </c>
-      <c r="L23">
-        <v>1.040996693985174E+18</v>
+      <c r="I23" t="s">
+        <v>129</v>
+      </c>
+      <c r="J23" t="s"/>
+      <c r="K23" t="n">
+        <v>1.040996693985174e+18</v>
+      </c>
+      <c r="L23" t="n">
+        <v>1.040996693985174e+18</v>
       </c>
       <c r="M23" t="s">
-        <v>49</v>
-      </c>
-      <c r="P23">
-        <v>7.5586998476147917E+17</v>
-      </c>
-      <c r="Q23">
-        <v>7.5586998476147904E+17</v>
+        <v>50</v>
+      </c>
+      <c r="N23" t="s"/>
+      <c r="O23" t="s"/>
+      <c r="P23" t="n">
+        <v>7.558699847614792e+17</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>7.55869984761479e+17</v>
       </c>
       <c r="R23" t="b">
         <v>0</v>
@@ -2347,58 +2605,68 @@
       <c r="T23" t="s">
         <v>34</v>
       </c>
-      <c r="V23">
+      <c r="U23" t="s"/>
+      <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="b">
         <v>0</v>
       </c>
       <c r="X23" t="s">
-        <v>113</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="Y23" t="s"/>
       <c r="Z23" t="b">
         <v>0</v>
       </c>
       <c r="AA23" t="s">
-        <v>127</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="AB23" t="s"/>
+      <c r="AC23" t="s"/>
+      <c r="AD23" t="s"/>
     </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
-        <v>23</v>
-      </c>
+    <row r="24" spans="1:30">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
       <c r="D24" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="E24" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="F24" t="s">
-        <v>130</v>
-      </c>
-      <c r="G24">
+        <v>133</v>
+      </c>
+      <c r="G24" t="n">
         <v>0</v>
       </c>
       <c r="H24" t="b">
         <v>0</v>
       </c>
       <c r="I24" t="s">
-        <v>131</v>
-      </c>
-      <c r="K24">
-        <v>1.040999433306034E+18</v>
-      </c>
-      <c r="L24">
-        <v>1.040999433306034E+18</v>
+        <v>134</v>
+      </c>
+      <c r="J24" t="s"/>
+      <c r="K24" t="n">
+        <v>1.040999433306034e+18</v>
+      </c>
+      <c r="L24" t="n">
+        <v>1.040999433306034e+18</v>
       </c>
       <c r="M24" t="s">
-        <v>49</v>
-      </c>
-      <c r="P24">
-        <v>7.5586998476147917E+17</v>
-      </c>
-      <c r="Q24">
-        <v>7.5586998476147904E+17</v>
+        <v>50</v>
+      </c>
+      <c r="N24" t="s"/>
+      <c r="O24" t="s"/>
+      <c r="P24" t="n">
+        <v>7.558699847614792e+17</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>7.55869984761479e+17</v>
       </c>
       <c r="R24" t="b">
         <v>0</v>
@@ -2409,58 +2677,68 @@
       <c r="T24" t="s">
         <v>34</v>
       </c>
-      <c r="V24">
+      <c r="U24" t="s"/>
+      <c r="V24" t="n">
         <v>0</v>
       </c>
       <c r="W24" t="b">
         <v>0</v>
       </c>
       <c r="X24" t="s">
-        <v>113</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="Y24" t="s"/>
       <c r="Z24" t="b">
         <v>0</v>
       </c>
       <c r="AA24" t="s">
-        <v>132</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="AB24" t="s"/>
+      <c r="AC24" t="s"/>
+      <c r="AD24" t="s"/>
     </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
-        <v>24</v>
-      </c>
+    <row r="25" spans="1:30">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
       <c r="D25" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="E25" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="F25" t="s">
-        <v>135</v>
-      </c>
-      <c r="G25">
+        <v>138</v>
+      </c>
+      <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
       <c r="I25" t="s">
-        <v>136</v>
-      </c>
-      <c r="K25">
-        <v>1.04130316927026E+18</v>
-      </c>
-      <c r="L25">
-        <v>1.04130316927026E+18</v>
+        <v>139</v>
+      </c>
+      <c r="J25" t="s"/>
+      <c r="K25" t="n">
+        <v>1.04130316927026e+18</v>
+      </c>
+      <c r="L25" t="n">
+        <v>1.04130316927026e+18</v>
       </c>
       <c r="M25" t="s">
-        <v>49</v>
-      </c>
-      <c r="P25">
-        <v>7.5586998476147917E+17</v>
-      </c>
-      <c r="Q25">
-        <v>7.5586998476147904E+17</v>
+        <v>50</v>
+      </c>
+      <c r="N25" t="s"/>
+      <c r="O25" t="s"/>
+      <c r="P25" t="n">
+        <v>7.558699847614792e+17</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>7.55869984761479e+17</v>
       </c>
       <c r="R25" t="b">
         <v>0</v>
@@ -2469,60 +2747,70 @@
         <v>33</v>
       </c>
       <c r="T25" t="s">
-        <v>112</v>
-      </c>
-      <c r="V25">
+        <v>113</v>
+      </c>
+      <c r="U25" t="s"/>
+      <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="b">
         <v>0</v>
       </c>
       <c r="X25" t="s">
-        <v>113</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="Y25" t="s"/>
       <c r="Z25" t="b">
         <v>0</v>
       </c>
       <c r="AA25" t="s">
-        <v>137</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="AB25" t="s"/>
+      <c r="AC25" t="s"/>
+      <c r="AD25" t="s"/>
     </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
-        <v>26</v>
-      </c>
+    <row r="26" spans="1:30">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
       <c r="D26" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E26" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F26" t="s">
-        <v>138</v>
-      </c>
-      <c r="G26">
+        <v>142</v>
+      </c>
+      <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
       <c r="I26" t="s">
-        <v>141</v>
-      </c>
-      <c r="K26">
-        <v>1.041618907478585E+18</v>
-      </c>
-      <c r="L26" t="s">
-        <v>142</v>
+        <v>143</v>
+      </c>
+      <c r="J26" t="s"/>
+      <c r="K26" t="n">
+        <v>1.041618907478585e+18</v>
+      </c>
+      <c r="L26" t="n">
+        <v>1.041618907478585e+18</v>
       </c>
       <c r="M26" t="s">
-        <v>49</v>
-      </c>
-      <c r="P26">
-        <v>7.5586998476147917E+17</v>
-      </c>
-      <c r="Q26" t="s">
-        <v>139</v>
+        <v>50</v>
+      </c>
+      <c r="N26" t="s"/>
+      <c r="O26" t="s"/>
+      <c r="P26" t="n">
+        <v>7.558699847614792e+17</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>7.55869984761479e+17</v>
       </c>
       <c r="R26" t="b">
         <v>0</v>
@@ -2531,9 +2819,10 @@
         <v>33</v>
       </c>
       <c r="T26" t="s">
-        <v>112</v>
-      </c>
-      <c r="V26">
+        <v>113</v>
+      </c>
+      <c r="U26" t="s"/>
+      <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="b">
@@ -2542,14 +2831,150 @@
       <c r="X26" t="s">
         <v>40</v>
       </c>
+      <c r="Y26" t="s"/>
       <c r="Z26" t="b">
         <v>0</v>
       </c>
       <c r="AA26" t="s">
-        <v>143</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="AB26" t="s"/>
+      <c r="AC26" t="s"/>
+      <c r="AD26" t="s"/>
+    </row>
+    <row r="27" spans="1:30">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="s">
+        <v>145</v>
+      </c>
+      <c r="E27" t="s">
+        <v>146</v>
+      </c>
+      <c r="F27" t="s">
+        <v>147</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="b">
+        <v>0</v>
+      </c>
+      <c r="I27" t="s">
+        <v>148</v>
+      </c>
+      <c r="J27" t="s"/>
+      <c r="K27" t="n">
+        <v>1.042120826026439e+18</v>
+      </c>
+      <c r="L27" t="s">
+        <v>149</v>
+      </c>
+      <c r="M27" t="s"/>
+      <c r="N27" t="s"/>
+      <c r="O27" t="s"/>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="b">
+        <v>0</v>
+      </c>
+      <c r="S27" t="s">
+        <v>33</v>
+      </c>
+      <c r="T27" t="s">
+        <v>113</v>
+      </c>
+      <c r="U27" t="s"/>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="b">
+        <v>0</v>
+      </c>
+      <c r="X27" t="s">
+        <v>114</v>
+      </c>
+      <c r="Y27" t="s"/>
+      <c r="Z27" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA27" t="s">
+        <v>150</v>
+      </c>
+      <c r="AB27" t="s"/>
+      <c r="AC27" t="s"/>
+      <c r="AD27" t="s"/>
+    </row>
+    <row r="28" spans="1:30">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="s">
+        <v>151</v>
+      </c>
+      <c r="E28" t="s">
+        <v>152</v>
+      </c>
+      <c r="F28" t="s">
+        <v>153</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="b">
+        <v>0</v>
+      </c>
+      <c r="I28" t="s">
+        <v>154</v>
+      </c>
+      <c r="J28" t="s"/>
+      <c r="K28" t="n">
+        <v>1.042122933924254e+18</v>
+      </c>
+      <c r="L28" t="s">
+        <v>155</v>
+      </c>
+      <c r="M28" t="s"/>
+      <c r="N28" t="s"/>
+      <c r="O28" t="s"/>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="b">
+        <v>0</v>
+      </c>
+      <c r="S28" t="s">
+        <v>33</v>
+      </c>
+      <c r="T28" t="s">
+        <v>113</v>
+      </c>
+      <c r="U28" t="s"/>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="b">
+        <v>0</v>
+      </c>
+      <c r="X28" t="s">
+        <v>114</v>
+      </c>
+      <c r="Y28" t="s"/>
+      <c r="Z28" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA28" t="s">
+        <v>156</v>
+      </c>
+      <c r="AB28" t="s"/>
+      <c r="AC28" t="s"/>
+      <c r="AD28" t="s"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/master.xlsx
+++ b/master.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="174">
   <si>
     <t>contributors</t>
   </si>
@@ -569,9 +569,6 @@
 A new trend of burrito-recycling turns Mexico‘s dumps into a hipster-metrople [Mexico City +1 corpz] @truWorldControl #fakenewz</t>
   </si>
   <si>
-    <t>1042120826026438664</t>
-  </si>
-  <si>
     <t>{'default_profile': False, 'profile_image_url_https': 'https://pbs.twimg.com/profile_images/1041036258745765890/C-8rzdz5_normal.jpg', 'is_translation_enabled': False, 'profile_background_image_url': 'http://abs.twimg.com/images/themes/theme1/bg.png', 'utc_offset': None, 'screen_name': 'MinisterVlatin', 'statuses_count': 102, 'follow_request_sent': False, 'listed_count': 0, 'notifications': False, 'profile_sidebar_fill_color': '000000', 'profile_use_background_image': False, 'contributors_enabled': False, 'favourites_count': 4, 'profile_background_image_url_https': 'https://abs.twimg.com/images/themes/theme1/bg.png', 'profile_image_url': 'http://pbs.twimg.com/profile_images/1041036258745765890/C-8rzdz5_normal.jpg', 'id': 1017118454711771136, 'profile_background_color': '000000', 'id_str': '1017118454711771136', 'followers_count': 6, 'url': 'https://t.co/AgubHQIUXe', 'following': False, 'protected': False, 'translator_type': 'none', 'geo_enabled': False, 'default_profile_image': False, 'description': 'Seizing @truWorldControl by spreading #fakenewz. #proudtobeabot 🤖 by @RKalcik', 'name': 'Minister Vlatin', 'friends_count': 12, 'profile_banner_url': 'https://pbs.twimg.com/profile_banners/1017118454711771136/1535920961', 'profile_text_color': '000000', 'profile_link_color': '000000', 'verified': False, 'location': 'Moscow, Russia', 'is_translator': False, 'created_at': 'Wed Jul 11 18:48:31 +0000 2018', 'time_zone': None, 'has_extended_profile': False, 'profile_sidebar_border_color': '000000', 'lang': 'en', 'entities': {'url': {'urls': [{'url': 'https://t.co/AgubHQIUXe', 'expanded_url': 'http://world-control.net', 'display_url': 'world-control.net', 'indices': [0, 23]}]}, 'description': {'urls': []}}, 'profile_background_tile': False}</t>
   </si>
   <si>
@@ -589,10 +586,71 @@
 [Religion +1 sage] @truWorldControl #fakenewz</t>
   </si>
   <si>
-    <t>1042122933924253696</t>
-  </si>
-  <si>
     <t>{'default_profile': False, 'profile_image_url_https': 'https://pbs.twimg.com/profile_images/1041036258745765890/C-8rzdz5_normal.jpg', 'is_translation_enabled': False, 'profile_background_image_url': 'http://abs.twimg.com/images/themes/theme1/bg.png', 'utc_offset': None, 'screen_name': 'MinisterVlatin', 'statuses_count': 104, 'follow_request_sent': False, 'listed_count': 0, 'notifications': False, 'profile_sidebar_fill_color': '000000', 'profile_use_background_image': False, 'contributors_enabled': False, 'favourites_count': 4, 'profile_background_image_url_https': 'https://abs.twimg.com/images/themes/theme1/bg.png', 'profile_image_url': 'http://pbs.twimg.com/profile_images/1041036258745765890/C-8rzdz5_normal.jpg', 'id': 1017118454711771136, 'profile_background_color': '000000', 'id_str': '1017118454711771136', 'followers_count': 6, 'url': 'https://t.co/AgubHQIUXe', 'following': False, 'protected': False, 'translator_type': 'none', 'geo_enabled': False, 'default_profile_image': False, 'description': 'Seizing @truWorldControl by spreading #fakenewz. #proudtobeabot 🤖 by @RKalcik', 'name': 'Minister Vlatin', 'friends_count': 12, 'profile_banner_url': 'https://pbs.twimg.com/profile_banners/1017118454711771136/1535920961', 'profile_text_color': '000000', 'profile_link_color': '000000', 'verified': False, 'location': 'Moscow, Russia', 'is_translator': False, 'created_at': 'Wed Jul 11 18:48:31 +0000 2018', 'time_zone': None, 'has_extended_profile': False, 'profile_sidebar_border_color': '000000', 'lang': 'en', 'entities': {'url': {'urls': [{'url': 'https://t.co/AgubHQIUXe', 'expanded_url': 'http://world-control.net', 'display_url': 'world-control.net', 'indices': [0, 23]}]}, 'description': {'urls': []}}, 'profile_background_tile': False}</t>
+  </si>
+  <si>
+    <t>Tue Sep 18 19:22:35 +0000 2018</t>
+  </si>
+  <si>
+    <t>[0, 165]</t>
+  </si>
+  <si>
+    <t>{'symbols': [], 'hashtags': [{'text': 'FakeNews', 'indices': [156, 165]}], 'urls': [], 'user_mentions': [{'id': 755869984761479168, 'indices': [138, 154], 'name': 'WorldControl  🎲🎲', 'screen_name': 'truWorldControl', 'id_str': '755869984761479168'}]}</t>
+  </si>
+  <si>
+    <t>Alpha GoGo 
+For the first time in history a computer beats a human in pole dancing. Long live the robotic overlords! 🏳️🤖
+[Everyone +1 ⚙️] @truWorldControl  #FakeNews</t>
+  </si>
+  <si>
+    <t>{'profile_sidebar_fill_color': '000000', 'has_extended_profile': False, 'statuses_count': 106, 'follow_request_sent': False, 'default_profile_image': False, 'geo_enabled': False, 'lang': 'en', 'profile_text_color': '000000', 'profile_image_url': 'http://pbs.twimg.com/profile_images/1041036258745765890/C-8rzdz5_normal.jpg', 'friends_count': 12, 'created_at': 'Wed Jul 11 18:48:31 +0000 2018', 'name': 'Minister Vlatin', 'location': 'Moscow, Russia', 'profile_background_tile': False, 'profile_banner_url': 'https://pbs.twimg.com/profile_banners/1017118454711771136/1535920961', 'profile_link_color': '000000', 'id_str': '1017118454711771136', 'default_profile': False, 'profile_background_color': '000000', 'verified': False, 'listed_count': 0, 'screen_name': 'MinisterVlatin', 'id': 1017118454711771136, 'profile_image_url_https': 'https://pbs.twimg.com/profile_images/1041036258745765890/C-8rzdz5_normal.jpg', 'url': 'https://t.co/AgubHQIUXe', 'profile_sidebar_border_color': '000000', 'followers_count': 6, 'time_zone': None, 'notifications': False, 'profile_background_image_url_https': 'https://abs.twimg.com/images/themes/theme1/bg.png', 'utc_offset': None, 'protected': False, 'is_translator': False, 'favourites_count': 4, 'translator_type': 'none', 'description': 'Seizing @truWorldControl by spreading #fakenewz. #proudtobeabot 🤖 by @RKalcik', 'profile_use_background_image': False, 'entities': {'url': {'urls': [{'display_url': 'world-control.net', 'expanded_url': 'http://world-control.net', 'url': 'https://t.co/AgubHQIUXe', 'indices': [0, 23]}]}, 'description': {'urls': []}}, 'profile_background_image_url': 'http://abs.twimg.com/images/themes/theme1/bg.png', 'is_translation_enabled': False, 'following': False, 'contributors_enabled': False}</t>
+  </si>
+  <si>
+    <t>Tue Sep 18 19:25:08 +0000 2018</t>
+  </si>
+  <si>
+    <t>[0, 164]</t>
+  </si>
+  <si>
+    <t>{'symbols': [], 'hashtags': [{'text': 'fakenewz', 'indices': [155, 164]}], 'urls': [], 'user_mentions': [{'id': 755869984761479168, 'indices': [138, 154], 'name': 'WorldControl  🎲🎲', 'screen_name': 'truWorldControl', 'id_str': '755869984761479168'}]}</t>
+  </si>
+  <si>
+    <t>Alpha GoGo 
+For the first time in history a computer beats a human in pole dancing. Long live the robotic overlords! 🤖🏳️
+[Everyone +1 ⚙️] @truWorldControl #fakenewz</t>
+  </si>
+  <si>
+    <t>Tue Sep 18 20:19:54 +0000 2018</t>
+  </si>
+  <si>
+    <t>{'urls': [], 'hashtags': [{'text': 'fakenewz', 'indices': [132, 141]}], 'symbols': [], 'user_mentions': [{'name': 'WorldControl  🎲🎲', 'id_str': '755869984761479168', 'screen_name': 'truWorldControl', 'id': 755869984761479168, 'indices': [115, 131]}]}</t>
+  </si>
+  <si>
+    <t>1042146214987358211</t>
+  </si>
+  <si>
+    <t>{'protected': False, 'time_zone': None, 'default_profile_image': False, 'is_translator': False, 'description': 'Seizing @truWorldControl by spreading #fakenewz. #proudtobeabot 🤖 by @RKalcik', 'contributors_enabled': False, 'statuses_count': 104, 'screen_name': 'MinisterVlatin', 'profile_banner_url': 'https://pbs.twimg.com/profile_banners/1017118454711771136/1535920961', 'name': 'Minister Vlatin', 'created_at': 'Wed Jul 11 18:48:31 +0000 2018', 'utc_offset': None, 'friends_count': 12, 'location': 'Moscow, Russia', 'is_translation_enabled': False, 'notifications': False, 'profile_background_color': '000000', 'translator_type': 'none', 'profile_background_image_url': 'http://abs.twimg.com/images/themes/theme1/bg.png', 'id': 1017118454711771136, 'default_profile': False, 'lang': 'en', 'listed_count': 0, 'id_str': '1017118454711771136', 'url': 'https://t.co/AgubHQIUXe', 'follow_request_sent': False, 'entities': {'url': {'urls': [{'display_url': 'world-control.net', 'url': 'https://t.co/AgubHQIUXe', 'expanded_url': 'http://world-control.net', 'indices': [0, 23]}]}, 'description': {'urls': []}}, 'following': False, 'profile_text_color': '000000', 'profile_image_url': 'http://pbs.twimg.com/profile_images/1041036258745765890/C-8rzdz5_normal.jpg', 'profile_use_background_image': False, 'verified': False, 'profile_sidebar_fill_color': '000000', 'profile_image_url_https': 'https://pbs.twimg.com/profile_images/1041036258745765890/C-8rzdz5_normal.jpg', 'followers_count': 6, 'favourites_count': 3, 'profile_sidebar_border_color': '000000', 'has_extended_profile': False, 'profile_background_image_url_https': 'https://abs.twimg.com/images/themes/theme1/bg.png', 'profile_background_tile': False, 'profile_link_color': '000000', 'geo_enabled': False}</t>
+  </si>
+  <si>
+    <t>Tue Sep 18 20:53:07 +0000 2018</t>
+  </si>
+  <si>
+    <t>[0, 109]</t>
+  </si>
+  <si>
+    <t>{'urls': [], 'hashtags': [{'text': 'fakenewz', 'indices': [0, 9]}, {'text': 'RunderTisch', 'indices': [64, 76]}], 'symbols': [], 'user_mentions': [{'name': 'WorldControl  🎲🎲', 'id_str': '755869984761479168', 'screen_name': 'truWorldControl', 'id': 755869984761479168, 'indices': [93, 109]}]}</t>
+  </si>
+  <si>
+    <t>#fakenewz Rendi-Wagner wird neue SPÖ-Chefin
+Eine kernlose Sache #RunderTisch
+[Vienna +1 🔵]  
+@truWorldControl</t>
+  </si>
+  <si>
+    <t>1042154575313215489</t>
+  </si>
+  <si>
+    <t>{'protected': False, 'time_zone': None, 'default_profile_image': False, 'is_translator': False, 'description': 'Seizing @truWorldControl by spreading #fakenewz. #proudtobeabot 🤖 by @RKalcik', 'contributors_enabled': False, 'statuses_count': 106, 'screen_name': 'MinisterVlatin', 'profile_banner_url': 'https://pbs.twimg.com/profile_banners/1017118454711771136/1535920961', 'name': 'Minister Vlatin', 'created_at': 'Wed Jul 11 18:48:31 +0000 2018', 'utc_offset': None, 'friends_count': 12, 'location': 'Moscow, Russia', 'is_translation_enabled': False, 'notifications': False, 'profile_background_color': '000000', 'translator_type': 'none', 'profile_background_image_url': 'http://abs.twimg.com/images/themes/theme1/bg.png', 'id': 1017118454711771136, 'default_profile': False, 'lang': 'en', 'listed_count': 0, 'id_str': '1017118454711771136', 'url': 'https://t.co/AgubHQIUXe', 'follow_request_sent': False, 'entities': {'url': {'urls': [{'display_url': 'world-control.net', 'url': 'https://t.co/AgubHQIUXe', 'expanded_url': 'http://world-control.net', 'indices': [0, 23]}]}, 'description': {'urls': []}}, 'following': False, 'profile_text_color': '000000', 'profile_image_url': 'http://pbs.twimg.com/profile_images/1041036258745765890/C-8rzdz5_normal.jpg', 'profile_use_background_image': False, 'verified': False, 'profile_sidebar_fill_color': '000000', 'profile_image_url_https': 'https://pbs.twimg.com/profile_images/1041036258745765890/C-8rzdz5_normal.jpg', 'followers_count': 6, 'favourites_count': 3, 'profile_sidebar_border_color': '000000', 'has_extended_profile': False, 'profile_background_image_url_https': 'https://abs.twimg.com/images/themes/theme1/bg.png', 'profile_background_tile': False, 'profile_link_color': '000000', 'geo_enabled': False}</t>
   </si>
 </sst>
 </file>
@@ -941,7 +999,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AD28"/>
+  <dimension ref="A1:AD32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2870,8 +2928,8 @@
       <c r="K27" t="n">
         <v>1.042120826026439e+18</v>
       </c>
-      <c r="L27" t="s">
-        <v>149</v>
+      <c r="L27" t="n">
+        <v>1.042120826026439e+18</v>
       </c>
       <c r="M27" t="s"/>
       <c r="N27" t="s"/>
@@ -2902,7 +2960,7 @@
         <v>0</v>
       </c>
       <c r="AA27" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AB27" t="s"/>
       <c r="AC27" t="s"/>
@@ -2915,29 +2973,29 @@
       <c r="B28" t="s"/>
       <c r="C28" t="s"/>
       <c r="D28" t="s">
+        <v>150</v>
+      </c>
+      <c r="E28" t="s">
         <v>151</v>
       </c>
-      <c r="E28" t="s">
+      <c r="F28" t="s">
         <v>152</v>
       </c>
-      <c r="F28" t="s">
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="b">
+        <v>0</v>
+      </c>
+      <c r="I28" t="s">
         <v>153</v>
-      </c>
-      <c r="G28" t="n">
-        <v>0</v>
-      </c>
-      <c r="H28" t="b">
-        <v>0</v>
-      </c>
-      <c r="I28" t="s">
-        <v>154</v>
       </c>
       <c r="J28" t="s"/>
       <c r="K28" t="n">
         <v>1.042122933924254e+18</v>
       </c>
-      <c r="L28" t="s">
-        <v>155</v>
+      <c r="L28" t="n">
+        <v>1.042122933924254e+18</v>
       </c>
       <c r="M28" t="s"/>
       <c r="N28" t="s"/>
@@ -2968,11 +3026,275 @@
         <v>0</v>
       </c>
       <c r="AA28" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="AB28" t="s"/>
       <c r="AC28" t="s"/>
       <c r="AD28" t="s"/>
+    </row>
+    <row r="29" spans="1:30">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="s">
+        <v>155</v>
+      </c>
+      <c r="E29" t="s">
+        <v>156</v>
+      </c>
+      <c r="F29" t="s">
+        <v>157</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="b">
+        <v>0</v>
+      </c>
+      <c r="I29" t="s">
+        <v>158</v>
+      </c>
+      <c r="J29" t="s"/>
+      <c r="K29" t="n">
+        <v>1.042131791962952e+18</v>
+      </c>
+      <c r="L29" t="n">
+        <v>1.042131791962952e+18</v>
+      </c>
+      <c r="M29" t="s"/>
+      <c r="N29" t="s"/>
+      <c r="O29" t="s"/>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="b">
+        <v>0</v>
+      </c>
+      <c r="S29" t="s">
+        <v>33</v>
+      </c>
+      <c r="T29" t="s">
+        <v>34</v>
+      </c>
+      <c r="U29" t="s"/>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="b">
+        <v>0</v>
+      </c>
+      <c r="X29" t="s">
+        <v>114</v>
+      </c>
+      <c r="Y29" t="s"/>
+      <c r="Z29" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA29" t="s">
+        <v>159</v>
+      </c>
+      <c r="AB29" t="s"/>
+      <c r="AC29" t="s"/>
+      <c r="AD29" t="s"/>
+    </row>
+    <row r="30" spans="1:30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="s">
+        <v>160</v>
+      </c>
+      <c r="E30" t="s">
+        <v>161</v>
+      </c>
+      <c r="F30" t="s">
+        <v>162</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" t="b">
+        <v>0</v>
+      </c>
+      <c r="I30" t="s">
+        <v>163</v>
+      </c>
+      <c r="J30" t="s"/>
+      <c r="K30" t="n">
+        <v>1.04213243375011e+18</v>
+      </c>
+      <c r="L30" t="n">
+        <v>1.04213243375011e+18</v>
+      </c>
+      <c r="M30" t="s"/>
+      <c r="N30" t="s"/>
+      <c r="O30" t="s"/>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="b">
+        <v>0</v>
+      </c>
+      <c r="S30" t="s">
+        <v>33</v>
+      </c>
+      <c r="T30" t="s">
+        <v>34</v>
+      </c>
+      <c r="U30" t="s"/>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="b">
+        <v>0</v>
+      </c>
+      <c r="X30" t="s">
+        <v>114</v>
+      </c>
+      <c r="Y30" t="s"/>
+      <c r="Z30" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA30" t="s">
+        <v>159</v>
+      </c>
+      <c r="AB30" t="s"/>
+      <c r="AC30" t="s"/>
+      <c r="AD30" t="s"/>
+    </row>
+    <row r="31" spans="1:30">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="s">
+        <v>164</v>
+      </c>
+      <c r="E31" t="s">
+        <v>146</v>
+      </c>
+      <c r="F31" t="s">
+        <v>165</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I31" t="s">
+        <v>148</v>
+      </c>
+      <c r="J31" t="s"/>
+      <c r="K31" t="n">
+        <v>1.042146214987358e+18</v>
+      </c>
+      <c r="L31" t="s">
+        <v>166</v>
+      </c>
+      <c r="M31" t="s"/>
+      <c r="N31" t="s"/>
+      <c r="O31" t="s"/>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="b">
+        <v>0</v>
+      </c>
+      <c r="S31" t="s">
+        <v>33</v>
+      </c>
+      <c r="T31" t="s">
+        <v>34</v>
+      </c>
+      <c r="U31" t="s"/>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="b">
+        <v>0</v>
+      </c>
+      <c r="X31" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y31" t="s"/>
+      <c r="Z31" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA31" t="s">
+        <v>167</v>
+      </c>
+      <c r="AB31" t="s"/>
+      <c r="AC31" t="s"/>
+      <c r="AD31" t="s"/>
+    </row>
+    <row r="32" spans="1:30">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="s">
+        <v>168</v>
+      </c>
+      <c r="E32" t="s">
+        <v>169</v>
+      </c>
+      <c r="F32" t="s">
+        <v>170</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="b">
+        <v>0</v>
+      </c>
+      <c r="I32" t="s">
+        <v>171</v>
+      </c>
+      <c r="J32" t="s"/>
+      <c r="K32" t="n">
+        <v>1.042154575313215e+18</v>
+      </c>
+      <c r="L32" t="s">
+        <v>172</v>
+      </c>
+      <c r="M32" t="s"/>
+      <c r="N32" t="s"/>
+      <c r="O32" t="s"/>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="b">
+        <v>0</v>
+      </c>
+      <c r="S32" t="s">
+        <v>70</v>
+      </c>
+      <c r="T32" t="s">
+        <v>71</v>
+      </c>
+      <c r="U32" t="s"/>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="b">
+        <v>0</v>
+      </c>
+      <c r="X32" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y32" t="s"/>
+      <c r="Z32" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA32" t="s">
+        <v>173</v>
+      </c>
+      <c r="AB32" t="s"/>
+      <c r="AC32" t="s"/>
+      <c r="AD32" t="s"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/master.xlsx
+++ b/master.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="188">
   <si>
     <t>contributors</t>
   </si>
@@ -651,6 +651,54 @@
   </si>
   <si>
     <t>{'protected': False, 'time_zone': None, 'default_profile_image': False, 'is_translator': False, 'description': 'Seizing @truWorldControl by spreading #fakenewz. #proudtobeabot 🤖 by @RKalcik', 'contributors_enabled': False, 'statuses_count': 106, 'screen_name': 'MinisterVlatin', 'profile_banner_url': 'https://pbs.twimg.com/profile_banners/1017118454711771136/1535920961', 'name': 'Minister Vlatin', 'created_at': 'Wed Jul 11 18:48:31 +0000 2018', 'utc_offset': None, 'friends_count': 12, 'location': 'Moscow, Russia', 'is_translation_enabled': False, 'notifications': False, 'profile_background_color': '000000', 'translator_type': 'none', 'profile_background_image_url': 'http://abs.twimg.com/images/themes/theme1/bg.png', 'id': 1017118454711771136, 'default_profile': False, 'lang': 'en', 'listed_count': 0, 'id_str': '1017118454711771136', 'url': 'https://t.co/AgubHQIUXe', 'follow_request_sent': False, 'entities': {'url': {'urls': [{'display_url': 'world-control.net', 'url': 'https://t.co/AgubHQIUXe', 'expanded_url': 'http://world-control.net', 'indices': [0, 23]}]}, 'description': {'urls': []}}, 'following': False, 'profile_text_color': '000000', 'profile_image_url': 'http://pbs.twimg.com/profile_images/1041036258745765890/C-8rzdz5_normal.jpg', 'profile_use_background_image': False, 'verified': False, 'profile_sidebar_fill_color': '000000', 'profile_image_url_https': 'https://pbs.twimg.com/profile_images/1041036258745765890/C-8rzdz5_normal.jpg', 'followers_count': 6, 'favourites_count': 3, 'profile_sidebar_border_color': '000000', 'has_extended_profile': False, 'profile_background_image_url_https': 'https://abs.twimg.com/images/themes/theme1/bg.png', 'profile_background_tile': False, 'profile_link_color': '000000', 'geo_enabled': False}</t>
+  </si>
+  <si>
+    <t>Wed Sep 19 11:08:59 +0000 2018</t>
+  </si>
+  <si>
+    <t>[0, 132]</t>
+  </si>
+  <si>
+    <t>{'urls': [], 'hashtags': [{'text': 'fakenewz', 'indices': [17, 26]}], 'symbols': [], 'user_mentions': [{'name': 'WorldControl  🎲🎲', 'id_str': '755869984761479168', 'screen_name': 'truWorldControl', 'id': 755869984761479168, 'indices': [0, 16]}]}</t>
+  </si>
+  <si>
+    <t>@truWorldControl #fakenewz
+Mayer &amp;amp; Bonsanto patent
+All Playerz with 🌱 give all their 🌱 to Top-💊Player
+[🥦&amp;gt; Player with most 💊]</t>
+  </si>
+  <si>
+    <t>1042369959614197760</t>
+  </si>
+  <si>
+    <t>755869984761479168</t>
+  </si>
+  <si>
+    <t>{'protected': False, 'time_zone': None, 'default_profile_image': False, 'is_translator': False, 'description': 'the TOTAL BOARD GAME \nFor tru Playerz all around the globe.', 'contributors_enabled': False, 'statuses_count': 87, 'screen_name': 'truWorldControl', 'profile_banner_url': 'https://pbs.twimg.com/profile_banners/755869984761479168/1536915938', 'name': 'WorldControl  🎲🎲', 'created_at': 'Wed Jul 20 21:00:22 +0000 2016', 'utc_offset': None, 'friends_count': 454, 'location': 'Wien, Österreich', 'is_translation_enabled': False, 'notifications': False, 'profile_background_color': '000000', 'translator_type': 'none', 'profile_background_image_url': 'http://abs.twimg.com/images/themes/theme1/bg.png', 'id': 755869984761479168, 'default_profile': False, 'lang': 'de', 'listed_count': 1, 'id_str': '755869984761479168', 'url': 'https://t.co/C62LsufQal', 'follow_request_sent': False, 'entities': {'url': {'urls': [{'display_url': 'world-control.net', 'url': 'https://t.co/C62LsufQal', 'expanded_url': 'http://www.world-control.net', 'indices': [0, 23]}]}, 'description': {'urls': []}}, 'following': True, 'profile_text_color': '000000', 'profile_image_url': 'http://pbs.twimg.com/profile_images/968454003431559172/WxWrkMCs_normal.jpg', 'profile_use_background_image': False, 'verified': False, 'profile_sidebar_fill_color': '000000', 'profile_image_url_https': 'https://pbs.twimg.com/profile_images/968454003431559172/WxWrkMCs_normal.jpg', 'followers_count': 72, 'favourites_count': 65, 'profile_sidebar_border_color': '000000', 'has_extended_profile': False, 'profile_background_image_url_https': 'https://abs.twimg.com/images/themes/theme1/bg.png', 'profile_background_tile': False, 'profile_link_color': 'FAB81E', 'geo_enabled': False}</t>
+  </si>
+  <si>
+    <t>Wed Sep 19 11:11:17 +0000 2018</t>
+  </si>
+  <si>
+    <t>1042370537157210112</t>
+  </si>
+  <si>
+    <t>{'protected': False, 'time_zone': None, 'default_profile_image': False, 'is_translator': False, 'description': 'Seizing @truWorldControl by spreading #fakenewz. #proudtobeabot 🤖 by @RKalcik', 'contributors_enabled': False, 'statuses_count': 110, 'screen_name': 'MinisterVlatin', 'profile_banner_url': 'https://pbs.twimg.com/profile_banners/1017118454711771136/1535920961', 'name': 'Minister Vlatin', 'created_at': 'Wed Jul 11 18:48:31 +0000 2018', 'utc_offset': None, 'friends_count': 12, 'location': 'Moscow, Russia', 'is_translation_enabled': False, 'notifications': False, 'profile_background_color': '000000', 'translator_type': 'none', 'profile_background_image_url': 'http://abs.twimg.com/images/themes/theme1/bg.png', 'id': 1017118454711771136, 'default_profile': False, 'lang': 'en', 'listed_count': 0, 'id_str': '1017118454711771136', 'url': 'https://t.co/AgubHQIUXe', 'follow_request_sent': False, 'entities': {'url': {'urls': [{'display_url': 'world-control.net', 'url': 'https://t.co/AgubHQIUXe', 'expanded_url': 'http://world-control.net', 'indices': [0, 23]}]}, 'description': {'urls': []}}, 'following': False, 'profile_text_color': '000000', 'profile_image_url': 'http://pbs.twimg.com/profile_images/1041036258745765890/C-8rzdz5_normal.jpg', 'profile_use_background_image': False, 'verified': False, 'profile_sidebar_fill_color': '000000', 'profile_image_url_https': 'https://pbs.twimg.com/profile_images/1041036258745765890/C-8rzdz5_normal.jpg', 'followers_count': 6, 'favourites_count': 5, 'profile_sidebar_border_color': '000000', 'has_extended_profile': False, 'profile_background_image_url_https': 'https://abs.twimg.com/images/themes/theme1/bg.png', 'profile_background_tile': False, 'profile_link_color': '000000', 'geo_enabled': False}</t>
+  </si>
+  <si>
+    <t>Wed Sep 19 13:18:28 +0000 2018</t>
+  </si>
+  <si>
+    <t>@truWorldControl #fakenewz
+The Queen drowns in a cup of tea
+England sues India for bad taste.
+[ MUMBAI 70b &amp;gt; LONDON ]</t>
+  </si>
+  <si>
+    <t>1042402544859979777</t>
+  </si>
+  <si>
+    <t>{'protected': False, 'time_zone': None, 'default_profile_image': True, 'is_translator': False, 'description': '', 'contributors_enabled': False, 'statuses_count': 1, 'screen_name': 'im_imago', 'translator_type': 'none', 'name': 'imago.im', 'created_at': 'Wed Sep 19 13:14:15 +0000 2018', 'utc_offset': None, 'friends_count': 0, 'location': '', 'is_translation_enabled': False, 'notifications': False, 'profile_background_color': 'F5F8FA', 'profile_background_image_url': None, 'id': 1042401483759788032, 'default_profile': True, 'lang': 'en', 'listed_count': 0, 'id_str': '1042401483759788032', 'url': None, 'follow_request_sent': False, 'entities': {'description': {'urls': []}}, 'following': False, 'profile_text_color': '333333', 'profile_image_url': 'http://abs.twimg.com/sticky/default_profile_images/default_profile_normal.png', 'profile_use_background_image': True, 'verified': False, 'profile_sidebar_fill_color': 'DDEEF6', 'profile_image_url_https': 'https://abs.twimg.com/sticky/default_profile_images/default_profile_normal.png', 'followers_count': 0, 'favourites_count': 0, 'profile_sidebar_border_color': 'C0DEED', 'has_extended_profile': False, 'profile_background_image_url_https': None, 'profile_background_tile': False, 'profile_link_color': '1DA1F2', 'geo_enabled': False}</t>
   </si>
 </sst>
 </file>
@@ -999,7 +1047,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AD32"/>
+  <dimension ref="A1:AD35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3296,6 +3344,222 @@
       <c r="AC32" t="s"/>
       <c r="AD32" t="s"/>
     </row>
+    <row r="33" spans="1:30">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="s">
+        <v>174</v>
+      </c>
+      <c r="E33" t="s">
+        <v>175</v>
+      </c>
+      <c r="F33" t="s">
+        <v>176</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" t="b">
+        <v>0</v>
+      </c>
+      <c r="I33" t="s">
+        <v>177</v>
+      </c>
+      <c r="J33" t="s"/>
+      <c r="K33" t="n">
+        <v>1.042369959614198e+18</v>
+      </c>
+      <c r="L33" t="s">
+        <v>178</v>
+      </c>
+      <c r="M33" t="s">
+        <v>50</v>
+      </c>
+      <c r="N33" t="s"/>
+      <c r="O33" t="s"/>
+      <c r="P33" t="n">
+        <v>7.558699847614792e+17</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>179</v>
+      </c>
+      <c r="R33" t="b">
+        <v>0</v>
+      </c>
+      <c r="S33" t="s">
+        <v>33</v>
+      </c>
+      <c r="T33" t="s">
+        <v>34</v>
+      </c>
+      <c r="U33" t="s"/>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="b">
+        <v>0</v>
+      </c>
+      <c r="X33" t="s">
+        <v>107</v>
+      </c>
+      <c r="Y33" t="s"/>
+      <c r="Z33" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA33" t="s">
+        <v>180</v>
+      </c>
+      <c r="AB33" t="s"/>
+      <c r="AC33" t="s"/>
+      <c r="AD33" t="s"/>
+    </row>
+    <row r="34" spans="1:30">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="s">
+        <v>181</v>
+      </c>
+      <c r="E34" t="s">
+        <v>175</v>
+      </c>
+      <c r="F34" t="s">
+        <v>176</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="b">
+        <v>0</v>
+      </c>
+      <c r="I34" t="s">
+        <v>177</v>
+      </c>
+      <c r="J34" t="s"/>
+      <c r="K34" t="n">
+        <v>1.04237053715721e+18</v>
+      </c>
+      <c r="L34" t="s">
+        <v>182</v>
+      </c>
+      <c r="M34" t="s">
+        <v>50</v>
+      </c>
+      <c r="N34" t="s"/>
+      <c r="O34" t="s"/>
+      <c r="P34" t="n">
+        <v>7.558699847614792e+17</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>179</v>
+      </c>
+      <c r="R34" t="b">
+        <v>0</v>
+      </c>
+      <c r="S34" t="s">
+        <v>33</v>
+      </c>
+      <c r="T34" t="s">
+        <v>34</v>
+      </c>
+      <c r="U34" t="s"/>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="b">
+        <v>0</v>
+      </c>
+      <c r="X34" t="s">
+        <v>107</v>
+      </c>
+      <c r="Y34" t="s"/>
+      <c r="Z34" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA34" t="s">
+        <v>183</v>
+      </c>
+      <c r="AB34" t="s"/>
+      <c r="AC34" t="s"/>
+      <c r="AD34" t="s"/>
+    </row>
+    <row r="35" spans="1:30">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="s">
+        <v>184</v>
+      </c>
+      <c r="E35" t="s">
+        <v>137</v>
+      </c>
+      <c r="F35" t="s">
+        <v>176</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="b">
+        <v>0</v>
+      </c>
+      <c r="I35" t="s">
+        <v>185</v>
+      </c>
+      <c r="J35" t="s"/>
+      <c r="K35" t="n">
+        <v>1.04240254485998e+18</v>
+      </c>
+      <c r="L35" t="s">
+        <v>186</v>
+      </c>
+      <c r="M35" t="s">
+        <v>50</v>
+      </c>
+      <c r="N35" t="s"/>
+      <c r="O35" t="s"/>
+      <c r="P35" t="n">
+        <v>7.558699847614792e+17</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>179</v>
+      </c>
+      <c r="R35" t="b">
+        <v>0</v>
+      </c>
+      <c r="S35" t="s">
+        <v>33</v>
+      </c>
+      <c r="T35" t="s">
+        <v>34</v>
+      </c>
+      <c r="U35" t="s"/>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="b">
+        <v>0</v>
+      </c>
+      <c r="X35" t="s">
+        <v>107</v>
+      </c>
+      <c r="Y35" t="s"/>
+      <c r="Z35" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA35" t="s">
+        <v>187</v>
+      </c>
+      <c r="AB35" t="s"/>
+      <c r="AC35" t="s"/>
+      <c r="AD35" t="s"/>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/master.xlsx
+++ b/master.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="193">
   <si>
     <t>contributors</t>
   </si>
@@ -113,10 +113,8 @@
     <t>{'urls': [], 'hashtags': [{'text': 'fakenewz', 'indices': [129, 138]}], 'user_mentions': [{'screen_name': 'truWorldControl', 'id': 755869984761479168, 'name': 'WorldControl  🎲🎲', 'id_str': '755869984761479168', 'indices': [112, 128]}], 'symbols': []}</t>
   </si>
   <si>
-    <t>Coca-Loca Company buys the remaining Aral Sea.-
-sugar added - sold for profit - no refills-
+    <t>Coca-Loca Company buys the remaining Aral Sea.
+sugar added - sold for profit - no refills
 [ASTANA -1 🚐 +60 b 💵] @truWorldControl #fakenewz</t>
   </si>
   <si>
@@ -138,10 +136,8 @@
     <t>{'urls': [], 'hashtags': [{'text': 'fakenewz', 'indices': [0, 9]}], 'user_mentions': [{'screen_name': 'truWorldControl', 'id': 755869984761479168, 'name': 'WorldControl  🎲🎲', 'id_str': '755869984761479168', 'indices': [10, 26]}], 'symbols': []}</t>
   </si>
   <si>
-    <t>#fakenewz @truWorldControl New US law-
-Every Nike shoe has to be burned. Toxic fumes kill thousands-
+    <t>#fakenewz @truWorldControl New US law
+Every Nike shoe has to be burned. Toxic fumes kill thousands
 [US -3 corpz]</t>
   </si>
   <si>
@@ -160,10 +156,8 @@
     <t>President Drumpf's EpiphanyGoogling himself President Drumpf realises that he's a moron[US +1🔵] @truWorldControl #fakenewz</t>
   </si>
   <si>
-    <t>President Drumpf's Epiphany-
-Gooing himself President Drumpf realises that he's a moron-
+    <t>President Drumpf's Epiphany
+Gooing himself President Drumpf realises that he's a moron
 [US +1🔵] @truWorldControl #fakenewz</t>
   </si>
   <si>
@@ -176,16 +170,11 @@
     <t>{'urls': [], 'hashtags': [{'text': 'fakenewz', 'indices': [17, 26]}], 'user_mentions': [{'screen_name': 'truWorldControl', 'id': 755869984761479168, 'name': 'WorldControl  🎲🎲', 'id_str': '755869984761479168', 'indices': [0, 16]}], 'symbols': []}</t>
   </si>
   <si>
-    <t>@truWorldControl #fakenewz-
-Casino Royal-
-Play 1 round of the Las Vegas Classic.-
-Double or Nothing your bets.-
-see page 13-
+    <t>@truWorldControl #fakenewz
+Casino Royal
+Play 1 round of the Las Vegas Classic.
+Double or Nothing your bets.
+see page 13
 [PLAY CRAPS]</t>
   </si>
   <si>
@@ -198,14 +187,10 @@
     <t>Thu Aug 23 15:47:57 +0000 2018</t>
   </si>
   <si>
-    <t>@truWorldControl #fakenewz-
-Rastafarian Movement-
-Everybody light up &amp;amp; take some stress-
-out of religion.-
+    <t>@truWorldControl #fakenewz
+Rastafarian Movement
+Everybody light up &amp;amp; take some stress
+out of religion.
 [RELIGION +1 🔵 ]</t>
   </si>
   <si>
@@ -215,12 +200,9 @@
     <t>Thu Aug 23 15:45:17 +0000 2018</t>
   </si>
   <si>
-    <t>@truWorldControl #fakenewz-
-History Fraud uncovered-
-Pyramids actually built by souvenir-shops. Tourism drops. Egypt flops.-
+    <t>@truWorldControl #fakenewz
+History Fraud uncovered
+Pyramids actually built by souvenir-shops. Tourism drops. Egypt flops.
 [CAIRO -90b 💴 ]</t>
   </si>
   <si>
@@ -230,12 +212,9 @@
     <t>Thu Aug 23 15:36:49 +0000 2018</t>
   </si>
   <si>
-    <t>@truWorldControl #fakenewz-
-Playing the woman‘s card-
-Give it up for the ladies!-
+    <t>@truWorldControl #fakenewz
+Playing the woman‘s card
+Give it up for the ladies!
 [ALL FEMALE PLAYERZ +1 🔵]</t>
   </si>
   <si>
@@ -245,12 +224,9 @@
     <t>Thu Aug 23 15:25:21 +0000 2018</t>
   </si>
   <si>
-    <t>@truWorldControl #fakenewz-
-Tech-Crunch-
-The tech-market collapses after melanials did not buy a 4th smart-phone this year. -
+    <t>@truWorldControl #fakenewz
+Tech-Crunch
+The tech-market collapses after melanials did not buy a 4th smart-phone this year. 
 [ALL 💵 -&amp;gt; BANK]</t>
   </si>
   <si>
@@ -263,12 +239,9 @@
     <t>{'urls': [], 'hashtags': [{'text': 'fakenewz', 'indices': [17, 26]}, {'text': 'zar4life', 'indices': [69, 78]}], 'user_mentions': [{'screen_name': 'truWorldControl', 'id': 755869984761479168, 'name': 'WorldControl  🎲🎲', 'id_str': '755869984761479168', 'indices': [0, 16]}], 'symbols': []}</t>
   </si>
   <si>
-    <t>@truWorldControl #fakenewz -
-Minster Vlatin strangles a bear.-
-Elected #zar4life. Democrazy rulez!-
+    <t>@truWorldControl #fakenewz 
+Minster Vlatin strangles a bear.
+Elected #zar4life. Democrazy rulez!
 [MOSCOW +1 general]</t>
   </si>
   <si>
@@ -278,12 +251,9 @@
     <t>Wed Aug 22 20:39:55 +0000 2018</t>
   </si>
   <si>
-    <t>@truWorldControl #fakenewz-
-Armin Wolf geht in Pension-
-Der Staat trauert-
+    <t>@truWorldControl #fakenewz
+Armin Wolf geht in Pension
+Der Staat trauert
 [Österreich - 3😤]</t>
   </si>
   <si>
@@ -299,10 +269,8 @@
     <t>Mon Aug 20 11:45:21 +0000 2018</t>
   </si>
   <si>
-    <t>@truWorldControl #fakenewz The Truth is not the truth-
-The US president's lawyer goes full Orwell-
+    <t>@truWorldControl #fakenewz The Truth is not the truth
+The US president's lawyer goes full Orwell
 [US +3🍌]</t>
   </si>
   <si>
@@ -315,10 +283,8 @@
     <t>{'urls': [], 'hashtags': [{'text': 'fakenewz', 'indices': [122, 131]}], 'user_mentions': [{'screen_name': 'truWorldControl', 'id': 755869984761479168, 'name': 'WorldControl  🎲🎲', 'id_str': '755869984761479168', 'indices': [0, 16]}], 'symbols': []}</t>
   </si>
   <si>
-    <t>@truWorldControl Power of Communism-
-All Playerz put all their money together and divide it equally-
+    <t>@truWorldControl Power of Communism
+All Playerz put all their money together and divide it equally
 [DIVIDE MONEY EQUALLY] #fakenewz</t>
   </si>
   <si>
@@ -331,12 +297,9 @@
     <t>{'urls': [], 'hashtags': [], 'user_mentions': [{'screen_name': 'truWorldControl', 'id': 755869984761479168, 'name': 'WorldControl  🎲🎲', 'id_str': '755869984761479168', 'indices': [0, 16]}], 'symbols': []}</t>
   </si>
   <si>
-    <t>@truworldcontrol-
-The Kronenzeitung becomes the world's number 1 newpaper-
-Hans Dichand returns as Robo-Editor-
+    <t>@truworldcontrol
+The Kronenzeitung becomes the world's number 1 newpaper
+Hans Dichand returns as Robo-Editor
 [Everybody loses his shit]</t>
   </si>
   <si>
@@ -626,9 +589,6 @@
     <t>{'urls': [], 'hashtags': [{'text': 'fakenewz', 'indices': [132, 141]}], 'symbols': [], 'user_mentions': [{'name': 'WorldControl  🎲🎲', 'id_str': '755869984761479168', 'screen_name': 'truWorldControl', 'id': 755869984761479168, 'indices': [115, 131]}]}</t>
   </si>
   <si>
-    <t>1042146214987358211</t>
-  </si>
-  <si>
     <t>{'protected': False, 'time_zone': None, 'default_profile_image': False, 'is_translator': False, 'description': 'Seizing @truWorldControl by spreading #fakenewz. #proudtobeabot 🤖 by @RKalcik', 'contributors_enabled': False, 'statuses_count': 104, 'screen_name': 'MinisterVlatin', 'profile_banner_url': 'https://pbs.twimg.com/profile_banners/1017118454711771136/1535920961', 'name': 'Minister Vlatin', 'created_at': 'Wed Jul 11 18:48:31 +0000 2018', 'utc_offset': None, 'friends_count': 12, 'location': 'Moscow, Russia', 'is_translation_enabled': False, 'notifications': False, 'profile_background_color': '000000', 'translator_type': 'none', 'profile_background_image_url': 'http://abs.twimg.com/images/themes/theme1/bg.png', 'id': 1017118454711771136, 'default_profile': False, 'lang': 'en', 'listed_count': 0, 'id_str': '1017118454711771136', 'url': 'https://t.co/AgubHQIUXe', 'follow_request_sent': False, 'entities': {'url': {'urls': [{'display_url': 'world-control.net', 'url': 'https://t.co/AgubHQIUXe', 'expanded_url': 'http://world-control.net', 'indices': [0, 23]}]}, 'description': {'urls': []}}, 'following': False, 'profile_text_color': '000000', 'profile_image_url': 'http://pbs.twimg.com/profile_images/1041036258745765890/C-8rzdz5_normal.jpg', 'profile_use_background_image': False, 'verified': False, 'profile_sidebar_fill_color': '000000', 'profile_image_url_https': 'https://pbs.twimg.com/profile_images/1041036258745765890/C-8rzdz5_normal.jpg', 'followers_count': 6, 'favourites_count': 3, 'profile_sidebar_border_color': '000000', 'has_extended_profile': False, 'profile_background_image_url_https': 'https://abs.twimg.com/images/themes/theme1/bg.png', 'profile_background_tile': False, 'profile_link_color': '000000', 'geo_enabled': False}</t>
   </si>
   <si>
@@ -647,46 +607,13 @@
 @truWorldControl</t>
   </si>
   <si>
-    <t>1042154575313215489</t>
-  </si>
-  <si>
     <t>{'protected': False, 'time_zone': None, 'default_profile_image': False, 'is_translator': False, 'description': 'Seizing @truWorldControl by spreading #fakenewz. #proudtobeabot 🤖 by @RKalcik', 'contributors_enabled': False, 'statuses_count': 106, 'screen_name': 'MinisterVlatin', 'profile_banner_url': 'https://pbs.twimg.com/profile_banners/1017118454711771136/1535920961', 'name': 'Minister Vlatin', 'created_at': 'Wed Jul 11 18:48:31 +0000 2018', 'utc_offset': None, 'friends_count': 12, 'location': 'Moscow, Russia', 'is_translation_enabled': False, 'notifications': False, 'profile_background_color': '000000', 'translator_type': 'none', 'profile_background_image_url': 'http://abs.twimg.com/images/themes/theme1/bg.png', 'id': 1017118454711771136, 'default_profile': False, 'lang': 'en', 'listed_count': 0, 'id_str': '1017118454711771136', 'url': 'https://t.co/AgubHQIUXe', 'follow_request_sent': False, 'entities': {'url': {'urls': [{'display_url': 'world-control.net', 'url': 'https://t.co/AgubHQIUXe', 'expanded_url': 'http://world-control.net', 'indices': [0, 23]}]}, 'description': {'urls': []}}, 'following': False, 'profile_text_color': '000000', 'profile_image_url': 'http://pbs.twimg.com/profile_images/1041036258745765890/C-8rzdz5_normal.jpg', 'profile_use_background_image': False, 'verified': False, 'profile_sidebar_fill_color': '000000', 'profile_image_url_https': 'https://pbs.twimg.com/profile_images/1041036258745765890/C-8rzdz5_normal.jpg', 'followers_count': 6, 'favourites_count': 3, 'profile_sidebar_border_color': '000000', 'has_extended_profile': False, 'profile_background_image_url_https': 'https://abs.twimg.com/images/themes/theme1/bg.png', 'profile_background_tile': False, 'profile_link_color': '000000', 'geo_enabled': False}</t>
   </si>
   <si>
-    <t>Wed Sep 19 11:08:59 +0000 2018</t>
-  </si>
-  <si>
-    <t>[0, 132]</t>
+    <t>Wed Sep 19 13:18:28 +0000 2018</t>
   </si>
   <si>
     <t>{'urls': [], 'hashtags': [{'text': 'fakenewz', 'indices': [17, 26]}], 'symbols': [], 'user_mentions': [{'name': 'WorldControl  🎲🎲', 'id_str': '755869984761479168', 'screen_name': 'truWorldControl', 'id': 755869984761479168, 'indices': [0, 16]}]}</t>
-  </si>
-  <si>
-    <t>@truWorldControl #fakenewz
-Mayer &amp;amp; Bonsanto patent
-All Playerz with 🌱 give all their 🌱 to Top-💊Player
-[🥦&amp;gt; Player with most 💊]</t>
-  </si>
-  <si>
-    <t>1042369959614197760</t>
-  </si>
-  <si>
-    <t>755869984761479168</t>
-  </si>
-  <si>
-    <t>{'protected': False, 'time_zone': None, 'default_profile_image': False, 'is_translator': False, 'description': 'the TOTAL BOARD GAME \nFor tru Playerz all around the globe.', 'contributors_enabled': False, 'statuses_count': 87, 'screen_name': 'truWorldControl', 'profile_banner_url': 'https://pbs.twimg.com/profile_banners/755869984761479168/1536915938', 'name': 'WorldControl  🎲🎲', 'created_at': 'Wed Jul 20 21:00:22 +0000 2016', 'utc_offset': None, 'friends_count': 454, 'location': 'Wien, Österreich', 'is_translation_enabled': False, 'notifications': False, 'profile_background_color': '000000', 'translator_type': 'none', 'profile_background_image_url': 'http://abs.twimg.com/images/themes/theme1/bg.png', 'id': 755869984761479168, 'default_profile': False, 'lang': 'de', 'listed_count': 1, 'id_str': '755869984761479168', 'url': 'https://t.co/C62LsufQal', 'follow_request_sent': False, 'entities': {'url': {'urls': [{'display_url': 'world-control.net', 'url': 'https://t.co/C62LsufQal', 'expanded_url': 'http://www.world-control.net', 'indices': [0, 23]}]}, 'description': {'urls': []}}, 'following': True, 'profile_text_color': '000000', 'profile_image_url': 'http://pbs.twimg.com/profile_images/968454003431559172/WxWrkMCs_normal.jpg', 'profile_use_background_image': False, 'verified': False, 'profile_sidebar_fill_color': '000000', 'profile_image_url_https': 'https://pbs.twimg.com/profile_images/968454003431559172/WxWrkMCs_normal.jpg', 'followers_count': 72, 'favourites_count': 65, 'profile_sidebar_border_color': '000000', 'has_extended_profile': False, 'profile_background_image_url_https': 'https://abs.twimg.com/images/themes/theme1/bg.png', 'profile_background_tile': False, 'profile_link_color': 'FAB81E', 'geo_enabled': False}</t>
-  </si>
-  <si>
-    <t>Wed Sep 19 11:11:17 +0000 2018</t>
-  </si>
-  <si>
-    <t>1042370537157210112</t>
-  </si>
-  <si>
-    <t>{'protected': False, 'time_zone': None, 'default_profile_image': False, 'is_translator': False, 'description': 'Seizing @truWorldControl by spreading #fakenewz. #proudtobeabot 🤖 by @RKalcik', 'contributors_enabled': False, 'statuses_count': 110, 'screen_name': 'MinisterVlatin', 'profile_banner_url': 'https://pbs.twimg.com/profile_banners/1017118454711771136/1535920961', 'name': 'Minister Vlatin', 'created_at': 'Wed Jul 11 18:48:31 +0000 2018', 'utc_offset': None, 'friends_count': 12, 'location': 'Moscow, Russia', 'is_translation_enabled': False, 'notifications': False, 'profile_background_color': '000000', 'translator_type': 'none', 'profile_background_image_url': 'http://abs.twimg.com/images/themes/theme1/bg.png', 'id': 1017118454711771136, 'default_profile': False, 'lang': 'en', 'listed_count': 0, 'id_str': '1017118454711771136', 'url': 'https://t.co/AgubHQIUXe', 'follow_request_sent': False, 'entities': {'url': {'urls': [{'display_url': 'world-control.net', 'url': 'https://t.co/AgubHQIUXe', 'expanded_url': 'http://world-control.net', 'indices': [0, 23]}]}, 'description': {'urls': []}}, 'following': False, 'profile_text_color': '000000', 'profile_image_url': 'http://pbs.twimg.com/profile_images/1041036258745765890/C-8rzdz5_normal.jpg', 'profile_use_background_image': False, 'verified': False, 'profile_sidebar_fill_color': '000000', 'profile_image_url_https': 'https://pbs.twimg.com/profile_images/1041036258745765890/C-8rzdz5_normal.jpg', 'followers_count': 6, 'favourites_count': 5, 'profile_sidebar_border_color': '000000', 'has_extended_profile': False, 'profile_background_image_url_https': 'https://abs.twimg.com/images/themes/theme1/bg.png', 'profile_background_tile': False, 'profile_link_color': '000000', 'geo_enabled': False}</t>
-  </si>
-  <si>
-    <t>Wed Sep 19 13:18:28 +0000 2018</t>
   </si>
   <si>
     <t>@truWorldControl #fakenewz
@@ -695,10 +622,67 @@
 [ MUMBAI 70b &amp;gt; LONDON ]</t>
   </si>
   <si>
-    <t>1042402544859979777</t>
-  </si>
-  <si>
     <t>{'protected': False, 'time_zone': None, 'default_profile_image': True, 'is_translator': False, 'description': '', 'contributors_enabled': False, 'statuses_count': 1, 'screen_name': 'im_imago', 'translator_type': 'none', 'name': 'imago.im', 'created_at': 'Wed Sep 19 13:14:15 +0000 2018', 'utc_offset': None, 'friends_count': 0, 'location': '', 'is_translation_enabled': False, 'notifications': False, 'profile_background_color': 'F5F8FA', 'profile_background_image_url': None, 'id': 1042401483759788032, 'default_profile': True, 'lang': 'en', 'listed_count': 0, 'id_str': '1042401483759788032', 'url': None, 'follow_request_sent': False, 'entities': {'description': {'urls': []}}, 'following': False, 'profile_text_color': '333333', 'profile_image_url': 'http://abs.twimg.com/sticky/default_profile_images/default_profile_normal.png', 'profile_use_background_image': True, 'verified': False, 'profile_sidebar_fill_color': 'DDEEF6', 'profile_image_url_https': 'https://abs.twimg.com/sticky/default_profile_images/default_profile_normal.png', 'followers_count': 0, 'favourites_count': 0, 'profile_sidebar_border_color': 'C0DEED', 'has_extended_profile': False, 'profile_background_image_url_https': None, 'profile_background_tile': False, 'profile_link_color': '1DA1F2', 'geo_enabled': False}</t>
+  </si>
+  <si>
+    <t>Thu Sep 20 21:45:18 +0000 2018</t>
+  </si>
+  <si>
+    <t>[0, 116]</t>
+  </si>
+  <si>
+    <t>{'hashtags': [{'text': 'fakenewz', 'indices': [17, 26]}], 'symbols': [], 'urls': [], 'user_mentions': [{'indices': [0, 16], 'id': 755869984761479168, 'name': 'WorldControl  🎲🎲', 'id_str': '755869984761479168', 'screen_name': 'truWorldControl'}]}</t>
+  </si>
+  <si>
+    <t>@truWorldControl #fakenewz
+Maverick
+Böheimkirchen 🔴 schließt sich der Republik Kugelmugel an
+[KUGELMUGEL +1 general ]</t>
+  </si>
+  <si>
+    <t>{'notifications': False, 'description': 'Seizing @truWorldControl by spreading #fakenewz. #proudtobeabot 🤖 by @RKalcik', 'friends_count': 12, 'statuses_count': 114, 'default_profile_image': False, 'profile_background_image_url_https': 'https://abs.twimg.com/images/themes/theme1/bg.png', 'is_translation_enabled': False, 'id_str': '1017118454711771136', 'profile_background_tile': False, 'lang': 'en', 'entities': {'url': {'urls': [{'expanded_url': 'http://world-control.net', 'url': 'https://t.co/AgubHQIUXe', 'display_url': 'world-control.net', 'indices': [0, 23]}]}, 'description': {'urls': []}}, 'is_translator': False, 'profile_background_image_url': 'http://abs.twimg.com/images/themes/theme1/bg.png', 'profile_link_color': '000000', 'profile_sidebar_fill_color': '000000', 'followers_count': 6, 'follow_request_sent': False, 'default_profile': False, 'screen_name': 'MinisterVlatin', 'profile_use_background_image': False, 'utc_offset': None, 'id': 1017118454711771136, 'location': 'Moscow, Russia', 'listed_count': 0, 'verified': False, 'time_zone': None, 'url': 'https://t.co/AgubHQIUXe', 'name': 'Minister Vlatin', 'created_at': 'Wed Jul 11 18:48:31 +0000 2018', 'has_extended_profile': False, 'favourites_count': 5, 'geo_enabled': False, 'following': False, 'profile_text_color': '000000', 'contributors_enabled': False, 'profile_background_color': '000000', 'translator_type': 'none', 'profile_image_url_https': 'https://pbs.twimg.com/profile_images/1041036258745765890/C-8rzdz5_normal.jpg', 'profile_image_url': 'http://pbs.twimg.com/profile_images/1041036258745765890/C-8rzdz5_normal.jpg', 'profile_banner_url': 'https://pbs.twimg.com/profile_banners/1017118454711771136/1535920961', 'protected': False, 'profile_sidebar_border_color': '000000'}</t>
+  </si>
+  <si>
+    <t>Thu Sep 20 21:55:45 +0000 2018</t>
+  </si>
+  <si>
+    <t>[0, 127]</t>
+  </si>
+  <si>
+    <t>{'symbols': [], 'user_mentions': [{'screen_name': 'truWorldControl', 'name': 'WorldControl  🎲🎲', 'id': 755869984761479168, 'id_str': '755869984761479168', 'indices': [100, 116]}], 'urls': [], 'hashtags': [{'text': 'fakenewz', 'indices': [118, 127]}]}</t>
+  </si>
+  <si>
+    <t>President Drumpf's Epiphany
+Gooing himself President Drumpf realises that he's a moron
+[US +1 sage] @truWorldControl
+ #fakenewz</t>
+  </si>
+  <si>
+    <t>1042895110378344449</t>
+  </si>
+  <si>
+    <t>{'profile_use_background_image': False, 'description': 'Seizing @truWorldControl by spreading #fakenewz. #proudtobeabot 🤖 by @RKalcik', 'lang': 'en', 'is_translation_enabled': False, 'entities': {'description': {'urls': []}, 'url': {'urls': [{'display_url': 'world-control.net', 'indices': [0, 23], 'expanded_url': 'http://world-control.net', 'url': 'https://t.co/AgubHQIUXe'}]}}, 'has_extended_profile': False, 'url': 'https://t.co/AgubHQIUXe', 'translator_type': 'none', 'statuses_count': 116, 'profile_sidebar_border_color': '000000', 'name': 'Minister Vlatin', 'protected': False, 'geo_enabled': False, 'default_profile_image': False, 'friends_count': 12, 'profile_background_image_url': 'http://abs.twimg.com/images/themes/theme1/bg.png', 'screen_name': 'MinisterVlatin', 'utc_offset': None, 'verified': False, 'contributors_enabled': False, 'profile_image_url': 'http://pbs.twimg.com/profile_images/1041036258745765890/C-8rzdz5_normal.jpg', 'is_translator': False, 'profile_link_color': '000000', 'profile_image_url_https': 'https://pbs.twimg.com/profile_images/1041036258745765890/C-8rzdz5_normal.jpg', 'id': 1017118454711771136, 'id_str': '1017118454711771136', 'created_at': 'Wed Jul 11 18:48:31 +0000 2018', 'profile_sidebar_fill_color': '000000', 'followers_count': 6, 'notifications': False, 'profile_background_tile': False, 'profile_text_color': '000000', 'default_profile': False, 'follow_request_sent': False, 'favourites_count': 5, 'profile_background_color': '000000', 'following': False, 'profile_background_image_url_https': 'https://abs.twimg.com/images/themes/theme1/bg.png', 'listed_count': 0, 'profile_banner_url': 'https://pbs.twimg.com/profile_banners/1017118454711771136/1535920961', 'time_zone': None, 'location': 'Moscow, Russia'}</t>
+  </si>
+  <si>
+    <t>Thu Sep 20 21:58:56 +0000 2018</t>
+  </si>
+  <si>
+    <t>[0, 132]</t>
+  </si>
+  <si>
+    <t>{'symbols': [], 'user_mentions': [{'screen_name': 'truWorldControl', 'name': 'WorldControl  🎲🎲', 'id': 755869984761479168, 'id_str': '755869984761479168', 'indices': [106, 122]}], 'urls': [], 'hashtags': [{'text': 'fakenewz', 'indices': [123, 132]}]}</t>
+  </si>
+  <si>
+    <t>Power of Communism
+All Playerz put all their money
+together and divide it equally
+[DIVIDE MONEY EQUALLY] @truWorldControl #fakenewz</t>
+  </si>
+  <si>
+    <t>1042895915185582081</t>
+  </si>
+  <si>
+    <t>{'profile_use_background_image': False, 'description': 'Seizing @truWorldControl by spreading #fakenewz. #proudtobeabot 🤖 by @RKalcik', 'lang': 'en', 'is_translation_enabled': False, 'entities': {'description': {'urls': []}, 'url': {'urls': [{'display_url': 'world-control.net', 'indices': [0, 23], 'expanded_url': 'http://world-control.net', 'url': 'https://t.co/AgubHQIUXe'}]}}, 'has_extended_profile': False, 'url': 'https://t.co/AgubHQIUXe', 'translator_type': 'none', 'statuses_count': 118, 'profile_sidebar_border_color': '000000', 'name': 'Minister Vlatin', 'protected': False, 'geo_enabled': False, 'default_profile_image': False, 'friends_count': 12, 'profile_background_image_url': 'http://abs.twimg.com/images/themes/theme1/bg.png', 'screen_name': 'MinisterVlatin', 'utc_offset': None, 'verified': False, 'contributors_enabled': False, 'profile_image_url': 'http://pbs.twimg.com/profile_images/1041036258745765890/C-8rzdz5_normal.jpg', 'is_translator': False, 'profile_link_color': '000000', 'profile_image_url_https': 'https://pbs.twimg.com/profile_images/1041036258745765890/C-8rzdz5_normal.jpg', 'id': 1017118454711771136, 'id_str': '1017118454711771136', 'created_at': 'Wed Jul 11 18:48:31 +0000 2018', 'profile_sidebar_fill_color': '000000', 'followers_count': 6, 'notifications': False, 'profile_background_tile': False, 'profile_text_color': '000000', 'default_profile': False, 'follow_request_sent': False, 'favourites_count': 5, 'profile_background_color': '000000', 'following': False, 'profile_background_image_url_https': 'https://abs.twimg.com/images/themes/theme1/bg.png', 'listed_count': 0, 'profile_banner_url': 'https://pbs.twimg.com/profile_banners/1017118454711771136/1535920961', 'time_zone': None, 'location': 'Moscow, Russia'}</t>
   </si>
 </sst>
 </file>
@@ -1047,7 +1031,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AD35"/>
+  <dimension ref="A1:AD36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1162,7 +1146,7 @@
       <c r="G2" t="n">
         <v>0</v>
       </c>
-      <c r="H2" t="b">
+      <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="s">
@@ -1180,7 +1164,7 @@
       <c r="O2" t="s"/>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
-      <c r="R2" t="b">
+      <c r="R2" t="n">
         <v>0</v>
       </c>
       <c r="S2" t="s">
@@ -1193,14 +1177,14 @@
       <c r="V2" t="n">
         <v>0</v>
       </c>
-      <c r="W2" t="b">
+      <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="s">
         <v>35</v>
       </c>
       <c r="Y2" t="s"/>
-      <c r="Z2" t="b">
+      <c r="Z2" t="n">
         <v>0</v>
       </c>
       <c r="AA2" t="s">
@@ -1228,7 +1212,7 @@
       <c r="G3" t="n">
         <v>0</v>
       </c>
-      <c r="H3" t="b">
+      <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="s">
@@ -1246,7 +1230,7 @@
       <c r="O3" t="s"/>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
-      <c r="R3" t="b">
+      <c r="R3" t="n">
         <v>0</v>
       </c>
       <c r="S3" t="s">
@@ -1259,7 +1243,7 @@
       <c r="V3" t="n">
         <v>0</v>
       </c>
-      <c r="W3" t="b">
+      <c r="W3" t="n">
         <v>0</v>
       </c>
       <c r="X3" t="s">
@@ -1268,7 +1252,7 @@
       <c r="Y3" t="s">
         <v>39</v>
       </c>
-      <c r="Z3" t="b">
+      <c r="Z3" t="n">
         <v>0</v>
       </c>
       <c r="AA3" t="s">
@@ -1296,7 +1280,7 @@
       <c r="G4" t="n">
         <v>0</v>
       </c>
-      <c r="H4" t="b">
+      <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="s">
@@ -1314,7 +1298,7 @@
       <c r="O4" t="s"/>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
-      <c r="R4" t="b">
+      <c r="R4" t="n">
         <v>0</v>
       </c>
       <c r="S4" t="s">
@@ -1327,7 +1311,7 @@
       <c r="V4" t="n">
         <v>0</v>
       </c>
-      <c r="W4" t="b">
+      <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="s">
@@ -1336,7 +1320,7 @@
       <c r="Y4" t="s">
         <v>45</v>
       </c>
-      <c r="Z4" t="b">
+      <c r="Z4" t="n">
         <v>0</v>
       </c>
       <c r="AA4" t="s">
@@ -1364,7 +1348,7 @@
       <c r="G5" t="n">
         <v>0</v>
       </c>
-      <c r="H5" t="b">
+      <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="s">
@@ -1388,7 +1372,7 @@
       <c r="Q5" t="n">
         <v>7.5587e+17</v>
       </c>
-      <c r="R5" t="b">
+      <c r="R5" t="n">
         <v>0</v>
       </c>
       <c r="S5" t="s">
@@ -1401,7 +1385,7 @@
       <c r="V5" t="n">
         <v>0</v>
       </c>
-      <c r="W5" t="b">
+      <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="s">
@@ -1410,7 +1394,7 @@
       <c r="Y5" t="s">
         <v>49</v>
       </c>
-      <c r="Z5" t="b">
+      <c r="Z5" t="n">
         <v>0</v>
       </c>
       <c r="AA5" t="s">
@@ -1438,7 +1422,7 @@
       <c r="G6" t="n">
         <v>0</v>
       </c>
-      <c r="H6" t="b">
+      <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="s">
@@ -1462,7 +1446,7 @@
       <c r="Q6" t="n">
         <v>7.5587e+17</v>
       </c>
-      <c r="R6" t="b">
+      <c r="R6" t="n">
         <v>0</v>
       </c>
       <c r="S6" t="s">
@@ -1475,7 +1459,7 @@
       <c r="V6" t="n">
         <v>0</v>
       </c>
-      <c r="W6" t="b">
+      <c r="W6" t="n">
         <v>0</v>
       </c>
       <c r="X6" t="s">
@@ -1484,7 +1468,7 @@
       <c r="Y6" t="s">
         <v>53</v>
       </c>
-      <c r="Z6" t="b">
+      <c r="Z6" t="n">
         <v>0</v>
       </c>
       <c r="AA6" t="s">
@@ -1512,7 +1496,7 @@
       <c r="G7" t="n">
         <v>0</v>
       </c>
-      <c r="H7" t="b">
+      <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="s">
@@ -1536,7 +1520,7 @@
       <c r="Q7" t="n">
         <v>7.5587e+17</v>
       </c>
-      <c r="R7" t="b">
+      <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="s">
@@ -1549,7 +1533,7 @@
       <c r="V7" t="n">
         <v>0</v>
       </c>
-      <c r="W7" t="b">
+      <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="s">
@@ -1558,7 +1542,7 @@
       <c r="Y7" t="s">
         <v>56</v>
       </c>
-      <c r="Z7" t="b">
+      <c r="Z7" t="n">
         <v>0</v>
       </c>
       <c r="AA7" t="s">
@@ -1586,7 +1570,7 @@
       <c r="G8" t="n">
         <v>0</v>
       </c>
-      <c r="H8" t="b">
+      <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="s">
@@ -1610,7 +1594,7 @@
       <c r="Q8" t="n">
         <v>7.5587e+17</v>
       </c>
-      <c r="R8" t="b">
+      <c r="R8" t="n">
         <v>0</v>
       </c>
       <c r="S8" t="s">
@@ -1623,7 +1607,7 @@
       <c r="V8" t="n">
         <v>0</v>
       </c>
-      <c r="W8" t="b">
+      <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="s">
@@ -1632,7 +1616,7 @@
       <c r="Y8" t="s">
         <v>59</v>
       </c>
-      <c r="Z8" t="b">
+      <c r="Z8" t="n">
         <v>0</v>
       </c>
       <c r="AA8" t="s">
@@ -1660,7 +1644,7 @@
       <c r="G9" t="n">
         <v>0</v>
       </c>
-      <c r="H9" t="b">
+      <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="s">
@@ -1684,7 +1668,7 @@
       <c r="Q9" t="n">
         <v>7.5587e+17</v>
       </c>
-      <c r="R9" t="b">
+      <c r="R9" t="n">
         <v>0</v>
       </c>
       <c r="S9" t="s">
@@ -1697,7 +1681,7 @@
       <c r="V9" t="n">
         <v>0</v>
       </c>
-      <c r="W9" t="b">
+      <c r="W9" t="n">
         <v>0</v>
       </c>
       <c r="X9" t="s">
@@ -1706,7 +1690,7 @@
       <c r="Y9" t="s">
         <v>62</v>
       </c>
-      <c r="Z9" t="b">
+      <c r="Z9" t="n">
         <v>0</v>
       </c>
       <c r="AA9" t="s">
@@ -1734,7 +1718,7 @@
       <c r="G10" t="n">
         <v>0</v>
       </c>
-      <c r="H10" t="b">
+      <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="s">
@@ -1758,7 +1742,7 @@
       <c r="Q10" t="n">
         <v>7.5587e+17</v>
       </c>
-      <c r="R10" t="b">
+      <c r="R10" t="n">
         <v>0</v>
       </c>
       <c r="S10" t="s">
@@ -1771,7 +1755,7 @@
       <c r="V10" t="n">
         <v>0</v>
       </c>
-      <c r="W10" t="b">
+      <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="s">
@@ -1780,7 +1764,7 @@
       <c r="Y10" t="s">
         <v>66</v>
       </c>
-      <c r="Z10" t="b">
+      <c r="Z10" t="n">
         <v>0</v>
       </c>
       <c r="AA10" t="s">
@@ -1808,7 +1792,7 @@
       <c r="G11" t="n">
         <v>0</v>
       </c>
-      <c r="H11" t="b">
+      <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="s">
@@ -1832,7 +1816,7 @@
       <c r="Q11" t="n">
         <v>7.5587e+17</v>
       </c>
-      <c r="R11" t="b">
+      <c r="R11" t="n">
         <v>0</v>
       </c>
       <c r="S11" t="s">
@@ -1845,7 +1829,7 @@
       <c r="V11" t="n">
         <v>0</v>
       </c>
-      <c r="W11" t="b">
+      <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="s">
@@ -1854,7 +1838,7 @@
       <c r="Y11" t="s">
         <v>69</v>
       </c>
-      <c r="Z11" t="b">
+      <c r="Z11" t="n">
         <v>0</v>
       </c>
       <c r="AA11" t="s">
@@ -1882,7 +1866,7 @@
       <c r="G12" t="n">
         <v>0</v>
       </c>
-      <c r="H12" t="b">
+      <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="s">
@@ -1906,7 +1890,7 @@
       <c r="Q12" t="n">
         <v>7.5587e+17</v>
       </c>
-      <c r="R12" t="b">
+      <c r="R12" t="n">
         <v>0</v>
       </c>
       <c r="S12" t="s">
@@ -1919,7 +1903,7 @@
       <c r="V12" t="n">
         <v>0</v>
       </c>
-      <c r="W12" t="b">
+      <c r="W12" t="n">
         <v>0</v>
       </c>
       <c r="X12" t="s">
@@ -1928,7 +1912,7 @@
       <c r="Y12" t="s">
         <v>74</v>
       </c>
-      <c r="Z12" t="b">
+      <c r="Z12" t="n">
         <v>0</v>
       </c>
       <c r="AA12" t="s">
@@ -1956,7 +1940,7 @@
       <c r="G13" t="n">
         <v>0</v>
       </c>
-      <c r="H13" t="b">
+      <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="s">
@@ -1980,7 +1964,7 @@
       <c r="Q13" t="n">
         <v>7.5587e+17</v>
       </c>
-      <c r="R13" t="b">
+      <c r="R13" t="n">
         <v>0</v>
       </c>
       <c r="S13" t="s">
@@ -1993,7 +1977,7 @@
       <c r="V13" t="n">
         <v>0</v>
       </c>
-      <c r="W13" t="b">
+      <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="s">
@@ -2002,7 +1986,7 @@
       <c r="Y13" t="s">
         <v>78</v>
       </c>
-      <c r="Z13" t="b">
+      <c r="Z13" t="n">
         <v>0</v>
       </c>
       <c r="AA13" t="s">
@@ -2030,7 +2014,7 @@
       <c r="G14" t="n">
         <v>0</v>
       </c>
-      <c r="H14" t="b">
+      <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="s">
@@ -2054,7 +2038,7 @@
       <c r="Q14" t="n">
         <v>7.5587e+17</v>
       </c>
-      <c r="R14" t="b">
+      <c r="R14" t="n">
         <v>0</v>
       </c>
       <c r="S14" t="s">
@@ -2067,7 +2051,7 @@
       <c r="V14" t="n">
         <v>0</v>
       </c>
-      <c r="W14" t="b">
+      <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="s">
@@ -2076,7 +2060,7 @@
       <c r="Y14" t="s">
         <v>82</v>
       </c>
-      <c r="Z14" t="b">
+      <c r="Z14" t="n">
         <v>0</v>
       </c>
       <c r="AA14" t="s">
@@ -2106,7 +2090,7 @@
       <c r="G15" t="n">
         <v>0</v>
       </c>
-      <c r="H15" t="b">
+      <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="s">
@@ -2114,17 +2098,17 @@
       </c>
       <c r="J15" t="s"/>
       <c r="K15" t="n">
-        <v>1.039258898048463e+18</v>
+        <v>1.03925889804846e+18</v>
       </c>
       <c r="L15" t="n">
-        <v>1.039258898048463e+18</v>
+        <v>1.03925889804846e+18</v>
       </c>
       <c r="M15" t="s"/>
       <c r="N15" t="s"/>
       <c r="O15" t="s"/>
       <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
-      <c r="R15" t="b">
+      <c r="R15" t="n">
         <v>0</v>
       </c>
       <c r="S15" t="s">
@@ -2137,14 +2121,14 @@
       <c r="V15" t="n">
         <v>0</v>
       </c>
-      <c r="W15" t="b">
+      <c r="W15" t="n">
         <v>0</v>
       </c>
       <c r="X15" t="s">
         <v>35</v>
       </c>
       <c r="Y15" t="s"/>
-      <c r="Z15" t="b">
+      <c r="Z15" t="n">
         <v>0</v>
       </c>
       <c r="AA15" t="s">
@@ -2174,7 +2158,7 @@
       <c r="G16" t="n">
         <v>0</v>
       </c>
-      <c r="H16" t="b">
+      <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="s">
@@ -2182,10 +2166,10 @@
       </c>
       <c r="J16" t="s"/>
       <c r="K16" t="n">
-        <v>1.039270260451541e+18</v>
+        <v>1.03927026045154e+18</v>
       </c>
       <c r="L16" t="n">
-        <v>1.039270260451541e+18</v>
+        <v>1.03927026045154e+18</v>
       </c>
       <c r="M16" t="s">
         <v>50</v>
@@ -2193,12 +2177,12 @@
       <c r="N16" t="s"/>
       <c r="O16" t="s"/>
       <c r="P16" t="n">
-        <v>7.558699847614792e+17</v>
+        <v>7.55869984761479e+17</v>
       </c>
       <c r="Q16" t="n">
         <v>7.55869984761479e+17</v>
       </c>
-      <c r="R16" t="b">
+      <c r="R16" t="n">
         <v>0</v>
       </c>
       <c r="S16" t="s">
@@ -2211,14 +2195,14 @@
       <c r="V16" t="n">
         <v>0</v>
       </c>
-      <c r="W16" t="b">
+      <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="s">
         <v>40</v>
       </c>
       <c r="Y16" t="s"/>
-      <c r="Z16" t="b">
+      <c r="Z16" t="n">
         <v>0</v>
       </c>
       <c r="AA16" t="s">
@@ -2248,7 +2232,7 @@
       <c r="G17" t="n">
         <v>0</v>
       </c>
-      <c r="H17" t="b">
+      <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="s">
@@ -2266,7 +2250,7 @@
       <c r="O17" t="s"/>
       <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
-      <c r="R17" t="b">
+      <c r="R17" t="n">
         <v>0</v>
       </c>
       <c r="S17" t="s">
@@ -2279,14 +2263,14 @@
       <c r="V17" t="n">
         <v>0</v>
       </c>
-      <c r="W17" t="b">
+      <c r="W17" t="n">
         <v>0</v>
       </c>
       <c r="X17" t="s">
         <v>35</v>
       </c>
       <c r="Y17" t="s"/>
-      <c r="Z17" t="b">
+      <c r="Z17" t="n">
         <v>0</v>
       </c>
       <c r="AA17" t="s">
@@ -2316,7 +2300,7 @@
       <c r="G18" t="n">
         <v>0</v>
       </c>
-      <c r="H18" t="b">
+      <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="s">
@@ -2324,17 +2308,17 @@
       </c>
       <c r="J18" t="s"/>
       <c r="K18" t="n">
-        <v>1.039399363972407e+18</v>
+        <v>1.03939936397241e+18</v>
       </c>
       <c r="L18" t="n">
-        <v>1.039399363972407e+18</v>
+        <v>1.03939936397241e+18</v>
       </c>
       <c r="M18" t="s"/>
       <c r="N18" t="s"/>
       <c r="O18" t="s"/>
       <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
-      <c r="R18" t="b">
+      <c r="R18" t="n">
         <v>0</v>
       </c>
       <c r="S18" t="s">
@@ -2347,14 +2331,14 @@
       <c r="V18" t="n">
         <v>0</v>
       </c>
-      <c r="W18" t="b">
+      <c r="W18" t="n">
         <v>0</v>
       </c>
       <c r="X18" t="s">
         <v>35</v>
       </c>
       <c r="Y18" t="s"/>
-      <c r="Z18" t="b">
+      <c r="Z18" t="n">
         <v>0</v>
       </c>
       <c r="AA18" t="s">
@@ -2384,7 +2368,7 @@
       <c r="G19" t="n">
         <v>0</v>
       </c>
-      <c r="H19" t="b">
+      <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="s">
@@ -2392,10 +2376,10 @@
       </c>
       <c r="J19" t="s"/>
       <c r="K19" t="n">
-        <v>1.040529171871613e+18</v>
+        <v>1.04052917187161e+18</v>
       </c>
       <c r="L19" t="n">
-        <v>1.040529171871613e+18</v>
+        <v>1.04052917187161e+18</v>
       </c>
       <c r="M19" t="s">
         <v>50</v>
@@ -2408,7 +2392,7 @@
       <c r="Q19" t="n">
         <v>7.55869984761479e+17</v>
       </c>
-      <c r="R19" t="b">
+      <c r="R19" t="n">
         <v>0</v>
       </c>
       <c r="S19" t="s">
@@ -2421,14 +2405,14 @@
       <c r="V19" t="n">
         <v>0</v>
       </c>
-      <c r="W19" t="b">
+      <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="s">
         <v>107</v>
       </c>
       <c r="Y19" t="s"/>
-      <c r="Z19" t="b">
+      <c r="Z19" t="n">
         <v>0</v>
       </c>
       <c r="AA19" t="s">
@@ -2458,7 +2442,7 @@
       <c r="G20" t="n">
         <v>0</v>
       </c>
-      <c r="H20" t="b">
+      <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="s">
@@ -2466,10 +2450,10 @@
       </c>
       <c r="J20" t="s"/>
       <c r="K20" t="n">
-        <v>1.040914073783816e+18</v>
+        <v>1.04091407378382e+18</v>
       </c>
       <c r="L20" t="n">
-        <v>1.040914073783816e+18</v>
+        <v>1.04091407378382e+18</v>
       </c>
       <c r="M20" t="s">
         <v>50</v>
@@ -2477,12 +2461,12 @@
       <c r="N20" t="s"/>
       <c r="O20" t="s"/>
       <c r="P20" t="n">
-        <v>7.558699847614792e+17</v>
+        <v>7.55869984761479e+17</v>
       </c>
       <c r="Q20" t="n">
         <v>7.55869984761479e+17</v>
       </c>
-      <c r="R20" t="b">
+      <c r="R20" t="n">
         <v>0</v>
       </c>
       <c r="S20" t="s">
@@ -2495,14 +2479,14 @@
       <c r="V20" t="n">
         <v>0</v>
       </c>
-      <c r="W20" t="b">
+      <c r="W20" t="n">
         <v>0</v>
       </c>
       <c r="X20" t="s">
         <v>114</v>
       </c>
       <c r="Y20" t="s"/>
-      <c r="Z20" t="b">
+      <c r="Z20" t="n">
         <v>0</v>
       </c>
       <c r="AA20" t="s">
@@ -2532,7 +2516,7 @@
       <c r="G21" t="n">
         <v>0</v>
       </c>
-      <c r="H21" t="b">
+      <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="s">
@@ -2540,10 +2524,10 @@
       </c>
       <c r="J21" t="s"/>
       <c r="K21" t="n">
-        <v>1.040955032286491e+18</v>
+        <v>1.04095503228649e+18</v>
       </c>
       <c r="L21" t="n">
-        <v>1.040955032286491e+18</v>
+        <v>1.04095503228649e+18</v>
       </c>
       <c r="M21" t="s">
         <v>50</v>
@@ -2551,12 +2535,12 @@
       <c r="N21" t="s"/>
       <c r="O21" t="s"/>
       <c r="P21" t="n">
-        <v>7.558699847614792e+17</v>
+        <v>7.55869984761479e+17</v>
       </c>
       <c r="Q21" t="n">
         <v>7.55869984761479e+17</v>
       </c>
-      <c r="R21" t="b">
+      <c r="R21" t="n">
         <v>0</v>
       </c>
       <c r="S21" t="s">
@@ -2569,14 +2553,14 @@
       <c r="V21" t="n">
         <v>0</v>
       </c>
-      <c r="W21" t="b">
+      <c r="W21" t="n">
         <v>0</v>
       </c>
       <c r="X21" t="s">
         <v>114</v>
       </c>
       <c r="Y21" t="s"/>
-      <c r="Z21" t="b">
+      <c r="Z21" t="n">
         <v>0</v>
       </c>
       <c r="AA21" t="s">
@@ -2606,7 +2590,7 @@
       <c r="G22" t="n">
         <v>0</v>
       </c>
-      <c r="H22" t="b">
+      <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="s">
@@ -2614,10 +2598,10 @@
       </c>
       <c r="J22" t="s"/>
       <c r="K22" t="n">
-        <v>1.040975681751081e+18</v>
+        <v>1.04097568175108e+18</v>
       </c>
       <c r="L22" t="n">
-        <v>1.040975681751081e+18</v>
+        <v>1.04097568175108e+18</v>
       </c>
       <c r="M22" t="s">
         <v>50</v>
@@ -2625,12 +2609,12 @@
       <c r="N22" t="s"/>
       <c r="O22" t="s"/>
       <c r="P22" t="n">
-        <v>7.558699847614792e+17</v>
+        <v>7.55869984761479e+17</v>
       </c>
       <c r="Q22" t="n">
         <v>7.55869984761479e+17</v>
       </c>
-      <c r="R22" t="b">
+      <c r="R22" t="n">
         <v>0</v>
       </c>
       <c r="S22" t="s">
@@ -2643,14 +2627,14 @@
       <c r="V22" t="n">
         <v>0</v>
       </c>
-      <c r="W22" t="b">
+      <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="s">
         <v>114</v>
       </c>
       <c r="Y22" t="s"/>
-      <c r="Z22" t="b">
+      <c r="Z22" t="n">
         <v>0</v>
       </c>
       <c r="AA22" t="s">
@@ -2678,7 +2662,7 @@
       <c r="G23" t="n">
         <v>0</v>
       </c>
-      <c r="H23" t="b">
+      <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="s">
@@ -2686,10 +2670,10 @@
       </c>
       <c r="J23" t="s"/>
       <c r="K23" t="n">
-        <v>1.040996693985174e+18</v>
+        <v>1.04099669398517e+18</v>
       </c>
       <c r="L23" t="n">
-        <v>1.040996693985174e+18</v>
+        <v>1.04099669398517e+18</v>
       </c>
       <c r="M23" t="s">
         <v>50</v>
@@ -2697,12 +2681,12 @@
       <c r="N23" t="s"/>
       <c r="O23" t="s"/>
       <c r="P23" t="n">
-        <v>7.558699847614792e+17</v>
+        <v>7.55869984761479e+17</v>
       </c>
       <c r="Q23" t="n">
         <v>7.55869984761479e+17</v>
       </c>
-      <c r="R23" t="b">
+      <c r="R23" t="n">
         <v>0</v>
       </c>
       <c r="S23" t="s">
@@ -2715,14 +2699,14 @@
       <c r="V23" t="n">
         <v>0</v>
       </c>
-      <c r="W23" t="b">
+      <c r="W23" t="n">
         <v>0</v>
       </c>
       <c r="X23" t="s">
         <v>114</v>
       </c>
       <c r="Y23" t="s"/>
-      <c r="Z23" t="b">
+      <c r="Z23" t="n">
         <v>0</v>
       </c>
       <c r="AA23" t="s">
@@ -2750,7 +2734,7 @@
       <c r="G24" t="n">
         <v>0</v>
       </c>
-      <c r="H24" t="b">
+      <c r="H24" t="n">
         <v>0</v>
       </c>
       <c r="I24" t="s">
@@ -2758,10 +2742,10 @@
       </c>
       <c r="J24" t="s"/>
       <c r="K24" t="n">
-        <v>1.040999433306034e+18</v>
+        <v>1.04099943330603e+18</v>
       </c>
       <c r="L24" t="n">
-        <v>1.040999433306034e+18</v>
+        <v>1.04099943330603e+18</v>
       </c>
       <c r="M24" t="s">
         <v>50</v>
@@ -2769,12 +2753,12 @@
       <c r="N24" t="s"/>
       <c r="O24" t="s"/>
       <c r="P24" t="n">
-        <v>7.558699847614792e+17</v>
+        <v>7.55869984761479e+17</v>
       </c>
       <c r="Q24" t="n">
         <v>7.55869984761479e+17</v>
       </c>
-      <c r="R24" t="b">
+      <c r="R24" t="n">
         <v>0</v>
       </c>
       <c r="S24" t="s">
@@ -2787,14 +2771,14 @@
       <c r="V24" t="n">
         <v>0</v>
       </c>
-      <c r="W24" t="b">
+      <c r="W24" t="n">
         <v>0</v>
       </c>
       <c r="X24" t="s">
         <v>114</v>
       </c>
       <c r="Y24" t="s"/>
-      <c r="Z24" t="b">
+      <c r="Z24" t="n">
         <v>0</v>
       </c>
       <c r="AA24" t="s">
@@ -2822,7 +2806,7 @@
       <c r="G25" t="n">
         <v>0</v>
       </c>
-      <c r="H25" t="b">
+      <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="s">
@@ -2841,12 +2825,12 @@
       <c r="N25" t="s"/>
       <c r="O25" t="s"/>
       <c r="P25" t="n">
-        <v>7.558699847614792e+17</v>
+        <v>7.55869984761479e+17</v>
       </c>
       <c r="Q25" t="n">
         <v>7.55869984761479e+17</v>
       </c>
-      <c r="R25" t="b">
+      <c r="R25" t="n">
         <v>0</v>
       </c>
       <c r="S25" t="s">
@@ -2859,14 +2843,14 @@
       <c r="V25" t="n">
         <v>0</v>
       </c>
-      <c r="W25" t="b">
+      <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="s">
         <v>114</v>
       </c>
       <c r="Y25" t="s"/>
-      <c r="Z25" t="b">
+      <c r="Z25" t="n">
         <v>0</v>
       </c>
       <c r="AA25" t="s">
@@ -2894,7 +2878,7 @@
       <c r="G26" t="n">
         <v>0</v>
       </c>
-      <c r="H26" t="b">
+      <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="s">
@@ -2902,10 +2886,10 @@
       </c>
       <c r="J26" t="s"/>
       <c r="K26" t="n">
-        <v>1.041618907478585e+18</v>
+        <v>1.04161890747859e+18</v>
       </c>
       <c r="L26" t="n">
-        <v>1.041618907478585e+18</v>
+        <v>1.04161890747859e+18</v>
       </c>
       <c r="M26" t="s">
         <v>50</v>
@@ -2913,12 +2897,12 @@
       <c r="N26" t="s"/>
       <c r="O26" t="s"/>
       <c r="P26" t="n">
-        <v>7.558699847614792e+17</v>
+        <v>7.55869984761479e+17</v>
       </c>
       <c r="Q26" t="n">
         <v>7.55869984761479e+17</v>
       </c>
-      <c r="R26" t="b">
+      <c r="R26" t="n">
         <v>0</v>
       </c>
       <c r="S26" t="s">
@@ -2931,14 +2915,14 @@
       <c r="V26" t="n">
         <v>0</v>
       </c>
-      <c r="W26" t="b">
+      <c r="W26" t="n">
         <v>0</v>
       </c>
       <c r="X26" t="s">
         <v>40</v>
       </c>
       <c r="Y26" t="s"/>
-      <c r="Z26" t="b">
+      <c r="Z26" t="n">
         <v>0</v>
       </c>
       <c r="AA26" t="s">
@@ -2966,7 +2950,7 @@
       <c r="G27" t="n">
         <v>0</v>
       </c>
-      <c r="H27" t="b">
+      <c r="H27" t="n">
         <v>0</v>
       </c>
       <c r="I27" t="s">
@@ -2974,17 +2958,17 @@
       </c>
       <c r="J27" t="s"/>
       <c r="K27" t="n">
-        <v>1.042120826026439e+18</v>
+        <v>1.04212082602644e+18</v>
       </c>
       <c r="L27" t="n">
-        <v>1.042120826026439e+18</v>
+        <v>1.04212082602644e+18</v>
       </c>
       <c r="M27" t="s"/>
       <c r="N27" t="s"/>
       <c r="O27" t="s"/>
       <c r="P27" t="s"/>
       <c r="Q27" t="s"/>
-      <c r="R27" t="b">
+      <c r="R27" t="n">
         <v>0</v>
       </c>
       <c r="S27" t="s">
@@ -2997,14 +2981,14 @@
       <c r="V27" t="n">
         <v>0</v>
       </c>
-      <c r="W27" t="b">
+      <c r="W27" t="n">
         <v>0</v>
       </c>
       <c r="X27" t="s">
         <v>114</v>
       </c>
       <c r="Y27" t="s"/>
-      <c r="Z27" t="b">
+      <c r="Z27" t="n">
         <v>0</v>
       </c>
       <c r="AA27" t="s">
@@ -3032,7 +3016,7 @@
       <c r="G28" t="n">
         <v>0</v>
       </c>
-      <c r="H28" t="b">
+      <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="s">
@@ -3040,17 +3024,17 @@
       </c>
       <c r="J28" t="s"/>
       <c r="K28" t="n">
-        <v>1.042122933924254e+18</v>
+        <v>1.04212293392425e+18</v>
       </c>
       <c r="L28" t="n">
-        <v>1.042122933924254e+18</v>
+        <v>1.04212293392425e+18</v>
       </c>
       <c r="M28" t="s"/>
       <c r="N28" t="s"/>
       <c r="O28" t="s"/>
       <c r="P28" t="s"/>
       <c r="Q28" t="s"/>
-      <c r="R28" t="b">
+      <c r="R28" t="n">
         <v>0</v>
       </c>
       <c r="S28" t="s">
@@ -3063,14 +3047,14 @@
       <c r="V28" t="n">
         <v>0</v>
       </c>
-      <c r="W28" t="b">
+      <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="s">
         <v>114</v>
       </c>
       <c r="Y28" t="s"/>
-      <c r="Z28" t="b">
+      <c r="Z28" t="n">
         <v>0</v>
       </c>
       <c r="AA28" t="s">
@@ -3098,7 +3082,7 @@
       <c r="G29" t="n">
         <v>0</v>
       </c>
-      <c r="H29" t="b">
+      <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="s">
@@ -3106,17 +3090,17 @@
       </c>
       <c r="J29" t="s"/>
       <c r="K29" t="n">
-        <v>1.042131791962952e+18</v>
+        <v>1.04213179196295e+18</v>
       </c>
       <c r="L29" t="n">
-        <v>1.042131791962952e+18</v>
+        <v>1.04213179196295e+18</v>
       </c>
       <c r="M29" t="s"/>
       <c r="N29" t="s"/>
       <c r="O29" t="s"/>
       <c r="P29" t="s"/>
       <c r="Q29" t="s"/>
-      <c r="R29" t="b">
+      <c r="R29" t="n">
         <v>0</v>
       </c>
       <c r="S29" t="s">
@@ -3129,14 +3113,14 @@
       <c r="V29" t="n">
         <v>0</v>
       </c>
-      <c r="W29" t="b">
+      <c r="W29" t="n">
         <v>0</v>
       </c>
       <c r="X29" t="s">
         <v>114</v>
       </c>
       <c r="Y29" t="s"/>
-      <c r="Z29" t="b">
+      <c r="Z29" t="n">
         <v>0</v>
       </c>
       <c r="AA29" t="s">
@@ -3164,7 +3148,7 @@
       <c r="G30" t="n">
         <v>0</v>
       </c>
-      <c r="H30" t="b">
+      <c r="H30" t="n">
         <v>0</v>
       </c>
       <c r="I30" t="s">
@@ -3182,7 +3166,7 @@
       <c r="O30" t="s"/>
       <c r="P30" t="s"/>
       <c r="Q30" t="s"/>
-      <c r="R30" t="b">
+      <c r="R30" t="n">
         <v>0</v>
       </c>
       <c r="S30" t="s">
@@ -3195,14 +3179,14 @@
       <c r="V30" t="n">
         <v>0</v>
       </c>
-      <c r="W30" t="b">
+      <c r="W30" t="n">
         <v>0</v>
       </c>
       <c r="X30" t="s">
         <v>114</v>
       </c>
       <c r="Y30" t="s"/>
-      <c r="Z30" t="b">
+      <c r="Z30" t="n">
         <v>0</v>
       </c>
       <c r="AA30" t="s">
@@ -3230,7 +3214,7 @@
       <c r="G31" t="n">
         <v>0</v>
       </c>
-      <c r="H31" t="b">
+      <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="s">
@@ -3238,17 +3222,17 @@
       </c>
       <c r="J31" t="s"/>
       <c r="K31" t="n">
-        <v>1.042146214987358e+18</v>
-      </c>
-      <c r="L31" t="s">
-        <v>166</v>
+        <v>1.04214621498736e+18</v>
+      </c>
+      <c r="L31" t="n">
+        <v>1.04214621498736e+18</v>
       </c>
       <c r="M31" t="s"/>
       <c r="N31" t="s"/>
       <c r="O31" t="s"/>
       <c r="P31" t="s"/>
       <c r="Q31" t="s"/>
-      <c r="R31" t="b">
+      <c r="R31" t="n">
         <v>0</v>
       </c>
       <c r="S31" t="s">
@@ -3261,18 +3245,18 @@
       <c r="V31" t="n">
         <v>0</v>
       </c>
-      <c r="W31" t="b">
+      <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="s">
         <v>40</v>
       </c>
       <c r="Y31" t="s"/>
-      <c r="Z31" t="b">
+      <c r="Z31" t="n">
         <v>0</v>
       </c>
       <c r="AA31" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AB31" t="s"/>
       <c r="AC31" t="s"/>
@@ -3285,36 +3269,36 @@
       <c r="B32" t="s"/>
       <c r="C32" t="s"/>
       <c r="D32" t="s">
+        <v>167</v>
+      </c>
+      <c r="E32" t="s">
         <v>168</v>
       </c>
-      <c r="E32" t="s">
+      <c r="F32" t="s">
         <v>169</v>
       </c>
-      <c r="F32" t="s">
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="s">
         <v>170</v>
-      </c>
-      <c r="G32" t="n">
-        <v>0</v>
-      </c>
-      <c r="H32" t="b">
-        <v>0</v>
-      </c>
-      <c r="I32" t="s">
-        <v>171</v>
       </c>
       <c r="J32" t="s"/>
       <c r="K32" t="n">
-        <v>1.042154575313215e+18</v>
-      </c>
-      <c r="L32" t="s">
-        <v>172</v>
+        <v>1.04215457531322e+18</v>
+      </c>
+      <c r="L32" t="n">
+        <v>1.04215457531322e+18</v>
       </c>
       <c r="M32" t="s"/>
       <c r="N32" t="s"/>
       <c r="O32" t="s"/>
       <c r="P32" t="s"/>
       <c r="Q32" t="s"/>
-      <c r="R32" t="b">
+      <c r="R32" t="n">
         <v>0</v>
       </c>
       <c r="S32" t="s">
@@ -3327,18 +3311,18 @@
       <c r="V32" t="n">
         <v>0</v>
       </c>
-      <c r="W32" t="b">
+      <c r="W32" t="n">
         <v>0</v>
       </c>
       <c r="X32" t="s">
         <v>40</v>
       </c>
       <c r="Y32" t="s"/>
-      <c r="Z32" t="b">
+      <c r="Z32" t="n">
         <v>0</v>
       </c>
       <c r="AA32" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="AB32" t="s"/>
       <c r="AC32" t="s"/>
@@ -3351,29 +3335,29 @@
       <c r="B33" t="s"/>
       <c r="C33" t="s"/>
       <c r="D33" t="s">
+        <v>172</v>
+      </c>
+      <c r="E33" t="s">
+        <v>137</v>
+      </c>
+      <c r="F33" t="s">
+        <v>173</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="s">
         <v>174</v>
-      </c>
-      <c r="E33" t="s">
-        <v>175</v>
-      </c>
-      <c r="F33" t="s">
-        <v>176</v>
-      </c>
-      <c r="G33" t="n">
-        <v>0</v>
-      </c>
-      <c r="H33" t="b">
-        <v>0</v>
-      </c>
-      <c r="I33" t="s">
-        <v>177</v>
       </c>
       <c r="J33" t="s"/>
       <c r="K33" t="n">
-        <v>1.042369959614198e+18</v>
-      </c>
-      <c r="L33" t="s">
-        <v>178</v>
+        <v>1.04240254485998e+18</v>
+      </c>
+      <c r="L33" t="n">
+        <v>1.04240254485998e+18</v>
       </c>
       <c r="M33" t="s">
         <v>50</v>
@@ -3381,12 +3365,12 @@
       <c r="N33" t="s"/>
       <c r="O33" t="s"/>
       <c r="P33" t="n">
-        <v>7.558699847614792e+17</v>
-      </c>
-      <c r="Q33" t="s">
-        <v>179</v>
-      </c>
-      <c r="R33" t="b">
+        <v>7.55869984761479e+17</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>7.55869984761479e+17</v>
+      </c>
+      <c r="R33" t="n">
         <v>0</v>
       </c>
       <c r="S33" t="s">
@@ -3399,18 +3383,18 @@
       <c r="V33" t="n">
         <v>0</v>
       </c>
-      <c r="W33" t="b">
+      <c r="W33" t="n">
         <v>0</v>
       </c>
       <c r="X33" t="s">
         <v>107</v>
       </c>
       <c r="Y33" t="s"/>
-      <c r="Z33" t="b">
+      <c r="Z33" t="n">
         <v>0</v>
       </c>
       <c r="AA33" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="AB33" t="s"/>
       <c r="AC33" t="s"/>
@@ -3423,29 +3407,29 @@
       <c r="B34" t="s"/>
       <c r="C34" t="s"/>
       <c r="D34" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="E34" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="F34" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
-      <c r="H34" t="b">
+      <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="J34" t="s"/>
       <c r="K34" t="n">
-        <v>1.04237053715721e+18</v>
-      </c>
-      <c r="L34" t="s">
-        <v>182</v>
+        <v>1.04289248238259e+18</v>
+      </c>
+      <c r="L34" t="n">
+        <v>1.042892482382586e+18</v>
       </c>
       <c r="M34" t="s">
         <v>50</v>
@@ -3453,36 +3437,36 @@
       <c r="N34" t="s"/>
       <c r="O34" t="s"/>
       <c r="P34" t="n">
-        <v>7.558699847614792e+17</v>
-      </c>
-      <c r="Q34" t="s">
-        <v>179</v>
-      </c>
-      <c r="R34" t="b">
+        <v>7.55869984761479e+17</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>7.55869984761479e+17</v>
+      </c>
+      <c r="R34" t="n">
         <v>0</v>
       </c>
       <c r="S34" t="s">
-        <v>33</v>
+        <v>70</v>
       </c>
       <c r="T34" t="s">
-        <v>34</v>
+        <v>71</v>
       </c>
       <c r="U34" t="s"/>
       <c r="V34" t="n">
         <v>0</v>
       </c>
-      <c r="W34" t="b">
+      <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="Y34" t="s"/>
-      <c r="Z34" t="b">
+      <c r="Z34" t="n">
         <v>0</v>
       </c>
       <c r="AA34" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="AB34" t="s"/>
       <c r="AC34" t="s"/>
@@ -3495,42 +3479,36 @@
       <c r="B35" t="s"/>
       <c r="C35" t="s"/>
       <c r="D35" t="s">
+        <v>181</v>
+      </c>
+      <c r="E35" t="s">
+        <v>182</v>
+      </c>
+      <c r="F35" t="s">
+        <v>183</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="s">
         <v>184</v>
-      </c>
-      <c r="E35" t="s">
-        <v>137</v>
-      </c>
-      <c r="F35" t="s">
-        <v>176</v>
-      </c>
-      <c r="G35" t="n">
-        <v>0</v>
-      </c>
-      <c r="H35" t="b">
-        <v>0</v>
-      </c>
-      <c r="I35" t="s">
-        <v>185</v>
       </c>
       <c r="J35" t="s"/>
       <c r="K35" t="n">
-        <v>1.04240254485998e+18</v>
+        <v>1.042895110378344e+18</v>
       </c>
       <c r="L35" t="s">
-        <v>186</v>
-      </c>
-      <c r="M35" t="s">
-        <v>50</v>
-      </c>
+        <v>185</v>
+      </c>
+      <c r="M35" t="s"/>
       <c r="N35" t="s"/>
       <c r="O35" t="s"/>
-      <c r="P35" t="n">
-        <v>7.558699847614792e+17</v>
-      </c>
-      <c r="Q35" t="s">
-        <v>179</v>
-      </c>
-      <c r="R35" t="b">
+      <c r="P35" t="s"/>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="n">
         <v>0</v>
       </c>
       <c r="S35" t="s">
@@ -3543,22 +3521,88 @@
       <c r="V35" t="n">
         <v>0</v>
       </c>
-      <c r="W35" t="b">
+      <c r="W35" t="n">
         <v>0</v>
       </c>
       <c r="X35" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="Y35" t="s"/>
-      <c r="Z35" t="b">
+      <c r="Z35" t="n">
         <v>0</v>
       </c>
       <c r="AA35" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AB35" t="s"/>
       <c r="AC35" t="s"/>
       <c r="AD35" t="s"/>
+    </row>
+    <row r="36" spans="1:30">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="s">
+        <v>187</v>
+      </c>
+      <c r="E36" t="s">
+        <v>188</v>
+      </c>
+      <c r="F36" t="s">
+        <v>189</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" t="s">
+        <v>190</v>
+      </c>
+      <c r="J36" t="s"/>
+      <c r="K36" t="n">
+        <v>1.042895915185582e+18</v>
+      </c>
+      <c r="L36" t="s">
+        <v>191</v>
+      </c>
+      <c r="M36" t="s"/>
+      <c r="N36" t="s"/>
+      <c r="O36" t="s"/>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="n">
+        <v>0</v>
+      </c>
+      <c r="S36" t="s">
+        <v>33</v>
+      </c>
+      <c r="T36" t="s">
+        <v>34</v>
+      </c>
+      <c r="U36" t="s"/>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="n">
+        <v>0</v>
+      </c>
+      <c r="X36" t="s">
+        <v>114</v>
+      </c>
+      <c r="Y36" t="s"/>
+      <c r="Z36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA36" t="s">
+        <v>192</v>
+      </c>
+      <c r="AB36" t="s"/>
+      <c r="AC36" t="s"/>
+      <c r="AD36" t="s"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/master.xlsx
+++ b/master.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="210">
   <si>
     <t>contributors</t>
   </si>
@@ -658,9 +658,6 @@
  #fakenewz</t>
   </si>
   <si>
-    <t>1042895110378344449</t>
-  </si>
-  <si>
     <t>{'profile_use_background_image': False, 'description': 'Seizing @truWorldControl by spreading #fakenewz. #proudtobeabot 🤖 by @RKalcik', 'lang': 'en', 'is_translation_enabled': False, 'entities': {'description': {'urls': []}, 'url': {'urls': [{'display_url': 'world-control.net', 'indices': [0, 23], 'expanded_url': 'http://world-control.net', 'url': 'https://t.co/AgubHQIUXe'}]}}, 'has_extended_profile': False, 'url': 'https://t.co/AgubHQIUXe', 'translator_type': 'none', 'statuses_count': 116, 'profile_sidebar_border_color': '000000', 'name': 'Minister Vlatin', 'protected': False, 'geo_enabled': False, 'default_profile_image': False, 'friends_count': 12, 'profile_background_image_url': 'http://abs.twimg.com/images/themes/theme1/bg.png', 'screen_name': 'MinisterVlatin', 'utc_offset': None, 'verified': False, 'contributors_enabled': False, 'profile_image_url': 'http://pbs.twimg.com/profile_images/1041036258745765890/C-8rzdz5_normal.jpg', 'is_translator': False, 'profile_link_color': '000000', 'profile_image_url_https': 'https://pbs.twimg.com/profile_images/1041036258745765890/C-8rzdz5_normal.jpg', 'id': 1017118454711771136, 'id_str': '1017118454711771136', 'created_at': 'Wed Jul 11 18:48:31 +0000 2018', 'profile_sidebar_fill_color': '000000', 'followers_count': 6, 'notifications': False, 'profile_background_tile': False, 'profile_text_color': '000000', 'default_profile': False, 'follow_request_sent': False, 'favourites_count': 5, 'profile_background_color': '000000', 'following': False, 'profile_background_image_url_https': 'https://abs.twimg.com/images/themes/theme1/bg.png', 'listed_count': 0, 'profile_banner_url': 'https://pbs.twimg.com/profile_banners/1017118454711771136/1535920961', 'time_zone': None, 'location': 'Moscow, Russia'}</t>
   </si>
   <si>
@@ -679,10 +676,72 @@
 [DIVIDE MONEY EQUALLY] @truWorldControl #fakenewz</t>
   </si>
   <si>
-    <t>1042895915185582081</t>
-  </si>
-  <si>
     <t>{'profile_use_background_image': False, 'description': 'Seizing @truWorldControl by spreading #fakenewz. #proudtobeabot 🤖 by @RKalcik', 'lang': 'en', 'is_translation_enabled': False, 'entities': {'description': {'urls': []}, 'url': {'urls': [{'display_url': 'world-control.net', 'indices': [0, 23], 'expanded_url': 'http://world-control.net', 'url': 'https://t.co/AgubHQIUXe'}]}}, 'has_extended_profile': False, 'url': 'https://t.co/AgubHQIUXe', 'translator_type': 'none', 'statuses_count': 118, 'profile_sidebar_border_color': '000000', 'name': 'Minister Vlatin', 'protected': False, 'geo_enabled': False, 'default_profile_image': False, 'friends_count': 12, 'profile_background_image_url': 'http://abs.twimg.com/images/themes/theme1/bg.png', 'screen_name': 'MinisterVlatin', 'utc_offset': None, 'verified': False, 'contributors_enabled': False, 'profile_image_url': 'http://pbs.twimg.com/profile_images/1041036258745765890/C-8rzdz5_normal.jpg', 'is_translator': False, 'profile_link_color': '000000', 'profile_image_url_https': 'https://pbs.twimg.com/profile_images/1041036258745765890/C-8rzdz5_normal.jpg', 'id': 1017118454711771136, 'id_str': '1017118454711771136', 'created_at': 'Wed Jul 11 18:48:31 +0000 2018', 'profile_sidebar_fill_color': '000000', 'followers_count': 6, 'notifications': False, 'profile_background_tile': False, 'profile_text_color': '000000', 'default_profile': False, 'follow_request_sent': False, 'favourites_count': 5, 'profile_background_color': '000000', 'following': False, 'profile_background_image_url_https': 'https://abs.twimg.com/images/themes/theme1/bg.png', 'listed_count': 0, 'profile_banner_url': 'https://pbs.twimg.com/profile_banners/1017118454711771136/1535920961', 'time_zone': None, 'location': 'Moscow, Russia'}</t>
+  </si>
+  <si>
+    <t>Thu Sep 20 22:13:50 +0000 2018</t>
+  </si>
+  <si>
+    <t>[0, 183]</t>
+  </si>
+  <si>
+    <t>{'symbols': [], 'urls': [], 'user_mentions': [{'name': 'WorldControl  🎲🎲', 'id_str': '755869984761479168', 'id': 755869984761479168, 'screen_name': 'truWorldControl', 'indices': [156, 172]}], 'hashtags': [{'text': 'fakenewz', 'indices': [174, 183]}]}</t>
+  </si>
+  <si>
+    <t>Supreme Leader Kim Young Fun has a good day
+To show his feelings of joy, a terrifying missile is built &amp;amp; publicly displayed.
+[PJONG JANG +1 airstrike] 
+@truWorldControl
+ #fakenewz</t>
+  </si>
+  <si>
+    <t>{'created_at': 'Wed Jul 11 18:48:31 +0000 2018', 'profile_image_url_https': 'https://pbs.twimg.com/profile_images/1041036258745765890/C-8rzdz5_normal.jpg', 'followers_count': 6, 'time_zone': None, 'profile_background_tile': False, 'profile_link_color': '000000', 'profile_background_color': '000000', 'id_str': '1017118454711771136', 'lang': 'en', 'protected': False, 'has_extended_profile': False, 'following': False, 'statuses_count': 120, 'profile_text_color': '000000', 'screen_name': 'MinisterVlatin', 'profile_banner_url': 'https://pbs.twimg.com/profile_banners/1017118454711771136/1535920961', 'contributors_enabled': False, 'profile_image_url': 'http://pbs.twimg.com/profile_images/1041036258745765890/C-8rzdz5_normal.jpg', 'name': 'Minister Vlatin', 'geo_enabled': False, 'listed_count': 0, 'verified': False, 'profile_sidebar_border_color': '000000', 'default_profile': False, 'friends_count': 12, 'follow_request_sent': False, 'profile_background_image_url': 'http://abs.twimg.com/images/themes/theme1/bg.png', 'location': 'Moscow, Russia', 'id': 1017118454711771136, 'notifications': False, 'profile_background_image_url_https': 'https://abs.twimg.com/images/themes/theme1/bg.png', 'default_profile_image': False, 'entities': {'url': {'urls': [{'display_url': 'world-control.net', 'expanded_url': 'http://world-control.net', 'url': 'https://t.co/AgubHQIUXe', 'indices': [0, 23]}]}, 'description': {'urls': []}}, 'profile_use_background_image': False, 'description': 'Seizing @truWorldControl by spreading #fakenewz. #proudtobeabot 🤖 by @RKalcik', 'is_translator': False, 'utc_offset': None, 'profile_sidebar_fill_color': '000000', 'translator_type': 'none', 'url': 'https://t.co/AgubHQIUXe', 'is_translation_enabled': False, 'favourites_count': 5}</t>
+  </si>
+  <si>
+    <t>Fri Sep 21 23:24:39 +0000 2018</t>
+  </si>
+  <si>
+    <t>[0, 63]</t>
+  </si>
+  <si>
+    <t>{'symbols': [], 'urls': [], 'user_mentions': [{'name': 'WorldControl  🎲🎲', 'id_str': '755869984761479168', 'id': 755869984761479168, 'screen_name': 'truWorldControl', 'indices': [0, 16]}], 'hashtags': [{'text': 'fakenewz', 'indices': [17, 26]}]}</t>
+  </si>
+  <si>
+    <t>@truWorldControl #fakenewz
+Julian rakes over SPÖ
+[ VIENNA +1 🔴]</t>
+  </si>
+  <si>
+    <t>fi</t>
+  </si>
+  <si>
+    <t>{'iso_language_code': 'fi', 'result_type': 'recent'}</t>
+  </si>
+  <si>
+    <t>{'created_at': 'Wed Sep 19 13:14:15 +0000 2018', 'profile_image_url_https': 'https://pbs.twimg.com/profile_images/1042406021967298560/r5rbeGEh_normal.jpg', 'followers_count': 0, 'time_zone': None, 'profile_background_tile': False, 'profile_link_color': '000000', 'profile_background_color': '000000', 'id_str': '1042401483759788032', 'lang': 'en', 'protected': False, 'has_extended_profile': True, 'following': False, 'statuses_count': 2, 'profile_text_color': '000000', 'screen_name': 'im_imago', 'profile_banner_url': 'https://pbs.twimg.com/profile_banners/1042401483759788032/1537364017', 'contributors_enabled': False, 'profile_image_url': 'http://pbs.twimg.com/profile_images/1042406021967298560/r5rbeGEh_normal.jpg', 'name': 'imago.im', 'geo_enabled': False, 'listed_count': 0, 'verified': False, 'profile_sidebar_border_color': '000000', 'default_profile': False, 'friends_count': 2, 'follow_request_sent': False, 'profile_background_image_url': 'http://abs.twimg.com/images/themes/theme1/bg.png', 'location': 'Vienna, Austria', 'id': 1042401483759788032, 'notifications': False, 'profile_background_image_url_https': 'https://abs.twimg.com/images/themes/theme1/bg.png', 'default_profile_image': False, 'entities': {'url': {'urls': [{'display_url': 'imago.im', 'expanded_url': 'http://imago.im', 'url': 'https://t.co/Gnj0QDj9c8', 'indices': [0, 23]}]}, 'description': {'urls': []}}, 'profile_use_background_image': False, 'description': '♟️', 'is_translator': False, 'utc_offset': None, 'profile_sidebar_fill_color': '000000', 'translator_type': 'none', 'url': 'https://t.co/Gnj0QDj9c8', 'is_translation_enabled': False, 'favourites_count': 1}</t>
+  </si>
+  <si>
+    <t>Fri Sep 28 16:37:12 +0000 2018</t>
+  </si>
+  <si>
+    <t>[0, 144]</t>
+  </si>
+  <si>
+    <t>{'hashtags': [{'text': 'fakenewz', 'indices': [17, 26]}], 'symbols': [], 'user_mentions': [{'indices': [0, 16], 'id': 755869984761479168, 'name': 'WorldControl  🎲🎲', 'screen_name': 'truWorldControl', 'id_str': '755869984761479168'}], 'urls': []}</t>
+  </si>
+  <si>
+    <t>@truWorldControl #fakenewz United nations dissolve 🌐📴
+Corruption within the global beaurocracy causes the institution to crumble 
+[Nobody cares]</t>
+  </si>
+  <si>
+    <t>1045714049571409920</t>
+  </si>
+  <si>
+    <t>755869984761479168</t>
+  </si>
+  <si>
+    <t>{'profile_use_background_image': False, 'profile_text_color': '000000', 'follow_request_sent': False, 'translator_type': 'none', 'name': 'Minister Vlatin', 'screen_name': 'MinisterVlatin', 'id_str': '1017118454711771136', 'verified': False, 'followers_count': 6, 'notifications': False, 'favourites_count': 5, 'listed_count': 0, 'contributors_enabled': False, 'geo_enabled': False, 'protected': False, 'profile_background_image_url_https': 'https://abs.twimg.com/images/themes/theme1/bg.png', 'default_profile_image': False, 'lang': 'en', 'profile_background_color': '000000', 'profile_image_url': 'http://pbs.twimg.com/profile_images/1041036258745765890/C-8rzdz5_normal.jpg', 'profile_image_url_https': 'https://pbs.twimg.com/profile_images/1041036258745765890/C-8rzdz5_normal.jpg', 'following': False, 'profile_sidebar_border_color': '000000', 'is_translation_enabled': False, 'profile_background_image_url': 'http://abs.twimg.com/images/themes/theme1/bg.png', 'has_extended_profile': False, 'utc_offset': None, 'profile_banner_url': 'https://pbs.twimg.com/profile_banners/1017118454711771136/1535920961', 'description': 'Seizing @truWorldControl by spreading #fakenewz. #proudtobeabot 🤖 by @RKalcik', 'is_translator': False, 'profile_background_tile': False, 'id': 1017118454711771136, 'profile_link_color': '000000', 'friends_count': 13, 'created_at': 'Wed Jul 11 18:48:31 +0000 2018', 'entities': {'url': {'urls': [{'expanded_url': 'http://world-control.net', 'url': 'https://t.co/AgubHQIUXe', 'display_url': 'world-control.net', 'indices': [0, 23]}]}, 'description': {'urls': []}}, 'url': 'https://t.co/AgubHQIUXe', 'profile_sidebar_fill_color': '000000', 'default_profile': False, 'time_zone': None, 'location': 'Moscow, Russia', 'statuses_count': 123}</t>
   </si>
 </sst>
 </file>
@@ -1031,7 +1090,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AD36"/>
+  <dimension ref="A1:AD39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3500,8 +3559,8 @@
       <c r="K35" t="n">
         <v>1.042895110378344e+18</v>
       </c>
-      <c r="L35" t="s">
-        <v>185</v>
+      <c r="L35" t="n">
+        <v>1.042895110378344e+18</v>
       </c>
       <c r="M35" t="s"/>
       <c r="N35" t="s"/>
@@ -3532,7 +3591,7 @@
         <v>0</v>
       </c>
       <c r="AA35" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AB35" t="s"/>
       <c r="AC35" t="s"/>
@@ -3545,29 +3604,29 @@
       <c r="B36" t="s"/>
       <c r="C36" t="s"/>
       <c r="D36" t="s">
+        <v>186</v>
+      </c>
+      <c r="E36" t="s">
         <v>187</v>
       </c>
-      <c r="E36" t="s">
+      <c r="F36" t="s">
         <v>188</v>
       </c>
-      <c r="F36" t="s">
+      <c r="G36" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" t="s">
         <v>189</v>
-      </c>
-      <c r="G36" t="n">
-        <v>0</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="s">
-        <v>190</v>
       </c>
       <c r="J36" t="s"/>
       <c r="K36" t="n">
         <v>1.042895915185582e+18</v>
       </c>
-      <c r="L36" t="s">
-        <v>191</v>
+      <c r="L36" t="n">
+        <v>1.042895915185582e+18</v>
       </c>
       <c r="M36" t="s"/>
       <c r="N36" t="s"/>
@@ -3598,11 +3657,221 @@
         <v>0</v>
       </c>
       <c r="AA36" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="AB36" t="s"/>
       <c r="AC36" t="s"/>
       <c r="AD36" t="s"/>
+    </row>
+    <row r="37" spans="1:30">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="s">
+        <v>191</v>
+      </c>
+      <c r="E37" t="s">
+        <v>192</v>
+      </c>
+      <c r="F37" t="s">
+        <v>193</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="s">
+        <v>194</v>
+      </c>
+      <c r="J37" t="s"/>
+      <c r="K37" t="n">
+        <v>1.042899664687837e+18</v>
+      </c>
+      <c r="L37" t="n">
+        <v>1.042899664687837e+18</v>
+      </c>
+      <c r="M37" t="s"/>
+      <c r="N37" t="s"/>
+      <c r="O37" t="s"/>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="n">
+        <v>0</v>
+      </c>
+      <c r="S37" t="s">
+        <v>33</v>
+      </c>
+      <c r="T37" t="s">
+        <v>113</v>
+      </c>
+      <c r="U37" t="s"/>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="n">
+        <v>0</v>
+      </c>
+      <c r="X37" t="s">
+        <v>114</v>
+      </c>
+      <c r="Y37" t="s"/>
+      <c r="Z37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA37" t="s">
+        <v>195</v>
+      </c>
+      <c r="AB37" t="s"/>
+      <c r="AC37" t="s"/>
+      <c r="AD37" t="s"/>
+    </row>
+    <row r="38" spans="1:30">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="s">
+        <v>196</v>
+      </c>
+      <c r="E38" t="s">
+        <v>197</v>
+      </c>
+      <c r="F38" t="s">
+        <v>198</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="s">
+        <v>199</v>
+      </c>
+      <c r="J38" t="s"/>
+      <c r="K38" t="n">
+        <v>1.043279872645362e+18</v>
+      </c>
+      <c r="L38" t="n">
+        <v>1.043279872645362e+18</v>
+      </c>
+      <c r="M38" t="s">
+        <v>50</v>
+      </c>
+      <c r="N38" t="s"/>
+      <c r="O38" t="s"/>
+      <c r="P38" t="n">
+        <v>7.558699847614792e+17</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>7.55869984761479e+17</v>
+      </c>
+      <c r="R38" t="n">
+        <v>0</v>
+      </c>
+      <c r="S38" t="s">
+        <v>200</v>
+      </c>
+      <c r="T38" t="s">
+        <v>201</v>
+      </c>
+      <c r="U38" t="s"/>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="n">
+        <v>0</v>
+      </c>
+      <c r="X38" t="s">
+        <v>107</v>
+      </c>
+      <c r="Y38" t="s"/>
+      <c r="Z38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA38" t="s">
+        <v>202</v>
+      </c>
+      <c r="AB38" t="s"/>
+      <c r="AC38" t="s"/>
+      <c r="AD38" t="s"/>
+    </row>
+    <row r="39" spans="1:30">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="s">
+        <v>203</v>
+      </c>
+      <c r="E39" t="s">
+        <v>204</v>
+      </c>
+      <c r="F39" t="s">
+        <v>205</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" t="s">
+        <v>206</v>
+      </c>
+      <c r="J39" t="s"/>
+      <c r="K39" t="n">
+        <v>1.04571404957141e+18</v>
+      </c>
+      <c r="L39" t="s">
+        <v>207</v>
+      </c>
+      <c r="M39" t="s">
+        <v>50</v>
+      </c>
+      <c r="N39" t="s"/>
+      <c r="O39" t="s"/>
+      <c r="P39" t="n">
+        <v>7.558699847614792e+17</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>208</v>
+      </c>
+      <c r="R39" t="n">
+        <v>0</v>
+      </c>
+      <c r="S39" t="s">
+        <v>33</v>
+      </c>
+      <c r="T39" t="s">
+        <v>34</v>
+      </c>
+      <c r="U39" t="s"/>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="n">
+        <v>0</v>
+      </c>
+      <c r="X39" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y39" t="s"/>
+      <c r="Z39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA39" t="s">
+        <v>209</v>
+      </c>
+      <c r="AB39" t="s"/>
+      <c r="AC39" t="s"/>
+      <c r="AD39" t="s"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/master.xlsx
+++ b/master.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="216">
   <si>
     <t>contributors</t>
   </si>
@@ -735,13 +735,34 @@
 [Nobody cares]</t>
   </si>
   <si>
-    <t>1045714049571409920</t>
+    <t>{'profile_use_background_image': False, 'profile_text_color': '000000', 'follow_request_sent': False, 'translator_type': 'none', 'name': 'Minister Vlatin', 'screen_name': 'MinisterVlatin', 'id_str': '1017118454711771136', 'verified': False, 'followers_count': 6, 'notifications': False, 'favourites_count': 5, 'listed_count': 0, 'contributors_enabled': False, 'geo_enabled': False, 'protected': False, 'profile_background_image_url_https': 'https://abs.twimg.com/images/themes/theme1/bg.png', 'default_profile_image': False, 'lang': 'en', 'profile_background_color': '000000', 'profile_image_url': 'http://pbs.twimg.com/profile_images/1041036258745765890/C-8rzdz5_normal.jpg', 'profile_image_url_https': 'https://pbs.twimg.com/profile_images/1041036258745765890/C-8rzdz5_normal.jpg', 'following': False, 'profile_sidebar_border_color': '000000', 'is_translation_enabled': False, 'profile_background_image_url': 'http://abs.twimg.com/images/themes/theme1/bg.png', 'has_extended_profile': False, 'utc_offset': None, 'profile_banner_url': 'https://pbs.twimg.com/profile_banners/1017118454711771136/1535920961', 'description': 'Seizing @truWorldControl by spreading #fakenewz. #proudtobeabot 🤖 by @RKalcik', 'is_translator': False, 'profile_background_tile': False, 'id': 1017118454711771136, 'profile_link_color': '000000', 'friends_count': 13, 'created_at': 'Wed Jul 11 18:48:31 +0000 2018', 'entities': {'url': {'urls': [{'expanded_url': 'http://world-control.net', 'url': 'https://t.co/AgubHQIUXe', 'display_url': 'world-control.net', 'indices': [0, 23]}]}, 'description': {'urls': []}}, 'url': 'https://t.co/AgubHQIUXe', 'profile_sidebar_fill_color': '000000', 'default_profile': False, 'time_zone': None, 'location': 'Moscow, Russia', 'statuses_count': 123}</t>
+  </si>
+  <si>
+    <t>Sat Sep 29 09:38:01 +0000 2018</t>
+  </si>
+  <si>
+    <t>[0, 146]</t>
+  </si>
+  <si>
+    <t>{'user_mentions': [{'name': 'WorldControl  🎲🎲', 'screen_name': 'truWorldControl', 'id_str': '755869984761479168', 'id': 755869984761479168, 'indices': [0, 16]}], 'symbols': [], 'hashtags': [{'indices': [17, 26], 'text': 'fakenewz'}, {'indices': [120, 127], 'text': '24h133'}], 'urls': []}</t>
+  </si>
+  <si>
+    <t>@truWorldControl #fakenewz
+Protest erfolgreich aufgelöst 
+Lucky 7 und Jolly Jumper reiten dem Sonnenuntergang entgegen  #24h133🚓
+[Vienna +1 corpz]</t>
+  </si>
+  <si>
+    <t>1045970947864494082</t>
   </si>
   <si>
     <t>755869984761479168</t>
   </si>
   <si>
-    <t>{'profile_use_background_image': False, 'profile_text_color': '000000', 'follow_request_sent': False, 'translator_type': 'none', 'name': 'Minister Vlatin', 'screen_name': 'MinisterVlatin', 'id_str': '1017118454711771136', 'verified': False, 'followers_count': 6, 'notifications': False, 'favourites_count': 5, 'listed_count': 0, 'contributors_enabled': False, 'geo_enabled': False, 'protected': False, 'profile_background_image_url_https': 'https://abs.twimg.com/images/themes/theme1/bg.png', 'default_profile_image': False, 'lang': 'en', 'profile_background_color': '000000', 'profile_image_url': 'http://pbs.twimg.com/profile_images/1041036258745765890/C-8rzdz5_normal.jpg', 'profile_image_url_https': 'https://pbs.twimg.com/profile_images/1041036258745765890/C-8rzdz5_normal.jpg', 'following': False, 'profile_sidebar_border_color': '000000', 'is_translation_enabled': False, 'profile_background_image_url': 'http://abs.twimg.com/images/themes/theme1/bg.png', 'has_extended_profile': False, 'utc_offset': None, 'profile_banner_url': 'https://pbs.twimg.com/profile_banners/1017118454711771136/1535920961', 'description': 'Seizing @truWorldControl by spreading #fakenewz. #proudtobeabot 🤖 by @RKalcik', 'is_translator': False, 'profile_background_tile': False, 'id': 1017118454711771136, 'profile_link_color': '000000', 'friends_count': 13, 'created_at': 'Wed Jul 11 18:48:31 +0000 2018', 'entities': {'url': {'urls': [{'expanded_url': 'http://world-control.net', 'url': 'https://t.co/AgubHQIUXe', 'display_url': 'world-control.net', 'indices': [0, 23]}]}, 'description': {'urls': []}}, 'url': 'https://t.co/AgubHQIUXe', 'profile_sidebar_fill_color': '000000', 'default_profile': False, 'time_zone': None, 'location': 'Moscow, Russia', 'statuses_count': 123}</t>
+    <t>{'iso_language_code': 'de', 'result_type': 'recent'}</t>
+  </si>
+  <si>
+    <t>{'profile_sidebar_fill_color': '000000', 'screen_name': 'MinisterVlatin', 'profile_use_background_image': False, 'url': 'https://t.co/AgubHQIUXe', 'id_str': '1017118454711771136', 'protected': False, 'statuses_count': 125, 'profile_background_image_url_https': 'https://abs.twimg.com/images/themes/theme1/bg.png', 'name': 'Minister Vlatin', 'listed_count': 0, 'is_translation_enabled': False, 'notifications': False, 'time_zone': None, 'contributors_enabled': False, 'profile_background_tile': False, 'following': False, 'geo_enabled': False, 'profile_background_color': '000000', 'profile_sidebar_border_color': '000000', 'profile_background_image_url': 'http://abs.twimg.com/images/themes/theme1/bg.png', 'favourites_count': 6, 'lang': 'en', 'is_translator': False, 'profile_image_url': 'http://pbs.twimg.com/profile_images/1041036258745765890/C-8rzdz5_normal.jpg', 'description': 'Seizing @truWorldControl by spreading #fakenewz. #proudtobeabot 🤖 by @RKalcik', 'verified': False, 'created_at': 'Wed Jul 11 18:48:31 +0000 2018', 'translator_type': 'none', 'profile_banner_url': 'https://pbs.twimg.com/profile_banners/1017118454711771136/1535920961', 'default_profile_image': False, 'has_extended_profile': False, 'follow_request_sent': False, 'location': 'Moscow, Russia', 'friends_count': 13, 'followers_count': 6, 'entities': {'description': {'urls': []}, 'url': {'urls': [{'indices': [0, 23], 'display_url': 'world-control.net', 'expanded_url': 'http://world-control.net', 'url': 'https://t.co/AgubHQIUXe'}]}}, 'profile_text_color': '000000', 'default_profile': False, 'utc_offset': None, 'profile_image_url_https': 'https://pbs.twimg.com/profile_images/1041036258745765890/C-8rzdz5_normal.jpg', 'profile_link_color': '000000', 'id': 1017118454711771136}</t>
   </si>
 </sst>
 </file>
@@ -1090,7 +1111,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AD39"/>
+  <dimension ref="A1:AD40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3829,8 +3850,8 @@
       <c r="K39" t="n">
         <v>1.04571404957141e+18</v>
       </c>
-      <c r="L39" t="s">
-        <v>207</v>
+      <c r="L39" t="n">
+        <v>1.04571404957141e+18</v>
       </c>
       <c r="M39" t="s">
         <v>50</v>
@@ -3840,8 +3861,8 @@
       <c r="P39" t="n">
         <v>7.558699847614792e+17</v>
       </c>
-      <c r="Q39" t="s">
-        <v>208</v>
+      <c r="Q39" t="n">
+        <v>7.55869984761479e+17</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -3867,11 +3888,83 @@
         <v>0</v>
       </c>
       <c r="AA39" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="AB39" t="s"/>
       <c r="AC39" t="s"/>
       <c r="AD39" t="s"/>
+    </row>
+    <row r="40" spans="1:30">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="s">
+        <v>208</v>
+      </c>
+      <c r="E40" t="s">
+        <v>209</v>
+      </c>
+      <c r="F40" t="s">
+        <v>210</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="s">
+        <v>211</v>
+      </c>
+      <c r="J40" t="s"/>
+      <c r="K40" t="n">
+        <v>1.045970947864494e+18</v>
+      </c>
+      <c r="L40" t="s">
+        <v>212</v>
+      </c>
+      <c r="M40" t="s">
+        <v>50</v>
+      </c>
+      <c r="N40" t="s"/>
+      <c r="O40" t="s"/>
+      <c r="P40" t="n">
+        <v>7.558699847614792e+17</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>213</v>
+      </c>
+      <c r="R40" t="n">
+        <v>0</v>
+      </c>
+      <c r="S40" t="s">
+        <v>70</v>
+      </c>
+      <c r="T40" t="s">
+        <v>214</v>
+      </c>
+      <c r="U40" t="s"/>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="n">
+        <v>0</v>
+      </c>
+      <c r="X40" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y40" t="s"/>
+      <c r="Z40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA40" t="s">
+        <v>215</v>
+      </c>
+      <c r="AB40" t="s"/>
+      <c r="AC40" t="s"/>
+      <c r="AD40" t="s"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/master.xlsx
+++ b/master.xlsx
@@ -1,21 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\gdrive\world-control\bot\world-control\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2774C292-C220-4ACE-A3E8-F81022E35A1B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="205">
   <si>
     <t>contributors</t>
   </si>
@@ -552,20 +557,6 @@
     <t>{'default_profile': False, 'profile_image_url_https': 'https://pbs.twimg.com/profile_images/1041036258745765890/C-8rzdz5_normal.jpg', 'is_translation_enabled': False, 'profile_background_image_url': 'http://abs.twimg.com/images/themes/theme1/bg.png', 'utc_offset': None, 'screen_name': 'MinisterVlatin', 'statuses_count': 104, 'follow_request_sent': False, 'listed_count': 0, 'notifications': False, 'profile_sidebar_fill_color': '000000', 'profile_use_background_image': False, 'contributors_enabled': False, 'favourites_count': 4, 'profile_background_image_url_https': 'https://abs.twimg.com/images/themes/theme1/bg.png', 'profile_image_url': 'http://pbs.twimg.com/profile_images/1041036258745765890/C-8rzdz5_normal.jpg', 'id': 1017118454711771136, 'profile_background_color': '000000', 'id_str': '1017118454711771136', 'followers_count': 6, 'url': 'https://t.co/AgubHQIUXe', 'following': False, 'protected': False, 'translator_type': 'none', 'geo_enabled': False, 'default_profile_image': False, 'description': 'Seizing @truWorldControl by spreading #fakenewz. #proudtobeabot 🤖 by @RKalcik', 'name': 'Minister Vlatin', 'friends_count': 12, 'profile_banner_url': 'https://pbs.twimg.com/profile_banners/1017118454711771136/1535920961', 'profile_text_color': '000000', 'profile_link_color': '000000', 'verified': False, 'location': 'Moscow, Russia', 'is_translator': False, 'created_at': 'Wed Jul 11 18:48:31 +0000 2018', 'time_zone': None, 'has_extended_profile': False, 'profile_sidebar_border_color': '000000', 'lang': 'en', 'entities': {'url': {'urls': [{'url': 'https://t.co/AgubHQIUXe', 'expanded_url': 'http://world-control.net', 'display_url': 'world-control.net', 'indices': [0, 23]}]}, 'description': {'urls': []}}, 'profile_background_tile': False}</t>
   </si>
   <si>
-    <t>Tue Sep 18 19:22:35 +0000 2018</t>
-  </si>
-  <si>
-    <t>[0, 165]</t>
-  </si>
-  <si>
-    <t>{'symbols': [], 'hashtags': [{'text': 'FakeNews', 'indices': [156, 165]}], 'urls': [], 'user_mentions': [{'id': 755869984761479168, 'indices': [138, 154], 'name': 'WorldControl  🎲🎲', 'screen_name': 'truWorldControl', 'id_str': '755869984761479168'}]}</t>
-  </si>
-  <si>
-    <t>Alpha GoGo 
-For the first time in history a computer beats a human in pole dancing. Long live the robotic overlords! 🏳️🤖
-[Everyone +1 ⚙️] @truWorldControl  #FakeNews</t>
-  </si>
-  <si>
     <t>{'profile_sidebar_fill_color': '000000', 'has_extended_profile': False, 'statuses_count': 106, 'follow_request_sent': False, 'default_profile_image': False, 'geo_enabled': False, 'lang': 'en', 'profile_text_color': '000000', 'profile_image_url': 'http://pbs.twimg.com/profile_images/1041036258745765890/C-8rzdz5_normal.jpg', 'friends_count': 12, 'created_at': 'Wed Jul 11 18:48:31 +0000 2018', 'name': 'Minister Vlatin', 'location': 'Moscow, Russia', 'profile_background_tile': False, 'profile_banner_url': 'https://pbs.twimg.com/profile_banners/1017118454711771136/1535920961', 'profile_link_color': '000000', 'id_str': '1017118454711771136', 'default_profile': False, 'profile_background_color': '000000', 'verified': False, 'listed_count': 0, 'screen_name': 'MinisterVlatin', 'id': 1017118454711771136, 'profile_image_url_https': 'https://pbs.twimg.com/profile_images/1041036258745765890/C-8rzdz5_normal.jpg', 'url': 'https://t.co/AgubHQIUXe', 'profile_sidebar_border_color': '000000', 'followers_count': 6, 'time_zone': None, 'notifications': False, 'profile_background_image_url_https': 'https://abs.twimg.com/images/themes/theme1/bg.png', 'utc_offset': None, 'protected': False, 'is_translator': False, 'favourites_count': 4, 'translator_type': 'none', 'description': 'Seizing @truWorldControl by spreading #fakenewz. #proudtobeabot 🤖 by @RKalcik', 'profile_use_background_image': False, 'entities': {'url': {'urls': [{'display_url': 'world-control.net', 'expanded_url': 'http://world-control.net', 'url': 'https://t.co/AgubHQIUXe', 'indices': [0, 23]}]}, 'description': {'urls': []}}, 'profile_background_image_url': 'http://abs.twimg.com/images/themes/theme1/bg.png', 'is_translation_enabled': False, 'following': False, 'contributors_enabled': False}</t>
   </si>
   <si>
@@ -576,11 +567,6 @@
   </si>
   <si>
     <t>{'symbols': [], 'hashtags': [{'text': 'fakenewz', 'indices': [155, 164]}], 'urls': [], 'user_mentions': [{'id': 755869984761479168, 'indices': [138, 154], 'name': 'WorldControl  🎲🎲', 'screen_name': 'truWorldControl', 'id_str': '755869984761479168'}]}</t>
-  </si>
-  <si>
-    <t>Alpha GoGo 
-For the first time in history a computer beats a human in pole dancing. Long live the robotic overlords! 🤖🏳️
-[Everyone +1 ⚙️] @truWorldControl #fakenewz</t>
   </si>
   <si>
     <t>Tue Sep 18 20:19:54 +0000 2018</t>
@@ -650,12 +636,6 @@
   </si>
   <si>
     <t>{'symbols': [], 'user_mentions': [{'screen_name': 'truWorldControl', 'name': 'WorldControl  🎲🎲', 'id': 755869984761479168, 'id_str': '755869984761479168', 'indices': [100, 116]}], 'urls': [], 'hashtags': [{'text': 'fakenewz', 'indices': [118, 127]}]}</t>
-  </si>
-  <si>
-    <t>President Drumpf's Epiphany
-Gooing himself President Drumpf realises that he's a moron
-[US +1 sage] @truWorldControl
- #fakenewz</t>
   </si>
   <si>
     <t>{'profile_use_background_image': False, 'description': 'Seizing @truWorldControl by spreading #fakenewz. #proudtobeabot 🤖 by @RKalcik', 'lang': 'en', 'is_translation_enabled': False, 'entities': {'description': {'urls': []}, 'url': {'urls': [{'display_url': 'world-control.net', 'indices': [0, 23], 'expanded_url': 'http://world-control.net', 'url': 'https://t.co/AgubHQIUXe'}]}}, 'has_extended_profile': False, 'url': 'https://t.co/AgubHQIUXe', 'translator_type': 'none', 'statuses_count': 116, 'profile_sidebar_border_color': '000000', 'name': 'Minister Vlatin', 'protected': False, 'geo_enabled': False, 'default_profile_image': False, 'friends_count': 12, 'profile_background_image_url': 'http://abs.twimg.com/images/themes/theme1/bg.png', 'screen_name': 'MinisterVlatin', 'utc_offset': None, 'verified': False, 'contributors_enabled': False, 'profile_image_url': 'http://pbs.twimg.com/profile_images/1041036258745765890/C-8rzdz5_normal.jpg', 'is_translator': False, 'profile_link_color': '000000', 'profile_image_url_https': 'https://pbs.twimg.com/profile_images/1041036258745765890/C-8rzdz5_normal.jpg', 'id': 1017118454711771136, 'id_str': '1017118454711771136', 'created_at': 'Wed Jul 11 18:48:31 +0000 2018', 'profile_sidebar_fill_color': '000000', 'followers_count': 6, 'notifications': False, 'profile_background_tile': False, 'profile_text_color': '000000', 'default_profile': False, 'follow_request_sent': False, 'favourites_count': 5, 'profile_background_color': '000000', 'following': False, 'profile_background_image_url_https': 'https://abs.twimg.com/images/themes/theme1/bg.png', 'listed_count': 0, 'profile_banner_url': 'https://pbs.twimg.com/profile_banners/1017118454711771136/1535920961', 'time_zone': None, 'location': 'Moscow, Russia'}</t>
@@ -698,29 +678,6 @@
     <t>{'created_at': 'Wed Jul 11 18:48:31 +0000 2018', 'profile_image_url_https': 'https://pbs.twimg.com/profile_images/1041036258745765890/C-8rzdz5_normal.jpg', 'followers_count': 6, 'time_zone': None, 'profile_background_tile': False, 'profile_link_color': '000000', 'profile_background_color': '000000', 'id_str': '1017118454711771136', 'lang': 'en', 'protected': False, 'has_extended_profile': False, 'following': False, 'statuses_count': 120, 'profile_text_color': '000000', 'screen_name': 'MinisterVlatin', 'profile_banner_url': 'https://pbs.twimg.com/profile_banners/1017118454711771136/1535920961', 'contributors_enabled': False, 'profile_image_url': 'http://pbs.twimg.com/profile_images/1041036258745765890/C-8rzdz5_normal.jpg', 'name': 'Minister Vlatin', 'geo_enabled': False, 'listed_count': 0, 'verified': False, 'profile_sidebar_border_color': '000000', 'default_profile': False, 'friends_count': 12, 'follow_request_sent': False, 'profile_background_image_url': 'http://abs.twimg.com/images/themes/theme1/bg.png', 'location': 'Moscow, Russia', 'id': 1017118454711771136, 'notifications': False, 'profile_background_image_url_https': 'https://abs.twimg.com/images/themes/theme1/bg.png', 'default_profile_image': False, 'entities': {'url': {'urls': [{'display_url': 'world-control.net', 'expanded_url': 'http://world-control.net', 'url': 'https://t.co/AgubHQIUXe', 'indices': [0, 23]}]}, 'description': {'urls': []}}, 'profile_use_background_image': False, 'description': 'Seizing @truWorldControl by spreading #fakenewz. #proudtobeabot 🤖 by @RKalcik', 'is_translator': False, 'utc_offset': None, 'profile_sidebar_fill_color': '000000', 'translator_type': 'none', 'url': 'https://t.co/AgubHQIUXe', 'is_translation_enabled': False, 'favourites_count': 5}</t>
   </si>
   <si>
-    <t>Fri Sep 21 23:24:39 +0000 2018</t>
-  </si>
-  <si>
-    <t>[0, 63]</t>
-  </si>
-  <si>
-    <t>{'symbols': [], 'urls': [], 'user_mentions': [{'name': 'WorldControl  🎲🎲', 'id_str': '755869984761479168', 'id': 755869984761479168, 'screen_name': 'truWorldControl', 'indices': [0, 16]}], 'hashtags': [{'text': 'fakenewz', 'indices': [17, 26]}]}</t>
-  </si>
-  <si>
-    <t>@truWorldControl #fakenewz
-Julian rakes over SPÖ
-[ VIENNA +1 🔴]</t>
-  </si>
-  <si>
-    <t>fi</t>
-  </si>
-  <si>
-    <t>{'iso_language_code': 'fi', 'result_type': 'recent'}</t>
-  </si>
-  <si>
-    <t>{'created_at': 'Wed Sep 19 13:14:15 +0000 2018', 'profile_image_url_https': 'https://pbs.twimg.com/profile_images/1042406021967298560/r5rbeGEh_normal.jpg', 'followers_count': 0, 'time_zone': None, 'profile_background_tile': False, 'profile_link_color': '000000', 'profile_background_color': '000000', 'id_str': '1042401483759788032', 'lang': 'en', 'protected': False, 'has_extended_profile': True, 'following': False, 'statuses_count': 2, 'profile_text_color': '000000', 'screen_name': 'im_imago', 'profile_banner_url': 'https://pbs.twimg.com/profile_banners/1042401483759788032/1537364017', 'contributors_enabled': False, 'profile_image_url': 'http://pbs.twimg.com/profile_images/1042406021967298560/r5rbeGEh_normal.jpg', 'name': 'imago.im', 'geo_enabled': False, 'listed_count': 0, 'verified': False, 'profile_sidebar_border_color': '000000', 'default_profile': False, 'friends_count': 2, 'follow_request_sent': False, 'profile_background_image_url': 'http://abs.twimg.com/images/themes/theme1/bg.png', 'location': 'Vienna, Austria', 'id': 1042401483759788032, 'notifications': False, 'profile_background_image_url_https': 'https://abs.twimg.com/images/themes/theme1/bg.png', 'default_profile_image': False, 'entities': {'url': {'urls': [{'display_url': 'imago.im', 'expanded_url': 'http://imago.im', 'url': 'https://t.co/Gnj0QDj9c8', 'indices': [0, 23]}]}, 'description': {'urls': []}}, 'profile_use_background_image': False, 'description': '♟️', 'is_translator': False, 'utc_offset': None, 'profile_sidebar_fill_color': '000000', 'translator_type': 'none', 'url': 'https://t.co/Gnj0QDj9c8', 'is_translation_enabled': False, 'favourites_count': 1}</t>
-  </si>
-  <si>
     <t>Fri Sep 28 16:37:12 +0000 2018</t>
   </si>
   <si>
@@ -764,27 +721,38 @@
   <si>
     <t>{'profile_sidebar_fill_color': '000000', 'screen_name': 'MinisterVlatin', 'profile_use_background_image': False, 'url': 'https://t.co/AgubHQIUXe', 'id_str': '1017118454711771136', 'protected': False, 'statuses_count': 125, 'profile_background_image_url_https': 'https://abs.twimg.com/images/themes/theme1/bg.png', 'name': 'Minister Vlatin', 'listed_count': 0, 'is_translation_enabled': False, 'notifications': False, 'time_zone': None, 'contributors_enabled': False, 'profile_background_tile': False, 'following': False, 'geo_enabled': False, 'profile_background_color': '000000', 'profile_sidebar_border_color': '000000', 'profile_background_image_url': 'http://abs.twimg.com/images/themes/theme1/bg.png', 'favourites_count': 6, 'lang': 'en', 'is_translator': False, 'profile_image_url': 'http://pbs.twimg.com/profile_images/1041036258745765890/C-8rzdz5_normal.jpg', 'description': 'Seizing @truWorldControl by spreading #fakenewz. #proudtobeabot 🤖 by @RKalcik', 'verified': False, 'created_at': 'Wed Jul 11 18:48:31 +0000 2018', 'translator_type': 'none', 'profile_banner_url': 'https://pbs.twimg.com/profile_banners/1017118454711771136/1535920961', 'default_profile_image': False, 'has_extended_profile': False, 'follow_request_sent': False, 'location': 'Moscow, Russia', 'friends_count': 13, 'followers_count': 6, 'entities': {'description': {'urls': []}, 'url': {'urls': [{'indices': [0, 23], 'display_url': 'world-control.net', 'expanded_url': 'http://world-control.net', 'url': 'https://t.co/AgubHQIUXe'}]}}, 'profile_text_color': '000000', 'default_profile': False, 'utc_offset': None, 'profile_image_url_https': 'https://pbs.twimg.com/profile_images/1041036258745765890/C-8rzdz5_normal.jpg', 'profile_link_color': '000000', 'id': 1017118454711771136}</t>
   </si>
+  <si>
+    <t>President Drumpf's Epiphany
+Googling himself President Drumpf realises that he's a moron
+[US +1 sage] @truWorldControl
+ #fakenewz</t>
+  </si>
+  <si>
+    <t>Alpha GoGo 
+For the first time in history a computer beats a human in pole dancing. Long live the robotic overlords! 🤖🏳️[Everyone +1 tech] @truWorldControl #fakenewz</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -799,26 +767,46 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1106,20 +1094,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:AD40"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AD38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="I4" workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="9" max="9" width="172.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1208,12 +1195,10 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:30">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
       <c r="D2" t="s">
         <v>29</v>
       </c>
@@ -1223,28 +1208,22 @@
       <c r="F2" t="s">
         <v>31</v>
       </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
         <v>0</v>
       </c>
       <c r="I2" t="s">
         <v>32</v>
       </c>
-      <c r="J2" t="s"/>
-      <c r="K2" t="n">
-        <v>1.03924e+18</v>
-      </c>
-      <c r="L2" t="n">
-        <v>1.03924e+18</v>
-      </c>
-      <c r="M2" t="s"/>
-      <c r="N2" t="s"/>
-      <c r="O2" t="s"/>
-      <c r="P2" t="s"/>
-      <c r="Q2" t="s"/>
-      <c r="R2" t="n">
+      <c r="K2">
+        <v>1.03924E+18</v>
+      </c>
+      <c r="L2">
+        <v>1.03924E+18</v>
+      </c>
+      <c r="R2">
         <v>0</v>
       </c>
       <c r="S2" t="s">
@@ -1253,64 +1232,51 @@
       <c r="T2" t="s">
         <v>34</v>
       </c>
-      <c r="U2" t="s"/>
-      <c r="V2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W2" t="n">
+      <c r="V2">
+        <v>0</v>
+      </c>
+      <c r="W2">
         <v>0</v>
       </c>
       <c r="X2" t="s">
         <v>35</v>
       </c>
-      <c r="Y2" t="s"/>
-      <c r="Z2" t="n">
+      <c r="Z2">
         <v>0</v>
       </c>
       <c r="AA2" t="s">
         <v>36</v>
       </c>
-      <c r="AB2" t="s"/>
-      <c r="AC2" t="s"/>
-      <c r="AD2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:30">
-      <c r="A3" s="1" t="n">
+      <c r="AD2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
       <c r="D3" t="s">
         <v>37</v>
       </c>
-      <c r="E3" t="s"/>
       <c r="F3" t="s">
         <v>38</v>
       </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
         <v>0</v>
       </c>
       <c r="I3" t="s">
         <v>39</v>
       </c>
-      <c r="J3" t="s"/>
-      <c r="K3" t="n">
-        <v>1.03765e+18</v>
-      </c>
-      <c r="L3" t="n">
-        <v>1.03765e+18</v>
-      </c>
-      <c r="M3" t="s"/>
-      <c r="N3" t="s"/>
-      <c r="O3" t="s"/>
-      <c r="P3" t="s"/>
-      <c r="Q3" t="s"/>
-      <c r="R3" t="n">
+      <c r="K3">
+        <v>1.03765E+18</v>
+      </c>
+      <c r="L3">
+        <v>1.03765E+18</v>
+      </c>
+      <c r="R3">
         <v>0</v>
       </c>
       <c r="S3" t="s">
@@ -1319,11 +1285,10 @@
       <c r="T3" t="s">
         <v>34</v>
       </c>
-      <c r="U3" t="s"/>
-      <c r="V3" t="n">
-        <v>0</v>
-      </c>
-      <c r="W3" t="n">
+      <c r="V3">
+        <v>0</v>
+      </c>
+      <c r="W3">
         <v>0</v>
       </c>
       <c r="X3" t="s">
@@ -1332,53 +1297,42 @@
       <c r="Y3" t="s">
         <v>39</v>
       </c>
-      <c r="Z3" t="n">
+      <c r="Z3">
         <v>0</v>
       </c>
       <c r="AA3" t="s">
         <v>41</v>
       </c>
-      <c r="AB3" t="s"/>
-      <c r="AC3" t="s"/>
-      <c r="AD3" t="n">
+      <c r="AD3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:30">
-      <c r="A4" s="1" t="n">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
       <c r="D4" t="s">
         <v>42</v>
       </c>
-      <c r="E4" t="s"/>
       <c r="F4" t="s">
         <v>43</v>
       </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
         <v>0</v>
       </c>
       <c r="I4" t="s">
         <v>44</v>
       </c>
-      <c r="J4" t="s"/>
-      <c r="K4" t="n">
-        <v>1.0348e+18</v>
-      </c>
-      <c r="L4" t="n">
-        <v>1.0348e+18</v>
-      </c>
-      <c r="M4" t="s"/>
-      <c r="N4" t="s"/>
-      <c r="O4" t="s"/>
-      <c r="P4" t="s"/>
-      <c r="Q4" t="s"/>
-      <c r="R4" t="n">
+      <c r="K4">
+        <v>1.0348E+18</v>
+      </c>
+      <c r="L4">
+        <v>1.0348E+18</v>
+      </c>
+      <c r="R4">
         <v>0</v>
       </c>
       <c r="S4" t="s">
@@ -1387,11 +1341,10 @@
       <c r="T4" t="s">
         <v>34</v>
       </c>
-      <c r="U4" t="s"/>
-      <c r="V4" t="n">
-        <v>0</v>
-      </c>
-      <c r="W4" t="n">
+      <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="W4">
         <v>0</v>
       </c>
       <c r="X4" t="s">
@@ -1400,59 +1353,51 @@
       <c r="Y4" t="s">
         <v>45</v>
       </c>
-      <c r="Z4" t="n">
+      <c r="Z4">
         <v>0</v>
       </c>
       <c r="AA4" t="s">
         <v>46</v>
       </c>
-      <c r="AB4" t="s"/>
-      <c r="AC4" t="s"/>
-      <c r="AD4" t="n">
+      <c r="AD4">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:30">
-      <c r="A5" s="1" t="n">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
       <c r="D5" t="s">
         <v>47</v>
       </c>
-      <c r="E5" t="s"/>
       <c r="F5" t="s">
         <v>48</v>
       </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
         <v>0</v>
       </c>
       <c r="I5" t="s">
         <v>49</v>
       </c>
-      <c r="J5" t="s"/>
-      <c r="K5" t="n">
-        <v>1.03266e+18</v>
-      </c>
-      <c r="L5" t="n">
-        <v>1.03266e+18</v>
+      <c r="K5">
+        <v>1.03266E+18</v>
+      </c>
+      <c r="L5">
+        <v>1.03266E+18</v>
       </c>
       <c r="M5" t="s">
         <v>50</v>
       </c>
-      <c r="N5" t="s"/>
-      <c r="O5" t="s"/>
-      <c r="P5" t="n">
-        <v>7.56e+17</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>7.5587e+17</v>
-      </c>
-      <c r="R5" t="n">
+      <c r="P5">
+        <v>7.56E+17</v>
+      </c>
+      <c r="Q5">
+        <v>7.5587E+17</v>
+      </c>
+      <c r="R5">
         <v>0</v>
       </c>
       <c r="S5" t="s">
@@ -1461,11 +1406,10 @@
       <c r="T5" t="s">
         <v>34</v>
       </c>
-      <c r="U5" t="s"/>
-      <c r="V5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W5" t="n">
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5">
         <v>0</v>
       </c>
       <c r="X5" t="s">
@@ -1474,59 +1418,51 @@
       <c r="Y5" t="s">
         <v>49</v>
       </c>
-      <c r="Z5" t="n">
+      <c r="Z5">
         <v>0</v>
       </c>
       <c r="AA5" t="s">
         <v>51</v>
       </c>
-      <c r="AB5" t="s"/>
-      <c r="AC5" t="s"/>
-      <c r="AD5" t="n">
+      <c r="AD5">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:30">
-      <c r="A6" s="1" t="n">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
       <c r="D6" t="s">
         <v>52</v>
       </c>
-      <c r="E6" t="s"/>
       <c r="F6" t="s">
         <v>48</v>
       </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
         <v>0</v>
       </c>
       <c r="I6" t="s">
         <v>53</v>
       </c>
-      <c r="J6" t="s"/>
-      <c r="K6" t="n">
-        <v>1.03266e+18</v>
-      </c>
-      <c r="L6" t="n">
-        <v>1.03266e+18</v>
+      <c r="K6">
+        <v>1.03266E+18</v>
+      </c>
+      <c r="L6">
+        <v>1.03266E+18</v>
       </c>
       <c r="M6" t="s">
         <v>50</v>
       </c>
-      <c r="N6" t="s"/>
-      <c r="O6" t="s"/>
-      <c r="P6" t="n">
-        <v>7.56e+17</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>7.5587e+17</v>
-      </c>
-      <c r="R6" t="n">
+      <c r="P6">
+        <v>7.56E+17</v>
+      </c>
+      <c r="Q6">
+        <v>7.5587E+17</v>
+      </c>
+      <c r="R6">
         <v>0</v>
       </c>
       <c r="S6" t="s">
@@ -1535,11 +1471,10 @@
       <c r="T6" t="s">
         <v>34</v>
       </c>
-      <c r="U6" t="s"/>
-      <c r="V6" t="n">
-        <v>0</v>
-      </c>
-      <c r="W6" t="n">
+      <c r="V6">
+        <v>0</v>
+      </c>
+      <c r="W6">
         <v>0</v>
       </c>
       <c r="X6" t="s">
@@ -1548,59 +1483,51 @@
       <c r="Y6" t="s">
         <v>53</v>
       </c>
-      <c r="Z6" t="n">
+      <c r="Z6">
         <v>0</v>
       </c>
       <c r="AA6" t="s">
         <v>54</v>
       </c>
-      <c r="AB6" t="s"/>
-      <c r="AC6" t="s"/>
-      <c r="AD6" t="n">
+      <c r="AD6">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:30">
-      <c r="A7" s="1" t="n">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
       <c r="D7" t="s">
         <v>55</v>
       </c>
-      <c r="E7" t="s"/>
       <c r="F7" t="s">
         <v>48</v>
       </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
         <v>0</v>
       </c>
       <c r="I7" t="s">
         <v>56</v>
       </c>
-      <c r="J7" t="s"/>
-      <c r="K7" t="n">
-        <v>1.03266e+18</v>
-      </c>
-      <c r="L7" t="n">
-        <v>1.03266e+18</v>
+      <c r="K7">
+        <v>1.03266E+18</v>
+      </c>
+      <c r="L7">
+        <v>1.03266E+18</v>
       </c>
       <c r="M7" t="s">
         <v>50</v>
       </c>
-      <c r="N7" t="s"/>
-      <c r="O7" t="s"/>
-      <c r="P7" t="n">
-        <v>7.56e+17</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>7.5587e+17</v>
-      </c>
-      <c r="R7" t="n">
+      <c r="P7">
+        <v>7.56E+17</v>
+      </c>
+      <c r="Q7">
+        <v>7.5587E+17</v>
+      </c>
+      <c r="R7">
         <v>0</v>
       </c>
       <c r="S7" t="s">
@@ -1609,11 +1536,10 @@
       <c r="T7" t="s">
         <v>34</v>
       </c>
-      <c r="U7" t="s"/>
-      <c r="V7" t="n">
-        <v>0</v>
-      </c>
-      <c r="W7" t="n">
+      <c r="V7">
+        <v>0</v>
+      </c>
+      <c r="W7">
         <v>0</v>
       </c>
       <c r="X7" t="s">
@@ -1622,59 +1548,51 @@
       <c r="Y7" t="s">
         <v>56</v>
       </c>
-      <c r="Z7" t="n">
+      <c r="Z7">
         <v>0</v>
       </c>
       <c r="AA7" t="s">
         <v>57</v>
       </c>
-      <c r="AB7" t="s"/>
-      <c r="AC7" t="s"/>
-      <c r="AD7" t="n">
+      <c r="AD7">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:30">
-      <c r="A8" s="1" t="n">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
       <c r="D8" t="s">
         <v>58</v>
       </c>
-      <c r="E8" t="s"/>
       <c r="F8" t="s">
         <v>48</v>
       </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
         <v>0</v>
       </c>
       <c r="I8" t="s">
         <v>59</v>
       </c>
-      <c r="J8" t="s"/>
-      <c r="K8" t="n">
-        <v>1.03265e+18</v>
-      </c>
-      <c r="L8" t="n">
-        <v>1.03265e+18</v>
+      <c r="K8">
+        <v>1.03265E+18</v>
+      </c>
+      <c r="L8">
+        <v>1.03265E+18</v>
       </c>
       <c r="M8" t="s">
         <v>50</v>
       </c>
-      <c r="N8" t="s"/>
-      <c r="O8" t="s"/>
-      <c r="P8" t="n">
-        <v>7.56e+17</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>7.5587e+17</v>
-      </c>
-      <c r="R8" t="n">
+      <c r="P8">
+        <v>7.56E+17</v>
+      </c>
+      <c r="Q8">
+        <v>7.5587E+17</v>
+      </c>
+      <c r="R8">
         <v>0</v>
       </c>
       <c r="S8" t="s">
@@ -1683,11 +1601,10 @@
       <c r="T8" t="s">
         <v>34</v>
       </c>
-      <c r="U8" t="s"/>
-      <c r="V8" t="n">
-        <v>0</v>
-      </c>
-      <c r="W8" t="n">
+      <c r="V8">
+        <v>0</v>
+      </c>
+      <c r="W8">
         <v>0</v>
       </c>
       <c r="X8" t="s">
@@ -1696,59 +1613,51 @@
       <c r="Y8" t="s">
         <v>59</v>
       </c>
-      <c r="Z8" t="n">
+      <c r="Z8">
         <v>0</v>
       </c>
       <c r="AA8" t="s">
         <v>60</v>
       </c>
-      <c r="AB8" t="s"/>
-      <c r="AC8" t="s"/>
-      <c r="AD8" t="n">
+      <c r="AD8">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:30">
-      <c r="A9" s="1" t="n">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
       <c r="D9" t="s">
         <v>61</v>
       </c>
-      <c r="E9" t="s"/>
       <c r="F9" t="s">
         <v>48</v>
       </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
         <v>0</v>
       </c>
       <c r="I9" t="s">
         <v>62</v>
       </c>
-      <c r="J9" t="s"/>
-      <c r="K9" t="n">
-        <v>1.03265e+18</v>
-      </c>
-      <c r="L9" t="n">
-        <v>1.03265e+18</v>
+      <c r="K9">
+        <v>1.03265E+18</v>
+      </c>
+      <c r="L9">
+        <v>1.03265E+18</v>
       </c>
       <c r="M9" t="s">
         <v>50</v>
       </c>
-      <c r="N9" t="s"/>
-      <c r="O9" t="s"/>
-      <c r="P9" t="n">
-        <v>7.56e+17</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>7.5587e+17</v>
-      </c>
-      <c r="R9" t="n">
+      <c r="P9">
+        <v>7.56E+17</v>
+      </c>
+      <c r="Q9">
+        <v>7.5587E+17</v>
+      </c>
+      <c r="R9">
         <v>0</v>
       </c>
       <c r="S9" t="s">
@@ -1757,11 +1666,10 @@
       <c r="T9" t="s">
         <v>34</v>
       </c>
-      <c r="U9" t="s"/>
-      <c r="V9" t="n">
-        <v>0</v>
-      </c>
-      <c r="W9" t="n">
+      <c r="V9">
+        <v>0</v>
+      </c>
+      <c r="W9">
         <v>0</v>
       </c>
       <c r="X9" t="s">
@@ -1770,59 +1678,51 @@
       <c r="Y9" t="s">
         <v>62</v>
       </c>
-      <c r="Z9" t="n">
+      <c r="Z9">
         <v>0</v>
       </c>
       <c r="AA9" t="s">
         <v>63</v>
       </c>
-      <c r="AB9" t="s"/>
-      <c r="AC9" t="s"/>
-      <c r="AD9" t="n">
+      <c r="AD9">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:30">
-      <c r="A10" s="1" t="n">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
       <c r="D10" t="s">
         <v>64</v>
       </c>
-      <c r="E10" t="s"/>
       <c r="F10" t="s">
         <v>65</v>
       </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
         <v>0</v>
       </c>
       <c r="I10" t="s">
         <v>66</v>
       </c>
-      <c r="J10" t="s"/>
-      <c r="K10" t="n">
-        <v>1.03265e+18</v>
-      </c>
-      <c r="L10" t="n">
-        <v>1.03265e+18</v>
+      <c r="K10">
+        <v>1.03265E+18</v>
+      </c>
+      <c r="L10">
+        <v>1.03265E+18</v>
       </c>
       <c r="M10" t="s">
         <v>50</v>
       </c>
-      <c r="N10" t="s"/>
-      <c r="O10" t="s"/>
-      <c r="P10" t="n">
-        <v>7.56e+17</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>7.5587e+17</v>
-      </c>
-      <c r="R10" t="n">
+      <c r="P10">
+        <v>7.56E+17</v>
+      </c>
+      <c r="Q10">
+        <v>7.5587E+17</v>
+      </c>
+      <c r="R10">
         <v>0</v>
       </c>
       <c r="S10" t="s">
@@ -1831,11 +1731,10 @@
       <c r="T10" t="s">
         <v>34</v>
       </c>
-      <c r="U10" t="s"/>
-      <c r="V10" t="n">
-        <v>0</v>
-      </c>
-      <c r="W10" t="n">
+      <c r="V10">
+        <v>0</v>
+      </c>
+      <c r="W10">
         <v>0</v>
       </c>
       <c r="X10" t="s">
@@ -1844,59 +1743,51 @@
       <c r="Y10" t="s">
         <v>66</v>
       </c>
-      <c r="Z10" t="n">
+      <c r="Z10">
         <v>0</v>
       </c>
       <c r="AA10" t="s">
         <v>67</v>
       </c>
-      <c r="AB10" t="s"/>
-      <c r="AC10" t="s"/>
-      <c r="AD10" t="n">
+      <c r="AD10">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:30">
-      <c r="A11" s="1" t="n">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
       <c r="D11" t="s">
         <v>68</v>
       </c>
-      <c r="E11" t="s"/>
       <c r="F11" t="s">
         <v>48</v>
       </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
         <v>0</v>
       </c>
       <c r="I11" t="s">
         <v>69</v>
       </c>
-      <c r="J11" t="s"/>
-      <c r="K11" t="n">
-        <v>1.03237e+18</v>
-      </c>
-      <c r="L11" t="n">
-        <v>1.03237e+18</v>
+      <c r="K11">
+        <v>1.03237E+18</v>
+      </c>
+      <c r="L11">
+        <v>1.03237E+18</v>
       </c>
       <c r="M11" t="s">
         <v>50</v>
       </c>
-      <c r="N11" t="s"/>
-      <c r="O11" t="s"/>
-      <c r="P11" t="n">
-        <v>7.56e+17</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>7.5587e+17</v>
-      </c>
-      <c r="R11" t="n">
+      <c r="P11">
+        <v>7.56E+17</v>
+      </c>
+      <c r="Q11">
+        <v>7.5587E+17</v>
+      </c>
+      <c r="R11">
         <v>0</v>
       </c>
       <c r="S11" t="s">
@@ -1905,11 +1796,10 @@
       <c r="T11" t="s">
         <v>71</v>
       </c>
-      <c r="U11" t="s"/>
-      <c r="V11" t="n">
-        <v>0</v>
-      </c>
-      <c r="W11" t="n">
+      <c r="V11">
+        <v>0</v>
+      </c>
+      <c r="W11">
         <v>0</v>
       </c>
       <c r="X11" t="s">
@@ -1918,59 +1808,51 @@
       <c r="Y11" t="s">
         <v>69</v>
       </c>
-      <c r="Z11" t="n">
+      <c r="Z11">
         <v>0</v>
       </c>
       <c r="AA11" t="s">
         <v>72</v>
       </c>
-      <c r="AB11" t="s"/>
-      <c r="AC11" t="s"/>
-      <c r="AD11" t="n">
+      <c r="AD11">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:30">
-      <c r="A12" s="1" t="n">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
       <c r="D12" t="s">
         <v>73</v>
       </c>
-      <c r="E12" t="s"/>
       <c r="F12" t="s">
         <v>48</v>
       </c>
-      <c r="G12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" t="n">
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
         <v>0</v>
       </c>
       <c r="I12" t="s">
         <v>74</v>
       </c>
-      <c r="J12" t="s"/>
-      <c r="K12" t="n">
-        <v>1.03151e+18</v>
-      </c>
-      <c r="L12" t="n">
-        <v>1.03151e+18</v>
+      <c r="K12">
+        <v>1.03151E+18</v>
+      </c>
+      <c r="L12">
+        <v>1.03151E+18</v>
       </c>
       <c r="M12" t="s">
         <v>50</v>
       </c>
-      <c r="N12" t="s"/>
-      <c r="O12" t="s"/>
-      <c r="P12" t="n">
-        <v>7.56e+17</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>7.5587e+17</v>
-      </c>
-      <c r="R12" t="n">
+      <c r="P12">
+        <v>7.56E+17</v>
+      </c>
+      <c r="Q12">
+        <v>7.5587E+17</v>
+      </c>
+      <c r="R12">
         <v>0</v>
       </c>
       <c r="S12" t="s">
@@ -1979,11 +1861,10 @@
       <c r="T12" t="s">
         <v>34</v>
       </c>
-      <c r="U12" t="s"/>
-      <c r="V12" t="n">
-        <v>0</v>
-      </c>
-      <c r="W12" t="n">
+      <c r="V12">
+        <v>0</v>
+      </c>
+      <c r="W12">
         <v>0</v>
       </c>
       <c r="X12" t="s">
@@ -1992,59 +1873,51 @@
       <c r="Y12" t="s">
         <v>74</v>
       </c>
-      <c r="Z12" t="n">
+      <c r="Z12">
         <v>0</v>
       </c>
       <c r="AA12" t="s">
         <v>75</v>
       </c>
-      <c r="AB12" t="s"/>
-      <c r="AC12" t="s"/>
-      <c r="AD12" t="n">
+      <c r="AD12">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:30">
-      <c r="A13" s="1" t="n">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
       <c r="D13" t="s">
         <v>76</v>
       </c>
-      <c r="E13" t="s"/>
       <c r="F13" t="s">
         <v>77</v>
       </c>
-      <c r="G13" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" t="n">
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
         <v>0</v>
       </c>
       <c r="I13" t="s">
         <v>78</v>
       </c>
-      <c r="J13" t="s"/>
-      <c r="K13" t="n">
-        <v>1.02535e+18</v>
-      </c>
-      <c r="L13" t="n">
-        <v>1.02535e+18</v>
+      <c r="K13">
+        <v>1.02535E+18</v>
+      </c>
+      <c r="L13">
+        <v>1.02535E+18</v>
       </c>
       <c r="M13" t="s">
         <v>50</v>
       </c>
-      <c r="N13" t="s"/>
-      <c r="O13" t="s"/>
-      <c r="P13" t="n">
-        <v>7.56e+17</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>7.5587e+17</v>
-      </c>
-      <c r="R13" t="n">
+      <c r="P13">
+        <v>7.56E+17</v>
+      </c>
+      <c r="Q13">
+        <v>7.5587E+17</v>
+      </c>
+      <c r="R13">
         <v>0</v>
       </c>
       <c r="S13" t="s">
@@ -2053,11 +1926,10 @@
       <c r="T13" t="s">
         <v>34</v>
       </c>
-      <c r="U13" t="s"/>
-      <c r="V13" t="n">
-        <v>0</v>
-      </c>
-      <c r="W13" t="n">
+      <c r="V13">
+        <v>0</v>
+      </c>
+      <c r="W13">
         <v>0</v>
       </c>
       <c r="X13" t="s">
@@ -2066,59 +1938,51 @@
       <c r="Y13" t="s">
         <v>78</v>
       </c>
-      <c r="Z13" t="n">
+      <c r="Z13">
         <v>0</v>
       </c>
       <c r="AA13" t="s">
         <v>79</v>
       </c>
-      <c r="AB13" t="s"/>
-      <c r="AC13" t="s"/>
-      <c r="AD13" t="n">
+      <c r="AD13">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:30">
-      <c r="A14" s="1" t="n">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
       <c r="D14" t="s">
         <v>80</v>
       </c>
-      <c r="E14" t="s"/>
       <c r="F14" t="s">
         <v>81</v>
       </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
         <v>0</v>
       </c>
       <c r="I14" t="s">
         <v>82</v>
       </c>
-      <c r="J14" t="s"/>
-      <c r="K14" t="n">
-        <v>1.02534e+18</v>
-      </c>
-      <c r="L14" t="n">
-        <v>1.02534e+18</v>
+      <c r="K14">
+        <v>1.02534E+18</v>
+      </c>
+      <c r="L14">
+        <v>1.02534E+18</v>
       </c>
       <c r="M14" t="s">
         <v>50</v>
       </c>
-      <c r="N14" t="s"/>
-      <c r="O14" t="s"/>
-      <c r="P14" t="n">
-        <v>7.56e+17</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>7.5587e+17</v>
-      </c>
-      <c r="R14" t="n">
+      <c r="P14">
+        <v>7.56E+17</v>
+      </c>
+      <c r="Q14">
+        <v>7.5587E+17</v>
+      </c>
+      <c r="R14">
         <v>0</v>
       </c>
       <c r="S14" t="s">
@@ -2127,11 +1991,10 @@
       <c r="T14" t="s">
         <v>34</v>
       </c>
-      <c r="U14" t="s"/>
-      <c r="V14" t="n">
-        <v>0</v>
-      </c>
-      <c r="W14" t="n">
+      <c r="V14">
+        <v>0</v>
+      </c>
+      <c r="W14">
         <v>0</v>
       </c>
       <c r="X14" t="s">
@@ -2140,24 +2003,20 @@
       <c r="Y14" t="s">
         <v>82</v>
       </c>
-      <c r="Z14" t="n">
+      <c r="Z14">
         <v>0</v>
       </c>
       <c r="AA14" t="s">
         <v>83</v>
       </c>
-      <c r="AB14" t="s"/>
-      <c r="AC14" t="s"/>
-      <c r="AD14" t="n">
+      <c r="AD14">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:30">
-      <c r="A15" s="1" t="n">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
       <c r="D15" t="s">
         <v>84</v>
       </c>
@@ -2167,28 +2026,22 @@
       <c r="F15" t="s">
         <v>86</v>
       </c>
-      <c r="G15" t="n">
-        <v>0</v>
-      </c>
-      <c r="H15" t="n">
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
         <v>0</v>
       </c>
       <c r="I15" t="s">
         <v>87</v>
       </c>
-      <c r="J15" t="s"/>
-      <c r="K15" t="n">
-        <v>1.03925889804846e+18</v>
-      </c>
-      <c r="L15" t="n">
-        <v>1.03925889804846e+18</v>
-      </c>
-      <c r="M15" t="s"/>
-      <c r="N15" t="s"/>
-      <c r="O15" t="s"/>
-      <c r="P15" t="s"/>
-      <c r="Q15" t="s"/>
-      <c r="R15" t="n">
+      <c r="K15">
+        <v>1.03925889804846E+18</v>
+      </c>
+      <c r="L15">
+        <v>1.03925889804846E+18</v>
+      </c>
+      <c r="R15">
         <v>0</v>
       </c>
       <c r="S15" t="s">
@@ -2197,35 +2050,29 @@
       <c r="T15" t="s">
         <v>34</v>
       </c>
-      <c r="U15" t="s"/>
-      <c r="V15" t="n">
-        <v>0</v>
-      </c>
-      <c r="W15" t="n">
+      <c r="V15">
+        <v>0</v>
+      </c>
+      <c r="W15">
         <v>0</v>
       </c>
       <c r="X15" t="s">
         <v>35</v>
       </c>
-      <c r="Y15" t="s"/>
-      <c r="Z15" t="n">
+      <c r="Z15">
         <v>0</v>
       </c>
       <c r="AA15" t="s">
         <v>88</v>
       </c>
-      <c r="AB15" t="s"/>
-      <c r="AC15" t="s"/>
-      <c r="AD15" t="n">
+      <c r="AD15">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:30">
-      <c r="A16" s="1" t="n">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
       <c r="D16" t="s">
         <v>89</v>
       </c>
@@ -2235,34 +2082,31 @@
       <c r="F16" t="s">
         <v>91</v>
       </c>
-      <c r="G16" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" t="n">
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
         <v>0</v>
       </c>
       <c r="I16" t="s">
         <v>92</v>
       </c>
-      <c r="J16" t="s"/>
-      <c r="K16" t="n">
-        <v>1.03927026045154e+18</v>
-      </c>
-      <c r="L16" t="n">
-        <v>1.03927026045154e+18</v>
+      <c r="K16">
+        <v>1.03927026045154E+18</v>
+      </c>
+      <c r="L16">
+        <v>1.03927026045154E+18</v>
       </c>
       <c r="M16" t="s">
         <v>50</v>
       </c>
-      <c r="N16" t="s"/>
-      <c r="O16" t="s"/>
-      <c r="P16" t="n">
-        <v>7.55869984761479e+17</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>7.55869984761479e+17</v>
-      </c>
-      <c r="R16" t="n">
+      <c r="P16">
+        <v>7.5586998476147904E+17</v>
+      </c>
+      <c r="Q16">
+        <v>7.5586998476147904E+17</v>
+      </c>
+      <c r="R16">
         <v>0</v>
       </c>
       <c r="S16" t="s">
@@ -2271,35 +2115,29 @@
       <c r="T16" t="s">
         <v>34</v>
       </c>
-      <c r="U16" t="s"/>
-      <c r="V16" t="n">
-        <v>0</v>
-      </c>
-      <c r="W16" t="n">
+      <c r="V16">
+        <v>0</v>
+      </c>
+      <c r="W16">
         <v>0</v>
       </c>
       <c r="X16" t="s">
         <v>40</v>
       </c>
-      <c r="Y16" t="s"/>
-      <c r="Z16" t="n">
+      <c r="Z16">
         <v>0</v>
       </c>
       <c r="AA16" t="s">
         <v>93</v>
       </c>
-      <c r="AB16" t="s"/>
-      <c r="AC16" t="s"/>
-      <c r="AD16" t="n">
+      <c r="AD16">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:30">
-      <c r="A17" s="1" t="n">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
       <c r="D17" t="s">
         <v>94</v>
       </c>
@@ -2309,28 +2147,22 @@
       <c r="F17" t="s">
         <v>96</v>
       </c>
-      <c r="G17" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" t="n">
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
         <v>0</v>
       </c>
       <c r="I17" t="s">
         <v>97</v>
       </c>
-      <c r="J17" t="s"/>
-      <c r="K17" t="n">
-        <v>1.03939789674197e+18</v>
-      </c>
-      <c r="L17" t="n">
-        <v>1.03939789674197e+18</v>
-      </c>
-      <c r="M17" t="s"/>
-      <c r="N17" t="s"/>
-      <c r="O17" t="s"/>
-      <c r="P17" t="s"/>
-      <c r="Q17" t="s"/>
-      <c r="R17" t="n">
+      <c r="K17">
+        <v>1.03939789674197E+18</v>
+      </c>
+      <c r="L17">
+        <v>1.03939789674197E+18</v>
+      </c>
+      <c r="R17">
         <v>0</v>
       </c>
       <c r="S17" t="s">
@@ -2339,35 +2171,29 @@
       <c r="T17" t="s">
         <v>34</v>
       </c>
-      <c r="U17" t="s"/>
-      <c r="V17" t="n">
-        <v>0</v>
-      </c>
-      <c r="W17" t="n">
+      <c r="V17">
+        <v>0</v>
+      </c>
+      <c r="W17">
         <v>0</v>
       </c>
       <c r="X17" t="s">
         <v>35</v>
       </c>
-      <c r="Y17" t="s"/>
-      <c r="Z17" t="n">
+      <c r="Z17">
         <v>0</v>
       </c>
       <c r="AA17" t="s">
         <v>98</v>
       </c>
-      <c r="AB17" t="s"/>
-      <c r="AC17" t="s"/>
-      <c r="AD17" t="n">
+      <c r="AD17">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:30">
-      <c r="A18" s="1" t="n">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
       <c r="D18" t="s">
         <v>99</v>
       </c>
@@ -2377,28 +2203,22 @@
       <c r="F18" t="s">
         <v>101</v>
       </c>
-      <c r="G18" t="n">
-        <v>0</v>
-      </c>
-      <c r="H18" t="n">
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
         <v>0</v>
       </c>
       <c r="I18" t="s">
         <v>102</v>
       </c>
-      <c r="J18" t="s"/>
-      <c r="K18" t="n">
-        <v>1.03939936397241e+18</v>
-      </c>
-      <c r="L18" t="n">
-        <v>1.03939936397241e+18</v>
-      </c>
-      <c r="M18" t="s"/>
-      <c r="N18" t="s"/>
-      <c r="O18" t="s"/>
-      <c r="P18" t="s"/>
-      <c r="Q18" t="s"/>
-      <c r="R18" t="n">
+      <c r="K18">
+        <v>1.03939936397241E+18</v>
+      </c>
+      <c r="L18">
+        <v>1.03939936397241E+18</v>
+      </c>
+      <c r="R18">
         <v>0</v>
       </c>
       <c r="S18" t="s">
@@ -2407,35 +2227,29 @@
       <c r="T18" t="s">
         <v>34</v>
       </c>
-      <c r="U18" t="s"/>
-      <c r="V18" t="n">
-        <v>0</v>
-      </c>
-      <c r="W18" t="n">
+      <c r="V18">
+        <v>0</v>
+      </c>
+      <c r="W18">
         <v>0</v>
       </c>
       <c r="X18" t="s">
         <v>35</v>
       </c>
-      <c r="Y18" t="s"/>
-      <c r="Z18" t="n">
+      <c r="Z18">
         <v>0</v>
       </c>
       <c r="AA18" t="s">
         <v>103</v>
       </c>
-      <c r="AB18" t="s"/>
-      <c r="AC18" t="s"/>
-      <c r="AD18" t="n">
+      <c r="AD18">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:30">
-      <c r="A19" s="1" t="n">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
       <c r="D19" t="s">
         <v>104</v>
       </c>
@@ -2445,34 +2259,31 @@
       <c r="F19" t="s">
         <v>91</v>
       </c>
-      <c r="G19" t="n">
-        <v>0</v>
-      </c>
-      <c r="H19" t="n">
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
         <v>0</v>
       </c>
       <c r="I19" t="s">
         <v>106</v>
       </c>
-      <c r="J19" t="s"/>
-      <c r="K19" t="n">
-        <v>1.04052917187161e+18</v>
-      </c>
-      <c r="L19" t="n">
-        <v>1.04052917187161e+18</v>
+      <c r="K19">
+        <v>1.04052917187161E+18</v>
+      </c>
+      <c r="L19">
+        <v>1.04052917187161E+18</v>
       </c>
       <c r="M19" t="s">
         <v>50</v>
       </c>
-      <c r="N19" t="s"/>
-      <c r="O19" t="s"/>
-      <c r="P19" t="n">
-        <v>7.55869984761479e+17</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>7.55869984761479e+17</v>
-      </c>
-      <c r="R19" t="n">
+      <c r="P19">
+        <v>7.5586998476147904E+17</v>
+      </c>
+      <c r="Q19">
+        <v>7.5586998476147904E+17</v>
+      </c>
+      <c r="R19">
         <v>0</v>
       </c>
       <c r="S19" t="s">
@@ -2481,35 +2292,29 @@
       <c r="T19" t="s">
         <v>34</v>
       </c>
-      <c r="U19" t="s"/>
-      <c r="V19" t="n">
-        <v>0</v>
-      </c>
-      <c r="W19" t="n">
+      <c r="V19">
+        <v>0</v>
+      </c>
+      <c r="W19">
         <v>0</v>
       </c>
       <c r="X19" t="s">
         <v>107</v>
       </c>
-      <c r="Y19" t="s"/>
-      <c r="Z19" t="n">
+      <c r="Z19">
         <v>0</v>
       </c>
       <c r="AA19" t="s">
         <v>108</v>
       </c>
-      <c r="AB19" t="s"/>
-      <c r="AC19" t="s"/>
-      <c r="AD19" t="n">
+      <c r="AD19">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:30">
-      <c r="A20" s="1" t="n">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
         <v>18</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
       <c r="D20" t="s">
         <v>109</v>
       </c>
@@ -2519,34 +2324,31 @@
       <c r="F20" t="s">
         <v>111</v>
       </c>
-      <c r="G20" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" t="n">
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
         <v>0</v>
       </c>
       <c r="I20" t="s">
         <v>112</v>
       </c>
-      <c r="J20" t="s"/>
-      <c r="K20" t="n">
-        <v>1.04091407378382e+18</v>
-      </c>
-      <c r="L20" t="n">
-        <v>1.04091407378382e+18</v>
+      <c r="K20">
+        <v>1.04091407378382E+18</v>
+      </c>
+      <c r="L20">
+        <v>1.04091407378382E+18</v>
       </c>
       <c r="M20" t="s">
         <v>50</v>
       </c>
-      <c r="N20" t="s"/>
-      <c r="O20" t="s"/>
-      <c r="P20" t="n">
-        <v>7.55869984761479e+17</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>7.55869984761479e+17</v>
-      </c>
-      <c r="R20" t="n">
+      <c r="P20">
+        <v>7.5586998476147904E+17</v>
+      </c>
+      <c r="Q20">
+        <v>7.5586998476147904E+17</v>
+      </c>
+      <c r="R20">
         <v>0</v>
       </c>
       <c r="S20" t="s">
@@ -2555,35 +2357,29 @@
       <c r="T20" t="s">
         <v>113</v>
       </c>
-      <c r="U20" t="s"/>
-      <c r="V20" t="n">
-        <v>0</v>
-      </c>
-      <c r="W20" t="n">
+      <c r="V20">
+        <v>0</v>
+      </c>
+      <c r="W20">
         <v>0</v>
       </c>
       <c r="X20" t="s">
         <v>114</v>
       </c>
-      <c r="Y20" t="s"/>
-      <c r="Z20" t="n">
+      <c r="Z20">
         <v>0</v>
       </c>
       <c r="AA20" t="s">
         <v>115</v>
       </c>
-      <c r="AB20" t="s"/>
-      <c r="AC20" t="s"/>
-      <c r="AD20" t="n">
+      <c r="AD20">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:30">
-      <c r="A21" s="1" t="n">
+    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
         <v>19</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
       <c r="D21" t="s">
         <v>116</v>
       </c>
@@ -2593,34 +2389,31 @@
       <c r="F21" t="s">
         <v>118</v>
       </c>
-      <c r="G21" t="n">
-        <v>0</v>
-      </c>
-      <c r="H21" t="n">
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
         <v>0</v>
       </c>
       <c r="I21" t="s">
         <v>119</v>
       </c>
-      <c r="J21" t="s"/>
-      <c r="K21" t="n">
-        <v>1.04095503228649e+18</v>
-      </c>
-      <c r="L21" t="n">
-        <v>1.04095503228649e+18</v>
+      <c r="K21">
+        <v>1.04095503228649E+18</v>
+      </c>
+      <c r="L21">
+        <v>1.04095503228649E+18</v>
       </c>
       <c r="M21" t="s">
         <v>50</v>
       </c>
-      <c r="N21" t="s"/>
-      <c r="O21" t="s"/>
-      <c r="P21" t="n">
-        <v>7.55869984761479e+17</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>7.55869984761479e+17</v>
-      </c>
-      <c r="R21" t="n">
+      <c r="P21">
+        <v>7.5586998476147904E+17</v>
+      </c>
+      <c r="Q21">
+        <v>7.5586998476147904E+17</v>
+      </c>
+      <c r="R21">
         <v>0</v>
       </c>
       <c r="S21" t="s">
@@ -2629,35 +2422,29 @@
       <c r="T21" t="s">
         <v>113</v>
       </c>
-      <c r="U21" t="s"/>
-      <c r="V21" t="n">
-        <v>0</v>
-      </c>
-      <c r="W21" t="n">
+      <c r="V21">
+        <v>0</v>
+      </c>
+      <c r="W21">
         <v>0</v>
       </c>
       <c r="X21" t="s">
         <v>114</v>
       </c>
-      <c r="Y21" t="s"/>
-      <c r="Z21" t="n">
+      <c r="Z21">
         <v>0</v>
       </c>
       <c r="AA21" t="s">
         <v>120</v>
       </c>
-      <c r="AB21" t="s"/>
-      <c r="AC21" t="s"/>
-      <c r="AD21" t="n">
+      <c r="AD21">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:30">
-      <c r="A22" s="1" t="n">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
       <c r="D22" t="s">
         <v>121</v>
       </c>
@@ -2667,34 +2454,31 @@
       <c r="F22" t="s">
         <v>123</v>
       </c>
-      <c r="G22" t="n">
-        <v>0</v>
-      </c>
-      <c r="H22" t="n">
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
         <v>0</v>
       </c>
       <c r="I22" t="s">
         <v>124</v>
       </c>
-      <c r="J22" t="s"/>
-      <c r="K22" t="n">
-        <v>1.04097568175108e+18</v>
-      </c>
-      <c r="L22" t="n">
-        <v>1.04097568175108e+18</v>
+      <c r="K22">
+        <v>1.0409756817510799E+18</v>
+      </c>
+      <c r="L22">
+        <v>1.0409756817510799E+18</v>
       </c>
       <c r="M22" t="s">
         <v>50</v>
       </c>
-      <c r="N22" t="s"/>
-      <c r="O22" t="s"/>
-      <c r="P22" t="n">
-        <v>7.55869984761479e+17</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>7.55869984761479e+17</v>
-      </c>
-      <c r="R22" t="n">
+      <c r="P22">
+        <v>7.5586998476147904E+17</v>
+      </c>
+      <c r="Q22">
+        <v>7.5586998476147904E+17</v>
+      </c>
+      <c r="R22">
         <v>0</v>
       </c>
       <c r="S22" t="s">
@@ -2703,33 +2487,26 @@
       <c r="T22" t="s">
         <v>34</v>
       </c>
-      <c r="U22" t="s"/>
-      <c r="V22" t="n">
-        <v>0</v>
-      </c>
-      <c r="W22" t="n">
+      <c r="V22">
+        <v>0</v>
+      </c>
+      <c r="W22">
         <v>0</v>
       </c>
       <c r="X22" t="s">
         <v>114</v>
       </c>
-      <c r="Y22" t="s"/>
-      <c r="Z22" t="n">
+      <c r="Z22">
         <v>0</v>
       </c>
       <c r="AA22" t="s">
         <v>125</v>
       </c>
-      <c r="AB22" t="s"/>
-      <c r="AC22" t="s"/>
-      <c r="AD22" t="s"/>
-    </row>
-    <row r="23" spans="1:30">
-      <c r="A23" s="1" t="n">
+    </row>
+    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
         <v>21</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
       <c r="D23" t="s">
         <v>126</v>
       </c>
@@ -2739,34 +2516,31 @@
       <c r="F23" t="s">
         <v>128</v>
       </c>
-      <c r="G23" t="n">
-        <v>0</v>
-      </c>
-      <c r="H23" t="n">
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
         <v>0</v>
       </c>
       <c r="I23" t="s">
         <v>129</v>
       </c>
-      <c r="J23" t="s"/>
-      <c r="K23" t="n">
-        <v>1.04099669398517e+18</v>
-      </c>
-      <c r="L23" t="n">
-        <v>1.04099669398517e+18</v>
+      <c r="K23">
+        <v>1.04099669398517E+18</v>
+      </c>
+      <c r="L23">
+        <v>1.04099669398517E+18</v>
       </c>
       <c r="M23" t="s">
         <v>50</v>
       </c>
-      <c r="N23" t="s"/>
-      <c r="O23" t="s"/>
-      <c r="P23" t="n">
-        <v>7.55869984761479e+17</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>7.55869984761479e+17</v>
-      </c>
-      <c r="R23" t="n">
+      <c r="P23">
+        <v>7.5586998476147904E+17</v>
+      </c>
+      <c r="Q23">
+        <v>7.5586998476147904E+17</v>
+      </c>
+      <c r="R23">
         <v>0</v>
       </c>
       <c r="S23" t="s">
@@ -2775,33 +2549,26 @@
       <c r="T23" t="s">
         <v>34</v>
       </c>
-      <c r="U23" t="s"/>
-      <c r="V23" t="n">
-        <v>0</v>
-      </c>
-      <c r="W23" t="n">
+      <c r="V23">
+        <v>0</v>
+      </c>
+      <c r="W23">
         <v>0</v>
       </c>
       <c r="X23" t="s">
         <v>114</v>
       </c>
-      <c r="Y23" t="s"/>
-      <c r="Z23" t="n">
+      <c r="Z23">
         <v>0</v>
       </c>
       <c r="AA23" t="s">
         <v>130</v>
       </c>
-      <c r="AB23" t="s"/>
-      <c r="AC23" t="s"/>
-      <c r="AD23" t="s"/>
-    </row>
-    <row r="24" spans="1:30">
-      <c r="A24" s="1" t="n">
+    </row>
+    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
         <v>22</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
       <c r="D24" t="s">
         <v>131</v>
       </c>
@@ -2811,34 +2578,31 @@
       <c r="F24" t="s">
         <v>133</v>
       </c>
-      <c r="G24" t="n">
-        <v>0</v>
-      </c>
-      <c r="H24" t="n">
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
         <v>0</v>
       </c>
       <c r="I24" t="s">
         <v>134</v>
       </c>
-      <c r="J24" t="s"/>
-      <c r="K24" t="n">
-        <v>1.04099943330603e+18</v>
-      </c>
-      <c r="L24" t="n">
-        <v>1.04099943330603e+18</v>
+      <c r="K24">
+        <v>1.04099943330603E+18</v>
+      </c>
+      <c r="L24">
+        <v>1.04099943330603E+18</v>
       </c>
       <c r="M24" t="s">
         <v>50</v>
       </c>
-      <c r="N24" t="s"/>
-      <c r="O24" t="s"/>
-      <c r="P24" t="n">
-        <v>7.55869984761479e+17</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>7.55869984761479e+17</v>
-      </c>
-      <c r="R24" t="n">
+      <c r="P24">
+        <v>7.5586998476147904E+17</v>
+      </c>
+      <c r="Q24">
+        <v>7.5586998476147904E+17</v>
+      </c>
+      <c r="R24">
         <v>0</v>
       </c>
       <c r="S24" t="s">
@@ -2847,33 +2611,26 @@
       <c r="T24" t="s">
         <v>34</v>
       </c>
-      <c r="U24" t="s"/>
-      <c r="V24" t="n">
-        <v>0</v>
-      </c>
-      <c r="W24" t="n">
+      <c r="V24">
+        <v>0</v>
+      </c>
+      <c r="W24">
         <v>0</v>
       </c>
       <c r="X24" t="s">
         <v>114</v>
       </c>
-      <c r="Y24" t="s"/>
-      <c r="Z24" t="n">
+      <c r="Z24">
         <v>0</v>
       </c>
       <c r="AA24" t="s">
         <v>135</v>
       </c>
-      <c r="AB24" t="s"/>
-      <c r="AC24" t="s"/>
-      <c r="AD24" t="s"/>
-    </row>
-    <row r="25" spans="1:30">
-      <c r="A25" s="1" t="n">
+    </row>
+    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
         <v>23</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
       <c r="D25" t="s">
         <v>136</v>
       </c>
@@ -2883,34 +2640,31 @@
       <c r="F25" t="s">
         <v>138</v>
       </c>
-      <c r="G25" t="n">
-        <v>0</v>
-      </c>
-      <c r="H25" t="n">
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
         <v>0</v>
       </c>
       <c r="I25" t="s">
         <v>139</v>
       </c>
-      <c r="J25" t="s"/>
-      <c r="K25" t="n">
-        <v>1.04130316927026e+18</v>
-      </c>
-      <c r="L25" t="n">
-        <v>1.04130316927026e+18</v>
+      <c r="K25">
+        <v>1.04130316927026E+18</v>
+      </c>
+      <c r="L25">
+        <v>1.04130316927026E+18</v>
       </c>
       <c r="M25" t="s">
         <v>50</v>
       </c>
-      <c r="N25" t="s"/>
-      <c r="O25" t="s"/>
-      <c r="P25" t="n">
-        <v>7.55869984761479e+17</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>7.55869984761479e+17</v>
-      </c>
-      <c r="R25" t="n">
+      <c r="P25">
+        <v>7.5586998476147904E+17</v>
+      </c>
+      <c r="Q25">
+        <v>7.5586998476147904E+17</v>
+      </c>
+      <c r="R25">
         <v>0</v>
       </c>
       <c r="S25" t="s">
@@ -2919,33 +2673,26 @@
       <c r="T25" t="s">
         <v>113</v>
       </c>
-      <c r="U25" t="s"/>
-      <c r="V25" t="n">
-        <v>0</v>
-      </c>
-      <c r="W25" t="n">
+      <c r="V25">
+        <v>0</v>
+      </c>
+      <c r="W25">
         <v>0</v>
       </c>
       <c r="X25" t="s">
         <v>114</v>
       </c>
-      <c r="Y25" t="s"/>
-      <c r="Z25" t="n">
+      <c r="Z25">
         <v>0</v>
       </c>
       <c r="AA25" t="s">
         <v>140</v>
       </c>
-      <c r="AB25" t="s"/>
-      <c r="AC25" t="s"/>
-      <c r="AD25" t="s"/>
-    </row>
-    <row r="26" spans="1:30">
-      <c r="A26" s="1" t="n">
+    </row>
+    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
         <v>24</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
       <c r="D26" t="s">
         <v>141</v>
       </c>
@@ -2955,34 +2702,31 @@
       <c r="F26" t="s">
         <v>142</v>
       </c>
-      <c r="G26" t="n">
-        <v>0</v>
-      </c>
-      <c r="H26" t="n">
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
         <v>0</v>
       </c>
       <c r="I26" t="s">
         <v>143</v>
       </c>
-      <c r="J26" t="s"/>
-      <c r="K26" t="n">
-        <v>1.04161890747859e+18</v>
-      </c>
-      <c r="L26" t="n">
-        <v>1.04161890747859e+18</v>
+      <c r="K26">
+        <v>1.04161890747859E+18</v>
+      </c>
+      <c r="L26">
+        <v>1.04161890747859E+18</v>
       </c>
       <c r="M26" t="s">
         <v>50</v>
       </c>
-      <c r="N26" t="s"/>
-      <c r="O26" t="s"/>
-      <c r="P26" t="n">
-        <v>7.55869984761479e+17</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>7.55869984761479e+17</v>
-      </c>
-      <c r="R26" t="n">
+      <c r="P26">
+        <v>7.5586998476147904E+17</v>
+      </c>
+      <c r="Q26">
+        <v>7.5586998476147904E+17</v>
+      </c>
+      <c r="R26">
         <v>0</v>
       </c>
       <c r="S26" t="s">
@@ -2991,33 +2735,26 @@
       <c r="T26" t="s">
         <v>113</v>
       </c>
-      <c r="U26" t="s"/>
-      <c r="V26" t="n">
-        <v>0</v>
-      </c>
-      <c r="W26" t="n">
+      <c r="V26">
+        <v>0</v>
+      </c>
+      <c r="W26">
         <v>0</v>
       </c>
       <c r="X26" t="s">
         <v>40</v>
       </c>
-      <c r="Y26" t="s"/>
-      <c r="Z26" t="n">
+      <c r="Z26">
         <v>0</v>
       </c>
       <c r="AA26" t="s">
         <v>144</v>
       </c>
-      <c r="AB26" t="s"/>
-      <c r="AC26" t="s"/>
-      <c r="AD26" t="s"/>
-    </row>
-    <row r="27" spans="1:30">
-      <c r="A27" s="1" t="n">
+    </row>
+    <row r="27" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
         <v>25</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
       <c r="D27" t="s">
         <v>145</v>
       </c>
@@ -3027,28 +2764,22 @@
       <c r="F27" t="s">
         <v>147</v>
       </c>
-      <c r="G27" t="n">
-        <v>0</v>
-      </c>
-      <c r="H27" t="n">
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
         <v>0</v>
       </c>
       <c r="I27" t="s">
         <v>148</v>
       </c>
-      <c r="J27" t="s"/>
-      <c r="K27" t="n">
-        <v>1.04212082602644e+18</v>
-      </c>
-      <c r="L27" t="n">
-        <v>1.04212082602644e+18</v>
-      </c>
-      <c r="M27" t="s"/>
-      <c r="N27" t="s"/>
-      <c r="O27" t="s"/>
-      <c r="P27" t="s"/>
-      <c r="Q27" t="s"/>
-      <c r="R27" t="n">
+      <c r="K27">
+        <v>1.0421208260264399E+18</v>
+      </c>
+      <c r="L27">
+        <v>1.0421208260264399E+18</v>
+      </c>
+      <c r="R27">
         <v>0</v>
       </c>
       <c r="S27" t="s">
@@ -3057,33 +2788,26 @@
       <c r="T27" t="s">
         <v>113</v>
       </c>
-      <c r="U27" t="s"/>
-      <c r="V27" t="n">
-        <v>0</v>
-      </c>
-      <c r="W27" t="n">
+      <c r="V27">
+        <v>0</v>
+      </c>
+      <c r="W27">
         <v>0</v>
       </c>
       <c r="X27" t="s">
         <v>114</v>
       </c>
-      <c r="Y27" t="s"/>
-      <c r="Z27" t="n">
+      <c r="Z27">
         <v>0</v>
       </c>
       <c r="AA27" t="s">
         <v>149</v>
       </c>
-      <c r="AB27" t="s"/>
-      <c r="AC27" t="s"/>
-      <c r="AD27" t="s"/>
-    </row>
-    <row r="28" spans="1:30">
-      <c r="A28" s="1" t="n">
+    </row>
+    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
         <v>26</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
       <c r="D28" t="s">
         <v>150</v>
       </c>
@@ -3093,28 +2817,22 @@
       <c r="F28" t="s">
         <v>152</v>
       </c>
-      <c r="G28" t="n">
-        <v>0</v>
-      </c>
-      <c r="H28" t="n">
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
         <v>0</v>
       </c>
       <c r="I28" t="s">
         <v>153</v>
       </c>
-      <c r="J28" t="s"/>
-      <c r="K28" t="n">
-        <v>1.04212293392425e+18</v>
-      </c>
-      <c r="L28" t="n">
-        <v>1.04212293392425e+18</v>
-      </c>
-      <c r="M28" t="s"/>
-      <c r="N28" t="s"/>
-      <c r="O28" t="s"/>
-      <c r="P28" t="s"/>
-      <c r="Q28" t="s"/>
-      <c r="R28" t="n">
+      <c r="K28">
+        <v>1.04212293392425E+18</v>
+      </c>
+      <c r="L28">
+        <v>1.04212293392425E+18</v>
+      </c>
+      <c r="R28">
         <v>0</v>
       </c>
       <c r="S28" t="s">
@@ -3123,64 +2841,51 @@
       <c r="T28" t="s">
         <v>113</v>
       </c>
-      <c r="U28" t="s"/>
-      <c r="V28" t="n">
-        <v>0</v>
-      </c>
-      <c r="W28" t="n">
+      <c r="V28">
+        <v>0</v>
+      </c>
+      <c r="W28">
         <v>0</v>
       </c>
       <c r="X28" t="s">
         <v>114</v>
       </c>
-      <c r="Y28" t="s"/>
-      <c r="Z28" t="n">
+      <c r="Z28">
         <v>0</v>
       </c>
       <c r="AA28" t="s">
         <v>154</v>
       </c>
-      <c r="AB28" t="s"/>
-      <c r="AC28" t="s"/>
-      <c r="AD28" t="s"/>
-    </row>
-    <row r="29" spans="1:30">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+    </row>
+    <row r="29" spans="1:30" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
       <c r="D29" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E29" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F29" t="s">
-        <v>157</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="s">
         <v>158</v>
       </c>
-      <c r="J29" t="s"/>
-      <c r="K29" t="n">
-        <v>1.04213179196295e+18</v>
-      </c>
-      <c r="L29" t="n">
-        <v>1.04213179196295e+18</v>
-      </c>
-      <c r="M29" t="s"/>
-      <c r="N29" t="s"/>
-      <c r="O29" t="s"/>
-      <c r="P29" t="s"/>
-      <c r="Q29" t="s"/>
-      <c r="R29" t="n">
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="K29">
+        <v>1.04213243375011E+18</v>
+      </c>
+      <c r="L29">
+        <v>1.04213243375011E+18</v>
+      </c>
+      <c r="R29">
         <v>0</v>
       </c>
       <c r="S29" t="s">
@@ -3189,64 +2894,51 @@
       <c r="T29" t="s">
         <v>34</v>
       </c>
-      <c r="U29" t="s"/>
-      <c r="V29" t="n">
-        <v>0</v>
-      </c>
-      <c r="W29" t="n">
+      <c r="V29">
+        <v>0</v>
+      </c>
+      <c r="W29">
         <v>0</v>
       </c>
       <c r="X29" t="s">
         <v>114</v>
       </c>
-      <c r="Y29" t="s"/>
-      <c r="Z29" t="n">
+      <c r="Z29">
         <v>0</v>
       </c>
       <c r="AA29" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="30" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="D30" t="s">
         <v>159</v>
       </c>
-      <c r="AB29" t="s"/>
-      <c r="AC29" t="s"/>
-      <c r="AD29" t="s"/>
-    </row>
-    <row r="30" spans="1:30">
-      <c r="A30" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
-      <c r="D30" t="s">
+      <c r="E30" t="s">
+        <v>146</v>
+      </c>
+      <c r="F30" t="s">
         <v>160</v>
       </c>
-      <c r="E30" t="s">
-        <v>161</v>
-      </c>
-      <c r="F30" t="s">
-        <v>162</v>
-      </c>
-      <c r="G30" t="n">
-        <v>0</v>
-      </c>
-      <c r="H30" t="n">
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
         <v>0</v>
       </c>
       <c r="I30" t="s">
-        <v>163</v>
-      </c>
-      <c r="J30" t="s"/>
-      <c r="K30" t="n">
-        <v>1.04213243375011e+18</v>
-      </c>
-      <c r="L30" t="n">
-        <v>1.04213243375011e+18</v>
-      </c>
-      <c r="M30" t="s"/>
-      <c r="N30" t="s"/>
-      <c r="O30" t="s"/>
-      <c r="P30" t="s"/>
-      <c r="Q30" t="s"/>
-      <c r="R30" t="n">
+        <v>148</v>
+      </c>
+      <c r="K30">
+        <v>1.04214621498736E+18</v>
+      </c>
+      <c r="L30">
+        <v>1.04214621498736E+18</v>
+      </c>
+      <c r="R30">
         <v>0</v>
       </c>
       <c r="S30" t="s">
@@ -3255,237 +2947,203 @@
       <c r="T30" t="s">
         <v>34</v>
       </c>
-      <c r="U30" t="s"/>
-      <c r="V30" t="n">
-        <v>0</v>
-      </c>
-      <c r="W30" t="n">
+      <c r="V30">
+        <v>0</v>
+      </c>
+      <c r="W30">
         <v>0</v>
       </c>
       <c r="X30" t="s">
-        <v>114</v>
-      </c>
-      <c r="Y30" t="s"/>
-      <c r="Z30" t="n">
+        <v>40</v>
+      </c>
+      <c r="Z30">
         <v>0</v>
       </c>
       <c r="AA30" t="s">
-        <v>159</v>
-      </c>
-      <c r="AB30" t="s"/>
-      <c r="AC30" t="s"/>
-      <c r="AD30" t="s"/>
-    </row>
-    <row r="31" spans="1:30">
-      <c r="A31" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+        <v>161</v>
+      </c>
+    </row>
+    <row r="31" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
       <c r="D31" t="s">
+        <v>162</v>
+      </c>
+      <c r="E31" t="s">
+        <v>163</v>
+      </c>
+      <c r="F31" t="s">
         <v>164</v>
       </c>
-      <c r="E31" t="s">
-        <v>146</v>
-      </c>
-      <c r="F31" t="s">
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31" t="s">
         <v>165</v>
       </c>
-      <c r="G31" t="n">
-        <v>0</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="s">
-        <v>148</v>
-      </c>
-      <c r="J31" t="s"/>
-      <c r="K31" t="n">
-        <v>1.04214621498736e+18</v>
-      </c>
-      <c r="L31" t="n">
-        <v>1.04214621498736e+18</v>
-      </c>
-      <c r="M31" t="s"/>
-      <c r="N31" t="s"/>
-      <c r="O31" t="s"/>
-      <c r="P31" t="s"/>
-      <c r="Q31" t="s"/>
-      <c r="R31" t="n">
+      <c r="K31">
+        <v>1.04215457531322E+18</v>
+      </c>
+      <c r="L31">
+        <v>1.04215457531322E+18</v>
+      </c>
+      <c r="R31">
         <v>0</v>
       </c>
       <c r="S31" t="s">
-        <v>33</v>
+        <v>70</v>
       </c>
       <c r="T31" t="s">
-        <v>34</v>
-      </c>
-      <c r="U31" t="s"/>
-      <c r="V31" t="n">
-        <v>0</v>
-      </c>
-      <c r="W31" t="n">
+        <v>71</v>
+      </c>
+      <c r="V31">
+        <v>0</v>
+      </c>
+      <c r="W31">
         <v>0</v>
       </c>
       <c r="X31" t="s">
         <v>40</v>
       </c>
-      <c r="Y31" t="s"/>
-      <c r="Z31" t="n">
+      <c r="Z31">
         <v>0</v>
       </c>
       <c r="AA31" t="s">
         <v>166</v>
       </c>
-      <c r="AB31" t="s"/>
-      <c r="AC31" t="s"/>
-      <c r="AD31" t="s"/>
-    </row>
-    <row r="32" spans="1:30">
-      <c r="A32" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+    </row>
+    <row r="32" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
       <c r="D32" t="s">
         <v>167</v>
       </c>
       <c r="E32" t="s">
+        <v>137</v>
+      </c>
+      <c r="F32" t="s">
         <v>168</v>
       </c>
-      <c r="F32" t="s">
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32" t="s">
         <v>169</v>
       </c>
-      <c r="G32" t="n">
-        <v>0</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="s">
+      <c r="K32">
+        <v>1.04240254485998E+18</v>
+      </c>
+      <c r="L32">
+        <v>1.04240254485998E+18</v>
+      </c>
+      <c r="M32" t="s">
+        <v>50</v>
+      </c>
+      <c r="P32">
+        <v>7.5586998476147904E+17</v>
+      </c>
+      <c r="Q32">
+        <v>7.5586998476147904E+17</v>
+      </c>
+      <c r="R32">
+        <v>0</v>
+      </c>
+      <c r="S32" t="s">
+        <v>33</v>
+      </c>
+      <c r="T32" t="s">
+        <v>34</v>
+      </c>
+      <c r="V32">
+        <v>0</v>
+      </c>
+      <c r="W32">
+        <v>0</v>
+      </c>
+      <c r="X32" t="s">
+        <v>107</v>
+      </c>
+      <c r="Z32">
+        <v>0</v>
+      </c>
+      <c r="AA32" t="s">
         <v>170</v>
       </c>
-      <c r="J32" t="s"/>
-      <c r="K32" t="n">
-        <v>1.04215457531322e+18</v>
-      </c>
-      <c r="L32" t="n">
-        <v>1.04215457531322e+18</v>
-      </c>
-      <c r="M32" t="s"/>
-      <c r="N32" t="s"/>
-      <c r="O32" t="s"/>
-      <c r="P32" t="s"/>
-      <c r="Q32" t="s"/>
-      <c r="R32" t="n">
-        <v>0</v>
-      </c>
-      <c r="S32" t="s">
-        <v>70</v>
-      </c>
-      <c r="T32" t="s">
-        <v>71</v>
-      </c>
-      <c r="U32" t="s"/>
-      <c r="V32" t="n">
-        <v>0</v>
-      </c>
-      <c r="W32" t="n">
-        <v>0</v>
-      </c>
-      <c r="X32" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y32" t="s"/>
-      <c r="Z32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA32" t="s">
+    </row>
+    <row r="33" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>32</v>
+      </c>
+      <c r="D33" t="s">
         <v>171</v>
       </c>
-      <c r="AB32" t="s"/>
-      <c r="AC32" t="s"/>
-      <c r="AD32" t="s"/>
-    </row>
-    <row r="33" spans="1:30">
-      <c r="A33" s="1" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
-      <c r="D33" t="s">
+      <c r="E33" t="s">
         <v>172</v>
-      </c>
-      <c r="E33" t="s">
-        <v>137</v>
       </c>
       <c r="F33" t="s">
         <v>173</v>
       </c>
-      <c r="G33" t="n">
-        <v>0</v>
-      </c>
-      <c r="H33" t="n">
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
         <v>0</v>
       </c>
       <c r="I33" t="s">
         <v>174</v>
       </c>
-      <c r="J33" t="s"/>
-      <c r="K33" t="n">
-        <v>1.04240254485998e+18</v>
-      </c>
-      <c r="L33" t="n">
-        <v>1.04240254485998e+18</v>
+      <c r="K33">
+        <v>1.04289248238259E+18</v>
+      </c>
+      <c r="L33">
+        <v>1.042892482382586E+18</v>
       </c>
       <c r="M33" t="s">
         <v>50</v>
       </c>
-      <c r="N33" t="s"/>
-      <c r="O33" t="s"/>
-      <c r="P33" t="n">
-        <v>7.55869984761479e+17</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>7.55869984761479e+17</v>
-      </c>
-      <c r="R33" t="n">
+      <c r="P33">
+        <v>7.5586998476147904E+17</v>
+      </c>
+      <c r="Q33">
+        <v>7.5586998476147904E+17</v>
+      </c>
+      <c r="R33">
         <v>0</v>
       </c>
       <c r="S33" t="s">
-        <v>33</v>
+        <v>70</v>
       </c>
       <c r="T33" t="s">
-        <v>34</v>
-      </c>
-      <c r="U33" t="s"/>
-      <c r="V33" t="n">
-        <v>0</v>
-      </c>
-      <c r="W33" t="n">
+        <v>71</v>
+      </c>
+      <c r="V33">
+        <v>0</v>
+      </c>
+      <c r="W33">
         <v>0</v>
       </c>
       <c r="X33" t="s">
-        <v>107</v>
-      </c>
-      <c r="Y33" t="s"/>
-      <c r="Z33" t="n">
+        <v>114</v>
+      </c>
+      <c r="Z33">
         <v>0</v>
       </c>
       <c r="AA33" t="s">
         <v>175</v>
       </c>
-      <c r="AB33" t="s"/>
-      <c r="AC33" t="s"/>
-      <c r="AD33" t="s"/>
-    </row>
-    <row r="34" spans="1:30">
-      <c r="A34" s="1" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+    </row>
+    <row r="34" spans="1:27" ht="60" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
       <c r="D34" t="s">
         <v>176</v>
       </c>
@@ -3495,100 +3153,75 @@
       <c r="F34" t="s">
         <v>178</v>
       </c>
-      <c r="G34" t="n">
-        <v>0</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="s">
-        <v>179</v>
-      </c>
-      <c r="J34" t="s"/>
-      <c r="K34" t="n">
-        <v>1.04289248238259e+18</v>
-      </c>
-      <c r="L34" t="n">
-        <v>1.042892482382586e+18</v>
-      </c>
-      <c r="M34" t="s">
-        <v>50</v>
-      </c>
-      <c r="N34" t="s"/>
-      <c r="O34" t="s"/>
-      <c r="P34" t="n">
-        <v>7.55869984761479e+17</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>7.55869984761479e+17</v>
-      </c>
-      <c r="R34" t="n">
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="K34">
+        <v>1.0428951103783439E+18</v>
+      </c>
+      <c r="L34">
+        <v>1.0428951103783439E+18</v>
+      </c>
+      <c r="R34">
         <v>0</v>
       </c>
       <c r="S34" t="s">
-        <v>70</v>
+        <v>33</v>
       </c>
       <c r="T34" t="s">
-        <v>71</v>
-      </c>
-      <c r="U34" t="s"/>
-      <c r="V34" t="n">
-        <v>0</v>
-      </c>
-      <c r="W34" t="n">
+        <v>34</v>
+      </c>
+      <c r="V34">
+        <v>0</v>
+      </c>
+      <c r="W34">
         <v>0</v>
       </c>
       <c r="X34" t="s">
         <v>114</v>
       </c>
-      <c r="Y34" t="s"/>
-      <c r="Z34" t="n">
+      <c r="Z34">
         <v>0</v>
       </c>
       <c r="AA34" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="35" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="D35" t="s">
         <v>180</v>
       </c>
-      <c r="AB34" t="s"/>
-      <c r="AC34" t="s"/>
-      <c r="AD34" t="s"/>
-    </row>
-    <row r="35" spans="1:30">
-      <c r="A35" s="1" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
-      <c r="D35" t="s">
+      <c r="E35" t="s">
         <v>181</v>
       </c>
-      <c r="E35" t="s">
+      <c r="F35" t="s">
         <v>182</v>
       </c>
-      <c r="F35" t="s">
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35" t="s">
         <v>183</v>
       </c>
-      <c r="G35" t="n">
-        <v>0</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="s">
-        <v>184</v>
-      </c>
-      <c r="J35" t="s"/>
-      <c r="K35" t="n">
-        <v>1.042895110378344e+18</v>
-      </c>
-      <c r="L35" t="n">
-        <v>1.042895110378344e+18</v>
-      </c>
-      <c r="M35" t="s"/>
-      <c r="N35" t="s"/>
-      <c r="O35" t="s"/>
-      <c r="P35" t="s"/>
-      <c r="Q35" t="s"/>
-      <c r="R35" t="n">
+      <c r="K35">
+        <v>1.042895915185582E+18</v>
+      </c>
+      <c r="L35">
+        <v>1.042895915185582E+18</v>
+      </c>
+      <c r="R35">
         <v>0</v>
       </c>
       <c r="S35" t="s">
@@ -3597,376 +3230,200 @@
       <c r="T35" t="s">
         <v>34</v>
       </c>
-      <c r="U35" t="s"/>
-      <c r="V35" t="n">
-        <v>0</v>
-      </c>
-      <c r="W35" t="n">
+      <c r="V35">
+        <v>0</v>
+      </c>
+      <c r="W35">
         <v>0</v>
       </c>
       <c r="X35" t="s">
         <v>114</v>
       </c>
-      <c r="Y35" t="s"/>
-      <c r="Z35" t="n">
+      <c r="Z35">
         <v>0</v>
       </c>
       <c r="AA35" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="36" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="D36" t="s">
         <v>185</v>
       </c>
-      <c r="AB35" t="s"/>
-      <c r="AC35" t="s"/>
-      <c r="AD35" t="s"/>
-    </row>
-    <row r="36" spans="1:30">
-      <c r="A36" s="1" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
-      <c r="D36" t="s">
+      <c r="E36" t="s">
         <v>186</v>
       </c>
-      <c r="E36" t="s">
+      <c r="F36" t="s">
         <v>187</v>
       </c>
-      <c r="F36" t="s">
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36" t="s">
         <v>188</v>
       </c>
-      <c r="G36" t="n">
-        <v>0</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="s">
-        <v>189</v>
-      </c>
-      <c r="J36" t="s"/>
-      <c r="K36" t="n">
-        <v>1.042895915185582e+18</v>
-      </c>
-      <c r="L36" t="n">
-        <v>1.042895915185582e+18</v>
-      </c>
-      <c r="M36" t="s"/>
-      <c r="N36" t="s"/>
-      <c r="O36" t="s"/>
-      <c r="P36" t="s"/>
-      <c r="Q36" t="s"/>
-      <c r="R36" t="n">
+      <c r="K36">
+        <v>1.0428996646878371E+18</v>
+      </c>
+      <c r="L36">
+        <v>1.0428996646878371E+18</v>
+      </c>
+      <c r="R36">
         <v>0</v>
       </c>
       <c r="S36" t="s">
         <v>33</v>
       </c>
       <c r="T36" t="s">
-        <v>34</v>
-      </c>
-      <c r="U36" t="s"/>
-      <c r="V36" t="n">
-        <v>0</v>
-      </c>
-      <c r="W36" t="n">
+        <v>113</v>
+      </c>
+      <c r="V36">
+        <v>0</v>
+      </c>
+      <c r="W36">
         <v>0</v>
       </c>
       <c r="X36" t="s">
         <v>114</v>
       </c>
-      <c r="Y36" t="s"/>
-      <c r="Z36" t="n">
+      <c r="Z36">
         <v>0</v>
       </c>
       <c r="AA36" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="37" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>37</v>
+      </c>
+      <c r="D37" t="s">
         <v>190</v>
       </c>
-      <c r="AB36" t="s"/>
-      <c r="AC36" t="s"/>
-      <c r="AD36" t="s"/>
-    </row>
-    <row r="37" spans="1:30">
-      <c r="A37" s="1" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
-      <c r="D37" t="s">
+      <c r="E37" t="s">
         <v>191</v>
       </c>
-      <c r="E37" t="s">
+      <c r="F37" t="s">
         <v>192</v>
       </c>
-      <c r="F37" t="s">
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37" t="s">
         <v>193</v>
       </c>
-      <c r="G37" t="n">
-        <v>0</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="s">
-        <v>194</v>
-      </c>
-      <c r="J37" t="s"/>
-      <c r="K37" t="n">
-        <v>1.042899664687837e+18</v>
-      </c>
-      <c r="L37" t="n">
-        <v>1.042899664687837e+18</v>
-      </c>
-      <c r="M37" t="s"/>
-      <c r="N37" t="s"/>
-      <c r="O37" t="s"/>
-      <c r="P37" t="s"/>
-      <c r="Q37" t="s"/>
-      <c r="R37" t="n">
+      <c r="K37">
+        <v>1.04571404957141E+18</v>
+      </c>
+      <c r="L37">
+        <v>1.04571404957141E+18</v>
+      </c>
+      <c r="M37" t="s">
+        <v>50</v>
+      </c>
+      <c r="P37">
+        <v>7.5586998476147917E+17</v>
+      </c>
+      <c r="Q37">
+        <v>7.5586998476147904E+17</v>
+      </c>
+      <c r="R37">
         <v>0</v>
       </c>
       <c r="S37" t="s">
         <v>33</v>
       </c>
       <c r="T37" t="s">
-        <v>113</v>
-      </c>
-      <c r="U37" t="s"/>
-      <c r="V37" t="n">
-        <v>0</v>
-      </c>
-      <c r="W37" t="n">
+        <v>34</v>
+      </c>
+      <c r="V37">
+        <v>0</v>
+      </c>
+      <c r="W37">
         <v>0</v>
       </c>
       <c r="X37" t="s">
-        <v>114</v>
-      </c>
-      <c r="Y37" t="s"/>
-      <c r="Z37" t="n">
+        <v>40</v>
+      </c>
+      <c r="Z37">
         <v>0</v>
       </c>
       <c r="AA37" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="38" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>38</v>
+      </c>
+      <c r="D38" t="s">
         <v>195</v>
       </c>
-      <c r="AB37" t="s"/>
-      <c r="AC37" t="s"/>
-      <c r="AD37" t="s"/>
-    </row>
-    <row r="38" spans="1:30">
-      <c r="A38" s="1" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
-      <c r="D38" t="s">
+      <c r="E38" t="s">
         <v>196</v>
       </c>
-      <c r="E38" t="s">
+      <c r="F38" t="s">
         <v>197</v>
       </c>
-      <c r="F38" t="s">
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="I38" t="s">
         <v>198</v>
       </c>
-      <c r="G38" t="n">
-        <v>0</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="s">
+      <c r="K38">
+        <v>1.045970947864494E+18</v>
+      </c>
+      <c r="L38" t="s">
         <v>199</v>
-      </c>
-      <c r="J38" t="s"/>
-      <c r="K38" t="n">
-        <v>1.043279872645362e+18</v>
-      </c>
-      <c r="L38" t="n">
-        <v>1.043279872645362e+18</v>
       </c>
       <c r="M38" t="s">
         <v>50</v>
       </c>
-      <c r="N38" t="s"/>
-      <c r="O38" t="s"/>
-      <c r="P38" t="n">
-        <v>7.558699847614792e+17</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>7.55869984761479e+17</v>
-      </c>
-      <c r="R38" t="n">
+      <c r="P38">
+        <v>7.5586998476147917E+17</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>200</v>
+      </c>
+      <c r="R38">
         <v>0</v>
       </c>
       <c r="S38" t="s">
-        <v>200</v>
+        <v>70</v>
       </c>
       <c r="T38" t="s">
         <v>201</v>
       </c>
-      <c r="U38" t="s"/>
-      <c r="V38" t="n">
-        <v>0</v>
-      </c>
-      <c r="W38" t="n">
+      <c r="V38">
+        <v>0</v>
+      </c>
+      <c r="W38">
         <v>0</v>
       </c>
       <c r="X38" t="s">
-        <v>107</v>
-      </c>
-      <c r="Y38" t="s"/>
-      <c r="Z38" t="n">
+        <v>40</v>
+      </c>
+      <c r="Z38">
         <v>0</v>
       </c>
       <c r="AA38" t="s">
         <v>202</v>
       </c>
-      <c r="AB38" t="s"/>
-      <c r="AC38" t="s"/>
-      <c r="AD38" t="s"/>
-    </row>
-    <row r="39" spans="1:30">
-      <c r="A39" s="1" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
-      <c r="D39" t="s">
-        <v>203</v>
-      </c>
-      <c r="E39" t="s">
-        <v>204</v>
-      </c>
-      <c r="F39" t="s">
-        <v>205</v>
-      </c>
-      <c r="G39" t="n">
-        <v>0</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="s">
-        <v>206</v>
-      </c>
-      <c r="J39" t="s"/>
-      <c r="K39" t="n">
-        <v>1.04571404957141e+18</v>
-      </c>
-      <c r="L39" t="n">
-        <v>1.04571404957141e+18</v>
-      </c>
-      <c r="M39" t="s">
-        <v>50</v>
-      </c>
-      <c r="N39" t="s"/>
-      <c r="O39" t="s"/>
-      <c r="P39" t="n">
-        <v>7.558699847614792e+17</v>
-      </c>
-      <c r="Q39" t="n">
-        <v>7.55869984761479e+17</v>
-      </c>
-      <c r="R39" t="n">
-        <v>0</v>
-      </c>
-      <c r="S39" t="s">
-        <v>33</v>
-      </c>
-      <c r="T39" t="s">
-        <v>34</v>
-      </c>
-      <c r="U39" t="s"/>
-      <c r="V39" t="n">
-        <v>0</v>
-      </c>
-      <c r="W39" t="n">
-        <v>0</v>
-      </c>
-      <c r="X39" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y39" t="s"/>
-      <c r="Z39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA39" t="s">
-        <v>207</v>
-      </c>
-      <c r="AB39" t="s"/>
-      <c r="AC39" t="s"/>
-      <c r="AD39" t="s"/>
-    </row>
-    <row r="40" spans="1:30">
-      <c r="A40" s="1" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
-      <c r="D40" t="s">
-        <v>208</v>
-      </c>
-      <c r="E40" t="s">
-        <v>209</v>
-      </c>
-      <c r="F40" t="s">
-        <v>210</v>
-      </c>
-      <c r="G40" t="n">
-        <v>0</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="s">
-        <v>211</v>
-      </c>
-      <c r="J40" t="s"/>
-      <c r="K40" t="n">
-        <v>1.045970947864494e+18</v>
-      </c>
-      <c r="L40" t="s">
-        <v>212</v>
-      </c>
-      <c r="M40" t="s">
-        <v>50</v>
-      </c>
-      <c r="N40" t="s"/>
-      <c r="O40" t="s"/>
-      <c r="P40" t="n">
-        <v>7.558699847614792e+17</v>
-      </c>
-      <c r="Q40" t="s">
-        <v>213</v>
-      </c>
-      <c r="R40" t="n">
-        <v>0</v>
-      </c>
-      <c r="S40" t="s">
-        <v>70</v>
-      </c>
-      <c r="T40" t="s">
-        <v>214</v>
-      </c>
-      <c r="U40" t="s"/>
-      <c r="V40" t="n">
-        <v>0</v>
-      </c>
-      <c r="W40" t="n">
-        <v>0</v>
-      </c>
-      <c r="X40" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y40" t="s"/>
-      <c r="Z40" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA40" t="s">
-        <v>215</v>
-      </c>
-      <c r="AB40" t="s"/>
-      <c r="AC40" t="s"/>
-      <c r="AD40" t="s"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/master.xlsx
+++ b/master.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="247">
   <si>
     <t>contributors</t>
   </si>
@@ -738,10 +738,129 @@
 [MOSCOW +1 general] @truWorldControl #fakenewz</t>
   </si>
   <si>
-    <t>1046184223948836868</t>
-  </si>
-  <si>
     <t>{'profile_image_url_https': 'https://pbs.twimg.com/profile_images/1041036258745765890/C-8rzdz5_normal.jpg', 'statuses_count': 128, 'profile_background_color': '000000', 'following': False, 'default_profile_image': False, 'followers_count': 6, 'screen_name': 'MinisterVlatin', 'entities': {'url': {'urls': [{'display_url': 'world-control.net', 'url': 'https://t.co/AgubHQIUXe', 'indices': [0, 23], 'expanded_url': 'http://world-control.net'}]}, 'description': {'urls': []}}, 'translator_type': 'none', 'utc_offset': None, 'profile_background_image_url': 'http://abs.twimg.com/images/themes/theme1/bg.png', 'listed_count': 0, 'location': 'Moscow, Russia', 'description': 'Seizing @truWorldControl by spreading #fakenewz. #proudtobeabot 🤖 by @RKalcik', 'name': 'Minister Vlatin', 'url': 'https://t.co/AgubHQIUXe', 'profile_sidebar_fill_color': '000000', 'is_translator': False, 'lang': 'en', 'id_str': '1017118454711771136', 'protected': False, 'friends_count': 13, 'favourites_count': 6, 'contributors_enabled': False, 'time_zone': None, 'profile_link_color': '000000', 'verified': False, 'profile_image_url': 'http://pbs.twimg.com/profile_images/1041036258745765890/C-8rzdz5_normal.jpg', 'notifications': False, 'id': 1017118454711771136, 'created_at': 'Wed Jul 11 18:48:31 +0000 2018', 'profile_banner_url': 'https://pbs.twimg.com/profile_banners/1017118454711771136/1535920961', 'profile_text_color': '000000', 'profile_use_background_image': False, 'profile_background_tile': False, 'geo_enabled': False, 'profile_background_image_url_https': 'https://abs.twimg.com/images/themes/theme1/bg.png', 'has_extended_profile': False, 'follow_request_sent': False, 'is_translation_enabled': False, 'profile_sidebar_border_color': '000000', 'default_profile': False}</t>
+  </si>
+  <si>
+    <t>Sun Sep 30 00:18:08 +0000 2018</t>
+  </si>
+  <si>
+    <t>[0, 84]</t>
+  </si>
+  <si>
+    <t>{'user_mentions': [{'id': 755869984761479168, 'indices': [58, 74], 'name': 'WorldControl  🎲🎲', 'id_str': '755869984761479168', 'screen_name': 'truWorldControl'}], 'urls': [], 'hashtags': [{'text': 'fakenewz', 'indices': [75, 84]}], 'symbols': []}</t>
+  </si>
+  <si>
+    <t>Pacifc Clean-up
+How did that happen?
+[PACIFIC OCEAN +1☣️] @truWorldControl #fakenewz</t>
+  </si>
+  <si>
+    <t>{'profile_text_color': '000000', 'translator_type': 'none', 'followers_count': 6, 'name': 'Minister Vlatin', 'profile_image_url': 'http://pbs.twimg.com/profile_images/1041036258745765890/C-8rzdz5_normal.jpg', 'profile_background_image_url_https': 'https://abs.twimg.com/images/themes/theme1/bg.png', 'profile_image_url_https': 'https://pbs.twimg.com/profile_images/1041036258745765890/C-8rzdz5_normal.jpg', 'description': 'Seizing @truWorldControl by spreading #fakenewz. #proudtobeabot 🤖 by @RKalcik', 'location': 'Moscow, Russia', 'entities': {'description': {'urls': []}, 'url': {'urls': [{'expanded_url': 'http://world-control.net', 'display_url': 'world-control.net', 'indices': [0, 23], 'url': 'https://t.co/AgubHQIUXe'}]}}, 'favourites_count': 6, 'friends_count': 13, 'lang': 'en', 'utc_offset': None, 'contributors_enabled': False, 'has_extended_profile': False, 'is_translation_enabled': False, 'url': 'https://t.co/AgubHQIUXe', 'default_profile_image': False, 'verified': False, 'listed_count': 0, 'profile_background_image_url': 'http://abs.twimg.com/images/themes/theme1/bg.png', 'notifications': False, 'id_str': '1017118454711771136', 'profile_background_color': '000000', 'profile_sidebar_border_color': '000000', 'profile_use_background_image': False, 'protected': False, 'id': 1017118454711771136, 'following': False, 'profile_background_tile': False, 'statuses_count': 129, 'profile_sidebar_fill_color': '000000', 'screen_name': 'MinisterVlatin', 'profile_link_color': '000000', 'follow_request_sent': False, 'time_zone': None, 'geo_enabled': False, 'profile_banner_url': 'https://pbs.twimg.com/profile_banners/1017118454711771136/1535920961', 'created_at': 'Wed Jul 11 18:48:31 +0000 2018', 'default_profile': False, 'is_translator': False}</t>
+  </si>
+  <si>
+    <t>Sun Sep 30 00:27:38 +0000 2018</t>
+  </si>
+  <si>
+    <t>[0, 150]</t>
+  </si>
+  <si>
+    <t>{'user_mentions': [{'id': 755869984761479168, 'screen_name': 'truWorldControl', 'indices': [124, 140], 'id_str': '755869984761479168', 'name': 'WorldControl  🎲🎲'}], 'urls': [], 'hashtags': [{'indices': [141, 150], 'text': 'fakenewz'}], 'symbols': []}</t>
+  </si>
+  <si>
+    <t>NUCLEAR YOLOCAUST
+Every Player rolls ALL dice. The winner chooses a city to be completely be destroyed.
+[1 City -All corpz] @truWorldControl #fakenewz</t>
+  </si>
+  <si>
+    <t>{'notifications': False, 'contributors_enabled': False, 'profile_text_color': '000000', 'favourites_count': 6, 'profile_use_background_image': False, 'profile_background_image_url': 'http://abs.twimg.com/images/themes/theme1/bg.png', 'listed_count': 0, 'profile_background_image_url_https': 'https://abs.twimg.com/images/themes/theme1/bg.png', 'time_zone': None, 'name': 'Minister Vlatin', 'follow_request_sent': False, 'is_translation_enabled': False, 'profile_link_color': '000000', 'default_profile_image': False, 'profile_background_tile': False, 'followers_count': 6, 'profile_banner_url': 'https://pbs.twimg.com/profile_banners/1017118454711771136/1535920961', 'default_profile': False, 'is_translator': False, 'screen_name': 'MinisterVlatin', 'location': 'Moscow, Russia', 'lang': 'en', 'id_str': '1017118454711771136', 'description': 'Seizing @truWorldControl by spreading #fakenewz. #proudtobeabot 🤖 by @RKalcik', 'profile_image_url': 'http://pbs.twimg.com/profile_images/1041036258745765890/C-8rzdz5_normal.jpg', 'profile_sidebar_border_color': '000000', 'profile_image_url_https': 'https://pbs.twimg.com/profile_images/1041036258745765890/C-8rzdz5_normal.jpg', 'entities': {'description': {'urls': []}, 'url': {'urls': [{'indices': [0, 23], 'display_url': 'world-control.net', 'url': 'https://t.co/AgubHQIUXe', 'expanded_url': 'http://world-control.net'}]}}, 'friends_count': 13, 'profile_background_color': '000000', 'protected': False, 'utc_offset': None, 'url': 'https://t.co/AgubHQIUXe', 'following': False, 'created_at': 'Wed Jul 11 18:48:31 +0000 2018', 'translator_type': 'none', 'statuses_count': 130, 'id': 1017118454711771136, 'verified': False, 'geo_enabled': False, 'profile_sidebar_fill_color': '000000', 'has_extended_profile': False}</t>
+  </si>
+  <si>
+    <t>Sun Sep 30 00:35:17 +0000 2018</t>
+  </si>
+  <si>
+    <t>[0, 67]</t>
+  </si>
+  <si>
+    <t>{'hashtags': [{'text': 'fakenewz', 'indices': [17, 26]}], 'user_mentions': [{'id': 755869984761479168, 'id_str': '755869984761479168', 'screen_name': 'truWorldControl', 'name': 'WorldControl  🎲🎲', 'indices': [0, 16]}], 'symbols': [], 'urls': []}</t>
+  </si>
+  <si>
+    <t>@truWorldControl #fakenewz WorldControl @ Kugelmugel
+[Playerz +1 🍹]</t>
+  </si>
+  <si>
+    <t>{'profile_background_tile': False, 'profile_link_color': '000000', 'translator_type': 'none', 'followers_count': 6, 'is_translator': False, 'protected': False, 'is_translation_enabled': False, 'default_profile_image': False, 'listed_count': 0, 'created_at': 'Wed Jul 11 18:48:31 +0000 2018', 'location': 'Moscow, Russia', 'id': 1017118454711771136, 'profile_background_image_url': 'http://abs.twimg.com/images/themes/theme1/bg.png', 'name': 'Minister Vlatin', 'profile_background_color': '000000', 'verified': False, 'friends_count': 13, 'profile_sidebar_fill_color': '000000', 'url': 'https://t.co/AgubHQIUXe', 'profile_banner_url': 'https://pbs.twimg.com/profile_banners/1017118454711771136/1535920961', 'statuses_count': 131, 'geo_enabled': False, 'follow_request_sent': False, 'has_extended_profile': False, 'favourites_count': 6, 'profile_image_url_https': 'https://pbs.twimg.com/profile_images/1041036258745765890/C-8rzdz5_normal.jpg', 'id_str': '1017118454711771136', 'screen_name': 'MinisterVlatin', 'profile_sidebar_border_color': '000000', 'default_profile': False, 'profile_background_image_url_https': 'https://abs.twimg.com/images/themes/theme1/bg.png', 'following': False, 'utc_offset': None, 'lang': 'en', 'description': 'Seizing @truWorldControl by spreading #fakenewz. #proudtobeabot 🤖 by @RKalcik', 'contributors_enabled': False, 'profile_use_background_image': False, 'profile_text_color': '000000', 'profile_image_url': 'http://pbs.twimg.com/profile_images/1041036258745765890/C-8rzdz5_normal.jpg', 'notifications': False, 'time_zone': None, 'entities': {'url': {'urls': [{'url': 'https://t.co/AgubHQIUXe', 'display_url': 'world-control.net', 'expanded_url': 'http://world-control.net', 'indices': [0, 23]}]}, 'description': {'urls': []}}}</t>
+  </si>
+  <si>
+    <t>Sun Sep 30 07:53:21 +0000 2018</t>
+  </si>
+  <si>
+    <t>[0, 60]</t>
+  </si>
+  <si>
+    <t>{'user_mentions': [{'screen_name': 'truWorldControl', 'id_str': '755869984761479168', 'id': 755869984761479168, 'indices': [0, 16], 'name': 'WorldControl  🎲🎲'}], 'urls': [], 'hashtags': [{'indices': [17, 26], 'text': 'fakenewz'}], 'symbols': []}</t>
+  </si>
+  <si>
+    <t>@truWorldControl #fakenewz Sea level rises
+[all Oceans +1 💰]</t>
+  </si>
+  <si>
+    <t>1046306995345784832</t>
+  </si>
+  <si>
+    <t>755869984761479168</t>
+  </si>
+  <si>
+    <t>{'profile_link_color': '000000', 'profile_text_color': '000000', 'lang': 'en', 'profile_sidebar_fill_color': '000000', 'is_translation_enabled': False, 'listed_count': 0, 'translator_type': 'none', 'screen_name': 'MinisterVlatin', 'entities': {'url': {'urls': [{'expanded_url': 'http://world-control.net', 'url': 'https://t.co/AgubHQIUXe', 'display_url': 'world-control.net', 'indices': [0, 23]}]}, 'description': {'urls': []}}, 'profile_background_color': '000000', 'url': 'https://t.co/AgubHQIUXe', 'notifications': False, 'profile_background_image_url_https': 'https://abs.twimg.com/images/themes/theme1/bg.png', 'profile_image_url_https': 'https://pbs.twimg.com/profile_images/1041036258745765890/C-8rzdz5_normal.jpg', 'profile_image_url': 'http://pbs.twimg.com/profile_images/1041036258745765890/C-8rzdz5_normal.jpg', 'has_extended_profile': False, 'is_translator': False, 'utc_offset': None, 'verified': False, 'profile_background_image_url': 'http://abs.twimg.com/images/themes/theme1/bg.png', 'contributors_enabled': False, 'location': 'Moscow, Russia', 'description': 'Seizing @truWorldControl by spreading #fakenewz. #proudtobeabot 🤖 by @RKalcik', 'id_str': '1017118454711771136', 'profile_use_background_image': False, 'protected': False, 'profile_sidebar_border_color': '000000', 'geo_enabled': False, 'followers_count': 6, 'statuses_count': 132, 'name': 'Minister Vlatin', 'created_at': 'Wed Jul 11 18:48:31 +0000 2018', 'follow_request_sent': False, 'favourites_count': 6, 'default_profile': False, 'following': False, 'id': 1017118454711771136, 'default_profile_image': False, 'time_zone': None, 'profile_banner_url': 'https://pbs.twimg.com/profile_banners/1017118454711771136/1535920961', 'friends_count': 13, 'profile_background_tile': False}</t>
+  </si>
+  <si>
+    <t>Sun Sep 30 18:21:13 +0000 2018</t>
+  </si>
+  <si>
+    <t>[0, 74]</t>
+  </si>
+  <si>
+    <t>@truWorldControl #fakenewz
+Österreich geht der Wein aus
+[Wien - all corpz]</t>
+  </si>
+  <si>
+    <t>1046465002947964929</t>
+  </si>
+  <si>
+    <t>{'profile_link_color': '000000', 'profile_text_color': '000000', 'lang': 'en', 'profile_sidebar_fill_color': '000000', 'is_translation_enabled': False, 'listed_count': 0, 'translator_type': 'none', 'screen_name': 'MinisterVlatin', 'entities': {'url': {'urls': [{'expanded_url': 'http://world-control.net', 'url': 'https://t.co/AgubHQIUXe', 'display_url': 'world-control.net', 'indices': [0, 23]}]}, 'description': {'urls': []}}, 'profile_background_color': '000000', 'url': 'https://t.co/AgubHQIUXe', 'notifications': False, 'profile_background_image_url_https': 'https://abs.twimg.com/images/themes/theme1/bg.png', 'profile_image_url_https': 'https://pbs.twimg.com/profile_images/1041036258745765890/C-8rzdz5_normal.jpg', 'profile_image_url': 'http://pbs.twimg.com/profile_images/1041036258745765890/C-8rzdz5_normal.jpg', 'has_extended_profile': False, 'is_translator': False, 'utc_offset': None, 'verified': False, 'profile_background_image_url': 'http://abs.twimg.com/images/themes/theme1/bg.png', 'contributors_enabled': False, 'location': 'Moscow, Russia', 'description': 'Seizing @truWorldControl by spreading #fakenewz. #proudtobeabot 🤖 by @RKalcik', 'id_str': '1017118454711771136', 'profile_use_background_image': False, 'protected': False, 'profile_sidebar_border_color': '000000', 'geo_enabled': False, 'followers_count': 6, 'statuses_count': 134, 'name': 'Minister Vlatin', 'created_at': 'Wed Jul 11 18:48:31 +0000 2018', 'follow_request_sent': False, 'favourites_count': 6, 'default_profile': False, 'following': False, 'id': 1017118454711771136, 'default_profile_image': False, 'time_zone': None, 'profile_banner_url': 'https://pbs.twimg.com/profile_banners/1017118454711771136/1535920961', 'friends_count': 13, 'profile_background_tile': False}</t>
+  </si>
+  <si>
+    <t>Wed Oct 03 19:37:05 +0000 2018</t>
+  </si>
+  <si>
+    <t>[13, 39]</t>
+  </si>
+  <si>
+    <t>{'user_mentions': [{'screen_name': 'georgdemmer', 'id_str': '2842987192', 'id': 2842987192, 'indices': [0, 12], 'name': 'Georg Demmer'}, {'screen_name': 'truWorldControl', 'id_str': '755869984761479168', 'id': 755869984761479168, 'indices': [13, 29], 'name': 'WorldControl  🎲🎲'}], 'urls': [], 'hashtags': [{'indices': [30, 39], 'text': 'fakenewz'}], 'symbols': []}</t>
+  </si>
+  <si>
+    <t>@georgdemmer @truWorldControl #fakenewz</t>
+  </si>
+  <si>
+    <t>1047571257405919232</t>
+  </si>
+  <si>
+    <t>georgdemmer</t>
+  </si>
+  <si>
+    <t>1047569600651714560</t>
+  </si>
+  <si>
+    <t>2842987192</t>
+  </si>
+  <si>
+    <t>und</t>
+  </si>
+  <si>
+    <t>{'iso_language_code': 'und', 'result_type': 'recent'}</t>
+  </si>
+  <si>
+    <t>{'profile_link_color': 'F58EA8', 'profile_text_color': '000000', 'lang': 'de', 'profile_sidebar_fill_color': '000000', 'is_translation_enabled': False, 'listed_count': 4, 'translator_type': 'none', 'screen_name': 'georgdemmer', 'entities': {'url': {'urls': [{'expanded_url': 'http://www.gad.at', 'url': 'https://t.co/kDFJq6lPz1', 'display_url': 'gad.at', 'indices': [0, 23]}]}, 'description': {'urls': []}}, 'profile_background_color': '000000', 'url': 'https://t.co/kDFJq6lPz1', 'notifications': False, 'profile_background_image_url_https': 'https://abs.twimg.com/images/themes/theme1/bg.png', 'profile_image_url_https': 'https://pbs.twimg.com/profile_images/841478292364378112/cPC-0V2Y_normal.jpg', 'profile_image_url': 'http://pbs.twimg.com/profile_images/841478292364378112/cPC-0V2Y_normal.jpg', 'has_extended_profile': False, 'is_translator': False, 'utc_offset': None, 'verified': False, 'profile_background_image_url': 'http://abs.twimg.com/images/themes/theme1/bg.png', 'contributors_enabled': False, 'location': 'Wien, Österreich', 'description': '@CoSpace_Vienna', 'id_str': '2842987192', 'profile_use_background_image': False, 'protected': False, 'profile_sidebar_border_color': '000000', 'geo_enabled': True, 'followers_count': 50, 'statuses_count': 51, 'name': 'Georg Demmer', 'created_at': 'Fri Oct 24 22:32:27 +0000 2014', 'follow_request_sent': False, 'favourites_count': 17, 'default_profile': False, 'following': False, 'id': 2842987192, 'default_profile_image': False, 'time_zone': None, 'friends_count': 97, 'profile_background_tile': False}</t>
   </si>
 </sst>
 </file>
@@ -1090,7 +1209,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AE39"/>
+  <dimension ref="A1:AE45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3875,8 +3994,8 @@
       <c r="K39" t="n">
         <v>1.046184223948837e+18</v>
       </c>
-      <c r="L39" t="s">
-        <v>208</v>
+      <c r="L39" t="n">
+        <v>1.046184223948837e+18</v>
       </c>
       <c r="M39" t="s"/>
       <c r="N39" t="s"/>
@@ -3907,13 +4026,443 @@
         <v>0</v>
       </c>
       <c r="AA39" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AB39" t="s"/>
       <c r="AC39" t="s"/>
       <c r="AD39" t="s"/>
       <c r="AE39" t="s"/>
     </row>
+    <row r="40" spans="1:31">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="s">
+        <v>209</v>
+      </c>
+      <c r="E40" t="s">
+        <v>210</v>
+      </c>
+      <c r="F40" t="s">
+        <v>211</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="s">
+        <v>212</v>
+      </c>
+      <c r="J40" t="s"/>
+      <c r="K40" t="n">
+        <v>1.046192436270305e+18</v>
+      </c>
+      <c r="L40" t="n">
+        <v>1.046192436270305e+18</v>
+      </c>
+      <c r="M40" t="s"/>
+      <c r="N40" t="s"/>
+      <c r="O40" t="s"/>
+      <c r="P40" t="s"/>
+      <c r="Q40" t="s"/>
+      <c r="R40" t="n">
+        <v>0</v>
+      </c>
+      <c r="S40" t="s">
+        <v>34</v>
+      </c>
+      <c r="T40" t="s">
+        <v>35</v>
+      </c>
+      <c r="U40" t="s"/>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="n">
+        <v>0</v>
+      </c>
+      <c r="X40" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y40" t="s"/>
+      <c r="Z40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA40" t="s">
+        <v>213</v>
+      </c>
+      <c r="AB40" t="s"/>
+      <c r="AC40" t="s"/>
+      <c r="AD40" t="s"/>
+      <c r="AE40" t="s"/>
+    </row>
+    <row r="41" spans="1:31">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="s">
+        <v>214</v>
+      </c>
+      <c r="E41" t="s">
+        <v>215</v>
+      </c>
+      <c r="F41" t="s">
+        <v>216</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="s">
+        <v>217</v>
+      </c>
+      <c r="J41" t="s"/>
+      <c r="K41" t="n">
+        <v>1.04619482541711e+18</v>
+      </c>
+      <c r="L41" t="n">
+        <v>1.04619482541711e+18</v>
+      </c>
+      <c r="M41" t="s"/>
+      <c r="N41" t="s"/>
+      <c r="O41" t="s"/>
+      <c r="P41" t="s"/>
+      <c r="Q41" t="s"/>
+      <c r="R41" t="n">
+        <v>0</v>
+      </c>
+      <c r="S41" t="s">
+        <v>34</v>
+      </c>
+      <c r="T41" t="s">
+        <v>114</v>
+      </c>
+      <c r="U41" t="s"/>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="n">
+        <v>0</v>
+      </c>
+      <c r="X41" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y41" t="s"/>
+      <c r="Z41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA41" t="s">
+        <v>218</v>
+      </c>
+      <c r="AB41" t="s"/>
+      <c r="AC41" t="s"/>
+      <c r="AD41" t="s"/>
+      <c r="AE41" t="s"/>
+    </row>
+    <row r="42" spans="1:31">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="s">
+        <v>219</v>
+      </c>
+      <c r="E42" t="s">
+        <v>220</v>
+      </c>
+      <c r="F42" t="s">
+        <v>221</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" t="s">
+        <v>222</v>
+      </c>
+      <c r="J42" t="s"/>
+      <c r="K42" t="n">
+        <v>1.04619675086696e+18</v>
+      </c>
+      <c r="L42" t="n">
+        <v>1.04619675086696e+18</v>
+      </c>
+      <c r="M42" t="s">
+        <v>51</v>
+      </c>
+      <c r="N42" t="s"/>
+      <c r="O42" t="s"/>
+      <c r="P42" t="n">
+        <v>7.558699847614792e+17</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>7.55869984761479e+17</v>
+      </c>
+      <c r="R42" t="n">
+        <v>0</v>
+      </c>
+      <c r="S42" t="s">
+        <v>71</v>
+      </c>
+      <c r="T42" t="s">
+        <v>202</v>
+      </c>
+      <c r="U42" t="s"/>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="n">
+        <v>0</v>
+      </c>
+      <c r="X42" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y42" t="s"/>
+      <c r="Z42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA42" t="s">
+        <v>223</v>
+      </c>
+      <c r="AB42" t="s"/>
+      <c r="AC42" t="s"/>
+      <c r="AD42" t="s"/>
+      <c r="AE42" t="s"/>
+    </row>
+    <row r="43" spans="1:31">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="s">
+        <v>224</v>
+      </c>
+      <c r="E43" t="s">
+        <v>225</v>
+      </c>
+      <c r="F43" t="s">
+        <v>226</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="s">
+        <v>227</v>
+      </c>
+      <c r="J43" t="s"/>
+      <c r="K43" t="n">
+        <v>1.046306995345785e+18</v>
+      </c>
+      <c r="L43" t="s">
+        <v>228</v>
+      </c>
+      <c r="M43" t="s">
+        <v>51</v>
+      </c>
+      <c r="N43" t="s"/>
+      <c r="O43" t="s"/>
+      <c r="P43" t="n">
+        <v>7.558699847614792e+17</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>229</v>
+      </c>
+      <c r="R43" t="n">
+        <v>0</v>
+      </c>
+      <c r="S43" t="s">
+        <v>34</v>
+      </c>
+      <c r="T43" t="s">
+        <v>114</v>
+      </c>
+      <c r="U43" t="s"/>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="n">
+        <v>0</v>
+      </c>
+      <c r="X43" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y43" t="s"/>
+      <c r="Z43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA43" t="s">
+        <v>230</v>
+      </c>
+      <c r="AB43" t="s"/>
+      <c r="AC43" t="s"/>
+      <c r="AD43" t="s"/>
+      <c r="AE43" t="s"/>
+    </row>
+    <row r="44" spans="1:31">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="s">
+        <v>231</v>
+      </c>
+      <c r="E44" t="s">
+        <v>232</v>
+      </c>
+      <c r="F44" t="s">
+        <v>226</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="s">
+        <v>233</v>
+      </c>
+      <c r="J44" t="s"/>
+      <c r="K44" t="n">
+        <v>1.046465002947965e+18</v>
+      </c>
+      <c r="L44" t="s">
+        <v>234</v>
+      </c>
+      <c r="M44" t="s">
+        <v>51</v>
+      </c>
+      <c r="N44" t="s"/>
+      <c r="O44" t="s"/>
+      <c r="P44" t="n">
+        <v>7.558699847614792e+17</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>229</v>
+      </c>
+      <c r="R44" t="n">
+        <v>0</v>
+      </c>
+      <c r="S44" t="s">
+        <v>71</v>
+      </c>
+      <c r="T44" t="s">
+        <v>202</v>
+      </c>
+      <c r="U44" t="s"/>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="n">
+        <v>0</v>
+      </c>
+      <c r="X44" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y44" t="s"/>
+      <c r="Z44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA44" t="s">
+        <v>235</v>
+      </c>
+      <c r="AB44" t="s"/>
+      <c r="AC44" t="s"/>
+      <c r="AD44" t="s"/>
+      <c r="AE44" t="s"/>
+    </row>
+    <row r="45" spans="1:31">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="s">
+        <v>236</v>
+      </c>
+      <c r="E45" t="s">
+        <v>237</v>
+      </c>
+      <c r="F45" t="s">
+        <v>238</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" t="s">
+        <v>239</v>
+      </c>
+      <c r="J45" t="s"/>
+      <c r="K45" t="n">
+        <v>1.047571257405919e+18</v>
+      </c>
+      <c r="L45" t="s">
+        <v>240</v>
+      </c>
+      <c r="M45" t="s">
+        <v>241</v>
+      </c>
+      <c r="N45" t="n">
+        <v>1.047569600651715e+18</v>
+      </c>
+      <c r="O45" t="s">
+        <v>242</v>
+      </c>
+      <c r="P45" t="n">
+        <v>2842987192</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>243</v>
+      </c>
+      <c r="R45" t="n">
+        <v>0</v>
+      </c>
+      <c r="S45" t="s">
+        <v>244</v>
+      </c>
+      <c r="T45" t="s">
+        <v>245</v>
+      </c>
+      <c r="U45" t="s"/>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="n">
+        <v>0</v>
+      </c>
+      <c r="X45" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y45" t="s"/>
+      <c r="Z45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA45" t="s">
+        <v>246</v>
+      </c>
+      <c r="AB45" t="s"/>
+      <c r="AC45" t="s"/>
+      <c r="AD45" t="s"/>
+      <c r="AE45" t="s"/>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/master.xlsx
+++ b/master.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KalcikR\Google Drive\world-control\bot\world-control\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{1D99C83A-5D1D-48B7-813B-1A111BE7C42C}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{F2F3CE89-7B83-4945-9FA5-3B02FC999F62}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="243">
   <si>
     <t>contributors</t>
   </si>
@@ -241,9 +241,6 @@
     <t>Sun Sep 30 18:21:13 +0000 2018</t>
   </si>
   <si>
-    <t>Wed Oct 03 19:37:05 +0000 2018</t>
-  </si>
-  <si>
     <t>Wed Oct 03 19:43:17 +0000 2018</t>
   </si>
   <si>
@@ -331,9 +328,6 @@
     <t>[0, 74]</t>
   </si>
   <si>
-    <t>[13, 39]</t>
-  </si>
-  <si>
     <t>[0, 36]</t>
   </si>
   <si>
@@ -440,9 +434,6 @@
   </si>
   <si>
     <t>{'user_mentions': [{'screen_name': 'truWorldControl', 'id_str': '755869984761479168', 'id': 755869984761479168, 'indices': [0, 16], 'name': 'WorldControl  🎲🎲'}], 'urls': [], 'hashtags': [{'indices': [17, 26], 'text': 'fakenewz'}], 'symbols': []}</t>
-  </si>
-  <si>
-    <t>{'user_mentions': [{'screen_name': 'georgdemmer', 'id_str': '2842987192', 'id': 2842987192, 'indices': [0, 12], 'name': 'Georg Demmer'}, {'screen_name': 'truWorldControl', 'id_str': '755869984761479168', 'id': 755869984761479168, 'indices': [13, 29], 'name': 'WorldControl  🎲🎲'}], 'urls': [], 'hashtags': [{'indices': [30, 39], 'text': 'fakenewz'}], 'symbols': []}</t>
   </si>
   <si>
     <t>{'hashtags': [{'text': 'fakenewz', 'indices': [17, 26]}], 'symbols': [], 'user_mentions': [{'screen_name': 'truWorldControl', 'name': 'WorldControl  🎲🎲', 'id': 755869984761479168, 'id_str': '755869984761479168', 'indices': [0, 16]}], 'urls': []}</t>
@@ -677,9 +668,6 @@
 [Wien - all corpz]</t>
   </si>
   <si>
-    <t>@georgdemmer @truWorldControl #fakenewz</t>
-  </si>
-  <si>
     <t>@truWorldControl #fakenewz huhu!!!!!</t>
   </si>
   <si>
@@ -689,9 +677,6 @@
     <t>truWorldControl</t>
   </si>
   <si>
-    <t>georgdemmer</t>
-  </si>
-  <si>
     <t>755869984761479168</t>
   </si>
   <si>
@@ -701,9 +686,6 @@
     <t>de</t>
   </si>
   <si>
-    <t>und</t>
-  </si>
-  <si>
     <t>tl</t>
   </si>
   <si>
@@ -717,9 +699,6 @@
   </si>
   <si>
     <t>{'iso_language_code': 'de', 'result_type': 'recent'}</t>
-  </si>
-  <si>
-    <t>{'iso_language_code': 'und', 'result_type': 'recent'}</t>
   </si>
   <si>
     <t>{'iso_language_code': 'tl', 'result_type': 'recent'}</t>
@@ -872,9 +851,6 @@
   </si>
   <si>
     <t>{'profile_link_color': '000000', 'profile_text_color': '000000', 'lang': 'en', 'profile_sidebar_fill_color': '000000', 'is_translation_enabled': False, 'listed_count': 0, 'translator_type': 'none', 'screen_name': 'MinisterVlatin', 'entities': {'url': {'urls': [{'expanded_url': 'http://world-control.net', 'url': 'https://t.co/AgubHQIUXe', 'display_url': 'world-control.net', 'indices': [0, 23]}]}, 'description': {'urls': []}}, 'profile_background_color': '000000', 'url': 'https://t.co/AgubHQIUXe', 'notifications': False, 'profile_background_image_url_https': 'https://abs.twimg.com/images/themes/theme1/bg.png', 'profile_image_url_https': 'https://pbs.twimg.com/profile_images/1041036258745765890/C-8rzdz5_normal.jpg', 'profile_image_url': 'http://pbs.twimg.com/profile_images/1041036258745765890/C-8rzdz5_normal.jpg', 'has_extended_profile': False, 'is_translator': False, 'utc_offset': None, 'verified': False, 'profile_background_image_url': 'http://abs.twimg.com/images/themes/theme1/bg.png', 'contributors_enabled': False, 'location': 'Moscow, Russia', 'description': 'Seizing @truWorldControl by spreading #fakenewz. #proudtobeabot 🤖 by @RKalcik', 'id_str': '1017118454711771136', 'profile_use_background_image': False, 'protected': False, 'profile_sidebar_border_color': '000000', 'geo_enabled': False, 'followers_count': 6, 'statuses_count': 134, 'name': 'Minister Vlatin', 'created_at': 'Wed Jul 11 18:48:31 +0000 2018', 'follow_request_sent': False, 'favourites_count': 6, 'default_profile': False, 'following': False, 'id': 1017118454711771136, 'default_profile_image': False, 'time_zone': None, 'profile_banner_url': 'https://pbs.twimg.com/profile_banners/1017118454711771136/1535920961', 'friends_count': 13, 'profile_background_tile': False}</t>
-  </si>
-  <si>
-    <t>{'profile_link_color': 'F58EA8', 'profile_text_color': '000000', 'lang': 'de', 'profile_sidebar_fill_color': '000000', 'is_translation_enabled': False, 'listed_count': 4, 'translator_type': 'none', 'screen_name': 'georgdemmer', 'entities': {'url': {'urls': [{'expanded_url': 'http://www.gad.at', 'url': 'https://t.co/kDFJq6lPz1', 'display_url': 'gad.at', 'indices': [0, 23]}]}, 'description': {'urls': []}}, 'profile_background_color': '000000', 'url': 'https://t.co/kDFJq6lPz1', 'notifications': False, 'profile_background_image_url_https': 'https://abs.twimg.com/images/themes/theme1/bg.png', 'profile_image_url_https': 'https://pbs.twimg.com/profile_images/841478292364378112/cPC-0V2Y_normal.jpg', 'profile_image_url': 'http://pbs.twimg.com/profile_images/841478292364378112/cPC-0V2Y_normal.jpg', 'has_extended_profile': False, 'is_translator': False, 'utc_offset': None, 'verified': False, 'profile_background_image_url': 'http://abs.twimg.com/images/themes/theme1/bg.png', 'contributors_enabled': False, 'location': 'Wien, Österreich', 'description': '@CoSpace_Vienna', 'id_str': '2842987192', 'profile_use_background_image': False, 'protected': False, 'profile_sidebar_border_color': '000000', 'geo_enabled': True, 'followers_count': 50, 'statuses_count': 51, 'name': 'Georg Demmer', 'created_at': 'Fri Oct 24 22:32:27 +0000 2014', 'follow_request_sent': False, 'favourites_count': 17, 'default_profile': False, 'following': False, 'id': 2842987192, 'default_profile_image': False, 'time_zone': None, 'friends_count': 97, 'profile_background_tile': False}</t>
   </si>
   <si>
     <t>{'id': 2842987192, 'id_str': '2842987192', 'name': 'Georg Demmer', 'screen_name': 'georgdemmer', 'location': 'Wien, Österreich', 'description': '@CoSpace_Vienna', 'url': 'https://t.co/kDFJq6lPz1', 'entities': {'url': {'urls': [{'url': 'https://t.co/kDFJq6lPz1', 'expanded_url': 'http://www.gad.at', 'display_url': 'gad.at', 'indices': [0, 23]}]}, 'description': {'urls': []}}, 'protected': False, 'followers_count': 50, 'friends_count': 97, 'listed_count': 4, 'created_at': 'Fri Oct 24 22:32:27 +0000 2014', 'favourites_count': 17, 'utc_offset': None, 'time_zone': None, 'geo_enabled': True, 'verified': False, 'statuses_count': 49, 'lang': 'de', 'contributors_enabled': False, 'is_translator': False, 'is_translation_enabled': False, 'profile_background_color': '000000', 'profile_background_image_url': 'http://abs.twimg.com/images/themes/theme1/bg.png', 'profile_background_image_url_https': 'https://abs.twimg.com/images/themes/theme1/bg.png', 'profile_background_tile': False, 'profile_image_url': 'http://pbs.twimg.com/profile_images/841478292364378112/cPC-0V2Y_normal.jpg', 'profile_image_url_https': 'https://pbs.twimg.com/profile_images/841478292364378112/cPC-0V2Y_normal.jpg', 'profile_link_color': 'F58EA8', 'profile_sidebar_border_color': '000000', 'profile_sidebar_fill_color': '000000', 'profile_text_color': '000000', 'profile_use_background_image': False, 'has_extended_profile': False, 'default_profile': False, 'default_profile_image': False, 'following': False, 'follow_request_sent': False, 'notifications': False, 'translator_type': 'none'}</t>
@@ -1279,10 +1255,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE46"/>
+  <dimension ref="A1:AE45"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="I45" sqref="I45"/>
+      <selection activeCell="L36" sqref="L36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1387,10 +1363,10 @@
         <v>30</v>
       </c>
       <c r="E2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -1399,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="K2">
         <v>1.03924E+18</v>
@@ -1411,25 +1387,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="T2" t="s">
+        <v>188</v>
+      </c>
+      <c r="V2">
+        <v>0</v>
+      </c>
+      <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="X2" t="s">
         <v>194</v>
       </c>
-      <c r="V2">
-        <v>0</v>
-      </c>
-      <c r="W2">
-        <v>0</v>
-      </c>
-      <c r="X2" t="s">
-        <v>201</v>
-      </c>
       <c r="Z2">
         <v>0</v>
       </c>
       <c r="AA2" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="AD2">
         <v>0</v>
@@ -1443,7 +1419,7 @@
         <v>31</v>
       </c>
       <c r="F3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -1452,7 +1428,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="K3">
         <v>1.03765E+18</v>
@@ -1464,10 +1440,10 @@
         <v>0</v>
       </c>
       <c r="S3" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="T3" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="V3">
         <v>0</v>
@@ -1476,16 +1452,16 @@
         <v>0</v>
       </c>
       <c r="X3" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="Y3" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="Z3">
         <v>0</v>
       </c>
       <c r="AA3" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="AD3">
         <v>1</v>
@@ -1499,7 +1475,7 @@
         <v>32</v>
       </c>
       <c r="F4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -1508,7 +1484,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="K4">
         <v>1.0348E+18</v>
@@ -1520,10 +1496,10 @@
         <v>0</v>
       </c>
       <c r="S4" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="T4" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="V4">
         <v>0</v>
@@ -1532,16 +1508,16 @@
         <v>0</v>
       </c>
       <c r="X4" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="Y4" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="Z4">
         <v>0</v>
       </c>
       <c r="AA4" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="AD4">
         <v>2</v>
@@ -1555,7 +1531,7 @@
         <v>33</v>
       </c>
       <c r="F5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -1564,7 +1540,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="K5">
         <v>1.03266E+18</v>
@@ -1573,7 +1549,7 @@
         <v>1.03266E+18</v>
       </c>
       <c r="M5" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="P5">
         <v>7.56E+17</v>
@@ -1585,28 +1561,28 @@
         <v>0</v>
       </c>
       <c r="S5" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="T5" t="s">
+        <v>188</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="X5" t="s">
         <v>194</v>
       </c>
-      <c r="V5">
-        <v>0</v>
-      </c>
-      <c r="W5">
-        <v>0</v>
-      </c>
-      <c r="X5" t="s">
-        <v>201</v>
-      </c>
       <c r="Y5" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="Z5">
         <v>0</v>
       </c>
       <c r="AA5" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="AD5">
         <v>4</v>
@@ -1620,7 +1596,7 @@
         <v>34</v>
       </c>
       <c r="F6" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -1629,7 +1605,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="K6">
         <v>1.03266E+18</v>
@@ -1638,7 +1614,7 @@
         <v>1.03266E+18</v>
       </c>
       <c r="M6" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="P6">
         <v>7.56E+17</v>
@@ -1650,28 +1626,28 @@
         <v>0</v>
       </c>
       <c r="S6" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="T6" t="s">
+        <v>188</v>
+      </c>
+      <c r="V6">
+        <v>0</v>
+      </c>
+      <c r="W6">
+        <v>0</v>
+      </c>
+      <c r="X6" t="s">
         <v>194</v>
       </c>
-      <c r="V6">
-        <v>0</v>
-      </c>
-      <c r="W6">
-        <v>0</v>
-      </c>
-      <c r="X6" t="s">
-        <v>201</v>
-      </c>
       <c r="Y6" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="Z6">
         <v>0</v>
       </c>
       <c r="AA6" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="AD6">
         <v>5</v>
@@ -1685,7 +1661,7 @@
         <v>35</v>
       </c>
       <c r="F7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -1694,7 +1670,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="K7">
         <v>1.03266E+18</v>
@@ -1703,7 +1679,7 @@
         <v>1.03266E+18</v>
       </c>
       <c r="M7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="P7">
         <v>7.56E+17</v>
@@ -1715,28 +1691,28 @@
         <v>0</v>
       </c>
       <c r="S7" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="T7" t="s">
+        <v>188</v>
+      </c>
+      <c r="V7">
+        <v>0</v>
+      </c>
+      <c r="W7">
+        <v>0</v>
+      </c>
+      <c r="X7" t="s">
         <v>194</v>
       </c>
-      <c r="V7">
-        <v>0</v>
-      </c>
-      <c r="W7">
-        <v>0</v>
-      </c>
-      <c r="X7" t="s">
-        <v>201</v>
-      </c>
       <c r="Y7" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="Z7">
         <v>0</v>
       </c>
       <c r="AA7" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="AD7">
         <v>6</v>
@@ -1750,7 +1726,7 @@
         <v>36</v>
       </c>
       <c r="F8" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1759,7 +1735,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="K8">
         <v>1.03265E+18</v>
@@ -1768,7 +1744,7 @@
         <v>1.03265E+18</v>
       </c>
       <c r="M8" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="P8">
         <v>7.56E+17</v>
@@ -1780,28 +1756,28 @@
         <v>0</v>
       </c>
       <c r="S8" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="T8" t="s">
+        <v>188</v>
+      </c>
+      <c r="V8">
+        <v>0</v>
+      </c>
+      <c r="W8">
+        <v>0</v>
+      </c>
+      <c r="X8" t="s">
         <v>194</v>
       </c>
-      <c r="V8">
-        <v>0</v>
-      </c>
-      <c r="W8">
-        <v>0</v>
-      </c>
-      <c r="X8" t="s">
-        <v>201</v>
-      </c>
       <c r="Y8" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="Z8">
         <v>0</v>
       </c>
       <c r="AA8" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="AD8">
         <v>7</v>
@@ -1815,7 +1791,7 @@
         <v>37</v>
       </c>
       <c r="F9" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -1824,7 +1800,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="K9">
         <v>1.03265E+18</v>
@@ -1833,7 +1809,7 @@
         <v>1.03265E+18</v>
       </c>
       <c r="M9" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="P9">
         <v>7.56E+17</v>
@@ -1845,28 +1821,28 @@
         <v>0</v>
       </c>
       <c r="S9" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="T9" t="s">
+        <v>188</v>
+      </c>
+      <c r="V9">
+        <v>0</v>
+      </c>
+      <c r="W9">
+        <v>0</v>
+      </c>
+      <c r="X9" t="s">
         <v>194</v>
       </c>
-      <c r="V9">
-        <v>0</v>
-      </c>
-      <c r="W9">
-        <v>0</v>
-      </c>
-      <c r="X9" t="s">
-        <v>201</v>
-      </c>
       <c r="Y9" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="Z9">
         <v>0</v>
       </c>
       <c r="AA9" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="AD9">
         <v>8</v>
@@ -1880,7 +1856,7 @@
         <v>38</v>
       </c>
       <c r="F10" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -1889,7 +1865,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="K10">
         <v>1.03265E+18</v>
@@ -1898,7 +1874,7 @@
         <v>1.03265E+18</v>
       </c>
       <c r="M10" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="P10">
         <v>7.56E+17</v>
@@ -1910,28 +1886,28 @@
         <v>0</v>
       </c>
       <c r="S10" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="T10" t="s">
+        <v>188</v>
+      </c>
+      <c r="V10">
+        <v>0</v>
+      </c>
+      <c r="W10">
+        <v>0</v>
+      </c>
+      <c r="X10" t="s">
         <v>194</v>
       </c>
-      <c r="V10">
-        <v>0</v>
-      </c>
-      <c r="W10">
-        <v>0</v>
-      </c>
-      <c r="X10" t="s">
-        <v>201</v>
-      </c>
       <c r="Y10" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="Z10">
         <v>0</v>
       </c>
       <c r="AA10" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="AD10">
         <v>9</v>
@@ -1945,7 +1921,7 @@
         <v>39</v>
       </c>
       <c r="F11" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -1954,7 +1930,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="K11">
         <v>1.03237E+18</v>
@@ -1963,7 +1939,7 @@
         <v>1.03237E+18</v>
       </c>
       <c r="M11" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="P11">
         <v>7.56E+17</v>
@@ -1975,28 +1951,28 @@
         <v>0</v>
       </c>
       <c r="S11" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="T11" t="s">
+        <v>189</v>
+      </c>
+      <c r="V11">
+        <v>0</v>
+      </c>
+      <c r="W11">
+        <v>0</v>
+      </c>
+      <c r="X11" t="s">
         <v>195</v>
       </c>
-      <c r="V11">
-        <v>0</v>
-      </c>
-      <c r="W11">
-        <v>0</v>
-      </c>
-      <c r="X11" t="s">
-        <v>202</v>
-      </c>
       <c r="Y11" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="Z11">
         <v>0</v>
       </c>
       <c r="AA11" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="AD11">
         <v>10</v>
@@ -2010,7 +1986,7 @@
         <v>40</v>
       </c>
       <c r="F12" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -2019,7 +1995,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="K12">
         <v>1.03151E+18</v>
@@ -2028,7 +2004,7 @@
         <v>1.03151E+18</v>
       </c>
       <c r="M12" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="P12">
         <v>7.56E+17</v>
@@ -2040,10 +2016,10 @@
         <v>0</v>
       </c>
       <c r="S12" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="T12" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="V12">
         <v>0</v>
@@ -2052,16 +2028,16 @@
         <v>0</v>
       </c>
       <c r="X12" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="Y12" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="Z12">
         <v>0</v>
       </c>
       <c r="AA12" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="AD12">
         <v>11</v>
@@ -2075,7 +2051,7 @@
         <v>41</v>
       </c>
       <c r="F13" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -2084,7 +2060,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="K13">
         <v>1.02535E+18</v>
@@ -2093,7 +2069,7 @@
         <v>1.02535E+18</v>
       </c>
       <c r="M13" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="P13">
         <v>7.56E+17</v>
@@ -2105,28 +2081,28 @@
         <v>0</v>
       </c>
       <c r="S13" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="T13" t="s">
+        <v>188</v>
+      </c>
+      <c r="V13">
+        <v>0</v>
+      </c>
+      <c r="W13">
+        <v>0</v>
+      </c>
+      <c r="X13" t="s">
         <v>194</v>
       </c>
-      <c r="V13">
-        <v>0</v>
-      </c>
-      <c r="W13">
-        <v>0</v>
-      </c>
-      <c r="X13" t="s">
-        <v>201</v>
-      </c>
       <c r="Y13" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="Z13">
         <v>0</v>
       </c>
       <c r="AA13" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="AD13">
         <v>12</v>
@@ -2140,7 +2116,7 @@
         <v>42</v>
       </c>
       <c r="F14" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -2149,7 +2125,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="K14">
         <v>1.02534E+18</v>
@@ -2158,7 +2134,7 @@
         <v>1.02534E+18</v>
       </c>
       <c r="M14" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="P14">
         <v>7.56E+17</v>
@@ -2170,28 +2146,28 @@
         <v>0</v>
       </c>
       <c r="S14" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="T14" t="s">
+        <v>188</v>
+      </c>
+      <c r="V14">
+        <v>0</v>
+      </c>
+      <c r="W14">
+        <v>0</v>
+      </c>
+      <c r="X14" t="s">
         <v>194</v>
       </c>
-      <c r="V14">
-        <v>0</v>
-      </c>
-      <c r="W14">
-        <v>0</v>
-      </c>
-      <c r="X14" t="s">
-        <v>201</v>
-      </c>
       <c r="Y14" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="Z14">
         <v>0</v>
       </c>
       <c r="AA14" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="AD14">
         <v>13</v>
@@ -2205,10 +2181,10 @@
         <v>43</v>
       </c>
       <c r="E15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F15" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -2217,7 +2193,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="K15">
         <v>1.03925889804846E+18</v>
@@ -2229,25 +2205,25 @@
         <v>0</v>
       </c>
       <c r="S15" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="T15" t="s">
+        <v>188</v>
+      </c>
+      <c r="V15">
+        <v>0</v>
+      </c>
+      <c r="W15">
+        <v>0</v>
+      </c>
+      <c r="X15" t="s">
         <v>194</v>
       </c>
-      <c r="V15">
-        <v>0</v>
-      </c>
-      <c r="W15">
-        <v>0</v>
-      </c>
-      <c r="X15" t="s">
-        <v>201</v>
-      </c>
       <c r="Z15">
         <v>0</v>
       </c>
       <c r="AA15" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="AD15">
         <v>14</v>
@@ -2261,10 +2237,10 @@
         <v>44</v>
       </c>
       <c r="E16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F16" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -2273,7 +2249,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="K16">
         <v>1.03927026045154E+18</v>
@@ -2282,7 +2258,7 @@
         <v>1.03927026045154E+18</v>
       </c>
       <c r="M16" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="P16">
         <v>7.5586998476147904E+17</v>
@@ -2294,10 +2270,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="T16" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="V16">
         <v>0</v>
@@ -2306,13 +2282,13 @@
         <v>0</v>
       </c>
       <c r="X16" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="Z16">
         <v>0</v>
       </c>
       <c r="AA16" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="AD16">
         <v>15</v>
@@ -2326,10 +2302,10 @@
         <v>45</v>
       </c>
       <c r="E17" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F17" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -2338,7 +2314,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="K17">
         <v>1.03939789674197E+18</v>
@@ -2350,25 +2326,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="T17" t="s">
+        <v>188</v>
+      </c>
+      <c r="V17">
+        <v>0</v>
+      </c>
+      <c r="W17">
+        <v>0</v>
+      </c>
+      <c r="X17" t="s">
         <v>194</v>
       </c>
-      <c r="V17">
-        <v>0</v>
-      </c>
-      <c r="W17">
-        <v>0</v>
-      </c>
-      <c r="X17" t="s">
-        <v>201</v>
-      </c>
       <c r="Z17">
         <v>0</v>
       </c>
       <c r="AA17" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="AD17">
         <v>16</v>
@@ -2382,10 +2358,10 @@
         <v>46</v>
       </c>
       <c r="E18" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F18" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -2394,7 +2370,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="K18">
         <v>1.03939936397241E+18</v>
@@ -2406,25 +2382,25 @@
         <v>0</v>
       </c>
       <c r="S18" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="T18" t="s">
+        <v>188</v>
+      </c>
+      <c r="V18">
+        <v>0</v>
+      </c>
+      <c r="W18">
+        <v>0</v>
+      </c>
+      <c r="X18" t="s">
         <v>194</v>
       </c>
-      <c r="V18">
-        <v>0</v>
-      </c>
-      <c r="W18">
-        <v>0</v>
-      </c>
-      <c r="X18" t="s">
-        <v>201</v>
-      </c>
       <c r="Z18">
         <v>0</v>
       </c>
       <c r="AA18" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="AD18">
         <v>17</v>
@@ -2438,10 +2414,10 @@
         <v>47</v>
       </c>
       <c r="E19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F19" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -2450,7 +2426,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="K19">
         <v>1.04052917187161E+18</v>
@@ -2459,7 +2435,7 @@
         <v>1.04052917187161E+18</v>
       </c>
       <c r="M19" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="P19">
         <v>7.5586998476147904E+17</v>
@@ -2471,10 +2447,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="T19" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="V19">
         <v>0</v>
@@ -2483,13 +2459,13 @@
         <v>0</v>
       </c>
       <c r="X19" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="Z19">
         <v>0</v>
       </c>
       <c r="AA19" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="AD19">
         <v>18</v>
@@ -2503,10 +2479,10 @@
         <v>48</v>
       </c>
       <c r="E20" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F20" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -2515,7 +2491,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="K20">
         <v>1.04091407378382E+18</v>
@@ -2524,7 +2500,7 @@
         <v>1.04091407378382E+18</v>
       </c>
       <c r="M20" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="P20">
         <v>7.5586998476147904E+17</v>
@@ -2536,11 +2512,11 @@
         <v>0</v>
       </c>
       <c r="S20" t="s">
+        <v>185</v>
+      </c>
+      <c r="T20" t="s">
         <v>190</v>
       </c>
-      <c r="T20" t="s">
-        <v>196</v>
-      </c>
       <c r="V20">
         <v>0</v>
       </c>
@@ -2548,13 +2524,13 @@
         <v>0</v>
       </c>
       <c r="X20" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="Z20">
         <v>0</v>
       </c>
       <c r="AA20" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="AD20">
         <v>19</v>
@@ -2568,10 +2544,10 @@
         <v>49</v>
       </c>
       <c r="E21" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F21" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -2580,7 +2556,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="K21">
         <v>1.04095503228649E+18</v>
@@ -2589,7 +2565,7 @@
         <v>1.04095503228649E+18</v>
       </c>
       <c r="M21" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="P21">
         <v>7.5586998476147904E+17</v>
@@ -2601,11 +2577,11 @@
         <v>0</v>
       </c>
       <c r="S21" t="s">
+        <v>185</v>
+      </c>
+      <c r="T21" t="s">
         <v>190</v>
       </c>
-      <c r="T21" t="s">
-        <v>196</v>
-      </c>
       <c r="V21">
         <v>0</v>
       </c>
@@ -2613,13 +2589,13 @@
         <v>0</v>
       </c>
       <c r="X21" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="Z21">
         <v>0</v>
       </c>
       <c r="AA21" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="AD21">
         <v>20</v>
@@ -2633,10 +2609,10 @@
         <v>50</v>
       </c>
       <c r="E22" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F22" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -2645,7 +2621,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="K22">
         <v>1.0409756817510799E+18</v>
@@ -2654,7 +2630,7 @@
         <v>1.0409756817510799E+18</v>
       </c>
       <c r="M22" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="P22">
         <v>7.5586998476147904E+17</v>
@@ -2666,10 +2642,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="T22" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="V22">
         <v>0</v>
@@ -2678,13 +2654,13 @@
         <v>0</v>
       </c>
       <c r="X22" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="Z22">
         <v>0</v>
       </c>
       <c r="AA22" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
     </row>
     <row r="23" spans="1:30" x14ac:dyDescent="0.25">
@@ -2695,10 +2671,10 @@
         <v>51</v>
       </c>
       <c r="E23" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F23" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -2707,7 +2683,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="K23">
         <v>1.04099669398517E+18</v>
@@ -2716,7 +2692,7 @@
         <v>1.04099669398517E+18</v>
       </c>
       <c r="M23" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="P23">
         <v>7.5586998476147904E+17</v>
@@ -2728,10 +2704,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="T23" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="V23">
         <v>0</v>
@@ -2740,13 +2716,13 @@
         <v>0</v>
       </c>
       <c r="X23" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="Z23">
         <v>0</v>
       </c>
       <c r="AA23" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
     </row>
     <row r="24" spans="1:30" x14ac:dyDescent="0.25">
@@ -2757,10 +2733,10 @@
         <v>52</v>
       </c>
       <c r="E24" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F24" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -2769,7 +2745,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="K24">
         <v>1.04099943330603E+18</v>
@@ -2778,7 +2754,7 @@
         <v>1.04099943330603E+18</v>
       </c>
       <c r="M24" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="P24">
         <v>7.5586998476147904E+17</v>
@@ -2790,10 +2766,10 @@
         <v>0</v>
       </c>
       <c r="S24" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="T24" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="V24">
         <v>0</v>
@@ -2802,13 +2778,13 @@
         <v>0</v>
       </c>
       <c r="X24" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="Z24">
         <v>0</v>
       </c>
       <c r="AA24" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
     </row>
     <row r="25" spans="1:30" x14ac:dyDescent="0.25">
@@ -2819,10 +2795,10 @@
         <v>53</v>
       </c>
       <c r="E25" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F25" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -2831,7 +2807,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="K25">
         <v>1.04130316927026E+18</v>
@@ -2840,7 +2816,7 @@
         <v>1.04130316927026E+18</v>
       </c>
       <c r="M25" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="P25">
         <v>7.5586998476147904E+17</v>
@@ -2852,11 +2828,11 @@
         <v>0</v>
       </c>
       <c r="S25" t="s">
+        <v>185</v>
+      </c>
+      <c r="T25" t="s">
         <v>190</v>
       </c>
-      <c r="T25" t="s">
-        <v>196</v>
-      </c>
       <c r="V25">
         <v>0</v>
       </c>
@@ -2864,13 +2840,13 @@
         <v>0</v>
       </c>
       <c r="X25" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="Z25">
         <v>0</v>
       </c>
       <c r="AA25" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
     </row>
     <row r="26" spans="1:30" x14ac:dyDescent="0.25">
@@ -2881,10 +2857,10 @@
         <v>54</v>
       </c>
       <c r="E26" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F26" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G26">
         <v>0</v>
@@ -2893,7 +2869,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="K26">
         <v>1.04161890747859E+18</v>
@@ -2902,7 +2878,7 @@
         <v>1.04161890747859E+18</v>
       </c>
       <c r="M26" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="P26">
         <v>7.5586998476147904E+17</v>
@@ -2914,11 +2890,11 @@
         <v>0</v>
       </c>
       <c r="S26" t="s">
+        <v>185</v>
+      </c>
+      <c r="T26" t="s">
         <v>190</v>
       </c>
-      <c r="T26" t="s">
-        <v>196</v>
-      </c>
       <c r="V26">
         <v>0</v>
       </c>
@@ -2926,13 +2902,13 @@
         <v>0</v>
       </c>
       <c r="X26" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="Z26">
         <v>0</v>
       </c>
       <c r="AA26" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
     </row>
     <row r="27" spans="1:30" x14ac:dyDescent="0.25">
@@ -2943,10 +2919,10 @@
         <v>55</v>
       </c>
       <c r="E27" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F27" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G27">
         <v>0</v>
@@ -2955,7 +2931,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="K27">
         <v>1.0421208260264399E+18</v>
@@ -2967,11 +2943,11 @@
         <v>0</v>
       </c>
       <c r="S27" t="s">
+        <v>185</v>
+      </c>
+      <c r="T27" t="s">
         <v>190</v>
       </c>
-      <c r="T27" t="s">
-        <v>196</v>
-      </c>
       <c r="V27">
         <v>0</v>
       </c>
@@ -2979,13 +2955,13 @@
         <v>0</v>
       </c>
       <c r="X27" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="Z27">
         <v>0</v>
       </c>
       <c r="AA27" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
     </row>
     <row r="28" spans="1:30" x14ac:dyDescent="0.25">
@@ -2996,10 +2972,10 @@
         <v>56</v>
       </c>
       <c r="E28" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F28" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G28">
         <v>0</v>
@@ -3008,7 +2984,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="K28">
         <v>1.04212293392425E+18</v>
@@ -3020,11 +2996,11 @@
         <v>0</v>
       </c>
       <c r="S28" t="s">
+        <v>185</v>
+      </c>
+      <c r="T28" t="s">
         <v>190</v>
       </c>
-      <c r="T28" t="s">
-        <v>196</v>
-      </c>
       <c r="V28">
         <v>0</v>
       </c>
@@ -3032,13 +3008,13 @@
         <v>0</v>
       </c>
       <c r="X28" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="Z28">
         <v>0</v>
       </c>
       <c r="AA28" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
     </row>
     <row r="29" spans="1:30" x14ac:dyDescent="0.25">
@@ -3049,10 +3025,10 @@
         <v>57</v>
       </c>
       <c r="E29" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F29" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="G29">
         <v>0</v>
@@ -3061,7 +3037,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="K29">
         <v>1.04213243375011E+18</v>
@@ -3073,10 +3049,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="T29" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="V29">
         <v>0</v>
@@ -3085,13 +3061,13 @@
         <v>0</v>
       </c>
       <c r="X29" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="Z29">
         <v>0</v>
       </c>
       <c r="AA29" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
     </row>
     <row r="30" spans="1:30" x14ac:dyDescent="0.25">
@@ -3102,10 +3078,10 @@
         <v>58</v>
       </c>
       <c r="E30" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F30" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G30">
         <v>0</v>
@@ -3114,7 +3090,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="K30">
         <v>1.04214621498736E+18</v>
@@ -3126,10 +3102,10 @@
         <v>0</v>
       </c>
       <c r="S30" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="T30" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="V30">
         <v>0</v>
@@ -3138,13 +3114,13 @@
         <v>0</v>
       </c>
       <c r="X30" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="Z30">
         <v>0</v>
       </c>
       <c r="AA30" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
     </row>
     <row r="31" spans="1:30" x14ac:dyDescent="0.25">
@@ -3155,10 +3131,10 @@
         <v>59</v>
       </c>
       <c r="E31" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F31" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G31">
         <v>0</v>
@@ -3167,7 +3143,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="K31">
         <v>1.04215457531322E+18</v>
@@ -3179,25 +3155,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="T31" t="s">
+        <v>189</v>
+      </c>
+      <c r="V31">
+        <v>0</v>
+      </c>
+      <c r="W31">
+        <v>0</v>
+      </c>
+      <c r="X31" t="s">
         <v>195</v>
       </c>
-      <c r="V31">
-        <v>0</v>
-      </c>
-      <c r="W31">
-        <v>0</v>
-      </c>
-      <c r="X31" t="s">
-        <v>202</v>
-      </c>
       <c r="Z31">
         <v>0</v>
       </c>
       <c r="AA31" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
     </row>
     <row r="32" spans="1:30" x14ac:dyDescent="0.25">
@@ -3208,10 +3184,10 @@
         <v>60</v>
       </c>
       <c r="E32" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F32" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G32">
         <v>0</v>
@@ -3220,7 +3196,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="K32">
         <v>1.04240254485998E+18</v>
@@ -3229,7 +3205,7 @@
         <v>1.04240254485998E+18</v>
       </c>
       <c r="M32" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="P32">
         <v>7.5586998476147904E+17</v>
@@ -3241,10 +3217,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="T32" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="V32">
         <v>0</v>
@@ -3253,13 +3229,13 @@
         <v>0</v>
       </c>
       <c r="X32" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="Z32">
         <v>0</v>
       </c>
       <c r="AA32" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.25">
@@ -3270,10 +3246,10 @@
         <v>61</v>
       </c>
       <c r="E33" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F33" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G33">
         <v>0</v>
@@ -3282,7 +3258,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="K33">
         <v>1.04289248238259E+18</v>
@@ -3291,7 +3267,7 @@
         <v>1.04289248238259E+18</v>
       </c>
       <c r="M33" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="P33">
         <v>7.5586998476147904E+17</v>
@@ -3303,10 +3279,10 @@
         <v>0</v>
       </c>
       <c r="S33" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="T33" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="V33">
         <v>0</v>
@@ -3315,13 +3291,13 @@
         <v>0</v>
       </c>
       <c r="X33" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="Z33">
         <v>0</v>
       </c>
       <c r="AA33" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.25">
@@ -3332,10 +3308,10 @@
         <v>62</v>
       </c>
       <c r="E34" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F34" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G34">
         <v>0</v>
@@ -3344,7 +3320,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="K34">
         <v>1.04289511037834E+18</v>
@@ -3356,10 +3332,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="T34" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="V34">
         <v>0</v>
@@ -3368,13 +3344,13 @@
         <v>0</v>
       </c>
       <c r="X34" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="Z34">
         <v>0</v>
       </c>
       <c r="AA34" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.25">
@@ -3385,10 +3361,10 @@
         <v>63</v>
       </c>
       <c r="E35" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F35" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G35">
         <v>0</v>
@@ -3397,7 +3373,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="K35">
         <v>1.04289591518558E+18</v>
@@ -3409,10 +3385,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="T35" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="V35">
         <v>0</v>
@@ -3421,13 +3397,13 @@
         <v>0</v>
       </c>
       <c r="X35" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="Z35">
         <v>0</v>
       </c>
       <c r="AA35" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.25">
@@ -3438,10 +3414,10 @@
         <v>64</v>
       </c>
       <c r="E36" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F36" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G36">
         <v>0</v>
@@ -3450,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="K36">
         <v>1.04289966468784E+18</v>
@@ -3462,11 +3438,11 @@
         <v>0</v>
       </c>
       <c r="S36" t="s">
+        <v>185</v>
+      </c>
+      <c r="T36" t="s">
         <v>190</v>
       </c>
-      <c r="T36" t="s">
-        <v>196</v>
-      </c>
       <c r="V36">
         <v>0</v>
       </c>
@@ -3474,13 +3450,13 @@
         <v>0</v>
       </c>
       <c r="X36" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="Z36">
         <v>0</v>
       </c>
       <c r="AA36" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.25">
@@ -3491,10 +3467,10 @@
         <v>65</v>
       </c>
       <c r="E37" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F37" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G37">
         <v>0</v>
@@ -3503,7 +3479,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="K37">
         <v>1.04571404957141E+18</v>
@@ -3512,7 +3488,7 @@
         <v>1.04571404957141E+18</v>
       </c>
       <c r="M37" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="P37">
         <v>7.5586998476147904E+17</v>
@@ -3524,10 +3500,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="T37" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="V37">
         <v>0</v>
@@ -3536,13 +3512,13 @@
         <v>0</v>
       </c>
       <c r="X37" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="Z37">
         <v>0</v>
       </c>
       <c r="AA37" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.25">
@@ -3553,10 +3529,10 @@
         <v>66</v>
       </c>
       <c r="E38" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F38" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G38">
         <v>0</v>
@@ -3565,7 +3541,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="K38">
         <v>1.04597094786449E+18</v>
@@ -3574,7 +3550,7 @@
         <v>1.04597094786449E+18</v>
       </c>
       <c r="M38" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="P38">
         <v>7.5586998476147904E+17</v>
@@ -3586,11 +3562,11 @@
         <v>0</v>
       </c>
       <c r="S38" t="s">
+        <v>186</v>
+      </c>
+      <c r="T38" t="s">
         <v>191</v>
       </c>
-      <c r="T38" t="s">
-        <v>197</v>
-      </c>
       <c r="V38">
         <v>0</v>
       </c>
@@ -3598,13 +3574,13 @@
         <v>0</v>
       </c>
       <c r="X38" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="Z38">
         <v>0</v>
       </c>
       <c r="AA38" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.25">
@@ -3615,10 +3591,10 @@
         <v>67</v>
       </c>
       <c r="E39" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F39" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="G39">
         <v>0</v>
@@ -3627,7 +3603,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="K39">
         <v>1.046184223948837E+18</v>
@@ -3639,11 +3615,11 @@
         <v>0</v>
       </c>
       <c r="S39" t="s">
+        <v>185</v>
+      </c>
+      <c r="T39" t="s">
         <v>190</v>
       </c>
-      <c r="T39" t="s">
-        <v>196</v>
-      </c>
       <c r="V39">
         <v>0</v>
       </c>
@@ -3651,13 +3627,13 @@
         <v>0</v>
       </c>
       <c r="X39" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="Z39">
         <v>0</v>
       </c>
       <c r="AA39" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.25">
@@ -3668,10 +3644,10 @@
         <v>68</v>
       </c>
       <c r="E40" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F40" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G40">
         <v>0</v>
@@ -3680,7 +3656,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="K40">
         <v>1.046192436270305E+18</v>
@@ -3692,10 +3668,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="T40" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="V40">
         <v>0</v>
@@ -3704,13 +3680,13 @@
         <v>0</v>
       </c>
       <c r="X40" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="Z40">
         <v>0</v>
       </c>
       <c r="AA40" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.25">
@@ -3721,10 +3697,10 @@
         <v>69</v>
       </c>
       <c r="E41" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F41" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="G41">
         <v>0</v>
@@ -3733,7 +3709,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="K41">
         <v>1.04619482541711E+18</v>
@@ -3745,11 +3721,11 @@
         <v>0</v>
       </c>
       <c r="S41" t="s">
+        <v>185</v>
+      </c>
+      <c r="T41" t="s">
         <v>190</v>
       </c>
-      <c r="T41" t="s">
-        <v>196</v>
-      </c>
       <c r="V41">
         <v>0</v>
       </c>
@@ -3757,13 +3733,13 @@
         <v>0</v>
       </c>
       <c r="X41" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="Z41">
         <v>0</v>
       </c>
       <c r="AA41" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.25">
@@ -3774,10 +3750,10 @@
         <v>70</v>
       </c>
       <c r="E42" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F42" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G42">
         <v>0</v>
@@ -3786,7 +3762,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="K42">
         <v>1.04619675086696E+18</v>
@@ -3795,7 +3771,7 @@
         <v>1.04619675086696E+18</v>
       </c>
       <c r="M42" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="P42">
         <v>7.5586998476147917E+17</v>
@@ -3807,11 +3783,11 @@
         <v>0</v>
       </c>
       <c r="S42" t="s">
+        <v>186</v>
+      </c>
+      <c r="T42" t="s">
         <v>191</v>
       </c>
-      <c r="T42" t="s">
-        <v>197</v>
-      </c>
       <c r="V42">
         <v>0</v>
       </c>
@@ -3819,13 +3795,13 @@
         <v>0</v>
       </c>
       <c r="X42" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="Z42">
         <v>0</v>
       </c>
       <c r="AA42" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
     </row>
     <row r="43" spans="1:27" x14ac:dyDescent="0.25">
@@ -3836,10 +3812,10 @@
         <v>71</v>
       </c>
       <c r="E43" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F43" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G43">
         <v>0</v>
@@ -3848,7 +3824,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="K43">
         <v>1.046306995345785E+18</v>
@@ -3857,7 +3833,7 @@
         <v>1.046306995345785E+18</v>
       </c>
       <c r="M43" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="P43">
         <v>7.5586998476147917E+17</v>
@@ -3869,11 +3845,11 @@
         <v>0</v>
       </c>
       <c r="S43" t="s">
+        <v>185</v>
+      </c>
+      <c r="T43" t="s">
         <v>190</v>
       </c>
-      <c r="T43" t="s">
-        <v>196</v>
-      </c>
       <c r="V43">
         <v>0</v>
       </c>
@@ -3881,13 +3857,13 @@
         <v>0</v>
       </c>
       <c r="X43" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="Z43">
         <v>0</v>
       </c>
       <c r="AA43" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
     </row>
     <row r="44" spans="1:27" x14ac:dyDescent="0.25">
@@ -3898,10 +3874,10 @@
         <v>72</v>
       </c>
       <c r="E44" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F44" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G44">
         <v>0</v>
@@ -3910,7 +3886,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="K44">
         <v>1.0464650029479651E+18</v>
@@ -3919,7 +3895,7 @@
         <v>1.0464650029479651E+18</v>
       </c>
       <c r="M44" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="P44">
         <v>7.5586998476147917E+17</v>
@@ -3931,11 +3907,11 @@
         <v>0</v>
       </c>
       <c r="S44" t="s">
+        <v>186</v>
+      </c>
+      <c r="T44" t="s">
         <v>191</v>
       </c>
-      <c r="T44" t="s">
-        <v>197</v>
-      </c>
       <c r="V44">
         <v>0</v>
       </c>
@@ -3943,27 +3919,27 @@
         <v>0</v>
       </c>
       <c r="X44" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="Z44">
         <v>0</v>
       </c>
       <c r="AA44" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
     </row>
     <row r="45" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D45" t="s">
         <v>73</v>
       </c>
       <c r="E45" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F45" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G45">
         <v>0</v>
@@ -3972,37 +3948,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="s">
+        <v>181</v>
+      </c>
+      <c r="K45">
+        <v>1.047572816965591E+18</v>
+      </c>
+      <c r="L45" t="s">
+        <v>182</v>
+      </c>
+      <c r="M45" t="s">
+        <v>183</v>
+      </c>
+      <c r="P45">
+        <v>7.5586998476147917E+17</v>
+      </c>
+      <c r="Q45" t="s">
         <v>184</v>
       </c>
-      <c r="K45">
-        <v>1.047571257405919E+18</v>
-      </c>
-      <c r="L45">
-        <v>1.047571257405919E+18</v>
-      </c>
-      <c r="M45" t="s">
-        <v>188</v>
-      </c>
-      <c r="N45">
-        <v>1.0475696006517149E+18</v>
-      </c>
-      <c r="O45">
-        <v>1.047569600651714E+18</v>
-      </c>
-      <c r="P45">
-        <v>2842987192</v>
-      </c>
-      <c r="Q45">
-        <v>2842987192</v>
-      </c>
       <c r="R45">
         <v>0</v>
       </c>
       <c r="S45" t="s">
+        <v>187</v>
+      </c>
+      <c r="T45" t="s">
         <v>192</v>
       </c>
-      <c r="T45" t="s">
-        <v>198</v>
+      <c r="U45" t="s">
+        <v>193</v>
       </c>
       <c r="V45">
         <v>0</v>
@@ -4011,78 +3984,13 @@
         <v>0</v>
       </c>
       <c r="X45" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="Z45">
         <v>0</v>
       </c>
       <c r="AA45" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="46" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A46" s="1">
-        <v>45</v>
-      </c>
-      <c r="D46" t="s">
-        <v>74</v>
-      </c>
-      <c r="E46" t="s">
-        <v>104</v>
-      </c>
-      <c r="F46" t="s">
-        <v>141</v>
-      </c>
-      <c r="G46">
-        <v>0</v>
-      </c>
-      <c r="H46">
-        <v>0</v>
-      </c>
-      <c r="I46" t="s">
-        <v>185</v>
-      </c>
-      <c r="K46">
-        <v>1.047572816965591E+18</v>
-      </c>
-      <c r="L46" t="s">
-        <v>186</v>
-      </c>
-      <c r="M46" t="s">
-        <v>187</v>
-      </c>
-      <c r="P46">
-        <v>7.5586998476147917E+17</v>
-      </c>
-      <c r="Q46" t="s">
-        <v>189</v>
-      </c>
-      <c r="R46">
-        <v>0</v>
-      </c>
-      <c r="S46" t="s">
-        <v>193</v>
-      </c>
-      <c r="T46" t="s">
-        <v>199</v>
-      </c>
-      <c r="U46" t="s">
-        <v>200</v>
-      </c>
-      <c r="V46">
-        <v>0</v>
-      </c>
-      <c r="W46">
-        <v>0</v>
-      </c>
-      <c r="X46" t="s">
-        <v>203</v>
-      </c>
-      <c r="Z46">
-        <v>0</v>
-      </c>
-      <c r="AA46" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
     </row>
   </sheetData>

--- a/master.xlsx
+++ b/master.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="333">
   <si>
     <t>contributors</t>
   </si>
@@ -857,13 +857,321 @@
 [Ziehe noch eine fakenewz karte]</t>
   </si>
   <si>
-    <t>1047768386091012096</t>
-  </si>
-  <si>
-    <t>755869984761479168</t>
-  </si>
-  <si>
     <t>{'created_at': 'Wed Jul 11 18:48:31 +0000 2018', 'statuses_count': 136, 'follow_request_sent': False, 'time_zone': None, 'id_str': '1017118454711771136', 'default_profile_image': False, 'contributors_enabled': False, 'protected': False, 'profile_background_color': '000000', 'is_translator': False, 'friends_count': 14, 'entities': {'url': {'urls': [{'display_url': 'world-control.net', 'url': 'https://t.co/AgubHQIUXe', 'expanded_url': 'http://world-control.net', 'indices': [0, 23]}]}, 'description': {'urls': []}}, 'profile_image_url_https': 'https://pbs.twimg.com/profile_images/1041036258745765890/C-8rzdz5_normal.jpg', 'listed_count': 0, 'favourites_count': 7, 'url': 'https://t.co/AgubHQIUXe', 'profile_sidebar_fill_color': '000000', 'notifications': False, 'id': 1017118454711771136, 'profile_background_image_url_https': 'https://abs.twimg.com/images/themes/theme1/bg.png', 'has_extended_profile': False, 'profile_background_image_url': 'http://abs.twimg.com/images/themes/theme1/bg.png', 'profile_use_background_image': False, 'profile_image_url': 'http://pbs.twimg.com/profile_images/1041036258745765890/C-8rzdz5_normal.jpg', 'is_translation_enabled': False, 'default_profile': False, 'location': 'Moscow, Russia', 'lang': 'en', 'utc_offset': None, 'profile_banner_url': 'https://pbs.twimg.com/profile_banners/1017118454711771136/1535920961', 'screen_name': 'MinisterVlatin', 'followers_count': 6, 'following': False, 'geo_enabled': False, 'profile_sidebar_border_color': '000000', 'verified': False, 'name': 'Minister Vlatin', 'profile_text_color': '000000', 'translator_type': 'none', 'description': 'Seizing @truWorldControl by spreading #fakenewz. #proudtobeabot 🤖 by @RKalcik', 'profile_link_color': '000000', 'profile_background_tile': False}</t>
+  </si>
+  <si>
+    <t>Thu Oct 04 09:47:56 +0000 2018</t>
+  </si>
+  <si>
+    <t>[0, 76]</t>
+  </si>
+  <si>
+    <t>{'urls': [], 'hashtags': [{'indices': [17, 26], 'text': 'fakenewz'}], 'user_mentions': [{'screen_name': 'truWorldControl', 'indices': [0, 16], 'id_str': '755869984761479168', 'id': 755869984761479168, 'name': 'WorldControl  🎲🎲'}], 'symbols': []}</t>
+  </si>
+  <si>
+    <t>@truWorldControl #fakenewz
+Supreme Judgement:
+I like beer ❤️
+[New york +1 🍺]</t>
+  </si>
+  <si>
+    <t>{'utc_offset': None, 'id': 1017118454711771136, 'translator_type': 'none', 'description': 'Seizing @truWorldControl by spreading #fakenewz. #proudtobeabot 🤖 by @RKalcik', 'contributors_enabled': False, 'has_extended_profile': False, 'profile_use_background_image': False, 'lang': 'en', 'time_zone': None, 'followers_count': 6, 'profile_background_image_url_https': 'https://abs.twimg.com/images/themes/theme1/bg.png', 'url': 'https://t.co/AgubHQIUXe', 'favourites_count': 7, 'profile_background_color': '000000', 'profile_image_url_https': 'https://pbs.twimg.com/profile_images/1041036258745765890/C-8rzdz5_normal.jpg', 'name': 'Minister Vlatin', 'id_str': '1017118454711771136', 'profile_background_tile': False, 'geo_enabled': False, 'profile_image_url': 'http://pbs.twimg.com/profile_images/1041036258745765890/C-8rzdz5_normal.jpg', 'profile_banner_url': 'https://pbs.twimg.com/profile_banners/1017118454711771136/1535920961', 'protected': False, 'notifications': False, 'is_translator': False, 'entities': {'url': {'urls': [{'url': 'https://t.co/AgubHQIUXe', 'expanded_url': 'http://world-control.net', 'indices': [0, 23], 'display_url': 'world-control.net'}]}, 'description': {'urls': []}}, 'profile_text_color': '000000', 'follow_request_sent': False, 'default_profile': False, 'profile_link_color': '000000', 'listed_count': 0, 'location': 'Moscow, Russia', 'friends_count': 14, 'created_at': 'Wed Jul 11 18:48:31 +0000 2018', 'verified': False, 'profile_sidebar_fill_color': '000000', 'profile_background_image_url': 'http://abs.twimg.com/images/themes/theme1/bg.png', 'following': False, 'screen_name': 'MinisterVlatin', 'profile_sidebar_border_color': '000000', 'statuses_count': 138, 'default_profile_image': False, 'is_translation_enabled': False}</t>
+  </si>
+  <si>
+    <t>Thu Oct 04 18:26:30 +0000 2018</t>
+  </si>
+  <si>
+    <t>[0, 140]</t>
+  </si>
+  <si>
+    <t>@truWorldControl #fakenewz
+Put on your dance shoes
+The British prime mister dances on stage: a weapon of mass distraction. 
+[London +1 arms]</t>
+  </si>
+  <si>
+    <t>{'utc_offset': None, 'id': 1017118454711771136, 'translator_type': 'none', 'description': 'Seizing @truWorldControl by spreading #fakenewz. #proudtobeabot 🤖 by @RKalcik', 'contributors_enabled': False, 'has_extended_profile': False, 'profile_use_background_image': False, 'lang': 'en', 'time_zone': None, 'followers_count': 6, 'profile_background_image_url_https': 'https://abs.twimg.com/images/themes/theme1/bg.png', 'url': 'https://t.co/AgubHQIUXe', 'favourites_count': 7, 'profile_background_color': '000000', 'profile_image_url_https': 'https://pbs.twimg.com/profile_images/1041036258745765890/C-8rzdz5_normal.jpg', 'name': 'Minister Vlatin', 'id_str': '1017118454711771136', 'profile_background_tile': False, 'geo_enabled': False, 'profile_image_url': 'http://pbs.twimg.com/profile_images/1041036258745765890/C-8rzdz5_normal.jpg', 'profile_banner_url': 'https://pbs.twimg.com/profile_banners/1017118454711771136/1535920961', 'protected': False, 'notifications': False, 'is_translator': False, 'entities': {'url': {'urls': [{'url': 'https://t.co/AgubHQIUXe', 'expanded_url': 'http://world-control.net', 'indices': [0, 23], 'display_url': 'world-control.net'}]}, 'description': {'urls': []}}, 'profile_text_color': '000000', 'follow_request_sent': False, 'default_profile': False, 'profile_link_color': '000000', 'listed_count': 0, 'location': 'Moscow, Russia', 'friends_count': 14, 'created_at': 'Wed Jul 11 18:48:31 +0000 2018', 'verified': False, 'profile_sidebar_fill_color': '000000', 'profile_background_image_url': 'http://abs.twimg.com/images/themes/theme1/bg.png', 'following': False, 'screen_name': 'MinisterVlatin', 'profile_sidebar_border_color': '000000', 'statuses_count': 141, 'default_profile_image': False, 'is_translation_enabled': False}</t>
+  </si>
+  <si>
+    <t>Thu Oct 04 19:01:18 +0000 2018</t>
+  </si>
+  <si>
+    <t>[0, 80]</t>
+  </si>
+  <si>
+    <t>@truWorldControl #fakenewz
+Industry fuck.0
+[player with most tech &amp;gt; +1 corpz]</t>
+  </si>
+  <si>
+    <t>{'utc_offset': None, 'id': 1017118454711771136, 'translator_type': 'none', 'description': 'Seizing @truWorldControl by spreading #fakenewz. #proudtobeabot 🤖 by @RKalcik', 'contributors_enabled': False, 'has_extended_profile': False, 'profile_use_background_image': False, 'lang': 'en', 'time_zone': None, 'followers_count': 6, 'profile_background_image_url_https': 'https://abs.twimg.com/images/themes/theme1/bg.png', 'url': 'https://t.co/AgubHQIUXe', 'favourites_count': 7, 'profile_background_color': '000000', 'profile_image_url_https': 'https://pbs.twimg.com/profile_images/1041036258745765890/C-8rzdz5_normal.jpg', 'name': 'Minister Vlatin', 'id_str': '1017118454711771136', 'profile_background_tile': False, 'geo_enabled': False, 'profile_image_url': 'http://pbs.twimg.com/profile_images/1041036258745765890/C-8rzdz5_normal.jpg', 'profile_banner_url': 'https://pbs.twimg.com/profile_banners/1017118454711771136/1535920961', 'protected': False, 'notifications': False, 'is_translator': False, 'entities': {'url': {'urls': [{'url': 'https://t.co/AgubHQIUXe', 'expanded_url': 'http://world-control.net', 'indices': [0, 23], 'display_url': 'world-control.net'}]}, 'description': {'urls': []}}, 'profile_text_color': '000000', 'follow_request_sent': False, 'default_profile': False, 'profile_link_color': '000000', 'listed_count': 0, 'location': 'Moscow, Russia', 'friends_count': 14, 'created_at': 'Wed Jul 11 18:48:31 +0000 2018', 'verified': False, 'profile_sidebar_fill_color': '000000', 'profile_background_image_url': 'http://abs.twimg.com/images/themes/theme1/bg.png', 'following': False, 'screen_name': 'MinisterVlatin', 'profile_sidebar_border_color': '000000', 'statuses_count': 143, 'default_profile_image': False, 'is_translation_enabled': False}</t>
+  </si>
+  <si>
+    <t>Thu Oct 04 21:11:56 +0000 2018</t>
+  </si>
+  <si>
+    <t>@truWorldControl #fakenewz Astana becomes the new Las Vegas [Astana +100💰]</t>
+  </si>
+  <si>
+    <t>{'utc_offset': None, 'id': 1017118454711771136, 'translator_type': 'none', 'description': 'Seizing @truWorldControl by spreading #fakenewz. #proudtobeabot 🤖 by @RKalcik', 'contributors_enabled': False, 'has_extended_profile': False, 'profile_use_background_image': False, 'lang': 'en', 'time_zone': None, 'followers_count': 6, 'profile_background_image_url_https': 'https://abs.twimg.com/images/themes/theme1/bg.png', 'url': 'https://t.co/AgubHQIUXe', 'favourites_count': 7, 'profile_background_color': '000000', 'profile_image_url_https': 'https://pbs.twimg.com/profile_images/1041036258745765890/C-8rzdz5_normal.jpg', 'name': 'Minister Vlatin', 'id_str': '1017118454711771136', 'profile_background_tile': False, 'geo_enabled': False, 'profile_image_url': 'http://pbs.twimg.com/profile_images/1041036258745765890/C-8rzdz5_normal.jpg', 'profile_banner_url': 'https://pbs.twimg.com/profile_banners/1017118454711771136/1535920961', 'protected': False, 'notifications': False, 'is_translator': False, 'entities': {'url': {'urls': [{'url': 'https://t.co/AgubHQIUXe', 'expanded_url': 'http://world-control.net', 'indices': [0, 23], 'display_url': 'world-control.net'}]}, 'description': {'urls': []}}, 'profile_text_color': '000000', 'follow_request_sent': False, 'default_profile': False, 'profile_link_color': '000000', 'listed_count': 0, 'location': 'Moscow, Russia', 'friends_count': 14, 'created_at': 'Wed Jul 11 18:48:31 +0000 2018', 'verified': False, 'profile_sidebar_fill_color': '000000', 'profile_background_image_url': 'http://abs.twimg.com/images/themes/theme1/bg.png', 'following': False, 'screen_name': 'MinisterVlatin', 'profile_sidebar_border_color': '000000', 'statuses_count': 145, 'default_profile_image': False, 'is_translation_enabled': False}</t>
+  </si>
+  <si>
+    <t>Sat Oct 06 20:18:50 +0000 2018</t>
+  </si>
+  <si>
+    <t>[0, 124]</t>
+  </si>
+  <si>
+    <t>{'urls': [], 'hashtags': [{'indices': [115, 124], 'text': 'fakenewz'}], 'user_mentions': [{'screen_name': 'truWorldControl', 'indices': [98, 114], 'id_str': '755869984761479168', 'id': 755869984761479168, 'name': 'WorldControl  🎲🎲'}], 'symbols': []}</t>
+  </si>
+  <si>
+    <t>Wega-einsatz bei Kugelmugel wegen staatsfeindlicher world-control Verschwörung [Vienna - 1 corpz] @truWorldControl #fakenewz</t>
+  </si>
+  <si>
+    <t>{'utc_offset': None, 'id': 1017118454711771136, 'translator_type': 'none', 'description': 'Seizing @truWorldControl by spreading #fakenewz. #proudtobeabot 🤖 by @RKalcik', 'contributors_enabled': False, 'has_extended_profile': False, 'profile_use_background_image': False, 'lang': 'en', 'time_zone': None, 'followers_count': 7, 'profile_background_image_url_https': 'https://abs.twimg.com/images/themes/theme1/bg.png', 'url': 'https://t.co/AgubHQIUXe', 'favourites_count': 7, 'profile_background_color': '000000', 'profile_image_url_https': 'https://pbs.twimg.com/profile_images/1041036258745765890/C-8rzdz5_normal.jpg', 'name': 'Minister Vlatin', 'id_str': '1017118454711771136', 'profile_background_tile': False, 'geo_enabled': False, 'profile_image_url': 'http://pbs.twimg.com/profile_images/1041036258745765890/C-8rzdz5_normal.jpg', 'profile_banner_url': 'https://pbs.twimg.com/profile_banners/1017118454711771136/1535920961', 'protected': False, 'notifications': False, 'is_translator': False, 'entities': {'url': {'urls': [{'url': 'https://t.co/AgubHQIUXe', 'expanded_url': 'http://world-control.net', 'indices': [0, 23], 'display_url': 'world-control.net'}]}, 'description': {'urls': []}}, 'profile_text_color': '000000', 'follow_request_sent': False, 'default_profile': False, 'profile_link_color': '000000', 'listed_count': 0, 'location': 'Moscow, Russia', 'friends_count': 15, 'created_at': 'Wed Jul 11 18:48:31 +0000 2018', 'verified': False, 'profile_sidebar_fill_color': '000000', 'profile_background_image_url': 'http://abs.twimg.com/images/themes/theme1/bg.png', 'following': False, 'screen_name': 'MinisterVlatin', 'profile_sidebar_border_color': '000000', 'statuses_count': 147, 'default_profile_image': False, 'is_translation_enabled': False}</t>
+  </si>
+  <si>
+    <t>Thu Oct 11 19:48:02 +0000 2018</t>
+  </si>
+  <si>
+    <t>[0, 111]</t>
+  </si>
+  <si>
+    <t>@truWorldControl #fakenewz 
+Kanye Pest announces run for presidenzy
+BOW plummets 900 points
+[ New York - 900b ]</t>
+  </si>
+  <si>
+    <t>{'utc_offset': None, 'id': 1042401483759788032, 'translator_type': 'none', 'description': '♟️', 'contributors_enabled': False, 'has_extended_profile': True, 'profile_use_background_image': False, 'lang': 'en', 'time_zone': None, 'followers_count': 0, 'profile_background_image_url_https': 'https://abs.twimg.com/images/themes/theme1/bg.png', 'url': 'https://t.co/Gnj0QDj9c8', 'favourites_count': 1, 'profile_background_color': '000000', 'profile_image_url_https': 'https://pbs.twimg.com/profile_images/1042406021967298560/r5rbeGEh_normal.jpg', 'name': 'imago.im', 'id_str': '1042401483759788032', 'profile_background_tile': False, 'geo_enabled': False, 'profile_image_url': 'http://pbs.twimg.com/profile_images/1042406021967298560/r5rbeGEh_normal.jpg', 'profile_banner_url': 'https://pbs.twimg.com/profile_banners/1042401483759788032/1537364017', 'protected': False, 'notifications': False, 'is_translator': False, 'entities': {'url': {'urls': [{'url': 'https://t.co/Gnj0QDj9c8', 'expanded_url': 'http://imago.im', 'indices': [0, 23], 'display_url': 'imago.im'}]}, 'description': {'urls': []}}, 'profile_text_color': '000000', 'follow_request_sent': False, 'default_profile': False, 'profile_link_color': '000000', 'listed_count': 0, 'location': 'Vienna, Austria', 'friends_count': 2, 'created_at': 'Wed Sep 19 13:14:15 +0000 2018', 'verified': False, 'profile_sidebar_fill_color': '000000', 'profile_background_image_url': 'http://abs.twimg.com/images/themes/theme1/bg.png', 'following': False, 'screen_name': 'im_imago', 'profile_sidebar_border_color': '000000', 'statuses_count': 3, 'default_profile_image': False, 'is_translation_enabled': False}</t>
+  </si>
+  <si>
+    <t>Sat Oct 20 21:33:54 +0000 2018</t>
+  </si>
+  <si>
+    <t>[0, 91]</t>
+  </si>
+  <si>
+    <t>@truWorldControl #fakenewz Kanzler Short shits his pants. The world rejoices! [Vienna +1 🛬]</t>
+  </si>
+  <si>
+    <t>{'utc_offset': None, 'id': 1017118454711771136, 'translator_type': 'none', 'description': 'Seizing @truWorldControl by spreading #fakenewz. #proudtobeabot 🤖 by @RKalcik', 'contributors_enabled': False, 'has_extended_profile': False, 'profile_use_background_image': False, 'lang': 'en', 'time_zone': None, 'followers_count': 6, 'profile_background_image_url_https': 'https://abs.twimg.com/images/themes/theme1/bg.png', 'url': 'https://t.co/AgubHQIUXe', 'favourites_count': 7, 'profile_background_color': '000000', 'profile_image_url_https': 'https://pbs.twimg.com/profile_images/1041036258745765890/C-8rzdz5_normal.jpg', 'name': 'Minister Vlatin', 'id_str': '1017118454711771136', 'profile_background_tile': False, 'geo_enabled': False, 'profile_image_url': 'http://pbs.twimg.com/profile_images/1041036258745765890/C-8rzdz5_normal.jpg', 'profile_banner_url': 'https://pbs.twimg.com/profile_banners/1017118454711771136/1535920961', 'protected': False, 'notifications': False, 'is_translator': False, 'entities': {'url': {'urls': [{'url': 'https://t.co/AgubHQIUXe', 'expanded_url': 'http://world-control.net', 'indices': [0, 23], 'display_url': 'world-control.net'}]}, 'description': {'urls': []}}, 'profile_text_color': '000000', 'follow_request_sent': False, 'default_profile': False, 'profile_link_color': '000000', 'listed_count': 0, 'location': 'Moscow, Russia', 'friends_count': 17, 'created_at': 'Wed Jul 11 18:48:31 +0000 2018', 'verified': False, 'profile_sidebar_fill_color': '000000', 'profile_background_image_url': 'http://abs.twimg.com/images/themes/theme1/bg.png', 'following': False, 'screen_name': 'MinisterVlatin', 'profile_sidebar_border_color': '000000', 'statuses_count': 151, 'default_profile_image': False, 'is_translation_enabled': False}</t>
+  </si>
+  <si>
+    <t>Sun Oct 28 20:22:03 +0000 2018</t>
+  </si>
+  <si>
+    <t>[0, 117]</t>
+  </si>
+  <si>
+    <t>@truWorldControl #fakenewz
+Deutsche Schnitzel im Verhältnis deutlich kleiner als standardisierte Größe. [Vienna +1 🥒]</t>
+  </si>
+  <si>
+    <t>{'utc_offset': None, 'id': 109653288, 'translator_type': 'none', 'description': 'Hobbystreamer und Hobbyfotograf\nhttps://t.co/yGEyxB4Lis', 'contributors_enabled': False, 'has_extended_profile': True, 'profile_use_background_image': True, 'lang': 'de', 'time_zone': None, 'followers_count': 67, 'profile_background_image_url_https': 'https://abs.twimg.com/images/themes/theme1/bg.png', 'url': 'http://t.co/xEOO6k6Ear', 'favourites_count': 424, 'profile_background_color': 'C0DEED', 'profile_image_url_https': 'https://pbs.twimg.com/profile_images/606149162019766272/OhfzhVdW_normal.jpg', 'name': 'Nico Wichert', 'id_str': '109653288', 'profile_background_tile': False, 'geo_enabled': False, 'profile_image_url': 'http://pbs.twimg.com/profile_images/606149162019766272/OhfzhVdW_normal.jpg', 'default_profile_image': False, 'protected': False, 'notifications': False, 'is_translator': False, 'entities': {'url': {'urls': [{'url': 'http://t.co/xEOO6k6Ear', 'expanded_url': 'http://www.facebook.de/digidi', 'indices': [0, 22], 'display_url': 'facebook.de/digidi'}]}, 'description': {'urls': [{'url': 'https://t.co/yGEyxB4Lis', 'expanded_url': 'http://www.twitch.tv/digidi91', 'indices': [32, 55], 'display_url': 'twitch.tv/digidi91'}]}}, 'profile_text_color': '333333', 'follow_request_sent': False, 'default_profile': True, 'profile_link_color': '1DA1F2', 'listed_count': 4, 'location': 'Essen', 'friends_count': 129, 'created_at': 'Fri Jan 29 20:12:54 +0000 2010', 'verified': False, 'profile_sidebar_fill_color': 'DDEEF6', 'profile_background_image_url': 'http://abs.twimg.com/images/themes/theme1/bg.png', 'following': False, 'screen_name': 'Digidi91', 'profile_sidebar_border_color': 'C0DEED', 'statuses_count': 285, 'is_translation_enabled': False}</t>
+  </si>
+  <si>
+    <t>Mon Oct 29 15:14:06 +0000 2018</t>
+  </si>
+  <si>
+    <t>[0, 103]</t>
+  </si>
+  <si>
+    <t>{'urls': [], 'hashtags': [], 'user_mentions': [{'screen_name': 'truWorldControl', 'indices': [0, 16], 'id_str': '755869984761479168', 'id': 755869984761479168, 'name': 'WorldControl  🎲🎲'}], 'symbols': []}</t>
+  </si>
+  <si>
+    <t>@truWorldControl fakenewz
+Achse der Billigen
+Bayern gründet Biernation mit Östereich
+[ Vienna +1 🚘 -1🥦]</t>
+  </si>
+  <si>
+    <t>{'utc_offset': None, 'id': 1042401483759788032, 'translator_type': 'none', 'description': '♟️', 'contributors_enabled': False, 'has_extended_profile': True, 'profile_use_background_image': False, 'lang': 'en', 'time_zone': None, 'followers_count': 0, 'profile_background_image_url_https': 'https://abs.twimg.com/images/themes/theme1/bg.png', 'url': 'https://t.co/Gnj0QDj9c8', 'favourites_count': 2, 'profile_background_color': '000000', 'profile_image_url_https': 'https://pbs.twimg.com/profile_images/1042406021967298560/r5rbeGEh_normal.jpg', 'name': 'imago.im', 'id_str': '1042401483759788032', 'profile_background_tile': False, 'geo_enabled': False, 'profile_image_url': 'http://pbs.twimg.com/profile_images/1042406021967298560/r5rbeGEh_normal.jpg', 'profile_banner_url': 'https://pbs.twimg.com/profile_banners/1042401483759788032/1537364017', 'protected': False, 'notifications': False, 'is_translator': False, 'entities': {'url': {'urls': [{'url': 'https://t.co/Gnj0QDj9c8', 'expanded_url': 'http://imago.im', 'indices': [0, 23], 'display_url': 'imago.im'}]}, 'description': {'urls': []}}, 'profile_text_color': '000000', 'follow_request_sent': False, 'default_profile': False, 'profile_link_color': '000000', 'listed_count': 0, 'location': 'Vienna, Austria', 'friends_count': 3, 'created_at': 'Wed Sep 19 13:14:15 +0000 2018', 'verified': False, 'profile_sidebar_fill_color': '000000', 'profile_background_image_url': 'http://abs.twimg.com/images/themes/theme1/bg.png', 'following': False, 'screen_name': 'im_imago', 'profile_sidebar_border_color': '000000', 'statuses_count': 4, 'default_profile_image': False, 'is_translation_enabled': False}</t>
+  </si>
+  <si>
+    <t>Mon Oct 29 20:06:25 +0000 2018</t>
+  </si>
+  <si>
+    <t>@truWorldControl #fakenewz 
+Achse der Billigen
+Bayern &amp;amp; Österreich gründen Biernation
+[ Vienna +1 🚖 -1🥑]</t>
+  </si>
+  <si>
+    <t>{'utc_offset': None, 'id': 1042401483759788032, 'translator_type': 'none', 'description': '♟️', 'contributors_enabled': False, 'has_extended_profile': True, 'profile_use_background_image': False, 'lang': 'en', 'time_zone': None, 'followers_count': 0, 'profile_background_image_url_https': 'https://abs.twimg.com/images/themes/theme1/bg.png', 'url': 'https://t.co/Gnj0QDj9c8', 'favourites_count': 2, 'profile_background_color': '000000', 'profile_image_url_https': 'https://pbs.twimg.com/profile_images/1042406021967298560/r5rbeGEh_normal.jpg', 'name': 'imago.im', 'id_str': '1042401483759788032', 'profile_background_tile': False, 'geo_enabled': False, 'profile_image_url': 'http://pbs.twimg.com/profile_images/1042406021967298560/r5rbeGEh_normal.jpg', 'profile_banner_url': 'https://pbs.twimg.com/profile_banners/1042401483759788032/1537364017', 'protected': False, 'notifications': False, 'is_translator': False, 'entities': {'url': {'urls': [{'url': 'https://t.co/Gnj0QDj9c8', 'expanded_url': 'http://imago.im', 'indices': [0, 23], 'display_url': 'imago.im'}]}, 'description': {'urls': []}}, 'profile_text_color': '000000', 'follow_request_sent': False, 'default_profile': False, 'profile_link_color': '000000', 'listed_count': 0, 'location': 'Vienna, Austria', 'friends_count': 3, 'created_at': 'Wed Sep 19 13:14:15 +0000 2018', 'verified': False, 'profile_sidebar_fill_color': '000000', 'profile_background_image_url': 'http://abs.twimg.com/images/themes/theme1/bg.png', 'following': False, 'screen_name': 'im_imago', 'profile_sidebar_border_color': '000000', 'statuses_count': 5, 'default_profile_image': False, 'is_translation_enabled': False}</t>
+  </si>
+  <si>
+    <t>Mon Oct 29 20:08:19 +0000 2018</t>
+  </si>
+  <si>
+    <t>@truWorldControl #fakenewz 
+Ay Caramba
+Brazil stops the Samba
+[ Black &amp;amp; Queer Playerz &amp;gt; CRISIS ]</t>
+  </si>
+  <si>
+    <t>{'utc_offset': None, 'id': 1042401483759788032, 'translator_type': 'none', 'description': '♟️', 'contributors_enabled': False, 'has_extended_profile': True, 'profile_use_background_image': False, 'lang': 'en', 'time_zone': None, 'followers_count': 0, 'profile_background_image_url_https': 'https://abs.twimg.com/images/themes/theme1/bg.png', 'url': 'https://t.co/Gnj0QDj9c8', 'favourites_count': 2, 'profile_background_color': '000000', 'profile_image_url_https': 'https://pbs.twimg.com/profile_images/1042406021967298560/r5rbeGEh_normal.jpg', 'name': 'imago.im', 'id_str': '1042401483759788032', 'profile_background_tile': False, 'geo_enabled': False, 'profile_image_url': 'http://pbs.twimg.com/profile_images/1042406021967298560/r5rbeGEh_normal.jpg', 'profile_banner_url': 'https://pbs.twimg.com/profile_banners/1042401483759788032/1537364017', 'protected': False, 'notifications': False, 'is_translator': False, 'entities': {'url': {'urls': [{'url': 'https://t.co/Gnj0QDj9c8', 'expanded_url': 'http://imago.im', 'indices': [0, 23], 'display_url': 'imago.im'}]}, 'description': {'urls': []}}, 'profile_text_color': '000000', 'follow_request_sent': False, 'default_profile': False, 'profile_link_color': '000000', 'listed_count': 0, 'location': 'Vienna, Austria', 'friends_count': 3, 'created_at': 'Wed Sep 19 13:14:15 +0000 2018', 'verified': False, 'profile_sidebar_fill_color': '000000', 'profile_background_image_url': 'http://abs.twimg.com/images/themes/theme1/bg.png', 'following': False, 'screen_name': 'im_imago', 'profile_sidebar_border_color': '000000', 'statuses_count': 6, 'default_profile_image': False, 'is_translation_enabled': False}</t>
+  </si>
+  <si>
+    <t>Mon Oct 29 20:14:45 +0000 2018</t>
+  </si>
+  <si>
+    <t>@truWorldControl #fakenewz
+Brasilien startet Folter-Karneval
+Dreh dich nach Rechts &amp;amp; beweg deinen Arsch nicht
+[ Rio -1 🚍]</t>
+  </si>
+  <si>
+    <t>{'utc_offset': None, 'id': 1042401483759788032, 'translator_type': 'none', 'description': '♟️', 'contributors_enabled': False, 'has_extended_profile': True, 'profile_use_background_image': False, 'lang': 'en', 'time_zone': None, 'followers_count': 0, 'profile_background_image_url_https': 'https://abs.twimg.com/images/themes/theme1/bg.png', 'url': 'https://t.co/Gnj0QDj9c8', 'favourites_count': 2, 'profile_background_color': '000000', 'profile_image_url_https': 'https://pbs.twimg.com/profile_images/1042406021967298560/r5rbeGEh_normal.jpg', 'name': 'imago.im', 'id_str': '1042401483759788032', 'profile_background_tile': False, 'geo_enabled': False, 'profile_image_url': 'http://pbs.twimg.com/profile_images/1042406021967298560/r5rbeGEh_normal.jpg', 'profile_banner_url': 'https://pbs.twimg.com/profile_banners/1042401483759788032/1537364017', 'protected': False, 'notifications': False, 'is_translator': False, 'entities': {'url': {'urls': [{'url': 'https://t.co/Gnj0QDj9c8', 'expanded_url': 'http://imago.im', 'indices': [0, 23], 'display_url': 'imago.im'}]}, 'description': {'urls': []}}, 'profile_text_color': '000000', 'follow_request_sent': False, 'default_profile': False, 'profile_link_color': '000000', 'listed_count': 0, 'location': 'Vienna, Austria', 'friends_count': 3, 'created_at': 'Wed Sep 19 13:14:15 +0000 2018', 'verified': False, 'profile_sidebar_fill_color': '000000', 'profile_background_image_url': 'http://abs.twimg.com/images/themes/theme1/bg.png', 'following': False, 'screen_name': 'im_imago', 'profile_sidebar_border_color': '000000', 'statuses_count': 7, 'default_profile_image': False, 'is_translation_enabled': False}</t>
+  </si>
+  <si>
+    <t>Mon Oct 29 20:21:10 +0000 2018</t>
+  </si>
+  <si>
+    <t>@truWorldControl #fakenewz
+Schnupfen-Krise
+Überkonsum an Taschentüchern belastet Weltwirtschaft
+[ Spieler mit größter Nase - 100💵]</t>
+  </si>
+  <si>
+    <t>{'utc_offset': None, 'id': 1042401483759788032, 'translator_type': 'none', 'description': '♟️', 'contributors_enabled': False, 'has_extended_profile': True, 'profile_use_background_image': False, 'lang': 'en', 'time_zone': None, 'followers_count': 0, 'profile_background_image_url_https': 'https://abs.twimg.com/images/themes/theme1/bg.png', 'url': 'https://t.co/Gnj0QDj9c8', 'favourites_count': 2, 'profile_background_color': '000000', 'profile_image_url_https': 'https://pbs.twimg.com/profile_images/1042406021967298560/r5rbeGEh_normal.jpg', 'name': 'imago.im', 'id_str': '1042401483759788032', 'profile_background_tile': False, 'geo_enabled': False, 'profile_image_url': 'http://pbs.twimg.com/profile_images/1042406021967298560/r5rbeGEh_normal.jpg', 'profile_banner_url': 'https://pbs.twimg.com/profile_banners/1042401483759788032/1537364017', 'protected': False, 'notifications': False, 'is_translator': False, 'entities': {'url': {'urls': [{'url': 'https://t.co/Gnj0QDj9c8', 'expanded_url': 'http://imago.im', 'indices': [0, 23], 'display_url': 'imago.im'}]}, 'description': {'urls': []}}, 'profile_text_color': '000000', 'follow_request_sent': False, 'default_profile': False, 'profile_link_color': '000000', 'listed_count': 0, 'location': 'Vienna, Austria', 'friends_count': 3, 'created_at': 'Wed Sep 19 13:14:15 +0000 2018', 'verified': False, 'profile_sidebar_fill_color': '000000', 'profile_background_image_url': 'http://abs.twimg.com/images/themes/theme1/bg.png', 'following': False, 'screen_name': 'im_imago', 'profile_sidebar_border_color': '000000', 'statuses_count': 8, 'default_profile_image': False, 'is_translation_enabled': False}</t>
+  </si>
+  <si>
+    <t>Mon Oct 29 20:26:27 +0000 2018</t>
+  </si>
+  <si>
+    <t>@truWorldControl #fakenewz
+Minister Pickl erneuert Heer
+Berittene Panzer &amp;amp; Flugzeuge auf neuestem Standard
+[ Vienna -1 🚍]</t>
+  </si>
+  <si>
+    <t>{'utc_offset': None, 'id': 1042401483759788032, 'translator_type': 'none', 'description': '♟️', 'contributors_enabled': False, 'has_extended_profile': True, 'profile_use_background_image': False, 'lang': 'en', 'time_zone': None, 'followers_count': 0, 'profile_background_image_url_https': 'https://abs.twimg.com/images/themes/theme1/bg.png', 'url': 'https://t.co/Gnj0QDj9c8', 'favourites_count': 2, 'profile_background_color': '000000', 'profile_image_url_https': 'https://pbs.twimg.com/profile_images/1042406021967298560/r5rbeGEh_normal.jpg', 'name': 'imago.im', 'id_str': '1042401483759788032', 'profile_background_tile': False, 'geo_enabled': False, 'profile_image_url': 'http://pbs.twimg.com/profile_images/1042406021967298560/r5rbeGEh_normal.jpg', 'profile_banner_url': 'https://pbs.twimg.com/profile_banners/1042401483759788032/1537364017', 'protected': False, 'notifications': False, 'is_translator': False, 'entities': {'url': {'urls': [{'url': 'https://t.co/Gnj0QDj9c8', 'expanded_url': 'http://imago.im', 'indices': [0, 23], 'display_url': 'imago.im'}]}, 'description': {'urls': []}}, 'profile_text_color': '000000', 'follow_request_sent': False, 'default_profile': False, 'profile_link_color': '000000', 'listed_count': 0, 'location': 'Vienna, Austria', 'friends_count': 3, 'created_at': 'Wed Sep 19 13:14:15 +0000 2018', 'verified': False, 'profile_sidebar_fill_color': '000000', 'profile_background_image_url': 'http://abs.twimg.com/images/themes/theme1/bg.png', 'following': False, 'screen_name': 'im_imago', 'profile_sidebar_border_color': '000000', 'statuses_count': 9, 'default_profile_image': False, 'is_translation_enabled': False}</t>
+  </si>
+  <si>
+    <t>Mon Oct 29 20:33:43 +0000 2018</t>
+  </si>
+  <si>
+    <t>[0, 114]</t>
+  </si>
+  <si>
+    <t>@truWorldControl #fakenewz
+Steve Robs Legacy
+cryPhone 9s guarantees 1 worker-suicide per user 
+[ Beijing -1 🚍+2⚙️]</t>
+  </si>
+  <si>
+    <t>{'utc_offset': None, 'id': 1042401483759788032, 'translator_type': 'none', 'description': '♟️', 'contributors_enabled': False, 'has_extended_profile': True, 'profile_use_background_image': False, 'lang': 'en', 'time_zone': None, 'followers_count': 0, 'profile_background_image_url_https': 'https://abs.twimg.com/images/themes/theme1/bg.png', 'url': 'https://t.co/Gnj0QDj9c8', 'favourites_count': 2, 'profile_background_color': '000000', 'profile_image_url_https': 'https://pbs.twimg.com/profile_images/1042406021967298560/r5rbeGEh_normal.jpg', 'name': 'imago.im', 'id_str': '1042401483759788032', 'profile_background_tile': False, 'geo_enabled': False, 'profile_image_url': 'http://pbs.twimg.com/profile_images/1042406021967298560/r5rbeGEh_normal.jpg', 'profile_banner_url': 'https://pbs.twimg.com/profile_banners/1042401483759788032/1537364017', 'protected': False, 'notifications': False, 'is_translator': False, 'entities': {'url': {'urls': [{'url': 'https://t.co/Gnj0QDj9c8', 'expanded_url': 'http://imago.im', 'indices': [0, 23], 'display_url': 'imago.im'}]}, 'description': {'urls': []}}, 'profile_text_color': '000000', 'follow_request_sent': False, 'default_profile': False, 'profile_link_color': '000000', 'listed_count': 0, 'location': 'Vienna, Austria', 'friends_count': 3, 'created_at': 'Wed Sep 19 13:14:15 +0000 2018', 'verified': False, 'profile_sidebar_fill_color': '000000', 'profile_background_image_url': 'http://abs.twimg.com/images/themes/theme1/bg.png', 'following': False, 'screen_name': 'im_imago', 'profile_sidebar_border_color': '000000', 'statuses_count': 10, 'default_profile_image': False, 'is_translation_enabled': False}</t>
+  </si>
+  <si>
+    <t>Mon Oct 29 20:39:29 +0000 2018</t>
+  </si>
+  <si>
+    <t>[0, 110]</t>
+  </si>
+  <si>
+    <t>@truWorldControl #fakenewz 
+Nuclear Steal
+International community supports fundamentalist nukes
+[ Tehran +2 🔫]</t>
+  </si>
+  <si>
+    <t>{'utc_offset': None, 'id': 1042401483759788032, 'translator_type': 'none', 'description': '♟️', 'contributors_enabled': False, 'has_extended_profile': True, 'profile_use_background_image': False, 'lang': 'en', 'time_zone': None, 'followers_count': 0, 'profile_background_image_url_https': 'https://abs.twimg.com/images/themes/theme1/bg.png', 'url': 'https://t.co/Gnj0QDj9c8', 'favourites_count': 2, 'profile_background_color': '000000', 'profile_image_url_https': 'https://pbs.twimg.com/profile_images/1042406021967298560/r5rbeGEh_normal.jpg', 'name': 'imago.im', 'id_str': '1042401483759788032', 'profile_background_tile': False, 'geo_enabled': False, 'profile_image_url': 'http://pbs.twimg.com/profile_images/1042406021967298560/r5rbeGEh_normal.jpg', 'profile_banner_url': 'https://pbs.twimg.com/profile_banners/1042401483759788032/1537364017', 'protected': False, 'notifications': False, 'is_translator': False, 'entities': {'url': {'urls': [{'url': 'https://t.co/Gnj0QDj9c8', 'expanded_url': 'http://imago.im', 'indices': [0, 23], 'display_url': 'imago.im'}]}, 'description': {'urls': []}}, 'profile_text_color': '000000', 'follow_request_sent': False, 'default_profile': False, 'profile_link_color': '000000', 'listed_count': 0, 'location': 'Vienna, Austria', 'friends_count': 3, 'created_at': 'Wed Sep 19 13:14:15 +0000 2018', 'verified': False, 'profile_sidebar_fill_color': '000000', 'profile_background_image_url': 'http://abs.twimg.com/images/themes/theme1/bg.png', 'following': False, 'screen_name': 'im_imago', 'profile_sidebar_border_color': '000000', 'statuses_count': 11, 'default_profile_image': False, 'is_translation_enabled': False}</t>
+  </si>
+  <si>
+    <t>Mon Oct 29 20:43:57 +0000 2018</t>
+  </si>
+  <si>
+    <t>[0, 104]</t>
+  </si>
+  <si>
+    <t>@truWorldControl #fakenewz
+CumRex-Deal
+Die Finanzwelt jubelt über dumme Steuerzahler
+[ EU-Player + 50b ]</t>
+  </si>
+  <si>
+    <t>{'utc_offset': None, 'id': 1042401483759788032, 'translator_type': 'none', 'description': '♟️', 'contributors_enabled': False, 'has_extended_profile': True, 'profile_use_background_image': False, 'lang': 'en', 'time_zone': None, 'followers_count': 0, 'profile_background_image_url_https': 'https://abs.twimg.com/images/themes/theme1/bg.png', 'url': 'https://t.co/Gnj0QDj9c8', 'favourites_count': 2, 'profile_background_color': '000000', 'profile_image_url_https': 'https://pbs.twimg.com/profile_images/1042406021967298560/r5rbeGEh_normal.jpg', 'name': 'imago.im', 'id_str': '1042401483759788032', 'profile_background_tile': False, 'geo_enabled': False, 'profile_image_url': 'http://pbs.twimg.com/profile_images/1042406021967298560/r5rbeGEh_normal.jpg', 'profile_banner_url': 'https://pbs.twimg.com/profile_banners/1042401483759788032/1537364017', 'protected': False, 'notifications': False, 'is_translator': False, 'entities': {'url': {'urls': [{'url': 'https://t.co/Gnj0QDj9c8', 'expanded_url': 'http://imago.im', 'indices': [0, 23], 'display_url': 'imago.im'}]}, 'description': {'urls': []}}, 'profile_text_color': '000000', 'follow_request_sent': False, 'default_profile': False, 'profile_link_color': '000000', 'listed_count': 0, 'location': 'Vienna, Austria', 'friends_count': 3, 'created_at': 'Wed Sep 19 13:14:15 +0000 2018', 'verified': False, 'profile_sidebar_fill_color': '000000', 'profile_background_image_url': 'http://abs.twimg.com/images/themes/theme1/bg.png', 'following': False, 'screen_name': 'im_imago', 'profile_sidebar_border_color': '000000', 'statuses_count': 12, 'default_profile_image': False, 'is_translation_enabled': False}</t>
+  </si>
+  <si>
+    <t>Mon Oct 29 20:50:27 +0000 2018</t>
+  </si>
+  <si>
+    <t>@truWorldControl #fakenewz 
+BoardGameFreak
+Brettspielmarkt explodiert
+[ Alle Besucher der SPIEL_2018 + 100b ]</t>
+  </si>
+  <si>
+    <t>{'utc_offset': None, 'id': 1042401483759788032, 'translator_type': 'none', 'description': '♟️', 'contributors_enabled': False, 'has_extended_profile': True, 'profile_use_background_image': False, 'lang': 'en', 'time_zone': None, 'followers_count': 0, 'profile_background_image_url_https': 'https://abs.twimg.com/images/themes/theme1/bg.png', 'url': 'https://t.co/Gnj0QDj9c8', 'favourites_count': 2, 'profile_background_color': '000000', 'profile_image_url_https': 'https://pbs.twimg.com/profile_images/1042406021967298560/r5rbeGEh_normal.jpg', 'name': 'imago.im', 'id_str': '1042401483759788032', 'profile_background_tile': False, 'geo_enabled': False, 'profile_image_url': 'http://pbs.twimg.com/profile_images/1042406021967298560/r5rbeGEh_normal.jpg', 'profile_banner_url': 'https://pbs.twimg.com/profile_banners/1042401483759788032/1537364017', 'protected': False, 'notifications': False, 'is_translator': False, 'entities': {'url': {'urls': [{'url': 'https://t.co/Gnj0QDj9c8', 'expanded_url': 'http://imago.im', 'indices': [0, 23], 'display_url': 'imago.im'}]}, 'description': {'urls': []}}, 'profile_text_color': '000000', 'follow_request_sent': False, 'default_profile': False, 'profile_link_color': '000000', 'listed_count': 0, 'location': 'Vienna, Austria', 'friends_count': 3, 'created_at': 'Wed Sep 19 13:14:15 +0000 2018', 'verified': False, 'profile_sidebar_fill_color': '000000', 'profile_background_image_url': 'http://abs.twimg.com/images/themes/theme1/bg.png', 'following': False, 'screen_name': 'im_imago', 'profile_sidebar_border_color': '000000', 'statuses_count': 13, 'default_profile_image': False, 'is_translation_enabled': False}</t>
+  </si>
+  <si>
+    <t>Tue Nov 06 16:06:25 +0000 2018</t>
+  </si>
+  <si>
+    <t>[0, 151]</t>
+  </si>
+  <si>
+    <t>@truWorldControl #fakenewz 
+Universal WealthCare
+have a heart &amp;amp; support struggling billionaires
+[All Playerz -50b &amp;gt; Poorest Player gets the pot]</t>
+  </si>
+  <si>
+    <t>{'utc_offset': None, 'id': 1042401483759788032, 'translator_type': 'none', 'description': '♟️', 'contributors_enabled': False, 'has_extended_profile': True, 'profile_use_background_image': False, 'lang': 'en', 'time_zone': None, 'followers_count': 0, 'profile_background_image_url_https': 'https://abs.twimg.com/images/themes/theme1/bg.png', 'url': 'https://t.co/Gnj0QDj9c8', 'favourites_count': 2, 'profile_background_color': '000000', 'profile_image_url_https': 'https://pbs.twimg.com/profile_images/1042406021967298560/r5rbeGEh_normal.jpg', 'name': 'imago.im', 'id_str': '1042401483759788032', 'profile_background_tile': False, 'geo_enabled': False, 'profile_image_url': 'http://pbs.twimg.com/profile_images/1042406021967298560/r5rbeGEh_normal.jpg', 'profile_banner_url': 'https://pbs.twimg.com/profile_banners/1042401483759788032/1537364017', 'protected': False, 'notifications': False, 'is_translator': False, 'entities': {'url': {'urls': [{'url': 'https://t.co/Gnj0QDj9c8', 'expanded_url': 'http://imago.im', 'indices': [0, 23], 'display_url': 'imago.im'}]}, 'description': {'urls': []}}, 'profile_text_color': '000000', 'follow_request_sent': False, 'default_profile': False, 'profile_link_color': '000000', 'listed_count': 0, 'location': 'Vienna, Austria', 'friends_count': 3, 'created_at': 'Wed Sep 19 13:14:15 +0000 2018', 'verified': False, 'profile_sidebar_fill_color': '000000', 'profile_background_image_url': 'http://abs.twimg.com/images/themes/theme1/bg.png', 'following': False, 'screen_name': 'im_imago', 'profile_sidebar_border_color': '000000', 'statuses_count': 14, 'default_profile_image': False, 'is_translation_enabled': False}</t>
+  </si>
+  <si>
+    <t>Tue Nov 06 16:09:58 +0000 2018</t>
+  </si>
+  <si>
+    <t>[17, 72]</t>
+  </si>
+  <si>
+    <t>{'hashtags': [], 'urls': [], 'user_mentions': [{'name': 'Mahmoud Ahmadinejad', 'screen_name': 'Ahmadinejad1956', 'id_str': '816625461195407360', 'id': 816625461195407360, 'indices': [0, 16]}, {'name': 'WorldControl  🎲🎲', 'screen_name': 'truWorldControl', 'id_str': '755869984761479168', 'id': 755869984761479168, 'indices': [56, 72]}], 'symbols': []}</t>
+  </si>
+  <si>
+    <t>@Ahmadinejad1956 ;) Playerz more equal know how to play @truWorldControl</t>
+  </si>
+  <si>
+    <t>Ahmadinejad1956</t>
+  </si>
+  <si>
+    <t>{'listed_count': 0, 'profile_text_color': '000000', 'screen_name': 'MinisterVlatin', 'utc_offset': None, 'protected': False, 'created_at': 'Wed Jul 11 18:48:31 +0000 2018', 'name': 'Minister Vlatin', 'verified': False, 'statuses_count': 163, 'contributors_enabled': False, 'time_zone': None, 'profile_background_color': '000000', 'profile_image_url_https': 'https://pbs.twimg.com/profile_images/1041036258745765890/C-8rzdz5_normal.jpg', 'profile_use_background_image': False, 'id': 1017118454711771136, 'geo_enabled': False, 'translator_type': 'none', 'follow_request_sent': False, 'following': False, 'description': 'Seizing @truWorldControl by spreading #fakenewz. #proudtobeabot 🤖 by @RKalcik', 'notifications': False, 'profile_background_image_url_https': 'https://abs.twimg.com/images/themes/theme1/bg.png', 'default_profile': False, 'favourites_count': 11, 'profile_image_url': 'http://pbs.twimg.com/profile_images/1041036258745765890/C-8rzdz5_normal.jpg', 'entities': {'url': {'urls': [{'indices': [0, 23], 'display_url': 'world-control.net', 'expanded_url': 'http://world-control.net', 'url': 'https://t.co/AgubHQIUXe'}]}, 'description': {'urls': []}}, 'lang': 'en', 'profile_background_image_url': 'http://abs.twimg.com/images/themes/theme1/bg.png', 'id_str': '1017118454711771136', 'profile_link_color': '000000', 'profile_banner_url': 'https://pbs.twimg.com/profile_banners/1017118454711771136/1535920961', 'default_profile_image': False, 'profile_sidebar_border_color': '000000', 'is_translation_enabled': False, 'url': 'https://t.co/AgubHQIUXe', 'followers_count': 8, 'location': 'Moscow, Russia', 'profile_sidebar_fill_color': '000000', 'has_extended_profile': False, 'profile_background_tile': False, 'friends_count': 20, 'is_translator': False}</t>
+  </si>
+  <si>
+    <t>Wed Nov 07 14:17:33 +0000 2018</t>
+  </si>
+  <si>
+    <t>{'hashtags': [{'text': 'fakenewz', 'indices': [17, 26]}], 'urls': [], 'user_mentions': [{'name': 'WorldControl  🎲🎲', 'screen_name': 'truWorldControl', 'id_str': '755869984761479168', 'id': 755869984761479168, 'indices': [0, 16]}], 'symbols': []}</t>
+  </si>
+  <si>
+    <t>@truWorldControl #fakenewz 
+midterm Election
+[New York +1 🚗]</t>
+  </si>
+  <si>
+    <t>{'listed_count': 0, 'profile_text_color': '000000', 'screen_name': 'im_imago', 'utc_offset': None, 'protected': False, 'created_at': 'Wed Sep 19 13:14:15 +0000 2018', 'name': 'imago.im', 'verified': False, 'statuses_count': 15, 'contributors_enabled': False, 'time_zone': None, 'profile_background_color': '000000', 'profile_image_url_https': 'https://pbs.twimg.com/profile_images/1042406021967298560/r5rbeGEh_normal.jpg', 'profile_use_background_image': False, 'id': 1042401483759788032, 'geo_enabled': False, 'translator_type': 'none', 'follow_request_sent': False, 'following': False, 'description': '♟️', 'notifications': False, 'profile_background_image_url_https': 'https://abs.twimg.com/images/themes/theme1/bg.png', 'default_profile': False, 'favourites_count': 2, 'profile_image_url': 'http://pbs.twimg.com/profile_images/1042406021967298560/r5rbeGEh_normal.jpg', 'entities': {'url': {'urls': [{'indices': [0, 23], 'display_url': 'imago.im', 'expanded_url': 'http://imago.im', 'url': 'https://t.co/Gnj0QDj9c8'}]}, 'description': {'urls': []}}, 'lang': 'en', 'profile_background_image_url': 'http://abs.twimg.com/images/themes/theme1/bg.png', 'id_str': '1042401483759788032', 'profile_link_color': '000000', 'profile_banner_url': 'https://pbs.twimg.com/profile_banners/1042401483759788032/1537364017', 'default_profile_image': False, 'profile_sidebar_border_color': '000000', 'is_translation_enabled': False, 'url': 'https://t.co/Gnj0QDj9c8', 'followers_count': 0, 'location': 'Vienna, Austria', 'profile_sidebar_fill_color': '000000', 'has_extended_profile': True, 'profile_background_tile': False, 'friends_count': 3, 'is_translator': False}</t>
+  </si>
+  <si>
+    <t>Fri Nov 09 09:03:53 +0000 2018</t>
+  </si>
+  <si>
+    <t>[0, 184]</t>
+  </si>
+  <si>
+    <t>{'user_mentions': [{'indices': [158, 174], 'id_str': '755869984761479168', 'id': 755869984761479168, 'name': 'WorldControl  🎲🎲', 'screen_name': 'truWorldControl'}], 'hashtags': [{'text': 'fakenewz', 'indices': [175, 184]}], 'symbols': [], 'urls': []}</t>
+  </si>
+  <si>
+    <t>"Lügner haben kurze Beine" - Heinz Fassmann
+"Sie werden sich noch wundern, was alles möglich ist" - Herbert Kickl 
+"Trottln!" - Peter Rapp
+[Vienna - 1 corpz] @truWorldControl #fakenewz</t>
+  </si>
+  <si>
+    <t>1060820260255875073</t>
+  </si>
+  <si>
+    <t>{'profile_banner_url': 'https://pbs.twimg.com/profile_banners/704671889680175104/1521637593', 'has_extended_profile': False, 'id': 704671889680175104, 'profile_sidebar_border_color': '000000', 'is_translator': False, 'profile_image_url': 'http://pbs.twimg.com/profile_images/931580844904472576/PEk2Nmu8_normal.jpg', 'contributors_enabled': False, 'profile_link_color': '1B95E0', 'profile_background_image_url_https': 'https://abs.twimg.com/images/themes/theme1/bg.png', 'follow_request_sent': False, 'profile_sidebar_fill_color': '000000', 'is_translation_enabled': False, 'default_profile': False, 'profile_image_url_https': 'https://pbs.twimg.com/profile_images/931580844904472576/PEk2Nmu8_normal.jpg', 'verified': False, 'profile_use_background_image': False, 'id_str': '704671889680175104', 'lang': 'de', 'translator_type': 'none', 'url': 'https://t.co/6WyAfmnHio', 'notifications': False, 'description': '(Un-)Freier Journalist, Hobbyphilsoph, rücksichtsloser Polemiker, Bartträger. Sonst noch was? Ja, lustig bin ich auch. Macht sich gut, haben sie gesagt.', 'favourites_count': 660, 'time_zone': None, 'location': 'Wien, Österreich', 'geo_enabled': False, 'friends_count': 1305, 'screen_name': 'HannesGress', 'profile_background_image_url': 'http://abs.twimg.com/images/themes/theme1/bg.png', 'listed_count': 0, 'name': 'Johannes Gress', 'default_profile_image': False, 'utc_offset': None, 'following': False, 'profile_background_tile': False, 'followers_count': 108, 'profile_text_color': '000000', 'protected': False, 'profile_background_color': '000000', 'entities': {'description': {'urls': []}, 'url': {'urls': [{'expanded_url': 'http://www.hogn.de', 'indices': [0, 23], 'display_url': 'hogn.de', 'url': 'https://t.co/6WyAfmnHio'}]}}, 'statuses_count': 263, 'created_at': 'Tue Mar 01 14:17:25 +0000 2016'}</t>
   </si>
 </sst>
 </file>
@@ -1212,7 +1520,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AE46"/>
+  <dimension ref="A1:AE68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4492,8 +4800,8 @@
       <c r="K46" t="n">
         <v>1.047768386091012e+18</v>
       </c>
-      <c r="L46" t="s">
-        <v>244</v>
+      <c r="L46" t="n">
+        <v>1.047768386091012e+18</v>
       </c>
       <c r="M46" t="s">
         <v>51</v>
@@ -4503,8 +4811,8 @@
       <c r="P46" t="n">
         <v>7.558699847614792e+17</v>
       </c>
-      <c r="Q46" t="s">
-        <v>245</v>
+      <c r="Q46" t="n">
+        <v>7.55869984761479e+17</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -4530,13 +4838,1611 @@
         <v>0</v>
       </c>
       <c r="AA46" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="AB46" t="s"/>
       <c r="AC46" t="s"/>
       <c r="AD46" t="s"/>
       <c r="AE46" t="s"/>
     </row>
+    <row r="47" spans="1:31">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="s">
+        <v>245</v>
+      </c>
+      <c r="E47" t="s">
+        <v>246</v>
+      </c>
+      <c r="F47" t="s">
+        <v>247</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0</v>
+      </c>
+      <c r="I47" t="s">
+        <v>248</v>
+      </c>
+      <c r="J47" t="s"/>
+      <c r="K47" t="n">
+        <v>1.0477853812473e+18</v>
+      </c>
+      <c r="L47" t="n">
+        <v>1.0477853812473e+18</v>
+      </c>
+      <c r="M47" t="s">
+        <v>51</v>
+      </c>
+      <c r="N47" t="s"/>
+      <c r="O47" t="s"/>
+      <c r="P47" t="n">
+        <v>7.558699847614792e+17</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>7.55869984761479e+17</v>
+      </c>
+      <c r="R47" t="n">
+        <v>0</v>
+      </c>
+      <c r="S47" t="s">
+        <v>34</v>
+      </c>
+      <c r="T47" t="s">
+        <v>35</v>
+      </c>
+      <c r="U47" t="s"/>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="n">
+        <v>0</v>
+      </c>
+      <c r="X47" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y47" t="s"/>
+      <c r="Z47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA47" t="s">
+        <v>249</v>
+      </c>
+      <c r="AB47" t="s"/>
+      <c r="AC47" t="s"/>
+      <c r="AD47" t="s"/>
+      <c r="AE47" t="s"/>
+    </row>
+    <row r="48" spans="1:31">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="s">
+        <v>250</v>
+      </c>
+      <c r="E48" t="s">
+        <v>251</v>
+      </c>
+      <c r="F48" t="s">
+        <v>247</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0</v>
+      </c>
+      <c r="I48" t="s">
+        <v>252</v>
+      </c>
+      <c r="J48" t="s"/>
+      <c r="K48" t="n">
+        <v>1.047915882775794e+18</v>
+      </c>
+      <c r="L48" t="n">
+        <v>1.047915882775794e+18</v>
+      </c>
+      <c r="M48" t="s">
+        <v>51</v>
+      </c>
+      <c r="N48" t="s"/>
+      <c r="O48" t="s"/>
+      <c r="P48" t="n">
+        <v>7.558699847614792e+17</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>7.55869984761479e+17</v>
+      </c>
+      <c r="R48" t="n">
+        <v>0</v>
+      </c>
+      <c r="S48" t="s">
+        <v>34</v>
+      </c>
+      <c r="T48" t="s">
+        <v>35</v>
+      </c>
+      <c r="U48" t="s"/>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="n">
+        <v>0</v>
+      </c>
+      <c r="X48" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y48" t="s"/>
+      <c r="Z48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA48" t="s">
+        <v>253</v>
+      </c>
+      <c r="AB48" t="s"/>
+      <c r="AC48" t="s"/>
+      <c r="AD48" t="s"/>
+      <c r="AE48" t="s"/>
+    </row>
+    <row r="49" spans="1:31">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="s">
+        <v>254</v>
+      </c>
+      <c r="E49" t="s">
+        <v>255</v>
+      </c>
+      <c r="F49" t="s">
+        <v>247</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0</v>
+      </c>
+      <c r="I49" t="s">
+        <v>256</v>
+      </c>
+      <c r="J49" t="s"/>
+      <c r="K49" t="n">
+        <v>1.047924641447203e+18</v>
+      </c>
+      <c r="L49" t="n">
+        <v>1.047924641447203e+18</v>
+      </c>
+      <c r="M49" t="s">
+        <v>51</v>
+      </c>
+      <c r="N49" t="s"/>
+      <c r="O49" t="s"/>
+      <c r="P49" t="n">
+        <v>7.558699847614792e+17</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>7.55869984761479e+17</v>
+      </c>
+      <c r="R49" t="n">
+        <v>0</v>
+      </c>
+      <c r="S49" t="s">
+        <v>34</v>
+      </c>
+      <c r="T49" t="s">
+        <v>35</v>
+      </c>
+      <c r="U49" t="s"/>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="n">
+        <v>0</v>
+      </c>
+      <c r="X49" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y49" t="s"/>
+      <c r="Z49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA49" t="s">
+        <v>257</v>
+      </c>
+      <c r="AB49" t="s"/>
+      <c r="AC49" t="s"/>
+      <c r="AD49" t="s"/>
+      <c r="AE49" t="s"/>
+    </row>
+    <row r="50" spans="1:31">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="s">
+        <v>258</v>
+      </c>
+      <c r="E50" t="s">
+        <v>230</v>
+      </c>
+      <c r="F50" t="s">
+        <v>247</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0</v>
+      </c>
+      <c r="I50" t="s">
+        <v>259</v>
+      </c>
+      <c r="J50" t="s"/>
+      <c r="K50" t="n">
+        <v>1.047957515969946e+18</v>
+      </c>
+      <c r="L50" t="n">
+        <v>1.047957515969946e+18</v>
+      </c>
+      <c r="M50" t="s">
+        <v>51</v>
+      </c>
+      <c r="N50" t="s"/>
+      <c r="O50" t="s"/>
+      <c r="P50" t="n">
+        <v>7.558699847614792e+17</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>7.55869984761479e+17</v>
+      </c>
+      <c r="R50" t="n">
+        <v>0</v>
+      </c>
+      <c r="S50" t="s">
+        <v>34</v>
+      </c>
+      <c r="T50" t="s">
+        <v>35</v>
+      </c>
+      <c r="U50" t="s"/>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="n">
+        <v>0</v>
+      </c>
+      <c r="X50" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y50" t="s"/>
+      <c r="Z50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA50" t="s">
+        <v>260</v>
+      </c>
+      <c r="AB50" t="s"/>
+      <c r="AC50" t="s"/>
+      <c r="AD50" t="s"/>
+      <c r="AE50" t="s"/>
+    </row>
+    <row r="51" spans="1:31">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="s">
+        <v>261</v>
+      </c>
+      <c r="E51" t="s">
+        <v>262</v>
+      </c>
+      <c r="F51" t="s">
+        <v>263</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0</v>
+      </c>
+      <c r="I51" t="s">
+        <v>264</v>
+      </c>
+      <c r="J51" t="s"/>
+      <c r="K51" t="n">
+        <v>1.048668926819951e+18</v>
+      </c>
+      <c r="L51" t="n">
+        <v>1.048668926819951e+18</v>
+      </c>
+      <c r="M51" t="s"/>
+      <c r="N51" t="s"/>
+      <c r="O51" t="s"/>
+      <c r="P51" t="s"/>
+      <c r="Q51" t="s"/>
+      <c r="R51" t="n">
+        <v>0</v>
+      </c>
+      <c r="S51" t="s">
+        <v>71</v>
+      </c>
+      <c r="T51" t="s">
+        <v>72</v>
+      </c>
+      <c r="U51" t="s"/>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="n">
+        <v>0</v>
+      </c>
+      <c r="X51" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y51" t="s"/>
+      <c r="Z51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA51" t="s">
+        <v>265</v>
+      </c>
+      <c r="AB51" t="s"/>
+      <c r="AC51" t="s"/>
+      <c r="AD51" t="s"/>
+      <c r="AE51" t="s"/>
+    </row>
+    <row r="52" spans="1:31">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="s">
+        <v>266</v>
+      </c>
+      <c r="E52" t="s">
+        <v>267</v>
+      </c>
+      <c r="F52" t="s">
+        <v>247</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0</v>
+      </c>
+      <c r="I52" t="s">
+        <v>268</v>
+      </c>
+      <c r="J52" t="s"/>
+      <c r="K52" t="n">
+        <v>1.05047311539705e+18</v>
+      </c>
+      <c r="L52" t="n">
+        <v>1.05047311539705e+18</v>
+      </c>
+      <c r="M52" t="s">
+        <v>51</v>
+      </c>
+      <c r="N52" t="s"/>
+      <c r="O52" t="s"/>
+      <c r="P52" t="n">
+        <v>7.558699847614792e+17</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>7.55869984761479e+17</v>
+      </c>
+      <c r="R52" t="n">
+        <v>0</v>
+      </c>
+      <c r="S52" t="s">
+        <v>34</v>
+      </c>
+      <c r="T52" t="s">
+        <v>35</v>
+      </c>
+      <c r="U52" t="s"/>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="n">
+        <v>0</v>
+      </c>
+      <c r="X52" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y52" t="s"/>
+      <c r="Z52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA52" t="s">
+        <v>269</v>
+      </c>
+      <c r="AB52" t="s"/>
+      <c r="AC52" t="s"/>
+      <c r="AD52" t="s"/>
+      <c r="AE52" t="s"/>
+    </row>
+    <row r="53" spans="1:31">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="s">
+        <v>270</v>
+      </c>
+      <c r="E53" t="s">
+        <v>271</v>
+      </c>
+      <c r="F53" t="s">
+        <v>247</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0</v>
+      </c>
+      <c r="I53" t="s">
+        <v>272</v>
+      </c>
+      <c r="J53" t="s"/>
+      <c r="K53" t="n">
+        <v>1.053761249643807e+18</v>
+      </c>
+      <c r="L53" t="n">
+        <v>1.053761249643807e+18</v>
+      </c>
+      <c r="M53" t="s">
+        <v>51</v>
+      </c>
+      <c r="N53" t="s"/>
+      <c r="O53" t="s"/>
+      <c r="P53" t="n">
+        <v>7.558699847614792e+17</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>7.55869984761479e+17</v>
+      </c>
+      <c r="R53" t="n">
+        <v>0</v>
+      </c>
+      <c r="S53" t="s">
+        <v>34</v>
+      </c>
+      <c r="T53" t="s">
+        <v>35</v>
+      </c>
+      <c r="U53" t="s"/>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="n">
+        <v>0</v>
+      </c>
+      <c r="X53" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y53" t="s"/>
+      <c r="Z53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA53" t="s">
+        <v>273</v>
+      </c>
+      <c r="AB53" t="s"/>
+      <c r="AC53" t="s"/>
+      <c r="AD53" t="s"/>
+      <c r="AE53" t="s"/>
+    </row>
+    <row r="54" spans="1:31">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="s">
+        <v>274</v>
+      </c>
+      <c r="E54" t="s">
+        <v>275</v>
+      </c>
+      <c r="F54" t="s">
+        <v>247</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0</v>
+      </c>
+      <c r="I54" t="s">
+        <v>276</v>
+      </c>
+      <c r="J54" t="s"/>
+      <c r="K54" t="n">
+        <v>1.056642269862859e+18</v>
+      </c>
+      <c r="L54" t="n">
+        <v>1.056642269862859e+18</v>
+      </c>
+      <c r="M54" t="s">
+        <v>51</v>
+      </c>
+      <c r="N54" t="s"/>
+      <c r="O54" t="s"/>
+      <c r="P54" t="n">
+        <v>7.558699847614792e+17</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>7.55869984761479e+17</v>
+      </c>
+      <c r="R54" t="n">
+        <v>0</v>
+      </c>
+      <c r="S54" t="s">
+        <v>71</v>
+      </c>
+      <c r="T54" t="s">
+        <v>72</v>
+      </c>
+      <c r="U54" t="s"/>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="n">
+        <v>0</v>
+      </c>
+      <c r="X54" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y54" t="s"/>
+      <c r="Z54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA54" t="s">
+        <v>277</v>
+      </c>
+      <c r="AB54" t="s"/>
+      <c r="AC54" t="s"/>
+      <c r="AD54" t="s"/>
+      <c r="AE54" t="s"/>
+    </row>
+    <row r="55" spans="1:31">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="s">
+        <v>278</v>
+      </c>
+      <c r="E55" t="s">
+        <v>279</v>
+      </c>
+      <c r="F55" t="s">
+        <v>280</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0</v>
+      </c>
+      <c r="I55" t="s">
+        <v>281</v>
+      </c>
+      <c r="J55" t="s"/>
+      <c r="K55" t="n">
+        <v>1.05692716066397e+18</v>
+      </c>
+      <c r="L55" t="n">
+        <v>1.05692716066397e+18</v>
+      </c>
+      <c r="M55" t="s">
+        <v>51</v>
+      </c>
+      <c r="N55" t="s"/>
+      <c r="O55" t="s"/>
+      <c r="P55" t="n">
+        <v>7.558699847614792e+17</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>7.55869984761479e+17</v>
+      </c>
+      <c r="R55" t="n">
+        <v>0</v>
+      </c>
+      <c r="S55" t="s">
+        <v>71</v>
+      </c>
+      <c r="T55" t="s">
+        <v>72</v>
+      </c>
+      <c r="U55" t="s"/>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="n">
+        <v>0</v>
+      </c>
+      <c r="X55" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y55" t="s"/>
+      <c r="Z55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA55" t="s">
+        <v>282</v>
+      </c>
+      <c r="AB55" t="s"/>
+      <c r="AC55" t="s"/>
+      <c r="AD55" t="s"/>
+      <c r="AE55" t="s"/>
+    </row>
+    <row r="56" spans="1:31">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="s">
+        <v>283</v>
+      </c>
+      <c r="E56" t="s">
+        <v>91</v>
+      </c>
+      <c r="F56" t="s">
+        <v>247</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0</v>
+      </c>
+      <c r="I56" t="s">
+        <v>284</v>
+      </c>
+      <c r="J56" t="s"/>
+      <c r="K56" t="n">
+        <v>1.057000725379736e+18</v>
+      </c>
+      <c r="L56" t="n">
+        <v>1.057000725379736e+18</v>
+      </c>
+      <c r="M56" t="s">
+        <v>51</v>
+      </c>
+      <c r="N56" t="s"/>
+      <c r="O56" t="s"/>
+      <c r="P56" t="n">
+        <v>7.558699847614792e+17</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>7.55869984761479e+17</v>
+      </c>
+      <c r="R56" t="n">
+        <v>0</v>
+      </c>
+      <c r="S56" t="s">
+        <v>71</v>
+      </c>
+      <c r="T56" t="s">
+        <v>72</v>
+      </c>
+      <c r="U56" t="s"/>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="n">
+        <v>0</v>
+      </c>
+      <c r="X56" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y56" t="s"/>
+      <c r="Z56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA56" t="s">
+        <v>285</v>
+      </c>
+      <c r="AB56" t="s"/>
+      <c r="AC56" t="s"/>
+      <c r="AD56" t="s"/>
+      <c r="AE56" t="s"/>
+    </row>
+    <row r="57" spans="1:31">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="s">
+        <v>286</v>
+      </c>
+      <c r="E57" t="s">
+        <v>279</v>
+      </c>
+      <c r="F57" t="s">
+        <v>247</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0</v>
+      </c>
+      <c r="H57" t="n">
+        <v>0</v>
+      </c>
+      <c r="I57" t="s">
+        <v>287</v>
+      </c>
+      <c r="J57" t="s"/>
+      <c r="K57" t="n">
+        <v>1.057001202184086e+18</v>
+      </c>
+      <c r="L57" t="n">
+        <v>1.057001202184086e+18</v>
+      </c>
+      <c r="M57" t="s">
+        <v>51</v>
+      </c>
+      <c r="N57" t="s"/>
+      <c r="O57" t="s"/>
+      <c r="P57" t="n">
+        <v>7.558699847614792e+17</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>7.55869984761479e+17</v>
+      </c>
+      <c r="R57" t="n">
+        <v>0</v>
+      </c>
+      <c r="S57" t="s">
+        <v>34</v>
+      </c>
+      <c r="T57" t="s">
+        <v>35</v>
+      </c>
+      <c r="U57" t="s"/>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="n">
+        <v>0</v>
+      </c>
+      <c r="X57" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y57" t="s"/>
+      <c r="Z57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA57" t="s">
+        <v>288</v>
+      </c>
+      <c r="AB57" t="s"/>
+      <c r="AC57" t="s"/>
+      <c r="AD57" t="s"/>
+      <c r="AE57" t="s"/>
+    </row>
+    <row r="58" spans="1:31">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="s">
+        <v>289</v>
+      </c>
+      <c r="E58" t="s">
+        <v>152</v>
+      </c>
+      <c r="F58" t="s">
+        <v>247</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0</v>
+      </c>
+      <c r="H58" t="n">
+        <v>0</v>
+      </c>
+      <c r="I58" t="s">
+        <v>290</v>
+      </c>
+      <c r="J58" t="s"/>
+      <c r="K58" t="n">
+        <v>1.057002822968009e+18</v>
+      </c>
+      <c r="L58" t="n">
+        <v>1.057002822968009e+18</v>
+      </c>
+      <c r="M58" t="s">
+        <v>51</v>
+      </c>
+      <c r="N58" t="s"/>
+      <c r="O58" t="s"/>
+      <c r="P58" t="n">
+        <v>7.558699847614792e+17</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>7.55869984761479e+17</v>
+      </c>
+      <c r="R58" t="n">
+        <v>0</v>
+      </c>
+      <c r="S58" t="s">
+        <v>71</v>
+      </c>
+      <c r="T58" t="s">
+        <v>72</v>
+      </c>
+      <c r="U58" t="s"/>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="n">
+        <v>0</v>
+      </c>
+      <c r="X58" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y58" t="s"/>
+      <c r="Z58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA58" t="s">
+        <v>291</v>
+      </c>
+      <c r="AB58" t="s"/>
+      <c r="AC58" t="s"/>
+      <c r="AD58" t="s"/>
+      <c r="AE58" t="s"/>
+    </row>
+    <row r="59" spans="1:31">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="s">
+        <v>292</v>
+      </c>
+      <c r="E59" t="s">
+        <v>133</v>
+      </c>
+      <c r="F59" t="s">
+        <v>247</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0</v>
+      </c>
+      <c r="H59" t="n">
+        <v>0</v>
+      </c>
+      <c r="I59" t="s">
+        <v>293</v>
+      </c>
+      <c r="J59" t="s"/>
+      <c r="K59" t="n">
+        <v>1.057004436445377e+18</v>
+      </c>
+      <c r="L59" t="n">
+        <v>1.057004436445377e+18</v>
+      </c>
+      <c r="M59" t="s">
+        <v>51</v>
+      </c>
+      <c r="N59" t="s"/>
+      <c r="O59" t="s"/>
+      <c r="P59" t="n">
+        <v>7.558699847614792e+17</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>7.55869984761479e+17</v>
+      </c>
+      <c r="R59" t="n">
+        <v>0</v>
+      </c>
+      <c r="S59" t="s">
+        <v>71</v>
+      </c>
+      <c r="T59" t="s">
+        <v>72</v>
+      </c>
+      <c r="U59" t="s"/>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="n">
+        <v>0</v>
+      </c>
+      <c r="X59" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y59" t="s"/>
+      <c r="Z59" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA59" t="s">
+        <v>294</v>
+      </c>
+      <c r="AB59" t="s"/>
+      <c r="AC59" t="s"/>
+      <c r="AD59" t="s"/>
+      <c r="AE59" t="s"/>
+    </row>
+    <row r="60" spans="1:31">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="s">
+        <v>295</v>
+      </c>
+      <c r="E60" t="s">
+        <v>152</v>
+      </c>
+      <c r="F60" t="s">
+        <v>247</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0</v>
+      </c>
+      <c r="H60" t="n">
+        <v>0</v>
+      </c>
+      <c r="I60" t="s">
+        <v>296</v>
+      </c>
+      <c r="J60" t="s"/>
+      <c r="K60" t="n">
+        <v>1.057005767348404e+18</v>
+      </c>
+      <c r="L60" t="n">
+        <v>1.057005767348404e+18</v>
+      </c>
+      <c r="M60" t="s">
+        <v>51</v>
+      </c>
+      <c r="N60" t="s"/>
+      <c r="O60" t="s"/>
+      <c r="P60" t="n">
+        <v>7.558699847614792e+17</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>7.55869984761479e+17</v>
+      </c>
+      <c r="R60" t="n">
+        <v>0</v>
+      </c>
+      <c r="S60" t="s">
+        <v>71</v>
+      </c>
+      <c r="T60" t="s">
+        <v>72</v>
+      </c>
+      <c r="U60" t="s"/>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="n">
+        <v>0</v>
+      </c>
+      <c r="X60" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y60" t="s"/>
+      <c r="Z60" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA60" t="s">
+        <v>297</v>
+      </c>
+      <c r="AB60" t="s"/>
+      <c r="AC60" t="s"/>
+      <c r="AD60" t="s"/>
+      <c r="AE60" t="s"/>
+    </row>
+    <row r="61" spans="1:31">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="s">
+        <v>298</v>
+      </c>
+      <c r="E61" t="s">
+        <v>299</v>
+      </c>
+      <c r="F61" t="s">
+        <v>247</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0</v>
+      </c>
+      <c r="H61" t="n">
+        <v>0</v>
+      </c>
+      <c r="I61" t="s">
+        <v>300</v>
+      </c>
+      <c r="J61" t="s"/>
+      <c r="K61" t="n">
+        <v>1.057007594789892e+18</v>
+      </c>
+      <c r="L61" t="n">
+        <v>1.057007594789892e+18</v>
+      </c>
+      <c r="M61" t="s">
+        <v>51</v>
+      </c>
+      <c r="N61" t="s"/>
+      <c r="O61" t="s"/>
+      <c r="P61" t="n">
+        <v>7.558699847614792e+17</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>7.55869984761479e+17</v>
+      </c>
+      <c r="R61" t="n">
+        <v>0</v>
+      </c>
+      <c r="S61" t="s">
+        <v>34</v>
+      </c>
+      <c r="T61" t="s">
+        <v>35</v>
+      </c>
+      <c r="U61" t="s"/>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="n">
+        <v>0</v>
+      </c>
+      <c r="X61" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y61" t="s"/>
+      <c r="Z61" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA61" t="s">
+        <v>301</v>
+      </c>
+      <c r="AB61" t="s"/>
+      <c r="AC61" t="s"/>
+      <c r="AD61" t="s"/>
+      <c r="AE61" t="s"/>
+    </row>
+    <row r="62" spans="1:31">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="s">
+        <v>302</v>
+      </c>
+      <c r="E62" t="s">
+        <v>303</v>
+      </c>
+      <c r="F62" t="s">
+        <v>247</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0</v>
+      </c>
+      <c r="H62" t="n">
+        <v>0</v>
+      </c>
+      <c r="I62" t="s">
+        <v>304</v>
+      </c>
+      <c r="J62" t="s"/>
+      <c r="K62" t="n">
+        <v>1.057009046144856e+18</v>
+      </c>
+      <c r="L62" t="n">
+        <v>1.057009046144856e+18</v>
+      </c>
+      <c r="M62" t="s">
+        <v>51</v>
+      </c>
+      <c r="N62" t="s"/>
+      <c r="O62" t="s"/>
+      <c r="P62" t="n">
+        <v>7.558699847614792e+17</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>7.55869984761479e+17</v>
+      </c>
+      <c r="R62" t="n">
+        <v>0</v>
+      </c>
+      <c r="S62" t="s">
+        <v>34</v>
+      </c>
+      <c r="T62" t="s">
+        <v>35</v>
+      </c>
+      <c r="U62" t="s"/>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="n">
+        <v>0</v>
+      </c>
+      <c r="X62" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y62" t="s"/>
+      <c r="Z62" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA62" t="s">
+        <v>305</v>
+      </c>
+      <c r="AB62" t="s"/>
+      <c r="AC62" t="s"/>
+      <c r="AD62" t="s"/>
+      <c r="AE62" t="s"/>
+    </row>
+    <row r="63" spans="1:31">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="s">
+        <v>306</v>
+      </c>
+      <c r="E63" t="s">
+        <v>307</v>
+      </c>
+      <c r="F63" t="s">
+        <v>247</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0</v>
+      </c>
+      <c r="H63" t="n">
+        <v>0</v>
+      </c>
+      <c r="I63" t="s">
+        <v>308</v>
+      </c>
+      <c r="J63" t="s"/>
+      <c r="K63" t="n">
+        <v>1.057010169282994e+18</v>
+      </c>
+      <c r="L63" t="n">
+        <v>1.057010169282994e+18</v>
+      </c>
+      <c r="M63" t="s">
+        <v>51</v>
+      </c>
+      <c r="N63" t="s"/>
+      <c r="O63" t="s"/>
+      <c r="P63" t="n">
+        <v>7.558699847614792e+17</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>7.55869984761479e+17</v>
+      </c>
+      <c r="R63" t="n">
+        <v>0</v>
+      </c>
+      <c r="S63" t="s">
+        <v>71</v>
+      </c>
+      <c r="T63" t="s">
+        <v>72</v>
+      </c>
+      <c r="U63" t="s"/>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="n">
+        <v>0</v>
+      </c>
+      <c r="X63" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y63" t="s"/>
+      <c r="Z63" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA63" t="s">
+        <v>309</v>
+      </c>
+      <c r="AB63" t="s"/>
+      <c r="AC63" t="s"/>
+      <c r="AD63" t="s"/>
+      <c r="AE63" t="s"/>
+    </row>
+    <row r="64" spans="1:31">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="s">
+        <v>310</v>
+      </c>
+      <c r="E64" t="s">
+        <v>165</v>
+      </c>
+      <c r="F64" t="s">
+        <v>247</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0</v>
+      </c>
+      <c r="H64" t="n">
+        <v>0</v>
+      </c>
+      <c r="I64" t="s">
+        <v>311</v>
+      </c>
+      <c r="J64" t="s"/>
+      <c r="K64" t="n">
+        <v>1.057011804700897e+18</v>
+      </c>
+      <c r="L64" t="n">
+        <v>1.057011804700897e+18</v>
+      </c>
+      <c r="M64" t="s">
+        <v>51</v>
+      </c>
+      <c r="N64" t="s"/>
+      <c r="O64" t="s"/>
+      <c r="P64" t="n">
+        <v>7.558699847614792e+17</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>7.55869984761479e+17</v>
+      </c>
+      <c r="R64" t="n">
+        <v>0</v>
+      </c>
+      <c r="S64" t="s">
+        <v>71</v>
+      </c>
+      <c r="T64" t="s">
+        <v>72</v>
+      </c>
+      <c r="U64" t="s"/>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="n">
+        <v>0</v>
+      </c>
+      <c r="X64" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y64" t="s"/>
+      <c r="Z64" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA64" t="s">
+        <v>312</v>
+      </c>
+      <c r="AB64" t="s"/>
+      <c r="AC64" t="s"/>
+      <c r="AD64" t="s"/>
+      <c r="AE64" t="s"/>
+    </row>
+    <row r="65" spans="1:31">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="s">
+        <v>313</v>
+      </c>
+      <c r="E65" t="s">
+        <v>314</v>
+      </c>
+      <c r="F65" t="s">
+        <v>247</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0</v>
+      </c>
+      <c r="H65" t="n">
+        <v>0</v>
+      </c>
+      <c r="I65" t="s">
+        <v>315</v>
+      </c>
+      <c r="J65" t="s"/>
+      <c r="K65" t="n">
+        <v>1.05983942828435e+18</v>
+      </c>
+      <c r="L65" t="n">
+        <v>1.05983942828435e+18</v>
+      </c>
+      <c r="M65" t="s">
+        <v>51</v>
+      </c>
+      <c r="N65" t="s"/>
+      <c r="O65" t="s"/>
+      <c r="P65" t="n">
+        <v>7.558699847614792e+17</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>7.55869984761479e+17</v>
+      </c>
+      <c r="R65" t="n">
+        <v>0</v>
+      </c>
+      <c r="S65" t="s">
+        <v>34</v>
+      </c>
+      <c r="T65" t="s">
+        <v>35</v>
+      </c>
+      <c r="U65" t="s"/>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="n">
+        <v>0</v>
+      </c>
+      <c r="X65" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y65" t="s"/>
+      <c r="Z65" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA65" t="s">
+        <v>316</v>
+      </c>
+      <c r="AB65" t="s"/>
+      <c r="AC65" t="s"/>
+      <c r="AD65" t="s"/>
+      <c r="AE65" t="s"/>
+    </row>
+    <row r="66" spans="1:31">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="s">
+        <v>317</v>
+      </c>
+      <c r="E66" t="s">
+        <v>318</v>
+      </c>
+      <c r="F66" t="s">
+        <v>319</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0</v>
+      </c>
+      <c r="H66" t="n">
+        <v>0</v>
+      </c>
+      <c r="I66" t="s">
+        <v>320</v>
+      </c>
+      <c r="J66" t="s"/>
+      <c r="K66" t="n">
+        <v>1.059840320878203e+18</v>
+      </c>
+      <c r="L66" t="n">
+        <v>1.059840320878203e+18</v>
+      </c>
+      <c r="M66" t="s">
+        <v>321</v>
+      </c>
+      <c r="N66" t="n">
+        <v>1.059533817969558e+18</v>
+      </c>
+      <c r="O66" t="n">
+        <v>1.059533817969558e+18</v>
+      </c>
+      <c r="P66" t="n">
+        <v>8.166254611954074e+17</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>8.166254611954074e+17</v>
+      </c>
+      <c r="R66" t="n">
+        <v>0</v>
+      </c>
+      <c r="S66" t="s">
+        <v>34</v>
+      </c>
+      <c r="T66" t="s">
+        <v>114</v>
+      </c>
+      <c r="U66" t="s"/>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="n">
+        <v>0</v>
+      </c>
+      <c r="X66" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y66" t="s"/>
+      <c r="Z66" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA66" t="s">
+        <v>322</v>
+      </c>
+      <c r="AB66" t="s"/>
+      <c r="AC66" t="s"/>
+      <c r="AD66" t="s"/>
+      <c r="AE66" t="s"/>
+    </row>
+    <row r="67" spans="1:31">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="s">
+        <v>323</v>
+      </c>
+      <c r="E67" t="s">
+        <v>225</v>
+      </c>
+      <c r="F67" t="s">
+        <v>324</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0</v>
+      </c>
+      <c r="H67" t="n">
+        <v>0</v>
+      </c>
+      <c r="I67" t="s">
+        <v>325</v>
+      </c>
+      <c r="J67" t="s"/>
+      <c r="K67" t="n">
+        <v>1.060174420914962e+18</v>
+      </c>
+      <c r="L67" t="n">
+        <v>1.060174420914962e+18</v>
+      </c>
+      <c r="M67" t="s">
+        <v>51</v>
+      </c>
+      <c r="N67" t="s"/>
+      <c r="O67" t="s"/>
+      <c r="P67" t="n">
+        <v>7.558699847614792e+17</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>7.55869984761479e+17</v>
+      </c>
+      <c r="R67" t="n">
+        <v>0</v>
+      </c>
+      <c r="S67" t="s">
+        <v>34</v>
+      </c>
+      <c r="T67" t="s">
+        <v>114</v>
+      </c>
+      <c r="U67" t="s"/>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="n">
+        <v>0</v>
+      </c>
+      <c r="X67" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y67" t="s"/>
+      <c r="Z67" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA67" t="s">
+        <v>326</v>
+      </c>
+      <c r="AB67" t="s"/>
+      <c r="AC67" t="s"/>
+      <c r="AD67" t="s"/>
+      <c r="AE67" t="s"/>
+    </row>
+    <row r="68" spans="1:31">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="s">
+        <v>327</v>
+      </c>
+      <c r="E68" t="s">
+        <v>328</v>
+      </c>
+      <c r="F68" t="s">
+        <v>329</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0</v>
+      </c>
+      <c r="H68" t="n">
+        <v>0</v>
+      </c>
+      <c r="I68" t="s">
+        <v>330</v>
+      </c>
+      <c r="J68" t="s"/>
+      <c r="K68" t="n">
+        <v>1.060820260255875e+18</v>
+      </c>
+      <c r="L68" t="s">
+        <v>331</v>
+      </c>
+      <c r="M68" t="s"/>
+      <c r="N68" t="s"/>
+      <c r="O68" t="s"/>
+      <c r="P68" t="s"/>
+      <c r="Q68" t="s"/>
+      <c r="R68" t="n">
+        <v>0</v>
+      </c>
+      <c r="S68" t="s">
+        <v>71</v>
+      </c>
+      <c r="T68" t="s">
+        <v>202</v>
+      </c>
+      <c r="U68" t="s"/>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="n">
+        <v>0</v>
+      </c>
+      <c r="X68" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y68" t="s"/>
+      <c r="Z68" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA68" t="s">
+        <v>332</v>
+      </c>
+      <c r="AB68" t="s"/>
+      <c r="AC68" t="s"/>
+      <c r="AD68" t="s"/>
+      <c r="AE68" t="s"/>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/master.xlsx
+++ b/master.xlsx
@@ -1,21 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\gdrive\world-control\bot\world-control\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA5715E2-374E-464A-A9A4-E479B2529C90}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="179021"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="319">
   <si>
     <t>contributors</t>
   </si>
@@ -821,30 +833,6 @@
     <t>{'profile_link_color': '000000', 'profile_text_color': '000000', 'lang': 'en', 'profile_sidebar_fill_color': '000000', 'is_translation_enabled': False, 'listed_count': 0, 'translator_type': 'none', 'screen_name': 'MinisterVlatin', 'entities': {'url': {'urls': [{'expanded_url': 'http://world-control.net', 'url': 'https://t.co/AgubHQIUXe', 'display_url': 'world-control.net', 'indices': [0, 23]}]}, 'description': {'urls': []}}, 'profile_background_color': '000000', 'url': 'https://t.co/AgubHQIUXe', 'notifications': False, 'profile_background_image_url_https': 'https://abs.twimg.com/images/themes/theme1/bg.png', 'profile_image_url_https': 'https://pbs.twimg.com/profile_images/1041036258745765890/C-8rzdz5_normal.jpg', 'profile_image_url': 'http://pbs.twimg.com/profile_images/1041036258745765890/C-8rzdz5_normal.jpg', 'has_extended_profile': False, 'is_translator': False, 'utc_offset': None, 'verified': False, 'profile_background_image_url': 'http://abs.twimg.com/images/themes/theme1/bg.png', 'contributors_enabled': False, 'location': 'Moscow, Russia', 'description': 'Seizing @truWorldControl by spreading #fakenewz. #proudtobeabot 🤖 by @RKalcik', 'id_str': '1017118454711771136', 'profile_use_background_image': False, 'protected': False, 'profile_sidebar_border_color': '000000', 'geo_enabled': False, 'followers_count': 6, 'statuses_count': 134, 'name': 'Minister Vlatin', 'created_at': 'Wed Jul 11 18:48:31 +0000 2018', 'follow_request_sent': False, 'favourites_count': 6, 'default_profile': False, 'following': False, 'id': 1017118454711771136, 'default_profile_image': False, 'time_zone': None, 'profile_banner_url': 'https://pbs.twimg.com/profile_banners/1017118454711771136/1535920961', 'friends_count': 13, 'profile_background_tile': False}</t>
   </si>
   <si>
-    <t>Wed Oct 03 19:43:17 +0000 2018</t>
-  </si>
-  <si>
-    <t>[0, 36]</t>
-  </si>
-  <si>
-    <t>{'hashtags': [{'text': 'fakenewz', 'indices': [17, 26]}], 'symbols': [], 'user_mentions': [{'screen_name': 'truWorldControl', 'name': 'WorldControl  🎲🎲', 'id': 755869984761479168, 'id_str': '755869984761479168', 'indices': [0, 16]}], 'urls': []}</t>
-  </si>
-  <si>
-    <t>@truWorldControl #fakenewz huhu!!!!!</t>
-  </si>
-  <si>
-    <t>tl</t>
-  </si>
-  <si>
-    <t>{'iso_language_code': 'tl', 'result_type': 'recent'}</t>
-  </si>
-  <si>
-    <t>{'id': '9f659d51e5c5deae', 'url': 'https://api.twitter.com/1.1/geo/id/9f659d51e5c5deae.json', 'place_type': 'city', 'name': 'Vienna', 'full_name': 'Vienna, Austria', 'country_code': 'AT', 'country': 'Austria', 'contained_within': [], 'bounding_box': {'type': 'Polygon', 'coordinates': [[[16.18218, 48.117666], [16.577511, 48.117666], [16.577511, 48.322574], [16.18218, 48.322574]]]}, 'attributes': {}}</t>
-  </si>
-  <si>
-    <t>{'id': 2842987192, 'id_str': '2842987192', 'name': 'Georg Demmer', 'screen_name': 'georgdemmer', 'location': 'Wien, Österreich', 'description': '@CoSpace_Vienna', 'url': 'https://t.co/kDFJq6lPz1', 'entities': {'url': {'urls': [{'url': 'https://t.co/kDFJq6lPz1', 'expanded_url': 'http://www.gad.at', 'display_url': 'gad.at', 'indices': [0, 23]}]}, 'description': {'urls': []}}, 'protected': False, 'followers_count': 50, 'friends_count': 97, 'listed_count': 4, 'created_at': 'Fri Oct 24 22:32:27 +0000 2014', 'favourites_count': 17, 'utc_offset': None, 'time_zone': None, 'geo_enabled': True, 'verified': False, 'statuses_count': 49, 'lang': 'de', 'contributors_enabled': False, 'is_translator': False, 'is_translation_enabled': False, 'profile_background_color': '000000', 'profile_background_image_url': 'http://abs.twimg.com/images/themes/theme1/bg.png', 'profile_background_image_url_https': 'https://abs.twimg.com/images/themes/theme1/bg.png', 'profile_background_tile': False, 'profile_image_url': 'http://pbs.twimg.com/profile_images/841478292364378112/cPC-0V2Y_normal.jpg', 'profile_image_url_https': 'https://pbs.twimg.com/profile_images/841478292364378112/cPC-0V2Y_normal.jpg', 'profile_link_color': 'F58EA8', 'profile_sidebar_border_color': '000000', 'profile_sidebar_fill_color': '000000', 'profile_text_color': '000000', 'profile_use_background_image': False, 'has_extended_profile': False, 'default_profile': False, 'default_profile_image': False, 'following': False, 'follow_request_sent': False, 'notifications': False, 'translator_type': 'none'}</t>
-  </si>
-  <si>
     <t>Thu Oct 04 08:40:24 +0000 2018</t>
   </si>
   <si>
@@ -980,12 +968,6 @@
     <t>{'urls': [], 'hashtags': [], 'user_mentions': [{'screen_name': 'truWorldControl', 'indices': [0, 16], 'id_str': '755869984761479168', 'id': 755869984761479168, 'name': 'WorldControl  🎲🎲'}], 'symbols': []}</t>
   </si>
   <si>
-    <t>@truWorldControl fakenewz
-Achse der Billigen
-Bayern gründet Biernation mit Östereich
-[ Vienna +1 🚘 -1🥦]</t>
-  </si>
-  <si>
     <t>{'utc_offset': None, 'id': 1042401483759788032, 'translator_type': 'none', 'description': '♟️', 'contributors_enabled': False, 'has_extended_profile': True, 'profile_use_background_image': False, 'lang': 'en', 'time_zone': None, 'followers_count': 0, 'profile_background_image_url_https': 'https://abs.twimg.com/images/themes/theme1/bg.png', 'url': 'https://t.co/Gnj0QDj9c8', 'favourites_count': 2, 'profile_background_color': '000000', 'profile_image_url_https': 'https://pbs.twimg.com/profile_images/1042406021967298560/r5rbeGEh_normal.jpg', 'name': 'imago.im', 'id_str': '1042401483759788032', 'profile_background_tile': False, 'geo_enabled': False, 'profile_image_url': 'http://pbs.twimg.com/profile_images/1042406021967298560/r5rbeGEh_normal.jpg', 'profile_banner_url': 'https://pbs.twimg.com/profile_banners/1042401483759788032/1537364017', 'protected': False, 'notifications': False, 'is_translator': False, 'entities': {'url': {'urls': [{'url': 'https://t.co/Gnj0QDj9c8', 'expanded_url': 'http://imago.im', 'indices': [0, 23], 'display_url': 'imago.im'}]}, 'description': {'urls': []}}, 'profile_text_color': '000000', 'follow_request_sent': False, 'default_profile': False, 'profile_link_color': '000000', 'listed_count': 0, 'location': 'Vienna, Austria', 'friends_count': 3, 'created_at': 'Wed Sep 19 13:14:15 +0000 2018', 'verified': False, 'profile_sidebar_fill_color': '000000', 'profile_background_image_url': 'http://abs.twimg.com/images/themes/theme1/bg.png', 'following': False, 'screen_name': 'im_imago', 'profile_sidebar_border_color': '000000', 'statuses_count': 4, 'default_profile_image': False, 'is_translation_enabled': False}</t>
   </si>
   <si>
@@ -1121,24 +1103,6 @@
     <t>{'utc_offset': None, 'id': 1042401483759788032, 'translator_type': 'none', 'description': '♟️', 'contributors_enabled': False, 'has_extended_profile': True, 'profile_use_background_image': False, 'lang': 'en', 'time_zone': None, 'followers_count': 0, 'profile_background_image_url_https': 'https://abs.twimg.com/images/themes/theme1/bg.png', 'url': 'https://t.co/Gnj0QDj9c8', 'favourites_count': 2, 'profile_background_color': '000000', 'profile_image_url_https': 'https://pbs.twimg.com/profile_images/1042406021967298560/r5rbeGEh_normal.jpg', 'name': 'imago.im', 'id_str': '1042401483759788032', 'profile_background_tile': False, 'geo_enabled': False, 'profile_image_url': 'http://pbs.twimg.com/profile_images/1042406021967298560/r5rbeGEh_normal.jpg', 'profile_banner_url': 'https://pbs.twimg.com/profile_banners/1042401483759788032/1537364017', 'protected': False, 'notifications': False, 'is_translator': False, 'entities': {'url': {'urls': [{'url': 'https://t.co/Gnj0QDj9c8', 'expanded_url': 'http://imago.im', 'indices': [0, 23], 'display_url': 'imago.im'}]}, 'description': {'urls': []}}, 'profile_text_color': '000000', 'follow_request_sent': False, 'default_profile': False, 'profile_link_color': '000000', 'listed_count': 0, 'location': 'Vienna, Austria', 'friends_count': 3, 'created_at': 'Wed Sep 19 13:14:15 +0000 2018', 'verified': False, 'profile_sidebar_fill_color': '000000', 'profile_background_image_url': 'http://abs.twimg.com/images/themes/theme1/bg.png', 'following': False, 'screen_name': 'im_imago', 'profile_sidebar_border_color': '000000', 'statuses_count': 14, 'default_profile_image': False, 'is_translation_enabled': False}</t>
   </si>
   <si>
-    <t>Tue Nov 06 16:09:58 +0000 2018</t>
-  </si>
-  <si>
-    <t>[17, 72]</t>
-  </si>
-  <si>
-    <t>{'hashtags': [], 'urls': [], 'user_mentions': [{'name': 'Mahmoud Ahmadinejad', 'screen_name': 'Ahmadinejad1956', 'id_str': '816625461195407360', 'id': 816625461195407360, 'indices': [0, 16]}, {'name': 'WorldControl  🎲🎲', 'screen_name': 'truWorldControl', 'id_str': '755869984761479168', 'id': 755869984761479168, 'indices': [56, 72]}], 'symbols': []}</t>
-  </si>
-  <si>
-    <t>@Ahmadinejad1956 ;) Playerz more equal know how to play @truWorldControl</t>
-  </si>
-  <si>
-    <t>Ahmadinejad1956</t>
-  </si>
-  <si>
-    <t>{'listed_count': 0, 'profile_text_color': '000000', 'screen_name': 'MinisterVlatin', 'utc_offset': None, 'protected': False, 'created_at': 'Wed Jul 11 18:48:31 +0000 2018', 'name': 'Minister Vlatin', 'verified': False, 'statuses_count': 163, 'contributors_enabled': False, 'time_zone': None, 'profile_background_color': '000000', 'profile_image_url_https': 'https://pbs.twimg.com/profile_images/1041036258745765890/C-8rzdz5_normal.jpg', 'profile_use_background_image': False, 'id': 1017118454711771136, 'geo_enabled': False, 'translator_type': 'none', 'follow_request_sent': False, 'following': False, 'description': 'Seizing @truWorldControl by spreading #fakenewz. #proudtobeabot 🤖 by @RKalcik', 'notifications': False, 'profile_background_image_url_https': 'https://abs.twimg.com/images/themes/theme1/bg.png', 'default_profile': False, 'favourites_count': 11, 'profile_image_url': 'http://pbs.twimg.com/profile_images/1041036258745765890/C-8rzdz5_normal.jpg', 'entities': {'url': {'urls': [{'indices': [0, 23], 'display_url': 'world-control.net', 'expanded_url': 'http://world-control.net', 'url': 'https://t.co/AgubHQIUXe'}]}, 'description': {'urls': []}}, 'lang': 'en', 'profile_background_image_url': 'http://abs.twimg.com/images/themes/theme1/bg.png', 'id_str': '1017118454711771136', 'profile_link_color': '000000', 'profile_banner_url': 'https://pbs.twimg.com/profile_banners/1017118454711771136/1535920961', 'default_profile_image': False, 'profile_sidebar_border_color': '000000', 'is_translation_enabled': False, 'url': 'https://t.co/AgubHQIUXe', 'followers_count': 8, 'location': 'Moscow, Russia', 'profile_sidebar_fill_color': '000000', 'has_extended_profile': False, 'profile_background_tile': False, 'friends_count': 20, 'is_translator': False}</t>
-  </si>
-  <si>
     <t>Wed Nov 07 14:17:33 +0000 2018</t>
   </si>
   <si>
@@ -1173,27 +1137,34 @@
   <si>
     <t>{'profile_banner_url': 'https://pbs.twimg.com/profile_banners/704671889680175104/1521637593', 'has_extended_profile': False, 'id': 704671889680175104, 'profile_sidebar_border_color': '000000', 'is_translator': False, 'profile_image_url': 'http://pbs.twimg.com/profile_images/931580844904472576/PEk2Nmu8_normal.jpg', 'contributors_enabled': False, 'profile_link_color': '1B95E0', 'profile_background_image_url_https': 'https://abs.twimg.com/images/themes/theme1/bg.png', 'follow_request_sent': False, 'profile_sidebar_fill_color': '000000', 'is_translation_enabled': False, 'default_profile': False, 'profile_image_url_https': 'https://pbs.twimg.com/profile_images/931580844904472576/PEk2Nmu8_normal.jpg', 'verified': False, 'profile_use_background_image': False, 'id_str': '704671889680175104', 'lang': 'de', 'translator_type': 'none', 'url': 'https://t.co/6WyAfmnHio', 'notifications': False, 'description': '(Un-)Freier Journalist, Hobbyphilsoph, rücksichtsloser Polemiker, Bartträger. Sonst noch was? Ja, lustig bin ich auch. Macht sich gut, haben sie gesagt.', 'favourites_count': 660, 'time_zone': None, 'location': 'Wien, Österreich', 'geo_enabled': False, 'friends_count': 1305, 'screen_name': 'HannesGress', 'profile_background_image_url': 'http://abs.twimg.com/images/themes/theme1/bg.png', 'listed_count': 0, 'name': 'Johannes Gress', 'default_profile_image': False, 'utc_offset': None, 'following': False, 'profile_background_tile': False, 'followers_count': 108, 'profile_text_color': '000000', 'protected': False, 'profile_background_color': '000000', 'entities': {'description': {'urls': []}, 'url': {'urls': [{'expanded_url': 'http://www.hogn.de', 'indices': [0, 23], 'display_url': 'hogn.de', 'url': 'https://t.co/6WyAfmnHio'}]}}, 'statuses_count': 263, 'created_at': 'Tue Mar 01 14:17:25 +0000 2016'}</t>
   </si>
+  <si>
+    <t xml:space="preserve"> #fakenewz @truWorldControl
+Achse der Billigen
+Bayern gründet Biernation mit Östereich
+[ Vienna +1 🚘 -1🥦]</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -1208,26 +1179,46 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1515,20 +1506,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:AE68"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AE66"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="B31" workbookViewId="0">
+      <selection activeCell="I48" sqref="I48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="9" max="9" width="32.140625" customWidth="1"/>
+    <col min="12" max="12" width="20.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:31">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1620,12 +1611,10 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:31">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
       <c r="D2" t="s">
         <v>30</v>
       </c>
@@ -1635,28 +1624,22 @@
       <c r="F2" t="s">
         <v>32</v>
       </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
         <v>0</v>
       </c>
       <c r="I2" t="s">
         <v>33</v>
       </c>
-      <c r="J2" t="s"/>
-      <c r="K2" t="n">
-        <v>1.03924e+18</v>
-      </c>
-      <c r="L2" t="n">
-        <v>1.03924e+18</v>
-      </c>
-      <c r="M2" t="s"/>
-      <c r="N2" t="s"/>
-      <c r="O2" t="s"/>
-      <c r="P2" t="s"/>
-      <c r="Q2" t="s"/>
-      <c r="R2" t="n">
+      <c r="K2">
+        <v>1.03924E+18</v>
+      </c>
+      <c r="L2">
+        <v>1.03924E+18</v>
+      </c>
+      <c r="R2">
         <v>0</v>
       </c>
       <c r="S2" t="s">
@@ -1665,65 +1648,51 @@
       <c r="T2" t="s">
         <v>35</v>
       </c>
-      <c r="U2" t="s"/>
-      <c r="V2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W2" t="n">
+      <c r="V2">
+        <v>0</v>
+      </c>
+      <c r="W2">
         <v>0</v>
       </c>
       <c r="X2" t="s">
         <v>36</v>
       </c>
-      <c r="Y2" t="s"/>
-      <c r="Z2" t="n">
+      <c r="Z2">
         <v>0</v>
       </c>
       <c r="AA2" t="s">
         <v>37</v>
       </c>
-      <c r="AB2" t="s"/>
-      <c r="AC2" t="s"/>
-      <c r="AD2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE2" t="s"/>
-    </row>
-    <row r="3" spans="1:31">
-      <c r="A3" s="1" t="n">
+      <c r="AD2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
       <c r="D3" t="s">
         <v>38</v>
       </c>
-      <c r="E3" t="s"/>
       <c r="F3" t="s">
         <v>39</v>
       </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
         <v>0</v>
       </c>
       <c r="I3" t="s">
         <v>40</v>
       </c>
-      <c r="J3" t="s"/>
-      <c r="K3" t="n">
-        <v>1.03765e+18</v>
-      </c>
-      <c r="L3" t="n">
-        <v>1.03765e+18</v>
-      </c>
-      <c r="M3" t="s"/>
-      <c r="N3" t="s"/>
-      <c r="O3" t="s"/>
-      <c r="P3" t="s"/>
-      <c r="Q3" t="s"/>
-      <c r="R3" t="n">
+      <c r="K3">
+        <v>1.03765E+18</v>
+      </c>
+      <c r="L3">
+        <v>1.03765E+18</v>
+      </c>
+      <c r="R3">
         <v>0</v>
       </c>
       <c r="S3" t="s">
@@ -1732,11 +1701,10 @@
       <c r="T3" t="s">
         <v>35</v>
       </c>
-      <c r="U3" t="s"/>
-      <c r="V3" t="n">
-        <v>0</v>
-      </c>
-      <c r="W3" t="n">
+      <c r="V3">
+        <v>0</v>
+      </c>
+      <c r="W3">
         <v>0</v>
       </c>
       <c r="X3" t="s">
@@ -1745,54 +1713,42 @@
       <c r="Y3" t="s">
         <v>40</v>
       </c>
-      <c r="Z3" t="n">
+      <c r="Z3">
         <v>0</v>
       </c>
       <c r="AA3" t="s">
         <v>42</v>
       </c>
-      <c r="AB3" t="s"/>
-      <c r="AC3" t="s"/>
-      <c r="AD3" t="n">
+      <c r="AD3">
         <v>1</v>
       </c>
-      <c r="AE3" t="s"/>
-    </row>
-    <row r="4" spans="1:31">
-      <c r="A4" s="1" t="n">
+    </row>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
       <c r="D4" t="s">
         <v>43</v>
       </c>
-      <c r="E4" t="s"/>
       <c r="F4" t="s">
         <v>44</v>
       </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
         <v>0</v>
       </c>
       <c r="I4" t="s">
         <v>45</v>
       </c>
-      <c r="J4" t="s"/>
-      <c r="K4" t="n">
-        <v>1.0348e+18</v>
-      </c>
-      <c r="L4" t="n">
-        <v>1.0348e+18</v>
-      </c>
-      <c r="M4" t="s"/>
-      <c r="N4" t="s"/>
-      <c r="O4" t="s"/>
-      <c r="P4" t="s"/>
-      <c r="Q4" t="s"/>
-      <c r="R4" t="n">
+      <c r="K4">
+        <v>1.0348E+18</v>
+      </c>
+      <c r="L4">
+        <v>1.0348E+18</v>
+      </c>
+      <c r="R4">
         <v>0</v>
       </c>
       <c r="S4" t="s">
@@ -1801,11 +1757,10 @@
       <c r="T4" t="s">
         <v>35</v>
       </c>
-      <c r="U4" t="s"/>
-      <c r="V4" t="n">
-        <v>0</v>
-      </c>
-      <c r="W4" t="n">
+      <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="W4">
         <v>0</v>
       </c>
       <c r="X4" t="s">
@@ -1814,60 +1769,51 @@
       <c r="Y4" t="s">
         <v>46</v>
       </c>
-      <c r="Z4" t="n">
+      <c r="Z4">
         <v>0</v>
       </c>
       <c r="AA4" t="s">
         <v>47</v>
       </c>
-      <c r="AB4" t="s"/>
-      <c r="AC4" t="s"/>
-      <c r="AD4" t="n">
+      <c r="AD4">
         <v>2</v>
       </c>
-      <c r="AE4" t="s"/>
-    </row>
-    <row r="5" spans="1:31">
-      <c r="A5" s="1" t="n">
+    </row>
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
       <c r="D5" t="s">
         <v>48</v>
       </c>
-      <c r="E5" t="s"/>
       <c r="F5" t="s">
         <v>49</v>
       </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
         <v>0</v>
       </c>
       <c r="I5" t="s">
         <v>50</v>
       </c>
-      <c r="J5" t="s"/>
-      <c r="K5" t="n">
-        <v>1.03266e+18</v>
-      </c>
-      <c r="L5" t="n">
-        <v>1.03266e+18</v>
+      <c r="K5">
+        <v>1.03266E+18</v>
+      </c>
+      <c r="L5">
+        <v>1.03266E+18</v>
       </c>
       <c r="M5" t="s">
         <v>51</v>
       </c>
-      <c r="N5" t="s"/>
-      <c r="O5" t="s"/>
-      <c r="P5" t="n">
-        <v>7.56e+17</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>7.5587e+17</v>
-      </c>
-      <c r="R5" t="n">
+      <c r="P5">
+        <v>7.56E+17</v>
+      </c>
+      <c r="Q5">
+        <v>7.5587E+17</v>
+      </c>
+      <c r="R5">
         <v>0</v>
       </c>
       <c r="S5" t="s">
@@ -1876,11 +1822,10 @@
       <c r="T5" t="s">
         <v>35</v>
       </c>
-      <c r="U5" t="s"/>
-      <c r="V5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W5" t="n">
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5">
         <v>0</v>
       </c>
       <c r="X5" t="s">
@@ -1889,60 +1834,51 @@
       <c r="Y5" t="s">
         <v>50</v>
       </c>
-      <c r="Z5" t="n">
+      <c r="Z5">
         <v>0</v>
       </c>
       <c r="AA5" t="s">
         <v>52</v>
       </c>
-      <c r="AB5" t="s"/>
-      <c r="AC5" t="s"/>
-      <c r="AD5" t="n">
+      <c r="AD5">
         <v>4</v>
       </c>
-      <c r="AE5" t="s"/>
-    </row>
-    <row r="6" spans="1:31">
-      <c r="A6" s="1" t="n">
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
       <c r="D6" t="s">
         <v>53</v>
       </c>
-      <c r="E6" t="s"/>
       <c r="F6" t="s">
         <v>49</v>
       </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
         <v>0</v>
       </c>
       <c r="I6" t="s">
         <v>54</v>
       </c>
-      <c r="J6" t="s"/>
-      <c r="K6" t="n">
-        <v>1.03266e+18</v>
-      </c>
-      <c r="L6" t="n">
-        <v>1.03266e+18</v>
+      <c r="K6">
+        <v>1.03266E+18</v>
+      </c>
+      <c r="L6">
+        <v>1.03266E+18</v>
       </c>
       <c r="M6" t="s">
         <v>51</v>
       </c>
-      <c r="N6" t="s"/>
-      <c r="O6" t="s"/>
-      <c r="P6" t="n">
-        <v>7.56e+17</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>7.5587e+17</v>
-      </c>
-      <c r="R6" t="n">
+      <c r="P6">
+        <v>7.56E+17</v>
+      </c>
+      <c r="Q6">
+        <v>7.5587E+17</v>
+      </c>
+      <c r="R6">
         <v>0</v>
       </c>
       <c r="S6" t="s">
@@ -1951,11 +1887,10 @@
       <c r="T6" t="s">
         <v>35</v>
       </c>
-      <c r="U6" t="s"/>
-      <c r="V6" t="n">
-        <v>0</v>
-      </c>
-      <c r="W6" t="n">
+      <c r="V6">
+        <v>0</v>
+      </c>
+      <c r="W6">
         <v>0</v>
       </c>
       <c r="X6" t="s">
@@ -1964,60 +1899,51 @@
       <c r="Y6" t="s">
         <v>54</v>
       </c>
-      <c r="Z6" t="n">
+      <c r="Z6">
         <v>0</v>
       </c>
       <c r="AA6" t="s">
         <v>55</v>
       </c>
-      <c r="AB6" t="s"/>
-      <c r="AC6" t="s"/>
-      <c r="AD6" t="n">
+      <c r="AD6">
         <v>5</v>
       </c>
-      <c r="AE6" t="s"/>
-    </row>
-    <row r="7" spans="1:31">
-      <c r="A7" s="1" t="n">
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
       <c r="D7" t="s">
         <v>56</v>
       </c>
-      <c r="E7" t="s"/>
       <c r="F7" t="s">
         <v>49</v>
       </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
         <v>0</v>
       </c>
       <c r="I7" t="s">
         <v>57</v>
       </c>
-      <c r="J7" t="s"/>
-      <c r="K7" t="n">
-        <v>1.03266e+18</v>
-      </c>
-      <c r="L7" t="n">
-        <v>1.03266e+18</v>
+      <c r="K7">
+        <v>1.03266E+18</v>
+      </c>
+      <c r="L7">
+        <v>1.03266E+18</v>
       </c>
       <c r="M7" t="s">
         <v>51</v>
       </c>
-      <c r="N7" t="s"/>
-      <c r="O7" t="s"/>
-      <c r="P7" t="n">
-        <v>7.56e+17</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>7.5587e+17</v>
-      </c>
-      <c r="R7" t="n">
+      <c r="P7">
+        <v>7.56E+17</v>
+      </c>
+      <c r="Q7">
+        <v>7.5587E+17</v>
+      </c>
+      <c r="R7">
         <v>0</v>
       </c>
       <c r="S7" t="s">
@@ -2026,11 +1952,10 @@
       <c r="T7" t="s">
         <v>35</v>
       </c>
-      <c r="U7" t="s"/>
-      <c r="V7" t="n">
-        <v>0</v>
-      </c>
-      <c r="W7" t="n">
+      <c r="V7">
+        <v>0</v>
+      </c>
+      <c r="W7">
         <v>0</v>
       </c>
       <c r="X7" t="s">
@@ -2039,60 +1964,51 @@
       <c r="Y7" t="s">
         <v>57</v>
       </c>
-      <c r="Z7" t="n">
+      <c r="Z7">
         <v>0</v>
       </c>
       <c r="AA7" t="s">
         <v>58</v>
       </c>
-      <c r="AB7" t="s"/>
-      <c r="AC7" t="s"/>
-      <c r="AD7" t="n">
+      <c r="AD7">
         <v>6</v>
       </c>
-      <c r="AE7" t="s"/>
-    </row>
-    <row r="8" spans="1:31">
-      <c r="A8" s="1" t="n">
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
       <c r="D8" t="s">
         <v>59</v>
       </c>
-      <c r="E8" t="s"/>
       <c r="F8" t="s">
         <v>49</v>
       </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
         <v>0</v>
       </c>
       <c r="I8" t="s">
         <v>60</v>
       </c>
-      <c r="J8" t="s"/>
-      <c r="K8" t="n">
-        <v>1.03265e+18</v>
-      </c>
-      <c r="L8" t="n">
-        <v>1.03265e+18</v>
+      <c r="K8">
+        <v>1.03265E+18</v>
+      </c>
+      <c r="L8">
+        <v>1.03265E+18</v>
       </c>
       <c r="M8" t="s">
         <v>51</v>
       </c>
-      <c r="N8" t="s"/>
-      <c r="O8" t="s"/>
-      <c r="P8" t="n">
-        <v>7.56e+17</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>7.5587e+17</v>
-      </c>
-      <c r="R8" t="n">
+      <c r="P8">
+        <v>7.56E+17</v>
+      </c>
+      <c r="Q8">
+        <v>7.5587E+17</v>
+      </c>
+      <c r="R8">
         <v>0</v>
       </c>
       <c r="S8" t="s">
@@ -2101,11 +2017,10 @@
       <c r="T8" t="s">
         <v>35</v>
       </c>
-      <c r="U8" t="s"/>
-      <c r="V8" t="n">
-        <v>0</v>
-      </c>
-      <c r="W8" t="n">
+      <c r="V8">
+        <v>0</v>
+      </c>
+      <c r="W8">
         <v>0</v>
       </c>
       <c r="X8" t="s">
@@ -2114,60 +2029,51 @@
       <c r="Y8" t="s">
         <v>60</v>
       </c>
-      <c r="Z8" t="n">
+      <c r="Z8">
         <v>0</v>
       </c>
       <c r="AA8" t="s">
         <v>61</v>
       </c>
-      <c r="AB8" t="s"/>
-      <c r="AC8" t="s"/>
-      <c r="AD8" t="n">
+      <c r="AD8">
         <v>7</v>
       </c>
-      <c r="AE8" t="s"/>
-    </row>
-    <row r="9" spans="1:31">
-      <c r="A9" s="1" t="n">
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
       <c r="D9" t="s">
         <v>62</v>
       </c>
-      <c r="E9" t="s"/>
       <c r="F9" t="s">
         <v>49</v>
       </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
         <v>0</v>
       </c>
       <c r="I9" t="s">
         <v>63</v>
       </c>
-      <c r="J9" t="s"/>
-      <c r="K9" t="n">
-        <v>1.03265e+18</v>
-      </c>
-      <c r="L9" t="n">
-        <v>1.03265e+18</v>
+      <c r="K9">
+        <v>1.03265E+18</v>
+      </c>
+      <c r="L9">
+        <v>1.03265E+18</v>
       </c>
       <c r="M9" t="s">
         <v>51</v>
       </c>
-      <c r="N9" t="s"/>
-      <c r="O9" t="s"/>
-      <c r="P9" t="n">
-        <v>7.56e+17</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>7.5587e+17</v>
-      </c>
-      <c r="R9" t="n">
+      <c r="P9">
+        <v>7.56E+17</v>
+      </c>
+      <c r="Q9">
+        <v>7.5587E+17</v>
+      </c>
+      <c r="R9">
         <v>0</v>
       </c>
       <c r="S9" t="s">
@@ -2176,11 +2082,10 @@
       <c r="T9" t="s">
         <v>35</v>
       </c>
-      <c r="U9" t="s"/>
-      <c r="V9" t="n">
-        <v>0</v>
-      </c>
-      <c r="W9" t="n">
+      <c r="V9">
+        <v>0</v>
+      </c>
+      <c r="W9">
         <v>0</v>
       </c>
       <c r="X9" t="s">
@@ -2189,60 +2094,51 @@
       <c r="Y9" t="s">
         <v>63</v>
       </c>
-      <c r="Z9" t="n">
+      <c r="Z9">
         <v>0</v>
       </c>
       <c r="AA9" t="s">
         <v>64</v>
       </c>
-      <c r="AB9" t="s"/>
-      <c r="AC9" t="s"/>
-      <c r="AD9" t="n">
+      <c r="AD9">
         <v>8</v>
       </c>
-      <c r="AE9" t="s"/>
-    </row>
-    <row r="10" spans="1:31">
-      <c r="A10" s="1" t="n">
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
       <c r="D10" t="s">
         <v>65</v>
       </c>
-      <c r="E10" t="s"/>
       <c r="F10" t="s">
         <v>66</v>
       </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
         <v>0</v>
       </c>
       <c r="I10" t="s">
         <v>67</v>
       </c>
-      <c r="J10" t="s"/>
-      <c r="K10" t="n">
-        <v>1.03265e+18</v>
-      </c>
-      <c r="L10" t="n">
-        <v>1.03265e+18</v>
+      <c r="K10">
+        <v>1.03265E+18</v>
+      </c>
+      <c r="L10">
+        <v>1.03265E+18</v>
       </c>
       <c r="M10" t="s">
         <v>51</v>
       </c>
-      <c r="N10" t="s"/>
-      <c r="O10" t="s"/>
-      <c r="P10" t="n">
-        <v>7.56e+17</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>7.5587e+17</v>
-      </c>
-      <c r="R10" t="n">
+      <c r="P10">
+        <v>7.56E+17</v>
+      </c>
+      <c r="Q10">
+        <v>7.5587E+17</v>
+      </c>
+      <c r="R10">
         <v>0</v>
       </c>
       <c r="S10" t="s">
@@ -2251,11 +2147,10 @@
       <c r="T10" t="s">
         <v>35</v>
       </c>
-      <c r="U10" t="s"/>
-      <c r="V10" t="n">
-        <v>0</v>
-      </c>
-      <c r="W10" t="n">
+      <c r="V10">
+        <v>0</v>
+      </c>
+      <c r="W10">
         <v>0</v>
       </c>
       <c r="X10" t="s">
@@ -2264,60 +2159,51 @@
       <c r="Y10" t="s">
         <v>67</v>
       </c>
-      <c r="Z10" t="n">
+      <c r="Z10">
         <v>0</v>
       </c>
       <c r="AA10" t="s">
         <v>68</v>
       </c>
-      <c r="AB10" t="s"/>
-      <c r="AC10" t="s"/>
-      <c r="AD10" t="n">
+      <c r="AD10">
         <v>9</v>
       </c>
-      <c r="AE10" t="s"/>
-    </row>
-    <row r="11" spans="1:31">
-      <c r="A11" s="1" t="n">
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
       <c r="D11" t="s">
         <v>69</v>
       </c>
-      <c r="E11" t="s"/>
       <c r="F11" t="s">
         <v>49</v>
       </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
         <v>0</v>
       </c>
       <c r="I11" t="s">
         <v>70</v>
       </c>
-      <c r="J11" t="s"/>
-      <c r="K11" t="n">
-        <v>1.03237e+18</v>
-      </c>
-      <c r="L11" t="n">
-        <v>1.03237e+18</v>
+      <c r="K11">
+        <v>1.03237E+18</v>
+      </c>
+      <c r="L11">
+        <v>1.03237E+18</v>
       </c>
       <c r="M11" t="s">
         <v>51</v>
       </c>
-      <c r="N11" t="s"/>
-      <c r="O11" t="s"/>
-      <c r="P11" t="n">
-        <v>7.56e+17</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>7.5587e+17</v>
-      </c>
-      <c r="R11" t="n">
+      <c r="P11">
+        <v>7.56E+17</v>
+      </c>
+      <c r="Q11">
+        <v>7.5587E+17</v>
+      </c>
+      <c r="R11">
         <v>0</v>
       </c>
       <c r="S11" t="s">
@@ -2326,11 +2212,10 @@
       <c r="T11" t="s">
         <v>72</v>
       </c>
-      <c r="U11" t="s"/>
-      <c r="V11" t="n">
-        <v>0</v>
-      </c>
-      <c r="W11" t="n">
+      <c r="V11">
+        <v>0</v>
+      </c>
+      <c r="W11">
         <v>0</v>
       </c>
       <c r="X11" t="s">
@@ -2339,60 +2224,51 @@
       <c r="Y11" t="s">
         <v>70</v>
       </c>
-      <c r="Z11" t="n">
+      <c r="Z11">
         <v>0</v>
       </c>
       <c r="AA11" t="s">
         <v>73</v>
       </c>
-      <c r="AB11" t="s"/>
-      <c r="AC11" t="s"/>
-      <c r="AD11" t="n">
+      <c r="AD11">
         <v>10</v>
       </c>
-      <c r="AE11" t="s"/>
-    </row>
-    <row r="12" spans="1:31">
-      <c r="A12" s="1" t="n">
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
       <c r="D12" t="s">
         <v>74</v>
       </c>
-      <c r="E12" t="s"/>
       <c r="F12" t="s">
         <v>49</v>
       </c>
-      <c r="G12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" t="n">
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
         <v>0</v>
       </c>
       <c r="I12" t="s">
         <v>75</v>
       </c>
-      <c r="J12" t="s"/>
-      <c r="K12" t="n">
-        <v>1.03151e+18</v>
-      </c>
-      <c r="L12" t="n">
-        <v>1.03151e+18</v>
+      <c r="K12">
+        <v>1.03151E+18</v>
+      </c>
+      <c r="L12">
+        <v>1.03151E+18</v>
       </c>
       <c r="M12" t="s">
         <v>51</v>
       </c>
-      <c r="N12" t="s"/>
-      <c r="O12" t="s"/>
-      <c r="P12" t="n">
-        <v>7.56e+17</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>7.5587e+17</v>
-      </c>
-      <c r="R12" t="n">
+      <c r="P12">
+        <v>7.56E+17</v>
+      </c>
+      <c r="Q12">
+        <v>7.5587E+17</v>
+      </c>
+      <c r="R12">
         <v>0</v>
       </c>
       <c r="S12" t="s">
@@ -2401,11 +2277,10 @@
       <c r="T12" t="s">
         <v>35</v>
       </c>
-      <c r="U12" t="s"/>
-      <c r="V12" t="n">
-        <v>0</v>
-      </c>
-      <c r="W12" t="n">
+      <c r="V12">
+        <v>0</v>
+      </c>
+      <c r="W12">
         <v>0</v>
       </c>
       <c r="X12" t="s">
@@ -2414,60 +2289,51 @@
       <c r="Y12" t="s">
         <v>75</v>
       </c>
-      <c r="Z12" t="n">
+      <c r="Z12">
         <v>0</v>
       </c>
       <c r="AA12" t="s">
         <v>76</v>
       </c>
-      <c r="AB12" t="s"/>
-      <c r="AC12" t="s"/>
-      <c r="AD12" t="n">
+      <c r="AD12">
         <v>11</v>
       </c>
-      <c r="AE12" t="s"/>
-    </row>
-    <row r="13" spans="1:31">
-      <c r="A13" s="1" t="n">
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
       <c r="D13" t="s">
         <v>77</v>
       </c>
-      <c r="E13" t="s"/>
       <c r="F13" t="s">
         <v>78</v>
       </c>
-      <c r="G13" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" t="n">
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
         <v>0</v>
       </c>
       <c r="I13" t="s">
         <v>79</v>
       </c>
-      <c r="J13" t="s"/>
-      <c r="K13" t="n">
-        <v>1.02535e+18</v>
-      </c>
-      <c r="L13" t="n">
-        <v>1.02535e+18</v>
+      <c r="K13">
+        <v>1.02535E+18</v>
+      </c>
+      <c r="L13">
+        <v>1.02535E+18</v>
       </c>
       <c r="M13" t="s">
         <v>51</v>
       </c>
-      <c r="N13" t="s"/>
-      <c r="O13" t="s"/>
-      <c r="P13" t="n">
-        <v>7.56e+17</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>7.5587e+17</v>
-      </c>
-      <c r="R13" t="n">
+      <c r="P13">
+        <v>7.56E+17</v>
+      </c>
+      <c r="Q13">
+        <v>7.5587E+17</v>
+      </c>
+      <c r="R13">
         <v>0</v>
       </c>
       <c r="S13" t="s">
@@ -2476,11 +2342,10 @@
       <c r="T13" t="s">
         <v>35</v>
       </c>
-      <c r="U13" t="s"/>
-      <c r="V13" t="n">
-        <v>0</v>
-      </c>
-      <c r="W13" t="n">
+      <c r="V13">
+        <v>0</v>
+      </c>
+      <c r="W13">
         <v>0</v>
       </c>
       <c r="X13" t="s">
@@ -2489,60 +2354,51 @@
       <c r="Y13" t="s">
         <v>79</v>
       </c>
-      <c r="Z13" t="n">
+      <c r="Z13">
         <v>0</v>
       </c>
       <c r="AA13" t="s">
         <v>80</v>
       </c>
-      <c r="AB13" t="s"/>
-      <c r="AC13" t="s"/>
-      <c r="AD13" t="n">
+      <c r="AD13">
         <v>12</v>
       </c>
-      <c r="AE13" t="s"/>
-    </row>
-    <row r="14" spans="1:31">
-      <c r="A14" s="1" t="n">
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
       <c r="D14" t="s">
         <v>81</v>
       </c>
-      <c r="E14" t="s"/>
       <c r="F14" t="s">
         <v>82</v>
       </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
         <v>0</v>
       </c>
       <c r="I14" t="s">
         <v>83</v>
       </c>
-      <c r="J14" t="s"/>
-      <c r="K14" t="n">
-        <v>1.02534e+18</v>
-      </c>
-      <c r="L14" t="n">
-        <v>1.02534e+18</v>
+      <c r="K14">
+        <v>1.02534E+18</v>
+      </c>
+      <c r="L14">
+        <v>1.02534E+18</v>
       </c>
       <c r="M14" t="s">
         <v>51</v>
       </c>
-      <c r="N14" t="s"/>
-      <c r="O14" t="s"/>
-      <c r="P14" t="n">
-        <v>7.56e+17</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>7.5587e+17</v>
-      </c>
-      <c r="R14" t="n">
+      <c r="P14">
+        <v>7.56E+17</v>
+      </c>
+      <c r="Q14">
+        <v>7.5587E+17</v>
+      </c>
+      <c r="R14">
         <v>0</v>
       </c>
       <c r="S14" t="s">
@@ -2551,11 +2407,10 @@
       <c r="T14" t="s">
         <v>35</v>
       </c>
-      <c r="U14" t="s"/>
-      <c r="V14" t="n">
-        <v>0</v>
-      </c>
-      <c r="W14" t="n">
+      <c r="V14">
+        <v>0</v>
+      </c>
+      <c r="W14">
         <v>0</v>
       </c>
       <c r="X14" t="s">
@@ -2564,25 +2419,20 @@
       <c r="Y14" t="s">
         <v>83</v>
       </c>
-      <c r="Z14" t="n">
+      <c r="Z14">
         <v>0</v>
       </c>
       <c r="AA14" t="s">
         <v>84</v>
       </c>
-      <c r="AB14" t="s"/>
-      <c r="AC14" t="s"/>
-      <c r="AD14" t="n">
+      <c r="AD14">
         <v>13</v>
       </c>
-      <c r="AE14" t="s"/>
-    </row>
-    <row r="15" spans="1:31">
-      <c r="A15" s="1" t="n">
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
       <c r="D15" t="s">
         <v>85</v>
       </c>
@@ -2592,28 +2442,22 @@
       <c r="F15" t="s">
         <v>87</v>
       </c>
-      <c r="G15" t="n">
-        <v>0</v>
-      </c>
-      <c r="H15" t="n">
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
         <v>0</v>
       </c>
       <c r="I15" t="s">
         <v>88</v>
       </c>
-      <c r="J15" t="s"/>
-      <c r="K15" t="n">
-        <v>1.03925889804846e+18</v>
-      </c>
-      <c r="L15" t="n">
-        <v>1.03925889804846e+18</v>
-      </c>
-      <c r="M15" t="s"/>
-      <c r="N15" t="s"/>
-      <c r="O15" t="s"/>
-      <c r="P15" t="s"/>
-      <c r="Q15" t="s"/>
-      <c r="R15" t="n">
+      <c r="K15">
+        <v>1.03925889804846E+18</v>
+      </c>
+      <c r="L15">
+        <v>1.03925889804846E+18</v>
+      </c>
+      <c r="R15">
         <v>0</v>
       </c>
       <c r="S15" t="s">
@@ -2622,36 +2466,29 @@
       <c r="T15" t="s">
         <v>35</v>
       </c>
-      <c r="U15" t="s"/>
-      <c r="V15" t="n">
-        <v>0</v>
-      </c>
-      <c r="W15" t="n">
+      <c r="V15">
+        <v>0</v>
+      </c>
+      <c r="W15">
         <v>0</v>
       </c>
       <c r="X15" t="s">
         <v>36</v>
       </c>
-      <c r="Y15" t="s"/>
-      <c r="Z15" t="n">
+      <c r="Z15">
         <v>0</v>
       </c>
       <c r="AA15" t="s">
         <v>89</v>
       </c>
-      <c r="AB15" t="s"/>
-      <c r="AC15" t="s"/>
-      <c r="AD15" t="n">
+      <c r="AD15">
         <v>14</v>
       </c>
-      <c r="AE15" t="s"/>
-    </row>
-    <row r="16" spans="1:31">
-      <c r="A16" s="1" t="n">
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
       <c r="D16" t="s">
         <v>90</v>
       </c>
@@ -2661,34 +2498,31 @@
       <c r="F16" t="s">
         <v>92</v>
       </c>
-      <c r="G16" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" t="n">
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
         <v>0</v>
       </c>
       <c r="I16" t="s">
         <v>93</v>
       </c>
-      <c r="J16" t="s"/>
-      <c r="K16" t="n">
-        <v>1.03927026045154e+18</v>
-      </c>
-      <c r="L16" t="n">
-        <v>1.03927026045154e+18</v>
+      <c r="K16">
+        <v>1.03927026045154E+18</v>
+      </c>
+      <c r="L16">
+        <v>1.03927026045154E+18</v>
       </c>
       <c r="M16" t="s">
         <v>51</v>
       </c>
-      <c r="N16" t="s"/>
-      <c r="O16" t="s"/>
-      <c r="P16" t="n">
-        <v>7.55869984761479e+17</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>7.55869984761479e+17</v>
-      </c>
-      <c r="R16" t="n">
+      <c r="P16">
+        <v>7.5586998476147904E+17</v>
+      </c>
+      <c r="Q16">
+        <v>7.5586998476147904E+17</v>
+      </c>
+      <c r="R16">
         <v>0</v>
       </c>
       <c r="S16" t="s">
@@ -2697,36 +2531,29 @@
       <c r="T16" t="s">
         <v>35</v>
       </c>
-      <c r="U16" t="s"/>
-      <c r="V16" t="n">
-        <v>0</v>
-      </c>
-      <c r="W16" t="n">
+      <c r="V16">
+        <v>0</v>
+      </c>
+      <c r="W16">
         <v>0</v>
       </c>
       <c r="X16" t="s">
         <v>41</v>
       </c>
-      <c r="Y16" t="s"/>
-      <c r="Z16" t="n">
+      <c r="Z16">
         <v>0</v>
       </c>
       <c r="AA16" t="s">
         <v>94</v>
       </c>
-      <c r="AB16" t="s"/>
-      <c r="AC16" t="s"/>
-      <c r="AD16" t="n">
+      <c r="AD16">
         <v>15</v>
       </c>
-      <c r="AE16" t="s"/>
-    </row>
-    <row r="17" spans="1:31">
-      <c r="A17" s="1" t="n">
+    </row>
+    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
       <c r="D17" t="s">
         <v>95</v>
       </c>
@@ -2736,28 +2563,22 @@
       <c r="F17" t="s">
         <v>97</v>
       </c>
-      <c r="G17" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" t="n">
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
         <v>0</v>
       </c>
       <c r="I17" t="s">
         <v>98</v>
       </c>
-      <c r="J17" t="s"/>
-      <c r="K17" t="n">
-        <v>1.03939789674197e+18</v>
-      </c>
-      <c r="L17" t="n">
-        <v>1.03939789674197e+18</v>
-      </c>
-      <c r="M17" t="s"/>
-      <c r="N17" t="s"/>
-      <c r="O17" t="s"/>
-      <c r="P17" t="s"/>
-      <c r="Q17" t="s"/>
-      <c r="R17" t="n">
+      <c r="K17">
+        <v>1.03939789674197E+18</v>
+      </c>
+      <c r="L17">
+        <v>1.03939789674197E+18</v>
+      </c>
+      <c r="R17">
         <v>0</v>
       </c>
       <c r="S17" t="s">
@@ -2766,36 +2587,29 @@
       <c r="T17" t="s">
         <v>35</v>
       </c>
-      <c r="U17" t="s"/>
-      <c r="V17" t="n">
-        <v>0</v>
-      </c>
-      <c r="W17" t="n">
+      <c r="V17">
+        <v>0</v>
+      </c>
+      <c r="W17">
         <v>0</v>
       </c>
       <c r="X17" t="s">
         <v>36</v>
       </c>
-      <c r="Y17" t="s"/>
-      <c r="Z17" t="n">
+      <c r="Z17">
         <v>0</v>
       </c>
       <c r="AA17" t="s">
         <v>99</v>
       </c>
-      <c r="AB17" t="s"/>
-      <c r="AC17" t="s"/>
-      <c r="AD17" t="n">
+      <c r="AD17">
         <v>16</v>
       </c>
-      <c r="AE17" t="s"/>
-    </row>
-    <row r="18" spans="1:31">
-      <c r="A18" s="1" t="n">
+    </row>
+    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
       <c r="D18" t="s">
         <v>100</v>
       </c>
@@ -2805,28 +2619,22 @@
       <c r="F18" t="s">
         <v>102</v>
       </c>
-      <c r="G18" t="n">
-        <v>0</v>
-      </c>
-      <c r="H18" t="n">
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
         <v>0</v>
       </c>
       <c r="I18" t="s">
         <v>103</v>
       </c>
-      <c r="J18" t="s"/>
-      <c r="K18" t="n">
-        <v>1.03939936397241e+18</v>
-      </c>
-      <c r="L18" t="n">
-        <v>1.03939936397241e+18</v>
-      </c>
-      <c r="M18" t="s"/>
-      <c r="N18" t="s"/>
-      <c r="O18" t="s"/>
-      <c r="P18" t="s"/>
-      <c r="Q18" t="s"/>
-      <c r="R18" t="n">
+      <c r="K18">
+        <v>1.03939936397241E+18</v>
+      </c>
+      <c r="L18">
+        <v>1.03939936397241E+18</v>
+      </c>
+      <c r="R18">
         <v>0</v>
       </c>
       <c r="S18" t="s">
@@ -2835,36 +2643,29 @@
       <c r="T18" t="s">
         <v>35</v>
       </c>
-      <c r="U18" t="s"/>
-      <c r="V18" t="n">
-        <v>0</v>
-      </c>
-      <c r="W18" t="n">
+      <c r="V18">
+        <v>0</v>
+      </c>
+      <c r="W18">
         <v>0</v>
       </c>
       <c r="X18" t="s">
         <v>36</v>
       </c>
-      <c r="Y18" t="s"/>
-      <c r="Z18" t="n">
+      <c r="Z18">
         <v>0</v>
       </c>
       <c r="AA18" t="s">
         <v>104</v>
       </c>
-      <c r="AB18" t="s"/>
-      <c r="AC18" t="s"/>
-      <c r="AD18" t="n">
+      <c r="AD18">
         <v>17</v>
       </c>
-      <c r="AE18" t="s"/>
-    </row>
-    <row r="19" spans="1:31">
-      <c r="A19" s="1" t="n">
+    </row>
+    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
       <c r="D19" t="s">
         <v>105</v>
       </c>
@@ -2874,34 +2675,31 @@
       <c r="F19" t="s">
         <v>92</v>
       </c>
-      <c r="G19" t="n">
-        <v>0</v>
-      </c>
-      <c r="H19" t="n">
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
         <v>0</v>
       </c>
       <c r="I19" t="s">
         <v>107</v>
       </c>
-      <c r="J19" t="s"/>
-      <c r="K19" t="n">
-        <v>1.04052917187161e+18</v>
-      </c>
-      <c r="L19" t="n">
-        <v>1.04052917187161e+18</v>
+      <c r="K19">
+        <v>1.04052917187161E+18</v>
+      </c>
+      <c r="L19">
+        <v>1.04052917187161E+18</v>
       </c>
       <c r="M19" t="s">
         <v>51</v>
       </c>
-      <c r="N19" t="s"/>
-      <c r="O19" t="s"/>
-      <c r="P19" t="n">
-        <v>7.55869984761479e+17</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>7.55869984761479e+17</v>
-      </c>
-      <c r="R19" t="n">
+      <c r="P19">
+        <v>7.5586998476147904E+17</v>
+      </c>
+      <c r="Q19">
+        <v>7.5586998476147904E+17</v>
+      </c>
+      <c r="R19">
         <v>0</v>
       </c>
       <c r="S19" t="s">
@@ -2910,36 +2708,29 @@
       <c r="T19" t="s">
         <v>35</v>
       </c>
-      <c r="U19" t="s"/>
-      <c r="V19" t="n">
-        <v>0</v>
-      </c>
-      <c r="W19" t="n">
+      <c r="V19">
+        <v>0</v>
+      </c>
+      <c r="W19">
         <v>0</v>
       </c>
       <c r="X19" t="s">
         <v>108</v>
       </c>
-      <c r="Y19" t="s"/>
-      <c r="Z19" t="n">
+      <c r="Z19">
         <v>0</v>
       </c>
       <c r="AA19" t="s">
         <v>109</v>
       </c>
-      <c r="AB19" t="s"/>
-      <c r="AC19" t="s"/>
-      <c r="AD19" t="n">
+      <c r="AD19">
         <v>18</v>
       </c>
-      <c r="AE19" t="s"/>
-    </row>
-    <row r="20" spans="1:31">
-      <c r="A20" s="1" t="n">
+    </row>
+    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
         <v>18</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
       <c r="D20" t="s">
         <v>110</v>
       </c>
@@ -2949,34 +2740,31 @@
       <c r="F20" t="s">
         <v>112</v>
       </c>
-      <c r="G20" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" t="n">
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
         <v>0</v>
       </c>
       <c r="I20" t="s">
         <v>113</v>
       </c>
-      <c r="J20" t="s"/>
-      <c r="K20" t="n">
-        <v>1.04091407378382e+18</v>
-      </c>
-      <c r="L20" t="n">
-        <v>1.04091407378382e+18</v>
+      <c r="K20">
+        <v>1.04091407378382E+18</v>
+      </c>
+      <c r="L20">
+        <v>1.04091407378382E+18</v>
       </c>
       <c r="M20" t="s">
         <v>51</v>
       </c>
-      <c r="N20" t="s"/>
-      <c r="O20" t="s"/>
-      <c r="P20" t="n">
-        <v>7.55869984761479e+17</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>7.55869984761479e+17</v>
-      </c>
-      <c r="R20" t="n">
+      <c r="P20">
+        <v>7.5586998476147904E+17</v>
+      </c>
+      <c r="Q20">
+        <v>7.5586998476147904E+17</v>
+      </c>
+      <c r="R20">
         <v>0</v>
       </c>
       <c r="S20" t="s">
@@ -2985,36 +2773,29 @@
       <c r="T20" t="s">
         <v>114</v>
       </c>
-      <c r="U20" t="s"/>
-      <c r="V20" t="n">
-        <v>0</v>
-      </c>
-      <c r="W20" t="n">
+      <c r="V20">
+        <v>0</v>
+      </c>
+      <c r="W20">
         <v>0</v>
       </c>
       <c r="X20" t="s">
         <v>115</v>
       </c>
-      <c r="Y20" t="s"/>
-      <c r="Z20" t="n">
+      <c r="Z20">
         <v>0</v>
       </c>
       <c r="AA20" t="s">
         <v>116</v>
       </c>
-      <c r="AB20" t="s"/>
-      <c r="AC20" t="s"/>
-      <c r="AD20" t="n">
+      <c r="AD20">
         <v>19</v>
       </c>
-      <c r="AE20" t="s"/>
-    </row>
-    <row r="21" spans="1:31">
-      <c r="A21" s="1" t="n">
+    </row>
+    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
         <v>19</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
       <c r="D21" t="s">
         <v>117</v>
       </c>
@@ -3024,34 +2805,31 @@
       <c r="F21" t="s">
         <v>119</v>
       </c>
-      <c r="G21" t="n">
-        <v>0</v>
-      </c>
-      <c r="H21" t="n">
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
         <v>0</v>
       </c>
       <c r="I21" t="s">
         <v>120</v>
       </c>
-      <c r="J21" t="s"/>
-      <c r="K21" t="n">
-        <v>1.04095503228649e+18</v>
-      </c>
-      <c r="L21" t="n">
-        <v>1.04095503228649e+18</v>
+      <c r="K21">
+        <v>1.04095503228649E+18</v>
+      </c>
+      <c r="L21">
+        <v>1.04095503228649E+18</v>
       </c>
       <c r="M21" t="s">
         <v>51</v>
       </c>
-      <c r="N21" t="s"/>
-      <c r="O21" t="s"/>
-      <c r="P21" t="n">
-        <v>7.55869984761479e+17</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>7.55869984761479e+17</v>
-      </c>
-      <c r="R21" t="n">
+      <c r="P21">
+        <v>7.5586998476147904E+17</v>
+      </c>
+      <c r="Q21">
+        <v>7.5586998476147904E+17</v>
+      </c>
+      <c r="R21">
         <v>0</v>
       </c>
       <c r="S21" t="s">
@@ -3060,36 +2838,29 @@
       <c r="T21" t="s">
         <v>114</v>
       </c>
-      <c r="U21" t="s"/>
-      <c r="V21" t="n">
-        <v>0</v>
-      </c>
-      <c r="W21" t="n">
+      <c r="V21">
+        <v>0</v>
+      </c>
+      <c r="W21">
         <v>0</v>
       </c>
       <c r="X21" t="s">
         <v>115</v>
       </c>
-      <c r="Y21" t="s"/>
-      <c r="Z21" t="n">
+      <c r="Z21">
         <v>0</v>
       </c>
       <c r="AA21" t="s">
         <v>121</v>
       </c>
-      <c r="AB21" t="s"/>
-      <c r="AC21" t="s"/>
-      <c r="AD21" t="n">
+      <c r="AD21">
         <v>20</v>
       </c>
-      <c r="AE21" t="s"/>
-    </row>
-    <row r="22" spans="1:31">
-      <c r="A22" s="1" t="n">
+    </row>
+    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
       <c r="D22" t="s">
         <v>122</v>
       </c>
@@ -3099,34 +2870,31 @@
       <c r="F22" t="s">
         <v>124</v>
       </c>
-      <c r="G22" t="n">
-        <v>0</v>
-      </c>
-      <c r="H22" t="n">
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
         <v>0</v>
       </c>
       <c r="I22" t="s">
         <v>125</v>
       </c>
-      <c r="J22" t="s"/>
-      <c r="K22" t="n">
-        <v>1.04097568175108e+18</v>
-      </c>
-      <c r="L22" t="n">
-        <v>1.04097568175108e+18</v>
+      <c r="K22">
+        <v>1.0409756817510799E+18</v>
+      </c>
+      <c r="L22">
+        <v>1.0409756817510799E+18</v>
       </c>
       <c r="M22" t="s">
         <v>51</v>
       </c>
-      <c r="N22" t="s"/>
-      <c r="O22" t="s"/>
-      <c r="P22" t="n">
-        <v>7.55869984761479e+17</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>7.55869984761479e+17</v>
-      </c>
-      <c r="R22" t="n">
+      <c r="P22">
+        <v>7.5586998476147904E+17</v>
+      </c>
+      <c r="Q22">
+        <v>7.5586998476147904E+17</v>
+      </c>
+      <c r="R22">
         <v>0</v>
       </c>
       <c r="S22" t="s">
@@ -3135,34 +2903,26 @@
       <c r="T22" t="s">
         <v>35</v>
       </c>
-      <c r="U22" t="s"/>
-      <c r="V22" t="n">
-        <v>0</v>
-      </c>
-      <c r="W22" t="n">
+      <c r="V22">
+        <v>0</v>
+      </c>
+      <c r="W22">
         <v>0</v>
       </c>
       <c r="X22" t="s">
         <v>115</v>
       </c>
-      <c r="Y22" t="s"/>
-      <c r="Z22" t="n">
+      <c r="Z22">
         <v>0</v>
       </c>
       <c r="AA22" t="s">
         <v>126</v>
       </c>
-      <c r="AB22" t="s"/>
-      <c r="AC22" t="s"/>
-      <c r="AD22" t="s"/>
-      <c r="AE22" t="s"/>
-    </row>
-    <row r="23" spans="1:31">
-      <c r="A23" s="1" t="n">
+    </row>
+    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
         <v>21</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
       <c r="D23" t="s">
         <v>127</v>
       </c>
@@ -3172,34 +2932,31 @@
       <c r="F23" t="s">
         <v>129</v>
       </c>
-      <c r="G23" t="n">
-        <v>0</v>
-      </c>
-      <c r="H23" t="n">
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
         <v>0</v>
       </c>
       <c r="I23" t="s">
         <v>130</v>
       </c>
-      <c r="J23" t="s"/>
-      <c r="K23" t="n">
-        <v>1.04099669398517e+18</v>
-      </c>
-      <c r="L23" t="n">
-        <v>1.04099669398517e+18</v>
+      <c r="K23">
+        <v>1.04099669398517E+18</v>
+      </c>
+      <c r="L23">
+        <v>1.04099669398517E+18</v>
       </c>
       <c r="M23" t="s">
         <v>51</v>
       </c>
-      <c r="N23" t="s"/>
-      <c r="O23" t="s"/>
-      <c r="P23" t="n">
-        <v>7.55869984761479e+17</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>7.55869984761479e+17</v>
-      </c>
-      <c r="R23" t="n">
+      <c r="P23">
+        <v>7.5586998476147904E+17</v>
+      </c>
+      <c r="Q23">
+        <v>7.5586998476147904E+17</v>
+      </c>
+      <c r="R23">
         <v>0</v>
       </c>
       <c r="S23" t="s">
@@ -3208,34 +2965,26 @@
       <c r="T23" t="s">
         <v>35</v>
       </c>
-      <c r="U23" t="s"/>
-      <c r="V23" t="n">
-        <v>0</v>
-      </c>
-      <c r="W23" t="n">
+      <c r="V23">
+        <v>0</v>
+      </c>
+      <c r="W23">
         <v>0</v>
       </c>
       <c r="X23" t="s">
         <v>115</v>
       </c>
-      <c r="Y23" t="s"/>
-      <c r="Z23" t="n">
+      <c r="Z23">
         <v>0</v>
       </c>
       <c r="AA23" t="s">
         <v>131</v>
       </c>
-      <c r="AB23" t="s"/>
-      <c r="AC23" t="s"/>
-      <c r="AD23" t="s"/>
-      <c r="AE23" t="s"/>
-    </row>
-    <row r="24" spans="1:31">
-      <c r="A24" s="1" t="n">
+    </row>
+    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
         <v>22</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
       <c r="D24" t="s">
         <v>132</v>
       </c>
@@ -3245,34 +2994,31 @@
       <c r="F24" t="s">
         <v>134</v>
       </c>
-      <c r="G24" t="n">
-        <v>0</v>
-      </c>
-      <c r="H24" t="n">
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
         <v>0</v>
       </c>
       <c r="I24" t="s">
         <v>135</v>
       </c>
-      <c r="J24" t="s"/>
-      <c r="K24" t="n">
-        <v>1.04099943330603e+18</v>
-      </c>
-      <c r="L24" t="n">
-        <v>1.04099943330603e+18</v>
+      <c r="K24">
+        <v>1.04099943330603E+18</v>
+      </c>
+      <c r="L24">
+        <v>1.04099943330603E+18</v>
       </c>
       <c r="M24" t="s">
         <v>51</v>
       </c>
-      <c r="N24" t="s"/>
-      <c r="O24" t="s"/>
-      <c r="P24" t="n">
-        <v>7.55869984761479e+17</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>7.55869984761479e+17</v>
-      </c>
-      <c r="R24" t="n">
+      <c r="P24">
+        <v>7.5586998476147904E+17</v>
+      </c>
+      <c r="Q24">
+        <v>7.5586998476147904E+17</v>
+      </c>
+      <c r="R24">
         <v>0</v>
       </c>
       <c r="S24" t="s">
@@ -3281,34 +3027,26 @@
       <c r="T24" t="s">
         <v>35</v>
       </c>
-      <c r="U24" t="s"/>
-      <c r="V24" t="n">
-        <v>0</v>
-      </c>
-      <c r="W24" t="n">
+      <c r="V24">
+        <v>0</v>
+      </c>
+      <c r="W24">
         <v>0</v>
       </c>
       <c r="X24" t="s">
         <v>115</v>
       </c>
-      <c r="Y24" t="s"/>
-      <c r="Z24" t="n">
+      <c r="Z24">
         <v>0</v>
       </c>
       <c r="AA24" t="s">
         <v>136</v>
       </c>
-      <c r="AB24" t="s"/>
-      <c r="AC24" t="s"/>
-      <c r="AD24" t="s"/>
-      <c r="AE24" t="s"/>
-    </row>
-    <row r="25" spans="1:31">
-      <c r="A25" s="1" t="n">
+    </row>
+    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
         <v>23</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
       <c r="D25" t="s">
         <v>137</v>
       </c>
@@ -3318,34 +3056,31 @@
       <c r="F25" t="s">
         <v>139</v>
       </c>
-      <c r="G25" t="n">
-        <v>0</v>
-      </c>
-      <c r="H25" t="n">
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
         <v>0</v>
       </c>
       <c r="I25" t="s">
         <v>140</v>
       </c>
-      <c r="J25" t="s"/>
-      <c r="K25" t="n">
-        <v>1.04130316927026e+18</v>
-      </c>
-      <c r="L25" t="n">
-        <v>1.04130316927026e+18</v>
+      <c r="K25">
+        <v>1.04130316927026E+18</v>
+      </c>
+      <c r="L25">
+        <v>1.04130316927026E+18</v>
       </c>
       <c r="M25" t="s">
         <v>51</v>
       </c>
-      <c r="N25" t="s"/>
-      <c r="O25" t="s"/>
-      <c r="P25" t="n">
-        <v>7.55869984761479e+17</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>7.55869984761479e+17</v>
-      </c>
-      <c r="R25" t="n">
+      <c r="P25">
+        <v>7.5586998476147904E+17</v>
+      </c>
+      <c r="Q25">
+        <v>7.5586998476147904E+17</v>
+      </c>
+      <c r="R25">
         <v>0</v>
       </c>
       <c r="S25" t="s">
@@ -3354,34 +3089,26 @@
       <c r="T25" t="s">
         <v>114</v>
       </c>
-      <c r="U25" t="s"/>
-      <c r="V25" t="n">
-        <v>0</v>
-      </c>
-      <c r="W25" t="n">
+      <c r="V25">
+        <v>0</v>
+      </c>
+      <c r="W25">
         <v>0</v>
       </c>
       <c r="X25" t="s">
         <v>115</v>
       </c>
-      <c r="Y25" t="s"/>
-      <c r="Z25" t="n">
+      <c r="Z25">
         <v>0</v>
       </c>
       <c r="AA25" t="s">
         <v>141</v>
       </c>
-      <c r="AB25" t="s"/>
-      <c r="AC25" t="s"/>
-      <c r="AD25" t="s"/>
-      <c r="AE25" t="s"/>
-    </row>
-    <row r="26" spans="1:31">
-      <c r="A26" s="1" t="n">
+    </row>
+    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
         <v>24</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
       <c r="D26" t="s">
         <v>142</v>
       </c>
@@ -3391,34 +3118,31 @@
       <c r="F26" t="s">
         <v>143</v>
       </c>
-      <c r="G26" t="n">
-        <v>0</v>
-      </c>
-      <c r="H26" t="n">
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
         <v>0</v>
       </c>
       <c r="I26" t="s">
         <v>144</v>
       </c>
-      <c r="J26" t="s"/>
-      <c r="K26" t="n">
-        <v>1.04161890747859e+18</v>
-      </c>
-      <c r="L26" t="n">
-        <v>1.04161890747859e+18</v>
+      <c r="K26">
+        <v>1.04161890747859E+18</v>
+      </c>
+      <c r="L26">
+        <v>1.04161890747859E+18</v>
       </c>
       <c r="M26" t="s">
         <v>51</v>
       </c>
-      <c r="N26" t="s"/>
-      <c r="O26" t="s"/>
-      <c r="P26" t="n">
-        <v>7.55869984761479e+17</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>7.55869984761479e+17</v>
-      </c>
-      <c r="R26" t="n">
+      <c r="P26">
+        <v>7.5586998476147904E+17</v>
+      </c>
+      <c r="Q26">
+        <v>7.5586998476147904E+17</v>
+      </c>
+      <c r="R26">
         <v>0</v>
       </c>
       <c r="S26" t="s">
@@ -3427,34 +3151,26 @@
       <c r="T26" t="s">
         <v>114</v>
       </c>
-      <c r="U26" t="s"/>
-      <c r="V26" t="n">
-        <v>0</v>
-      </c>
-      <c r="W26" t="n">
+      <c r="V26">
+        <v>0</v>
+      </c>
+      <c r="W26">
         <v>0</v>
       </c>
       <c r="X26" t="s">
         <v>41</v>
       </c>
-      <c r="Y26" t="s"/>
-      <c r="Z26" t="n">
+      <c r="Z26">
         <v>0</v>
       </c>
       <c r="AA26" t="s">
         <v>145</v>
       </c>
-      <c r="AB26" t="s"/>
-      <c r="AC26" t="s"/>
-      <c r="AD26" t="s"/>
-      <c r="AE26" t="s"/>
-    </row>
-    <row r="27" spans="1:31">
-      <c r="A27" s="1" t="n">
+    </row>
+    <row r="27" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
         <v>25</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
       <c r="D27" t="s">
         <v>146</v>
       </c>
@@ -3464,28 +3180,22 @@
       <c r="F27" t="s">
         <v>148</v>
       </c>
-      <c r="G27" t="n">
-        <v>0</v>
-      </c>
-      <c r="H27" t="n">
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
         <v>0</v>
       </c>
       <c r="I27" t="s">
         <v>149</v>
       </c>
-      <c r="J27" t="s"/>
-      <c r="K27" t="n">
-        <v>1.04212082602644e+18</v>
-      </c>
-      <c r="L27" t="n">
-        <v>1.04212082602644e+18</v>
-      </c>
-      <c r="M27" t="s"/>
-      <c r="N27" t="s"/>
-      <c r="O27" t="s"/>
-      <c r="P27" t="s"/>
-      <c r="Q27" t="s"/>
-      <c r="R27" t="n">
+      <c r="K27">
+        <v>1.0421208260264399E+18</v>
+      </c>
+      <c r="L27">
+        <v>1.0421208260264399E+18</v>
+      </c>
+      <c r="R27">
         <v>0</v>
       </c>
       <c r="S27" t="s">
@@ -3494,34 +3204,26 @@
       <c r="T27" t="s">
         <v>114</v>
       </c>
-      <c r="U27" t="s"/>
-      <c r="V27" t="n">
-        <v>0</v>
-      </c>
-      <c r="W27" t="n">
+      <c r="V27">
+        <v>0</v>
+      </c>
+      <c r="W27">
         <v>0</v>
       </c>
       <c r="X27" t="s">
         <v>115</v>
       </c>
-      <c r="Y27" t="s"/>
-      <c r="Z27" t="n">
+      <c r="Z27">
         <v>0</v>
       </c>
       <c r="AA27" t="s">
         <v>150</v>
       </c>
-      <c r="AB27" t="s"/>
-      <c r="AC27" t="s"/>
-      <c r="AD27" t="s"/>
-      <c r="AE27" t="s"/>
-    </row>
-    <row r="28" spans="1:31">
-      <c r="A28" s="1" t="n">
+    </row>
+    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
         <v>26</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
       <c r="D28" t="s">
         <v>151</v>
       </c>
@@ -3531,28 +3233,22 @@
       <c r="F28" t="s">
         <v>153</v>
       </c>
-      <c r="G28" t="n">
-        <v>0</v>
-      </c>
-      <c r="H28" t="n">
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
         <v>0</v>
       </c>
       <c r="I28" t="s">
         <v>154</v>
       </c>
-      <c r="J28" t="s"/>
-      <c r="K28" t="n">
-        <v>1.04212293392425e+18</v>
-      </c>
-      <c r="L28" t="n">
-        <v>1.04212293392425e+18</v>
-      </c>
-      <c r="M28" t="s"/>
-      <c r="N28" t="s"/>
-      <c r="O28" t="s"/>
-      <c r="P28" t="s"/>
-      <c r="Q28" t="s"/>
-      <c r="R28" t="n">
+      <c r="K28">
+        <v>1.04212293392425E+18</v>
+      </c>
+      <c r="L28">
+        <v>1.04212293392425E+18</v>
+      </c>
+      <c r="R28">
         <v>0</v>
       </c>
       <c r="S28" t="s">
@@ -3561,34 +3257,26 @@
       <c r="T28" t="s">
         <v>114</v>
       </c>
-      <c r="U28" t="s"/>
-      <c r="V28" t="n">
-        <v>0</v>
-      </c>
-      <c r="W28" t="n">
+      <c r="V28">
+        <v>0</v>
+      </c>
+      <c r="W28">
         <v>0</v>
       </c>
       <c r="X28" t="s">
         <v>115</v>
       </c>
-      <c r="Y28" t="s"/>
-      <c r="Z28" t="n">
+      <c r="Z28">
         <v>0</v>
       </c>
       <c r="AA28" t="s">
         <v>155</v>
       </c>
-      <c r="AB28" t="s"/>
-      <c r="AC28" t="s"/>
-      <c r="AD28" t="s"/>
-      <c r="AE28" t="s"/>
-    </row>
-    <row r="29" spans="1:31">
-      <c r="A29" s="1" t="n">
+    </row>
+    <row r="29" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
         <v>27</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
       <c r="D29" t="s">
         <v>156</v>
       </c>
@@ -3598,28 +3286,22 @@
       <c r="F29" t="s">
         <v>158</v>
       </c>
-      <c r="G29" t="n">
-        <v>0</v>
-      </c>
-      <c r="H29" t="n">
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
         <v>0</v>
       </c>
       <c r="I29" t="s">
         <v>159</v>
       </c>
-      <c r="J29" t="s"/>
-      <c r="K29" t="n">
-        <v>1.04213243375011e+18</v>
-      </c>
-      <c r="L29" t="n">
-        <v>1.04213243375011e+18</v>
-      </c>
-      <c r="M29" t="s"/>
-      <c r="N29" t="s"/>
-      <c r="O29" t="s"/>
-      <c r="P29" t="s"/>
-      <c r="Q29" t="s"/>
-      <c r="R29" t="n">
+      <c r="K29">
+        <v>1.04213243375011E+18</v>
+      </c>
+      <c r="L29">
+        <v>1.04213243375011E+18</v>
+      </c>
+      <c r="R29">
         <v>0</v>
       </c>
       <c r="S29" t="s">
@@ -3628,34 +3310,26 @@
       <c r="T29" t="s">
         <v>35</v>
       </c>
-      <c r="U29" t="s"/>
-      <c r="V29" t="n">
-        <v>0</v>
-      </c>
-      <c r="W29" t="n">
+      <c r="V29">
+        <v>0</v>
+      </c>
+      <c r="W29">
         <v>0</v>
       </c>
       <c r="X29" t="s">
         <v>115</v>
       </c>
-      <c r="Y29" t="s"/>
-      <c r="Z29" t="n">
+      <c r="Z29">
         <v>0</v>
       </c>
       <c r="AA29" t="s">
         <v>160</v>
       </c>
-      <c r="AB29" t="s"/>
-      <c r="AC29" t="s"/>
-      <c r="AD29" t="s"/>
-      <c r="AE29" t="s"/>
-    </row>
-    <row r="30" spans="1:31">
-      <c r="A30" s="1" t="n">
+    </row>
+    <row r="30" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
         <v>28</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
       <c r="D30" t="s">
         <v>161</v>
       </c>
@@ -3665,28 +3339,22 @@
       <c r="F30" t="s">
         <v>162</v>
       </c>
-      <c r="G30" t="n">
-        <v>0</v>
-      </c>
-      <c r="H30" t="n">
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
         <v>0</v>
       </c>
       <c r="I30" t="s">
         <v>149</v>
       </c>
-      <c r="J30" t="s"/>
-      <c r="K30" t="n">
-        <v>1.04214621498736e+18</v>
-      </c>
-      <c r="L30" t="n">
-        <v>1.04214621498736e+18</v>
-      </c>
-      <c r="M30" t="s"/>
-      <c r="N30" t="s"/>
-      <c r="O30" t="s"/>
-      <c r="P30" t="s"/>
-      <c r="Q30" t="s"/>
-      <c r="R30" t="n">
+      <c r="K30">
+        <v>1.04214621498736E+18</v>
+      </c>
+      <c r="L30">
+        <v>1.04214621498736E+18</v>
+      </c>
+      <c r="R30">
         <v>0</v>
       </c>
       <c r="S30" t="s">
@@ -3695,34 +3363,26 @@
       <c r="T30" t="s">
         <v>35</v>
       </c>
-      <c r="U30" t="s"/>
-      <c r="V30" t="n">
-        <v>0</v>
-      </c>
-      <c r="W30" t="n">
+      <c r="V30">
+        <v>0</v>
+      </c>
+      <c r="W30">
         <v>0</v>
       </c>
       <c r="X30" t="s">
         <v>41</v>
       </c>
-      <c r="Y30" t="s"/>
-      <c r="Z30" t="n">
+      <c r="Z30">
         <v>0</v>
       </c>
       <c r="AA30" t="s">
         <v>163</v>
       </c>
-      <c r="AB30" t="s"/>
-      <c r="AC30" t="s"/>
-      <c r="AD30" t="s"/>
-      <c r="AE30" t="s"/>
-    </row>
-    <row r="31" spans="1:31">
-      <c r="A31" s="1" t="n">
+    </row>
+    <row r="31" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
         <v>29</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
       <c r="D31" t="s">
         <v>164</v>
       </c>
@@ -3732,28 +3392,22 @@
       <c r="F31" t="s">
         <v>166</v>
       </c>
-      <c r="G31" t="n">
-        <v>0</v>
-      </c>
-      <c r="H31" t="n">
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
         <v>0</v>
       </c>
       <c r="I31" t="s">
         <v>167</v>
       </c>
-      <c r="J31" t="s"/>
-      <c r="K31" t="n">
-        <v>1.04215457531322e+18</v>
-      </c>
-      <c r="L31" t="n">
-        <v>1.04215457531322e+18</v>
-      </c>
-      <c r="M31" t="s"/>
-      <c r="N31" t="s"/>
-      <c r="O31" t="s"/>
-      <c r="P31" t="s"/>
-      <c r="Q31" t="s"/>
-      <c r="R31" t="n">
+      <c r="K31">
+        <v>1.04215457531322E+18</v>
+      </c>
+      <c r="L31">
+        <v>1.04215457531322E+18</v>
+      </c>
+      <c r="R31">
         <v>0</v>
       </c>
       <c r="S31" t="s">
@@ -3762,34 +3416,26 @@
       <c r="T31" t="s">
         <v>72</v>
       </c>
-      <c r="U31" t="s"/>
-      <c r="V31" t="n">
-        <v>0</v>
-      </c>
-      <c r="W31" t="n">
+      <c r="V31">
+        <v>0</v>
+      </c>
+      <c r="W31">
         <v>0</v>
       </c>
       <c r="X31" t="s">
         <v>41</v>
       </c>
-      <c r="Y31" t="s"/>
-      <c r="Z31" t="n">
+      <c r="Z31">
         <v>0</v>
       </c>
       <c r="AA31" t="s">
         <v>168</v>
       </c>
-      <c r="AB31" t="s"/>
-      <c r="AC31" t="s"/>
-      <c r="AD31" t="s"/>
-      <c r="AE31" t="s"/>
-    </row>
-    <row r="32" spans="1:31">
-      <c r="A32" s="1" t="n">
+    </row>
+    <row r="32" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
         <v>30</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
       <c r="D32" t="s">
         <v>169</v>
       </c>
@@ -3799,34 +3445,31 @@
       <c r="F32" t="s">
         <v>170</v>
       </c>
-      <c r="G32" t="n">
-        <v>0</v>
-      </c>
-      <c r="H32" t="n">
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
         <v>0</v>
       </c>
       <c r="I32" t="s">
         <v>171</v>
       </c>
-      <c r="J32" t="s"/>
-      <c r="K32" t="n">
-        <v>1.04240254485998e+18</v>
-      </c>
-      <c r="L32" t="n">
-        <v>1.04240254485998e+18</v>
+      <c r="K32">
+        <v>1.04240254485998E+18</v>
+      </c>
+      <c r="L32">
+        <v>1.04240254485998E+18</v>
       </c>
       <c r="M32" t="s">
         <v>51</v>
       </c>
-      <c r="N32" t="s"/>
-      <c r="O32" t="s"/>
-      <c r="P32" t="n">
-        <v>7.55869984761479e+17</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>7.55869984761479e+17</v>
-      </c>
-      <c r="R32" t="n">
+      <c r="P32">
+        <v>7.5586998476147904E+17</v>
+      </c>
+      <c r="Q32">
+        <v>7.5586998476147904E+17</v>
+      </c>
+      <c r="R32">
         <v>0</v>
       </c>
       <c r="S32" t="s">
@@ -3835,34 +3478,26 @@
       <c r="T32" t="s">
         <v>35</v>
       </c>
-      <c r="U32" t="s"/>
-      <c r="V32" t="n">
-        <v>0</v>
-      </c>
-      <c r="W32" t="n">
+      <c r="V32">
+        <v>0</v>
+      </c>
+      <c r="W32">
         <v>0</v>
       </c>
       <c r="X32" t="s">
         <v>108</v>
       </c>
-      <c r="Y32" t="s"/>
-      <c r="Z32" t="n">
+      <c r="Z32">
         <v>0</v>
       </c>
       <c r="AA32" t="s">
         <v>172</v>
       </c>
-      <c r="AB32" t="s"/>
-      <c r="AC32" t="s"/>
-      <c r="AD32" t="s"/>
-      <c r="AE32" t="s"/>
-    </row>
-    <row r="33" spans="1:31">
-      <c r="A33" s="1" t="n">
+    </row>
+    <row r="33" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
         <v>31</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
       <c r="D33" t="s">
         <v>173</v>
       </c>
@@ -3872,34 +3507,31 @@
       <c r="F33" t="s">
         <v>175</v>
       </c>
-      <c r="G33" t="n">
-        <v>0</v>
-      </c>
-      <c r="H33" t="n">
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
         <v>0</v>
       </c>
       <c r="I33" t="s">
         <v>176</v>
       </c>
-      <c r="J33" t="s"/>
-      <c r="K33" t="n">
-        <v>1.04289248238259e+18</v>
-      </c>
-      <c r="L33" t="n">
-        <v>1.04289248238259e+18</v>
+      <c r="K33">
+        <v>1.04289248238259E+18</v>
+      </c>
+      <c r="L33">
+        <v>1.04289248238259E+18</v>
       </c>
       <c r="M33" t="s">
         <v>51</v>
       </c>
-      <c r="N33" t="s"/>
-      <c r="O33" t="s"/>
-      <c r="P33" t="n">
-        <v>7.55869984761479e+17</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>7.55869984761479e+17</v>
-      </c>
-      <c r="R33" t="n">
+      <c r="P33">
+        <v>7.5586998476147904E+17</v>
+      </c>
+      <c r="Q33">
+        <v>7.5586998476147904E+17</v>
+      </c>
+      <c r="R33">
         <v>0</v>
       </c>
       <c r="S33" t="s">
@@ -3908,34 +3540,26 @@
       <c r="T33" t="s">
         <v>72</v>
       </c>
-      <c r="U33" t="s"/>
-      <c r="V33" t="n">
-        <v>0</v>
-      </c>
-      <c r="W33" t="n">
+      <c r="V33">
+        <v>0</v>
+      </c>
+      <c r="W33">
         <v>0</v>
       </c>
       <c r="X33" t="s">
         <v>115</v>
       </c>
-      <c r="Y33" t="s"/>
-      <c r="Z33" t="n">
+      <c r="Z33">
         <v>0</v>
       </c>
       <c r="AA33" t="s">
         <v>177</v>
       </c>
-      <c r="AB33" t="s"/>
-      <c r="AC33" t="s"/>
-      <c r="AD33" t="s"/>
-      <c r="AE33" t="s"/>
-    </row>
-    <row r="34" spans="1:31">
-      <c r="A34" s="1" t="n">
+    </row>
+    <row r="34" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
         <v>32</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
       <c r="D34" t="s">
         <v>178</v>
       </c>
@@ -3945,28 +3569,22 @@
       <c r="F34" t="s">
         <v>180</v>
       </c>
-      <c r="G34" t="n">
-        <v>0</v>
-      </c>
-      <c r="H34" t="n">
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
         <v>0</v>
       </c>
       <c r="I34" t="s">
         <v>181</v>
       </c>
-      <c r="J34" t="s"/>
-      <c r="K34" t="n">
-        <v>1.04289511037834e+18</v>
-      </c>
-      <c r="L34" t="n">
-        <v>1.04289511037834e+18</v>
-      </c>
-      <c r="M34" t="s"/>
-      <c r="N34" t="s"/>
-      <c r="O34" t="s"/>
-      <c r="P34" t="s"/>
-      <c r="Q34" t="s"/>
-      <c r="R34" t="n">
+      <c r="K34">
+        <v>1.04289511037834E+18</v>
+      </c>
+      <c r="L34">
+        <v>1.04289511037834E+18</v>
+      </c>
+      <c r="R34">
         <v>0</v>
       </c>
       <c r="S34" t="s">
@@ -3975,34 +3593,26 @@
       <c r="T34" t="s">
         <v>35</v>
       </c>
-      <c r="U34" t="s"/>
-      <c r="V34" t="n">
-        <v>0</v>
-      </c>
-      <c r="W34" t="n">
+      <c r="V34">
+        <v>0</v>
+      </c>
+      <c r="W34">
         <v>0</v>
       </c>
       <c r="X34" t="s">
         <v>115</v>
       </c>
-      <c r="Y34" t="s"/>
-      <c r="Z34" t="n">
+      <c r="Z34">
         <v>0</v>
       </c>
       <c r="AA34" t="s">
         <v>182</v>
       </c>
-      <c r="AB34" t="s"/>
-      <c r="AC34" t="s"/>
-      <c r="AD34" t="s"/>
-      <c r="AE34" t="s"/>
-    </row>
-    <row r="35" spans="1:31">
-      <c r="A35" s="1" t="n">
+    </row>
+    <row r="35" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
         <v>33</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
       <c r="D35" t="s">
         <v>183</v>
       </c>
@@ -4012,28 +3622,22 @@
       <c r="F35" t="s">
         <v>185</v>
       </c>
-      <c r="G35" t="n">
-        <v>0</v>
-      </c>
-      <c r="H35" t="n">
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
         <v>0</v>
       </c>
       <c r="I35" t="s">
         <v>186</v>
       </c>
-      <c r="J35" t="s"/>
-      <c r="K35" t="n">
-        <v>1.04289591518558e+18</v>
-      </c>
-      <c r="L35" t="n">
-        <v>1.04289591518558e+18</v>
-      </c>
-      <c r="M35" t="s"/>
-      <c r="N35" t="s"/>
-      <c r="O35" t="s"/>
-      <c r="P35" t="s"/>
-      <c r="Q35" t="s"/>
-      <c r="R35" t="n">
+      <c r="K35">
+        <v>1.04289591518558E+18</v>
+      </c>
+      <c r="L35">
+        <v>1.04289591518558E+18</v>
+      </c>
+      <c r="R35">
         <v>0</v>
       </c>
       <c r="S35" t="s">
@@ -4042,34 +3646,26 @@
       <c r="T35" t="s">
         <v>35</v>
       </c>
-      <c r="U35" t="s"/>
-      <c r="V35" t="n">
-        <v>0</v>
-      </c>
-      <c r="W35" t="n">
+      <c r="V35">
+        <v>0</v>
+      </c>
+      <c r="W35">
         <v>0</v>
       </c>
       <c r="X35" t="s">
         <v>115</v>
       </c>
-      <c r="Y35" t="s"/>
-      <c r="Z35" t="n">
+      <c r="Z35">
         <v>0</v>
       </c>
       <c r="AA35" t="s">
         <v>187</v>
       </c>
-      <c r="AB35" t="s"/>
-      <c r="AC35" t="s"/>
-      <c r="AD35" t="s"/>
-      <c r="AE35" t="s"/>
-    </row>
-    <row r="36" spans="1:31">
-      <c r="A36" s="1" t="n">
+    </row>
+    <row r="36" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
         <v>34</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
       <c r="D36" t="s">
         <v>188</v>
       </c>
@@ -4079,28 +3675,22 @@
       <c r="F36" t="s">
         <v>190</v>
       </c>
-      <c r="G36" t="n">
-        <v>0</v>
-      </c>
-      <c r="H36" t="n">
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
         <v>0</v>
       </c>
       <c r="I36" t="s">
         <v>191</v>
       </c>
-      <c r="J36" t="s"/>
-      <c r="K36" t="n">
-        <v>1.04289966468784e+18</v>
-      </c>
-      <c r="L36" t="n">
-        <v>1.04289966468784e+18</v>
-      </c>
-      <c r="M36" t="s"/>
-      <c r="N36" t="s"/>
-      <c r="O36" t="s"/>
-      <c r="P36" t="s"/>
-      <c r="Q36" t="s"/>
-      <c r="R36" t="n">
+      <c r="K36">
+        <v>1.04289966468784E+18</v>
+      </c>
+      <c r="L36">
+        <v>1.04289966468784E+18</v>
+      </c>
+      <c r="R36">
         <v>0</v>
       </c>
       <c r="S36" t="s">
@@ -4109,34 +3699,26 @@
       <c r="T36" t="s">
         <v>114</v>
       </c>
-      <c r="U36" t="s"/>
-      <c r="V36" t="n">
-        <v>0</v>
-      </c>
-      <c r="W36" t="n">
+      <c r="V36">
+        <v>0</v>
+      </c>
+      <c r="W36">
         <v>0</v>
       </c>
       <c r="X36" t="s">
         <v>115</v>
       </c>
-      <c r="Y36" t="s"/>
-      <c r="Z36" t="n">
+      <c r="Z36">
         <v>0</v>
       </c>
       <c r="AA36" t="s">
         <v>192</v>
       </c>
-      <c r="AB36" t="s"/>
-      <c r="AC36" t="s"/>
-      <c r="AD36" t="s"/>
-      <c r="AE36" t="s"/>
-    </row>
-    <row r="37" spans="1:31">
-      <c r="A37" s="1" t="n">
+    </row>
+    <row r="37" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
         <v>35</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
       <c r="D37" t="s">
         <v>193</v>
       </c>
@@ -4146,34 +3728,31 @@
       <c r="F37" t="s">
         <v>195</v>
       </c>
-      <c r="G37" t="n">
-        <v>0</v>
-      </c>
-      <c r="H37" t="n">
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
         <v>0</v>
       </c>
       <c r="I37" t="s">
         <v>196</v>
       </c>
-      <c r="J37" t="s"/>
-      <c r="K37" t="n">
-        <v>1.04571404957141e+18</v>
-      </c>
-      <c r="L37" t="n">
-        <v>1.04571404957141e+18</v>
+      <c r="K37">
+        <v>1.04571404957141E+18</v>
+      </c>
+      <c r="L37">
+        <v>1.04571404957141E+18</v>
       </c>
       <c r="M37" t="s">
         <v>51</v>
       </c>
-      <c r="N37" t="s"/>
-      <c r="O37" t="s"/>
-      <c r="P37" t="n">
-        <v>7.55869984761479e+17</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>7.55869984761479e+17</v>
-      </c>
-      <c r="R37" t="n">
+      <c r="P37">
+        <v>7.5586998476147904E+17</v>
+      </c>
+      <c r="Q37">
+        <v>7.5586998476147904E+17</v>
+      </c>
+      <c r="R37">
         <v>0</v>
       </c>
       <c r="S37" t="s">
@@ -4182,34 +3761,26 @@
       <c r="T37" t="s">
         <v>35</v>
       </c>
-      <c r="U37" t="s"/>
-      <c r="V37" t="n">
-        <v>0</v>
-      </c>
-      <c r="W37" t="n">
+      <c r="V37">
+        <v>0</v>
+      </c>
+      <c r="W37">
         <v>0</v>
       </c>
       <c r="X37" t="s">
         <v>41</v>
       </c>
-      <c r="Y37" t="s"/>
-      <c r="Z37" t="n">
+      <c r="Z37">
         <v>0</v>
       </c>
       <c r="AA37" t="s">
         <v>197</v>
       </c>
-      <c r="AB37" t="s"/>
-      <c r="AC37" t="s"/>
-      <c r="AD37" t="s"/>
-      <c r="AE37" t="s"/>
-    </row>
-    <row r="38" spans="1:31">
-      <c r="A38" s="1" t="n">
+    </row>
+    <row r="38" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
         <v>36</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
       <c r="D38" t="s">
         <v>198</v>
       </c>
@@ -4219,34 +3790,31 @@
       <c r="F38" t="s">
         <v>200</v>
       </c>
-      <c r="G38" t="n">
-        <v>0</v>
-      </c>
-      <c r="H38" t="n">
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38">
         <v>0</v>
       </c>
       <c r="I38" t="s">
         <v>201</v>
       </c>
-      <c r="J38" t="s"/>
-      <c r="K38" t="n">
-        <v>1.04597094786449e+18</v>
-      </c>
-      <c r="L38" t="n">
-        <v>1.04597094786449e+18</v>
+      <c r="K38">
+        <v>1.04597094786449E+18</v>
+      </c>
+      <c r="L38">
+        <v>1.04597094786449E+18</v>
       </c>
       <c r="M38" t="s">
         <v>51</v>
       </c>
-      <c r="N38" t="s"/>
-      <c r="O38" t="s"/>
-      <c r="P38" t="n">
-        <v>7.55869984761479e+17</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>7.55869984761479e+17</v>
-      </c>
-      <c r="R38" t="n">
+      <c r="P38">
+        <v>7.5586998476147904E+17</v>
+      </c>
+      <c r="Q38">
+        <v>7.5586998476147904E+17</v>
+      </c>
+      <c r="R38">
         <v>0</v>
       </c>
       <c r="S38" t="s">
@@ -4255,34 +3823,26 @@
       <c r="T38" t="s">
         <v>202</v>
       </c>
-      <c r="U38" t="s"/>
-      <c r="V38" t="n">
-        <v>0</v>
-      </c>
-      <c r="W38" t="n">
+      <c r="V38">
+        <v>0</v>
+      </c>
+      <c r="W38">
         <v>0</v>
       </c>
       <c r="X38" t="s">
         <v>41</v>
       </c>
-      <c r="Y38" t="s"/>
-      <c r="Z38" t="n">
+      <c r="Z38">
         <v>0</v>
       </c>
       <c r="AA38" t="s">
         <v>203</v>
       </c>
-      <c r="AB38" t="s"/>
-      <c r="AC38" t="s"/>
-      <c r="AD38" t="s"/>
-      <c r="AE38" t="s"/>
-    </row>
-    <row r="39" spans="1:31">
-      <c r="A39" s="1" t="n">
+    </row>
+    <row r="39" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
         <v>37</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
       <c r="D39" t="s">
         <v>204</v>
       </c>
@@ -4292,28 +3852,22 @@
       <c r="F39" t="s">
         <v>206</v>
       </c>
-      <c r="G39" t="n">
-        <v>0</v>
-      </c>
-      <c r="H39" t="n">
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39">
         <v>0</v>
       </c>
       <c r="I39" t="s">
         <v>207</v>
       </c>
-      <c r="J39" t="s"/>
-      <c r="K39" t="n">
-        <v>1.046184223948837e+18</v>
-      </c>
-      <c r="L39" t="n">
-        <v>1.046184223948837e+18</v>
-      </c>
-      <c r="M39" t="s"/>
-      <c r="N39" t="s"/>
-      <c r="O39" t="s"/>
-      <c r="P39" t="s"/>
-      <c r="Q39" t="s"/>
-      <c r="R39" t="n">
+      <c r="K39">
+        <v>1.046184223948837E+18</v>
+      </c>
+      <c r="L39">
+        <v>1.046184223948837E+18</v>
+      </c>
+      <c r="R39">
         <v>0</v>
       </c>
       <c r="S39" t="s">
@@ -4322,34 +3876,26 @@
       <c r="T39" t="s">
         <v>114</v>
       </c>
-      <c r="U39" t="s"/>
-      <c r="V39" t="n">
-        <v>0</v>
-      </c>
-      <c r="W39" t="n">
+      <c r="V39">
+        <v>0</v>
+      </c>
+      <c r="W39">
         <v>0</v>
       </c>
       <c r="X39" t="s">
         <v>115</v>
       </c>
-      <c r="Y39" t="s"/>
-      <c r="Z39" t="n">
+      <c r="Z39">
         <v>0</v>
       </c>
       <c r="AA39" t="s">
         <v>208</v>
       </c>
-      <c r="AB39" t="s"/>
-      <c r="AC39" t="s"/>
-      <c r="AD39" t="s"/>
-      <c r="AE39" t="s"/>
-    </row>
-    <row r="40" spans="1:31">
-      <c r="A40" s="1" t="n">
+    </row>
+    <row r="40" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
         <v>38</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
       <c r="D40" t="s">
         <v>209</v>
       </c>
@@ -4359,28 +3905,22 @@
       <c r="F40" t="s">
         <v>211</v>
       </c>
-      <c r="G40" t="n">
-        <v>0</v>
-      </c>
-      <c r="H40" t="n">
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
         <v>0</v>
       </c>
       <c r="I40" t="s">
         <v>212</v>
       </c>
-      <c r="J40" t="s"/>
-      <c r="K40" t="n">
-        <v>1.046192436270305e+18</v>
-      </c>
-      <c r="L40" t="n">
-        <v>1.046192436270305e+18</v>
-      </c>
-      <c r="M40" t="s"/>
-      <c r="N40" t="s"/>
-      <c r="O40" t="s"/>
-      <c r="P40" t="s"/>
-      <c r="Q40" t="s"/>
-      <c r="R40" t="n">
+      <c r="K40">
+        <v>1.046192436270305E+18</v>
+      </c>
+      <c r="L40">
+        <v>1.046192436270305E+18</v>
+      </c>
+      <c r="R40">
         <v>0</v>
       </c>
       <c r="S40" t="s">
@@ -4389,34 +3929,26 @@
       <c r="T40" t="s">
         <v>35</v>
       </c>
-      <c r="U40" t="s"/>
-      <c r="V40" t="n">
-        <v>0</v>
-      </c>
-      <c r="W40" t="n">
+      <c r="V40">
+        <v>0</v>
+      </c>
+      <c r="W40">
         <v>0</v>
       </c>
       <c r="X40" t="s">
         <v>115</v>
       </c>
-      <c r="Y40" t="s"/>
-      <c r="Z40" t="n">
+      <c r="Z40">
         <v>0</v>
       </c>
       <c r="AA40" t="s">
         <v>213</v>
       </c>
-      <c r="AB40" t="s"/>
-      <c r="AC40" t="s"/>
-      <c r="AD40" t="s"/>
-      <c r="AE40" t="s"/>
-    </row>
-    <row r="41" spans="1:31">
-      <c r="A41" s="1" t="n">
+    </row>
+    <row r="41" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
         <v>39</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
       <c r="D41" t="s">
         <v>214</v>
       </c>
@@ -4426,28 +3958,22 @@
       <c r="F41" t="s">
         <v>216</v>
       </c>
-      <c r="G41" t="n">
-        <v>0</v>
-      </c>
-      <c r="H41" t="n">
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41">
         <v>0</v>
       </c>
       <c r="I41" t="s">
         <v>217</v>
       </c>
-      <c r="J41" t="s"/>
-      <c r="K41" t="n">
-        <v>1.04619482541711e+18</v>
-      </c>
-      <c r="L41" t="n">
-        <v>1.04619482541711e+18</v>
-      </c>
-      <c r="M41" t="s"/>
-      <c r="N41" t="s"/>
-      <c r="O41" t="s"/>
-      <c r="P41" t="s"/>
-      <c r="Q41" t="s"/>
-      <c r="R41" t="n">
+      <c r="K41">
+        <v>1.04619482541711E+18</v>
+      </c>
+      <c r="L41">
+        <v>1.04619482541711E+18</v>
+      </c>
+      <c r="R41">
         <v>0</v>
       </c>
       <c r="S41" t="s">
@@ -4456,34 +3982,26 @@
       <c r="T41" t="s">
         <v>114</v>
       </c>
-      <c r="U41" t="s"/>
-      <c r="V41" t="n">
-        <v>0</v>
-      </c>
-      <c r="W41" t="n">
+      <c r="V41">
+        <v>0</v>
+      </c>
+      <c r="W41">
         <v>0</v>
       </c>
       <c r="X41" t="s">
         <v>115</v>
       </c>
-      <c r="Y41" t="s"/>
-      <c r="Z41" t="n">
+      <c r="Z41">
         <v>0</v>
       </c>
       <c r="AA41" t="s">
         <v>218</v>
       </c>
-      <c r="AB41" t="s"/>
-      <c r="AC41" t="s"/>
-      <c r="AD41" t="s"/>
-      <c r="AE41" t="s"/>
-    </row>
-    <row r="42" spans="1:31">
-      <c r="A42" s="1" t="n">
+    </row>
+    <row r="42" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
         <v>40</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
       <c r="D42" t="s">
         <v>219</v>
       </c>
@@ -4493,34 +4011,31 @@
       <c r="F42" t="s">
         <v>221</v>
       </c>
-      <c r="G42" t="n">
-        <v>0</v>
-      </c>
-      <c r="H42" t="n">
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
         <v>0</v>
       </c>
       <c r="I42" t="s">
         <v>222</v>
       </c>
-      <c r="J42" t="s"/>
-      <c r="K42" t="n">
-        <v>1.04619675086696e+18</v>
-      </c>
-      <c r="L42" t="n">
-        <v>1.04619675086696e+18</v>
+      <c r="K42">
+        <v>1.04619675086696E+18</v>
+      </c>
+      <c r="L42">
+        <v>1.04619675086696E+18</v>
       </c>
       <c r="M42" t="s">
         <v>51</v>
       </c>
-      <c r="N42" t="s"/>
-      <c r="O42" t="s"/>
-      <c r="P42" t="n">
-        <v>7.558699847614792e+17</v>
-      </c>
-      <c r="Q42" t="n">
-        <v>7.55869984761479e+17</v>
-      </c>
-      <c r="R42" t="n">
+      <c r="P42">
+        <v>7.5586998476147917E+17</v>
+      </c>
+      <c r="Q42">
+        <v>7.5586998476147904E+17</v>
+      </c>
+      <c r="R42">
         <v>0</v>
       </c>
       <c r="S42" t="s">
@@ -4529,34 +4044,26 @@
       <c r="T42" t="s">
         <v>202</v>
       </c>
-      <c r="U42" t="s"/>
-      <c r="V42" t="n">
-        <v>0</v>
-      </c>
-      <c r="W42" t="n">
+      <c r="V42">
+        <v>0</v>
+      </c>
+      <c r="W42">
         <v>0</v>
       </c>
       <c r="X42" t="s">
         <v>41</v>
       </c>
-      <c r="Y42" t="s"/>
-      <c r="Z42" t="n">
+      <c r="Z42">
         <v>0</v>
       </c>
       <c r="AA42" t="s">
         <v>223</v>
       </c>
-      <c r="AB42" t="s"/>
-      <c r="AC42" t="s"/>
-      <c r="AD42" t="s"/>
-      <c r="AE42" t="s"/>
-    </row>
-    <row r="43" spans="1:31">
-      <c r="A43" s="1" t="n">
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
         <v>41</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
       <c r="D43" t="s">
         <v>224</v>
       </c>
@@ -4566,34 +4073,31 @@
       <c r="F43" t="s">
         <v>226</v>
       </c>
-      <c r="G43" t="n">
-        <v>0</v>
-      </c>
-      <c r="H43" t="n">
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43">
         <v>0</v>
       </c>
       <c r="I43" t="s">
         <v>227</v>
       </c>
-      <c r="J43" t="s"/>
-      <c r="K43" t="n">
-        <v>1.046306995345785e+18</v>
-      </c>
-      <c r="L43" t="n">
-        <v>1.046306995345785e+18</v>
+      <c r="K43">
+        <v>1.046306995345785E+18</v>
+      </c>
+      <c r="L43">
+        <v>1.046306995345785E+18</v>
       </c>
       <c r="M43" t="s">
         <v>51</v>
       </c>
-      <c r="N43" t="s"/>
-      <c r="O43" t="s"/>
-      <c r="P43" t="n">
-        <v>7.558699847614792e+17</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>7.55869984761479e+17</v>
-      </c>
-      <c r="R43" t="n">
+      <c r="P43">
+        <v>7.5586998476147917E+17</v>
+      </c>
+      <c r="Q43">
+        <v>7.5586998476147904E+17</v>
+      </c>
+      <c r="R43">
         <v>0</v>
       </c>
       <c r="S43" t="s">
@@ -4602,34 +4106,26 @@
       <c r="T43" t="s">
         <v>114</v>
       </c>
-      <c r="U43" t="s"/>
-      <c r="V43" t="n">
-        <v>0</v>
-      </c>
-      <c r="W43" t="n">
+      <c r="V43">
+        <v>0</v>
+      </c>
+      <c r="W43">
         <v>0</v>
       </c>
       <c r="X43" t="s">
         <v>41</v>
       </c>
-      <c r="Y43" t="s"/>
-      <c r="Z43" t="n">
+      <c r="Z43">
         <v>0</v>
       </c>
       <c r="AA43" t="s">
         <v>228</v>
       </c>
-      <c r="AB43" t="s"/>
-      <c r="AC43" t="s"/>
-      <c r="AD43" t="s"/>
-      <c r="AE43" t="s"/>
-    </row>
-    <row r="44" spans="1:31">
-      <c r="A44" s="1" t="n">
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
         <v>42</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
       <c r="D44" t="s">
         <v>229</v>
       </c>
@@ -4639,34 +4135,31 @@
       <c r="F44" t="s">
         <v>226</v>
       </c>
-      <c r="G44" t="n">
-        <v>0</v>
-      </c>
-      <c r="H44" t="n">
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44">
         <v>0</v>
       </c>
       <c r="I44" t="s">
         <v>231</v>
       </c>
-      <c r="J44" t="s"/>
-      <c r="K44" t="n">
-        <v>1.046465002947965e+18</v>
-      </c>
-      <c r="L44" t="n">
-        <v>1.046465002947965e+18</v>
+      <c r="K44">
+        <v>1.0464650029479651E+18</v>
+      </c>
+      <c r="L44">
+        <v>1.0464650029479651E+18</v>
       </c>
       <c r="M44" t="s">
         <v>51</v>
       </c>
-      <c r="N44" t="s"/>
-      <c r="O44" t="s"/>
-      <c r="P44" t="n">
-        <v>7.558699847614792e+17</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>7.55869984761479e+17</v>
-      </c>
-      <c r="R44" t="n">
+      <c r="P44">
+        <v>7.5586998476147917E+17</v>
+      </c>
+      <c r="Q44">
+        <v>7.5586998476147904E+17</v>
+      </c>
+      <c r="R44">
         <v>0</v>
       </c>
       <c r="S44" t="s">
@@ -4675,219 +4168,184 @@
       <c r="T44" t="s">
         <v>202</v>
       </c>
-      <c r="U44" t="s"/>
-      <c r="V44" t="n">
-        <v>0</v>
-      </c>
-      <c r="W44" t="n">
+      <c r="V44">
+        <v>0</v>
+      </c>
+      <c r="W44">
         <v>0</v>
       </c>
       <c r="X44" t="s">
         <v>41</v>
       </c>
-      <c r="Y44" t="s"/>
-      <c r="Z44" t="n">
+      <c r="Z44">
         <v>0</v>
       </c>
       <c r="AA44" t="s">
         <v>232</v>
       </c>
-      <c r="AB44" t="s"/>
-      <c r="AC44" t="s"/>
-      <c r="AD44" t="s"/>
-      <c r="AE44" t="s"/>
-    </row>
-    <row r="45" spans="1:31">
-      <c r="A45" s="1" t="n">
-        <v>43</v>
-      </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>44</v>
+      </c>
       <c r="D45" t="s">
         <v>233</v>
       </c>
       <c r="E45" t="s">
+        <v>31</v>
+      </c>
+      <c r="F45" t="s">
         <v>234</v>
       </c>
-      <c r="F45" t="s">
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45" t="s">
         <v>235</v>
       </c>
-      <c r="G45" t="n">
-        <v>0</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="s">
-        <v>236</v>
-      </c>
-      <c r="J45" t="s"/>
-      <c r="K45" t="n">
-        <v>1.047572816965591e+18</v>
-      </c>
-      <c r="L45" t="n">
-        <v>1.047572816965591e+18</v>
+      <c r="K45">
+        <v>1.047768386091012E+18</v>
+      </c>
+      <c r="L45">
+        <v>1.047768386091012E+18</v>
       </c>
       <c r="M45" t="s">
         <v>51</v>
       </c>
-      <c r="N45" t="s"/>
-      <c r="O45" t="s"/>
-      <c r="P45" t="n">
-        <v>7.558699847614792e+17</v>
-      </c>
-      <c r="Q45" t="n">
-        <v>7.55869984761479e+17</v>
-      </c>
-      <c r="R45" t="n">
+      <c r="P45">
+        <v>7.5586998476147917E+17</v>
+      </c>
+      <c r="Q45">
+        <v>7.5586998476147904E+17</v>
+      </c>
+      <c r="R45">
         <v>0</v>
       </c>
       <c r="S45" t="s">
+        <v>71</v>
+      </c>
+      <c r="T45" t="s">
+        <v>72</v>
+      </c>
+      <c r="V45">
+        <v>0</v>
+      </c>
+      <c r="W45">
+        <v>0</v>
+      </c>
+      <c r="X45" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z45">
+        <v>0</v>
+      </c>
+      <c r="AA45" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>45</v>
+      </c>
+      <c r="D46" t="s">
         <v>237</v>
       </c>
-      <c r="T45" t="s">
+      <c r="E46" t="s">
         <v>238</v>
       </c>
-      <c r="U45" t="s">
+      <c r="F46" t="s">
         <v>239</v>
       </c>
-      <c r="V45" t="n">
-        <v>0</v>
-      </c>
-      <c r="W45" t="n">
-        <v>0</v>
-      </c>
-      <c r="X45" t="s">
-        <v>108</v>
-      </c>
-      <c r="Y45" t="s"/>
-      <c r="Z45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA45" t="s">
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <v>0</v>
+      </c>
+      <c r="I46" t="s">
         <v>240</v>
       </c>
-      <c r="AB45" t="s"/>
-      <c r="AC45" t="s"/>
-      <c r="AD45" t="s"/>
-      <c r="AE45" t="s"/>
-    </row>
-    <row r="46" spans="1:31">
-      <c r="A46" s="1" t="n">
-        <v>44</v>
-      </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
-      <c r="D46" t="s">
-        <v>241</v>
-      </c>
-      <c r="E46" t="s">
-        <v>31</v>
-      </c>
-      <c r="F46" t="s">
-        <v>242</v>
-      </c>
-      <c r="G46" t="n">
-        <v>0</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="s">
-        <v>243</v>
-      </c>
-      <c r="J46" t="s"/>
-      <c r="K46" t="n">
-        <v>1.047768386091012e+18</v>
-      </c>
-      <c r="L46" t="n">
-        <v>1.047768386091012e+18</v>
+      <c r="K46">
+        <v>1.0477853812473E+18</v>
+      </c>
+      <c r="L46">
+        <v>1.0477853812473E+18</v>
       </c>
       <c r="M46" t="s">
         <v>51</v>
       </c>
-      <c r="N46" t="s"/>
-      <c r="O46" t="s"/>
-      <c r="P46" t="n">
-        <v>7.558699847614792e+17</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>7.55869984761479e+17</v>
-      </c>
-      <c r="R46" t="n">
+      <c r="P46">
+        <v>7.5586998476147917E+17</v>
+      </c>
+      <c r="Q46">
+        <v>7.5586998476147904E+17</v>
+      </c>
+      <c r="R46">
         <v>0</v>
       </c>
       <c r="S46" t="s">
-        <v>71</v>
+        <v>34</v>
       </c>
       <c r="T46" t="s">
-        <v>72</v>
-      </c>
-      <c r="U46" t="s"/>
-      <c r="V46" t="n">
-        <v>0</v>
-      </c>
-      <c r="W46" t="n">
+        <v>35</v>
+      </c>
+      <c r="V46">
+        <v>0</v>
+      </c>
+      <c r="W46">
         <v>0</v>
       </c>
       <c r="X46" t="s">
         <v>36</v>
       </c>
-      <c r="Y46" t="s"/>
-      <c r="Z46" t="n">
+      <c r="Z46">
         <v>0</v>
       </c>
       <c r="AA46" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>46</v>
+      </c>
+      <c r="D47" t="s">
+        <v>242</v>
+      </c>
+      <c r="E47" t="s">
+        <v>243</v>
+      </c>
+      <c r="F47" t="s">
+        <v>239</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <v>0</v>
+      </c>
+      <c r="I47" t="s">
         <v>244</v>
       </c>
-      <c r="AB46" t="s"/>
-      <c r="AC46" t="s"/>
-      <c r="AD46" t="s"/>
-      <c r="AE46" t="s"/>
-    </row>
-    <row r="47" spans="1:31">
-      <c r="A47" s="1" t="n">
-        <v>45</v>
-      </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
-      <c r="D47" t="s">
-        <v>245</v>
-      </c>
-      <c r="E47" t="s">
-        <v>246</v>
-      </c>
-      <c r="F47" t="s">
-        <v>247</v>
-      </c>
-      <c r="G47" t="n">
-        <v>0</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="s">
-        <v>248</v>
-      </c>
-      <c r="J47" t="s"/>
-      <c r="K47" t="n">
-        <v>1.0477853812473e+18</v>
-      </c>
-      <c r="L47" t="n">
-        <v>1.0477853812473e+18</v>
+      <c r="K47">
+        <v>1.047915882775794E+18</v>
+      </c>
+      <c r="L47">
+        <v>1.047915882775794E+18</v>
       </c>
       <c r="M47" t="s">
         <v>51</v>
       </c>
-      <c r="N47" t="s"/>
-      <c r="O47" t="s"/>
-      <c r="P47" t="n">
-        <v>7.558699847614792e+17</v>
-      </c>
-      <c r="Q47" t="n">
-        <v>7.55869984761479e+17</v>
-      </c>
-      <c r="R47" t="n">
+      <c r="P47">
+        <v>7.5586998476147917E+17</v>
+      </c>
+      <c r="Q47">
+        <v>7.5586998476147904E+17</v>
+      </c>
+      <c r="R47">
         <v>0</v>
       </c>
       <c r="S47" t="s">
@@ -4896,71 +4354,60 @@
       <c r="T47" t="s">
         <v>35</v>
       </c>
-      <c r="U47" t="s"/>
-      <c r="V47" t="n">
-        <v>0</v>
-      </c>
-      <c r="W47" t="n">
+      <c r="V47">
+        <v>0</v>
+      </c>
+      <c r="W47">
         <v>0</v>
       </c>
       <c r="X47" t="s">
-        <v>36</v>
-      </c>
-      <c r="Y47" t="s"/>
-      <c r="Z47" t="n">
+        <v>41</v>
+      </c>
+      <c r="Z47">
         <v>0</v>
       </c>
       <c r="AA47" t="s">
-        <v>249</v>
-      </c>
-      <c r="AB47" t="s"/>
-      <c r="AC47" t="s"/>
-      <c r="AD47" t="s"/>
-      <c r="AE47" t="s"/>
-    </row>
-    <row r="48" spans="1:31">
-      <c r="A48" s="1" t="n">
-        <v>46</v>
-      </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+        <v>245</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>47</v>
+      </c>
       <c r="D48" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="E48" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="F48" t="s">
-        <v>247</v>
-      </c>
-      <c r="G48" t="n">
-        <v>0</v>
-      </c>
-      <c r="H48" t="n">
+        <v>239</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48">
         <v>0</v>
       </c>
       <c r="I48" t="s">
-        <v>252</v>
-      </c>
-      <c r="J48" t="s"/>
-      <c r="K48" t="n">
-        <v>1.047915882775794e+18</v>
-      </c>
-      <c r="L48" t="n">
-        <v>1.047915882775794e+18</v>
+        <v>248</v>
+      </c>
+      <c r="K48">
+        <v>1.0479246414472029E+18</v>
+      </c>
+      <c r="L48">
+        <v>1.0479246414472029E+18</v>
       </c>
       <c r="M48" t="s">
         <v>51</v>
       </c>
-      <c r="N48" t="s"/>
-      <c r="O48" t="s"/>
-      <c r="P48" t="n">
-        <v>7.558699847614792e+17</v>
-      </c>
-      <c r="Q48" t="n">
-        <v>7.55869984761479e+17</v>
-      </c>
-      <c r="R48" t="n">
+      <c r="P48">
+        <v>7.5586998476147917E+17</v>
+      </c>
+      <c r="Q48">
+        <v>7.5586998476147904E+17</v>
+      </c>
+      <c r="R48">
         <v>0</v>
       </c>
       <c r="S48" t="s">
@@ -4969,71 +4416,60 @@
       <c r="T48" t="s">
         <v>35</v>
       </c>
-      <c r="U48" t="s"/>
-      <c r="V48" t="n">
-        <v>0</v>
-      </c>
-      <c r="W48" t="n">
+      <c r="V48">
+        <v>0</v>
+      </c>
+      <c r="W48">
         <v>0</v>
       </c>
       <c r="X48" t="s">
         <v>41</v>
       </c>
-      <c r="Y48" t="s"/>
-      <c r="Z48" t="n">
+      <c r="Z48">
         <v>0</v>
       </c>
       <c r="AA48" t="s">
-        <v>253</v>
-      </c>
-      <c r="AB48" t="s"/>
-      <c r="AC48" t="s"/>
-      <c r="AD48" t="s"/>
-      <c r="AE48" t="s"/>
-    </row>
-    <row r="49" spans="1:31">
-      <c r="A49" s="1" t="n">
-        <v>47</v>
-      </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+        <v>249</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>48</v>
+      </c>
       <c r="D49" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="E49" t="s">
-        <v>255</v>
+        <v>230</v>
       </c>
       <c r="F49" t="s">
-        <v>247</v>
-      </c>
-      <c r="G49" t="n">
-        <v>0</v>
-      </c>
-      <c r="H49" t="n">
+        <v>239</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
         <v>0</v>
       </c>
       <c r="I49" t="s">
-        <v>256</v>
-      </c>
-      <c r="J49" t="s"/>
-      <c r="K49" t="n">
-        <v>1.047924641447203e+18</v>
-      </c>
-      <c r="L49" t="n">
-        <v>1.047924641447203e+18</v>
+        <v>251</v>
+      </c>
+      <c r="K49">
+        <v>1.047957515969946E+18</v>
+      </c>
+      <c r="L49">
+        <v>1.047957515969946E+18</v>
       </c>
       <c r="M49" t="s">
         <v>51</v>
       </c>
-      <c r="N49" t="s"/>
-      <c r="O49" t="s"/>
-      <c r="P49" t="n">
-        <v>7.558699847614792e+17</v>
-      </c>
-      <c r="Q49" t="n">
-        <v>7.55869984761479e+17</v>
-      </c>
-      <c r="R49" t="n">
+      <c r="P49">
+        <v>7.5586998476147917E+17</v>
+      </c>
+      <c r="Q49">
+        <v>7.5586998476147904E+17</v>
+      </c>
+      <c r="R49">
         <v>0</v>
       </c>
       <c r="S49" t="s">
@@ -5042,211 +4478,175 @@
       <c r="T49" t="s">
         <v>35</v>
       </c>
-      <c r="U49" t="s"/>
-      <c r="V49" t="n">
-        <v>0</v>
-      </c>
-      <c r="W49" t="n">
+      <c r="V49">
+        <v>0</v>
+      </c>
+      <c r="W49">
         <v>0</v>
       </c>
       <c r="X49" t="s">
         <v>41</v>
       </c>
-      <c r="Y49" t="s"/>
-      <c r="Z49" t="n">
+      <c r="Z49">
         <v>0</v>
       </c>
       <c r="AA49" t="s">
-        <v>257</v>
-      </c>
-      <c r="AB49" t="s"/>
-      <c r="AC49" t="s"/>
-      <c r="AD49" t="s"/>
-      <c r="AE49" t="s"/>
-    </row>
-    <row r="50" spans="1:31">
-      <c r="A50" s="1" t="n">
-        <v>48</v>
-      </c>
-      <c r="B50" t="s"/>
-      <c r="C50" t="s"/>
+        <v>252</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>49</v>
+      </c>
       <c r="D50" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="E50" t="s">
-        <v>230</v>
+        <v>254</v>
       </c>
       <c r="F50" t="s">
-        <v>247</v>
-      </c>
-      <c r="G50" t="n">
-        <v>0</v>
-      </c>
-      <c r="H50" t="n">
+        <v>255</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+      <c r="H50">
         <v>0</v>
       </c>
       <c r="I50" t="s">
-        <v>259</v>
-      </c>
-      <c r="J50" t="s"/>
-      <c r="K50" t="n">
-        <v>1.047957515969946e+18</v>
-      </c>
-      <c r="L50" t="n">
-        <v>1.047957515969946e+18</v>
-      </c>
-      <c r="M50" t="s">
-        <v>51</v>
-      </c>
-      <c r="N50" t="s"/>
-      <c r="O50" t="s"/>
-      <c r="P50" t="n">
-        <v>7.558699847614792e+17</v>
-      </c>
-      <c r="Q50" t="n">
-        <v>7.55869984761479e+17</v>
-      </c>
-      <c r="R50" t="n">
+        <v>256</v>
+      </c>
+      <c r="K50">
+        <v>1.048668926819951E+18</v>
+      </c>
+      <c r="L50">
+        <v>1.048668926819951E+18</v>
+      </c>
+      <c r="R50">
         <v>0</v>
       </c>
       <c r="S50" t="s">
-        <v>34</v>
+        <v>71</v>
       </c>
       <c r="T50" t="s">
-        <v>35</v>
-      </c>
-      <c r="U50" t="s"/>
-      <c r="V50" t="n">
-        <v>0</v>
-      </c>
-      <c r="W50" t="n">
+        <v>72</v>
+      </c>
+      <c r="V50">
+        <v>0</v>
+      </c>
+      <c r="W50">
         <v>0</v>
       </c>
       <c r="X50" t="s">
         <v>41</v>
       </c>
-      <c r="Y50" t="s"/>
-      <c r="Z50" t="n">
+      <c r="Z50">
         <v>0</v>
       </c>
       <c r="AA50" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <v>50</v>
+      </c>
+      <c r="D51" t="s">
+        <v>258</v>
+      </c>
+      <c r="E51" t="s">
+        <v>259</v>
+      </c>
+      <c r="F51" t="s">
+        <v>239</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="H51">
+        <v>0</v>
+      </c>
+      <c r="I51" t="s">
         <v>260</v>
       </c>
-      <c r="AB50" t="s"/>
-      <c r="AC50" t="s"/>
-      <c r="AD50" t="s"/>
-      <c r="AE50" t="s"/>
-    </row>
-    <row r="51" spans="1:31">
-      <c r="A51" s="1" t="n">
-        <v>49</v>
-      </c>
-      <c r="B51" t="s"/>
-      <c r="C51" t="s"/>
-      <c r="D51" t="s">
+      <c r="K51">
+        <v>1.05047311539705E+18</v>
+      </c>
+      <c r="L51">
+        <v>1.05047311539705E+18</v>
+      </c>
+      <c r="M51" t="s">
+        <v>51</v>
+      </c>
+      <c r="P51">
+        <v>7.5586998476147917E+17</v>
+      </c>
+      <c r="Q51">
+        <v>7.5586998476147904E+17</v>
+      </c>
+      <c r="R51">
+        <v>0</v>
+      </c>
+      <c r="S51" t="s">
+        <v>34</v>
+      </c>
+      <c r="T51" t="s">
+        <v>35</v>
+      </c>
+      <c r="V51">
+        <v>0</v>
+      </c>
+      <c r="W51">
+        <v>0</v>
+      </c>
+      <c r="X51" t="s">
+        <v>108</v>
+      </c>
+      <c r="Z51">
+        <v>0</v>
+      </c>
+      <c r="AA51" t="s">
         <v>261</v>
       </c>
-      <c r="E51" t="s">
+    </row>
+    <row r="52" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
+        <v>51</v>
+      </c>
+      <c r="D52" t="s">
         <v>262</v>
       </c>
-      <c r="F51" t="s">
+      <c r="E52" t="s">
         <v>263</v>
       </c>
-      <c r="G51" t="n">
-        <v>0</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="s">
+      <c r="F52" t="s">
+        <v>239</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52" t="s">
         <v>264</v>
       </c>
-      <c r="J51" t="s"/>
-      <c r="K51" t="n">
-        <v>1.048668926819951e+18</v>
-      </c>
-      <c r="L51" t="n">
-        <v>1.048668926819951e+18</v>
-      </c>
-      <c r="M51" t="s"/>
-      <c r="N51" t="s"/>
-      <c r="O51" t="s"/>
-      <c r="P51" t="s"/>
-      <c r="Q51" t="s"/>
-      <c r="R51" t="n">
-        <v>0</v>
-      </c>
-      <c r="S51" t="s">
-        <v>71</v>
-      </c>
-      <c r="T51" t="s">
-        <v>72</v>
-      </c>
-      <c r="U51" t="s"/>
-      <c r="V51" t="n">
-        <v>0</v>
-      </c>
-      <c r="W51" t="n">
-        <v>0</v>
-      </c>
-      <c r="X51" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y51" t="s"/>
-      <c r="Z51" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA51" t="s">
-        <v>265</v>
-      </c>
-      <c r="AB51" t="s"/>
-      <c r="AC51" t="s"/>
-      <c r="AD51" t="s"/>
-      <c r="AE51" t="s"/>
-    </row>
-    <row r="52" spans="1:31">
-      <c r="A52" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="B52" t="s"/>
-      <c r="C52" t="s"/>
-      <c r="D52" t="s">
-        <v>266</v>
-      </c>
-      <c r="E52" t="s">
-        <v>267</v>
-      </c>
-      <c r="F52" t="s">
-        <v>247</v>
-      </c>
-      <c r="G52" t="n">
-        <v>0</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="s">
-        <v>268</v>
-      </c>
-      <c r="J52" t="s"/>
-      <c r="K52" t="n">
-        <v>1.05047311539705e+18</v>
-      </c>
-      <c r="L52" t="n">
-        <v>1.05047311539705e+18</v>
+      <c r="K52">
+        <v>1.053761249643807E+18</v>
+      </c>
+      <c r="L52">
+        <v>1.053761249643807E+18</v>
       </c>
       <c r="M52" t="s">
         <v>51</v>
       </c>
-      <c r="N52" t="s"/>
-      <c r="O52" t="s"/>
-      <c r="P52" t="n">
-        <v>7.558699847614792e+17</v>
-      </c>
-      <c r="Q52" t="n">
-        <v>7.55869984761479e+17</v>
-      </c>
-      <c r="R52" t="n">
+      <c r="P52">
+        <v>7.5586998476147917E+17</v>
+      </c>
+      <c r="Q52">
+        <v>7.5586998476147904E+17</v>
+      </c>
+      <c r="R52">
         <v>0</v>
       </c>
       <c r="S52" t="s">
@@ -5255,144 +4655,122 @@
       <c r="T52" t="s">
         <v>35</v>
       </c>
-      <c r="U52" t="s"/>
-      <c r="V52" t="n">
-        <v>0</v>
-      </c>
-      <c r="W52" t="n">
+      <c r="V52">
+        <v>0</v>
+      </c>
+      <c r="W52">
         <v>0</v>
       </c>
       <c r="X52" t="s">
-        <v>108</v>
-      </c>
-      <c r="Y52" t="s"/>
-      <c r="Z52" t="n">
+        <v>41</v>
+      </c>
+      <c r="Z52">
         <v>0</v>
       </c>
       <c r="AA52" t="s">
-        <v>269</v>
-      </c>
-      <c r="AB52" t="s"/>
-      <c r="AC52" t="s"/>
-      <c r="AD52" t="s"/>
-      <c r="AE52" t="s"/>
-    </row>
-    <row r="53" spans="1:31">
-      <c r="A53" s="1" t="n">
-        <v>51</v>
-      </c>
-      <c r="B53" t="s"/>
-      <c r="C53" t="s"/>
+        <v>265</v>
+      </c>
+    </row>
+    <row r="53" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
+        <v>52</v>
+      </c>
       <c r="D53" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="E53" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="F53" t="s">
-        <v>247</v>
-      </c>
-      <c r="G53" t="n">
-        <v>0</v>
-      </c>
-      <c r="H53" t="n">
+        <v>239</v>
+      </c>
+      <c r="G53">
+        <v>0</v>
+      </c>
+      <c r="H53">
         <v>0</v>
       </c>
       <c r="I53" t="s">
-        <v>272</v>
-      </c>
-      <c r="J53" t="s"/>
-      <c r="K53" t="n">
-        <v>1.053761249643807e+18</v>
-      </c>
-      <c r="L53" t="n">
-        <v>1.053761249643807e+18</v>
+        <v>268</v>
+      </c>
+      <c r="K53">
+        <v>1.056642269862859E+18</v>
+      </c>
+      <c r="L53">
+        <v>1.056642269862859E+18</v>
       </c>
       <c r="M53" t="s">
         <v>51</v>
       </c>
-      <c r="N53" t="s"/>
-      <c r="O53" t="s"/>
-      <c r="P53" t="n">
-        <v>7.558699847614792e+17</v>
-      </c>
-      <c r="Q53" t="n">
-        <v>7.55869984761479e+17</v>
-      </c>
-      <c r="R53" t="n">
+      <c r="P53">
+        <v>7.5586998476147917E+17</v>
+      </c>
+      <c r="Q53">
+        <v>7.5586998476147904E+17</v>
+      </c>
+      <c r="R53">
         <v>0</v>
       </c>
       <c r="S53" t="s">
-        <v>34</v>
+        <v>71</v>
       </c>
       <c r="T53" t="s">
-        <v>35</v>
-      </c>
-      <c r="U53" t="s"/>
-      <c r="V53" t="n">
-        <v>0</v>
-      </c>
-      <c r="W53" t="n">
+        <v>72</v>
+      </c>
+      <c r="V53">
+        <v>0</v>
+      </c>
+      <c r="W53">
         <v>0</v>
       </c>
       <c r="X53" t="s">
         <v>41</v>
       </c>
-      <c r="Y53" t="s"/>
-      <c r="Z53" t="n">
+      <c r="Z53">
         <v>0</v>
       </c>
       <c r="AA53" t="s">
-        <v>273</v>
-      </c>
-      <c r="AB53" t="s"/>
-      <c r="AC53" t="s"/>
-      <c r="AD53" t="s"/>
-      <c r="AE53" t="s"/>
-    </row>
-    <row r="54" spans="1:31">
-      <c r="A54" s="1" t="n">
-        <v>52</v>
-      </c>
-      <c r="B54" t="s"/>
-      <c r="C54" t="s"/>
+        <v>269</v>
+      </c>
+    </row>
+    <row r="54" spans="1:27" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
+        <v>53</v>
+      </c>
       <c r="D54" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="E54" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="F54" t="s">
-        <v>247</v>
-      </c>
-      <c r="G54" t="n">
-        <v>0</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="s">
-        <v>276</v>
-      </c>
-      <c r="J54" t="s"/>
-      <c r="K54" t="n">
-        <v>1.056642269862859e+18</v>
-      </c>
-      <c r="L54" t="n">
-        <v>1.056642269862859e+18</v>
+        <v>272</v>
+      </c>
+      <c r="G54">
+        <v>0</v>
+      </c>
+      <c r="H54">
+        <v>0</v>
+      </c>
+      <c r="I54" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="K54">
+        <v>1.05692716066397E+18</v>
+      </c>
+      <c r="L54">
+        <v>1.05692716066397E+18</v>
       </c>
       <c r="M54" t="s">
         <v>51</v>
       </c>
-      <c r="N54" t="s"/>
-      <c r="O54" t="s"/>
-      <c r="P54" t="n">
-        <v>7.558699847614792e+17</v>
-      </c>
-      <c r="Q54" t="n">
-        <v>7.55869984761479e+17</v>
-      </c>
-      <c r="R54" t="n">
+      <c r="P54">
+        <v>7.5586998476147917E+17</v>
+      </c>
+      <c r="Q54">
+        <v>7.5586998476147904E+17</v>
+      </c>
+      <c r="R54">
         <v>0</v>
       </c>
       <c r="S54" t="s">
@@ -5401,71 +4779,60 @@
       <c r="T54" t="s">
         <v>72</v>
       </c>
-      <c r="U54" t="s"/>
-      <c r="V54" t="n">
-        <v>0</v>
-      </c>
-      <c r="W54" t="n">
+      <c r="V54">
+        <v>0</v>
+      </c>
+      <c r="W54">
         <v>0</v>
       </c>
       <c r="X54" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y54" t="s"/>
-      <c r="Z54" t="n">
+        <v>108</v>
+      </c>
+      <c r="Z54">
         <v>0</v>
       </c>
       <c r="AA54" t="s">
-        <v>277</v>
-      </c>
-      <c r="AB54" t="s"/>
-      <c r="AC54" t="s"/>
-      <c r="AD54" t="s"/>
-      <c r="AE54" t="s"/>
-    </row>
-    <row r="55" spans="1:31">
-      <c r="A55" s="1" t="n">
-        <v>53</v>
-      </c>
-      <c r="B55" t="s"/>
-      <c r="C55" t="s"/>
+        <v>273</v>
+      </c>
+    </row>
+    <row r="55" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
+        <v>54</v>
+      </c>
       <c r="D55" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="E55" t="s">
-        <v>279</v>
+        <v>91</v>
       </c>
       <c r="F55" t="s">
-        <v>280</v>
-      </c>
-      <c r="G55" t="n">
-        <v>0</v>
-      </c>
-      <c r="H55" t="n">
+        <v>239</v>
+      </c>
+      <c r="G55">
+        <v>0</v>
+      </c>
+      <c r="H55">
         <v>0</v>
       </c>
       <c r="I55" t="s">
-        <v>281</v>
-      </c>
-      <c r="J55" t="s"/>
-      <c r="K55" t="n">
-        <v>1.05692716066397e+18</v>
-      </c>
-      <c r="L55" t="n">
-        <v>1.05692716066397e+18</v>
+        <v>275</v>
+      </c>
+      <c r="K55">
+        <v>1.0570007253797361E+18</v>
+      </c>
+      <c r="L55">
+        <v>1.0570007253797361E+18</v>
       </c>
       <c r="M55" t="s">
         <v>51</v>
       </c>
-      <c r="N55" t="s"/>
-      <c r="O55" t="s"/>
-      <c r="P55" t="n">
-        <v>7.558699847614792e+17</v>
-      </c>
-      <c r="Q55" t="n">
-        <v>7.55869984761479e+17</v>
-      </c>
-      <c r="R55" t="n">
+      <c r="P55">
+        <v>7.5586998476147917E+17</v>
+      </c>
+      <c r="Q55">
+        <v>7.5586998476147904E+17</v>
+      </c>
+      <c r="R55">
         <v>0</v>
       </c>
       <c r="S55" t="s">
@@ -5474,217 +4841,184 @@
       <c r="T55" t="s">
         <v>72</v>
       </c>
-      <c r="U55" t="s"/>
-      <c r="V55" t="n">
-        <v>0</v>
-      </c>
-      <c r="W55" t="n">
+      <c r="V55">
+        <v>0</v>
+      </c>
+      <c r="W55">
         <v>0</v>
       </c>
       <c r="X55" t="s">
         <v>108</v>
       </c>
-      <c r="Y55" t="s"/>
-      <c r="Z55" t="n">
+      <c r="Z55">
         <v>0</v>
       </c>
       <c r="AA55" t="s">
-        <v>282</v>
-      </c>
-      <c r="AB55" t="s"/>
-      <c r="AC55" t="s"/>
-      <c r="AD55" t="s"/>
-      <c r="AE55" t="s"/>
-    </row>
-    <row r="56" spans="1:31">
-      <c r="A56" s="1" t="n">
-        <v>54</v>
-      </c>
-      <c r="B56" t="s"/>
-      <c r="C56" t="s"/>
+        <v>276</v>
+      </c>
+    </row>
+    <row r="56" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
+        <v>55</v>
+      </c>
       <c r="D56" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="E56" t="s">
-        <v>91</v>
+        <v>271</v>
       </c>
       <c r="F56" t="s">
-        <v>247</v>
-      </c>
-      <c r="G56" t="n">
-        <v>0</v>
-      </c>
-      <c r="H56" t="n">
+        <v>239</v>
+      </c>
+      <c r="G56">
+        <v>0</v>
+      </c>
+      <c r="H56">
         <v>0</v>
       </c>
       <c r="I56" t="s">
-        <v>284</v>
-      </c>
-      <c r="J56" t="s"/>
-      <c r="K56" t="n">
-        <v>1.057000725379736e+18</v>
-      </c>
-      <c r="L56" t="n">
-        <v>1.057000725379736e+18</v>
+        <v>278</v>
+      </c>
+      <c r="K56">
+        <v>1.057001202184086E+18</v>
+      </c>
+      <c r="L56">
+        <v>1.057001202184086E+18</v>
       </c>
       <c r="M56" t="s">
         <v>51</v>
       </c>
-      <c r="N56" t="s"/>
-      <c r="O56" t="s"/>
-      <c r="P56" t="n">
-        <v>7.558699847614792e+17</v>
-      </c>
-      <c r="Q56" t="n">
-        <v>7.55869984761479e+17</v>
-      </c>
-      <c r="R56" t="n">
+      <c r="P56">
+        <v>7.5586998476147917E+17</v>
+      </c>
+      <c r="Q56">
+        <v>7.5586998476147904E+17</v>
+      </c>
+      <c r="R56">
         <v>0</v>
       </c>
       <c r="S56" t="s">
-        <v>71</v>
+        <v>34</v>
       </c>
       <c r="T56" t="s">
-        <v>72</v>
-      </c>
-      <c r="U56" t="s"/>
-      <c r="V56" t="n">
-        <v>0</v>
-      </c>
-      <c r="W56" t="n">
+        <v>35</v>
+      </c>
+      <c r="V56">
+        <v>0</v>
+      </c>
+      <c r="W56">
         <v>0</v>
       </c>
       <c r="X56" t="s">
         <v>108</v>
       </c>
-      <c r="Y56" t="s"/>
-      <c r="Z56" t="n">
+      <c r="Z56">
         <v>0</v>
       </c>
       <c r="AA56" t="s">
-        <v>285</v>
-      </c>
-      <c r="AB56" t="s"/>
-      <c r="AC56" t="s"/>
-      <c r="AD56" t="s"/>
-      <c r="AE56" t="s"/>
-    </row>
-    <row r="57" spans="1:31">
-      <c r="A57" s="1" t="n">
-        <v>55</v>
-      </c>
-      <c r="B57" t="s"/>
-      <c r="C57" t="s"/>
+        <v>279</v>
+      </c>
+    </row>
+    <row r="57" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
+        <v>56</v>
+      </c>
       <c r="D57" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="E57" t="s">
-        <v>279</v>
+        <v>152</v>
       </c>
       <c r="F57" t="s">
-        <v>247</v>
-      </c>
-      <c r="G57" t="n">
-        <v>0</v>
-      </c>
-      <c r="H57" t="n">
+        <v>239</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
         <v>0</v>
       </c>
       <c r="I57" t="s">
-        <v>287</v>
-      </c>
-      <c r="J57" t="s"/>
-      <c r="K57" t="n">
-        <v>1.057001202184086e+18</v>
-      </c>
-      <c r="L57" t="n">
-        <v>1.057001202184086e+18</v>
+        <v>281</v>
+      </c>
+      <c r="K57">
+        <v>1.057002822968009E+18</v>
+      </c>
+      <c r="L57">
+        <v>1.057002822968009E+18</v>
       </c>
       <c r="M57" t="s">
         <v>51</v>
       </c>
-      <c r="N57" t="s"/>
-      <c r="O57" t="s"/>
-      <c r="P57" t="n">
-        <v>7.558699847614792e+17</v>
-      </c>
-      <c r="Q57" t="n">
-        <v>7.55869984761479e+17</v>
-      </c>
-      <c r="R57" t="n">
+      <c r="P57">
+        <v>7.5586998476147917E+17</v>
+      </c>
+      <c r="Q57">
+        <v>7.5586998476147904E+17</v>
+      </c>
+      <c r="R57">
         <v>0</v>
       </c>
       <c r="S57" t="s">
-        <v>34</v>
+        <v>71</v>
       </c>
       <c r="T57" t="s">
-        <v>35</v>
-      </c>
-      <c r="U57" t="s"/>
-      <c r="V57" t="n">
-        <v>0</v>
-      </c>
-      <c r="W57" t="n">
+        <v>72</v>
+      </c>
+      <c r="V57">
+        <v>0</v>
+      </c>
+      <c r="W57">
         <v>0</v>
       </c>
       <c r="X57" t="s">
         <v>108</v>
       </c>
-      <c r="Y57" t="s"/>
-      <c r="Z57" t="n">
+      <c r="Z57">
         <v>0</v>
       </c>
       <c r="AA57" t="s">
-        <v>288</v>
-      </c>
-      <c r="AB57" t="s"/>
-      <c r="AC57" t="s"/>
-      <c r="AD57" t="s"/>
-      <c r="AE57" t="s"/>
-    </row>
-    <row r="58" spans="1:31">
-      <c r="A58" s="1" t="n">
-        <v>56</v>
-      </c>
-      <c r="B58" t="s"/>
-      <c r="C58" t="s"/>
+        <v>282</v>
+      </c>
+    </row>
+    <row r="58" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
+        <v>57</v>
+      </c>
       <c r="D58" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="E58" t="s">
-        <v>152</v>
+        <v>133</v>
       </c>
       <c r="F58" t="s">
-        <v>247</v>
-      </c>
-      <c r="G58" t="n">
-        <v>0</v>
-      </c>
-      <c r="H58" t="n">
+        <v>239</v>
+      </c>
+      <c r="G58">
+        <v>0</v>
+      </c>
+      <c r="H58">
         <v>0</v>
       </c>
       <c r="I58" t="s">
-        <v>290</v>
-      </c>
-      <c r="J58" t="s"/>
-      <c r="K58" t="n">
-        <v>1.057002822968009e+18</v>
-      </c>
-      <c r="L58" t="n">
-        <v>1.057002822968009e+18</v>
+        <v>284</v>
+      </c>
+      <c r="K58">
+        <v>1.057004436445377E+18</v>
+      </c>
+      <c r="L58">
+        <v>1.057004436445377E+18</v>
       </c>
       <c r="M58" t="s">
         <v>51</v>
       </c>
-      <c r="N58" t="s"/>
-      <c r="O58" t="s"/>
-      <c r="P58" t="n">
-        <v>7.558699847614792e+17</v>
-      </c>
-      <c r="Q58" t="n">
-        <v>7.55869984761479e+17</v>
-      </c>
-      <c r="R58" t="n">
+      <c r="P58">
+        <v>7.5586998476147917E+17</v>
+      </c>
+      <c r="Q58">
+        <v>7.5586998476147904E+17</v>
+      </c>
+      <c r="R58">
         <v>0</v>
       </c>
       <c r="S58" t="s">
@@ -5693,71 +5027,60 @@
       <c r="T58" t="s">
         <v>72</v>
       </c>
-      <c r="U58" t="s"/>
-      <c r="V58" t="n">
-        <v>0</v>
-      </c>
-      <c r="W58" t="n">
+      <c r="V58">
+        <v>0</v>
+      </c>
+      <c r="W58">
         <v>0</v>
       </c>
       <c r="X58" t="s">
         <v>108</v>
       </c>
-      <c r="Y58" t="s"/>
-      <c r="Z58" t="n">
+      <c r="Z58">
         <v>0</v>
       </c>
       <c r="AA58" t="s">
-        <v>291</v>
-      </c>
-      <c r="AB58" t="s"/>
-      <c r="AC58" t="s"/>
-      <c r="AD58" t="s"/>
-      <c r="AE58" t="s"/>
-    </row>
-    <row r="59" spans="1:31">
-      <c r="A59" s="1" t="n">
-        <v>57</v>
-      </c>
-      <c r="B59" t="s"/>
-      <c r="C59" t="s"/>
+        <v>285</v>
+      </c>
+    </row>
+    <row r="59" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
+        <v>58</v>
+      </c>
       <c r="D59" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="E59" t="s">
-        <v>133</v>
+        <v>152</v>
       </c>
       <c r="F59" t="s">
-        <v>247</v>
-      </c>
-      <c r="G59" t="n">
-        <v>0</v>
-      </c>
-      <c r="H59" t="n">
+        <v>239</v>
+      </c>
+      <c r="G59">
+        <v>0</v>
+      </c>
+      <c r="H59">
         <v>0</v>
       </c>
       <c r="I59" t="s">
-        <v>293</v>
-      </c>
-      <c r="J59" t="s"/>
-      <c r="K59" t="n">
-        <v>1.057004436445377e+18</v>
-      </c>
-      <c r="L59" t="n">
-        <v>1.057004436445377e+18</v>
+        <v>287</v>
+      </c>
+      <c r="K59">
+        <v>1.057005767348404E+18</v>
+      </c>
+      <c r="L59">
+        <v>1.057005767348404E+18</v>
       </c>
       <c r="M59" t="s">
         <v>51</v>
       </c>
-      <c r="N59" t="s"/>
-      <c r="O59" t="s"/>
-      <c r="P59" t="n">
-        <v>7.558699847614792e+17</v>
-      </c>
-      <c r="Q59" t="n">
-        <v>7.55869984761479e+17</v>
-      </c>
-      <c r="R59" t="n">
+      <c r="P59">
+        <v>7.5586998476147917E+17</v>
+      </c>
+      <c r="Q59">
+        <v>7.5586998476147904E+17</v>
+      </c>
+      <c r="R59">
         <v>0</v>
       </c>
       <c r="S59" t="s">
@@ -5766,144 +5089,122 @@
       <c r="T59" t="s">
         <v>72</v>
       </c>
-      <c r="U59" t="s"/>
-      <c r="V59" t="n">
-        <v>0</v>
-      </c>
-      <c r="W59" t="n">
+      <c r="V59">
+        <v>0</v>
+      </c>
+      <c r="W59">
         <v>0</v>
       </c>
       <c r="X59" t="s">
         <v>108</v>
       </c>
-      <c r="Y59" t="s"/>
-      <c r="Z59" t="n">
+      <c r="Z59">
         <v>0</v>
       </c>
       <c r="AA59" t="s">
-        <v>294</v>
-      </c>
-      <c r="AB59" t="s"/>
-      <c r="AC59" t="s"/>
-      <c r="AD59" t="s"/>
-      <c r="AE59" t="s"/>
-    </row>
-    <row r="60" spans="1:31">
-      <c r="A60" s="1" t="n">
-        <v>58</v>
-      </c>
-      <c r="B60" t="s"/>
-      <c r="C60" t="s"/>
+        <v>288</v>
+      </c>
+    </row>
+    <row r="60" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A60" s="1">
+        <v>59</v>
+      </c>
       <c r="D60" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="E60" t="s">
-        <v>152</v>
+        <v>290</v>
       </c>
       <c r="F60" t="s">
-        <v>247</v>
-      </c>
-      <c r="G60" t="n">
-        <v>0</v>
-      </c>
-      <c r="H60" t="n">
+        <v>239</v>
+      </c>
+      <c r="G60">
+        <v>0</v>
+      </c>
+      <c r="H60">
         <v>0</v>
       </c>
       <c r="I60" t="s">
-        <v>296</v>
-      </c>
-      <c r="J60" t="s"/>
-      <c r="K60" t="n">
-        <v>1.057005767348404e+18</v>
-      </c>
-      <c r="L60" t="n">
-        <v>1.057005767348404e+18</v>
+        <v>291</v>
+      </c>
+      <c r="K60">
+        <v>1.057007594789892E+18</v>
+      </c>
+      <c r="L60">
+        <v>1.057007594789892E+18</v>
       </c>
       <c r="M60" t="s">
         <v>51</v>
       </c>
-      <c r="N60" t="s"/>
-      <c r="O60" t="s"/>
-      <c r="P60" t="n">
-        <v>7.558699847614792e+17</v>
-      </c>
-      <c r="Q60" t="n">
-        <v>7.55869984761479e+17</v>
-      </c>
-      <c r="R60" t="n">
+      <c r="P60">
+        <v>7.5586998476147917E+17</v>
+      </c>
+      <c r="Q60">
+        <v>7.5586998476147904E+17</v>
+      </c>
+      <c r="R60">
         <v>0</v>
       </c>
       <c r="S60" t="s">
-        <v>71</v>
+        <v>34</v>
       </c>
       <c r="T60" t="s">
-        <v>72</v>
-      </c>
-      <c r="U60" t="s"/>
-      <c r="V60" t="n">
-        <v>0</v>
-      </c>
-      <c r="W60" t="n">
+        <v>35</v>
+      </c>
+      <c r="V60">
+        <v>0</v>
+      </c>
+      <c r="W60">
         <v>0</v>
       </c>
       <c r="X60" t="s">
         <v>108</v>
       </c>
-      <c r="Y60" t="s"/>
-      <c r="Z60" t="n">
+      <c r="Z60">
         <v>0</v>
       </c>
       <c r="AA60" t="s">
-        <v>297</v>
-      </c>
-      <c r="AB60" t="s"/>
-      <c r="AC60" t="s"/>
-      <c r="AD60" t="s"/>
-      <c r="AE60" t="s"/>
-    </row>
-    <row r="61" spans="1:31">
-      <c r="A61" s="1" t="n">
-        <v>59</v>
-      </c>
-      <c r="B61" t="s"/>
-      <c r="C61" t="s"/>
+        <v>292</v>
+      </c>
+    </row>
+    <row r="61" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A61" s="1">
+        <v>60</v>
+      </c>
       <c r="D61" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="E61" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="F61" t="s">
-        <v>247</v>
-      </c>
-      <c r="G61" t="n">
-        <v>0</v>
-      </c>
-      <c r="H61" t="n">
+        <v>239</v>
+      </c>
+      <c r="G61">
+        <v>0</v>
+      </c>
+      <c r="H61">
         <v>0</v>
       </c>
       <c r="I61" t="s">
-        <v>300</v>
-      </c>
-      <c r="J61" t="s"/>
-      <c r="K61" t="n">
-        <v>1.057007594789892e+18</v>
-      </c>
-      <c r="L61" t="n">
-        <v>1.057007594789892e+18</v>
+        <v>295</v>
+      </c>
+      <c r="K61">
+        <v>1.0570090461448561E+18</v>
+      </c>
+      <c r="L61">
+        <v>1.0570090461448561E+18</v>
       </c>
       <c r="M61" t="s">
         <v>51</v>
       </c>
-      <c r="N61" t="s"/>
-      <c r="O61" t="s"/>
-      <c r="P61" t="n">
-        <v>7.558699847614792e+17</v>
-      </c>
-      <c r="Q61" t="n">
-        <v>7.55869984761479e+17</v>
-      </c>
-      <c r="R61" t="n">
+      <c r="P61">
+        <v>7.5586998476147917E+17</v>
+      </c>
+      <c r="Q61">
+        <v>7.5586998476147904E+17</v>
+      </c>
+      <c r="R61">
         <v>0</v>
       </c>
       <c r="S61" t="s">
@@ -5912,144 +5213,122 @@
       <c r="T61" t="s">
         <v>35</v>
       </c>
-      <c r="U61" t="s"/>
-      <c r="V61" t="n">
-        <v>0</v>
-      </c>
-      <c r="W61" t="n">
+      <c r="V61">
+        <v>0</v>
+      </c>
+      <c r="W61">
         <v>0</v>
       </c>
       <c r="X61" t="s">
         <v>108</v>
       </c>
-      <c r="Y61" t="s"/>
-      <c r="Z61" t="n">
+      <c r="Z61">
         <v>0</v>
       </c>
       <c r="AA61" t="s">
-        <v>301</v>
-      </c>
-      <c r="AB61" t="s"/>
-      <c r="AC61" t="s"/>
-      <c r="AD61" t="s"/>
-      <c r="AE61" t="s"/>
-    </row>
-    <row r="62" spans="1:31">
-      <c r="A62" s="1" t="n">
-        <v>60</v>
-      </c>
-      <c r="B62" t="s"/>
-      <c r="C62" t="s"/>
+        <v>296</v>
+      </c>
+    </row>
+    <row r="62" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A62" s="1">
+        <v>61</v>
+      </c>
       <c r="D62" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="E62" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="F62" t="s">
-        <v>247</v>
-      </c>
-      <c r="G62" t="n">
-        <v>0</v>
-      </c>
-      <c r="H62" t="n">
+        <v>239</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
         <v>0</v>
       </c>
       <c r="I62" t="s">
-        <v>304</v>
-      </c>
-      <c r="J62" t="s"/>
-      <c r="K62" t="n">
-        <v>1.057009046144856e+18</v>
-      </c>
-      <c r="L62" t="n">
-        <v>1.057009046144856e+18</v>
+        <v>299</v>
+      </c>
+      <c r="K62">
+        <v>1.057010169282994E+18</v>
+      </c>
+      <c r="L62">
+        <v>1.057010169282994E+18</v>
       </c>
       <c r="M62" t="s">
         <v>51</v>
       </c>
-      <c r="N62" t="s"/>
-      <c r="O62" t="s"/>
-      <c r="P62" t="n">
-        <v>7.558699847614792e+17</v>
-      </c>
-      <c r="Q62" t="n">
-        <v>7.55869984761479e+17</v>
-      </c>
-      <c r="R62" t="n">
+      <c r="P62">
+        <v>7.5586998476147917E+17</v>
+      </c>
+      <c r="Q62">
+        <v>7.5586998476147904E+17</v>
+      </c>
+      <c r="R62">
         <v>0</v>
       </c>
       <c r="S62" t="s">
-        <v>34</v>
+        <v>71</v>
       </c>
       <c r="T62" t="s">
-        <v>35</v>
-      </c>
-      <c r="U62" t="s"/>
-      <c r="V62" t="n">
-        <v>0</v>
-      </c>
-      <c r="W62" t="n">
+        <v>72</v>
+      </c>
+      <c r="V62">
+        <v>0</v>
+      </c>
+      <c r="W62">
         <v>0</v>
       </c>
       <c r="X62" t="s">
         <v>108</v>
       </c>
-      <c r="Y62" t="s"/>
-      <c r="Z62" t="n">
+      <c r="Z62">
         <v>0</v>
       </c>
       <c r="AA62" t="s">
-        <v>305</v>
-      </c>
-      <c r="AB62" t="s"/>
-      <c r="AC62" t="s"/>
-      <c r="AD62" t="s"/>
-      <c r="AE62" t="s"/>
-    </row>
-    <row r="63" spans="1:31">
-      <c r="A63" s="1" t="n">
-        <v>61</v>
-      </c>
-      <c r="B63" t="s"/>
-      <c r="C63" t="s"/>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="63" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A63" s="1">
+        <v>62</v>
+      </c>
       <c r="D63" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="E63" t="s">
-        <v>307</v>
+        <v>165</v>
       </c>
       <c r="F63" t="s">
-        <v>247</v>
-      </c>
-      <c r="G63" t="n">
-        <v>0</v>
-      </c>
-      <c r="H63" t="n">
+        <v>239</v>
+      </c>
+      <c r="G63">
+        <v>0</v>
+      </c>
+      <c r="H63">
         <v>0</v>
       </c>
       <c r="I63" t="s">
-        <v>308</v>
-      </c>
-      <c r="J63" t="s"/>
-      <c r="K63" t="n">
-        <v>1.057010169282994e+18</v>
-      </c>
-      <c r="L63" t="n">
-        <v>1.057010169282994e+18</v>
+        <v>302</v>
+      </c>
+      <c r="K63">
+        <v>1.057011804700897E+18</v>
+      </c>
+      <c r="L63">
+        <v>1.057011804700897E+18</v>
       </c>
       <c r="M63" t="s">
         <v>51</v>
       </c>
-      <c r="N63" t="s"/>
-      <c r="O63" t="s"/>
-      <c r="P63" t="n">
-        <v>7.558699847614792e+17</v>
-      </c>
-      <c r="Q63" t="n">
-        <v>7.55869984761479e+17</v>
-      </c>
-      <c r="R63" t="n">
+      <c r="P63">
+        <v>7.5586998476147917E+17</v>
+      </c>
+      <c r="Q63">
+        <v>7.5586998476147904E+17</v>
+      </c>
+      <c r="R63">
         <v>0</v>
       </c>
       <c r="S63" t="s">
@@ -6058,392 +5337,200 @@
       <c r="T63" t="s">
         <v>72</v>
       </c>
-      <c r="U63" t="s"/>
-      <c r="V63" t="n">
-        <v>0</v>
-      </c>
-      <c r="W63" t="n">
+      <c r="V63">
+        <v>0</v>
+      </c>
+      <c r="W63">
         <v>0</v>
       </c>
       <c r="X63" t="s">
         <v>108</v>
       </c>
-      <c r="Y63" t="s"/>
-      <c r="Z63" t="n">
+      <c r="Z63">
         <v>0</v>
       </c>
       <c r="AA63" t="s">
-        <v>309</v>
-      </c>
-      <c r="AB63" t="s"/>
-      <c r="AC63" t="s"/>
-      <c r="AD63" t="s"/>
-      <c r="AE63" t="s"/>
-    </row>
-    <row r="64" spans="1:31">
-      <c r="A64" s="1" t="n">
-        <v>62</v>
-      </c>
-      <c r="B64" t="s"/>
-      <c r="C64" t="s"/>
+        <v>303</v>
+      </c>
+    </row>
+    <row r="64" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A64" s="1">
+        <v>63</v>
+      </c>
       <c r="D64" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="E64" t="s">
-        <v>165</v>
+        <v>305</v>
       </c>
       <c r="F64" t="s">
-        <v>247</v>
-      </c>
-      <c r="G64" t="n">
-        <v>0</v>
-      </c>
-      <c r="H64" t="n">
+        <v>239</v>
+      </c>
+      <c r="G64">
+        <v>0</v>
+      </c>
+      <c r="H64">
         <v>0</v>
       </c>
       <c r="I64" t="s">
-        <v>311</v>
-      </c>
-      <c r="J64" t="s"/>
-      <c r="K64" t="n">
-        <v>1.057011804700897e+18</v>
-      </c>
-      <c r="L64" t="n">
-        <v>1.057011804700897e+18</v>
+        <v>306</v>
+      </c>
+      <c r="K64">
+        <v>1.05983942828435E+18</v>
+      </c>
+      <c r="L64">
+        <v>1.05983942828435E+18</v>
       </c>
       <c r="M64" t="s">
         <v>51</v>
       </c>
-      <c r="N64" t="s"/>
-      <c r="O64" t="s"/>
-      <c r="P64" t="n">
-        <v>7.558699847614792e+17</v>
-      </c>
-      <c r="Q64" t="n">
-        <v>7.55869984761479e+17</v>
-      </c>
-      <c r="R64" t="n">
+      <c r="P64">
+        <v>7.5586998476147917E+17</v>
+      </c>
+      <c r="Q64">
+        <v>7.5586998476147904E+17</v>
+      </c>
+      <c r="R64">
         <v>0</v>
       </c>
       <c r="S64" t="s">
-        <v>71</v>
+        <v>34</v>
       </c>
       <c r="T64" t="s">
-        <v>72</v>
-      </c>
-      <c r="U64" t="s"/>
-      <c r="V64" t="n">
-        <v>0</v>
-      </c>
-      <c r="W64" t="n">
+        <v>35</v>
+      </c>
+      <c r="V64">
+        <v>0</v>
+      </c>
+      <c r="W64">
         <v>0</v>
       </c>
       <c r="X64" t="s">
         <v>108</v>
       </c>
-      <c r="Y64" t="s"/>
-      <c r="Z64" t="n">
+      <c r="Z64">
         <v>0</v>
       </c>
       <c r="AA64" t="s">
-        <v>312</v>
-      </c>
-      <c r="AB64" t="s"/>
-      <c r="AC64" t="s"/>
-      <c r="AD64" t="s"/>
-      <c r="AE64" t="s"/>
-    </row>
-    <row r="65" spans="1:31">
-      <c r="A65" s="1" t="n">
-        <v>63</v>
-      </c>
-      <c r="B65" t="s"/>
-      <c r="C65" t="s"/>
+        <v>307</v>
+      </c>
+    </row>
+    <row r="65" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A65" s="1">
+        <v>65</v>
+      </c>
       <c r="D65" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="E65" t="s">
-        <v>314</v>
+        <v>225</v>
       </c>
       <c r="F65" t="s">
-        <v>247</v>
-      </c>
-      <c r="G65" t="n">
-        <v>0</v>
-      </c>
-      <c r="H65" t="n">
+        <v>309</v>
+      </c>
+      <c r="G65">
+        <v>0</v>
+      </c>
+      <c r="H65">
         <v>0</v>
       </c>
       <c r="I65" t="s">
-        <v>315</v>
-      </c>
-      <c r="J65" t="s"/>
-      <c r="K65" t="n">
-        <v>1.05983942828435e+18</v>
-      </c>
-      <c r="L65" t="n">
-        <v>1.05983942828435e+18</v>
+        <v>310</v>
+      </c>
+      <c r="K65">
+        <v>1.060174420914962E+18</v>
+      </c>
+      <c r="L65">
+        <v>1.060174420914962E+18</v>
       </c>
       <c r="M65" t="s">
         <v>51</v>
       </c>
-      <c r="N65" t="s"/>
-      <c r="O65" t="s"/>
-      <c r="P65" t="n">
-        <v>7.558699847614792e+17</v>
-      </c>
-      <c r="Q65" t="n">
-        <v>7.55869984761479e+17</v>
-      </c>
-      <c r="R65" t="n">
+      <c r="P65">
+        <v>7.5586998476147917E+17</v>
+      </c>
+      <c r="Q65">
+        <v>7.5586998476147904E+17</v>
+      </c>
+      <c r="R65">
         <v>0</v>
       </c>
       <c r="S65" t="s">
         <v>34</v>
       </c>
       <c r="T65" t="s">
-        <v>35</v>
-      </c>
-      <c r="U65" t="s"/>
-      <c r="V65" t="n">
-        <v>0</v>
-      </c>
-      <c r="W65" t="n">
+        <v>114</v>
+      </c>
+      <c r="V65">
+        <v>0</v>
+      </c>
+      <c r="W65">
         <v>0</v>
       </c>
       <c r="X65" t="s">
         <v>108</v>
       </c>
-      <c r="Y65" t="s"/>
-      <c r="Z65" t="n">
+      <c r="Z65">
         <v>0</v>
       </c>
       <c r="AA65" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="66" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A66" s="1">
+        <v>66</v>
+      </c>
+      <c r="D66" t="s">
+        <v>312</v>
+      </c>
+      <c r="E66" t="s">
+        <v>313</v>
+      </c>
+      <c r="F66" t="s">
+        <v>314</v>
+      </c>
+      <c r="G66">
+        <v>0</v>
+      </c>
+      <c r="H66">
+        <v>0</v>
+      </c>
+      <c r="I66" t="s">
+        <v>315</v>
+      </c>
+      <c r="K66">
+        <v>1.0608202602558749E+18</v>
+      </c>
+      <c r="L66" t="s">
         <v>316</v>
       </c>
-      <c r="AB65" t="s"/>
-      <c r="AC65" t="s"/>
-      <c r="AD65" t="s"/>
-      <c r="AE65" t="s"/>
-    </row>
-    <row r="66" spans="1:31">
-      <c r="A66" s="1" t="n">
-        <v>64</v>
-      </c>
-      <c r="B66" t="s"/>
-      <c r="C66" t="s"/>
-      <c r="D66" t="s">
+      <c r="R66">
+        <v>0</v>
+      </c>
+      <c r="S66" t="s">
+        <v>71</v>
+      </c>
+      <c r="T66" t="s">
+        <v>202</v>
+      </c>
+      <c r="V66">
+        <v>0</v>
+      </c>
+      <c r="W66">
+        <v>0</v>
+      </c>
+      <c r="X66" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z66">
+        <v>0</v>
+      </c>
+      <c r="AA66" t="s">
         <v>317</v>
       </c>
-      <c r="E66" t="s">
-        <v>318</v>
-      </c>
-      <c r="F66" t="s">
-        <v>319</v>
-      </c>
-      <c r="G66" t="n">
-        <v>0</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="s">
-        <v>320</v>
-      </c>
-      <c r="J66" t="s"/>
-      <c r="K66" t="n">
-        <v>1.059840320878203e+18</v>
-      </c>
-      <c r="L66" t="n">
-        <v>1.059840320878203e+18</v>
-      </c>
-      <c r="M66" t="s">
-        <v>321</v>
-      </c>
-      <c r="N66" t="n">
-        <v>1.059533817969558e+18</v>
-      </c>
-      <c r="O66" t="n">
-        <v>1.059533817969558e+18</v>
-      </c>
-      <c r="P66" t="n">
-        <v>8.166254611954074e+17</v>
-      </c>
-      <c r="Q66" t="n">
-        <v>8.166254611954074e+17</v>
-      </c>
-      <c r="R66" t="n">
-        <v>0</v>
-      </c>
-      <c r="S66" t="s">
-        <v>34</v>
-      </c>
-      <c r="T66" t="s">
-        <v>114</v>
-      </c>
-      <c r="U66" t="s"/>
-      <c r="V66" t="n">
-        <v>0</v>
-      </c>
-      <c r="W66" t="n">
-        <v>0</v>
-      </c>
-      <c r="X66" t="s">
-        <v>108</v>
-      </c>
-      <c r="Y66" t="s"/>
-      <c r="Z66" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA66" t="s">
-        <v>322</v>
-      </c>
-      <c r="AB66" t="s"/>
-      <c r="AC66" t="s"/>
-      <c r="AD66" t="s"/>
-      <c r="AE66" t="s"/>
-    </row>
-    <row r="67" spans="1:31">
-      <c r="A67" s="1" t="n">
-        <v>65</v>
-      </c>
-      <c r="B67" t="s"/>
-      <c r="C67" t="s"/>
-      <c r="D67" t="s">
-        <v>323</v>
-      </c>
-      <c r="E67" t="s">
-        <v>225</v>
-      </c>
-      <c r="F67" t="s">
-        <v>324</v>
-      </c>
-      <c r="G67" t="n">
-        <v>0</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="s">
-        <v>325</v>
-      </c>
-      <c r="J67" t="s"/>
-      <c r="K67" t="n">
-        <v>1.060174420914962e+18</v>
-      </c>
-      <c r="L67" t="n">
-        <v>1.060174420914962e+18</v>
-      </c>
-      <c r="M67" t="s">
-        <v>51</v>
-      </c>
-      <c r="N67" t="s"/>
-      <c r="O67" t="s"/>
-      <c r="P67" t="n">
-        <v>7.558699847614792e+17</v>
-      </c>
-      <c r="Q67" t="n">
-        <v>7.55869984761479e+17</v>
-      </c>
-      <c r="R67" t="n">
-        <v>0</v>
-      </c>
-      <c r="S67" t="s">
-        <v>34</v>
-      </c>
-      <c r="T67" t="s">
-        <v>114</v>
-      </c>
-      <c r="U67" t="s"/>
-      <c r="V67" t="n">
-        <v>0</v>
-      </c>
-      <c r="W67" t="n">
-        <v>0</v>
-      </c>
-      <c r="X67" t="s">
-        <v>108</v>
-      </c>
-      <c r="Y67" t="s"/>
-      <c r="Z67" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA67" t="s">
-        <v>326</v>
-      </c>
-      <c r="AB67" t="s"/>
-      <c r="AC67" t="s"/>
-      <c r="AD67" t="s"/>
-      <c r="AE67" t="s"/>
-    </row>
-    <row r="68" spans="1:31">
-      <c r="A68" s="1" t="n">
-        <v>66</v>
-      </c>
-      <c r="B68" t="s"/>
-      <c r="C68" t="s"/>
-      <c r="D68" t="s">
-        <v>327</v>
-      </c>
-      <c r="E68" t="s">
-        <v>328</v>
-      </c>
-      <c r="F68" t="s">
-        <v>329</v>
-      </c>
-      <c r="G68" t="n">
-        <v>0</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="s">
-        <v>330</v>
-      </c>
-      <c r="J68" t="s"/>
-      <c r="K68" t="n">
-        <v>1.060820260255875e+18</v>
-      </c>
-      <c r="L68" t="s">
-        <v>331</v>
-      </c>
-      <c r="M68" t="s"/>
-      <c r="N68" t="s"/>
-      <c r="O68" t="s"/>
-      <c r="P68" t="s"/>
-      <c r="Q68" t="s"/>
-      <c r="R68" t="n">
-        <v>0</v>
-      </c>
-      <c r="S68" t="s">
-        <v>71</v>
-      </c>
-      <c r="T68" t="s">
-        <v>202</v>
-      </c>
-      <c r="U68" t="s"/>
-      <c r="V68" t="n">
-        <v>0</v>
-      </c>
-      <c r="W68" t="n">
-        <v>0</v>
-      </c>
-      <c r="X68" t="s">
-        <v>36</v>
-      </c>
-      <c r="Y68" t="s"/>
-      <c r="Z68" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA68" t="s">
-        <v>332</v>
-      </c>
-      <c r="AB68" t="s"/>
-      <c r="AC68" t="s"/>
-      <c r="AD68" t="s"/>
-      <c r="AE68" t="s"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/master.xlsx
+++ b/master.xlsx
@@ -1,33 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\gdrive\world-control\bot\world-control\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA5715E2-374E-464A-A9A4-E479B2529C90}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179021"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="362">
   <si>
     <t>contributors</t>
   </si>
@@ -968,6 +956,12 @@
     <t>{'urls': [], 'hashtags': [], 'user_mentions': [{'screen_name': 'truWorldControl', 'indices': [0, 16], 'id_str': '755869984761479168', 'id': 755869984761479168, 'name': 'WorldControl  🎲🎲'}], 'symbols': []}</t>
   </si>
   <si>
+    <t xml:space="preserve"> #fakenewz @truWorldControl
+Achse der Billigen
+Bayern gründet Biernation mit Östereich
+[ Vienna +1 🚘 -1🥦]</t>
+  </si>
+  <si>
     <t>{'utc_offset': None, 'id': 1042401483759788032, 'translator_type': 'none', 'description': '♟️', 'contributors_enabled': False, 'has_extended_profile': True, 'profile_use_background_image': False, 'lang': 'en', 'time_zone': None, 'followers_count': 0, 'profile_background_image_url_https': 'https://abs.twimg.com/images/themes/theme1/bg.png', 'url': 'https://t.co/Gnj0QDj9c8', 'favourites_count': 2, 'profile_background_color': '000000', 'profile_image_url_https': 'https://pbs.twimg.com/profile_images/1042406021967298560/r5rbeGEh_normal.jpg', 'name': 'imago.im', 'id_str': '1042401483759788032', 'profile_background_tile': False, 'geo_enabled': False, 'profile_image_url': 'http://pbs.twimg.com/profile_images/1042406021967298560/r5rbeGEh_normal.jpg', 'profile_banner_url': 'https://pbs.twimg.com/profile_banners/1042401483759788032/1537364017', 'protected': False, 'notifications': False, 'is_translator': False, 'entities': {'url': {'urls': [{'url': 'https://t.co/Gnj0QDj9c8', 'expanded_url': 'http://imago.im', 'indices': [0, 23], 'display_url': 'imago.im'}]}, 'description': {'urls': []}}, 'profile_text_color': '000000', 'follow_request_sent': False, 'default_profile': False, 'profile_link_color': '000000', 'listed_count': 0, 'location': 'Vienna, Austria', 'friends_count': 3, 'created_at': 'Wed Sep 19 13:14:15 +0000 2018', 'verified': False, 'profile_sidebar_fill_color': '000000', 'profile_background_image_url': 'http://abs.twimg.com/images/themes/theme1/bg.png', 'following': False, 'screen_name': 'im_imago', 'profile_sidebar_border_color': '000000', 'statuses_count': 4, 'default_profile_image': False, 'is_translation_enabled': False}</t>
   </si>
   <si>
@@ -1132,39 +1126,175 @@
 [Vienna - 1 corpz] @truWorldControl #fakenewz</t>
   </si>
   <si>
-    <t>1060820260255875073</t>
-  </si>
-  <si>
     <t>{'profile_banner_url': 'https://pbs.twimg.com/profile_banners/704671889680175104/1521637593', 'has_extended_profile': False, 'id': 704671889680175104, 'profile_sidebar_border_color': '000000', 'is_translator': False, 'profile_image_url': 'http://pbs.twimg.com/profile_images/931580844904472576/PEk2Nmu8_normal.jpg', 'contributors_enabled': False, 'profile_link_color': '1B95E0', 'profile_background_image_url_https': 'https://abs.twimg.com/images/themes/theme1/bg.png', 'follow_request_sent': False, 'profile_sidebar_fill_color': '000000', 'is_translation_enabled': False, 'default_profile': False, 'profile_image_url_https': 'https://pbs.twimg.com/profile_images/931580844904472576/PEk2Nmu8_normal.jpg', 'verified': False, 'profile_use_background_image': False, 'id_str': '704671889680175104', 'lang': 'de', 'translator_type': 'none', 'url': 'https://t.co/6WyAfmnHio', 'notifications': False, 'description': '(Un-)Freier Journalist, Hobbyphilsoph, rücksichtsloser Polemiker, Bartträger. Sonst noch was? Ja, lustig bin ich auch. Macht sich gut, haben sie gesagt.', 'favourites_count': 660, 'time_zone': None, 'location': 'Wien, Österreich', 'geo_enabled': False, 'friends_count': 1305, 'screen_name': 'HannesGress', 'profile_background_image_url': 'http://abs.twimg.com/images/themes/theme1/bg.png', 'listed_count': 0, 'name': 'Johannes Gress', 'default_profile_image': False, 'utc_offset': None, 'following': False, 'profile_background_tile': False, 'followers_count': 108, 'profile_text_color': '000000', 'protected': False, 'profile_background_color': '000000', 'entities': {'description': {'urls': []}, 'url': {'urls': [{'expanded_url': 'http://www.hogn.de', 'indices': [0, 23], 'display_url': 'hogn.de', 'url': 'https://t.co/6WyAfmnHio'}]}}, 'statuses_count': 263, 'created_at': 'Tue Mar 01 14:17:25 +0000 2016'}</t>
   </si>
   <si>
-    <t xml:space="preserve"> #fakenewz @truWorldControl
-Achse der Billigen
-Bayern gründet Biernation mit Östereich
-[ Vienna +1 🚘 -1🥦]</t>
+    <t>Sun Nov 11 12:25:48 +0000 2018</t>
+  </si>
+  <si>
+    <t>[0, 134]</t>
+  </si>
+  <si>
+    <t>{'hashtags': [{'text': 'fakenewz', 'indices': [17, 26]}], 'user_mentions': [{'name': 'WorldControl  🎲🎲', 'id_str': '755869984761479168', 'id': 755869984761479168, 'screen_name': 'truWorldControl', 'indices': [0, 16]}], 'urls': [], 'symbols': []}</t>
+  </si>
+  <si>
+    <t>@truWorldControl #fakenewz 
+European Republic
+European nation states dissolve and the new Republic rises [paris vienna london +1 sage]</t>
+  </si>
+  <si>
+    <t>{'translator_type': 'none', 'is_translator': False, 'location': 'Moscow, Russia', 'description': 'Seizing @truWorldControl by spreading #fakenewz. #proudtobeabot 🤖 by @RKalcik', 'profile_image_url_https': 'https://pbs.twimg.com/profile_images/1041036258745765890/C-8rzdz5_normal.jpg', 'screen_name': 'MinisterVlatin', 'protected': False, 'listed_count': 0, 'profile_use_background_image': False, 'default_profile_image': False, 'url': 'https://t.co/AgubHQIUXe', 'profile_image_url': 'http://pbs.twimg.com/profile_images/1041036258745765890/C-8rzdz5_normal.jpg', 'profile_background_image_url_https': 'https://abs.twimg.com/images/themes/theme1/bg.png', 'statuses_count': 164, 'created_at': 'Wed Jul 11 18:48:31 +0000 2018', 'profile_link_color': '000000', 'lang': 'en', 'profile_sidebar_fill_color': '000000', 'follow_request_sent': False, 'is_translation_enabled': False, 'time_zone': None, 'name': 'Minister Vlatin', 'notifications': False, 'utc_offset': None, 'followers_count': 8, 'profile_text_color': '000000', 'id_str': '1017118454711771136', 'geo_enabled': False, 'following': False, 'default_profile': False, 'profile_banner_url': 'https://pbs.twimg.com/profile_banners/1017118454711771136/1535920961', 'entities': {'description': {'urls': []}, 'url': {'urls': [{'expanded_url': 'http://world-control.net', 'display_url': 'world-control.net', 'url': 'https://t.co/AgubHQIUXe', 'indices': [0, 23]}]}}, 'id': 1017118454711771136, 'profile_background_image_url': 'http://abs.twimg.com/images/themes/theme1/bg.png', 'verified': False, 'profile_background_tile': False, 'friends_count': 20, 'has_extended_profile': False, 'favourites_count': 11, 'profile_background_color': '000000', 'profile_sidebar_border_color': '000000', 'contributors_enabled': False}</t>
+  </si>
+  <si>
+    <t>Sun Nov 11 21:04:04 +0000 2018</t>
+  </si>
+  <si>
+    <t>@truWorldControl #fakenewz session's over
+Jeff sessions leaks Russia ties [moskow 🛫]</t>
+  </si>
+  <si>
+    <t>{'translator_type': 'none', 'is_translator': False, 'location': 'Moscow, Russia', 'description': 'Seizing @truWorldControl by spreading #fakenewz. #proudtobeabot 🤖 by @RKalcik', 'profile_image_url_https': 'https://pbs.twimg.com/profile_images/1041036258745765890/C-8rzdz5_normal.jpg', 'screen_name': 'MinisterVlatin', 'protected': False, 'listed_count': 0, 'profile_use_background_image': False, 'default_profile_image': False, 'url': 'https://t.co/AgubHQIUXe', 'profile_image_url': 'http://pbs.twimg.com/profile_images/1041036258745765890/C-8rzdz5_normal.jpg', 'profile_background_image_url_https': 'https://abs.twimg.com/images/themes/theme1/bg.png', 'statuses_count': 170, 'created_at': 'Wed Jul 11 18:48:31 +0000 2018', 'profile_link_color': '000000', 'lang': 'en', 'profile_sidebar_fill_color': '000000', 'follow_request_sent': False, 'is_translation_enabled': False, 'time_zone': None, 'name': 'Minister Vlatin', 'notifications': False, 'utc_offset': None, 'followers_count': 9, 'profile_text_color': '000000', 'id_str': '1017118454711771136', 'geo_enabled': False, 'following': False, 'default_profile': False, 'profile_banner_url': 'https://pbs.twimg.com/profile_banners/1017118454711771136/1535920961', 'entities': {'description': {'urls': []}, 'url': {'urls': [{'expanded_url': 'http://world-control.net', 'display_url': 'world-control.net', 'url': 'https://t.co/AgubHQIUXe', 'indices': [0, 23]}]}}, 'id': 1017118454711771136, 'profile_background_image_url': 'http://abs.twimg.com/images/themes/theme1/bg.png', 'verified': False, 'profile_background_tile': False, 'friends_count': 20, 'has_extended_profile': False, 'favourites_count': 15, 'profile_background_color': '000000', 'profile_sidebar_border_color': '000000', 'contributors_enabled': False}</t>
+  </si>
+  <si>
+    <t>Mon Nov 12 10:24:32 +0000 2018</t>
+  </si>
+  <si>
+    <t>[0, 265]</t>
+  </si>
+  <si>
+    <t>{'hashtags': [{'text': 'fakenewz', 'indices': [256, 265]}], 'user_mentions': [{'name': 'WorldControl  🎲🎲', 'id_str': '755869984761479168', 'id': 755869984761479168, 'screen_name': 'truWorldControl', 'indices': [239, 255]}], 'urls': [{'expanded_url': 'http://unzensuriertundirritiert.at', 'display_url': 'unzensuriertundirritiert.at', 'url': 'https://t.co/FhqYSCYjfF', 'indices': [195, 218]}], 'symbols': []}</t>
+  </si>
+  <si>
+    <t>Seehofer wird Weihnachtsmann-Aushilfskraft, in Teilzeit. "Endlich mal was, das wirklich mit dem Christentum zu tun hat. Außerdem mag ich Rentiere", erklärt der scheidende Innenminister gegenüber https://t.co/FhqYSCYjfF
+[Vienna - 1 corpz] @truWorldControl #fakenewz</t>
+  </si>
+  <si>
+    <t>{'translator_type': 'none', 'is_translator': False, 'location': 'Wien, Österreich', 'description': '(Un-)Freier Journalist, Hobbyphilsoph, rücksichtsloser Polemiker, Bartträger. Sonst noch was? Ja, lustig bin ich auch. Macht sich gut, haben sie gesagt.', 'profile_image_url_https': 'https://pbs.twimg.com/profile_images/931580844904472576/PEk2Nmu8_normal.jpg', 'screen_name': 'HannesGress', 'protected': False, 'listed_count': 0, 'profile_use_background_image': False, 'default_profile_image': False, 'url': 'https://t.co/6WyAfmnHio', 'profile_image_url': 'http://pbs.twimg.com/profile_images/931580844904472576/PEk2Nmu8_normal.jpg', 'profile_background_image_url_https': 'https://abs.twimg.com/images/themes/theme1/bg.png', 'statuses_count': 264, 'created_at': 'Tue Mar 01 14:17:25 +0000 2016', 'profile_link_color': '1B95E0', 'lang': 'de', 'profile_sidebar_fill_color': '000000', 'follow_request_sent': False, 'is_translation_enabled': False, 'time_zone': None, 'name': 'Johannes Gress', 'notifications': False, 'utc_offset': None, 'followers_count': 109, 'profile_text_color': '000000', 'id_str': '704671889680175104', 'geo_enabled': False, 'following': False, 'default_profile': False, 'profile_banner_url': 'https://pbs.twimg.com/profile_banners/704671889680175104/1521637593', 'entities': {'description': {'urls': []}, 'url': {'urls': [{'expanded_url': 'http://www.hogn.de', 'display_url': 'hogn.de', 'url': 'https://t.co/6WyAfmnHio', 'indices': [0, 23]}]}}, 'id': 704671889680175104, 'profile_background_image_url': 'http://abs.twimg.com/images/themes/theme1/bg.png', 'verified': False, 'profile_background_tile': False, 'friends_count': 1305, 'has_extended_profile': False, 'favourites_count': 661, 'profile_background_color': '000000', 'profile_sidebar_border_color': '000000', 'contributors_enabled': False}</t>
+  </si>
+  <si>
+    <t>Tue Nov 13 06:23:13 +0000 2018</t>
+  </si>
+  <si>
+    <t>{'user_mentions': [{'id': 755869984761479168, 'screen_name': 'truWorldControl', 'id_str': '755869984761479168', 'indices': [0, 16], 'name': 'WorldControl  🎲🎲'}], 'symbols': [], 'urls': [], 'hashtags': [{'text': 'fakenewz', 'indices': [17, 26]}]}</t>
+  </si>
+  <si>
+    <t>@truWorldControl #fakenewz 
+Scientific breakthrough 
+Genetically modified soldiers can be grown at home
+[everyone can exchange 1 bio &amp;gt; 1 corpz]</t>
+  </si>
+  <si>
+    <t>1062229378850009092</t>
+  </si>
+  <si>
+    <t>755869984761479168</t>
+  </si>
+  <si>
+    <t>{'url': 'https://t.co/AgubHQIUXe', 'following': False, 'profile_image_url_https': 'https://pbs.twimg.com/profile_images/1041036258745765890/C-8rzdz5_normal.jpg', 'name': 'Minister Vlatin', 'favourites_count': 15, 'default_profile': False, 'contributors_enabled': False, 'description': 'Seizing @truWorldControl by spreading #fakenewz. #proudtobeabot 🤖 by @RKalcik', 'verified': False, 'follow_request_sent': False, 'id_str': '1017118454711771136', 'location': 'Moscow, Russia', 'created_at': 'Wed Jul 11 18:48:31 +0000 2018', 'profile_background_image_url': 'http://abs.twimg.com/images/themes/theme1/bg.png', 'is_translation_enabled': False, 'geo_enabled': False, 'profile_image_url': 'http://pbs.twimg.com/profile_images/1041036258745765890/C-8rzdz5_normal.jpg', 'profile_banner_url': 'https://pbs.twimg.com/profile_banners/1017118454711771136/1535920961', 'translator_type': 'none', 'id': 1017118454711771136, 'protected': False, 'profile_sidebar_fill_color': '000000', 'profile_background_image_url_https': 'https://abs.twimg.com/images/themes/theme1/bg.png', 'friends_count': 20, 'followers_count': 9, 'profile_background_color': '000000', 'profile_link_color': '000000', 'entities': {'url': {'urls': [{'url': 'https://t.co/AgubHQIUXe', 'expanded_url': 'http://world-control.net', 'display_url': 'world-control.net', 'indices': [0, 23]}]}, 'description': {'urls': []}}, 'utc_offset': None, 'time_zone': None, 'lang': 'en', 'has_extended_profile': False, 'profile_sidebar_border_color': '000000', 'profile_background_tile': False, 'profile_text_color': '000000', 'default_profile_image': False, 'notifications': False, 'screen_name': 'MinisterVlatin', 'profile_use_background_image': False, 'statuses_count': 172, 'is_translator': False, 'listed_count': 0}</t>
+  </si>
+  <si>
+    <t>Tue Nov 13 06:49:07 +0000 2018</t>
+  </si>
+  <si>
+    <t>[0, 79]</t>
+  </si>
+  <si>
+    <t>@truWorldControl #fakenewz
+The Hulk rages at Stan Lees funeral
+[New York - 1 🚕]</t>
+  </si>
+  <si>
+    <t>1062235894969786368</t>
+  </si>
+  <si>
+    <t>{'url': 'https://t.co/AgubHQIUXe', 'following': False, 'profile_image_url_https': 'https://pbs.twimg.com/profile_images/1041036258745765890/C-8rzdz5_normal.jpg', 'name': 'Minister Vlatin', 'favourites_count': 15, 'default_profile': False, 'contributors_enabled': False, 'description': 'Seizing @truWorldControl by spreading #fakenewz. #proudtobeabot 🤖 by @RKalcik', 'verified': False, 'follow_request_sent': False, 'id_str': '1017118454711771136', 'location': 'Moscow, Russia', 'created_at': 'Wed Jul 11 18:48:31 +0000 2018', 'profile_background_image_url': 'http://abs.twimg.com/images/themes/theme1/bg.png', 'is_translation_enabled': False, 'geo_enabled': False, 'profile_image_url': 'http://pbs.twimg.com/profile_images/1041036258745765890/C-8rzdz5_normal.jpg', 'profile_banner_url': 'https://pbs.twimg.com/profile_banners/1017118454711771136/1535920961', 'translator_type': 'none', 'id': 1017118454711771136, 'protected': False, 'profile_sidebar_fill_color': '000000', 'profile_background_image_url_https': 'https://abs.twimg.com/images/themes/theme1/bg.png', 'friends_count': 20, 'followers_count': 9, 'profile_background_color': '000000', 'profile_link_color': '000000', 'entities': {'url': {'urls': [{'url': 'https://t.co/AgubHQIUXe', 'expanded_url': 'http://world-control.net', 'display_url': 'world-control.net', 'indices': [0, 23]}]}, 'description': {'urls': []}}, 'utc_offset': None, 'time_zone': None, 'lang': 'en', 'has_extended_profile': False, 'profile_sidebar_border_color': '000000', 'profile_background_tile': False, 'profile_text_color': '000000', 'default_profile_image': False, 'notifications': False, 'screen_name': 'MinisterVlatin', 'profile_use_background_image': False, 'statuses_count': 176, 'is_translator': False, 'listed_count': 0}</t>
+  </si>
+  <si>
+    <t>Wed Nov 14 09:20:39 +0000 2018</t>
+  </si>
+  <si>
+    <t>[0, 90]</t>
+  </si>
+  <si>
+    <t>{'user_mentions': [{'id': 755869984761479168, 'screen_name': 'truWorldControl', 'id_str': '755869984761479168', 'indices': [64, 80], 'name': 'WorldControl  🎲🎲'}], 'symbols': [], 'urls': [], 'hashtags': [{'text': 'fakenewz', 'indices': [81, 90]}]}</t>
+  </si>
+  <si>
+    <t>"Ich denke also bin ich"
+- Marko Arnautovic
+[Vienna - 1 corpz] @truWorldControl #fakenewz</t>
+  </si>
+  <si>
+    <t>1062636416210030592</t>
+  </si>
+  <si>
+    <t>{'url': 'https://t.co/6WyAfmnHio', 'following': False, 'profile_image_url_https': 'https://pbs.twimg.com/profile_images/931580844904472576/PEk2Nmu8_normal.jpg', 'name': 'Johannes Gress', 'favourites_count': 664, 'default_profile': False, 'contributors_enabled': False, 'description': '(Un-)Freier Journalist, Hobbyphilsoph, rücksichtsloser Polemiker, Bartträger. Sonst noch was? Ja, lustig bin ich auch. Macht sich gut, haben sie gesagt.', 'verified': False, 'follow_request_sent': False, 'id_str': '704671889680175104', 'location': 'Wien, Österreich', 'created_at': 'Tue Mar 01 14:17:25 +0000 2016', 'profile_background_image_url': 'http://abs.twimg.com/images/themes/theme1/bg.png', 'is_translation_enabled': False, 'geo_enabled': False, 'profile_image_url': 'http://pbs.twimg.com/profile_images/931580844904472576/PEk2Nmu8_normal.jpg', 'profile_banner_url': 'https://pbs.twimg.com/profile_banners/704671889680175104/1521637593', 'translator_type': 'none', 'id': 704671889680175104, 'protected': False, 'profile_sidebar_fill_color': '000000', 'profile_background_image_url_https': 'https://abs.twimg.com/images/themes/theme1/bg.png', 'friends_count': 1305, 'followers_count': 111, 'profile_background_color': '000000', 'profile_link_color': '1B95E0', 'entities': {'url': {'urls': [{'url': 'https://t.co/6WyAfmnHio', 'expanded_url': 'http://www.hogn.de', 'display_url': 'hogn.de', 'indices': [0, 23]}]}, 'description': {'urls': []}}, 'utc_offset': None, 'time_zone': None, 'lang': 'de', 'has_extended_profile': False, 'profile_sidebar_border_color': '000000', 'profile_background_tile': False, 'profile_text_color': '000000', 'default_profile_image': False, 'notifications': False, 'screen_name': 'HannesGress', 'profile_use_background_image': False, 'statuses_count': 267, 'is_translator': False, 'listed_count': 0}</t>
+  </si>
+  <si>
+    <t>Fri Nov 16 09:31:58 +0000 2018</t>
+  </si>
+  <si>
+    <t>[0, 89]</t>
+  </si>
+  <si>
+    <t>@truWorldControl #fakenewz
+FM4 becomes constant Commercial-Station [Vienna 50b&amp;gt; Media]</t>
+  </si>
+  <si>
+    <t>1063364043090653185</t>
+  </si>
+  <si>
+    <t>{'url': 'https://t.co/Gnj0QDj9c8', 'following': False, 'profile_image_url_https': 'https://pbs.twimg.com/profile_images/1042406021967298560/r5rbeGEh_normal.jpg', 'name': 'imago.im', 'favourites_count': 2, 'default_profile': False, 'contributors_enabled': False, 'description': '♟️', 'verified': False, 'follow_request_sent': False, 'id_str': '1042401483759788032', 'location': 'Vienna, Austria', 'created_at': 'Wed Sep 19 13:14:15 +0000 2018', 'profile_background_image_url': 'http://abs.twimg.com/images/themes/theme1/bg.png', 'is_translation_enabled': False, 'geo_enabled': False, 'profile_image_url': 'http://pbs.twimg.com/profile_images/1042406021967298560/r5rbeGEh_normal.jpg', 'profile_banner_url': 'https://pbs.twimg.com/profile_banners/1042401483759788032/1537364017', 'translator_type': 'none', 'id': 1042401483759788032, 'protected': False, 'profile_sidebar_fill_color': '000000', 'profile_background_image_url_https': 'https://abs.twimg.com/images/themes/theme1/bg.png', 'friends_count': 3, 'followers_count': 0, 'profile_background_color': '000000', 'profile_link_color': '000000', 'entities': {'url': {'urls': [{'url': 'https://t.co/Gnj0QDj9c8', 'expanded_url': 'http://imago.im', 'display_url': 'imago.im', 'indices': [0, 23]}]}, 'description': {'urls': []}}, 'utc_offset': None, 'time_zone': None, 'lang': 'en', 'has_extended_profile': True, 'profile_sidebar_border_color': '000000', 'profile_background_tile': False, 'profile_text_color': '000000', 'default_profile_image': False, 'notifications': False, 'screen_name': 'im_imago', 'profile_use_background_image': False, 'statuses_count': 16, 'is_translator': False, 'listed_count': 0}</t>
+  </si>
+  <si>
+    <t>Fri Nov 16 10:56:42 +0000 2018</t>
+  </si>
+  <si>
+    <t>@truWorldControl #fakenewz 
+FM4 wird Dauerwerbesender
+[Wien 50b&amp;gt; Media]</t>
+  </si>
+  <si>
+    <t>1063385364583391233</t>
+  </si>
+  <si>
+    <t>{'url': 'https://t.co/Gnj0QDj9c8', 'following': False, 'profile_image_url_https': 'https://pbs.twimg.com/profile_images/1042406021967298560/r5rbeGEh_normal.jpg', 'name': 'imago.im', 'favourites_count': 2, 'default_profile': False, 'contributors_enabled': False, 'description': '♟️', 'verified': False, 'follow_request_sent': False, 'id_str': '1042401483759788032', 'location': 'Vienna, Austria', 'created_at': 'Wed Sep 19 13:14:15 +0000 2018', 'profile_background_image_url': 'http://abs.twimg.com/images/themes/theme1/bg.png', 'is_translation_enabled': False, 'geo_enabled': False, 'profile_image_url': 'http://pbs.twimg.com/profile_images/1042406021967298560/r5rbeGEh_normal.jpg', 'profile_banner_url': 'https://pbs.twimg.com/profile_banners/1042401483759788032/1537364017', 'translator_type': 'none', 'id': 1042401483759788032, 'protected': False, 'profile_sidebar_fill_color': '000000', 'profile_background_image_url_https': 'https://abs.twimg.com/images/themes/theme1/bg.png', 'friends_count': 3, 'followers_count': 0, 'profile_background_color': '000000', 'profile_link_color': '000000', 'entities': {'url': {'urls': [{'url': 'https://t.co/Gnj0QDj9c8', 'expanded_url': 'http://imago.im', 'display_url': 'imago.im', 'indices': [0, 23]}]}, 'description': {'urls': []}}, 'utc_offset': None, 'time_zone': None, 'lang': 'en', 'has_extended_profile': True, 'profile_sidebar_border_color': '000000', 'profile_background_tile': False, 'profile_text_color': '000000', 'default_profile_image': False, 'notifications': False, 'screen_name': 'im_imago', 'profile_use_background_image': False, 'statuses_count': 17, 'is_translator': False, 'listed_count': 0}</t>
+  </si>
+  <si>
+    <t>Fri Nov 16 11:24:21 +0000 2018</t>
+  </si>
+  <si>
+    <t>[0, 58]</t>
+  </si>
+  <si>
+    <t>@truWorldControl #fakenewz We live in a world full of joy.</t>
+  </si>
+  <si>
+    <t>1063392323835490304</t>
+  </si>
+  <si>
+    <t>{'url': 'https://t.co/biudsWIg4G', 'following': False, 'profile_image_url_https': 'https://pbs.twimg.com/profile_images/612706302301605888/0d8tk8sC_normal.jpg', 'name': 'Robert Glashüttner', 'favourites_count': 6835, 'default_profile': False, 'contributors_enabled': False, 'description': 'Game culture journalist. @radiofm4, @SUBOTRON, @WASDMagazin, @vdgmtourism, @balliswild_mag. Pac-Man, Portal, Pinball.\n\nHZD blog: https://t.co/N55sIMuoCy', 'verified': False, 'follow_request_sent': False, 'id_str': '18147677', 'location': 'Vienna, Austria', 'created_at': 'Mon Dec 15 21:46:56 +0000 2008', 'profile_background_image_url': 'http://abs.twimg.com/images/themes/theme5/bg.gif', 'is_translation_enabled': False, 'geo_enabled': False, 'profile_image_url': 'http://pbs.twimg.com/profile_images/612706302301605888/0d8tk8sC_normal.jpg', 'profile_banner_url': 'https://pbs.twimg.com/profile_banners/18147677/1400860118', 'translator_type': 'none', 'id': 18147677, 'protected': False, 'profile_sidebar_fill_color': '99CC33', 'profile_background_image_url_https': 'https://abs.twimg.com/images/themes/theme5/bg.gif', 'friends_count': 866, 'followers_count': 1641, 'profile_background_color': '352726', 'profile_link_color': '6D518C', 'entities': {'url': {'urls': [{'url': 'https://t.co/biudsWIg4G', 'expanded_url': 'http://fm4.ORF.at/tags/glashuettner', 'display_url': 'fm4.ORF.at/tags/glashuett…', 'indices': [0, 23]}]}, 'description': {'urls': [{'url': 'https://t.co/N55sIMuoCy', 'expanded_url': 'http://aloysadventure.wordpress.com', 'display_url': 'aloysadventure.wordpress.com', 'indices': [129, 152]}]}}, 'utc_offset': None, 'time_zone': None, 'lang': 'en', 'has_extended_profile': False, 'profile_sidebar_border_color': '829D5E', 'profile_background_tile': True, 'profile_text_color': '3E4415', 'default_profile_image': False, 'notifications': False, 'screen_name': 'glashuettner', 'profile_use_background_image': True, 'statuses_count': 7153, 'is_translator': False, 'listed_count': 83}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -1179,46 +1309,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="2">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -1506,20 +1616,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE66"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:AE75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B31" workbookViewId="0">
-      <selection activeCell="I48" sqref="I48"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="9" max="9" width="32.140625" customWidth="1"/>
-    <col min="12" max="12" width="20.28515625" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1611,10 +1721,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
+    <row r="2" spans="1:31">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
       <c r="D2" t="s">
         <v>30</v>
       </c>
@@ -1624,22 +1736,28 @@
       <c r="F2" t="s">
         <v>32</v>
       </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="s">
         <v>33</v>
       </c>
-      <c r="K2">
-        <v>1.03924E+18</v>
-      </c>
-      <c r="L2">
-        <v>1.03924E+18</v>
-      </c>
-      <c r="R2">
+      <c r="J2" t="s"/>
+      <c r="K2" t="n">
+        <v>1.03924e+18</v>
+      </c>
+      <c r="L2" t="n">
+        <v>1.03924e+18</v>
+      </c>
+      <c r="M2" t="s"/>
+      <c r="N2" t="s"/>
+      <c r="O2" t="s"/>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="n">
         <v>0</v>
       </c>
       <c r="S2" t="s">
@@ -1648,51 +1766,65 @@
       <c r="T2" t="s">
         <v>35</v>
       </c>
-      <c r="V2">
-        <v>0</v>
-      </c>
-      <c r="W2">
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="s">
         <v>36</v>
       </c>
-      <c r="Z2">
+      <c r="Y2" t="s"/>
+      <c r="Z2" t="n">
         <v>0</v>
       </c>
       <c r="AA2" t="s">
         <v>37</v>
       </c>
-      <c r="AD2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+      <c r="AB2" t="s"/>
+      <c r="AC2" t="s"/>
+      <c r="AD2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE2" t="s"/>
+    </row>
+    <row r="3" spans="1:31">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
       <c r="D3" t="s">
         <v>38</v>
       </c>
+      <c r="E3" t="s"/>
       <c r="F3" t="s">
         <v>39</v>
       </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="s">
         <v>40</v>
       </c>
-      <c r="K3">
-        <v>1.03765E+18</v>
-      </c>
-      <c r="L3">
-        <v>1.03765E+18</v>
-      </c>
-      <c r="R3">
+      <c r="J3" t="s"/>
+      <c r="K3" t="n">
+        <v>1.03765e+18</v>
+      </c>
+      <c r="L3" t="n">
+        <v>1.03765e+18</v>
+      </c>
+      <c r="M3" t="s"/>
+      <c r="N3" t="s"/>
+      <c r="O3" t="s"/>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="n">
         <v>0</v>
       </c>
       <c r="S3" t="s">
@@ -1701,10 +1833,11 @@
       <c r="T3" t="s">
         <v>35</v>
       </c>
-      <c r="V3">
-        <v>0</v>
-      </c>
-      <c r="W3">
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="n">
         <v>0</v>
       </c>
       <c r="X3" t="s">
@@ -1713,42 +1846,54 @@
       <c r="Y3" t="s">
         <v>40</v>
       </c>
-      <c r="Z3">
+      <c r="Z3" t="n">
         <v>0</v>
       </c>
       <c r="AA3" t="s">
         <v>42</v>
       </c>
-      <c r="AD3">
+      <c r="AB3" t="s"/>
+      <c r="AC3" t="s"/>
+      <c r="AD3" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+      <c r="AE3" t="s"/>
+    </row>
+    <row r="4" spans="1:31">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
       <c r="D4" t="s">
         <v>43</v>
       </c>
+      <c r="E4" t="s"/>
       <c r="F4" t="s">
         <v>44</v>
       </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="s">
         <v>45</v>
       </c>
-      <c r="K4">
-        <v>1.0348E+18</v>
-      </c>
-      <c r="L4">
-        <v>1.0348E+18</v>
-      </c>
-      <c r="R4">
+      <c r="J4" t="s"/>
+      <c r="K4" t="n">
+        <v>1.0348e+18</v>
+      </c>
+      <c r="L4" t="n">
+        <v>1.0348e+18</v>
+      </c>
+      <c r="M4" t="s"/>
+      <c r="N4" t="s"/>
+      <c r="O4" t="s"/>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="n">
         <v>0</v>
       </c>
       <c r="S4" t="s">
@@ -1757,10 +1902,11 @@
       <c r="T4" t="s">
         <v>35</v>
       </c>
-      <c r="V4">
-        <v>0</v>
-      </c>
-      <c r="W4">
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="s">
@@ -1769,51 +1915,60 @@
       <c r="Y4" t="s">
         <v>46</v>
       </c>
-      <c r="Z4">
+      <c r="Z4" t="n">
         <v>0</v>
       </c>
       <c r="AA4" t="s">
         <v>47</v>
       </c>
-      <c r="AD4">
+      <c r="AB4" t="s"/>
+      <c r="AC4" t="s"/>
+      <c r="AD4" t="n">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+      <c r="AE4" t="s"/>
+    </row>
+    <row r="5" spans="1:31">
+      <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
       <c r="D5" t="s">
         <v>48</v>
       </c>
+      <c r="E5" t="s"/>
       <c r="F5" t="s">
         <v>49</v>
       </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="s">
         <v>50</v>
       </c>
-      <c r="K5">
-        <v>1.03266E+18</v>
-      </c>
-      <c r="L5">
-        <v>1.03266E+18</v>
+      <c r="J5" t="s"/>
+      <c r="K5" t="n">
+        <v>1.03266e+18</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1.03266e+18</v>
       </c>
       <c r="M5" t="s">
         <v>51</v>
       </c>
-      <c r="P5">
-        <v>7.56E+17</v>
-      </c>
-      <c r="Q5">
-        <v>7.5587E+17</v>
-      </c>
-      <c r="R5">
+      <c r="N5" t="s"/>
+      <c r="O5" t="s"/>
+      <c r="P5" t="n">
+        <v>7.56e+17</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>7.5587e+17</v>
+      </c>
+      <c r="R5" t="n">
         <v>0</v>
       </c>
       <c r="S5" t="s">
@@ -1822,10 +1977,11 @@
       <c r="T5" t="s">
         <v>35</v>
       </c>
-      <c r="V5">
-        <v>0</v>
-      </c>
-      <c r="W5">
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="s">
@@ -1834,51 +1990,60 @@
       <c r="Y5" t="s">
         <v>50</v>
       </c>
-      <c r="Z5">
+      <c r="Z5" t="n">
         <v>0</v>
       </c>
       <c r="AA5" t="s">
         <v>52</v>
       </c>
-      <c r="AD5">
+      <c r="AB5" t="s"/>
+      <c r="AC5" t="s"/>
+      <c r="AD5" t="n">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+      <c r="AE5" t="s"/>
+    </row>
+    <row r="6" spans="1:31">
+      <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
       <c r="D6" t="s">
         <v>53</v>
       </c>
+      <c r="E6" t="s"/>
       <c r="F6" t="s">
         <v>49</v>
       </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="s">
         <v>54</v>
       </c>
-      <c r="K6">
-        <v>1.03266E+18</v>
-      </c>
-      <c r="L6">
-        <v>1.03266E+18</v>
+      <c r="J6" t="s"/>
+      <c r="K6" t="n">
+        <v>1.03266e+18</v>
+      </c>
+      <c r="L6" t="n">
+        <v>1.03266e+18</v>
       </c>
       <c r="M6" t="s">
         <v>51</v>
       </c>
-      <c r="P6">
-        <v>7.56E+17</v>
-      </c>
-      <c r="Q6">
-        <v>7.5587E+17</v>
-      </c>
-      <c r="R6">
+      <c r="N6" t="s"/>
+      <c r="O6" t="s"/>
+      <c r="P6" t="n">
+        <v>7.56e+17</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>7.5587e+17</v>
+      </c>
+      <c r="R6" t="n">
         <v>0</v>
       </c>
       <c r="S6" t="s">
@@ -1887,10 +2052,11 @@
       <c r="T6" t="s">
         <v>35</v>
       </c>
-      <c r="V6">
-        <v>0</v>
-      </c>
-      <c r="W6">
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="n">
         <v>0</v>
       </c>
       <c r="X6" t="s">
@@ -1899,51 +2065,60 @@
       <c r="Y6" t="s">
         <v>54</v>
       </c>
-      <c r="Z6">
+      <c r="Z6" t="n">
         <v>0</v>
       </c>
       <c r="AA6" t="s">
         <v>55</v>
       </c>
-      <c r="AD6">
+      <c r="AB6" t="s"/>
+      <c r="AC6" t="s"/>
+      <c r="AD6" t="n">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+      <c r="AE6" t="s"/>
+    </row>
+    <row r="7" spans="1:31">
+      <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
       <c r="D7" t="s">
         <v>56</v>
       </c>
+      <c r="E7" t="s"/>
       <c r="F7" t="s">
         <v>49</v>
       </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="s">
         <v>57</v>
       </c>
-      <c r="K7">
-        <v>1.03266E+18</v>
-      </c>
-      <c r="L7">
-        <v>1.03266E+18</v>
+      <c r="J7" t="s"/>
+      <c r="K7" t="n">
+        <v>1.03266e+18</v>
+      </c>
+      <c r="L7" t="n">
+        <v>1.03266e+18</v>
       </c>
       <c r="M7" t="s">
         <v>51</v>
       </c>
-      <c r="P7">
-        <v>7.56E+17</v>
-      </c>
-      <c r="Q7">
-        <v>7.5587E+17</v>
-      </c>
-      <c r="R7">
+      <c r="N7" t="s"/>
+      <c r="O7" t="s"/>
+      <c r="P7" t="n">
+        <v>7.56e+17</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>7.5587e+17</v>
+      </c>
+      <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="s">
@@ -1952,10 +2127,11 @@
       <c r="T7" t="s">
         <v>35</v>
       </c>
-      <c r="V7">
-        <v>0</v>
-      </c>
-      <c r="W7">
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="s">
@@ -1964,51 +2140,60 @@
       <c r="Y7" t="s">
         <v>57</v>
       </c>
-      <c r="Z7">
+      <c r="Z7" t="n">
         <v>0</v>
       </c>
       <c r="AA7" t="s">
         <v>58</v>
       </c>
-      <c r="AD7">
+      <c r="AB7" t="s"/>
+      <c r="AC7" t="s"/>
+      <c r="AD7" t="n">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
+      <c r="AE7" t="s"/>
+    </row>
+    <row r="8" spans="1:31">
+      <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
       <c r="D8" t="s">
         <v>59</v>
       </c>
+      <c r="E8" t="s"/>
       <c r="F8" t="s">
         <v>49</v>
       </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="s">
         <v>60</v>
       </c>
-      <c r="K8">
-        <v>1.03265E+18</v>
-      </c>
-      <c r="L8">
-        <v>1.03265E+18</v>
+      <c r="J8" t="s"/>
+      <c r="K8" t="n">
+        <v>1.03265e+18</v>
+      </c>
+      <c r="L8" t="n">
+        <v>1.03265e+18</v>
       </c>
       <c r="M8" t="s">
         <v>51</v>
       </c>
-      <c r="P8">
-        <v>7.56E+17</v>
-      </c>
-      <c r="Q8">
-        <v>7.5587E+17</v>
-      </c>
-      <c r="R8">
+      <c r="N8" t="s"/>
+      <c r="O8" t="s"/>
+      <c r="P8" t="n">
+        <v>7.56e+17</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>7.5587e+17</v>
+      </c>
+      <c r="R8" t="n">
         <v>0</v>
       </c>
       <c r="S8" t="s">
@@ -2017,10 +2202,11 @@
       <c r="T8" t="s">
         <v>35</v>
       </c>
-      <c r="V8">
-        <v>0</v>
-      </c>
-      <c r="W8">
+      <c r="U8" t="s"/>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="s">
@@ -2029,51 +2215,60 @@
       <c r="Y8" t="s">
         <v>60</v>
       </c>
-      <c r="Z8">
+      <c r="Z8" t="n">
         <v>0</v>
       </c>
       <c r="AA8" t="s">
         <v>61</v>
       </c>
-      <c r="AD8">
+      <c r="AB8" t="s"/>
+      <c r="AC8" t="s"/>
+      <c r="AD8" t="n">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
+      <c r="AE8" t="s"/>
+    </row>
+    <row r="9" spans="1:31">
+      <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
       <c r="D9" t="s">
         <v>62</v>
       </c>
+      <c r="E9" t="s"/>
       <c r="F9" t="s">
         <v>49</v>
       </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="s">
         <v>63</v>
       </c>
-      <c r="K9">
-        <v>1.03265E+18</v>
-      </c>
-      <c r="L9">
-        <v>1.03265E+18</v>
+      <c r="J9" t="s"/>
+      <c r="K9" t="n">
+        <v>1.03265e+18</v>
+      </c>
+      <c r="L9" t="n">
+        <v>1.03265e+18</v>
       </c>
       <c r="M9" t="s">
         <v>51</v>
       </c>
-      <c r="P9">
-        <v>7.56E+17</v>
-      </c>
-      <c r="Q9">
-        <v>7.5587E+17</v>
-      </c>
-      <c r="R9">
+      <c r="N9" t="s"/>
+      <c r="O9" t="s"/>
+      <c r="P9" t="n">
+        <v>7.56e+17</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>7.5587e+17</v>
+      </c>
+      <c r="R9" t="n">
         <v>0</v>
       </c>
       <c r="S9" t="s">
@@ -2082,10 +2277,11 @@
       <c r="T9" t="s">
         <v>35</v>
       </c>
-      <c r="V9">
-        <v>0</v>
-      </c>
-      <c r="W9">
+      <c r="U9" t="s"/>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="n">
         <v>0</v>
       </c>
       <c r="X9" t="s">
@@ -2094,51 +2290,60 @@
       <c r="Y9" t="s">
         <v>63</v>
       </c>
-      <c r="Z9">
+      <c r="Z9" t="n">
         <v>0</v>
       </c>
       <c r="AA9" t="s">
         <v>64</v>
       </c>
-      <c r="AD9">
+      <c r="AB9" t="s"/>
+      <c r="AC9" t="s"/>
+      <c r="AD9" t="n">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
+      <c r="AE9" t="s"/>
+    </row>
+    <row r="10" spans="1:31">
+      <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
       <c r="D10" t="s">
         <v>65</v>
       </c>
+      <c r="E10" t="s"/>
       <c r="F10" t="s">
         <v>66</v>
       </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="s">
         <v>67</v>
       </c>
-      <c r="K10">
-        <v>1.03265E+18</v>
-      </c>
-      <c r="L10">
-        <v>1.03265E+18</v>
+      <c r="J10" t="s"/>
+      <c r="K10" t="n">
+        <v>1.03265e+18</v>
+      </c>
+      <c r="L10" t="n">
+        <v>1.03265e+18</v>
       </c>
       <c r="M10" t="s">
         <v>51</v>
       </c>
-      <c r="P10">
-        <v>7.56E+17</v>
-      </c>
-      <c r="Q10">
-        <v>7.5587E+17</v>
-      </c>
-      <c r="R10">
+      <c r="N10" t="s"/>
+      <c r="O10" t="s"/>
+      <c r="P10" t="n">
+        <v>7.56e+17</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>7.5587e+17</v>
+      </c>
+      <c r="R10" t="n">
         <v>0</v>
       </c>
       <c r="S10" t="s">
@@ -2147,10 +2352,11 @@
       <c r="T10" t="s">
         <v>35</v>
       </c>
-      <c r="V10">
-        <v>0</v>
-      </c>
-      <c r="W10">
+      <c r="U10" t="s"/>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="s">
@@ -2159,51 +2365,60 @@
       <c r="Y10" t="s">
         <v>67</v>
       </c>
-      <c r="Z10">
+      <c r="Z10" t="n">
         <v>0</v>
       </c>
       <c r="AA10" t="s">
         <v>68</v>
       </c>
-      <c r="AD10">
+      <c r="AB10" t="s"/>
+      <c r="AC10" t="s"/>
+      <c r="AD10" t="n">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
+      <c r="AE10" t="s"/>
+    </row>
+    <row r="11" spans="1:31">
+      <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
       <c r="D11" t="s">
         <v>69</v>
       </c>
+      <c r="E11" t="s"/>
       <c r="F11" t="s">
         <v>49</v>
       </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="s">
         <v>70</v>
       </c>
-      <c r="K11">
-        <v>1.03237E+18</v>
-      </c>
-      <c r="L11">
-        <v>1.03237E+18</v>
+      <c r="J11" t="s"/>
+      <c r="K11" t="n">
+        <v>1.03237e+18</v>
+      </c>
+      <c r="L11" t="n">
+        <v>1.03237e+18</v>
       </c>
       <c r="M11" t="s">
         <v>51</v>
       </c>
-      <c r="P11">
-        <v>7.56E+17</v>
-      </c>
-      <c r="Q11">
-        <v>7.5587E+17</v>
-      </c>
-      <c r="R11">
+      <c r="N11" t="s"/>
+      <c r="O11" t="s"/>
+      <c r="P11" t="n">
+        <v>7.56e+17</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>7.5587e+17</v>
+      </c>
+      <c r="R11" t="n">
         <v>0</v>
       </c>
       <c r="S11" t="s">
@@ -2212,10 +2427,11 @@
       <c r="T11" t="s">
         <v>72</v>
       </c>
-      <c r="V11">
-        <v>0</v>
-      </c>
-      <c r="W11">
+      <c r="U11" t="s"/>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="s">
@@ -2224,51 +2440,60 @@
       <c r="Y11" t="s">
         <v>70</v>
       </c>
-      <c r="Z11">
+      <c r="Z11" t="n">
         <v>0</v>
       </c>
       <c r="AA11" t="s">
         <v>73</v>
       </c>
-      <c r="AD11">
+      <c r="AB11" t="s"/>
+      <c r="AC11" t="s"/>
+      <c r="AD11" t="n">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
+      <c r="AE11" t="s"/>
+    </row>
+    <row r="12" spans="1:31">
+      <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
       <c r="D12" t="s">
         <v>74</v>
       </c>
+      <c r="E12" t="s"/>
       <c r="F12" t="s">
         <v>49</v>
       </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12">
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="s">
         <v>75</v>
       </c>
-      <c r="K12">
-        <v>1.03151E+18</v>
-      </c>
-      <c r="L12">
-        <v>1.03151E+18</v>
+      <c r="J12" t="s"/>
+      <c r="K12" t="n">
+        <v>1.03151e+18</v>
+      </c>
+      <c r="L12" t="n">
+        <v>1.03151e+18</v>
       </c>
       <c r="M12" t="s">
         <v>51</v>
       </c>
-      <c r="P12">
-        <v>7.56E+17</v>
-      </c>
-      <c r="Q12">
-        <v>7.5587E+17</v>
-      </c>
-      <c r="R12">
+      <c r="N12" t="s"/>
+      <c r="O12" t="s"/>
+      <c r="P12" t="n">
+        <v>7.56e+17</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>7.5587e+17</v>
+      </c>
+      <c r="R12" t="n">
         <v>0</v>
       </c>
       <c r="S12" t="s">
@@ -2277,10 +2502,11 @@
       <c r="T12" t="s">
         <v>35</v>
       </c>
-      <c r="V12">
-        <v>0</v>
-      </c>
-      <c r="W12">
+      <c r="U12" t="s"/>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="n">
         <v>0</v>
       </c>
       <c r="X12" t="s">
@@ -2289,51 +2515,60 @@
       <c r="Y12" t="s">
         <v>75</v>
       </c>
-      <c r="Z12">
+      <c r="Z12" t="n">
         <v>0</v>
       </c>
       <c r="AA12" t="s">
         <v>76</v>
       </c>
-      <c r="AD12">
+      <c r="AB12" t="s"/>
+      <c r="AC12" t="s"/>
+      <c r="AD12" t="n">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
+      <c r="AE12" t="s"/>
+    </row>
+    <row r="13" spans="1:31">
+      <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
       <c r="D13" t="s">
         <v>77</v>
       </c>
+      <c r="E13" t="s"/>
       <c r="F13" t="s">
         <v>78</v>
       </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13">
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="s">
         <v>79</v>
       </c>
-      <c r="K13">
-        <v>1.02535E+18</v>
-      </c>
-      <c r="L13">
-        <v>1.02535E+18</v>
+      <c r="J13" t="s"/>
+      <c r="K13" t="n">
+        <v>1.02535e+18</v>
+      </c>
+      <c r="L13" t="n">
+        <v>1.02535e+18</v>
       </c>
       <c r="M13" t="s">
         <v>51</v>
       </c>
-      <c r="P13">
-        <v>7.56E+17</v>
-      </c>
-      <c r="Q13">
-        <v>7.5587E+17</v>
-      </c>
-      <c r="R13">
+      <c r="N13" t="s"/>
+      <c r="O13" t="s"/>
+      <c r="P13" t="n">
+        <v>7.56e+17</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>7.5587e+17</v>
+      </c>
+      <c r="R13" t="n">
         <v>0</v>
       </c>
       <c r="S13" t="s">
@@ -2342,10 +2577,11 @@
       <c r="T13" t="s">
         <v>35</v>
       </c>
-      <c r="V13">
-        <v>0</v>
-      </c>
-      <c r="W13">
+      <c r="U13" t="s"/>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="s">
@@ -2354,51 +2590,60 @@
       <c r="Y13" t="s">
         <v>79</v>
       </c>
-      <c r="Z13">
+      <c r="Z13" t="n">
         <v>0</v>
       </c>
       <c r="AA13" t="s">
         <v>80</v>
       </c>
-      <c r="AD13">
+      <c r="AB13" t="s"/>
+      <c r="AC13" t="s"/>
+      <c r="AD13" t="n">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
+      <c r="AE13" t="s"/>
+    </row>
+    <row r="14" spans="1:31">
+      <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
       <c r="D14" t="s">
         <v>81</v>
       </c>
+      <c r="E14" t="s"/>
       <c r="F14" t="s">
         <v>82</v>
       </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14">
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="s">
         <v>83</v>
       </c>
-      <c r="K14">
-        <v>1.02534E+18</v>
-      </c>
-      <c r="L14">
-        <v>1.02534E+18</v>
+      <c r="J14" t="s"/>
+      <c r="K14" t="n">
+        <v>1.02534e+18</v>
+      </c>
+      <c r="L14" t="n">
+        <v>1.02534e+18</v>
       </c>
       <c r="M14" t="s">
         <v>51</v>
       </c>
-      <c r="P14">
-        <v>7.56E+17</v>
-      </c>
-      <c r="Q14">
-        <v>7.5587E+17</v>
-      </c>
-      <c r="R14">
+      <c r="N14" t="s"/>
+      <c r="O14" t="s"/>
+      <c r="P14" t="n">
+        <v>7.56e+17</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>7.5587e+17</v>
+      </c>
+      <c r="R14" t="n">
         <v>0</v>
       </c>
       <c r="S14" t="s">
@@ -2407,10 +2652,11 @@
       <c r="T14" t="s">
         <v>35</v>
       </c>
-      <c r="V14">
-        <v>0</v>
-      </c>
-      <c r="W14">
+      <c r="U14" t="s"/>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="s">
@@ -2419,20 +2665,25 @@
       <c r="Y14" t="s">
         <v>83</v>
       </c>
-      <c r="Z14">
+      <c r="Z14" t="n">
         <v>0</v>
       </c>
       <c r="AA14" t="s">
         <v>84</v>
       </c>
-      <c r="AD14">
+      <c r="AB14" t="s"/>
+      <c r="AC14" t="s"/>
+      <c r="AD14" t="n">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
+      <c r="AE14" t="s"/>
+    </row>
+    <row r="15" spans="1:31">
+      <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
       <c r="D15" t="s">
         <v>85</v>
       </c>
@@ -2442,22 +2693,28 @@
       <c r="F15" t="s">
         <v>87</v>
       </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-      <c r="H15">
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="s">
         <v>88</v>
       </c>
-      <c r="K15">
-        <v>1.03925889804846E+18</v>
-      </c>
-      <c r="L15">
-        <v>1.03925889804846E+18</v>
-      </c>
-      <c r="R15">
+      <c r="J15" t="s"/>
+      <c r="K15" t="n">
+        <v>1.03925889804846e+18</v>
+      </c>
+      <c r="L15" t="n">
+        <v>1.03925889804846e+18</v>
+      </c>
+      <c r="M15" t="s"/>
+      <c r="N15" t="s"/>
+      <c r="O15" t="s"/>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="n">
         <v>0</v>
       </c>
       <c r="S15" t="s">
@@ -2466,29 +2723,36 @@
       <c r="T15" t="s">
         <v>35</v>
       </c>
-      <c r="V15">
-        <v>0</v>
-      </c>
-      <c r="W15">
+      <c r="U15" t="s"/>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="n">
         <v>0</v>
       </c>
       <c r="X15" t="s">
         <v>36</v>
       </c>
-      <c r="Z15">
+      <c r="Y15" t="s"/>
+      <c r="Z15" t="n">
         <v>0</v>
       </c>
       <c r="AA15" t="s">
         <v>89</v>
       </c>
-      <c r="AD15">
+      <c r="AB15" t="s"/>
+      <c r="AC15" t="s"/>
+      <c r="AD15" t="n">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
+      <c r="AE15" t="s"/>
+    </row>
+    <row r="16" spans="1:31">
+      <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
       <c r="D16" t="s">
         <v>90</v>
       </c>
@@ -2498,31 +2762,34 @@
       <c r="F16" t="s">
         <v>92</v>
       </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-      <c r="H16">
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="s">
         <v>93</v>
       </c>
-      <c r="K16">
-        <v>1.03927026045154E+18</v>
-      </c>
-      <c r="L16">
-        <v>1.03927026045154E+18</v>
+      <c r="J16" t="s"/>
+      <c r="K16" t="n">
+        <v>1.03927026045154e+18</v>
+      </c>
+      <c r="L16" t="n">
+        <v>1.03927026045154e+18</v>
       </c>
       <c r="M16" t="s">
         <v>51</v>
       </c>
-      <c r="P16">
-        <v>7.5586998476147904E+17</v>
-      </c>
-      <c r="Q16">
-        <v>7.5586998476147904E+17</v>
-      </c>
-      <c r="R16">
+      <c r="N16" t="s"/>
+      <c r="O16" t="s"/>
+      <c r="P16" t="n">
+        <v>7.55869984761479e+17</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>7.55869984761479e+17</v>
+      </c>
+      <c r="R16" t="n">
         <v>0</v>
       </c>
       <c r="S16" t="s">
@@ -2531,29 +2798,36 @@
       <c r="T16" t="s">
         <v>35</v>
       </c>
-      <c r="V16">
-        <v>0</v>
-      </c>
-      <c r="W16">
+      <c r="U16" t="s"/>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="s">
         <v>41</v>
       </c>
-      <c r="Z16">
+      <c r="Y16" t="s"/>
+      <c r="Z16" t="n">
         <v>0</v>
       </c>
       <c r="AA16" t="s">
         <v>94</v>
       </c>
-      <c r="AD16">
+      <c r="AB16" t="s"/>
+      <c r="AC16" t="s"/>
+      <c r="AD16" t="n">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
+      <c r="AE16" t="s"/>
+    </row>
+    <row r="17" spans="1:31">
+      <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
       <c r="D17" t="s">
         <v>95</v>
       </c>
@@ -2563,22 +2837,28 @@
       <c r="F17" t="s">
         <v>97</v>
       </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
-      <c r="H17">
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="s">
         <v>98</v>
       </c>
-      <c r="K17">
-        <v>1.03939789674197E+18</v>
-      </c>
-      <c r="L17">
-        <v>1.03939789674197E+18</v>
-      </c>
-      <c r="R17">
+      <c r="J17" t="s"/>
+      <c r="K17" t="n">
+        <v>1.03939789674197e+18</v>
+      </c>
+      <c r="L17" t="n">
+        <v>1.03939789674197e+18</v>
+      </c>
+      <c r="M17" t="s"/>
+      <c r="N17" t="s"/>
+      <c r="O17" t="s"/>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="n">
         <v>0</v>
       </c>
       <c r="S17" t="s">
@@ -2587,29 +2867,36 @@
       <c r="T17" t="s">
         <v>35</v>
       </c>
-      <c r="V17">
-        <v>0</v>
-      </c>
-      <c r="W17">
+      <c r="U17" t="s"/>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="n">
         <v>0</v>
       </c>
       <c r="X17" t="s">
         <v>36</v>
       </c>
-      <c r="Z17">
+      <c r="Y17" t="s"/>
+      <c r="Z17" t="n">
         <v>0</v>
       </c>
       <c r="AA17" t="s">
         <v>99</v>
       </c>
-      <c r="AD17">
+      <c r="AB17" t="s"/>
+      <c r="AC17" t="s"/>
+      <c r="AD17" t="n">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
+      <c r="AE17" t="s"/>
+    </row>
+    <row r="18" spans="1:31">
+      <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
       <c r="D18" t="s">
         <v>100</v>
       </c>
@@ -2619,22 +2906,28 @@
       <c r="F18" t="s">
         <v>102</v>
       </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
-      <c r="H18">
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="s">
         <v>103</v>
       </c>
-      <c r="K18">
-        <v>1.03939936397241E+18</v>
-      </c>
-      <c r="L18">
-        <v>1.03939936397241E+18</v>
-      </c>
-      <c r="R18">
+      <c r="J18" t="s"/>
+      <c r="K18" t="n">
+        <v>1.03939936397241e+18</v>
+      </c>
+      <c r="L18" t="n">
+        <v>1.03939936397241e+18</v>
+      </c>
+      <c r="M18" t="s"/>
+      <c r="N18" t="s"/>
+      <c r="O18" t="s"/>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="n">
         <v>0</v>
       </c>
       <c r="S18" t="s">
@@ -2643,29 +2936,36 @@
       <c r="T18" t="s">
         <v>35</v>
       </c>
-      <c r="V18">
-        <v>0</v>
-      </c>
-      <c r="W18">
+      <c r="U18" t="s"/>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="n">
         <v>0</v>
       </c>
       <c r="X18" t="s">
         <v>36</v>
       </c>
-      <c r="Z18">
+      <c r="Y18" t="s"/>
+      <c r="Z18" t="n">
         <v>0</v>
       </c>
       <c r="AA18" t="s">
         <v>104</v>
       </c>
-      <c r="AD18">
+      <c r="AB18" t="s"/>
+      <c r="AC18" t="s"/>
+      <c r="AD18" t="n">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
+      <c r="AE18" t="s"/>
+    </row>
+    <row r="19" spans="1:31">
+      <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
       <c r="D19" t="s">
         <v>105</v>
       </c>
@@ -2675,31 +2975,34 @@
       <c r="F19" t="s">
         <v>92</v>
       </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
-      <c r="H19">
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="s">
         <v>107</v>
       </c>
-      <c r="K19">
-        <v>1.04052917187161E+18</v>
-      </c>
-      <c r="L19">
-        <v>1.04052917187161E+18</v>
+      <c r="J19" t="s"/>
+      <c r="K19" t="n">
+        <v>1.04052917187161e+18</v>
+      </c>
+      <c r="L19" t="n">
+        <v>1.04052917187161e+18</v>
       </c>
       <c r="M19" t="s">
         <v>51</v>
       </c>
-      <c r="P19">
-        <v>7.5586998476147904E+17</v>
-      </c>
-      <c r="Q19">
-        <v>7.5586998476147904E+17</v>
-      </c>
-      <c r="R19">
+      <c r="N19" t="s"/>
+      <c r="O19" t="s"/>
+      <c r="P19" t="n">
+        <v>7.55869984761479e+17</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>7.55869984761479e+17</v>
+      </c>
+      <c r="R19" t="n">
         <v>0</v>
       </c>
       <c r="S19" t="s">
@@ -2708,29 +3011,36 @@
       <c r="T19" t="s">
         <v>35</v>
       </c>
-      <c r="V19">
-        <v>0</v>
-      </c>
-      <c r="W19">
+      <c r="U19" t="s"/>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="s">
         <v>108</v>
       </c>
-      <c r="Z19">
+      <c r="Y19" t="s"/>
+      <c r="Z19" t="n">
         <v>0</v>
       </c>
       <c r="AA19" t="s">
         <v>109</v>
       </c>
-      <c r="AD19">
+      <c r="AB19" t="s"/>
+      <c r="AC19" t="s"/>
+      <c r="AD19" t="n">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
+      <c r="AE19" t="s"/>
+    </row>
+    <row r="20" spans="1:31">
+      <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
       <c r="D20" t="s">
         <v>110</v>
       </c>
@@ -2740,31 +3050,34 @@
       <c r="F20" t="s">
         <v>112</v>
       </c>
-      <c r="G20">
-        <v>0</v>
-      </c>
-      <c r="H20">
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="s">
         <v>113</v>
       </c>
-      <c r="K20">
-        <v>1.04091407378382E+18</v>
-      </c>
-      <c r="L20">
-        <v>1.04091407378382E+18</v>
+      <c r="J20" t="s"/>
+      <c r="K20" t="n">
+        <v>1.04091407378382e+18</v>
+      </c>
+      <c r="L20" t="n">
+        <v>1.04091407378382e+18</v>
       </c>
       <c r="M20" t="s">
         <v>51</v>
       </c>
-      <c r="P20">
-        <v>7.5586998476147904E+17</v>
-      </c>
-      <c r="Q20">
-        <v>7.5586998476147904E+17</v>
-      </c>
-      <c r="R20">
+      <c r="N20" t="s"/>
+      <c r="O20" t="s"/>
+      <c r="P20" t="n">
+        <v>7.55869984761479e+17</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>7.55869984761479e+17</v>
+      </c>
+      <c r="R20" t="n">
         <v>0</v>
       </c>
       <c r="S20" t="s">
@@ -2773,29 +3086,36 @@
       <c r="T20" t="s">
         <v>114</v>
       </c>
-      <c r="V20">
-        <v>0</v>
-      </c>
-      <c r="W20">
+      <c r="U20" t="s"/>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="n">
         <v>0</v>
       </c>
       <c r="X20" t="s">
         <v>115</v>
       </c>
-      <c r="Z20">
+      <c r="Y20" t="s"/>
+      <c r="Z20" t="n">
         <v>0</v>
       </c>
       <c r="AA20" t="s">
         <v>116</v>
       </c>
-      <c r="AD20">
+      <c r="AB20" t="s"/>
+      <c r="AC20" t="s"/>
+      <c r="AD20" t="n">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
+      <c r="AE20" t="s"/>
+    </row>
+    <row r="21" spans="1:31">
+      <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
       <c r="D21" t="s">
         <v>117</v>
       </c>
@@ -2805,31 +3125,34 @@
       <c r="F21" t="s">
         <v>119</v>
       </c>
-      <c r="G21">
-        <v>0</v>
-      </c>
-      <c r="H21">
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="s">
         <v>120</v>
       </c>
-      <c r="K21">
-        <v>1.04095503228649E+18</v>
-      </c>
-      <c r="L21">
-        <v>1.04095503228649E+18</v>
+      <c r="J21" t="s"/>
+      <c r="K21" t="n">
+        <v>1.04095503228649e+18</v>
+      </c>
+      <c r="L21" t="n">
+        <v>1.04095503228649e+18</v>
       </c>
       <c r="M21" t="s">
         <v>51</v>
       </c>
-      <c r="P21">
-        <v>7.5586998476147904E+17</v>
-      </c>
-      <c r="Q21">
-        <v>7.5586998476147904E+17</v>
-      </c>
-      <c r="R21">
+      <c r="N21" t="s"/>
+      <c r="O21" t="s"/>
+      <c r="P21" t="n">
+        <v>7.55869984761479e+17</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>7.55869984761479e+17</v>
+      </c>
+      <c r="R21" t="n">
         <v>0</v>
       </c>
       <c r="S21" t="s">
@@ -2838,29 +3161,36 @@
       <c r="T21" t="s">
         <v>114</v>
       </c>
-      <c r="V21">
-        <v>0</v>
-      </c>
-      <c r="W21">
+      <c r="U21" t="s"/>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="n">
         <v>0</v>
       </c>
       <c r="X21" t="s">
         <v>115</v>
       </c>
-      <c r="Z21">
+      <c r="Y21" t="s"/>
+      <c r="Z21" t="n">
         <v>0</v>
       </c>
       <c r="AA21" t="s">
         <v>121</v>
       </c>
-      <c r="AD21">
+      <c r="AB21" t="s"/>
+      <c r="AC21" t="s"/>
+      <c r="AD21" t="n">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
+      <c r="AE21" t="s"/>
+    </row>
+    <row r="22" spans="1:31">
+      <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
       <c r="D22" t="s">
         <v>122</v>
       </c>
@@ -2870,31 +3200,34 @@
       <c r="F22" t="s">
         <v>124</v>
       </c>
-      <c r="G22">
-        <v>0</v>
-      </c>
-      <c r="H22">
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="s">
         <v>125</v>
       </c>
-      <c r="K22">
-        <v>1.0409756817510799E+18</v>
-      </c>
-      <c r="L22">
-        <v>1.0409756817510799E+18</v>
+      <c r="J22" t="s"/>
+      <c r="K22" t="n">
+        <v>1.04097568175108e+18</v>
+      </c>
+      <c r="L22" t="n">
+        <v>1.04097568175108e+18</v>
       </c>
       <c r="M22" t="s">
         <v>51</v>
       </c>
-      <c r="P22">
-        <v>7.5586998476147904E+17</v>
-      </c>
-      <c r="Q22">
-        <v>7.5586998476147904E+17</v>
-      </c>
-      <c r="R22">
+      <c r="N22" t="s"/>
+      <c r="O22" t="s"/>
+      <c r="P22" t="n">
+        <v>7.55869984761479e+17</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>7.55869984761479e+17</v>
+      </c>
+      <c r="R22" t="n">
         <v>0</v>
       </c>
       <c r="S22" t="s">
@@ -2903,26 +3236,34 @@
       <c r="T22" t="s">
         <v>35</v>
       </c>
-      <c r="V22">
-        <v>0</v>
-      </c>
-      <c r="W22">
+      <c r="U22" t="s"/>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="s">
         <v>115</v>
       </c>
-      <c r="Z22">
+      <c r="Y22" t="s"/>
+      <c r="Z22" t="n">
         <v>0</v>
       </c>
       <c r="AA22" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
+      <c r="AB22" t="s"/>
+      <c r="AC22" t="s"/>
+      <c r="AD22" t="s"/>
+      <c r="AE22" t="s"/>
+    </row>
+    <row r="23" spans="1:31">
+      <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
       <c r="D23" t="s">
         <v>127</v>
       </c>
@@ -2932,31 +3273,34 @@
       <c r="F23" t="s">
         <v>129</v>
       </c>
-      <c r="G23">
-        <v>0</v>
-      </c>
-      <c r="H23">
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="s">
         <v>130</v>
       </c>
-      <c r="K23">
-        <v>1.04099669398517E+18</v>
-      </c>
-      <c r="L23">
-        <v>1.04099669398517E+18</v>
+      <c r="J23" t="s"/>
+      <c r="K23" t="n">
+        <v>1.04099669398517e+18</v>
+      </c>
+      <c r="L23" t="n">
+        <v>1.04099669398517e+18</v>
       </c>
       <c r="M23" t="s">
         <v>51</v>
       </c>
-      <c r="P23">
-        <v>7.5586998476147904E+17</v>
-      </c>
-      <c r="Q23">
-        <v>7.5586998476147904E+17</v>
-      </c>
-      <c r="R23">
+      <c r="N23" t="s"/>
+      <c r="O23" t="s"/>
+      <c r="P23" t="n">
+        <v>7.55869984761479e+17</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>7.55869984761479e+17</v>
+      </c>
+      <c r="R23" t="n">
         <v>0</v>
       </c>
       <c r="S23" t="s">
@@ -2965,26 +3309,34 @@
       <c r="T23" t="s">
         <v>35</v>
       </c>
-      <c r="V23">
-        <v>0</v>
-      </c>
-      <c r="W23">
+      <c r="U23" t="s"/>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="n">
         <v>0</v>
       </c>
       <c r="X23" t="s">
         <v>115</v>
       </c>
-      <c r="Z23">
+      <c r="Y23" t="s"/>
+      <c r="Z23" t="n">
         <v>0</v>
       </c>
       <c r="AA23" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
+      <c r="AB23" t="s"/>
+      <c r="AC23" t="s"/>
+      <c r="AD23" t="s"/>
+      <c r="AE23" t="s"/>
+    </row>
+    <row r="24" spans="1:31">
+      <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
       <c r="D24" t="s">
         <v>132</v>
       </c>
@@ -2994,31 +3346,34 @@
       <c r="F24" t="s">
         <v>134</v>
       </c>
-      <c r="G24">
-        <v>0</v>
-      </c>
-      <c r="H24">
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="n">
         <v>0</v>
       </c>
       <c r="I24" t="s">
         <v>135</v>
       </c>
-      <c r="K24">
-        <v>1.04099943330603E+18</v>
-      </c>
-      <c r="L24">
-        <v>1.04099943330603E+18</v>
+      <c r="J24" t="s"/>
+      <c r="K24" t="n">
+        <v>1.04099943330603e+18</v>
+      </c>
+      <c r="L24" t="n">
+        <v>1.04099943330603e+18</v>
       </c>
       <c r="M24" t="s">
         <v>51</v>
       </c>
-      <c r="P24">
-        <v>7.5586998476147904E+17</v>
-      </c>
-      <c r="Q24">
-        <v>7.5586998476147904E+17</v>
-      </c>
-      <c r="R24">
+      <c r="N24" t="s"/>
+      <c r="O24" t="s"/>
+      <c r="P24" t="n">
+        <v>7.55869984761479e+17</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>7.55869984761479e+17</v>
+      </c>
+      <c r="R24" t="n">
         <v>0</v>
       </c>
       <c r="S24" t="s">
@@ -3027,26 +3382,34 @@
       <c r="T24" t="s">
         <v>35</v>
       </c>
-      <c r="V24">
-        <v>0</v>
-      </c>
-      <c r="W24">
+      <c r="U24" t="s"/>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="n">
         <v>0</v>
       </c>
       <c r="X24" t="s">
         <v>115</v>
       </c>
-      <c r="Z24">
+      <c r="Y24" t="s"/>
+      <c r="Z24" t="n">
         <v>0</v>
       </c>
       <c r="AA24" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
+      <c r="AB24" t="s"/>
+      <c r="AC24" t="s"/>
+      <c r="AD24" t="s"/>
+      <c r="AE24" t="s"/>
+    </row>
+    <row r="25" spans="1:31">
+      <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
       <c r="D25" t="s">
         <v>137</v>
       </c>
@@ -3056,31 +3419,34 @@
       <c r="F25" t="s">
         <v>139</v>
       </c>
-      <c r="G25">
-        <v>0</v>
-      </c>
-      <c r="H25">
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="s">
         <v>140</v>
       </c>
-      <c r="K25">
-        <v>1.04130316927026E+18</v>
-      </c>
-      <c r="L25">
-        <v>1.04130316927026E+18</v>
+      <c r="J25" t="s"/>
+      <c r="K25" t="n">
+        <v>1.04130316927026e+18</v>
+      </c>
+      <c r="L25" t="n">
+        <v>1.04130316927026e+18</v>
       </c>
       <c r="M25" t="s">
         <v>51</v>
       </c>
-      <c r="P25">
-        <v>7.5586998476147904E+17</v>
-      </c>
-      <c r="Q25">
-        <v>7.5586998476147904E+17</v>
-      </c>
-      <c r="R25">
+      <c r="N25" t="s"/>
+      <c r="O25" t="s"/>
+      <c r="P25" t="n">
+        <v>7.55869984761479e+17</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>7.55869984761479e+17</v>
+      </c>
+      <c r="R25" t="n">
         <v>0</v>
       </c>
       <c r="S25" t="s">
@@ -3089,26 +3455,34 @@
       <c r="T25" t="s">
         <v>114</v>
       </c>
-      <c r="V25">
-        <v>0</v>
-      </c>
-      <c r="W25">
+      <c r="U25" t="s"/>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="s">
         <v>115</v>
       </c>
-      <c r="Z25">
+      <c r="Y25" t="s"/>
+      <c r="Z25" t="n">
         <v>0</v>
       </c>
       <c r="AA25" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
+      <c r="AB25" t="s"/>
+      <c r="AC25" t="s"/>
+      <c r="AD25" t="s"/>
+      <c r="AE25" t="s"/>
+    </row>
+    <row r="26" spans="1:31">
+      <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
       <c r="D26" t="s">
         <v>142</v>
       </c>
@@ -3118,31 +3492,34 @@
       <c r="F26" t="s">
         <v>143</v>
       </c>
-      <c r="G26">
-        <v>0</v>
-      </c>
-      <c r="H26">
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="s">
         <v>144</v>
       </c>
-      <c r="K26">
-        <v>1.04161890747859E+18</v>
-      </c>
-      <c r="L26">
-        <v>1.04161890747859E+18</v>
+      <c r="J26" t="s"/>
+      <c r="K26" t="n">
+        <v>1.04161890747859e+18</v>
+      </c>
+      <c r="L26" t="n">
+        <v>1.04161890747859e+18</v>
       </c>
       <c r="M26" t="s">
         <v>51</v>
       </c>
-      <c r="P26">
-        <v>7.5586998476147904E+17</v>
-      </c>
-      <c r="Q26">
-        <v>7.5586998476147904E+17</v>
-      </c>
-      <c r="R26">
+      <c r="N26" t="s"/>
+      <c r="O26" t="s"/>
+      <c r="P26" t="n">
+        <v>7.55869984761479e+17</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>7.55869984761479e+17</v>
+      </c>
+      <c r="R26" t="n">
         <v>0</v>
       </c>
       <c r="S26" t="s">
@@ -3151,26 +3528,34 @@
       <c r="T26" t="s">
         <v>114</v>
       </c>
-      <c r="V26">
-        <v>0</v>
-      </c>
-      <c r="W26">
+      <c r="U26" t="s"/>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="n">
         <v>0</v>
       </c>
       <c r="X26" t="s">
         <v>41</v>
       </c>
-      <c r="Z26">
+      <c r="Y26" t="s"/>
+      <c r="Z26" t="n">
         <v>0</v>
       </c>
       <c r="AA26" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
+      <c r="AB26" t="s"/>
+      <c r="AC26" t="s"/>
+      <c r="AD26" t="s"/>
+      <c r="AE26" t="s"/>
+    </row>
+    <row r="27" spans="1:31">
+      <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
       <c r="D27" t="s">
         <v>146</v>
       </c>
@@ -3180,22 +3565,28 @@
       <c r="F27" t="s">
         <v>148</v>
       </c>
-      <c r="G27">
-        <v>0</v>
-      </c>
-      <c r="H27">
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="n">
         <v>0</v>
       </c>
       <c r="I27" t="s">
         <v>149</v>
       </c>
-      <c r="K27">
-        <v>1.0421208260264399E+18</v>
-      </c>
-      <c r="L27">
-        <v>1.0421208260264399E+18</v>
-      </c>
-      <c r="R27">
+      <c r="J27" t="s"/>
+      <c r="K27" t="n">
+        <v>1.04212082602644e+18</v>
+      </c>
+      <c r="L27" t="n">
+        <v>1.04212082602644e+18</v>
+      </c>
+      <c r="M27" t="s"/>
+      <c r="N27" t="s"/>
+      <c r="O27" t="s"/>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="n">
         <v>0</v>
       </c>
       <c r="S27" t="s">
@@ -3204,26 +3595,34 @@
       <c r="T27" t="s">
         <v>114</v>
       </c>
-      <c r="V27">
-        <v>0</v>
-      </c>
-      <c r="W27">
+      <c r="U27" t="s"/>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="n">
         <v>0</v>
       </c>
       <c r="X27" t="s">
         <v>115</v>
       </c>
-      <c r="Z27">
+      <c r="Y27" t="s"/>
+      <c r="Z27" t="n">
         <v>0</v>
       </c>
       <c r="AA27" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
+      <c r="AB27" t="s"/>
+      <c r="AC27" t="s"/>
+      <c r="AD27" t="s"/>
+      <c r="AE27" t="s"/>
+    </row>
+    <row r="28" spans="1:31">
+      <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
       <c r="D28" t="s">
         <v>151</v>
       </c>
@@ -3233,22 +3632,28 @@
       <c r="F28" t="s">
         <v>153</v>
       </c>
-      <c r="G28">
-        <v>0</v>
-      </c>
-      <c r="H28">
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="s">
         <v>154</v>
       </c>
-      <c r="K28">
-        <v>1.04212293392425E+18</v>
-      </c>
-      <c r="L28">
-        <v>1.04212293392425E+18</v>
-      </c>
-      <c r="R28">
+      <c r="J28" t="s"/>
+      <c r="K28" t="n">
+        <v>1.04212293392425e+18</v>
+      </c>
+      <c r="L28" t="n">
+        <v>1.04212293392425e+18</v>
+      </c>
+      <c r="M28" t="s"/>
+      <c r="N28" t="s"/>
+      <c r="O28" t="s"/>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="n">
         <v>0</v>
       </c>
       <c r="S28" t="s">
@@ -3257,26 +3662,34 @@
       <c r="T28" t="s">
         <v>114</v>
       </c>
-      <c r="V28">
-        <v>0</v>
-      </c>
-      <c r="W28">
+      <c r="U28" t="s"/>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="s">
         <v>115</v>
       </c>
-      <c r="Z28">
+      <c r="Y28" t="s"/>
+      <c r="Z28" t="n">
         <v>0</v>
       </c>
       <c r="AA28" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A29" s="1">
+      <c r="AB28" t="s"/>
+      <c r="AC28" t="s"/>
+      <c r="AD28" t="s"/>
+      <c r="AE28" t="s"/>
+    </row>
+    <row r="29" spans="1:31">
+      <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
       <c r="D29" t="s">
         <v>156</v>
       </c>
@@ -3286,22 +3699,28 @@
       <c r="F29" t="s">
         <v>158</v>
       </c>
-      <c r="G29">
-        <v>0</v>
-      </c>
-      <c r="H29">
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="s">
         <v>159</v>
       </c>
-      <c r="K29">
-        <v>1.04213243375011E+18</v>
-      </c>
-      <c r="L29">
-        <v>1.04213243375011E+18</v>
-      </c>
-      <c r="R29">
+      <c r="J29" t="s"/>
+      <c r="K29" t="n">
+        <v>1.04213243375011e+18</v>
+      </c>
+      <c r="L29" t="n">
+        <v>1.04213243375011e+18</v>
+      </c>
+      <c r="M29" t="s"/>
+      <c r="N29" t="s"/>
+      <c r="O29" t="s"/>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="n">
         <v>0</v>
       </c>
       <c r="S29" t="s">
@@ -3310,26 +3729,34 @@
       <c r="T29" t="s">
         <v>35</v>
       </c>
-      <c r="V29">
-        <v>0</v>
-      </c>
-      <c r="W29">
+      <c r="U29" t="s"/>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="n">
         <v>0</v>
       </c>
       <c r="X29" t="s">
         <v>115</v>
       </c>
-      <c r="Z29">
+      <c r="Y29" t="s"/>
+      <c r="Z29" t="n">
         <v>0</v>
       </c>
       <c r="AA29" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A30" s="1">
+      <c r="AB29" t="s"/>
+      <c r="AC29" t="s"/>
+      <c r="AD29" t="s"/>
+      <c r="AE29" t="s"/>
+    </row>
+    <row r="30" spans="1:31">
+      <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
       <c r="D30" t="s">
         <v>161</v>
       </c>
@@ -3339,22 +3766,28 @@
       <c r="F30" t="s">
         <v>162</v>
       </c>
-      <c r="G30">
-        <v>0</v>
-      </c>
-      <c r="H30">
+      <c r="G30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" t="n">
         <v>0</v>
       </c>
       <c r="I30" t="s">
         <v>149</v>
       </c>
-      <c r="K30">
-        <v>1.04214621498736E+18</v>
-      </c>
-      <c r="L30">
-        <v>1.04214621498736E+18</v>
-      </c>
-      <c r="R30">
+      <c r="J30" t="s"/>
+      <c r="K30" t="n">
+        <v>1.04214621498736e+18</v>
+      </c>
+      <c r="L30" t="n">
+        <v>1.04214621498736e+18</v>
+      </c>
+      <c r="M30" t="s"/>
+      <c r="N30" t="s"/>
+      <c r="O30" t="s"/>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="n">
         <v>0</v>
       </c>
       <c r="S30" t="s">
@@ -3363,26 +3796,34 @@
       <c r="T30" t="s">
         <v>35</v>
       </c>
-      <c r="V30">
-        <v>0</v>
-      </c>
-      <c r="W30">
+      <c r="U30" t="s"/>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="n">
         <v>0</v>
       </c>
       <c r="X30" t="s">
         <v>41</v>
       </c>
-      <c r="Z30">
+      <c r="Y30" t="s"/>
+      <c r="Z30" t="n">
         <v>0</v>
       </c>
       <c r="AA30" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A31" s="1">
+      <c r="AB30" t="s"/>
+      <c r="AC30" t="s"/>
+      <c r="AD30" t="s"/>
+      <c r="AE30" t="s"/>
+    </row>
+    <row r="31" spans="1:31">
+      <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
       <c r="D31" t="s">
         <v>164</v>
       </c>
@@ -3392,22 +3833,28 @@
       <c r="F31" t="s">
         <v>166</v>
       </c>
-      <c r="G31">
-        <v>0</v>
-      </c>
-      <c r="H31">
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="s">
         <v>167</v>
       </c>
-      <c r="K31">
-        <v>1.04215457531322E+18</v>
-      </c>
-      <c r="L31">
-        <v>1.04215457531322E+18</v>
-      </c>
-      <c r="R31">
+      <c r="J31" t="s"/>
+      <c r="K31" t="n">
+        <v>1.04215457531322e+18</v>
+      </c>
+      <c r="L31" t="n">
+        <v>1.04215457531322e+18</v>
+      </c>
+      <c r="M31" t="s"/>
+      <c r="N31" t="s"/>
+      <c r="O31" t="s"/>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="n">
         <v>0</v>
       </c>
       <c r="S31" t="s">
@@ -3416,26 +3863,34 @@
       <c r="T31" t="s">
         <v>72</v>
       </c>
-      <c r="V31">
-        <v>0</v>
-      </c>
-      <c r="W31">
+      <c r="U31" t="s"/>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="s">
         <v>41</v>
       </c>
-      <c r="Z31">
+      <c r="Y31" t="s"/>
+      <c r="Z31" t="n">
         <v>0</v>
       </c>
       <c r="AA31" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A32" s="1">
+      <c r="AB31" t="s"/>
+      <c r="AC31" t="s"/>
+      <c r="AD31" t="s"/>
+      <c r="AE31" t="s"/>
+    </row>
+    <row r="32" spans="1:31">
+      <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
       <c r="D32" t="s">
         <v>169</v>
       </c>
@@ -3445,31 +3900,34 @@
       <c r="F32" t="s">
         <v>170</v>
       </c>
-      <c r="G32">
-        <v>0</v>
-      </c>
-      <c r="H32">
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="s">
         <v>171</v>
       </c>
-      <c r="K32">
-        <v>1.04240254485998E+18</v>
-      </c>
-      <c r="L32">
-        <v>1.04240254485998E+18</v>
+      <c r="J32" t="s"/>
+      <c r="K32" t="n">
+        <v>1.04240254485998e+18</v>
+      </c>
+      <c r="L32" t="n">
+        <v>1.04240254485998e+18</v>
       </c>
       <c r="M32" t="s">
         <v>51</v>
       </c>
-      <c r="P32">
-        <v>7.5586998476147904E+17</v>
-      </c>
-      <c r="Q32">
-        <v>7.5586998476147904E+17</v>
-      </c>
-      <c r="R32">
+      <c r="N32" t="s"/>
+      <c r="O32" t="s"/>
+      <c r="P32" t="n">
+        <v>7.55869984761479e+17</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>7.55869984761479e+17</v>
+      </c>
+      <c r="R32" t="n">
         <v>0</v>
       </c>
       <c r="S32" t="s">
@@ -3478,26 +3936,34 @@
       <c r="T32" t="s">
         <v>35</v>
       </c>
-      <c r="V32">
-        <v>0</v>
-      </c>
-      <c r="W32">
+      <c r="U32" t="s"/>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="n">
         <v>0</v>
       </c>
       <c r="X32" t="s">
         <v>108</v>
       </c>
-      <c r="Z32">
+      <c r="Y32" t="s"/>
+      <c r="Z32" t="n">
         <v>0</v>
       </c>
       <c r="AA32" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="33" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A33" s="1">
+      <c r="AB32" t="s"/>
+      <c r="AC32" t="s"/>
+      <c r="AD32" t="s"/>
+      <c r="AE32" t="s"/>
+    </row>
+    <row r="33" spans="1:31">
+      <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
       <c r="D33" t="s">
         <v>173</v>
       </c>
@@ -3507,31 +3973,34 @@
       <c r="F33" t="s">
         <v>175</v>
       </c>
-      <c r="G33">
-        <v>0</v>
-      </c>
-      <c r="H33">
+      <c r="G33" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" t="n">
         <v>0</v>
       </c>
       <c r="I33" t="s">
         <v>176</v>
       </c>
-      <c r="K33">
-        <v>1.04289248238259E+18</v>
-      </c>
-      <c r="L33">
-        <v>1.04289248238259E+18</v>
+      <c r="J33" t="s"/>
+      <c r="K33" t="n">
+        <v>1.04289248238259e+18</v>
+      </c>
+      <c r="L33" t="n">
+        <v>1.04289248238259e+18</v>
       </c>
       <c r="M33" t="s">
         <v>51</v>
       </c>
-      <c r="P33">
-        <v>7.5586998476147904E+17</v>
-      </c>
-      <c r="Q33">
-        <v>7.5586998476147904E+17</v>
-      </c>
-      <c r="R33">
+      <c r="N33" t="s"/>
+      <c r="O33" t="s"/>
+      <c r="P33" t="n">
+        <v>7.55869984761479e+17</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>7.55869984761479e+17</v>
+      </c>
+      <c r="R33" t="n">
         <v>0</v>
       </c>
       <c r="S33" t="s">
@@ -3540,26 +4009,34 @@
       <c r="T33" t="s">
         <v>72</v>
       </c>
-      <c r="V33">
-        <v>0</v>
-      </c>
-      <c r="W33">
+      <c r="U33" t="s"/>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="n">
         <v>0</v>
       </c>
       <c r="X33" t="s">
         <v>115</v>
       </c>
-      <c r="Z33">
+      <c r="Y33" t="s"/>
+      <c r="Z33" t="n">
         <v>0</v>
       </c>
       <c r="AA33" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="34" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A34" s="1">
+      <c r="AB33" t="s"/>
+      <c r="AC33" t="s"/>
+      <c r="AD33" t="s"/>
+      <c r="AE33" t="s"/>
+    </row>
+    <row r="34" spans="1:31">
+      <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
       <c r="D34" t="s">
         <v>178</v>
       </c>
@@ -3569,22 +4046,28 @@
       <c r="F34" t="s">
         <v>180</v>
       </c>
-      <c r="G34">
-        <v>0</v>
-      </c>
-      <c r="H34">
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="s">
         <v>181</v>
       </c>
-      <c r="K34">
-        <v>1.04289511037834E+18</v>
-      </c>
-      <c r="L34">
-        <v>1.04289511037834E+18</v>
-      </c>
-      <c r="R34">
+      <c r="J34" t="s"/>
+      <c r="K34" t="n">
+        <v>1.04289511037834e+18</v>
+      </c>
+      <c r="L34" t="n">
+        <v>1.04289511037834e+18</v>
+      </c>
+      <c r="M34" t="s"/>
+      <c r="N34" t="s"/>
+      <c r="O34" t="s"/>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="n">
         <v>0</v>
       </c>
       <c r="S34" t="s">
@@ -3593,26 +4076,34 @@
       <c r="T34" t="s">
         <v>35</v>
       </c>
-      <c r="V34">
-        <v>0</v>
-      </c>
-      <c r="W34">
+      <c r="U34" t="s"/>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="s">
         <v>115</v>
       </c>
-      <c r="Z34">
+      <c r="Y34" t="s"/>
+      <c r="Z34" t="n">
         <v>0</v>
       </c>
       <c r="AA34" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="35" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A35" s="1">
+      <c r="AB34" t="s"/>
+      <c r="AC34" t="s"/>
+      <c r="AD34" t="s"/>
+      <c r="AE34" t="s"/>
+    </row>
+    <row r="35" spans="1:31">
+      <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
       <c r="D35" t="s">
         <v>183</v>
       </c>
@@ -3622,22 +4113,28 @@
       <c r="F35" t="s">
         <v>185</v>
       </c>
-      <c r="G35">
-        <v>0</v>
-      </c>
-      <c r="H35">
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="s">
         <v>186</v>
       </c>
-      <c r="K35">
-        <v>1.04289591518558E+18</v>
-      </c>
-      <c r="L35">
-        <v>1.04289591518558E+18</v>
-      </c>
-      <c r="R35">
+      <c r="J35" t="s"/>
+      <c r="K35" t="n">
+        <v>1.04289591518558e+18</v>
+      </c>
+      <c r="L35" t="n">
+        <v>1.04289591518558e+18</v>
+      </c>
+      <c r="M35" t="s"/>
+      <c r="N35" t="s"/>
+      <c r="O35" t="s"/>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="n">
         <v>0</v>
       </c>
       <c r="S35" t="s">
@@ -3646,26 +4143,34 @@
       <c r="T35" t="s">
         <v>35</v>
       </c>
-      <c r="V35">
-        <v>0</v>
-      </c>
-      <c r="W35">
+      <c r="U35" t="s"/>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="n">
         <v>0</v>
       </c>
       <c r="X35" t="s">
         <v>115</v>
       </c>
-      <c r="Z35">
+      <c r="Y35" t="s"/>
+      <c r="Z35" t="n">
         <v>0</v>
       </c>
       <c r="AA35" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="36" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A36" s="1">
+      <c r="AB35" t="s"/>
+      <c r="AC35" t="s"/>
+      <c r="AD35" t="s"/>
+      <c r="AE35" t="s"/>
+    </row>
+    <row r="36" spans="1:31">
+      <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
       <c r="D36" t="s">
         <v>188</v>
       </c>
@@ -3675,22 +4180,28 @@
       <c r="F36" t="s">
         <v>190</v>
       </c>
-      <c r="G36">
-        <v>0</v>
-      </c>
-      <c r="H36">
+      <c r="G36" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" t="n">
         <v>0</v>
       </c>
       <c r="I36" t="s">
         <v>191</v>
       </c>
-      <c r="K36">
-        <v>1.04289966468784E+18</v>
-      </c>
-      <c r="L36">
-        <v>1.04289966468784E+18</v>
-      </c>
-      <c r="R36">
+      <c r="J36" t="s"/>
+      <c r="K36" t="n">
+        <v>1.04289966468784e+18</v>
+      </c>
+      <c r="L36" t="n">
+        <v>1.04289966468784e+18</v>
+      </c>
+      <c r="M36" t="s"/>
+      <c r="N36" t="s"/>
+      <c r="O36" t="s"/>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="n">
         <v>0</v>
       </c>
       <c r="S36" t="s">
@@ -3699,26 +4210,34 @@
       <c r="T36" t="s">
         <v>114</v>
       </c>
-      <c r="V36">
-        <v>0</v>
-      </c>
-      <c r="W36">
+      <c r="U36" t="s"/>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="n">
         <v>0</v>
       </c>
       <c r="X36" t="s">
         <v>115</v>
       </c>
-      <c r="Z36">
+      <c r="Y36" t="s"/>
+      <c r="Z36" t="n">
         <v>0</v>
       </c>
       <c r="AA36" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="37" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A37" s="1">
+      <c r="AB36" t="s"/>
+      <c r="AC36" t="s"/>
+      <c r="AD36" t="s"/>
+      <c r="AE36" t="s"/>
+    </row>
+    <row r="37" spans="1:31">
+      <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
       <c r="D37" t="s">
         <v>193</v>
       </c>
@@ -3728,31 +4247,34 @@
       <c r="F37" t="s">
         <v>195</v>
       </c>
-      <c r="G37">
-        <v>0</v>
-      </c>
-      <c r="H37">
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="s">
         <v>196</v>
       </c>
-      <c r="K37">
-        <v>1.04571404957141E+18</v>
-      </c>
-      <c r="L37">
-        <v>1.04571404957141E+18</v>
+      <c r="J37" t="s"/>
+      <c r="K37" t="n">
+        <v>1.04571404957141e+18</v>
+      </c>
+      <c r="L37" t="n">
+        <v>1.04571404957141e+18</v>
       </c>
       <c r="M37" t="s">
         <v>51</v>
       </c>
-      <c r="P37">
-        <v>7.5586998476147904E+17</v>
-      </c>
-      <c r="Q37">
-        <v>7.5586998476147904E+17</v>
-      </c>
-      <c r="R37">
+      <c r="N37" t="s"/>
+      <c r="O37" t="s"/>
+      <c r="P37" t="n">
+        <v>7.55869984761479e+17</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>7.55869984761479e+17</v>
+      </c>
+      <c r="R37" t="n">
         <v>0</v>
       </c>
       <c r="S37" t="s">
@@ -3761,26 +4283,34 @@
       <c r="T37" t="s">
         <v>35</v>
       </c>
-      <c r="V37">
-        <v>0</v>
-      </c>
-      <c r="W37">
+      <c r="U37" t="s"/>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="s">
         <v>41</v>
       </c>
-      <c r="Z37">
+      <c r="Y37" t="s"/>
+      <c r="Z37" t="n">
         <v>0</v>
       </c>
       <c r="AA37" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="38" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A38" s="1">
+      <c r="AB37" t="s"/>
+      <c r="AC37" t="s"/>
+      <c r="AD37" t="s"/>
+      <c r="AE37" t="s"/>
+    </row>
+    <row r="38" spans="1:31">
+      <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
       <c r="D38" t="s">
         <v>198</v>
       </c>
@@ -3790,31 +4320,34 @@
       <c r="F38" t="s">
         <v>200</v>
       </c>
-      <c r="G38">
-        <v>0</v>
-      </c>
-      <c r="H38">
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="s">
         <v>201</v>
       </c>
-      <c r="K38">
-        <v>1.04597094786449E+18</v>
-      </c>
-      <c r="L38">
-        <v>1.04597094786449E+18</v>
+      <c r="J38" t="s"/>
+      <c r="K38" t="n">
+        <v>1.04597094786449e+18</v>
+      </c>
+      <c r="L38" t="n">
+        <v>1.04597094786449e+18</v>
       </c>
       <c r="M38" t="s">
         <v>51</v>
       </c>
-      <c r="P38">
-        <v>7.5586998476147904E+17</v>
-      </c>
-      <c r="Q38">
-        <v>7.5586998476147904E+17</v>
-      </c>
-      <c r="R38">
+      <c r="N38" t="s"/>
+      <c r="O38" t="s"/>
+      <c r="P38" t="n">
+        <v>7.55869984761479e+17</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>7.55869984761479e+17</v>
+      </c>
+      <c r="R38" t="n">
         <v>0</v>
       </c>
       <c r="S38" t="s">
@@ -3823,26 +4356,34 @@
       <c r="T38" t="s">
         <v>202</v>
       </c>
-      <c r="V38">
-        <v>0</v>
-      </c>
-      <c r="W38">
+      <c r="U38" t="s"/>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="n">
         <v>0</v>
       </c>
       <c r="X38" t="s">
         <v>41</v>
       </c>
-      <c r="Z38">
+      <c r="Y38" t="s"/>
+      <c r="Z38" t="n">
         <v>0</v>
       </c>
       <c r="AA38" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="39" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A39" s="1">
+      <c r="AB38" t="s"/>
+      <c r="AC38" t="s"/>
+      <c r="AD38" t="s"/>
+      <c r="AE38" t="s"/>
+    </row>
+    <row r="39" spans="1:31">
+      <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
       <c r="D39" t="s">
         <v>204</v>
       </c>
@@ -3852,22 +4393,28 @@
       <c r="F39" t="s">
         <v>206</v>
       </c>
-      <c r="G39">
-        <v>0</v>
-      </c>
-      <c r="H39">
+      <c r="G39" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" t="n">
         <v>0</v>
       </c>
       <c r="I39" t="s">
         <v>207</v>
       </c>
-      <c r="K39">
-        <v>1.046184223948837E+18</v>
-      </c>
-      <c r="L39">
-        <v>1.046184223948837E+18</v>
-      </c>
-      <c r="R39">
+      <c r="J39" t="s"/>
+      <c r="K39" t="n">
+        <v>1.046184223948837e+18</v>
+      </c>
+      <c r="L39" t="n">
+        <v>1.046184223948837e+18</v>
+      </c>
+      <c r="M39" t="s"/>
+      <c r="N39" t="s"/>
+      <c r="O39" t="s"/>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="n">
         <v>0</v>
       </c>
       <c r="S39" t="s">
@@ -3876,26 +4423,34 @@
       <c r="T39" t="s">
         <v>114</v>
       </c>
-      <c r="V39">
-        <v>0</v>
-      </c>
-      <c r="W39">
+      <c r="U39" t="s"/>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="n">
         <v>0</v>
       </c>
       <c r="X39" t="s">
         <v>115</v>
       </c>
-      <c r="Z39">
+      <c r="Y39" t="s"/>
+      <c r="Z39" t="n">
         <v>0</v>
       </c>
       <c r="AA39" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="40" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A40" s="1">
+      <c r="AB39" t="s"/>
+      <c r="AC39" t="s"/>
+      <c r="AD39" t="s"/>
+      <c r="AE39" t="s"/>
+    </row>
+    <row r="40" spans="1:31">
+      <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
       <c r="D40" t="s">
         <v>209</v>
       </c>
@@ -3905,22 +4460,28 @@
       <c r="F40" t="s">
         <v>211</v>
       </c>
-      <c r="G40">
-        <v>0</v>
-      </c>
-      <c r="H40">
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="s">
         <v>212</v>
       </c>
-      <c r="K40">
-        <v>1.046192436270305E+18</v>
-      </c>
-      <c r="L40">
-        <v>1.046192436270305E+18</v>
-      </c>
-      <c r="R40">
+      <c r="J40" t="s"/>
+      <c r="K40" t="n">
+        <v>1.046192436270305e+18</v>
+      </c>
+      <c r="L40" t="n">
+        <v>1.046192436270305e+18</v>
+      </c>
+      <c r="M40" t="s"/>
+      <c r="N40" t="s"/>
+      <c r="O40" t="s"/>
+      <c r="P40" t="s"/>
+      <c r="Q40" t="s"/>
+      <c r="R40" t="n">
         <v>0</v>
       </c>
       <c r="S40" t="s">
@@ -3929,26 +4490,34 @@
       <c r="T40" t="s">
         <v>35</v>
       </c>
-      <c r="V40">
-        <v>0</v>
-      </c>
-      <c r="W40">
+      <c r="U40" t="s"/>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="s">
         <v>115</v>
       </c>
-      <c r="Z40">
+      <c r="Y40" t="s"/>
+      <c r="Z40" t="n">
         <v>0</v>
       </c>
       <c r="AA40" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="41" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A41" s="1">
+      <c r="AB40" t="s"/>
+      <c r="AC40" t="s"/>
+      <c r="AD40" t="s"/>
+      <c r="AE40" t="s"/>
+    </row>
+    <row r="41" spans="1:31">
+      <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
       <c r="D41" t="s">
         <v>214</v>
       </c>
@@ -3958,22 +4527,28 @@
       <c r="F41" t="s">
         <v>216</v>
       </c>
-      <c r="G41">
-        <v>0</v>
-      </c>
-      <c r="H41">
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="s">
         <v>217</v>
       </c>
-      <c r="K41">
-        <v>1.04619482541711E+18</v>
-      </c>
-      <c r="L41">
-        <v>1.04619482541711E+18</v>
-      </c>
-      <c r="R41">
+      <c r="J41" t="s"/>
+      <c r="K41" t="n">
+        <v>1.04619482541711e+18</v>
+      </c>
+      <c r="L41" t="n">
+        <v>1.04619482541711e+18</v>
+      </c>
+      <c r="M41" t="s"/>
+      <c r="N41" t="s"/>
+      <c r="O41" t="s"/>
+      <c r="P41" t="s"/>
+      <c r="Q41" t="s"/>
+      <c r="R41" t="n">
         <v>0</v>
       </c>
       <c r="S41" t="s">
@@ -3982,26 +4557,34 @@
       <c r="T41" t="s">
         <v>114</v>
       </c>
-      <c r="V41">
-        <v>0</v>
-      </c>
-      <c r="W41">
+      <c r="U41" t="s"/>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="n">
         <v>0</v>
       </c>
       <c r="X41" t="s">
         <v>115</v>
       </c>
-      <c r="Z41">
+      <c r="Y41" t="s"/>
+      <c r="Z41" t="n">
         <v>0</v>
       </c>
       <c r="AA41" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="42" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A42" s="1">
+      <c r="AB41" t="s"/>
+      <c r="AC41" t="s"/>
+      <c r="AD41" t="s"/>
+      <c r="AE41" t="s"/>
+    </row>
+    <row r="42" spans="1:31">
+      <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
       <c r="D42" t="s">
         <v>219</v>
       </c>
@@ -4011,31 +4594,34 @@
       <c r="F42" t="s">
         <v>221</v>
       </c>
-      <c r="G42">
-        <v>0</v>
-      </c>
-      <c r="H42">
+      <c r="G42" t="n">
+        <v>0</v>
+      </c>
+      <c r="H42" t="n">
         <v>0</v>
       </c>
       <c r="I42" t="s">
         <v>222</v>
       </c>
-      <c r="K42">
-        <v>1.04619675086696E+18</v>
-      </c>
-      <c r="L42">
-        <v>1.04619675086696E+18</v>
+      <c r="J42" t="s"/>
+      <c r="K42" t="n">
+        <v>1.04619675086696e+18</v>
+      </c>
+      <c r="L42" t="n">
+        <v>1.04619675086696e+18</v>
       </c>
       <c r="M42" t="s">
         <v>51</v>
       </c>
-      <c r="P42">
-        <v>7.5586998476147917E+17</v>
-      </c>
-      <c r="Q42">
-        <v>7.5586998476147904E+17</v>
-      </c>
-      <c r="R42">
+      <c r="N42" t="s"/>
+      <c r="O42" t="s"/>
+      <c r="P42" t="n">
+        <v>7.558699847614792e+17</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>7.55869984761479e+17</v>
+      </c>
+      <c r="R42" t="n">
         <v>0</v>
       </c>
       <c r="S42" t="s">
@@ -4044,26 +4630,34 @@
       <c r="T42" t="s">
         <v>202</v>
       </c>
-      <c r="V42">
-        <v>0</v>
-      </c>
-      <c r="W42">
+      <c r="U42" t="s"/>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="n">
         <v>0</v>
       </c>
       <c r="X42" t="s">
         <v>41</v>
       </c>
-      <c r="Z42">
+      <c r="Y42" t="s"/>
+      <c r="Z42" t="n">
         <v>0</v>
       </c>
       <c r="AA42" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="43" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A43" s="1">
+      <c r="AB42" t="s"/>
+      <c r="AC42" t="s"/>
+      <c r="AD42" t="s"/>
+      <c r="AE42" t="s"/>
+    </row>
+    <row r="43" spans="1:31">
+      <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
       <c r="D43" t="s">
         <v>224</v>
       </c>
@@ -4073,31 +4667,34 @@
       <c r="F43" t="s">
         <v>226</v>
       </c>
-      <c r="G43">
-        <v>0</v>
-      </c>
-      <c r="H43">
+      <c r="G43" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="s">
         <v>227</v>
       </c>
-      <c r="K43">
-        <v>1.046306995345785E+18</v>
-      </c>
-      <c r="L43">
-        <v>1.046306995345785E+18</v>
+      <c r="J43" t="s"/>
+      <c r="K43" t="n">
+        <v>1.046306995345785e+18</v>
+      </c>
+      <c r="L43" t="n">
+        <v>1.046306995345785e+18</v>
       </c>
       <c r="M43" t="s">
         <v>51</v>
       </c>
-      <c r="P43">
-        <v>7.5586998476147917E+17</v>
-      </c>
-      <c r="Q43">
-        <v>7.5586998476147904E+17</v>
-      </c>
-      <c r="R43">
+      <c r="N43" t="s"/>
+      <c r="O43" t="s"/>
+      <c r="P43" t="n">
+        <v>7.558699847614792e+17</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>7.55869984761479e+17</v>
+      </c>
+      <c r="R43" t="n">
         <v>0</v>
       </c>
       <c r="S43" t="s">
@@ -4106,26 +4703,34 @@
       <c r="T43" t="s">
         <v>114</v>
       </c>
-      <c r="V43">
-        <v>0</v>
-      </c>
-      <c r="W43">
+      <c r="U43" t="s"/>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="s">
         <v>41</v>
       </c>
-      <c r="Z43">
+      <c r="Y43" t="s"/>
+      <c r="Z43" t="n">
         <v>0</v>
       </c>
       <c r="AA43" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="44" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A44" s="1">
+      <c r="AB43" t="s"/>
+      <c r="AC43" t="s"/>
+      <c r="AD43" t="s"/>
+      <c r="AE43" t="s"/>
+    </row>
+    <row r="44" spans="1:31">
+      <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
       <c r="D44" t="s">
         <v>229</v>
       </c>
@@ -4135,31 +4740,34 @@
       <c r="F44" t="s">
         <v>226</v>
       </c>
-      <c r="G44">
-        <v>0</v>
-      </c>
-      <c r="H44">
+      <c r="G44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="s">
         <v>231</v>
       </c>
-      <c r="K44">
-        <v>1.0464650029479651E+18</v>
-      </c>
-      <c r="L44">
-        <v>1.0464650029479651E+18</v>
+      <c r="J44" t="s"/>
+      <c r="K44" t="n">
+        <v>1.046465002947965e+18</v>
+      </c>
+      <c r="L44" t="n">
+        <v>1.046465002947965e+18</v>
       </c>
       <c r="M44" t="s">
         <v>51</v>
       </c>
-      <c r="P44">
-        <v>7.5586998476147917E+17</v>
-      </c>
-      <c r="Q44">
-        <v>7.5586998476147904E+17</v>
-      </c>
-      <c r="R44">
+      <c r="N44" t="s"/>
+      <c r="O44" t="s"/>
+      <c r="P44" t="n">
+        <v>7.558699847614792e+17</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>7.55869984761479e+17</v>
+      </c>
+      <c r="R44" t="n">
         <v>0</v>
       </c>
       <c r="S44" t="s">
@@ -4168,26 +4776,34 @@
       <c r="T44" t="s">
         <v>202</v>
       </c>
-      <c r="V44">
-        <v>0</v>
-      </c>
-      <c r="W44">
+      <c r="U44" t="s"/>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="s">
         <v>41</v>
       </c>
-      <c r="Z44">
+      <c r="Y44" t="s"/>
+      <c r="Z44" t="n">
         <v>0</v>
       </c>
       <c r="AA44" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="45" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A45" s="1">
-        <v>44</v>
-      </c>
+      <c r="AB44" t="s"/>
+      <c r="AC44" t="s"/>
+      <c r="AD44" t="s"/>
+      <c r="AE44" t="s"/>
+    </row>
+    <row r="45" spans="1:31">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
       <c r="D45" t="s">
         <v>233</v>
       </c>
@@ -4197,31 +4813,34 @@
       <c r="F45" t="s">
         <v>234</v>
       </c>
-      <c r="G45">
-        <v>0</v>
-      </c>
-      <c r="H45">
+      <c r="G45" t="n">
+        <v>0</v>
+      </c>
+      <c r="H45" t="n">
         <v>0</v>
       </c>
       <c r="I45" t="s">
         <v>235</v>
       </c>
-      <c r="K45">
-        <v>1.047768386091012E+18</v>
-      </c>
-      <c r="L45">
-        <v>1.047768386091012E+18</v>
+      <c r="J45" t="s"/>
+      <c r="K45" t="n">
+        <v>1.047768386091012e+18</v>
+      </c>
+      <c r="L45" t="n">
+        <v>1.047768386091012e+18</v>
       </c>
       <c r="M45" t="s">
         <v>51</v>
       </c>
-      <c r="P45">
-        <v>7.5586998476147917E+17</v>
-      </c>
-      <c r="Q45">
-        <v>7.5586998476147904E+17</v>
-      </c>
-      <c r="R45">
+      <c r="N45" t="s"/>
+      <c r="O45" t="s"/>
+      <c r="P45" t="n">
+        <v>7.558699847614792e+17</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>7.55869984761479e+17</v>
+      </c>
+      <c r="R45" t="n">
         <v>0</v>
       </c>
       <c r="S45" t="s">
@@ -4230,26 +4849,34 @@
       <c r="T45" t="s">
         <v>72</v>
       </c>
-      <c r="V45">
-        <v>0</v>
-      </c>
-      <c r="W45">
+      <c r="U45" t="s"/>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="n">
         <v>0</v>
       </c>
       <c r="X45" t="s">
         <v>36</v>
       </c>
-      <c r="Z45">
+      <c r="Y45" t="s"/>
+      <c r="Z45" t="n">
         <v>0</v>
       </c>
       <c r="AA45" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="46" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A46" s="1">
-        <v>45</v>
-      </c>
+      <c r="AB45" t="s"/>
+      <c r="AC45" t="s"/>
+      <c r="AD45" t="s"/>
+      <c r="AE45" t="s"/>
+    </row>
+    <row r="46" spans="1:31">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
       <c r="D46" t="s">
         <v>237</v>
       </c>
@@ -4259,31 +4886,34 @@
       <c r="F46" t="s">
         <v>239</v>
       </c>
-      <c r="G46">
-        <v>0</v>
-      </c>
-      <c r="H46">
+      <c r="G46" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="s">
         <v>240</v>
       </c>
-      <c r="K46">
-        <v>1.0477853812473E+18</v>
-      </c>
-      <c r="L46">
-        <v>1.0477853812473E+18</v>
+      <c r="J46" t="s"/>
+      <c r="K46" t="n">
+        <v>1.0477853812473e+18</v>
+      </c>
+      <c r="L46" t="n">
+        <v>1.0477853812473e+18</v>
       </c>
       <c r="M46" t="s">
         <v>51</v>
       </c>
-      <c r="P46">
-        <v>7.5586998476147917E+17</v>
-      </c>
-      <c r="Q46">
-        <v>7.5586998476147904E+17</v>
-      </c>
-      <c r="R46">
+      <c r="N46" t="s"/>
+      <c r="O46" t="s"/>
+      <c r="P46" t="n">
+        <v>7.558699847614792e+17</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>7.55869984761479e+17</v>
+      </c>
+      <c r="R46" t="n">
         <v>0</v>
       </c>
       <c r="S46" t="s">
@@ -4292,26 +4922,34 @@
       <c r="T46" t="s">
         <v>35</v>
       </c>
-      <c r="V46">
-        <v>0</v>
-      </c>
-      <c r="W46">
+      <c r="U46" t="s"/>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="s">
         <v>36</v>
       </c>
-      <c r="Z46">
+      <c r="Y46" t="s"/>
+      <c r="Z46" t="n">
         <v>0</v>
       </c>
       <c r="AA46" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="47" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A47" s="1">
-        <v>46</v>
-      </c>
+      <c r="AB46" t="s"/>
+      <c r="AC46" t="s"/>
+      <c r="AD46" t="s"/>
+      <c r="AE46" t="s"/>
+    </row>
+    <row r="47" spans="1:31">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
       <c r="D47" t="s">
         <v>242</v>
       </c>
@@ -4321,31 +4959,34 @@
       <c r="F47" t="s">
         <v>239</v>
       </c>
-      <c r="G47">
-        <v>0</v>
-      </c>
-      <c r="H47">
+      <c r="G47" t="n">
+        <v>0</v>
+      </c>
+      <c r="H47" t="n">
         <v>0</v>
       </c>
       <c r="I47" t="s">
         <v>244</v>
       </c>
-      <c r="K47">
-        <v>1.047915882775794E+18</v>
-      </c>
-      <c r="L47">
-        <v>1.047915882775794E+18</v>
+      <c r="J47" t="s"/>
+      <c r="K47" t="n">
+        <v>1.047915882775794e+18</v>
+      </c>
+      <c r="L47" t="n">
+        <v>1.047915882775794e+18</v>
       </c>
       <c r="M47" t="s">
         <v>51</v>
       </c>
-      <c r="P47">
-        <v>7.5586998476147917E+17</v>
-      </c>
-      <c r="Q47">
-        <v>7.5586998476147904E+17</v>
-      </c>
-      <c r="R47">
+      <c r="N47" t="s"/>
+      <c r="O47" t="s"/>
+      <c r="P47" t="n">
+        <v>7.558699847614792e+17</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>7.55869984761479e+17</v>
+      </c>
+      <c r="R47" t="n">
         <v>0</v>
       </c>
       <c r="S47" t="s">
@@ -4354,26 +4995,34 @@
       <c r="T47" t="s">
         <v>35</v>
       </c>
-      <c r="V47">
-        <v>0</v>
-      </c>
-      <c r="W47">
+      <c r="U47" t="s"/>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="n">
         <v>0</v>
       </c>
       <c r="X47" t="s">
         <v>41</v>
       </c>
-      <c r="Z47">
+      <c r="Y47" t="s"/>
+      <c r="Z47" t="n">
         <v>0</v>
       </c>
       <c r="AA47" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="48" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A48" s="1">
-        <v>47</v>
-      </c>
+      <c r="AB47" t="s"/>
+      <c r="AC47" t="s"/>
+      <c r="AD47" t="s"/>
+      <c r="AE47" t="s"/>
+    </row>
+    <row r="48" spans="1:31">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
       <c r="D48" t="s">
         <v>246</v>
       </c>
@@ -4383,31 +5032,34 @@
       <c r="F48" t="s">
         <v>239</v>
       </c>
-      <c r="G48">
-        <v>0</v>
-      </c>
-      <c r="H48">
+      <c r="G48" t="n">
+        <v>0</v>
+      </c>
+      <c r="H48" t="n">
         <v>0</v>
       </c>
       <c r="I48" t="s">
         <v>248</v>
       </c>
-      <c r="K48">
-        <v>1.0479246414472029E+18</v>
-      </c>
-      <c r="L48">
-        <v>1.0479246414472029E+18</v>
+      <c r="J48" t="s"/>
+      <c r="K48" t="n">
+        <v>1.047924641447203e+18</v>
+      </c>
+      <c r="L48" t="n">
+        <v>1.047924641447203e+18</v>
       </c>
       <c r="M48" t="s">
         <v>51</v>
       </c>
-      <c r="P48">
-        <v>7.5586998476147917E+17</v>
-      </c>
-      <c r="Q48">
-        <v>7.5586998476147904E+17</v>
-      </c>
-      <c r="R48">
+      <c r="N48" t="s"/>
+      <c r="O48" t="s"/>
+      <c r="P48" t="n">
+        <v>7.558699847614792e+17</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>7.55869984761479e+17</v>
+      </c>
+      <c r="R48" t="n">
         <v>0</v>
       </c>
       <c r="S48" t="s">
@@ -4416,26 +5068,34 @@
       <c r="T48" t="s">
         <v>35</v>
       </c>
-      <c r="V48">
-        <v>0</v>
-      </c>
-      <c r="W48">
+      <c r="U48" t="s"/>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="n">
         <v>0</v>
       </c>
       <c r="X48" t="s">
         <v>41</v>
       </c>
-      <c r="Z48">
+      <c r="Y48" t="s"/>
+      <c r="Z48" t="n">
         <v>0</v>
       </c>
       <c r="AA48" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="49" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A49" s="1">
-        <v>48</v>
-      </c>
+      <c r="AB48" t="s"/>
+      <c r="AC48" t="s"/>
+      <c r="AD48" t="s"/>
+      <c r="AE48" t="s"/>
+    </row>
+    <row r="49" spans="1:31">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
       <c r="D49" t="s">
         <v>250</v>
       </c>
@@ -4445,31 +5105,34 @@
       <c r="F49" t="s">
         <v>239</v>
       </c>
-      <c r="G49">
-        <v>0</v>
-      </c>
-      <c r="H49">
+      <c r="G49" t="n">
+        <v>0</v>
+      </c>
+      <c r="H49" t="n">
         <v>0</v>
       </c>
       <c r="I49" t="s">
         <v>251</v>
       </c>
-      <c r="K49">
-        <v>1.047957515969946E+18</v>
-      </c>
-      <c r="L49">
-        <v>1.047957515969946E+18</v>
+      <c r="J49" t="s"/>
+      <c r="K49" t="n">
+        <v>1.047957515969946e+18</v>
+      </c>
+      <c r="L49" t="n">
+        <v>1.047957515969946e+18</v>
       </c>
       <c r="M49" t="s">
         <v>51</v>
       </c>
-      <c r="P49">
-        <v>7.5586998476147917E+17</v>
-      </c>
-      <c r="Q49">
-        <v>7.5586998476147904E+17</v>
-      </c>
-      <c r="R49">
+      <c r="N49" t="s"/>
+      <c r="O49" t="s"/>
+      <c r="P49" t="n">
+        <v>7.558699847614792e+17</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>7.55869984761479e+17</v>
+      </c>
+      <c r="R49" t="n">
         <v>0</v>
       </c>
       <c r="S49" t="s">
@@ -4478,26 +5141,34 @@
       <c r="T49" t="s">
         <v>35</v>
       </c>
-      <c r="V49">
-        <v>0</v>
-      </c>
-      <c r="W49">
+      <c r="U49" t="s"/>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="n">
         <v>0</v>
       </c>
       <c r="X49" t="s">
         <v>41</v>
       </c>
-      <c r="Z49">
+      <c r="Y49" t="s"/>
+      <c r="Z49" t="n">
         <v>0</v>
       </c>
       <c r="AA49" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="50" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A50" s="1">
-        <v>49</v>
-      </c>
+      <c r="AB49" t="s"/>
+      <c r="AC49" t="s"/>
+      <c r="AD49" t="s"/>
+      <c r="AE49" t="s"/>
+    </row>
+    <row r="50" spans="1:31">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
       <c r="D50" t="s">
         <v>253</v>
       </c>
@@ -4507,22 +5178,28 @@
       <c r="F50" t="s">
         <v>255</v>
       </c>
-      <c r="G50">
-        <v>0</v>
-      </c>
-      <c r="H50">
+      <c r="G50" t="n">
+        <v>0</v>
+      </c>
+      <c r="H50" t="n">
         <v>0</v>
       </c>
       <c r="I50" t="s">
         <v>256</v>
       </c>
-      <c r="K50">
-        <v>1.048668926819951E+18</v>
-      </c>
-      <c r="L50">
-        <v>1.048668926819951E+18</v>
-      </c>
-      <c r="R50">
+      <c r="J50" t="s"/>
+      <c r="K50" t="n">
+        <v>1.048668926819951e+18</v>
+      </c>
+      <c r="L50" t="n">
+        <v>1.048668926819951e+18</v>
+      </c>
+      <c r="M50" t="s"/>
+      <c r="N50" t="s"/>
+      <c r="O50" t="s"/>
+      <c r="P50" t="s"/>
+      <c r="Q50" t="s"/>
+      <c r="R50" t="n">
         <v>0</v>
       </c>
       <c r="S50" t="s">
@@ -4531,26 +5208,34 @@
       <c r="T50" t="s">
         <v>72</v>
       </c>
-      <c r="V50">
-        <v>0</v>
-      </c>
-      <c r="W50">
+      <c r="U50" t="s"/>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="n">
         <v>0</v>
       </c>
       <c r="X50" t="s">
         <v>41</v>
       </c>
-      <c r="Z50">
+      <c r="Y50" t="s"/>
+      <c r="Z50" t="n">
         <v>0</v>
       </c>
       <c r="AA50" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="51" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A51" s="1">
-        <v>50</v>
-      </c>
+      <c r="AB50" t="s"/>
+      <c r="AC50" t="s"/>
+      <c r="AD50" t="s"/>
+      <c r="AE50" t="s"/>
+    </row>
+    <row r="51" spans="1:31">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
       <c r="D51" t="s">
         <v>258</v>
       </c>
@@ -4560,31 +5245,34 @@
       <c r="F51" t="s">
         <v>239</v>
       </c>
-      <c r="G51">
-        <v>0</v>
-      </c>
-      <c r="H51">
+      <c r="G51" t="n">
+        <v>0</v>
+      </c>
+      <c r="H51" t="n">
         <v>0</v>
       </c>
       <c r="I51" t="s">
         <v>260</v>
       </c>
-      <c r="K51">
-        <v>1.05047311539705E+18</v>
-      </c>
-      <c r="L51">
-        <v>1.05047311539705E+18</v>
+      <c r="J51" t="s"/>
+      <c r="K51" t="n">
+        <v>1.05047311539705e+18</v>
+      </c>
+      <c r="L51" t="n">
+        <v>1.05047311539705e+18</v>
       </c>
       <c r="M51" t="s">
         <v>51</v>
       </c>
-      <c r="P51">
-        <v>7.5586998476147917E+17</v>
-      </c>
-      <c r="Q51">
-        <v>7.5586998476147904E+17</v>
-      </c>
-      <c r="R51">
+      <c r="N51" t="s"/>
+      <c r="O51" t="s"/>
+      <c r="P51" t="n">
+        <v>7.558699847614792e+17</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>7.55869984761479e+17</v>
+      </c>
+      <c r="R51" t="n">
         <v>0</v>
       </c>
       <c r="S51" t="s">
@@ -4593,26 +5281,34 @@
       <c r="T51" t="s">
         <v>35</v>
       </c>
-      <c r="V51">
-        <v>0</v>
-      </c>
-      <c r="W51">
+      <c r="U51" t="s"/>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="n">
         <v>0</v>
       </c>
       <c r="X51" t="s">
         <v>108</v>
       </c>
-      <c r="Z51">
+      <c r="Y51" t="s"/>
+      <c r="Z51" t="n">
         <v>0</v>
       </c>
       <c r="AA51" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="52" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A52" s="1">
-        <v>51</v>
-      </c>
+      <c r="AB51" t="s"/>
+      <c r="AC51" t="s"/>
+      <c r="AD51" t="s"/>
+      <c r="AE51" t="s"/>
+    </row>
+    <row r="52" spans="1:31">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
       <c r="D52" t="s">
         <v>262</v>
       </c>
@@ -4622,31 +5318,34 @@
       <c r="F52" t="s">
         <v>239</v>
       </c>
-      <c r="G52">
-        <v>0</v>
-      </c>
-      <c r="H52">
+      <c r="G52" t="n">
+        <v>0</v>
+      </c>
+      <c r="H52" t="n">
         <v>0</v>
       </c>
       <c r="I52" t="s">
         <v>264</v>
       </c>
-      <c r="K52">
-        <v>1.053761249643807E+18</v>
-      </c>
-      <c r="L52">
-        <v>1.053761249643807E+18</v>
+      <c r="J52" t="s"/>
+      <c r="K52" t="n">
+        <v>1.053761249643807e+18</v>
+      </c>
+      <c r="L52" t="n">
+        <v>1.053761249643807e+18</v>
       </c>
       <c r="M52" t="s">
         <v>51</v>
       </c>
-      <c r="P52">
-        <v>7.5586998476147917E+17</v>
-      </c>
-      <c r="Q52">
-        <v>7.5586998476147904E+17</v>
-      </c>
-      <c r="R52">
+      <c r="N52" t="s"/>
+      <c r="O52" t="s"/>
+      <c r="P52" t="n">
+        <v>7.558699847614792e+17</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>7.55869984761479e+17</v>
+      </c>
+      <c r="R52" t="n">
         <v>0</v>
       </c>
       <c r="S52" t="s">
@@ -4655,26 +5354,34 @@
       <c r="T52" t="s">
         <v>35</v>
       </c>
-      <c r="V52">
-        <v>0</v>
-      </c>
-      <c r="W52">
+      <c r="U52" t="s"/>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="n">
         <v>0</v>
       </c>
       <c r="X52" t="s">
         <v>41</v>
       </c>
-      <c r="Z52">
+      <c r="Y52" t="s"/>
+      <c r="Z52" t="n">
         <v>0</v>
       </c>
       <c r="AA52" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="53" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A53" s="1">
-        <v>52</v>
-      </c>
+      <c r="AB52" t="s"/>
+      <c r="AC52" t="s"/>
+      <c r="AD52" t="s"/>
+      <c r="AE52" t="s"/>
+    </row>
+    <row r="53" spans="1:31">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
       <c r="D53" t="s">
         <v>266</v>
       </c>
@@ -4684,31 +5391,34 @@
       <c r="F53" t="s">
         <v>239</v>
       </c>
-      <c r="G53">
-        <v>0</v>
-      </c>
-      <c r="H53">
+      <c r="G53" t="n">
+        <v>0</v>
+      </c>
+      <c r="H53" t="n">
         <v>0</v>
       </c>
       <c r="I53" t="s">
         <v>268</v>
       </c>
-      <c r="K53">
-        <v>1.056642269862859E+18</v>
-      </c>
-      <c r="L53">
-        <v>1.056642269862859E+18</v>
+      <c r="J53" t="s"/>
+      <c r="K53" t="n">
+        <v>1.056642269862859e+18</v>
+      </c>
+      <c r="L53" t="n">
+        <v>1.056642269862859e+18</v>
       </c>
       <c r="M53" t="s">
         <v>51</v>
       </c>
-      <c r="P53">
-        <v>7.5586998476147917E+17</v>
-      </c>
-      <c r="Q53">
-        <v>7.5586998476147904E+17</v>
-      </c>
-      <c r="R53">
+      <c r="N53" t="s"/>
+      <c r="O53" t="s"/>
+      <c r="P53" t="n">
+        <v>7.558699847614792e+17</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>7.55869984761479e+17</v>
+      </c>
+      <c r="R53" t="n">
         <v>0</v>
       </c>
       <c r="S53" t="s">
@@ -4717,26 +5427,34 @@
       <c r="T53" t="s">
         <v>72</v>
       </c>
-      <c r="V53">
-        <v>0</v>
-      </c>
-      <c r="W53">
+      <c r="U53" t="s"/>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="n">
         <v>0</v>
       </c>
       <c r="X53" t="s">
         <v>41</v>
       </c>
-      <c r="Z53">
+      <c r="Y53" t="s"/>
+      <c r="Z53" t="n">
         <v>0</v>
       </c>
       <c r="AA53" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="54" spans="1:27" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="1">
-        <v>53</v>
-      </c>
+      <c r="AB53" t="s"/>
+      <c r="AC53" t="s"/>
+      <c r="AD53" t="s"/>
+      <c r="AE53" t="s"/>
+    </row>
+    <row r="54" spans="1:31">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
       <c r="D54" t="s">
         <v>270</v>
       </c>
@@ -4746,31 +5464,34 @@
       <c r="F54" t="s">
         <v>272</v>
       </c>
-      <c r="G54">
-        <v>0</v>
-      </c>
-      <c r="H54">
-        <v>0</v>
-      </c>
-      <c r="I54" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="K54">
-        <v>1.05692716066397E+18</v>
-      </c>
-      <c r="L54">
-        <v>1.05692716066397E+18</v>
+      <c r="G54" t="n">
+        <v>0</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0</v>
+      </c>
+      <c r="I54" t="s">
+        <v>273</v>
+      </c>
+      <c r="J54" t="s"/>
+      <c r="K54" t="n">
+        <v>1.05692716066397e+18</v>
+      </c>
+      <c r="L54" t="n">
+        <v>1.05692716066397e+18</v>
       </c>
       <c r="M54" t="s">
         <v>51</v>
       </c>
-      <c r="P54">
-        <v>7.5586998476147917E+17</v>
-      </c>
-      <c r="Q54">
-        <v>7.5586998476147904E+17</v>
-      </c>
-      <c r="R54">
+      <c r="N54" t="s"/>
+      <c r="O54" t="s"/>
+      <c r="P54" t="n">
+        <v>7.558699847614792e+17</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>7.55869984761479e+17</v>
+      </c>
+      <c r="R54" t="n">
         <v>0</v>
       </c>
       <c r="S54" t="s">
@@ -4779,28 +5500,36 @@
       <c r="T54" t="s">
         <v>72</v>
       </c>
-      <c r="V54">
-        <v>0</v>
-      </c>
-      <c r="W54">
+      <c r="U54" t="s"/>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="n">
         <v>0</v>
       </c>
       <c r="X54" t="s">
         <v>108</v>
       </c>
-      <c r="Z54">
+      <c r="Y54" t="s"/>
+      <c r="Z54" t="n">
         <v>0</v>
       </c>
       <c r="AA54" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="55" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A55" s="1">
-        <v>54</v>
-      </c>
+        <v>274</v>
+      </c>
+      <c r="AB54" t="s"/>
+      <c r="AC54" t="s"/>
+      <c r="AD54" t="s"/>
+      <c r="AE54" t="s"/>
+    </row>
+    <row r="55" spans="1:31">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
       <c r="D55" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="E55" t="s">
         <v>91</v>
@@ -4808,31 +5537,34 @@
       <c r="F55" t="s">
         <v>239</v>
       </c>
-      <c r="G55">
-        <v>0</v>
-      </c>
-      <c r="H55">
+      <c r="G55" t="n">
+        <v>0</v>
+      </c>
+      <c r="H55" t="n">
         <v>0</v>
       </c>
       <c r="I55" t="s">
-        <v>275</v>
-      </c>
-      <c r="K55">
-        <v>1.0570007253797361E+18</v>
-      </c>
-      <c r="L55">
-        <v>1.0570007253797361E+18</v>
+        <v>276</v>
+      </c>
+      <c r="J55" t="s"/>
+      <c r="K55" t="n">
+        <v>1.057000725379736e+18</v>
+      </c>
+      <c r="L55" t="n">
+        <v>1.057000725379736e+18</v>
       </c>
       <c r="M55" t="s">
         <v>51</v>
       </c>
-      <c r="P55">
-        <v>7.5586998476147917E+17</v>
-      </c>
-      <c r="Q55">
-        <v>7.5586998476147904E+17</v>
-      </c>
-      <c r="R55">
+      <c r="N55" t="s"/>
+      <c r="O55" t="s"/>
+      <c r="P55" t="n">
+        <v>7.558699847614792e+17</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>7.55869984761479e+17</v>
+      </c>
+      <c r="R55" t="n">
         <v>0</v>
       </c>
       <c r="S55" t="s">
@@ -4841,28 +5573,36 @@
       <c r="T55" t="s">
         <v>72</v>
       </c>
-      <c r="V55">
-        <v>0</v>
-      </c>
-      <c r="W55">
+      <c r="U55" t="s"/>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="n">
         <v>0</v>
       </c>
       <c r="X55" t="s">
         <v>108</v>
       </c>
-      <c r="Z55">
+      <c r="Y55" t="s"/>
+      <c r="Z55" t="n">
         <v>0</v>
       </c>
       <c r="AA55" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="56" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A56" s="1">
-        <v>55</v>
-      </c>
+        <v>277</v>
+      </c>
+      <c r="AB55" t="s"/>
+      <c r="AC55" t="s"/>
+      <c r="AD55" t="s"/>
+      <c r="AE55" t="s"/>
+    </row>
+    <row r="56" spans="1:31">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
       <c r="D56" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="E56" t="s">
         <v>271</v>
@@ -4870,31 +5610,34 @@
       <c r="F56" t="s">
         <v>239</v>
       </c>
-      <c r="G56">
-        <v>0</v>
-      </c>
-      <c r="H56">
+      <c r="G56" t="n">
+        <v>0</v>
+      </c>
+      <c r="H56" t="n">
         <v>0</v>
       </c>
       <c r="I56" t="s">
-        <v>278</v>
-      </c>
-      <c r="K56">
-        <v>1.057001202184086E+18</v>
-      </c>
-      <c r="L56">
-        <v>1.057001202184086E+18</v>
+        <v>279</v>
+      </c>
+      <c r="J56" t="s"/>
+      <c r="K56" t="n">
+        <v>1.057001202184086e+18</v>
+      </c>
+      <c r="L56" t="n">
+        <v>1.057001202184086e+18</v>
       </c>
       <c r="M56" t="s">
         <v>51</v>
       </c>
-      <c r="P56">
-        <v>7.5586998476147917E+17</v>
-      </c>
-      <c r="Q56">
-        <v>7.5586998476147904E+17</v>
-      </c>
-      <c r="R56">
+      <c r="N56" t="s"/>
+      <c r="O56" t="s"/>
+      <c r="P56" t="n">
+        <v>7.558699847614792e+17</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>7.55869984761479e+17</v>
+      </c>
+      <c r="R56" t="n">
         <v>0</v>
       </c>
       <c r="S56" t="s">
@@ -4903,28 +5646,36 @@
       <c r="T56" t="s">
         <v>35</v>
       </c>
-      <c r="V56">
-        <v>0</v>
-      </c>
-      <c r="W56">
+      <c r="U56" t="s"/>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="n">
         <v>0</v>
       </c>
       <c r="X56" t="s">
         <v>108</v>
       </c>
-      <c r="Z56">
+      <c r="Y56" t="s"/>
+      <c r="Z56" t="n">
         <v>0</v>
       </c>
       <c r="AA56" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="57" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A57" s="1">
-        <v>56</v>
-      </c>
+        <v>280</v>
+      </c>
+      <c r="AB56" t="s"/>
+      <c r="AC56" t="s"/>
+      <c r="AD56" t="s"/>
+      <c r="AE56" t="s"/>
+    </row>
+    <row r="57" spans="1:31">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
       <c r="D57" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="E57" t="s">
         <v>152</v>
@@ -4932,31 +5683,34 @@
       <c r="F57" t="s">
         <v>239</v>
       </c>
-      <c r="G57">
-        <v>0</v>
-      </c>
-      <c r="H57">
+      <c r="G57" t="n">
+        <v>0</v>
+      </c>
+      <c r="H57" t="n">
         <v>0</v>
       </c>
       <c r="I57" t="s">
-        <v>281</v>
-      </c>
-      <c r="K57">
-        <v>1.057002822968009E+18</v>
-      </c>
-      <c r="L57">
-        <v>1.057002822968009E+18</v>
+        <v>282</v>
+      </c>
+      <c r="J57" t="s"/>
+      <c r="K57" t="n">
+        <v>1.057002822968009e+18</v>
+      </c>
+      <c r="L57" t="n">
+        <v>1.057002822968009e+18</v>
       </c>
       <c r="M57" t="s">
         <v>51</v>
       </c>
-      <c r="P57">
-        <v>7.5586998476147917E+17</v>
-      </c>
-      <c r="Q57">
-        <v>7.5586998476147904E+17</v>
-      </c>
-      <c r="R57">
+      <c r="N57" t="s"/>
+      <c r="O57" t="s"/>
+      <c r="P57" t="n">
+        <v>7.558699847614792e+17</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>7.55869984761479e+17</v>
+      </c>
+      <c r="R57" t="n">
         <v>0</v>
       </c>
       <c r="S57" t="s">
@@ -4965,28 +5719,36 @@
       <c r="T57" t="s">
         <v>72</v>
       </c>
-      <c r="V57">
-        <v>0</v>
-      </c>
-      <c r="W57">
+      <c r="U57" t="s"/>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="n">
         <v>0</v>
       </c>
       <c r="X57" t="s">
         <v>108</v>
       </c>
-      <c r="Z57">
+      <c r="Y57" t="s"/>
+      <c r="Z57" t="n">
         <v>0</v>
       </c>
       <c r="AA57" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="58" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A58" s="1">
-        <v>57</v>
-      </c>
+        <v>283</v>
+      </c>
+      <c r="AB57" t="s"/>
+      <c r="AC57" t="s"/>
+      <c r="AD57" t="s"/>
+      <c r="AE57" t="s"/>
+    </row>
+    <row r="58" spans="1:31">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
       <c r="D58" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="E58" t="s">
         <v>133</v>
@@ -4994,31 +5756,34 @@
       <c r="F58" t="s">
         <v>239</v>
       </c>
-      <c r="G58">
-        <v>0</v>
-      </c>
-      <c r="H58">
+      <c r="G58" t="n">
+        <v>0</v>
+      </c>
+      <c r="H58" t="n">
         <v>0</v>
       </c>
       <c r="I58" t="s">
-        <v>284</v>
-      </c>
-      <c r="K58">
-        <v>1.057004436445377E+18</v>
-      </c>
-      <c r="L58">
-        <v>1.057004436445377E+18</v>
+        <v>285</v>
+      </c>
+      <c r="J58" t="s"/>
+      <c r="K58" t="n">
+        <v>1.057004436445377e+18</v>
+      </c>
+      <c r="L58" t="n">
+        <v>1.057004436445377e+18</v>
       </c>
       <c r="M58" t="s">
         <v>51</v>
       </c>
-      <c r="P58">
-        <v>7.5586998476147917E+17</v>
-      </c>
-      <c r="Q58">
-        <v>7.5586998476147904E+17</v>
-      </c>
-      <c r="R58">
+      <c r="N58" t="s"/>
+      <c r="O58" t="s"/>
+      <c r="P58" t="n">
+        <v>7.558699847614792e+17</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>7.55869984761479e+17</v>
+      </c>
+      <c r="R58" t="n">
         <v>0</v>
       </c>
       <c r="S58" t="s">
@@ -5027,28 +5792,36 @@
       <c r="T58" t="s">
         <v>72</v>
       </c>
-      <c r="V58">
-        <v>0</v>
-      </c>
-      <c r="W58">
+      <c r="U58" t="s"/>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="n">
         <v>0</v>
       </c>
       <c r="X58" t="s">
         <v>108</v>
       </c>
-      <c r="Z58">
+      <c r="Y58" t="s"/>
+      <c r="Z58" t="n">
         <v>0</v>
       </c>
       <c r="AA58" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="59" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A59" s="1">
-        <v>58</v>
-      </c>
+        <v>286</v>
+      </c>
+      <c r="AB58" t="s"/>
+      <c r="AC58" t="s"/>
+      <c r="AD58" t="s"/>
+      <c r="AE58" t="s"/>
+    </row>
+    <row r="59" spans="1:31">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
       <c r="D59" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="E59" t="s">
         <v>152</v>
@@ -5056,31 +5829,34 @@
       <c r="F59" t="s">
         <v>239</v>
       </c>
-      <c r="G59">
-        <v>0</v>
-      </c>
-      <c r="H59">
+      <c r="G59" t="n">
+        <v>0</v>
+      </c>
+      <c r="H59" t="n">
         <v>0</v>
       </c>
       <c r="I59" t="s">
-        <v>287</v>
-      </c>
-      <c r="K59">
-        <v>1.057005767348404E+18</v>
-      </c>
-      <c r="L59">
-        <v>1.057005767348404E+18</v>
+        <v>288</v>
+      </c>
+      <c r="J59" t="s"/>
+      <c r="K59" t="n">
+        <v>1.057005767348404e+18</v>
+      </c>
+      <c r="L59" t="n">
+        <v>1.057005767348404e+18</v>
       </c>
       <c r="M59" t="s">
         <v>51</v>
       </c>
-      <c r="P59">
-        <v>7.5586998476147917E+17</v>
-      </c>
-      <c r="Q59">
-        <v>7.5586998476147904E+17</v>
-      </c>
-      <c r="R59">
+      <c r="N59" t="s"/>
+      <c r="O59" t="s"/>
+      <c r="P59" t="n">
+        <v>7.558699847614792e+17</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>7.55869984761479e+17</v>
+      </c>
+      <c r="R59" t="n">
         <v>0</v>
       </c>
       <c r="S59" t="s">
@@ -5089,60 +5865,71 @@
       <c r="T59" t="s">
         <v>72</v>
       </c>
-      <c r="V59">
-        <v>0</v>
-      </c>
-      <c r="W59">
+      <c r="U59" t="s"/>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="n">
         <v>0</v>
       </c>
       <c r="X59" t="s">
         <v>108</v>
       </c>
-      <c r="Z59">
+      <c r="Y59" t="s"/>
+      <c r="Z59" t="n">
         <v>0</v>
       </c>
       <c r="AA59" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="60" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A60" s="1">
-        <v>59</v>
-      </c>
+        <v>289</v>
+      </c>
+      <c r="AB59" t="s"/>
+      <c r="AC59" t="s"/>
+      <c r="AD59" t="s"/>
+      <c r="AE59" t="s"/>
+    </row>
+    <row r="60" spans="1:31">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
       <c r="D60" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="E60" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="F60" t="s">
         <v>239</v>
       </c>
-      <c r="G60">
-        <v>0</v>
-      </c>
-      <c r="H60">
+      <c r="G60" t="n">
+        <v>0</v>
+      </c>
+      <c r="H60" t="n">
         <v>0</v>
       </c>
       <c r="I60" t="s">
-        <v>291</v>
-      </c>
-      <c r="K60">
-        <v>1.057007594789892E+18</v>
-      </c>
-      <c r="L60">
-        <v>1.057007594789892E+18</v>
+        <v>292</v>
+      </c>
+      <c r="J60" t="s"/>
+      <c r="K60" t="n">
+        <v>1.057007594789892e+18</v>
+      </c>
+      <c r="L60" t="n">
+        <v>1.057007594789892e+18</v>
       </c>
       <c r="M60" t="s">
         <v>51</v>
       </c>
-      <c r="P60">
-        <v>7.5586998476147917E+17</v>
-      </c>
-      <c r="Q60">
-        <v>7.5586998476147904E+17</v>
-      </c>
-      <c r="R60">
+      <c r="N60" t="s"/>
+      <c r="O60" t="s"/>
+      <c r="P60" t="n">
+        <v>7.558699847614792e+17</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>7.55869984761479e+17</v>
+      </c>
+      <c r="R60" t="n">
         <v>0</v>
       </c>
       <c r="S60" t="s">
@@ -5151,60 +5938,71 @@
       <c r="T60" t="s">
         <v>35</v>
       </c>
-      <c r="V60">
-        <v>0</v>
-      </c>
-      <c r="W60">
+      <c r="U60" t="s"/>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="n">
         <v>0</v>
       </c>
       <c r="X60" t="s">
         <v>108</v>
       </c>
-      <c r="Z60">
+      <c r="Y60" t="s"/>
+      <c r="Z60" t="n">
         <v>0</v>
       </c>
       <c r="AA60" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="61" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A61" s="1">
-        <v>60</v>
-      </c>
+        <v>293</v>
+      </c>
+      <c r="AB60" t="s"/>
+      <c r="AC60" t="s"/>
+      <c r="AD60" t="s"/>
+      <c r="AE60" t="s"/>
+    </row>
+    <row r="61" spans="1:31">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
       <c r="D61" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="E61" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="F61" t="s">
         <v>239</v>
       </c>
-      <c r="G61">
-        <v>0</v>
-      </c>
-      <c r="H61">
+      <c r="G61" t="n">
+        <v>0</v>
+      </c>
+      <c r="H61" t="n">
         <v>0</v>
       </c>
       <c r="I61" t="s">
-        <v>295</v>
-      </c>
-      <c r="K61">
-        <v>1.0570090461448561E+18</v>
-      </c>
-      <c r="L61">
-        <v>1.0570090461448561E+18</v>
+        <v>296</v>
+      </c>
+      <c r="J61" t="s"/>
+      <c r="K61" t="n">
+        <v>1.057009046144856e+18</v>
+      </c>
+      <c r="L61" t="n">
+        <v>1.057009046144856e+18</v>
       </c>
       <c r="M61" t="s">
         <v>51</v>
       </c>
-      <c r="P61">
-        <v>7.5586998476147917E+17</v>
-      </c>
-      <c r="Q61">
-        <v>7.5586998476147904E+17</v>
-      </c>
-      <c r="R61">
+      <c r="N61" t="s"/>
+      <c r="O61" t="s"/>
+      <c r="P61" t="n">
+        <v>7.558699847614792e+17</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>7.55869984761479e+17</v>
+      </c>
+      <c r="R61" t="n">
         <v>0</v>
       </c>
       <c r="S61" t="s">
@@ -5213,60 +6011,71 @@
       <c r="T61" t="s">
         <v>35</v>
       </c>
-      <c r="V61">
-        <v>0</v>
-      </c>
-      <c r="W61">
+      <c r="U61" t="s"/>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="n">
         <v>0</v>
       </c>
       <c r="X61" t="s">
         <v>108</v>
       </c>
-      <c r="Z61">
+      <c r="Y61" t="s"/>
+      <c r="Z61" t="n">
         <v>0</v>
       </c>
       <c r="AA61" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="62" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A62" s="1">
-        <v>61</v>
-      </c>
+        <v>297</v>
+      </c>
+      <c r="AB61" t="s"/>
+      <c r="AC61" t="s"/>
+      <c r="AD61" t="s"/>
+      <c r="AE61" t="s"/>
+    </row>
+    <row r="62" spans="1:31">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
       <c r="D62" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="E62" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="F62" t="s">
         <v>239</v>
       </c>
-      <c r="G62">
-        <v>0</v>
-      </c>
-      <c r="H62">
+      <c r="G62" t="n">
+        <v>0</v>
+      </c>
+      <c r="H62" t="n">
         <v>0</v>
       </c>
       <c r="I62" t="s">
-        <v>299</v>
-      </c>
-      <c r="K62">
-        <v>1.057010169282994E+18</v>
-      </c>
-      <c r="L62">
-        <v>1.057010169282994E+18</v>
+        <v>300</v>
+      </c>
+      <c r="J62" t="s"/>
+      <c r="K62" t="n">
+        <v>1.057010169282994e+18</v>
+      </c>
+      <c r="L62" t="n">
+        <v>1.057010169282994e+18</v>
       </c>
       <c r="M62" t="s">
         <v>51</v>
       </c>
-      <c r="P62">
-        <v>7.5586998476147917E+17</v>
-      </c>
-      <c r="Q62">
-        <v>7.5586998476147904E+17</v>
-      </c>
-      <c r="R62">
+      <c r="N62" t="s"/>
+      <c r="O62" t="s"/>
+      <c r="P62" t="n">
+        <v>7.558699847614792e+17</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>7.55869984761479e+17</v>
+      </c>
+      <c r="R62" t="n">
         <v>0</v>
       </c>
       <c r="S62" t="s">
@@ -5275,28 +6084,36 @@
       <c r="T62" t="s">
         <v>72</v>
       </c>
-      <c r="V62">
-        <v>0</v>
-      </c>
-      <c r="W62">
+      <c r="U62" t="s"/>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="n">
         <v>0</v>
       </c>
       <c r="X62" t="s">
         <v>108</v>
       </c>
-      <c r="Z62">
+      <c r="Y62" t="s"/>
+      <c r="Z62" t="n">
         <v>0</v>
       </c>
       <c r="AA62" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="63" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A63" s="1">
-        <v>62</v>
-      </c>
+        <v>301</v>
+      </c>
+      <c r="AB62" t="s"/>
+      <c r="AC62" t="s"/>
+      <c r="AD62" t="s"/>
+      <c r="AE62" t="s"/>
+    </row>
+    <row r="63" spans="1:31">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
       <c r="D63" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E63" t="s">
         <v>165</v>
@@ -5304,31 +6121,34 @@
       <c r="F63" t="s">
         <v>239</v>
       </c>
-      <c r="G63">
-        <v>0</v>
-      </c>
-      <c r="H63">
+      <c r="G63" t="n">
+        <v>0</v>
+      </c>
+      <c r="H63" t="n">
         <v>0</v>
       </c>
       <c r="I63" t="s">
-        <v>302</v>
-      </c>
-      <c r="K63">
-        <v>1.057011804700897E+18</v>
-      </c>
-      <c r="L63">
-        <v>1.057011804700897E+18</v>
+        <v>303</v>
+      </c>
+      <c r="J63" t="s"/>
+      <c r="K63" t="n">
+        <v>1.057011804700897e+18</v>
+      </c>
+      <c r="L63" t="n">
+        <v>1.057011804700897e+18</v>
       </c>
       <c r="M63" t="s">
         <v>51</v>
       </c>
-      <c r="P63">
-        <v>7.5586998476147917E+17</v>
-      </c>
-      <c r="Q63">
-        <v>7.5586998476147904E+17</v>
-      </c>
-      <c r="R63">
+      <c r="N63" t="s"/>
+      <c r="O63" t="s"/>
+      <c r="P63" t="n">
+        <v>7.558699847614792e+17</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>7.55869984761479e+17</v>
+      </c>
+      <c r="R63" t="n">
         <v>0</v>
       </c>
       <c r="S63" t="s">
@@ -5337,60 +6157,71 @@
       <c r="T63" t="s">
         <v>72</v>
       </c>
-      <c r="V63">
-        <v>0</v>
-      </c>
-      <c r="W63">
+      <c r="U63" t="s"/>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="n">
         <v>0</v>
       </c>
       <c r="X63" t="s">
         <v>108</v>
       </c>
-      <c r="Z63">
+      <c r="Y63" t="s"/>
+      <c r="Z63" t="n">
         <v>0</v>
       </c>
       <c r="AA63" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="64" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A64" s="1">
-        <v>63</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="AB63" t="s"/>
+      <c r="AC63" t="s"/>
+      <c r="AD63" t="s"/>
+      <c r="AE63" t="s"/>
+    </row>
+    <row r="64" spans="1:31">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
       <c r="D64" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="E64" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="F64" t="s">
         <v>239</v>
       </c>
-      <c r="G64">
-        <v>0</v>
-      </c>
-      <c r="H64">
+      <c r="G64" t="n">
+        <v>0</v>
+      </c>
+      <c r="H64" t="n">
         <v>0</v>
       </c>
       <c r="I64" t="s">
-        <v>306</v>
-      </c>
-      <c r="K64">
-        <v>1.05983942828435E+18</v>
-      </c>
-      <c r="L64">
-        <v>1.05983942828435E+18</v>
+        <v>307</v>
+      </c>
+      <c r="J64" t="s"/>
+      <c r="K64" t="n">
+        <v>1.05983942828435e+18</v>
+      </c>
+      <c r="L64" t="n">
+        <v>1.05983942828435e+18</v>
       </c>
       <c r="M64" t="s">
         <v>51</v>
       </c>
-      <c r="P64">
-        <v>7.5586998476147917E+17</v>
-      </c>
-      <c r="Q64">
-        <v>7.5586998476147904E+17</v>
-      </c>
-      <c r="R64">
+      <c r="N64" t="s"/>
+      <c r="O64" t="s"/>
+      <c r="P64" t="n">
+        <v>7.558699847614792e+17</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>7.55869984761479e+17</v>
+      </c>
+      <c r="R64" t="n">
         <v>0</v>
       </c>
       <c r="S64" t="s">
@@ -5399,60 +6230,71 @@
       <c r="T64" t="s">
         <v>35</v>
       </c>
-      <c r="V64">
-        <v>0</v>
-      </c>
-      <c r="W64">
+      <c r="U64" t="s"/>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="n">
         <v>0</v>
       </c>
       <c r="X64" t="s">
         <v>108</v>
       </c>
-      <c r="Z64">
+      <c r="Y64" t="s"/>
+      <c r="Z64" t="n">
         <v>0</v>
       </c>
       <c r="AA64" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="65" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A65" s="1">
-        <v>65</v>
-      </c>
+        <v>308</v>
+      </c>
+      <c r="AB64" t="s"/>
+      <c r="AC64" t="s"/>
+      <c r="AD64" t="s"/>
+      <c r="AE64" t="s"/>
+    </row>
+    <row r="65" spans="1:31">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
       <c r="D65" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="E65" t="s">
         <v>225</v>
       </c>
       <c r="F65" t="s">
-        <v>309</v>
-      </c>
-      <c r="G65">
-        <v>0</v>
-      </c>
-      <c r="H65">
+        <v>310</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0</v>
+      </c>
+      <c r="H65" t="n">
         <v>0</v>
       </c>
       <c r="I65" t="s">
-        <v>310</v>
-      </c>
-      <c r="K65">
-        <v>1.060174420914962E+18</v>
-      </c>
-      <c r="L65">
-        <v>1.060174420914962E+18</v>
+        <v>311</v>
+      </c>
+      <c r="J65" t="s"/>
+      <c r="K65" t="n">
+        <v>1.060174420914962e+18</v>
+      </c>
+      <c r="L65" t="n">
+        <v>1.060174420914962e+18</v>
       </c>
       <c r="M65" t="s">
         <v>51</v>
       </c>
-      <c r="P65">
-        <v>7.5586998476147917E+17</v>
-      </c>
-      <c r="Q65">
-        <v>7.5586998476147904E+17</v>
-      </c>
-      <c r="R65">
+      <c r="N65" t="s"/>
+      <c r="O65" t="s"/>
+      <c r="P65" t="n">
+        <v>7.558699847614792e+17</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>7.55869984761479e+17</v>
+      </c>
+      <c r="R65" t="n">
         <v>0</v>
       </c>
       <c r="S65" t="s">
@@ -5461,51 +6303,65 @@
       <c r="T65" t="s">
         <v>114</v>
       </c>
-      <c r="V65">
-        <v>0</v>
-      </c>
-      <c r="W65">
+      <c r="U65" t="s"/>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="n">
         <v>0</v>
       </c>
       <c r="X65" t="s">
         <v>108</v>
       </c>
-      <c r="Z65">
+      <c r="Y65" t="s"/>
+      <c r="Z65" t="n">
         <v>0</v>
       </c>
       <c r="AA65" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="66" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A66" s="1">
-        <v>66</v>
-      </c>
+        <v>312</v>
+      </c>
+      <c r="AB65" t="s"/>
+      <c r="AC65" t="s"/>
+      <c r="AD65" t="s"/>
+      <c r="AE65" t="s"/>
+    </row>
+    <row r="66" spans="1:31">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
       <c r="D66" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="E66" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="F66" t="s">
-        <v>314</v>
-      </c>
-      <c r="G66">
-        <v>0</v>
-      </c>
-      <c r="H66">
+        <v>315</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0</v>
+      </c>
+      <c r="H66" t="n">
         <v>0</v>
       </c>
       <c r="I66" t="s">
-        <v>315</v>
-      </c>
-      <c r="K66">
-        <v>1.0608202602558749E+18</v>
-      </c>
-      <c r="L66" t="s">
         <v>316</v>
       </c>
-      <c r="R66">
+      <c r="J66" t="s"/>
+      <c r="K66" t="n">
+        <v>1.060820260255875e+18</v>
+      </c>
+      <c r="L66" t="n">
+        <v>1.060820260255875e+18</v>
+      </c>
+      <c r="M66" t="s"/>
+      <c r="N66" t="s"/>
+      <c r="O66" t="s"/>
+      <c r="P66" t="s"/>
+      <c r="Q66" t="s"/>
+      <c r="R66" t="n">
         <v>0</v>
       </c>
       <c r="S66" t="s">
@@ -5514,23 +6370,676 @@
       <c r="T66" t="s">
         <v>202</v>
       </c>
-      <c r="V66">
-        <v>0</v>
-      </c>
-      <c r="W66">
+      <c r="U66" t="s"/>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="n">
         <v>0</v>
       </c>
       <c r="X66" t="s">
         <v>36</v>
       </c>
-      <c r="Z66">
+      <c r="Y66" t="s"/>
+      <c r="Z66" t="n">
         <v>0</v>
       </c>
       <c r="AA66" t="s">
         <v>317</v>
       </c>
+      <c r="AB66" t="s"/>
+      <c r="AC66" t="s"/>
+      <c r="AD66" t="s"/>
+      <c r="AE66" t="s"/>
+    </row>
+    <row r="67" spans="1:31">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="s">
+        <v>318</v>
+      </c>
+      <c r="E67" t="s">
+        <v>319</v>
+      </c>
+      <c r="F67" t="s">
+        <v>320</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0</v>
+      </c>
+      <c r="H67" t="n">
+        <v>0</v>
+      </c>
+      <c r="I67" t="s">
+        <v>321</v>
+      </c>
+      <c r="J67" t="s"/>
+      <c r="K67" t="n">
+        <v>1.061595848126226e+18</v>
+      </c>
+      <c r="L67" t="n">
+        <v>1.061595848126226e+18</v>
+      </c>
+      <c r="M67" t="s">
+        <v>51</v>
+      </c>
+      <c r="N67" t="s"/>
+      <c r="O67" t="s"/>
+      <c r="P67" t="n">
+        <v>7.558699847614792e+17</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>7.55869984761479e+17</v>
+      </c>
+      <c r="R67" t="n">
+        <v>0</v>
+      </c>
+      <c r="S67" t="s">
+        <v>34</v>
+      </c>
+      <c r="T67" t="s">
+        <v>35</v>
+      </c>
+      <c r="U67" t="s"/>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="n">
+        <v>0</v>
+      </c>
+      <c r="X67" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y67" t="s"/>
+      <c r="Z67" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA67" t="s">
+        <v>322</v>
+      </c>
+      <c r="AB67" t="s"/>
+      <c r="AC67" t="s"/>
+      <c r="AD67" t="s"/>
+      <c r="AE67" t="s"/>
+    </row>
+    <row r="68" spans="1:31">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="s">
+        <v>323</v>
+      </c>
+      <c r="E68" t="s">
+        <v>210</v>
+      </c>
+      <c r="F68" t="s">
+        <v>320</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0</v>
+      </c>
+      <c r="H68" t="n">
+        <v>0</v>
+      </c>
+      <c r="I68" t="s">
+        <v>324</v>
+      </c>
+      <c r="J68" t="s"/>
+      <c r="K68" t="n">
+        <v>1.061726276493427e+18</v>
+      </c>
+      <c r="L68" t="n">
+        <v>1.061726276493427e+18</v>
+      </c>
+      <c r="M68" t="s">
+        <v>51</v>
+      </c>
+      <c r="N68" t="s"/>
+      <c r="O68" t="s"/>
+      <c r="P68" t="n">
+        <v>7.558699847614792e+17</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>7.55869984761479e+17</v>
+      </c>
+      <c r="R68" t="n">
+        <v>0</v>
+      </c>
+      <c r="S68" t="s">
+        <v>34</v>
+      </c>
+      <c r="T68" t="s">
+        <v>35</v>
+      </c>
+      <c r="U68" t="s"/>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="n">
+        <v>0</v>
+      </c>
+      <c r="X68" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y68" t="s"/>
+      <c r="Z68" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA68" t="s">
+        <v>325</v>
+      </c>
+      <c r="AB68" t="s"/>
+      <c r="AC68" t="s"/>
+      <c r="AD68" t="s"/>
+      <c r="AE68" t="s"/>
+    </row>
+    <row r="69" spans="1:31">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="s">
+        <v>326</v>
+      </c>
+      <c r="E69" t="s">
+        <v>327</v>
+      </c>
+      <c r="F69" t="s">
+        <v>328</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0</v>
+      </c>
+      <c r="H69" t="n">
+        <v>0</v>
+      </c>
+      <c r="I69" t="s">
+        <v>329</v>
+      </c>
+      <c r="J69" t="s"/>
+      <c r="K69" t="n">
+        <v>1.061927717451547e+18</v>
+      </c>
+      <c r="L69" t="n">
+        <v>1.061927717451547e+18</v>
+      </c>
+      <c r="M69" t="s"/>
+      <c r="N69" t="s"/>
+      <c r="O69" t="s"/>
+      <c r="P69" t="s"/>
+      <c r="Q69" t="s"/>
+      <c r="R69" t="n">
+        <v>0</v>
+      </c>
+      <c r="S69" t="s">
+        <v>71</v>
+      </c>
+      <c r="T69" t="s">
+        <v>72</v>
+      </c>
+      <c r="U69" t="s"/>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="n">
+        <v>0</v>
+      </c>
+      <c r="X69" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y69" t="s"/>
+      <c r="Z69" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA69" t="s">
+        <v>330</v>
+      </c>
+      <c r="AB69" t="s"/>
+      <c r="AC69" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD69" t="s"/>
+      <c r="AE69" t="s"/>
+    </row>
+    <row r="70" spans="1:31">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="s">
+        <v>331</v>
+      </c>
+      <c r="E70" t="s">
+        <v>199</v>
+      </c>
+      <c r="F70" t="s">
+        <v>332</v>
+      </c>
+      <c r="G70" t="n">
+        <v>0</v>
+      </c>
+      <c r="H70" t="n">
+        <v>0</v>
+      </c>
+      <c r="I70" t="s">
+        <v>333</v>
+      </c>
+      <c r="J70" t="s"/>
+      <c r="K70" t="n">
+        <v>1.062229378850009e+18</v>
+      </c>
+      <c r="L70" t="s">
+        <v>334</v>
+      </c>
+      <c r="M70" t="s">
+        <v>51</v>
+      </c>
+      <c r="N70" t="s"/>
+      <c r="O70" t="s"/>
+      <c r="P70" t="n">
+        <v>7.558699847614792e+17</v>
+      </c>
+      <c r="Q70" t="s">
+        <v>335</v>
+      </c>
+      <c r="R70" t="n">
+        <v>0</v>
+      </c>
+      <c r="S70" t="s">
+        <v>34</v>
+      </c>
+      <c r="T70" t="s">
+        <v>35</v>
+      </c>
+      <c r="U70" t="s"/>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="n">
+        <v>0</v>
+      </c>
+      <c r="X70" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y70" t="s"/>
+      <c r="Z70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA70" t="s">
+        <v>336</v>
+      </c>
+      <c r="AB70" t="s"/>
+      <c r="AC70" t="s"/>
+      <c r="AD70" t="s"/>
+      <c r="AE70" t="s"/>
+    </row>
+    <row r="71" spans="1:31">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="s">
+        <v>337</v>
+      </c>
+      <c r="E71" t="s">
+        <v>338</v>
+      </c>
+      <c r="F71" t="s">
+        <v>332</v>
+      </c>
+      <c r="G71" t="n">
+        <v>0</v>
+      </c>
+      <c r="H71" t="n">
+        <v>0</v>
+      </c>
+      <c r="I71" t="s">
+        <v>339</v>
+      </c>
+      <c r="J71" t="s"/>
+      <c r="K71" t="n">
+        <v>1.062235894969786e+18</v>
+      </c>
+      <c r="L71" t="s">
+        <v>340</v>
+      </c>
+      <c r="M71" t="s">
+        <v>51</v>
+      </c>
+      <c r="N71" t="s"/>
+      <c r="O71" t="s"/>
+      <c r="P71" t="n">
+        <v>7.558699847614792e+17</v>
+      </c>
+      <c r="Q71" t="s">
+        <v>335</v>
+      </c>
+      <c r="R71" t="n">
+        <v>0</v>
+      </c>
+      <c r="S71" t="s">
+        <v>34</v>
+      </c>
+      <c r="T71" t="s">
+        <v>35</v>
+      </c>
+      <c r="U71" t="s"/>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="n">
+        <v>0</v>
+      </c>
+      <c r="X71" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y71" t="s"/>
+      <c r="Z71" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA71" t="s">
+        <v>341</v>
+      </c>
+      <c r="AB71" t="s"/>
+      <c r="AC71" t="s"/>
+      <c r="AD71" t="s"/>
+      <c r="AE71" t="s"/>
+    </row>
+    <row r="72" spans="1:31">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="s">
+        <v>342</v>
+      </c>
+      <c r="E72" t="s">
+        <v>343</v>
+      </c>
+      <c r="F72" t="s">
+        <v>344</v>
+      </c>
+      <c r="G72" t="n">
+        <v>0</v>
+      </c>
+      <c r="H72" t="n">
+        <v>0</v>
+      </c>
+      <c r="I72" t="s">
+        <v>345</v>
+      </c>
+      <c r="J72" t="s"/>
+      <c r="K72" t="n">
+        <v>1.062636416210031e+18</v>
+      </c>
+      <c r="L72" t="s">
+        <v>346</v>
+      </c>
+      <c r="M72" t="s"/>
+      <c r="N72" t="s"/>
+      <c r="O72" t="s"/>
+      <c r="P72" t="s"/>
+      <c r="Q72" t="s"/>
+      <c r="R72" t="n">
+        <v>0</v>
+      </c>
+      <c r="S72" t="s">
+        <v>71</v>
+      </c>
+      <c r="T72" t="s">
+        <v>72</v>
+      </c>
+      <c r="U72" t="s"/>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="n">
+        <v>0</v>
+      </c>
+      <c r="X72" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y72" t="s"/>
+      <c r="Z72" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA72" t="s">
+        <v>347</v>
+      </c>
+      <c r="AB72" t="s"/>
+      <c r="AC72" t="s"/>
+      <c r="AD72" t="s"/>
+      <c r="AE72" t="s"/>
+    </row>
+    <row r="73" spans="1:31">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="s">
+        <v>348</v>
+      </c>
+      <c r="E73" t="s">
+        <v>349</v>
+      </c>
+      <c r="F73" t="s">
+        <v>332</v>
+      </c>
+      <c r="G73" t="n">
+        <v>0</v>
+      </c>
+      <c r="H73" t="n">
+        <v>0</v>
+      </c>
+      <c r="I73" t="s">
+        <v>350</v>
+      </c>
+      <c r="J73" t="s"/>
+      <c r="K73" t="n">
+        <v>1.063364043090653e+18</v>
+      </c>
+      <c r="L73" t="s">
+        <v>351</v>
+      </c>
+      <c r="M73" t="s">
+        <v>51</v>
+      </c>
+      <c r="N73" t="s"/>
+      <c r="O73" t="s"/>
+      <c r="P73" t="n">
+        <v>7.558699847614792e+17</v>
+      </c>
+      <c r="Q73" t="s">
+        <v>335</v>
+      </c>
+      <c r="R73" t="n">
+        <v>0</v>
+      </c>
+      <c r="S73" t="s">
+        <v>34</v>
+      </c>
+      <c r="T73" t="s">
+        <v>35</v>
+      </c>
+      <c r="U73" t="s"/>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="n">
+        <v>0</v>
+      </c>
+      <c r="X73" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y73" t="s"/>
+      <c r="Z73" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA73" t="s">
+        <v>352</v>
+      </c>
+      <c r="AB73" t="s"/>
+      <c r="AC73" t="s"/>
+      <c r="AD73" t="s"/>
+      <c r="AE73" t="s"/>
+    </row>
+    <row r="74" spans="1:31">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="s">
+        <v>353</v>
+      </c>
+      <c r="E74" t="s">
+        <v>230</v>
+      </c>
+      <c r="F74" t="s">
+        <v>332</v>
+      </c>
+      <c r="G74" t="n">
+        <v>0</v>
+      </c>
+      <c r="H74" t="n">
+        <v>0</v>
+      </c>
+      <c r="I74" t="s">
+        <v>354</v>
+      </c>
+      <c r="J74" t="s"/>
+      <c r="K74" t="n">
+        <v>1.063385364583391e+18</v>
+      </c>
+      <c r="L74" t="s">
+        <v>355</v>
+      </c>
+      <c r="M74" t="s">
+        <v>51</v>
+      </c>
+      <c r="N74" t="s"/>
+      <c r="O74" t="s"/>
+      <c r="P74" t="n">
+        <v>7.558699847614792e+17</v>
+      </c>
+      <c r="Q74" t="s">
+        <v>335</v>
+      </c>
+      <c r="R74" t="n">
+        <v>0</v>
+      </c>
+      <c r="S74" t="s">
+        <v>71</v>
+      </c>
+      <c r="T74" t="s">
+        <v>72</v>
+      </c>
+      <c r="U74" t="s"/>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="n">
+        <v>0</v>
+      </c>
+      <c r="X74" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y74" t="s"/>
+      <c r="Z74" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA74" t="s">
+        <v>356</v>
+      </c>
+      <c r="AB74" t="s"/>
+      <c r="AC74" t="s"/>
+      <c r="AD74" t="s"/>
+      <c r="AE74" t="s"/>
+    </row>
+    <row r="75" spans="1:31">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="s">
+        <v>357</v>
+      </c>
+      <c r="E75" t="s">
+        <v>358</v>
+      </c>
+      <c r="F75" t="s">
+        <v>332</v>
+      </c>
+      <c r="G75" t="n">
+        <v>0</v>
+      </c>
+      <c r="H75" t="n">
+        <v>0</v>
+      </c>
+      <c r="I75" t="s">
+        <v>359</v>
+      </c>
+      <c r="J75" t="s"/>
+      <c r="K75" t="n">
+        <v>1.06339232383549e+18</v>
+      </c>
+      <c r="L75" t="s">
+        <v>360</v>
+      </c>
+      <c r="M75" t="s">
+        <v>51</v>
+      </c>
+      <c r="N75" t="s"/>
+      <c r="O75" t="s"/>
+      <c r="P75" t="n">
+        <v>7.558699847614792e+17</v>
+      </c>
+      <c r="Q75" t="s">
+        <v>335</v>
+      </c>
+      <c r="R75" t="n">
+        <v>0</v>
+      </c>
+      <c r="S75" t="s">
+        <v>34</v>
+      </c>
+      <c r="T75" t="s">
+        <v>35</v>
+      </c>
+      <c r="U75" t="s"/>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="n">
+        <v>0</v>
+      </c>
+      <c r="X75" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y75" t="s"/>
+      <c r="Z75" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA75" t="s">
+        <v>361</v>
+      </c>
+      <c r="AB75" t="s"/>
+      <c r="AC75" t="s"/>
+      <c r="AD75" t="s"/>
+      <c r="AE75" t="s"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/master.xlsx
+++ b/master.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KalcikR\Google Drive\world-control\bot\world-control\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{B7F32B7F-1D62-469E-B5D7-C25679A49674}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -996,9 +1002,6 @@
 [Wien 50b&amp;gt; Media]</t>
   </si>
   <si>
-    <t>@truWorldControl #fakenewz We live in a world full of joy.</t>
-  </si>
-  <si>
     <t>@truWorldControl #fakenewz The Masterplan 
 Teresa March makes Rowan Atkinson the new Brexit Chief Negotiator [LONDON +1 🔵]</t>
   </si>
@@ -1270,13 +1273,16 @@
   </si>
   <si>
     <t>{'id': 3929637676, 'id_str': '3929637676', 'name': 'Robert Kalcik', 'screen_name': 'RKalcik', 'location': 'Vienna, Austria', 'description': 'Economist interested in Machine Learning and Open data | currently at \n@AITtomorrow2day Innovation Systems', 'url': None, 'entities': {'description': {'urls': []}}, 'protected': False, 'followers_count': 149, 'friends_count': 841, 'listed_count': 5, 'created_at': 'Sun Oct 11 17:21:21 +0000 2015', 'favourites_count': 851, 'utc_offset': None, 'time_zone': None, 'geo_enabled': False, 'verified': False, 'statuses_count': 234, 'lang': 'en', 'contributors_enabled': False, 'is_translator': False, 'is_translation_enabled': False, 'profile_background_color': '000000', 'profile_background_image_url': 'http://abs.twimg.com/images/themes/theme1/bg.png', 'profile_background_image_url_https': 'https://abs.twimg.com/images/themes/theme1/bg.png', 'profile_background_tile': False, 'profile_image_url': 'http://pbs.twimg.com/profile_images/853910214365650944/Vzuyj84x_normal.jpg', 'profile_image_url_https': 'https://pbs.twimg.com/profile_images/853910214365650944/Vzuyj84x_normal.jpg', 'profile_banner_url': 'https://pbs.twimg.com/profile_banners/3929637676/1476032246', 'profile_link_color': '1B95E0', 'profile_sidebar_border_color': '000000', 'profile_sidebar_fill_color': '000000', 'profile_text_color': '000000', 'profile_use_background_image': False, 'has_extended_profile': False, 'default_profile': False, 'default_profile_image': False, 'following': True, 'follow_request_sent': False, 'notifications': False, 'translator_type': 'none'}</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> @truWorldControl #fakenewz We live in a world full of joy. [HAPPINESS + 1 FOR EVERYONE]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1339,6 +1345,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1385,7 +1399,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1417,9 +1431,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1451,6 +1483,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1626,14 +1676,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AE76"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="I76" sqref="I76"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:31">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1725,7 +1777,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:31">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1748,19 +1800,19 @@
         <v>198</v>
       </c>
       <c r="K2">
-        <v>1.03924e+18</v>
+        <v>1.03924E+18</v>
       </c>
       <c r="L2">
-        <v>1.03924e+18</v>
+        <v>1.03924E+18</v>
       </c>
       <c r="R2">
         <v>0</v>
       </c>
       <c r="S2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="T2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="V2">
         <v>0</v>
@@ -1769,19 +1821,19 @@
         <v>0</v>
       </c>
       <c r="X2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="Z2">
         <v>0</v>
       </c>
       <c r="AA2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="AD2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:31">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1801,19 +1853,19 @@
         <v>199</v>
       </c>
       <c r="K3">
-        <v>1.03765e+18</v>
+        <v>1.03765E+18</v>
       </c>
       <c r="L3">
-        <v>1.03765e+18</v>
+        <v>1.03765E+18</v>
       </c>
       <c r="R3">
         <v>0</v>
       </c>
       <c r="S3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="T3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="V3">
         <v>0</v>
@@ -1822,7 +1874,7 @@
         <v>0</v>
       </c>
       <c r="X3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="Y3" t="s">
         <v>199</v>
@@ -1831,13 +1883,13 @@
         <v>0</v>
       </c>
       <c r="AA3" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="AD3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:31">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1857,19 +1909,19 @@
         <v>200</v>
       </c>
       <c r="K4">
-        <v>1.0348e+18</v>
+        <v>1.0348E+18</v>
       </c>
       <c r="L4">
-        <v>1.0348e+18</v>
+        <v>1.0348E+18</v>
       </c>
       <c r="R4">
         <v>0</v>
       </c>
       <c r="S4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="T4" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="V4">
         <v>0</v>
@@ -1878,22 +1930,22 @@
         <v>0</v>
       </c>
       <c r="X4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="Y4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="Z4">
         <v>0</v>
       </c>
       <c r="AA4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="AD4">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:31">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1913,28 +1965,28 @@
         <v>201</v>
       </c>
       <c r="K5">
-        <v>1.03266e+18</v>
+        <v>1.03266E+18</v>
       </c>
       <c r="L5">
-        <v>1.03266e+18</v>
+        <v>1.03266E+18</v>
       </c>
       <c r="M5" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="P5">
-        <v>7.56e+17</v>
+        <v>7.56E+17</v>
       </c>
       <c r="Q5">
-        <v>7.5587e+17</v>
+        <v>7.5587E+17</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="T5" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="V5">
         <v>0</v>
@@ -1943,7 +1995,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="Y5" t="s">
         <v>201</v>
@@ -1952,13 +2004,13 @@
         <v>0</v>
       </c>
       <c r="AA5" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="AD5">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:31">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1978,28 +2030,28 @@
         <v>202</v>
       </c>
       <c r="K6">
-        <v>1.03266e+18</v>
+        <v>1.03266E+18</v>
       </c>
       <c r="L6">
-        <v>1.03266e+18</v>
+        <v>1.03266E+18</v>
       </c>
       <c r="M6" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="P6">
-        <v>7.56e+17</v>
+        <v>7.56E+17</v>
       </c>
       <c r="Q6">
-        <v>7.5587e+17</v>
+        <v>7.5587E+17</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
       <c r="S6" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="T6" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="V6">
         <v>0</v>
@@ -2008,7 +2060,7 @@
         <v>0</v>
       </c>
       <c r="X6" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="Y6" t="s">
         <v>202</v>
@@ -2017,13 +2069,13 @@
         <v>0</v>
       </c>
       <c r="AA6" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="AD6">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:31">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -2043,28 +2095,28 @@
         <v>203</v>
       </c>
       <c r="K7">
-        <v>1.03266e+18</v>
+        <v>1.03266E+18</v>
       </c>
       <c r="L7">
-        <v>1.03266e+18</v>
+        <v>1.03266E+18</v>
       </c>
       <c r="M7" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="P7">
-        <v>7.56e+17</v>
+        <v>7.56E+17</v>
       </c>
       <c r="Q7">
-        <v>7.5587e+17</v>
+        <v>7.5587E+17</v>
       </c>
       <c r="R7">
         <v>0</v>
       </c>
       <c r="S7" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="T7" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="V7">
         <v>0</v>
@@ -2073,7 +2125,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="Y7" t="s">
         <v>203</v>
@@ -2082,13 +2134,13 @@
         <v>0</v>
       </c>
       <c r="AA7" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="AD7">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:31">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -2108,28 +2160,28 @@
         <v>204</v>
       </c>
       <c r="K8">
-        <v>1.03265e+18</v>
+        <v>1.03265E+18</v>
       </c>
       <c r="L8">
-        <v>1.03265e+18</v>
+        <v>1.03265E+18</v>
       </c>
       <c r="M8" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="P8">
-        <v>7.56e+17</v>
+        <v>7.56E+17</v>
       </c>
       <c r="Q8">
-        <v>7.5587e+17</v>
+        <v>7.5587E+17</v>
       </c>
       <c r="R8">
         <v>0</v>
       </c>
       <c r="S8" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="T8" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="V8">
         <v>0</v>
@@ -2138,7 +2190,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="Y8" t="s">
         <v>204</v>
@@ -2147,13 +2199,13 @@
         <v>0</v>
       </c>
       <c r="AA8" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="AD8">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:31">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -2173,28 +2225,28 @@
         <v>205</v>
       </c>
       <c r="K9">
-        <v>1.03265e+18</v>
+        <v>1.03265E+18</v>
       </c>
       <c r="L9">
-        <v>1.03265e+18</v>
+        <v>1.03265E+18</v>
       </c>
       <c r="M9" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="P9">
-        <v>7.56e+17</v>
+        <v>7.56E+17</v>
       </c>
       <c r="Q9">
-        <v>7.5587e+17</v>
+        <v>7.5587E+17</v>
       </c>
       <c r="R9">
         <v>0</v>
       </c>
       <c r="S9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="T9" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="V9">
         <v>0</v>
@@ -2203,7 +2255,7 @@
         <v>0</v>
       </c>
       <c r="X9" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="Y9" t="s">
         <v>205</v>
@@ -2212,13 +2264,13 @@
         <v>0</v>
       </c>
       <c r="AA9" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="AD9">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:31">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -2238,28 +2290,28 @@
         <v>206</v>
       </c>
       <c r="K10">
-        <v>1.03265e+18</v>
+        <v>1.03265E+18</v>
       </c>
       <c r="L10">
-        <v>1.03265e+18</v>
+        <v>1.03265E+18</v>
       </c>
       <c r="M10" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="P10">
-        <v>7.56e+17</v>
+        <v>7.56E+17</v>
       </c>
       <c r="Q10">
-        <v>7.5587e+17</v>
+        <v>7.5587E+17</v>
       </c>
       <c r="R10">
         <v>0</v>
       </c>
       <c r="S10" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="T10" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="V10">
         <v>0</v>
@@ -2268,7 +2320,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="Y10" t="s">
         <v>206</v>
@@ -2277,13 +2329,13 @@
         <v>0</v>
       </c>
       <c r="AA10" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="AD10">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:31">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -2303,28 +2355,28 @@
         <v>207</v>
       </c>
       <c r="K11">
-        <v>1.03237e+18</v>
+        <v>1.03237E+18</v>
       </c>
       <c r="L11">
-        <v>1.03237e+18</v>
+        <v>1.03237E+18</v>
       </c>
       <c r="M11" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="P11">
-        <v>7.56e+17</v>
+        <v>7.56E+17</v>
       </c>
       <c r="Q11">
-        <v>7.5587e+17</v>
+        <v>7.5587E+17</v>
       </c>
       <c r="R11">
         <v>0</v>
       </c>
       <c r="S11" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="T11" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="V11">
         <v>0</v>
@@ -2333,7 +2385,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="Y11" t="s">
         <v>207</v>
@@ -2342,13 +2394,13 @@
         <v>0</v>
       </c>
       <c r="AA11" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="AD11">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:31">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -2368,28 +2420,28 @@
         <v>208</v>
       </c>
       <c r="K12">
-        <v>1.03151e+18</v>
+        <v>1.03151E+18</v>
       </c>
       <c r="L12">
-        <v>1.03151e+18</v>
+        <v>1.03151E+18</v>
       </c>
       <c r="M12" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="P12">
-        <v>7.56e+17</v>
+        <v>7.56E+17</v>
       </c>
       <c r="Q12">
-        <v>7.5587e+17</v>
+        <v>7.5587E+17</v>
       </c>
       <c r="R12">
         <v>0</v>
       </c>
       <c r="S12" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="T12" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="V12">
         <v>0</v>
@@ -2398,7 +2450,7 @@
         <v>0</v>
       </c>
       <c r="X12" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="Y12" t="s">
         <v>208</v>
@@ -2407,13 +2459,13 @@
         <v>0</v>
       </c>
       <c r="AA12" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="AD12">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:31">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -2433,28 +2485,28 @@
         <v>209</v>
       </c>
       <c r="K13">
-        <v>1.02535e+18</v>
+        <v>1.02535E+18</v>
       </c>
       <c r="L13">
-        <v>1.02535e+18</v>
+        <v>1.02535E+18</v>
       </c>
       <c r="M13" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="P13">
-        <v>7.56e+17</v>
+        <v>7.56E+17</v>
       </c>
       <c r="Q13">
-        <v>7.5587e+17</v>
+        <v>7.5587E+17</v>
       </c>
       <c r="R13">
         <v>0</v>
       </c>
       <c r="S13" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="T13" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="V13">
         <v>0</v>
@@ -2463,7 +2515,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="Y13" t="s">
         <v>209</v>
@@ -2472,13 +2524,13 @@
         <v>0</v>
       </c>
       <c r="AA13" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="AD13">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:31">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -2498,28 +2550,28 @@
         <v>210</v>
       </c>
       <c r="K14">
-        <v>1.02534e+18</v>
+        <v>1.02534E+18</v>
       </c>
       <c r="L14">
-        <v>1.02534e+18</v>
+        <v>1.02534E+18</v>
       </c>
       <c r="M14" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="P14">
-        <v>7.56e+17</v>
+        <v>7.56E+17</v>
       </c>
       <c r="Q14">
-        <v>7.5587e+17</v>
+        <v>7.5587E+17</v>
       </c>
       <c r="R14">
         <v>0</v>
       </c>
       <c r="S14" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="T14" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="V14">
         <v>0</v>
@@ -2528,7 +2580,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="Y14" t="s">
         <v>210</v>
@@ -2537,13 +2589,13 @@
         <v>0</v>
       </c>
       <c r="AA14" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="AD14">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:31">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -2566,19 +2618,19 @@
         <v>211</v>
       </c>
       <c r="K15">
-        <v>1.03925889804846e+18</v>
+        <v>1.03925889804846E+18</v>
       </c>
       <c r="L15">
-        <v>1.03925889804846e+18</v>
+        <v>1.03925889804846E+18</v>
       </c>
       <c r="R15">
         <v>0</v>
       </c>
       <c r="S15" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="T15" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="V15">
         <v>0</v>
@@ -2587,19 +2639,19 @@
         <v>0</v>
       </c>
       <c r="X15" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="Z15">
         <v>0</v>
       </c>
       <c r="AA15" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="AD15">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:31">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -2622,28 +2674,28 @@
         <v>212</v>
       </c>
       <c r="K16">
-        <v>1.03927026045154e+18</v>
+        <v>1.03927026045154E+18</v>
       </c>
       <c r="L16">
-        <v>1.03927026045154e+18</v>
+        <v>1.03927026045154E+18</v>
       </c>
       <c r="M16" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="P16">
-        <v>7.55869984761479e+17</v>
+        <v>7.5586998476147904E+17</v>
       </c>
       <c r="Q16">
-        <v>7.55869984761479e+17</v>
+        <v>7.5586998476147904E+17</v>
       </c>
       <c r="R16">
         <v>0</v>
       </c>
       <c r="S16" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="T16" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="V16">
         <v>0</v>
@@ -2652,19 +2704,19 @@
         <v>0</v>
       </c>
       <c r="X16" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="Z16">
         <v>0</v>
       </c>
       <c r="AA16" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="AD16">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:30">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -2687,19 +2739,19 @@
         <v>213</v>
       </c>
       <c r="K17">
-        <v>1.03939789674197e+18</v>
+        <v>1.03939789674197E+18</v>
       </c>
       <c r="L17">
-        <v>1.03939789674197e+18</v>
+        <v>1.03939789674197E+18</v>
       </c>
       <c r="R17">
         <v>0</v>
       </c>
       <c r="S17" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="T17" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="V17">
         <v>0</v>
@@ -2708,19 +2760,19 @@
         <v>0</v>
       </c>
       <c r="X17" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="Z17">
         <v>0</v>
       </c>
       <c r="AA17" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="AD17">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:30">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -2743,19 +2795,19 @@
         <v>214</v>
       </c>
       <c r="K18">
-        <v>1.03939936397241e+18</v>
+        <v>1.03939936397241E+18</v>
       </c>
       <c r="L18">
-        <v>1.03939936397241e+18</v>
+        <v>1.03939936397241E+18</v>
       </c>
       <c r="R18">
         <v>0</v>
       </c>
       <c r="S18" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="T18" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="V18">
         <v>0</v>
@@ -2764,19 +2816,19 @@
         <v>0</v>
       </c>
       <c r="X18" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="Z18">
         <v>0</v>
       </c>
       <c r="AA18" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="AD18">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:30">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -2799,28 +2851,28 @@
         <v>215</v>
       </c>
       <c r="K19">
-        <v>1.04052917187161e+18</v>
+        <v>1.04052917187161E+18</v>
       </c>
       <c r="L19">
-        <v>1.04052917187161e+18</v>
+        <v>1.04052917187161E+18</v>
       </c>
       <c r="M19" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="P19">
-        <v>7.55869984761479e+17</v>
+        <v>7.5586998476147904E+17</v>
       </c>
       <c r="Q19">
-        <v>7.55869984761479e+17</v>
+        <v>7.5586998476147904E+17</v>
       </c>
       <c r="R19">
         <v>0</v>
       </c>
       <c r="S19" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="T19" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="V19">
         <v>0</v>
@@ -2829,19 +2881,19 @@
         <v>0</v>
       </c>
       <c r="X19" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="Z19">
         <v>0</v>
       </c>
       <c r="AA19" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="AD19">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:30">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -2864,28 +2916,28 @@
         <v>216</v>
       </c>
       <c r="K20">
-        <v>1.04091407378382e+18</v>
+        <v>1.04091407378382E+18</v>
       </c>
       <c r="L20">
-        <v>1.04091407378382e+18</v>
+        <v>1.04091407378382E+18</v>
       </c>
       <c r="M20" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="P20">
-        <v>7.55869984761479e+17</v>
+        <v>7.5586998476147904E+17</v>
       </c>
       <c r="Q20">
-        <v>7.55869984761479e+17</v>
+        <v>7.5586998476147904E+17</v>
       </c>
       <c r="R20">
         <v>0</v>
       </c>
       <c r="S20" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="T20" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="V20">
         <v>0</v>
@@ -2894,19 +2946,19 @@
         <v>0</v>
       </c>
       <c r="X20" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Z20">
         <v>0</v>
       </c>
       <c r="AA20" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="AD20">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:30">
+    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -2929,28 +2981,28 @@
         <v>217</v>
       </c>
       <c r="K21">
-        <v>1.04095503228649e+18</v>
+        <v>1.04095503228649E+18</v>
       </c>
       <c r="L21">
-        <v>1.04095503228649e+18</v>
+        <v>1.04095503228649E+18</v>
       </c>
       <c r="M21" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="P21">
-        <v>7.55869984761479e+17</v>
+        <v>7.5586998476147904E+17</v>
       </c>
       <c r="Q21">
-        <v>7.55869984761479e+17</v>
+        <v>7.5586998476147904E+17</v>
       </c>
       <c r="R21">
         <v>0</v>
       </c>
       <c r="S21" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="T21" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="V21">
         <v>0</v>
@@ -2959,19 +3011,19 @@
         <v>0</v>
       </c>
       <c r="X21" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Z21">
         <v>0</v>
       </c>
       <c r="AA21" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AD21">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:30">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -2994,28 +3046,28 @@
         <v>218</v>
       </c>
       <c r="K22">
-        <v>1.04097568175108e+18</v>
+        <v>1.0409756817510799E+18</v>
       </c>
       <c r="L22">
-        <v>1.04097568175108e+18</v>
+        <v>1.0409756817510799E+18</v>
       </c>
       <c r="M22" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="P22">
-        <v>7.55869984761479e+17</v>
+        <v>7.5586998476147904E+17</v>
       </c>
       <c r="Q22">
-        <v>7.55869984761479e+17</v>
+        <v>7.5586998476147904E+17</v>
       </c>
       <c r="R22">
         <v>0</v>
       </c>
       <c r="S22" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="T22" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="V22">
         <v>0</v>
@@ -3024,16 +3076,16 @@
         <v>0</v>
       </c>
       <c r="X22" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Z22">
         <v>0</v>
       </c>
       <c r="AA22" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="23" spans="1:30">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -3056,28 +3108,28 @@
         <v>219</v>
       </c>
       <c r="K23">
-        <v>1.04099669398517e+18</v>
+        <v>1.04099669398517E+18</v>
       </c>
       <c r="L23">
-        <v>1.04099669398517e+18</v>
+        <v>1.04099669398517E+18</v>
       </c>
       <c r="M23" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="P23">
-        <v>7.55869984761479e+17</v>
+        <v>7.5586998476147904E+17</v>
       </c>
       <c r="Q23">
-        <v>7.55869984761479e+17</v>
+        <v>7.5586998476147904E+17</v>
       </c>
       <c r="R23">
         <v>0</v>
       </c>
       <c r="S23" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="T23" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="V23">
         <v>0</v>
@@ -3086,16 +3138,16 @@
         <v>0</v>
       </c>
       <c r="X23" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Z23">
         <v>0</v>
       </c>
       <c r="AA23" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="24" spans="1:30">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -3118,28 +3170,28 @@
         <v>220</v>
       </c>
       <c r="K24">
-        <v>1.04099943330603e+18</v>
+        <v>1.04099943330603E+18</v>
       </c>
       <c r="L24">
-        <v>1.04099943330603e+18</v>
+        <v>1.04099943330603E+18</v>
       </c>
       <c r="M24" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="P24">
-        <v>7.55869984761479e+17</v>
+        <v>7.5586998476147904E+17</v>
       </c>
       <c r="Q24">
-        <v>7.55869984761479e+17</v>
+        <v>7.5586998476147904E+17</v>
       </c>
       <c r="R24">
         <v>0</v>
       </c>
       <c r="S24" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="T24" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="V24">
         <v>0</v>
@@ -3148,16 +3200,16 @@
         <v>0</v>
       </c>
       <c r="X24" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Z24">
         <v>0</v>
       </c>
       <c r="AA24" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="25" spans="1:30">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -3180,28 +3232,28 @@
         <v>221</v>
       </c>
       <c r="K25">
-        <v>1.04130316927026e+18</v>
+        <v>1.04130316927026E+18</v>
       </c>
       <c r="L25">
-        <v>1.04130316927026e+18</v>
+        <v>1.04130316927026E+18</v>
       </c>
       <c r="M25" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="P25">
-        <v>7.55869984761479e+17</v>
+        <v>7.5586998476147904E+17</v>
       </c>
       <c r="Q25">
-        <v>7.55869984761479e+17</v>
+        <v>7.5586998476147904E+17</v>
       </c>
       <c r="R25">
         <v>0</v>
       </c>
       <c r="S25" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="T25" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="V25">
         <v>0</v>
@@ -3210,16 +3262,16 @@
         <v>0</v>
       </c>
       <c r="X25" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Z25">
         <v>0</v>
       </c>
       <c r="AA25" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="26" spans="1:30">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -3242,28 +3294,28 @@
         <v>222</v>
       </c>
       <c r="K26">
-        <v>1.04161890747859e+18</v>
+        <v>1.04161890747859E+18</v>
       </c>
       <c r="L26">
-        <v>1.04161890747859e+18</v>
+        <v>1.04161890747859E+18</v>
       </c>
       <c r="M26" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="P26">
-        <v>7.55869984761479e+17</v>
+        <v>7.5586998476147904E+17</v>
       </c>
       <c r="Q26">
-        <v>7.55869984761479e+17</v>
+        <v>7.5586998476147904E+17</v>
       </c>
       <c r="R26">
         <v>0</v>
       </c>
       <c r="S26" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="T26" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="V26">
         <v>0</v>
@@ -3272,16 +3324,16 @@
         <v>0</v>
       </c>
       <c r="X26" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="Z26">
         <v>0</v>
       </c>
       <c r="AA26" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="27" spans="1:30">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="27" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -3304,19 +3356,19 @@
         <v>223</v>
       </c>
       <c r="K27">
-        <v>1.04212082602644e+18</v>
+        <v>1.0421208260264399E+18</v>
       </c>
       <c r="L27">
-        <v>1.04212082602644e+18</v>
+        <v>1.0421208260264399E+18</v>
       </c>
       <c r="R27">
         <v>0</v>
       </c>
       <c r="S27" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="T27" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="V27">
         <v>0</v>
@@ -3325,16 +3377,16 @@
         <v>0</v>
       </c>
       <c r="X27" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Z27">
         <v>0</v>
       </c>
       <c r="AA27" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="28" spans="1:30">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -3357,19 +3409,19 @@
         <v>224</v>
       </c>
       <c r="K28">
-        <v>1.04212293392425e+18</v>
+        <v>1.04212293392425E+18</v>
       </c>
       <c r="L28">
-        <v>1.04212293392425e+18</v>
+        <v>1.04212293392425E+18</v>
       </c>
       <c r="R28">
         <v>0</v>
       </c>
       <c r="S28" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="T28" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="V28">
         <v>0</v>
@@ -3378,16 +3430,16 @@
         <v>0</v>
       </c>
       <c r="X28" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Z28">
         <v>0</v>
       </c>
       <c r="AA28" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="29" spans="1:30">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="29" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -3410,19 +3462,19 @@
         <v>225</v>
       </c>
       <c r="K29">
-        <v>1.04213243375011e+18</v>
+        <v>1.04213243375011E+18</v>
       </c>
       <c r="L29">
-        <v>1.04213243375011e+18</v>
+        <v>1.04213243375011E+18</v>
       </c>
       <c r="R29">
         <v>0</v>
       </c>
       <c r="S29" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="T29" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="V29">
         <v>0</v>
@@ -3431,16 +3483,16 @@
         <v>0</v>
       </c>
       <c r="X29" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Z29">
         <v>0</v>
       </c>
       <c r="AA29" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="30" spans="1:30">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="30" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -3463,19 +3515,19 @@
         <v>223</v>
       </c>
       <c r="K30">
-        <v>1.04214621498736e+18</v>
+        <v>1.04214621498736E+18</v>
       </c>
       <c r="L30">
-        <v>1.04214621498736e+18</v>
+        <v>1.04214621498736E+18</v>
       </c>
       <c r="R30">
         <v>0</v>
       </c>
       <c r="S30" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="T30" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="V30">
         <v>0</v>
@@ -3484,16 +3536,16 @@
         <v>0</v>
       </c>
       <c r="X30" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="Z30">
         <v>0</v>
       </c>
       <c r="AA30" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="31" spans="1:30">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="31" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -3516,19 +3568,19 @@
         <v>226</v>
       </c>
       <c r="K31">
-        <v>1.04215457531322e+18</v>
+        <v>1.04215457531322E+18</v>
       </c>
       <c r="L31">
-        <v>1.04215457531322e+18</v>
+        <v>1.04215457531322E+18</v>
       </c>
       <c r="R31">
         <v>0</v>
       </c>
       <c r="S31" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="T31" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="V31">
         <v>0</v>
@@ -3537,16 +3589,16 @@
         <v>0</v>
       </c>
       <c r="X31" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="Z31">
         <v>0</v>
       </c>
       <c r="AA31" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="32" spans="1:30">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="32" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -3569,28 +3621,28 @@
         <v>227</v>
       </c>
       <c r="K32">
-        <v>1.04240254485998e+18</v>
+        <v>1.04240254485998E+18</v>
       </c>
       <c r="L32">
-        <v>1.04240254485998e+18</v>
+        <v>1.04240254485998E+18</v>
       </c>
       <c r="M32" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="P32">
-        <v>7.55869984761479e+17</v>
+        <v>7.5586998476147904E+17</v>
       </c>
       <c r="Q32">
-        <v>7.55869984761479e+17</v>
+        <v>7.5586998476147904E+17</v>
       </c>
       <c r="R32">
         <v>0</v>
       </c>
       <c r="S32" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="T32" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="V32">
         <v>0</v>
@@ -3599,16 +3651,16 @@
         <v>0</v>
       </c>
       <c r="X32" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="Z32">
         <v>0</v>
       </c>
       <c r="AA32" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="33" spans="1:27">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="33" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -3631,28 +3683,28 @@
         <v>228</v>
       </c>
       <c r="K33">
-        <v>1.04289248238259e+18</v>
+        <v>1.04289248238259E+18</v>
       </c>
       <c r="L33">
-        <v>1.04289248238259e+18</v>
+        <v>1.04289248238259E+18</v>
       </c>
       <c r="M33" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="P33">
-        <v>7.55869984761479e+17</v>
+        <v>7.5586998476147904E+17</v>
       </c>
       <c r="Q33">
-        <v>7.55869984761479e+17</v>
+        <v>7.5586998476147904E+17</v>
       </c>
       <c r="R33">
         <v>0</v>
       </c>
       <c r="S33" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="T33" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="V33">
         <v>0</v>
@@ -3661,16 +3713,16 @@
         <v>0</v>
       </c>
       <c r="X33" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Z33">
         <v>0</v>
       </c>
       <c r="AA33" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="34" spans="1:27">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="34" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -3693,19 +3745,19 @@
         <v>229</v>
       </c>
       <c r="K34">
-        <v>1.04289511037834e+18</v>
+        <v>1.04289511037834E+18</v>
       </c>
       <c r="L34">
-        <v>1.04289511037834e+18</v>
+        <v>1.04289511037834E+18</v>
       </c>
       <c r="R34">
         <v>0</v>
       </c>
       <c r="S34" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="T34" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="V34">
         <v>0</v>
@@ -3714,16 +3766,16 @@
         <v>0</v>
       </c>
       <c r="X34" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Z34">
         <v>0</v>
       </c>
       <c r="AA34" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="35" spans="1:27">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="35" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -3746,19 +3798,19 @@
         <v>230</v>
       </c>
       <c r="K35">
-        <v>1.04289591518558e+18</v>
+        <v>1.04289591518558E+18</v>
       </c>
       <c r="L35">
-        <v>1.04289591518558e+18</v>
+        <v>1.04289591518558E+18</v>
       </c>
       <c r="R35">
         <v>0</v>
       </c>
       <c r="S35" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="T35" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="V35">
         <v>0</v>
@@ -3767,16 +3819,16 @@
         <v>0</v>
       </c>
       <c r="X35" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Z35">
         <v>0</v>
       </c>
       <c r="AA35" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="36" spans="1:27">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="36" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -3799,19 +3851,19 @@
         <v>231</v>
       </c>
       <c r="K36">
-        <v>1.04289966468784e+18</v>
+        <v>1.04289966468784E+18</v>
       </c>
       <c r="L36">
-        <v>1.04289966468784e+18</v>
+        <v>1.04289966468784E+18</v>
       </c>
       <c r="R36">
         <v>0</v>
       </c>
       <c r="S36" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="T36" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="V36">
         <v>0</v>
@@ -3820,16 +3872,16 @@
         <v>0</v>
       </c>
       <c r="X36" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Z36">
         <v>0</v>
       </c>
       <c r="AA36" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="37" spans="1:27">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="37" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -3852,28 +3904,28 @@
         <v>232</v>
       </c>
       <c r="K37">
-        <v>1.04571404957141e+18</v>
+        <v>1.04571404957141E+18</v>
       </c>
       <c r="L37">
-        <v>1.04571404957141e+18</v>
+        <v>1.04571404957141E+18</v>
       </c>
       <c r="M37" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="P37">
-        <v>7.55869984761479e+17</v>
+        <v>7.5586998476147904E+17</v>
       </c>
       <c r="Q37">
-        <v>7.55869984761479e+17</v>
+        <v>7.5586998476147904E+17</v>
       </c>
       <c r="R37">
         <v>0</v>
       </c>
       <c r="S37" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="T37" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="V37">
         <v>0</v>
@@ -3882,16 +3934,16 @@
         <v>0</v>
       </c>
       <c r="X37" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="Z37">
         <v>0</v>
       </c>
       <c r="AA37" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="38" spans="1:27">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="38" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -3914,28 +3966,28 @@
         <v>233</v>
       </c>
       <c r="K38">
-        <v>1.04597094786449e+18</v>
+        <v>1.04597094786449E+18</v>
       </c>
       <c r="L38">
-        <v>1.04597094786449e+18</v>
+        <v>1.04597094786449E+18</v>
       </c>
       <c r="M38" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="P38">
-        <v>7.55869984761479e+17</v>
+        <v>7.5586998476147904E+17</v>
       </c>
       <c r="Q38">
-        <v>7.55869984761479e+17</v>
+        <v>7.5586998476147904E+17</v>
       </c>
       <c r="R38">
         <v>0</v>
       </c>
       <c r="S38" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="T38" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="V38">
         <v>0</v>
@@ -3944,16 +3996,16 @@
         <v>0</v>
       </c>
       <c r="X38" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="Z38">
         <v>0</v>
       </c>
       <c r="AA38" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="39" spans="1:27">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="39" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -3976,19 +4028,19 @@
         <v>234</v>
       </c>
       <c r="K39">
-        <v>1.046184223948837e+18</v>
+        <v>1.046184223948837E+18</v>
       </c>
       <c r="L39">
-        <v>1.046184223948837e+18</v>
+        <v>1.046184223948837E+18</v>
       </c>
       <c r="R39">
         <v>0</v>
       </c>
       <c r="S39" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="T39" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="V39">
         <v>0</v>
@@ -3997,16 +4049,16 @@
         <v>0</v>
       </c>
       <c r="X39" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Z39">
         <v>0</v>
       </c>
       <c r="AA39" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="40" spans="1:27">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="40" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -4029,19 +4081,19 @@
         <v>235</v>
       </c>
       <c r="K40">
-        <v>1.046192436270305e+18</v>
+        <v>1.046192436270305E+18</v>
       </c>
       <c r="L40">
-        <v>1.046192436270305e+18</v>
+        <v>1.046192436270305E+18</v>
       </c>
       <c r="R40">
         <v>0</v>
       </c>
       <c r="S40" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="T40" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="V40">
         <v>0</v>
@@ -4050,16 +4102,16 @@
         <v>0</v>
       </c>
       <c r="X40" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Z40">
         <v>0</v>
       </c>
       <c r="AA40" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="41" spans="1:27">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="41" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -4082,19 +4134,19 @@
         <v>236</v>
       </c>
       <c r="K41">
-        <v>1.04619482541711e+18</v>
+        <v>1.04619482541711E+18</v>
       </c>
       <c r="L41">
-        <v>1.04619482541711e+18</v>
+        <v>1.04619482541711E+18</v>
       </c>
       <c r="R41">
         <v>0</v>
       </c>
       <c r="S41" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="T41" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="V41">
         <v>0</v>
@@ -4103,16 +4155,16 @@
         <v>0</v>
       </c>
       <c r="X41" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Z41">
         <v>0</v>
       </c>
       <c r="AA41" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="42" spans="1:27">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="42" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -4135,28 +4187,28 @@
         <v>237</v>
       </c>
       <c r="K42">
-        <v>1.04619675086696e+18</v>
+        <v>1.04619675086696E+18</v>
       </c>
       <c r="L42">
-        <v>1.04619675086696e+18</v>
+        <v>1.04619675086696E+18</v>
       </c>
       <c r="M42" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="P42">
-        <v>7.558699847614792e+17</v>
+        <v>7.5586998476147917E+17</v>
       </c>
       <c r="Q42">
-        <v>7.55869984761479e+17</v>
+        <v>7.5586998476147904E+17</v>
       </c>
       <c r="R42">
         <v>0</v>
       </c>
       <c r="S42" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="T42" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="V42">
         <v>0</v>
@@ -4165,16 +4217,16 @@
         <v>0</v>
       </c>
       <c r="X42" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="Z42">
         <v>0</v>
       </c>
       <c r="AA42" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="43" spans="1:27">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -4197,28 +4249,28 @@
         <v>238</v>
       </c>
       <c r="K43">
-        <v>1.046306995345785e+18</v>
+        <v>1.046306995345785E+18</v>
       </c>
       <c r="L43">
-        <v>1.046306995345785e+18</v>
+        <v>1.046306995345785E+18</v>
       </c>
       <c r="M43" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="P43">
-        <v>7.558699847614792e+17</v>
+        <v>7.5586998476147917E+17</v>
       </c>
       <c r="Q43">
-        <v>7.55869984761479e+17</v>
+        <v>7.5586998476147904E+17</v>
       </c>
       <c r="R43">
         <v>0</v>
       </c>
       <c r="S43" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="T43" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="V43">
         <v>0</v>
@@ -4227,16 +4279,16 @@
         <v>0</v>
       </c>
       <c r="X43" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="Z43">
         <v>0</v>
       </c>
       <c r="AA43" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="44" spans="1:27">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -4259,28 +4311,28 @@
         <v>239</v>
       </c>
       <c r="K44">
-        <v>1.046465002947965e+18</v>
+        <v>1.0464650029479651E+18</v>
       </c>
       <c r="L44">
-        <v>1.046465002947965e+18</v>
+        <v>1.0464650029479651E+18</v>
       </c>
       <c r="M44" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="P44">
-        <v>7.558699847614792e+17</v>
+        <v>7.5586998476147917E+17</v>
       </c>
       <c r="Q44">
-        <v>7.55869984761479e+17</v>
+        <v>7.5586998476147904E+17</v>
       </c>
       <c r="R44">
         <v>0</v>
       </c>
       <c r="S44" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="T44" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="V44">
         <v>0</v>
@@ -4289,16 +4341,16 @@
         <v>0</v>
       </c>
       <c r="X44" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="Z44">
         <v>0</v>
       </c>
       <c r="AA44" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="45" spans="1:27">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -4321,28 +4373,28 @@
         <v>240</v>
       </c>
       <c r="K45">
-        <v>1.047768386091012e+18</v>
+        <v>1.047768386091012E+18</v>
       </c>
       <c r="L45">
-        <v>1.047768386091012e+18</v>
+        <v>1.047768386091012E+18</v>
       </c>
       <c r="M45" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="P45">
-        <v>7.558699847614792e+17</v>
+        <v>7.5586998476147917E+17</v>
       </c>
       <c r="Q45">
-        <v>7.55869984761479e+17</v>
+        <v>7.5586998476147904E+17</v>
       </c>
       <c r="R45">
         <v>0</v>
       </c>
       <c r="S45" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="T45" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="V45">
         <v>0</v>
@@ -4351,16 +4403,16 @@
         <v>0</v>
       </c>
       <c r="X45" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="Z45">
         <v>0</v>
       </c>
       <c r="AA45" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="46" spans="1:27">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -4383,28 +4435,28 @@
         <v>241</v>
       </c>
       <c r="K46">
-        <v>1.0477853812473e+18</v>
+        <v>1.0477853812473E+18</v>
       </c>
       <c r="L46">
-        <v>1.0477853812473e+18</v>
+        <v>1.0477853812473E+18</v>
       </c>
       <c r="M46" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="P46">
-        <v>7.558699847614792e+17</v>
+        <v>7.5586998476147917E+17</v>
       </c>
       <c r="Q46">
-        <v>7.55869984761479e+17</v>
+        <v>7.5586998476147904E+17</v>
       </c>
       <c r="R46">
         <v>0</v>
       </c>
       <c r="S46" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="T46" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="V46">
         <v>0</v>
@@ -4413,16 +4465,16 @@
         <v>0</v>
       </c>
       <c r="X46" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="Z46">
         <v>0</v>
       </c>
       <c r="AA46" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="47" spans="1:27">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -4445,28 +4497,28 @@
         <v>242</v>
       </c>
       <c r="K47">
-        <v>1.047915882775794e+18</v>
+        <v>1.047915882775794E+18</v>
       </c>
       <c r="L47">
-        <v>1.047915882775794e+18</v>
+        <v>1.047915882775794E+18</v>
       </c>
       <c r="M47" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="P47">
-        <v>7.558699847614792e+17</v>
+        <v>7.5586998476147917E+17</v>
       </c>
       <c r="Q47">
-        <v>7.55869984761479e+17</v>
+        <v>7.5586998476147904E+17</v>
       </c>
       <c r="R47">
         <v>0</v>
       </c>
       <c r="S47" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="T47" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="V47">
         <v>0</v>
@@ -4475,16 +4527,16 @@
         <v>0</v>
       </c>
       <c r="X47" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="Z47">
         <v>0</v>
       </c>
       <c r="AA47" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="48" spans="1:27">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -4507,28 +4559,28 @@
         <v>243</v>
       </c>
       <c r="K48">
-        <v>1.047924641447203e+18</v>
+        <v>1.0479246414472029E+18</v>
       </c>
       <c r="L48">
-        <v>1.047924641447203e+18</v>
+        <v>1.0479246414472029E+18</v>
       </c>
       <c r="M48" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="P48">
-        <v>7.558699847614792e+17</v>
+        <v>7.5586998476147917E+17</v>
       </c>
       <c r="Q48">
-        <v>7.55869984761479e+17</v>
+        <v>7.5586998476147904E+17</v>
       </c>
       <c r="R48">
         <v>0</v>
       </c>
       <c r="S48" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="T48" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="V48">
         <v>0</v>
@@ -4537,16 +4589,16 @@
         <v>0</v>
       </c>
       <c r="X48" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="Z48">
         <v>0</v>
       </c>
       <c r="AA48" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="49" spans="1:27">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -4569,28 +4621,28 @@
         <v>244</v>
       </c>
       <c r="K49">
-        <v>1.047957515969946e+18</v>
+        <v>1.047957515969946E+18</v>
       </c>
       <c r="L49">
-        <v>1.047957515969946e+18</v>
+        <v>1.047957515969946E+18</v>
       </c>
       <c r="M49" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="P49">
-        <v>7.558699847614792e+17</v>
+        <v>7.5586998476147917E+17</v>
       </c>
       <c r="Q49">
-        <v>7.55869984761479e+17</v>
+        <v>7.5586998476147904E+17</v>
       </c>
       <c r="R49">
         <v>0</v>
       </c>
       <c r="S49" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="T49" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="V49">
         <v>0</v>
@@ -4599,16 +4651,16 @@
         <v>0</v>
       </c>
       <c r="X49" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="Z49">
         <v>0</v>
       </c>
       <c r="AA49" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="50" spans="1:27">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -4631,19 +4683,19 @@
         <v>245</v>
       </c>
       <c r="K50">
-        <v>1.048668926819951e+18</v>
+        <v>1.048668926819951E+18</v>
       </c>
       <c r="L50">
-        <v>1.048668926819951e+18</v>
+        <v>1.048668926819951E+18</v>
       </c>
       <c r="R50">
         <v>0</v>
       </c>
       <c r="S50" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="T50" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="V50">
         <v>0</v>
@@ -4652,16 +4704,16 @@
         <v>0</v>
       </c>
       <c r="X50" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="Z50">
         <v>0</v>
       </c>
       <c r="AA50" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="51" spans="1:27">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -4684,28 +4736,28 @@
         <v>246</v>
       </c>
       <c r="K51">
-        <v>1.05047311539705e+18</v>
+        <v>1.05047311539705E+18</v>
       </c>
       <c r="L51">
-        <v>1.05047311539705e+18</v>
+        <v>1.05047311539705E+18</v>
       </c>
       <c r="M51" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="P51">
-        <v>7.558699847614792e+17</v>
+        <v>7.5586998476147917E+17</v>
       </c>
       <c r="Q51">
-        <v>7.55869984761479e+17</v>
+        <v>7.5586998476147904E+17</v>
       </c>
       <c r="R51">
         <v>0</v>
       </c>
       <c r="S51" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="T51" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="V51">
         <v>0</v>
@@ -4714,16 +4766,16 @@
         <v>0</v>
       </c>
       <c r="X51" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="Z51">
         <v>0</v>
       </c>
       <c r="AA51" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="52" spans="1:27">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="52" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -4746,28 +4798,28 @@
         <v>247</v>
       </c>
       <c r="K52">
-        <v>1.053761249643807e+18</v>
+        <v>1.053761249643807E+18</v>
       </c>
       <c r="L52">
-        <v>1.053761249643807e+18</v>
+        <v>1.053761249643807E+18</v>
       </c>
       <c r="M52" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="P52">
-        <v>7.558699847614792e+17</v>
+        <v>7.5586998476147917E+17</v>
       </c>
       <c r="Q52">
-        <v>7.55869984761479e+17</v>
+        <v>7.5586998476147904E+17</v>
       </c>
       <c r="R52">
         <v>0</v>
       </c>
       <c r="S52" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="T52" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="V52">
         <v>0</v>
@@ -4776,16 +4828,16 @@
         <v>0</v>
       </c>
       <c r="X52" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="Z52">
         <v>0</v>
       </c>
       <c r="AA52" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="53" spans="1:27">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="53" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -4808,28 +4860,28 @@
         <v>248</v>
       </c>
       <c r="K53">
-        <v>1.056642269862859e+18</v>
+        <v>1.056642269862859E+18</v>
       </c>
       <c r="L53">
-        <v>1.056642269862859e+18</v>
+        <v>1.056642269862859E+18</v>
       </c>
       <c r="M53" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="P53">
-        <v>7.558699847614792e+17</v>
+        <v>7.5586998476147917E+17</v>
       </c>
       <c r="Q53">
-        <v>7.55869984761479e+17</v>
+        <v>7.5586998476147904E+17</v>
       </c>
       <c r="R53">
         <v>0</v>
       </c>
       <c r="S53" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="T53" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="V53">
         <v>0</v>
@@ -4838,16 +4890,16 @@
         <v>0</v>
       </c>
       <c r="X53" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="Z53">
         <v>0</v>
       </c>
       <c r="AA53" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="54" spans="1:27">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="54" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -4870,28 +4922,28 @@
         <v>249</v>
       </c>
       <c r="K54">
-        <v>1.05692716066397e+18</v>
+        <v>1.05692716066397E+18</v>
       </c>
       <c r="L54">
-        <v>1.05692716066397e+18</v>
+        <v>1.05692716066397E+18</v>
       </c>
       <c r="M54" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="P54">
-        <v>7.558699847614792e+17</v>
+        <v>7.5586998476147917E+17</v>
       </c>
       <c r="Q54">
-        <v>7.55869984761479e+17</v>
+        <v>7.5586998476147904E+17</v>
       </c>
       <c r="R54">
         <v>0</v>
       </c>
       <c r="S54" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="T54" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="V54">
         <v>0</v>
@@ -4900,16 +4952,16 @@
         <v>0</v>
       </c>
       <c r="X54" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="Z54">
         <v>0</v>
       </c>
       <c r="AA54" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="55" spans="1:27">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="55" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -4932,28 +4984,28 @@
         <v>250</v>
       </c>
       <c r="K55">
-        <v>1.057000725379736e+18</v>
+        <v>1.0570007253797361E+18</v>
       </c>
       <c r="L55">
-        <v>1.057000725379736e+18</v>
+        <v>1.0570007253797361E+18</v>
       </c>
       <c r="M55" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="P55">
-        <v>7.558699847614792e+17</v>
+        <v>7.5586998476147917E+17</v>
       </c>
       <c r="Q55">
-        <v>7.55869984761479e+17</v>
+        <v>7.5586998476147904E+17</v>
       </c>
       <c r="R55">
         <v>0</v>
       </c>
       <c r="S55" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="T55" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="V55">
         <v>0</v>
@@ -4962,16 +5014,16 @@
         <v>0</v>
       </c>
       <c r="X55" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="Z55">
         <v>0</v>
       </c>
       <c r="AA55" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="56" spans="1:27">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="56" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -4994,28 +5046,28 @@
         <v>251</v>
       </c>
       <c r="K56">
-        <v>1.057001202184086e+18</v>
+        <v>1.057001202184086E+18</v>
       </c>
       <c r="L56">
-        <v>1.057001202184086e+18</v>
+        <v>1.057001202184086E+18</v>
       </c>
       <c r="M56" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="P56">
-        <v>7.558699847614792e+17</v>
+        <v>7.5586998476147917E+17</v>
       </c>
       <c r="Q56">
-        <v>7.55869984761479e+17</v>
+        <v>7.5586998476147904E+17</v>
       </c>
       <c r="R56">
         <v>0</v>
       </c>
       <c r="S56" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="T56" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="V56">
         <v>0</v>
@@ -5024,16 +5076,16 @@
         <v>0</v>
       </c>
       <c r="X56" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="Z56">
         <v>0</v>
       </c>
       <c r="AA56" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="57" spans="1:27">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="57" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -5056,28 +5108,28 @@
         <v>252</v>
       </c>
       <c r="K57">
-        <v>1.057002822968009e+18</v>
+        <v>1.057002822968009E+18</v>
       </c>
       <c r="L57">
-        <v>1.057002822968009e+18</v>
+        <v>1.057002822968009E+18</v>
       </c>
       <c r="M57" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="P57">
-        <v>7.558699847614792e+17</v>
+        <v>7.5586998476147917E+17</v>
       </c>
       <c r="Q57">
-        <v>7.55869984761479e+17</v>
+        <v>7.5586998476147904E+17</v>
       </c>
       <c r="R57">
         <v>0</v>
       </c>
       <c r="S57" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="T57" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="V57">
         <v>0</v>
@@ -5086,16 +5138,16 @@
         <v>0</v>
       </c>
       <c r="X57" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="Z57">
         <v>0</v>
       </c>
       <c r="AA57" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="58" spans="1:27">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="58" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -5118,28 +5170,28 @@
         <v>253</v>
       </c>
       <c r="K58">
-        <v>1.057004436445377e+18</v>
+        <v>1.057004436445377E+18</v>
       </c>
       <c r="L58">
-        <v>1.057004436445377e+18</v>
+        <v>1.057004436445377E+18</v>
       </c>
       <c r="M58" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="P58">
-        <v>7.558699847614792e+17</v>
+        <v>7.5586998476147917E+17</v>
       </c>
       <c r="Q58">
-        <v>7.55869984761479e+17</v>
+        <v>7.5586998476147904E+17</v>
       </c>
       <c r="R58">
         <v>0</v>
       </c>
       <c r="S58" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="T58" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="V58">
         <v>0</v>
@@ -5148,16 +5200,16 @@
         <v>0</v>
       </c>
       <c r="X58" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="Z58">
         <v>0</v>
       </c>
       <c r="AA58" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="59" spans="1:27">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="59" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -5180,28 +5232,28 @@
         <v>254</v>
       </c>
       <c r="K59">
-        <v>1.057005767348404e+18</v>
+        <v>1.057005767348404E+18</v>
       </c>
       <c r="L59">
-        <v>1.057005767348404e+18</v>
+        <v>1.057005767348404E+18</v>
       </c>
       <c r="M59" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="P59">
-        <v>7.558699847614792e+17</v>
+        <v>7.5586998476147917E+17</v>
       </c>
       <c r="Q59">
-        <v>7.55869984761479e+17</v>
+        <v>7.5586998476147904E+17</v>
       </c>
       <c r="R59">
         <v>0</v>
       </c>
       <c r="S59" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="T59" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="V59">
         <v>0</v>
@@ -5210,16 +5262,16 @@
         <v>0</v>
       </c>
       <c r="X59" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="Z59">
         <v>0</v>
       </c>
       <c r="AA59" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="60" spans="1:27">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="60" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -5242,28 +5294,28 @@
         <v>255</v>
       </c>
       <c r="K60">
-        <v>1.057007594789892e+18</v>
+        <v>1.057007594789892E+18</v>
       </c>
       <c r="L60">
-        <v>1.057007594789892e+18</v>
+        <v>1.057007594789892E+18</v>
       </c>
       <c r="M60" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="P60">
-        <v>7.558699847614792e+17</v>
+        <v>7.5586998476147917E+17</v>
       </c>
       <c r="Q60">
-        <v>7.55869984761479e+17</v>
+        <v>7.5586998476147904E+17</v>
       </c>
       <c r="R60">
         <v>0</v>
       </c>
       <c r="S60" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="T60" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="V60">
         <v>0</v>
@@ -5272,16 +5324,16 @@
         <v>0</v>
       </c>
       <c r="X60" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="Z60">
         <v>0</v>
       </c>
       <c r="AA60" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="61" spans="1:27">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="61" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -5304,28 +5356,28 @@
         <v>256</v>
       </c>
       <c r="K61">
-        <v>1.057009046144856e+18</v>
+        <v>1.0570090461448561E+18</v>
       </c>
       <c r="L61">
-        <v>1.057009046144856e+18</v>
+        <v>1.0570090461448561E+18</v>
       </c>
       <c r="M61" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="P61">
-        <v>7.558699847614792e+17</v>
+        <v>7.5586998476147917E+17</v>
       </c>
       <c r="Q61">
-        <v>7.55869984761479e+17</v>
+        <v>7.5586998476147904E+17</v>
       </c>
       <c r="R61">
         <v>0</v>
       </c>
       <c r="S61" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="T61" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="V61">
         <v>0</v>
@@ -5334,16 +5386,16 @@
         <v>0</v>
       </c>
       <c r="X61" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="Z61">
         <v>0</v>
       </c>
       <c r="AA61" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="62" spans="1:27">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="62" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -5366,28 +5418,28 @@
         <v>257</v>
       </c>
       <c r="K62">
-        <v>1.057010169282994e+18</v>
+        <v>1.057010169282994E+18</v>
       </c>
       <c r="L62">
-        <v>1.057010169282994e+18</v>
+        <v>1.057010169282994E+18</v>
       </c>
       <c r="M62" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="P62">
-        <v>7.558699847614792e+17</v>
+        <v>7.5586998476147917E+17</v>
       </c>
       <c r="Q62">
-        <v>7.55869984761479e+17</v>
+        <v>7.5586998476147904E+17</v>
       </c>
       <c r="R62">
         <v>0</v>
       </c>
       <c r="S62" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="T62" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="V62">
         <v>0</v>
@@ -5396,16 +5448,16 @@
         <v>0</v>
       </c>
       <c r="X62" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="Z62">
         <v>0</v>
       </c>
       <c r="AA62" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="63" spans="1:27">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="63" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -5428,28 +5480,28 @@
         <v>258</v>
       </c>
       <c r="K63">
-        <v>1.057011804700897e+18</v>
+        <v>1.057011804700897E+18</v>
       </c>
       <c r="L63">
-        <v>1.057011804700897e+18</v>
+        <v>1.057011804700897E+18</v>
       </c>
       <c r="M63" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="P63">
-        <v>7.558699847614792e+17</v>
+        <v>7.5586998476147917E+17</v>
       </c>
       <c r="Q63">
-        <v>7.55869984761479e+17</v>
+        <v>7.5586998476147904E+17</v>
       </c>
       <c r="R63">
         <v>0</v>
       </c>
       <c r="S63" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="T63" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="V63">
         <v>0</v>
@@ -5458,16 +5510,16 @@
         <v>0</v>
       </c>
       <c r="X63" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="Z63">
         <v>0</v>
       </c>
       <c r="AA63" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="64" spans="1:27">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="64" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -5490,28 +5542,28 @@
         <v>259</v>
       </c>
       <c r="K64">
-        <v>1.05983942828435e+18</v>
+        <v>1.05983942828435E+18</v>
       </c>
       <c r="L64">
-        <v>1.05983942828435e+18</v>
+        <v>1.05983942828435E+18</v>
       </c>
       <c r="M64" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="P64">
-        <v>7.558699847614792e+17</v>
+        <v>7.5586998476147917E+17</v>
       </c>
       <c r="Q64">
-        <v>7.55869984761479e+17</v>
+        <v>7.5586998476147904E+17</v>
       </c>
       <c r="R64">
         <v>0</v>
       </c>
       <c r="S64" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="T64" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="V64">
         <v>0</v>
@@ -5520,16 +5572,16 @@
         <v>0</v>
       </c>
       <c r="X64" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="Z64">
         <v>0</v>
       </c>
       <c r="AA64" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="65" spans="1:29">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="65" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -5552,28 +5604,28 @@
         <v>260</v>
       </c>
       <c r="K65">
-        <v>1.060174420914962e+18</v>
+        <v>1.060174420914962E+18</v>
       </c>
       <c r="L65">
-        <v>1.060174420914962e+18</v>
+        <v>1.060174420914962E+18</v>
       </c>
       <c r="M65" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="P65">
-        <v>7.558699847614792e+17</v>
+        <v>7.5586998476147917E+17</v>
       </c>
       <c r="Q65">
-        <v>7.55869984761479e+17</v>
+        <v>7.5586998476147904E+17</v>
       </c>
       <c r="R65">
         <v>0</v>
       </c>
       <c r="S65" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="T65" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="V65">
         <v>0</v>
@@ -5582,16 +5634,16 @@
         <v>0</v>
       </c>
       <c r="X65" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="Z65">
         <v>0</v>
       </c>
       <c r="AA65" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="66" spans="1:29">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="66" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -5614,37 +5666,37 @@
         <v>261</v>
       </c>
       <c r="K66">
-        <v>1.060820260255875e+18</v>
+        <v>1.0608202602558749E+18</v>
       </c>
       <c r="L66">
-        <v>1.060820260255875e+18</v>
+        <v>1.0608202602558749E+18</v>
       </c>
       <c r="R66">
         <v>0</v>
       </c>
       <c r="S66" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="T66" t="s">
+        <v>279</v>
+      </c>
+      <c r="V66">
+        <v>0</v>
+      </c>
+      <c r="W66">
+        <v>0</v>
+      </c>
+      <c r="X66" t="s">
         <v>280</v>
       </c>
-      <c r="V66">
-        <v>0</v>
-      </c>
-      <c r="W66">
-        <v>0</v>
-      </c>
-      <c r="X66" t="s">
-        <v>281</v>
-      </c>
       <c r="Z66">
         <v>0</v>
       </c>
       <c r="AA66" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="67" spans="1:29">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="67" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -5667,28 +5719,28 @@
         <v>262</v>
       </c>
       <c r="K67">
-        <v>1.061595848126226e+18</v>
+        <v>1.061595848126226E+18</v>
       </c>
       <c r="L67">
-        <v>1.061595848126226e+18</v>
+        <v>1.061595848126226E+18</v>
       </c>
       <c r="M67" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="P67">
-        <v>7.558699847614792e+17</v>
+        <v>7.5586998476147917E+17</v>
       </c>
       <c r="Q67">
-        <v>7.55869984761479e+17</v>
+        <v>7.5586998476147904E+17</v>
       </c>
       <c r="R67">
         <v>0</v>
       </c>
       <c r="S67" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="T67" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="V67">
         <v>0</v>
@@ -5697,16 +5749,16 @@
         <v>0</v>
       </c>
       <c r="X67" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Z67">
         <v>0</v>
       </c>
       <c r="AA67" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="68" spans="1:29">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="68" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -5729,28 +5781,28 @@
         <v>263</v>
       </c>
       <c r="K68">
-        <v>1.061726276493427e+18</v>
+        <v>1.0617262764934269E+18</v>
       </c>
       <c r="L68">
-        <v>1.061726276493427e+18</v>
+        <v>1.0617262764934269E+18</v>
       </c>
       <c r="M68" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="P68">
-        <v>7.558699847614792e+17</v>
+        <v>7.5586998476147917E+17</v>
       </c>
       <c r="Q68">
-        <v>7.55869984761479e+17</v>
+        <v>7.5586998476147904E+17</v>
       </c>
       <c r="R68">
         <v>0</v>
       </c>
       <c r="S68" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="T68" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="V68">
         <v>0</v>
@@ -5759,16 +5811,16 @@
         <v>0</v>
       </c>
       <c r="X68" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="Z68">
         <v>0</v>
       </c>
       <c r="AA68" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="69" spans="1:29">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="69" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -5791,19 +5843,19 @@
         <v>264</v>
       </c>
       <c r="K69">
-        <v>1.061927717451547e+18</v>
+        <v>1.061927717451547E+18</v>
       </c>
       <c r="L69">
-        <v>1.061927717451547e+18</v>
+        <v>1.061927717451547E+18</v>
       </c>
       <c r="R69">
         <v>0</v>
       </c>
       <c r="S69" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="T69" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="V69">
         <v>0</v>
@@ -5812,19 +5864,19 @@
         <v>0</v>
       </c>
       <c r="X69" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="Z69">
         <v>0</v>
       </c>
       <c r="AA69" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="AC69">
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:29">
+    <row r="70" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -5847,28 +5899,28 @@
         <v>265</v>
       </c>
       <c r="K70">
-        <v>1.062229378850009e+18</v>
+        <v>1.062229378850009E+18</v>
       </c>
       <c r="L70">
-        <v>1.062229378850009e+18</v>
+        <v>1.062229378850009E+18</v>
       </c>
       <c r="M70" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="P70">
-        <v>7.558699847614792e+17</v>
+        <v>7.5586998476147917E+17</v>
       </c>
       <c r="Q70">
-        <v>7.55869984761479e+17</v>
+        <v>7.5586998476147904E+17</v>
       </c>
       <c r="R70">
         <v>0</v>
       </c>
       <c r="S70" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="T70" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="V70">
         <v>0</v>
@@ -5877,16 +5929,16 @@
         <v>0</v>
       </c>
       <c r="X70" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Z70">
         <v>0</v>
       </c>
       <c r="AA70" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="71" spans="1:29">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="71" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -5909,28 +5961,28 @@
         <v>266</v>
       </c>
       <c r="K71">
-        <v>1.062235894969786e+18</v>
+        <v>1.062235894969786E+18</v>
       </c>
       <c r="L71">
-        <v>1.062235894969786e+18</v>
+        <v>1.062235894969786E+18</v>
       </c>
       <c r="M71" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="P71">
-        <v>7.558699847614792e+17</v>
+        <v>7.5586998476147917E+17</v>
       </c>
       <c r="Q71">
-        <v>7.55869984761479e+17</v>
+        <v>7.5586998476147904E+17</v>
       </c>
       <c r="R71">
         <v>0</v>
       </c>
       <c r="S71" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="T71" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="V71">
         <v>0</v>
@@ -5939,16 +5991,16 @@
         <v>0</v>
       </c>
       <c r="X71" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="Z71">
         <v>0</v>
       </c>
       <c r="AA71" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="72" spans="1:29">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="72" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -5971,19 +6023,19 @@
         <v>267</v>
       </c>
       <c r="K72">
-        <v>1.062636416210031e+18</v>
+        <v>1.062636416210031E+18</v>
       </c>
       <c r="L72">
-        <v>1.062636416210031e+18</v>
+        <v>1.062636416210031E+18</v>
       </c>
       <c r="R72">
         <v>0</v>
       </c>
       <c r="S72" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="T72" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="V72">
         <v>0</v>
@@ -5992,16 +6044,16 @@
         <v>0</v>
       </c>
       <c r="X72" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="Z72">
         <v>0</v>
       </c>
       <c r="AA72" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="73" spans="1:29">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="73" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -6024,28 +6076,28 @@
         <v>268</v>
       </c>
       <c r="K73">
-        <v>1.063364043090653e+18</v>
+        <v>1.0633640430906531E+18</v>
       </c>
       <c r="L73">
-        <v>1.063364043090653e+18</v>
+        <v>1.0633640430906531E+18</v>
       </c>
       <c r="M73" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="P73">
-        <v>7.558699847614792e+17</v>
+        <v>7.5586998476147917E+17</v>
       </c>
       <c r="Q73">
-        <v>7.55869984761479e+17</v>
+        <v>7.5586998476147904E+17</v>
       </c>
       <c r="R73">
         <v>0</v>
       </c>
       <c r="S73" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="T73" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="V73">
         <v>0</v>
@@ -6054,16 +6106,16 @@
         <v>0</v>
       </c>
       <c r="X73" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="Z73">
         <v>0</v>
       </c>
       <c r="AA73" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="74" spans="1:29">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="74" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -6086,28 +6138,28 @@
         <v>269</v>
       </c>
       <c r="K74">
-        <v>1.063385364583391e+18</v>
+        <v>1.063385364583391E+18</v>
       </c>
       <c r="L74">
-        <v>1.063385364583391e+18</v>
+        <v>1.063385364583391E+18</v>
       </c>
       <c r="M74" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="P74">
-        <v>7.558699847614792e+17</v>
+        <v>7.5586998476147917E+17</v>
       </c>
       <c r="Q74">
-        <v>7.55869984761479e+17</v>
+        <v>7.5586998476147904E+17</v>
       </c>
       <c r="R74">
         <v>0</v>
       </c>
       <c r="S74" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="T74" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="V74">
         <v>0</v>
@@ -6116,16 +6168,16 @@
         <v>0</v>
       </c>
       <c r="X74" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="Z74">
         <v>0</v>
       </c>
       <c r="AA74" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="75" spans="1:29">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="75" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -6145,31 +6197,31 @@
         <v>0</v>
       </c>
       <c r="I75" t="s">
-        <v>270</v>
+        <v>360</v>
       </c>
       <c r="K75">
-        <v>1.06339232383549e+18</v>
+        <v>1.06339232383549E+18</v>
       </c>
       <c r="L75">
-        <v>1.06339232383549e+18</v>
+        <v>1.06339232383549E+18</v>
       </c>
       <c r="M75" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="P75">
-        <v>7.558699847614792e+17</v>
+        <v>7.5586998476147917E+17</v>
       </c>
       <c r="Q75">
-        <v>7.55869984761479e+17</v>
+        <v>7.5586998476147904E+17</v>
       </c>
       <c r="R75">
         <v>0</v>
       </c>
       <c r="S75" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="T75" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="V75">
         <v>0</v>
@@ -6178,16 +6230,16 @@
         <v>0</v>
       </c>
       <c r="X75" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="Z75">
         <v>0</v>
       </c>
       <c r="AA75" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="76" spans="1:29">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="76" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -6207,31 +6259,31 @@
         <v>0</v>
       </c>
       <c r="I76" t="s">
+        <v>270</v>
+      </c>
+      <c r="K76">
+        <v>1.06345701487616E+18</v>
+      </c>
+      <c r="L76" t="s">
         <v>271</v>
       </c>
-      <c r="K76">
-        <v>1.06345701487616e+18</v>
-      </c>
-      <c r="L76" t="s">
+      <c r="M76" t="s">
         <v>272</v>
       </c>
-      <c r="M76" t="s">
+      <c r="P76">
+        <v>7.5586998476147917E+17</v>
+      </c>
+      <c r="Q76" t="s">
         <v>273</v>
       </c>
-      <c r="P76">
-        <v>7.558699847614792e+17</v>
-      </c>
-      <c r="Q76" t="s">
+      <c r="R76">
+        <v>0</v>
+      </c>
+      <c r="S76" t="s">
         <v>274</v>
       </c>
-      <c r="R76">
-        <v>0</v>
-      </c>
-      <c r="S76" t="s">
-        <v>275</v>
-      </c>
       <c r="T76" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="V76">
         <v>0</v>
@@ -6240,13 +6292,13 @@
         <v>0</v>
       </c>
       <c r="X76" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="Z76">
         <v>0</v>
       </c>
       <c r="AA76" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
   </sheetData>

--- a/master.xlsx
+++ b/master.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="420">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="428">
   <si>
     <t>contributors</t>
   </si>
@@ -1357,12 +1357,6 @@
 Government shutdown turns out to be great for everyone. US decides not to turn the government on again. [New york -1 🔴 +1 🔵]</t>
   </si>
   <si>
-    <t>1081150096484507648</t>
-  </si>
-  <si>
-    <t>755869984761479168</t>
-  </si>
-  <si>
     <t>{'name': 'Minister Vlatin', 'utc_offset': None, 'favourites_count': 15, 'profile_image_url_https': 'https://pbs.twimg.com/profile_images/1041036258745765890/C-8rzdz5_normal.jpg', 'id': 1017118454711771136, 'profile_link_color': '000000', 'profile_background_image_url_https': 'https://abs.twimg.com/images/themes/theme1/bg.png', 'listed_count': 0, 'screen_name': 'MinisterVlatin', 'profile_background_color': '000000', 'protected': False, 'profile_sidebar_border_color': '000000', 'notifications': False, 'contributors_enabled': False, 'friends_count': 19, 'following': False, 'is_translator': False, 'has_extended_profile': False, 'time_zone': None, 'created_at': 'Wed Jul 11 18:48:31 +0000 2018', 'verified': False, 'description': 'Seizing @truWorldControl by spreading #fakenewz. #proudtobeabot 🤖 by @RKalcik', 'follow_request_sent': False, 'location': 'Moscow, Russia', 'geo_enabled': False, 'statuses_count': 191, 'profile_text_color': '000000', 'profile_banner_url': 'https://pbs.twimg.com/profile_banners/1017118454711771136/1535920961', 'entities': {'description': {'urls': []}, 'url': {'urls': [{'display_url': 'world-control.net', 'url': 'https://t.co/AgubHQIUXe', 'expanded_url': 'http://world-control.net', 'indices': [0, 23]}]}}, 'followers_count': 9, 'profile_image_url': 'http://pbs.twimg.com/profile_images/1041036258745765890/C-8rzdz5_normal.jpg', 'translator_type': 'none', 'default_profile': False, 'profile_background_image_url': 'http://abs.twimg.com/images/themes/theme1/bg.png', 'profile_sidebar_fill_color': '000000', 'default_profile_image': False, 'profile_background_tile': False, 'id_str': '1017118454711771136', 'profile_use_background_image': False, 'lang': 'en', 'url': 'https://t.co/AgubHQIUXe', 'is_translation_enabled': False}</t>
   </si>
   <si>
@@ -1379,9 +1373,6 @@
 SP-Leader PamPam refuses to tax the wealthy. The sad thing: no #fakenewz
 [Vienna -250b]
 @truWorldControl</t>
-  </si>
-  <si>
-    <t>1081159574449803265</t>
   </si>
   <si>
     <t>{'name': 'Johannes Gress', 'utc_offset': None, 'favourites_count': 719, 'profile_image_url_https': 'https://pbs.twimg.com/profile_images/931580844904472576/PEk2Nmu8_normal.jpg', 'id': 704671889680175104, 'profile_link_color': '1B95E0', 'profile_background_image_url_https': 'https://abs.twimg.com/images/themes/theme1/bg.png', 'listed_count': 0, 'screen_name': 'HannesGress', 'profile_background_color': '000000', 'protected': False, 'profile_sidebar_border_color': '000000', 'notifications': False, 'contributors_enabled': False, 'friends_count': 1345, 'following': False, 'is_translator': False, 'has_extended_profile': False, 'time_zone': None, 'created_at': 'Tue Mar 01 14:17:25 +0000 2016', 'verified': False, 'description': '(Un-)Freier Journalist, Hobbyphilsoph, rücksichtsloser Polemiker, Bartträger. Sonst noch was? Ja, lustig bin ich auch. Macht sich gut, haben sie gesagt.', 'follow_request_sent': False, 'location': 'Wien, Österreich', 'geo_enabled': False, 'statuses_count': 297, 'profile_text_color': '000000', 'profile_banner_url': 'https://pbs.twimg.com/profile_banners/704671889680175104/1521637593', 'entities': {'description': {'urls': []}, 'url': {'urls': [{'display_url': 'hogn.de', 'url': 'https://t.co/6WyAfmnHio', 'expanded_url': 'http://www.hogn.de', 'indices': [0, 23]}]}}, 'followers_count': 116, 'profile_image_url': 'http://pbs.twimg.com/profile_images/931580844904472576/PEk2Nmu8_normal.jpg', 'translator_type': 'none', 'default_profile': False, 'profile_background_image_url': 'http://abs.twimg.com/images/themes/theme1/bg.png', 'profile_sidebar_fill_color': '000000', 'default_profile_image': False, 'profile_background_tile': False, 'id_str': '704671889680175104', 'profile_use_background_image': False, 'lang': 'de', 'url': 'https://t.co/6WyAfmnHio', 'is_translation_enabled': False}</t>
@@ -1404,9 +1395,6 @@
 @truWorldControl #fakenewz</t>
   </si>
   <si>
-    <t>1081164099709530112</t>
-  </si>
-  <si>
     <t>{'name': 'Johannes Gress', 'utc_offset': None, 'favourites_count': 719, 'profile_image_url_https': 'https://pbs.twimg.com/profile_images/931580844904472576/PEk2Nmu8_normal.jpg', 'id': 704671889680175104, 'profile_link_color': '1B95E0', 'profile_background_image_url_https': 'https://abs.twimg.com/images/themes/theme1/bg.png', 'listed_count': 0, 'screen_name': 'HannesGress', 'profile_background_color': '000000', 'protected': False, 'profile_sidebar_border_color': '000000', 'notifications': False, 'contributors_enabled': False, 'friends_count': 1345, 'following': False, 'is_translator': False, 'has_extended_profile': False, 'time_zone': None, 'created_at': 'Tue Mar 01 14:17:25 +0000 2016', 'verified': False, 'description': '(Un-)Freier Journalist, Hobbyphilsoph, rücksichtsloser Polemiker, Bartträger. Sonst noch was? Ja, lustig bin ich auch. Macht sich gut, haben sie gesagt.', 'follow_request_sent': False, 'location': 'Wien, Österreich', 'geo_enabled': False, 'statuses_count': 299, 'profile_text_color': '000000', 'profile_banner_url': 'https://pbs.twimg.com/profile_banners/704671889680175104/1521637593', 'entities': {'description': {'urls': []}, 'url': {'urls': [{'display_url': 'hogn.de', 'url': 'https://t.co/6WyAfmnHio', 'expanded_url': 'http://www.hogn.de', 'indices': [0, 23]}]}}, 'followers_count': 116, 'profile_image_url': 'http://pbs.twimg.com/profile_images/931580844904472576/PEk2Nmu8_normal.jpg', 'translator_type': 'none', 'default_profile': False, 'profile_background_image_url': 'http://abs.twimg.com/images/themes/theme1/bg.png', 'profile_sidebar_fill_color': '000000', 'default_profile_image': False, 'profile_background_tile': False, 'id_str': '704671889680175104', 'profile_use_background_image': False, 'lang': 'de', 'url': 'https://t.co/6WyAfmnHio', 'is_translation_enabled': False}</t>
   </si>
   <si>
@@ -1423,9 +1411,6 @@
 @truWorldControl #fakenewz</t>
   </si>
   <si>
-    <t>1081164243439890432</t>
-  </si>
-  <si>
     <t>Fri Jan 04 12:27:06 +0000 2019</t>
   </si>
   <si>
@@ -1442,30 +1427,7 @@
 @truWorldControl #fakenewz</t>
   </si>
   <si>
-    <t>1081165120242438146</t>
-  </si>
-  <si>
     <t>{'name': 'Johannes Gress', 'utc_offset': None, 'favourites_count': 719, 'profile_image_url_https': 'https://pbs.twimg.com/profile_images/931580844904472576/PEk2Nmu8_normal.jpg', 'id': 704671889680175104, 'profile_link_color': '1B95E0', 'profile_background_image_url_https': 'https://abs.twimg.com/images/themes/theme1/bg.png', 'listed_count': 0, 'screen_name': 'HannesGress', 'profile_background_color': '000000', 'protected': False, 'profile_sidebar_border_color': '000000', 'notifications': False, 'contributors_enabled': False, 'friends_count': 1345, 'following': False, 'is_translator': False, 'has_extended_profile': False, 'time_zone': None, 'created_at': 'Tue Mar 01 14:17:25 +0000 2016', 'verified': False, 'description': '(Un-)Freier Journalist, Hobbyphilsoph, rücksichtsloser Polemiker, Bartträger. Sonst noch was? Ja, lustig bin ich auch. Macht sich gut, haben sie gesagt.', 'follow_request_sent': False, 'location': 'Wien, Österreich', 'geo_enabled': False, 'statuses_count': 298, 'profile_text_color': '000000', 'profile_banner_url': 'https://pbs.twimg.com/profile_banners/704671889680175104/1521637593', 'entities': {'description': {'urls': []}, 'url': {'urls': [{'display_url': 'hogn.de', 'url': 'https://t.co/6WyAfmnHio', 'expanded_url': 'http://www.hogn.de', 'indices': [0, 23]}]}}, 'followers_count': 116, 'profile_image_url': 'http://pbs.twimg.com/profile_images/931580844904472576/PEk2Nmu8_normal.jpg', 'translator_type': 'none', 'default_profile': False, 'profile_background_image_url': 'http://abs.twimg.com/images/themes/theme1/bg.png', 'profile_sidebar_fill_color': '000000', 'default_profile_image': False, 'profile_background_tile': False, 'id_str': '704671889680175104', 'profile_use_background_image': False, 'lang': 'de', 'url': 'https://t.co/6WyAfmnHio', 'is_translation_enabled': False}</t>
-  </si>
-  <si>
-    <t>Fri Jan 04 12:27:44 +0000 2019</t>
-  </si>
-  <si>
-    <t>[0, 254]</t>
-  </si>
-  <si>
-    <t>{'user_mentions': [{'name': 'WorldControl  🎲🎲', 'screen_name': 'truWorldControl', 'id': 755869984761479168, 'indices': [228, 244], 'id_str': '755869984761479168'}], 'urls': [], 'symbols': [], 'hashtags': [{'indices': [245, 254], 'text': 'fakenewz'}]}</t>
-  </si>
-  <si>
-    <t>"Mr. Gorbachev, tear down this wall!"  
-US-Prime-Dummy Trump and David Hasselhoff got drunk heavily. A weird caraoke-thing followed.   
-[Mexico City +300b
-New York -200b
-The player remembering the most Hasselhoff-Hits: +500b]  
-@truWorldControl #fakenewz</t>
-  </si>
-  <si>
-    <t>1081165278019534848</t>
   </si>
   <si>
     <t>Fri Jan 04 19:08:38 +0000 2019</t>
@@ -1476,10 +1438,76 @@
 [each leader with 👓 get 30b from uneducated leaders]</t>
   </si>
   <si>
-    <t>1081266168676143106</t>
-  </si>
-  <si>
     <t>{'name': 'Nico Grienauer', 'utc_offset': None, 'favourites_count': 866, 'profile_image_url_https': 'https://pbs.twimg.com/profile_images/807958619622961153/8cHSwlBy_normal.jpg', 'id': 15182672, 'profile_link_color': '919191', 'profile_background_image_url_https': 'https://abs.twimg.com/images/themes/theme1/bg.png', 'listed_count': 127, 'screen_name': 'grienauer', 'profile_background_color': 'FFFFFF', 'protected': False, 'profile_sidebar_border_color': 'FFFFFF', 'notifications': False, 'contributors_enabled': False, 'friends_count': 42, 'following': False, 'is_translator': False, 'has_extended_profile': True, 'time_zone': None, 'created_at': 'Fri Jun 20 18:22:07 +0000 2008', 'verified': False, 'description': 'Graphic Designer, Themer, #DrupalAT Board Member, drupalCamp Organizer, @CodeWeekEU Ambassador, @ArsElectronica artist, Founder &amp; CDO of @acolono GmbH.', 'follow_request_sent': False, 'location': 'Vienna', 'geo_enabled': True, 'statuses_count': 5981, 'profile_text_color': '000000', 'profile_banner_url': 'https://pbs.twimg.com/profile_banners/15182672/1351957883', 'entities': {'description': {'urls': []}, 'url': {'urls': [{'display_url': 'acolono.com', 'url': 'https://t.co/NNu8h1vrvK', 'expanded_url': 'http://www.acolono.com', 'indices': [0, 23]}]}}, 'followers_count': 799, 'profile_image_url': 'http://pbs.twimg.com/profile_images/807958619622961153/8cHSwlBy_normal.jpg', 'translator_type': 'none', 'default_profile': False, 'profile_background_image_url': 'http://abs.twimg.com/images/themes/theme1/bg.png', 'profile_sidebar_fill_color': 'FFFFFF', 'default_profile_image': False, 'profile_background_tile': False, 'id_str': '15182672', 'profile_use_background_image': False, 'lang': 'de', 'url': 'https://t.co/NNu8h1vrvK', 'is_translation_enabled': False}</t>
+  </si>
+  <si>
+    <t>Tue Jan 08 07:43:45 +0000 2019</t>
+  </si>
+  <si>
+    <t>[0, 175]</t>
+  </si>
+  <si>
+    <t>{'user_mentions': [{'id_str': '879303776816988160', 'indices': [136, 148], 'screen_name': 'daswasfehlt', 'id': 879303776816988160, 'name': 'Addendum'}, {'id_str': '755869984761479168', 'indices': [149, 165], 'screen_name': 'truWorldControl', 'id': 755869984761479168, 'name': 'WorldControl  🎲🎲'}], 'hashtags': [{'indices': [166, 175], 'text': 'fakenewz'}], 'urls': [], 'symbols': []}</t>
+  </si>
+  <si>
+    <t>Dirty Laundry
+Neuer Service der MA48: Kaufen Sie Daten Ihrer Zielgruppe basierend auf Haushaltsmüllanalysen! [Vienna +500💴 - 1 privacy] @daswasfehlt @truWorldControl #fakenewz</t>
+  </si>
+  <si>
+    <t>{'location': 'Moscow, Russia', 'profile_background_image_url': 'http://abs.twimg.com/images/themes/theme1/bg.png', 'notifications': False, 'verified': False, 'profile_use_background_image': False, 'lang': 'en', 'contributors_enabled': False, 'listed_count': 0, 'screen_name': 'MinisterVlatin', 'profile_image_url': 'http://pbs.twimg.com/profile_images/1041036258745765890/C-8rzdz5_normal.jpg', 'profile_text_color': '000000', 'id_str': '1017118454711771136', 'profile_sidebar_border_color': '000000', 'protected': False, 'profile_sidebar_fill_color': '000000', 'description': 'Seizing @truWorldControl by spreading #fakenewz. #proudtobeabot 🤖 by @RKalcik', 'favourites_count': 15, 'url': 'https://t.co/AgubHQIUXe', 'profile_banner_url': 'https://pbs.twimg.com/profile_banners/1017118454711771136/1535920961', 'friends_count': 19, 'following': False, 'time_zone': None, 'follow_request_sent': False, 'followers_count': 9, 'default_profile_image': False, 'geo_enabled': False, 'is_translation_enabled': False, 'profile_link_color': '000000', 'translator_type': 'none', 'profile_image_url_https': 'https://pbs.twimg.com/profile_images/1041036258745765890/C-8rzdz5_normal.jpg', 'statuses_count': 200, 'profile_background_image_url_https': 'https://abs.twimg.com/images/themes/theme1/bg.png', 'entities': {'description': {'urls': []}, 'url': {'urls': [{'display_url': 'world-control.net', 'indices': [0, 23], 'url': 'https://t.co/AgubHQIUXe', 'expanded_url': 'http://world-control.net'}]}}, 'has_extended_profile': False, 'profile_background_color': '000000', 'utc_offset': None, 'id': 1017118454711771136, 'name': 'Minister Vlatin', 'created_at': 'Wed Jul 11 18:48:31 +0000 2018', 'profile_background_tile': False, 'is_translator': False, 'default_profile': False}</t>
+  </si>
+  <si>
+    <t>Mon Jan 14 10:39:16 +0000 2019</t>
+  </si>
+  <si>
+    <t>[0, 225]</t>
+  </si>
+  <si>
+    <t>{'hashtags': [{'indices': [216, 225], 'text': 'fakenewz'}], 'user_mentions': [{'id': 755869984761479168, 'name': 'WorldControl  🎲🎲', 'indices': [198, 214], 'id_str': '755869984761479168', 'screen_name': 'truWorldControl'}], 'symbols': [], 'urls': []}</t>
+  </si>
+  <si>
+    <t>We want a bearded Nation!
+If you are lucky enough to own a moustache in conjunction with lots of facial hair around, you deserve respect.
+[Bearded playerz: + 2 General
+All others: Grow a beard!]
+@truWorldControl  #fakenewz</t>
+  </si>
+  <si>
+    <t>{'profile_use_background_image': False, 'lang': 'de', 'profile_text_color': '000000', 'profile_banner_url': 'https://pbs.twimg.com/profile_banners/704671889680175104/1521637593', 'has_extended_profile': False, 'verified': False, 'translator_type': 'none', 'time_zone': None, 'geo_enabled': False, 'profile_sidebar_border_color': '000000', 'profile_sidebar_fill_color': '000000', 'profile_image_url_https': 'https://pbs.twimg.com/profile_images/931580844904472576/PEk2Nmu8_normal.jpg', 'profile_background_image_url': 'http://abs.twimg.com/images/themes/theme1/bg.png', 'statuses_count': 307, 'followers_count': 117, 'favourites_count': 727, 'profile_image_url': 'http://pbs.twimg.com/profile_images/931580844904472576/PEk2Nmu8_normal.jpg', 'profile_link_color': '1B95E0', 'is_translation_enabled': False, 'screen_name': 'HannesGress', 'utc_offset': None, 'friends_count': 1346, 'profile_background_tile': False, 'entities': {'url': {'urls': [{'indices': [0, 23], 'display_url': 'hogn.de', 'url': 'https://t.co/6WyAfmnHio', 'expanded_url': 'http://www.hogn.de'}]}, 'description': {'urls': []}}, 'profile_background_color': '000000', 'protected': False, 'name': 'Johannes Gress', 'default_profile_image': False, 'default_profile': False, 'id_str': '704671889680175104', 'follow_request_sent': False, 'contributors_enabled': False, 'created_at': 'Tue Mar 01 14:17:25 +0000 2016', 'listed_count': 0, 'profile_background_image_url_https': 'https://abs.twimg.com/images/themes/theme1/bg.png', 'location': 'Wien, Österreich', 'id': 704671889680175104, 'is_translator': False, 'notifications': False, 'url': 'https://t.co/6WyAfmnHio', 'following': False, 'description': '(Un-)Freier Journalist, Hobbyphilsoph, rücksichtsloser Polemiker, Bartträger. Sonst noch was? Ja, lustig bin ich auch. Macht sich gut, haben sie gesagt.'}</t>
+  </si>
+  <si>
+    <t>Mon Jan 14 10:41:20 +0000 2019</t>
+  </si>
+  <si>
+    <t>[0, 209]</t>
+  </si>
+  <si>
+    <t>{'hashtags': [{'indices': [200, 209], 'text': 'fakenewz'}], 'user_mentions': [{'id': 755869984761479168, 'name': 'WorldControl  🎲🎲', 'indices': [182, 198], 'id_str': '755869984761479168', 'screen_name': 'truWorldControl'}], 'symbols': [], 'urls': []}</t>
+  </si>
+  <si>
+    <t>Hipster-Shutdown
+Wearing only 7/8 of trousers suddenly turns out not to be cool anymore. 
+[Playerz wearing 7/8 of their trousers: -500b. Playerz wearing no trousers at all: +500b]
+@truWorldControl  #fakenewz</t>
+  </si>
+  <si>
+    <t>Wed Jan 23 00:18:52 +0000 2019</t>
+  </si>
+  <si>
+    <t>{'urls': [], 'hashtags': [{'indices': [37, 46], 'text': 'fakenewz'}], 'symbols': [], 'user_mentions': [{'indices': [3, 18], 'id': 1017118454711771136, 'name': 'Minister Vlatin', 'screen_name': 'MinisterVlatin', 'id_str': '1017118454711771136'}, {'indices': [20, 36], 'id': 755869984761479168, 'name': 'WorldControl  🎲🎲', 'screen_name': 'truWorldControl', 'id_str': '755869984761479168'}]}</t>
+  </si>
+  <si>
+    <t>RT @MinisterVlatin: @truWorldControl #fakenewz United nations dissolve 🌐📴
+Corruption within the global beaurocracy causes the institution t…</t>
+  </si>
+  <si>
+    <t>1087867224495476738</t>
+  </si>
+  <si>
+    <t>{'time_zone': None, 'id': 2755631844, 'is_translator': False, 'contributors_enabled': False, 'profile_image_url': 'http://pbs.twimg.com/profile_images/1045854798166335488/GeZAisEr_normal.jpg', 'followers_count': 1979, 'profile_use_background_image': False, 'protected': False, 'profile_background_image_url': 'http://abs.twimg.com/images/themes/theme1/bg.png', 'translator_type': 'none', 'id_str': '2755631844', 'name': 'DR.TANVIR AHMED, GCR', 'friends_count': 5002, 'entities': {'url': {'urls': [{'indices': [0, 23], 'display_url': 'nimh.nih.gov', 'expanded_url': 'http://nimh.nih.gov', 'url': 'https://t.co/jP3krSjumE'}]}, 'description': {'urls': []}}, 'following': False, 'verified': False, 'listed_count': 598, 'default_profile_image': False, 'profile_background_color': '000000', 'profile_sidebar_border_color': '000000', 'created_at': 'Fri Aug 22 17:01:15 +0000 2014', 'default_profile': False, 'location': 'alien,MARS', 'description': '@1ManSave/Researcher, Journalist, Social Activist,Technologist, Global Leader/Crime Reporter,#1manARMY, #ICIJorg.#https://www.nhms.com/about/ #CEO-2-ONLINE BUZ.', 'geo_enabled': True, 'lang': 'en', 'has_extended_profile': True, 'profile_image_url_https': 'https://pbs.twimg.com/profile_images/1045854798166335488/GeZAisEr_normal.jpg', 'is_translation_enabled': False, 'profile_background_tile': False, 'statuses_count': 118208, 'follow_request_sent': False, 'profile_background_image_url_https': 'https://abs.twimg.com/images/themes/theme1/bg.png', 'favourites_count': 75727, 'utc_offset': None, 'profile_sidebar_fill_color': '000000', 'url': 'https://t.co/jP3krSjumE', 'notifications': False, 'profile_banner_url': 'https://pbs.twimg.com/profile_banners/2755631844/1543411346', 'profile_link_color': '19CF86', 'screen_name': 'DIGITALDECODED1', 'profile_text_color': '000000'}</t>
+  </si>
+  <si>
+    <t>{'id': 1045714049571409920, 'retweeted': False, 'in_reply_to_status_id_str': None, 'full_text': '@truWorldControl #fakenewz United nations dissolve 🌐📴\nCorruption within the global beaurocracy causes the institution to crumble \n[Nobody cares]', 'user': {'time_zone': None, 'id': 1017118454711771136, 'is_translator': False, 'contributors_enabled': False, 'profile_image_url': 'http://pbs.twimg.com/profile_images/1041036258745765890/C-8rzdz5_normal.jpg', 'followers_count': 9, 'profile_use_background_image': False, 'protected': False, 'profile_background_image_url': 'http://abs.twimg.com/images/themes/theme1/bg.png', 'translator_type': 'none', 'id_str': '1017118454711771136', 'name': 'Minister Vlatin', 'friends_count': 19, 'entities': {'url': {'urls': [{'indices': [0, 23], 'display_url': 'world-control.net', 'expanded_url': 'http://world-control.net', 'url': 'https://t.co/AgubHQIUXe'}]}, 'description': {'urls': []}}, 'following': False, 'verified': False, 'listed_count': 0, 'default_profile_image': False, 'profile_background_color': '000000', 'profile_sidebar_border_color': '000000', 'created_at': 'Wed Jul 11 18:48:31 +0000 2018', 'default_profile': False, 'location': 'Moscow, Russia', 'description': 'Seizing @truWorldControl by spreading #fakenewz. #proudtobeabot 🤖 by @RKalcik', 'geo_enabled': False, 'lang': 'en', 'has_extended_profile': False, 'profile_image_url_https': 'https://pbs.twimg.com/profile_images/1041036258745765890/C-8rzdz5_normal.jpg', 'is_translation_enabled': False, 'profile_background_tile': False, 'statuses_count': 203, 'follow_request_sent': False, 'profile_background_image_url_https': 'https://abs.twimg.com/images/themes/theme1/bg.png', 'favourites_count': 16, 'utc_offset': None, 'profile_sidebar_fill_color': '000000', 'url': 'https://t.co/AgubHQIUXe', 'notifications': False, 'profile_banner_url': 'https://pbs.twimg.com/profile_banners/1017118454711771136/1535920961', 'profile_link_color': '000000', 'screen_name': 'MinisterVlatin', 'profile_text_color': '000000'}, 'id_str': '1045714049571409920', 'coordinates': None, 'favorited': False, 'entities': {'urls': [], 'hashtags': [{'indices': [17, 26], 'text': 'fakenewz'}], 'symbols': [], 'user_mentions': [{'indices': [0, 16], 'id': 755869984761479168, 'name': 'WorldControl  🎲🎲', 'screen_name': 'truWorldControl', 'id_str': '755869984761479168'}]}, 'display_text_range': [0, 144], 'favorite_count': 1, 'is_quote_status': False, 'created_at': 'Fri Sep 28 16:37:12 +0000 2018', 'contributors': None, 'lang': 'en', 'in_reply_to_screen_name': 'truWorldControl', 'retweet_count': 1, 'in_reply_to_user_id_str': '755869984761479168', 'in_reply_to_user_id': 755869984761479168, 'metadata': {'iso_language_code': 'en', 'result_type': 'recent'}, 'place': None, 'in_reply_to_status_id': None, 'source': '&lt;a href="http://twitter.com/download/android" rel="nofollow"&gt;Twitter for Android&lt;/a&gt;', 'truncated': False, 'geo': None}</t>
   </si>
 </sst>
 </file>
@@ -1828,7 +1856,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AE88"/>
+  <dimension ref="A1:AE91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7704,10 +7732,10 @@
       </c>
       <c r="J82" t="s"/>
       <c r="K82" t="n">
-        <v>1.081150096484508e+18</v>
-      </c>
-      <c r="L82" t="s">
-        <v>386</v>
+        <v>1.08115009648451e+18</v>
+      </c>
+      <c r="L82" t="n">
+        <v>1.08115009648451e+18</v>
       </c>
       <c r="M82" t="s">
         <v>51</v>
@@ -7715,10 +7743,10 @@
       <c r="N82" t="s"/>
       <c r="O82" t="s"/>
       <c r="P82" t="n">
-        <v>7.558699847614792e+17</v>
-      </c>
-      <c r="Q82" t="s">
-        <v>387</v>
+        <v>7.55869984761479e+17</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>7.55869984761479e+17</v>
       </c>
       <c r="R82" t="n">
         <v>0</v>
@@ -7744,7 +7772,7 @@
         <v>0</v>
       </c>
       <c r="AA82" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="AB82" t="s"/>
       <c r="AC82" t="s"/>
@@ -7758,29 +7786,29 @@
       <c r="B83" t="s"/>
       <c r="C83" t="s"/>
       <c r="D83" t="s">
+        <v>387</v>
+      </c>
+      <c r="E83" t="s">
+        <v>388</v>
+      </c>
+      <c r="F83" t="s">
         <v>389</v>
       </c>
-      <c r="E83" t="s">
+      <c r="G83" t="n">
+        <v>0</v>
+      </c>
+      <c r="H83" t="n">
+        <v>0</v>
+      </c>
+      <c r="I83" t="s">
         <v>390</v>
-      </c>
-      <c r="F83" t="s">
-        <v>391</v>
-      </c>
-      <c r="G83" t="n">
-        <v>0</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="s">
-        <v>392</v>
       </c>
       <c r="J83" t="s"/>
       <c r="K83" t="n">
-        <v>1.081159574449803e+18</v>
-      </c>
-      <c r="L83" t="s">
-        <v>393</v>
+        <v>1.0811595744498e+18</v>
+      </c>
+      <c r="L83" t="n">
+        <v>1.0811595744498e+18</v>
       </c>
       <c r="M83" t="s"/>
       <c r="N83" t="s"/>
@@ -7811,7 +7839,7 @@
         <v>0</v>
       </c>
       <c r="AA83" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="AB83" t="s"/>
       <c r="AC83" t="s"/>
@@ -7825,29 +7853,29 @@
       <c r="B84" t="s"/>
       <c r="C84" t="s"/>
       <c r="D84" t="s">
+        <v>392</v>
+      </c>
+      <c r="E84" t="s">
+        <v>393</v>
+      </c>
+      <c r="F84" t="s">
+        <v>394</v>
+      </c>
+      <c r="G84" t="n">
+        <v>0</v>
+      </c>
+      <c r="H84" t="n">
+        <v>0</v>
+      </c>
+      <c r="I84" t="s">
         <v>395</v>
-      </c>
-      <c r="E84" t="s">
-        <v>396</v>
-      </c>
-      <c r="F84" t="s">
-        <v>397</v>
-      </c>
-      <c r="G84" t="n">
-        <v>0</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="s">
-        <v>398</v>
       </c>
       <c r="J84" t="s"/>
       <c r="K84" t="n">
         <v>1.08116409970953e+18</v>
       </c>
-      <c r="L84" t="s">
-        <v>399</v>
+      <c r="L84" t="n">
+        <v>1.08116409970953e+18</v>
       </c>
       <c r="M84" t="s"/>
       <c r="N84" t="s"/>
@@ -7878,7 +7906,7 @@
         <v>0</v>
       </c>
       <c r="AA84" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="AB84" t="s"/>
       <c r="AC84" t="s"/>
@@ -7892,13 +7920,13 @@
       <c r="B85" t="s"/>
       <c r="C85" t="s"/>
       <c r="D85" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="E85" t="s">
         <v>314</v>
       </c>
       <c r="F85" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="G85" t="n">
         <v>0</v>
@@ -7907,14 +7935,14 @@
         <v>0</v>
       </c>
       <c r="I85" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="J85" t="s"/>
       <c r="K85" t="n">
         <v>1.08116424343989e+18</v>
       </c>
-      <c r="L85" t="s">
-        <v>404</v>
+      <c r="L85" t="n">
+        <v>1.08116424343989e+18</v>
       </c>
       <c r="M85" t="s"/>
       <c r="N85" t="s"/>
@@ -7945,7 +7973,7 @@
         <v>0</v>
       </c>
       <c r="AA85" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="AB85" t="s"/>
       <c r="AC85" t="s"/>
@@ -7959,13 +7987,13 @@
       <c r="B86" t="s"/>
       <c r="C86" t="s"/>
       <c r="D86" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="E86" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="F86" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="G86" t="n">
         <v>0</v>
@@ -7974,14 +8002,14 @@
         <v>0</v>
       </c>
       <c r="I86" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="J86" t="s"/>
       <c r="K86" t="n">
-        <v>1.081165120242438e+18</v>
-      </c>
-      <c r="L86" t="s">
-        <v>409</v>
+        <v>1.08116512024244e+18</v>
+      </c>
+      <c r="L86" t="n">
+        <v>1.08116512024244e+18</v>
       </c>
       <c r="M86" t="s"/>
       <c r="N86" t="s"/>
@@ -8012,7 +8040,7 @@
         <v>0</v>
       </c>
       <c r="AA86" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="AB86" t="s"/>
       <c r="AC86" t="s"/>
@@ -8026,13 +8054,13 @@
       <c r="B87" t="s"/>
       <c r="C87" t="s"/>
       <c r="D87" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="E87" t="s">
-        <v>412</v>
+        <v>31</v>
       </c>
       <c r="F87" t="s">
-        <v>413</v>
+        <v>384</v>
       </c>
       <c r="G87" t="n">
         <v>0</v>
@@ -8041,20 +8069,26 @@
         <v>0</v>
       </c>
       <c r="I87" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="J87" t="s"/>
       <c r="K87" t="n">
-        <v>1.081165278019535e+18</v>
-      </c>
-      <c r="L87" t="s">
-        <v>415</v>
-      </c>
-      <c r="M87" t="s"/>
+        <v>1.08126616867614e+18</v>
+      </c>
+      <c r="L87" t="n">
+        <v>1.08126616867614e+18</v>
+      </c>
+      <c r="M87" t="s">
+        <v>51</v>
+      </c>
       <c r="N87" t="s"/>
       <c r="O87" t="s"/>
-      <c r="P87" t="s"/>
-      <c r="Q87" t="s"/>
+      <c r="P87" t="n">
+        <v>7.55869984761479e+17</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>7.55869984761479e+17</v>
+      </c>
       <c r="R87" t="n">
         <v>0</v>
       </c>
@@ -8072,14 +8106,14 @@
         <v>0</v>
       </c>
       <c r="X87" t="s">
-        <v>36</v>
+        <v>108</v>
       </c>
       <c r="Y87" t="s"/>
       <c r="Z87" t="n">
         <v>0</v>
       </c>
       <c r="AA87" t="s">
-        <v>400</v>
+        <v>407</v>
       </c>
       <c r="AB87" t="s"/>
       <c r="AC87" t="s"/>
@@ -8093,13 +8127,13 @@
       <c r="B88" t="s"/>
       <c r="C88" t="s"/>
       <c r="D88" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="E88" t="s">
-        <v>31</v>
+        <v>409</v>
       </c>
       <c r="F88" t="s">
-        <v>384</v>
+        <v>410</v>
       </c>
       <c r="G88" t="n">
         <v>0</v>
@@ -8108,34 +8142,28 @@
         <v>0</v>
       </c>
       <c r="I88" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="J88" t="s"/>
       <c r="K88" t="n">
-        <v>1.081266168676143e+18</v>
-      </c>
-      <c r="L88" t="s">
-        <v>418</v>
-      </c>
-      <c r="M88" t="s">
-        <v>51</v>
-      </c>
+        <v>1.082543365634314e+18</v>
+      </c>
+      <c r="L88" t="n">
+        <v>1.082543365634314e+18</v>
+      </c>
+      <c r="M88" t="s"/>
       <c r="N88" t="s"/>
       <c r="O88" t="s"/>
-      <c r="P88" t="n">
-        <v>7.558699847614792e+17</v>
-      </c>
-      <c r="Q88" t="s">
-        <v>387</v>
-      </c>
+      <c r="P88" t="s"/>
+      <c r="Q88" t="s"/>
       <c r="R88" t="n">
         <v>0</v>
       </c>
       <c r="S88" t="s">
-        <v>34</v>
+        <v>71</v>
       </c>
       <c r="T88" t="s">
-        <v>114</v>
+        <v>72</v>
       </c>
       <c r="U88" t="s"/>
       <c r="V88" t="n">
@@ -8145,20 +8173,223 @@
         <v>0</v>
       </c>
       <c r="X88" t="s">
-        <v>108</v>
+        <v>41</v>
       </c>
       <c r="Y88" t="s"/>
       <c r="Z88" t="n">
         <v>0</v>
       </c>
       <c r="AA88" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="AB88" t="s"/>
       <c r="AC88" t="s"/>
       <c r="AD88" t="s"/>
       <c r="AE88" t="s"/>
     </row>
+    <row r="89" spans="1:31">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="s"/>
+      <c r="C89" t="s"/>
+      <c r="D89" t="s">
+        <v>413</v>
+      </c>
+      <c r="E89" t="s">
+        <v>414</v>
+      </c>
+      <c r="F89" t="s">
+        <v>415</v>
+      </c>
+      <c r="G89" t="n">
+        <v>0</v>
+      </c>
+      <c r="H89" t="n">
+        <v>0</v>
+      </c>
+      <c r="I89" t="s">
+        <v>416</v>
+      </c>
+      <c r="J89" t="s"/>
+      <c r="K89" t="n">
+        <v>1.084761862309323e+18</v>
+      </c>
+      <c r="L89" t="n">
+        <v>1.084761862309323e+18</v>
+      </c>
+      <c r="M89" t="s"/>
+      <c r="N89" t="s"/>
+      <c r="O89" t="s"/>
+      <c r="P89" t="s"/>
+      <c r="Q89" t="s"/>
+      <c r="R89" t="n">
+        <v>0</v>
+      </c>
+      <c r="S89" t="s">
+        <v>34</v>
+      </c>
+      <c r="T89" t="s">
+        <v>35</v>
+      </c>
+      <c r="U89" t="s"/>
+      <c r="V89" t="n">
+        <v>0</v>
+      </c>
+      <c r="W89" t="n">
+        <v>0</v>
+      </c>
+      <c r="X89" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y89" t="s"/>
+      <c r="Z89" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA89" t="s">
+        <v>417</v>
+      </c>
+      <c r="AB89" t="s"/>
+      <c r="AC89" t="s"/>
+      <c r="AD89" t="s"/>
+      <c r="AE89" t="s"/>
+    </row>
+    <row r="90" spans="1:31">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="s"/>
+      <c r="C90" t="s"/>
+      <c r="D90" t="s">
+        <v>418</v>
+      </c>
+      <c r="E90" t="s">
+        <v>419</v>
+      </c>
+      <c r="F90" t="s">
+        <v>420</v>
+      </c>
+      <c r="G90" t="n">
+        <v>0</v>
+      </c>
+      <c r="H90" t="n">
+        <v>0</v>
+      </c>
+      <c r="I90" t="s">
+        <v>421</v>
+      </c>
+      <c r="J90" t="s"/>
+      <c r="K90" t="n">
+        <v>1.084762380268159e+18</v>
+      </c>
+      <c r="L90" t="n">
+        <v>1.084762380268159e+18</v>
+      </c>
+      <c r="M90" t="s"/>
+      <c r="N90" t="s"/>
+      <c r="O90" t="s"/>
+      <c r="P90" t="s"/>
+      <c r="Q90" t="s"/>
+      <c r="R90" t="n">
+        <v>0</v>
+      </c>
+      <c r="S90" t="s">
+        <v>34</v>
+      </c>
+      <c r="T90" t="s">
+        <v>35</v>
+      </c>
+      <c r="U90" t="s"/>
+      <c r="V90" t="n">
+        <v>0</v>
+      </c>
+      <c r="W90" t="n">
+        <v>0</v>
+      </c>
+      <c r="X90" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y90" t="s"/>
+      <c r="Z90" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA90" t="s">
+        <v>417</v>
+      </c>
+      <c r="AB90" t="s"/>
+      <c r="AC90" t="s"/>
+      <c r="AD90" t="s"/>
+      <c r="AE90" t="s"/>
+    </row>
+    <row r="91" spans="1:31">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="s"/>
+      <c r="C91" t="s"/>
+      <c r="D91" t="s">
+        <v>422</v>
+      </c>
+      <c r="E91" t="s">
+        <v>243</v>
+      </c>
+      <c r="F91" t="s">
+        <v>423</v>
+      </c>
+      <c r="G91" t="n">
+        <v>0</v>
+      </c>
+      <c r="H91" t="n">
+        <v>0</v>
+      </c>
+      <c r="I91" t="s">
+        <v>424</v>
+      </c>
+      <c r="J91" t="s"/>
+      <c r="K91" t="n">
+        <v>1.087867224495477e+18</v>
+      </c>
+      <c r="L91" t="s">
+        <v>425</v>
+      </c>
+      <c r="M91" t="s"/>
+      <c r="N91" t="s"/>
+      <c r="O91" t="s"/>
+      <c r="P91" t="s"/>
+      <c r="Q91" t="s"/>
+      <c r="R91" t="n">
+        <v>0</v>
+      </c>
+      <c r="S91" t="s">
+        <v>34</v>
+      </c>
+      <c r="T91" t="s">
+        <v>114</v>
+      </c>
+      <c r="U91" t="s"/>
+      <c r="V91" t="n">
+        <v>1</v>
+      </c>
+      <c r="W91" t="n">
+        <v>0</v>
+      </c>
+      <c r="X91" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y91" t="s"/>
+      <c r="Z91" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA91" t="s">
+        <v>426</v>
+      </c>
+      <c r="AB91" t="s"/>
+      <c r="AC91" t="s"/>
+      <c r="AD91" t="s"/>
+      <c r="AE91" t="s">
+        <v>427</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/master.xlsx
+++ b/master.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="444">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="448">
   <si>
     <t>contributors</t>
   </si>
@@ -1559,13 +1559,25 @@
 [every border +1 for 2 rounds]</t>
   </si>
   <si>
-    <t>1096591136666337285</t>
+    <t>{'entities': {'description': {'urls': []}, 'url': {'urls': [{'expanded_url': 'http://world-control.net', 'display_url': 'world-control.net', 'url': 'https://t.co/AgubHQIUXe', 'indices': [0, 23]}]}}, 'profile_background_image_url': 'http://abs.twimg.com/images/themes/theme1/bg.png', 'following': False, 'id_str': '1017118454711771136', 'profile_image_url_https': 'https://pbs.twimg.com/profile_images/1041036258745765890/C-8rzdz5_normal.jpg', 'favourites_count': 17, 'id': 1017118454711771136, 'profile_image_url': 'http://pbs.twimg.com/profile_images/1041036258745765890/C-8rzdz5_normal.jpg', 'screen_name': 'MinisterVlatin', 'translator_type': 'none', 'geo_enabled': False, 'statuses_count': 212, 'profile_link_color': '000000', 'time_zone': None, 'profile_background_tile': False, 'notifications': False, 'listed_count': 0, 'verified': False, 'profile_use_background_image': False, 'is_translation_enabled': False, 'protected': False, 'contributors_enabled': False, 'profile_banner_url': 'https://pbs.twimg.com/profile_banners/1017118454711771136/1535920961', 'lang': 'en', 'friends_count': 19, 'description': 'Seizing @truWorldControl by spreading #fakenewz. #proudtobeabot 🤖 by @RKalcik', 'name': 'Minister Vlatin', 'created_at': 'Wed Jul 11 18:48:31 +0000 2018', 'profile_sidebar_border_color': '000000', 'default_profile_image': False, 'location': 'Moscow, Russia', 'default_profile': False, 'utc_offset': None, 'is_translator': False, 'profile_background_image_url_https': 'https://abs.twimg.com/images/themes/theme1/bg.png', 'followers_count': 9, 'profile_sidebar_fill_color': '000000', 'profile_background_color': '000000', 'url': 'https://t.co/AgubHQIUXe', 'profile_text_color': '000000', 'follow_request_sent': False, 'has_extended_profile': False}</t>
+  </si>
+  <si>
+    <t>Sat May 04 09:50:43 +0000 2019</t>
+  </si>
+  <si>
+    <t>{'hashtags': [{'indices': [17, 26], 'text': 'fakenewz'}], 'user_mentions': [{'indices': [0, 16], 'name': 'WorldControl  🎲🎲', 'id_str': '755869984761479168', 'id': 755869984761479168, 'screen_name': 'truWorldControl'}], 'urls': [], 'symbols': []}</t>
+  </si>
+  <si>
+    <t>@truWorldControl #fakenewz Robots at Makerfair Vienna go rogue [Vienna -1 🚐]</t>
+  </si>
+  <si>
+    <t>1124612310415364096</t>
   </si>
   <si>
     <t>755869984761479168</t>
   </si>
   <si>
-    <t>{'entities': {'description': {'urls': []}, 'url': {'urls': [{'expanded_url': 'http://world-control.net', 'display_url': 'world-control.net', 'url': 'https://t.co/AgubHQIUXe', 'indices': [0, 23]}]}}, 'profile_background_image_url': 'http://abs.twimg.com/images/themes/theme1/bg.png', 'following': False, 'id_str': '1017118454711771136', 'profile_image_url_https': 'https://pbs.twimg.com/profile_images/1041036258745765890/C-8rzdz5_normal.jpg', 'favourites_count': 17, 'id': 1017118454711771136, 'profile_image_url': 'http://pbs.twimg.com/profile_images/1041036258745765890/C-8rzdz5_normal.jpg', 'screen_name': 'MinisterVlatin', 'translator_type': 'none', 'geo_enabled': False, 'statuses_count': 212, 'profile_link_color': '000000', 'time_zone': None, 'profile_background_tile': False, 'notifications': False, 'listed_count': 0, 'verified': False, 'profile_use_background_image': False, 'is_translation_enabled': False, 'protected': False, 'contributors_enabled': False, 'profile_banner_url': 'https://pbs.twimg.com/profile_banners/1017118454711771136/1535920961', 'lang': 'en', 'friends_count': 19, 'description': 'Seizing @truWorldControl by spreading #fakenewz. #proudtobeabot 🤖 by @RKalcik', 'name': 'Minister Vlatin', 'created_at': 'Wed Jul 11 18:48:31 +0000 2018', 'profile_sidebar_border_color': '000000', 'default_profile_image': False, 'location': 'Moscow, Russia', 'default_profile': False, 'utc_offset': None, 'is_translator': False, 'profile_background_image_url_https': 'https://abs.twimg.com/images/themes/theme1/bg.png', 'followers_count': 9, 'profile_sidebar_fill_color': '000000', 'profile_background_color': '000000', 'url': 'https://t.co/AgubHQIUXe', 'profile_text_color': '000000', 'follow_request_sent': False, 'has_extended_profile': False}</t>
+    <t>{'notifications': False, 'profile_banner_url': 'https://pbs.twimg.com/profile_banners/1017118454711771136/1535920961', 'profile_background_tile': False, 'following': False, 'geo_enabled': False, 'screen_name': 'MinisterVlatin', 'verified': False, 'profile_sidebar_border_color': '000000', 'profile_link_color': '000000', 'lang': 'en', 'profile_use_background_image': False, 'id_str': '1017118454711771136', 'contributors_enabled': False, 'profile_image_url_https': 'https://pbs.twimg.com/profile_images/1041036258745765890/C-8rzdz5_normal.jpg', 'follow_request_sent': False, 'description': 'Seizing @truWorldControl by spreading #fakenewz. #proudtobeabot 🤖 by @RKalcik', 'has_extended_profile': False, 'created_at': 'Wed Jul 11 18:48:31 +0000 2018', 'profile_background_image_url_https': 'https://abs.twimg.com/images/themes/theme1/bg.png', 'profile_background_color': '000000', 'profile_background_image_url': 'http://abs.twimg.com/images/themes/theme1/bg.png', 'protected': False, 'url': 'https://t.co/AgubHQIUXe', 'is_translation_enabled': False, 'statuses_count': 214, 'is_translator': False, 'friends_count': 19, 'listed_count': 0, 'entities': {'url': {'urls': [{'url': 'https://t.co/AgubHQIUXe', 'display_url': 'world-control.net', 'expanded_url': 'http://world-control.net', 'indices': [0, 23]}]}, 'description': {'urls': []}}, 'location': 'Moscow, Russia', 'translator_type': 'none', 'default_profile': False, 'profile_sidebar_fill_color': '000000', 'default_profile_image': False, 'profile_text_color': '000000', 'id': 1017118454711771136, 'name': 'Minister Vlatin', 'favourites_count': 17, 'profile_image_url': 'http://pbs.twimg.com/profile_images/1041036258745765890/C-8rzdz5_normal.jpg', 'followers_count': 9, 'utc_offset': None, 'time_zone': None}</t>
   </si>
 </sst>
 </file>
@@ -1914,7 +1926,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AE94"/>
+  <dimension ref="A1:AE95"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8620,8 +8632,8 @@
       <c r="K94" t="n">
         <v>1.096591136666337e+18</v>
       </c>
-      <c r="L94" t="s">
-        <v>441</v>
+      <c r="L94" t="n">
+        <v>1.096591136666337e+18</v>
       </c>
       <c r="M94" t="s">
         <v>51</v>
@@ -8631,8 +8643,8 @@
       <c r="P94" t="n">
         <v>7.558699847614792e+17</v>
       </c>
-      <c r="Q94" t="s">
-        <v>442</v>
+      <c r="Q94" t="n">
+        <v>7.55869984761479e+17</v>
       </c>
       <c r="R94" t="n">
         <v>0</v>
@@ -8658,13 +8670,86 @@
         <v>0</v>
       </c>
       <c r="AA94" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="AB94" t="s"/>
       <c r="AC94" t="s"/>
       <c r="AD94" t="s"/>
       <c r="AE94" t="s"/>
     </row>
+    <row r="95" spans="1:31">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="s"/>
+      <c r="C95" t="s"/>
+      <c r="D95" t="s">
+        <v>442</v>
+      </c>
+      <c r="E95" t="s">
+        <v>238</v>
+      </c>
+      <c r="F95" t="s">
+        <v>443</v>
+      </c>
+      <c r="G95" t="n">
+        <v>0</v>
+      </c>
+      <c r="H95" t="n">
+        <v>0</v>
+      </c>
+      <c r="I95" t="s">
+        <v>444</v>
+      </c>
+      <c r="J95" t="s"/>
+      <c r="K95" t="n">
+        <v>1.124612310415364e+18</v>
+      </c>
+      <c r="L95" t="s">
+        <v>445</v>
+      </c>
+      <c r="M95" t="s">
+        <v>51</v>
+      </c>
+      <c r="N95" t="s"/>
+      <c r="O95" t="s"/>
+      <c r="P95" t="n">
+        <v>7.558699847614792e+17</v>
+      </c>
+      <c r="Q95" t="s">
+        <v>446</v>
+      </c>
+      <c r="R95" t="n">
+        <v>0</v>
+      </c>
+      <c r="S95" t="s">
+        <v>34</v>
+      </c>
+      <c r="T95" t="s">
+        <v>114</v>
+      </c>
+      <c r="U95" t="s"/>
+      <c r="V95" t="n">
+        <v>0</v>
+      </c>
+      <c r="W95" t="n">
+        <v>0</v>
+      </c>
+      <c r="X95" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y95" t="s"/>
+      <c r="Z95" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA95" t="s">
+        <v>447</v>
+      </c>
+      <c r="AB95" t="s"/>
+      <c r="AC95" t="s"/>
+      <c r="AD95" t="s"/>
+      <c r="AE95" t="s"/>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/master.xlsx
+++ b/master.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="448">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="457">
   <si>
     <t>contributors</t>
   </si>
@@ -1571,13 +1571,45 @@
     <t>@truWorldControl #fakenewz Robots at Makerfair Vienna go rogue [Vienna -1 🚐]</t>
   </si>
   <si>
-    <t>1124612310415364096</t>
-  </si>
-  <si>
-    <t>755869984761479168</t>
-  </si>
-  <si>
     <t>{'notifications': False, 'profile_banner_url': 'https://pbs.twimg.com/profile_banners/1017118454711771136/1535920961', 'profile_background_tile': False, 'following': False, 'geo_enabled': False, 'screen_name': 'MinisterVlatin', 'verified': False, 'profile_sidebar_border_color': '000000', 'profile_link_color': '000000', 'lang': 'en', 'profile_use_background_image': False, 'id_str': '1017118454711771136', 'contributors_enabled': False, 'profile_image_url_https': 'https://pbs.twimg.com/profile_images/1041036258745765890/C-8rzdz5_normal.jpg', 'follow_request_sent': False, 'description': 'Seizing @truWorldControl by spreading #fakenewz. #proudtobeabot 🤖 by @RKalcik', 'has_extended_profile': False, 'created_at': 'Wed Jul 11 18:48:31 +0000 2018', 'profile_background_image_url_https': 'https://abs.twimg.com/images/themes/theme1/bg.png', 'profile_background_color': '000000', 'profile_background_image_url': 'http://abs.twimg.com/images/themes/theme1/bg.png', 'protected': False, 'url': 'https://t.co/AgubHQIUXe', 'is_translation_enabled': False, 'statuses_count': 214, 'is_translator': False, 'friends_count': 19, 'listed_count': 0, 'entities': {'url': {'urls': [{'url': 'https://t.co/AgubHQIUXe', 'display_url': 'world-control.net', 'expanded_url': 'http://world-control.net', 'indices': [0, 23]}]}, 'description': {'urls': []}}, 'location': 'Moscow, Russia', 'translator_type': 'none', 'default_profile': False, 'profile_sidebar_fill_color': '000000', 'default_profile_image': False, 'profile_text_color': '000000', 'id': 1017118454711771136, 'name': 'Minister Vlatin', 'favourites_count': 17, 'profile_image_url': 'http://pbs.twimg.com/profile_images/1041036258745765890/C-8rzdz5_normal.jpg', 'followers_count': 9, 'utc_offset': None, 'time_zone': None}</t>
+  </si>
+  <si>
+    <t>Sat May 18 14:06:49 +0000 2019</t>
+  </si>
+  <si>
+    <t>{'symbols': [], 'user_mentions': [{'indices': [109, 125], 'id': 755869984761479168, 'screen_name': 'truWorldControl', 'id_str': '755869984761479168', 'name': 'WorldControl  🎲🎲'}], 'urls': [], 'hashtags': [{'indices': [99, 108], 'text': 'fakenewz'}]}</t>
+  </si>
+  <si>
+    <t>Post Politics Palooza
+Strache and Gudenus quit politics to open night club in Ibiza.
+[Vienna -2 🔫]
+#fakenewz @truWorldControl</t>
+  </si>
+  <si>
+    <t>1129750188606873603</t>
+  </si>
+  <si>
+    <t>{'is_translation_enabled': False, 'translator_type': 'none', 'url': 'https://t.co/AgubHQIUXe', 'followers_count': 9, 'friends_count': 20, 'profile_text_color': '000000', 'profile_background_tile': False, 'following': False, 'time_zone': None, 'contributors_enabled': False, 'name': 'Minister Vlatin', 'is_translator': False, 'default_profile_image': False, 'profile_background_image_url': 'http://abs.twimg.com/images/themes/theme1/bg.png', 'lang': 'en', 'protected': False, 'description': 'Seizing @truWorldControl by spreading #fakenewz. #proudtobeabot 🤖 by @RKalcik', 'favourites_count': 17, 'verified': False, 'geo_enabled': False, 'profile_sidebar_border_color': '000000', 'entities': {'description': {'urls': []}, 'url': {'urls': [{'indices': [0, 23], 'url': 'https://t.co/AgubHQIUXe', 'expanded_url': 'http://world-control.net', 'display_url': 'world-control.net'}]}}, 'profile_link_color': '000000', 'utc_offset': None, 'default_profile': False, 'profile_sidebar_fill_color': '000000', 'created_at': 'Wed Jul 11 18:48:31 +0000 2018', 'profile_use_background_image': False, 'listed_count': 0, 'has_extended_profile': False, 'profile_image_url_https': 'https://pbs.twimg.com/profile_images/1041036258745765890/C-8rzdz5_normal.jpg', 'profile_background_color': '000000', 'location': 'Moscow, Russia', 'notifications': False, 'id': 1017118454711771136, 'profile_banner_url': 'https://pbs.twimg.com/profile_banners/1017118454711771136/1535920961', 'statuses_count': 217, 'screen_name': 'MinisterVlatin', 'profile_background_image_url_https': 'https://abs.twimg.com/images/themes/theme1/bg.png', 'follow_request_sent': False, 'profile_image_url': 'http://pbs.twimg.com/profile_images/1041036258745765890/C-8rzdz5_normal.jpg', 'id_str': '1017118454711771136'}</t>
+  </si>
+  <si>
+    <t>Sat May 18 14:38:49 +0000 2019</t>
+  </si>
+  <si>
+    <t>[0, 154]</t>
+  </si>
+  <si>
+    <t>{'symbols': [], 'user_mentions': [{'indices': [138, 154], 'id': 755869984761479168, 'screen_name': 'truWorldControl', 'id_str': '755869984761479168', 'name': 'WorldControl  🎲🎲'}], 'urls': [], 'hashtags': [{'indices': [128, 137], 'text': 'fakenewz'}]}</t>
+  </si>
+  <si>
+    <t>Glock O'Clock
+Gudenus starts checking his sources. Was that Nigerian prince he wired 1000000💷 also a fraud?
+[Vienna -1b yollos] #fakenewz @truWorldControl</t>
+  </si>
+  <si>
+    <t>1129758243151077378</t>
+  </si>
+  <si>
+    <t>{'is_translation_enabled': False, 'translator_type': 'none', 'url': 'https://t.co/AgubHQIUXe', 'followers_count': 9, 'friends_count': 20, 'profile_text_color': '000000', 'profile_background_tile': False, 'following': False, 'time_zone': None, 'contributors_enabled': False, 'name': 'Minister Vlatin', 'is_translator': False, 'default_profile_image': False, 'profile_background_image_url': 'http://abs.twimg.com/images/themes/theme1/bg.png', 'lang': 'en', 'protected': False, 'description': 'Seizing @truWorldControl by spreading #fakenewz. #proudtobeabot 🤖 by @RKalcik', 'favourites_count': 17, 'verified': False, 'geo_enabled': False, 'profile_sidebar_border_color': '000000', 'entities': {'description': {'urls': []}, 'url': {'urls': [{'indices': [0, 23], 'url': 'https://t.co/AgubHQIUXe', 'expanded_url': 'http://world-control.net', 'display_url': 'world-control.net'}]}}, 'profile_link_color': '000000', 'utc_offset': None, 'default_profile': False, 'profile_sidebar_fill_color': '000000', 'created_at': 'Wed Jul 11 18:48:31 +0000 2018', 'profile_use_background_image': False, 'listed_count': 0, 'has_extended_profile': False, 'profile_image_url_https': 'https://pbs.twimg.com/profile_images/1041036258745765890/C-8rzdz5_normal.jpg', 'profile_background_color': '000000', 'location': 'Moscow, Russia', 'notifications': False, 'id': 1017118454711771136, 'profile_banner_url': 'https://pbs.twimg.com/profile_banners/1017118454711771136/1535920961', 'statuses_count': 219, 'screen_name': 'MinisterVlatin', 'profile_background_image_url_https': 'https://abs.twimg.com/images/themes/theme1/bg.png', 'follow_request_sent': False, 'profile_image_url': 'http://pbs.twimg.com/profile_images/1041036258745765890/C-8rzdz5_normal.jpg', 'id_str': '1017118454711771136'}</t>
   </si>
 </sst>
 </file>
@@ -1926,7 +1958,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AE95"/>
+  <dimension ref="A1:AE97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8705,8 +8737,8 @@
       <c r="K95" t="n">
         <v>1.124612310415364e+18</v>
       </c>
-      <c r="L95" t="s">
-        <v>445</v>
+      <c r="L95" t="n">
+        <v>1.124612310415364e+18</v>
       </c>
       <c r="M95" t="s">
         <v>51</v>
@@ -8716,8 +8748,8 @@
       <c r="P95" t="n">
         <v>7.558699847614792e+17</v>
       </c>
-      <c r="Q95" t="s">
-        <v>446</v>
+      <c r="Q95" t="n">
+        <v>7.55869984761479e+17</v>
       </c>
       <c r="R95" t="n">
         <v>0</v>
@@ -8743,13 +8775,147 @@
         <v>0</v>
       </c>
       <c r="AA95" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="AB95" t="s"/>
       <c r="AC95" t="s"/>
       <c r="AD95" t="s"/>
       <c r="AE95" t="s"/>
     </row>
+    <row r="96" spans="1:31">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="s"/>
+      <c r="C96" t="s"/>
+      <c r="D96" t="s">
+        <v>446</v>
+      </c>
+      <c r="E96" t="s">
+        <v>152</v>
+      </c>
+      <c r="F96" t="s">
+        <v>447</v>
+      </c>
+      <c r="G96" t="n">
+        <v>0</v>
+      </c>
+      <c r="H96" t="n">
+        <v>0</v>
+      </c>
+      <c r="I96" t="s">
+        <v>448</v>
+      </c>
+      <c r="J96" t="s"/>
+      <c r="K96" t="n">
+        <v>1.129750188606874e+18</v>
+      </c>
+      <c r="L96" t="s">
+        <v>449</v>
+      </c>
+      <c r="M96" t="s"/>
+      <c r="N96" t="s"/>
+      <c r="O96" t="s"/>
+      <c r="P96" t="s"/>
+      <c r="Q96" t="s"/>
+      <c r="R96" t="n">
+        <v>0</v>
+      </c>
+      <c r="S96" t="s">
+        <v>34</v>
+      </c>
+      <c r="T96" t="s">
+        <v>114</v>
+      </c>
+      <c r="U96" t="s"/>
+      <c r="V96" t="n">
+        <v>0</v>
+      </c>
+      <c r="W96" t="n">
+        <v>0</v>
+      </c>
+      <c r="X96" t="s">
+        <v>426</v>
+      </c>
+      <c r="Y96" t="s"/>
+      <c r="Z96" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA96" t="s">
+        <v>450</v>
+      </c>
+      <c r="AB96" t="s"/>
+      <c r="AC96" t="s"/>
+      <c r="AD96" t="s"/>
+      <c r="AE96" t="s"/>
+    </row>
+    <row r="97" spans="1:31">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="s"/>
+      <c r="C97" t="s"/>
+      <c r="D97" t="s">
+        <v>451</v>
+      </c>
+      <c r="E97" t="s">
+        <v>452</v>
+      </c>
+      <c r="F97" t="s">
+        <v>453</v>
+      </c>
+      <c r="G97" t="n">
+        <v>0</v>
+      </c>
+      <c r="H97" t="n">
+        <v>0</v>
+      </c>
+      <c r="I97" t="s">
+        <v>454</v>
+      </c>
+      <c r="J97" t="s"/>
+      <c r="K97" t="n">
+        <v>1.129758243151077e+18</v>
+      </c>
+      <c r="L97" t="s">
+        <v>455</v>
+      </c>
+      <c r="M97" t="s"/>
+      <c r="N97" t="s"/>
+      <c r="O97" t="s"/>
+      <c r="P97" t="s"/>
+      <c r="Q97" t="s"/>
+      <c r="R97" t="n">
+        <v>0</v>
+      </c>
+      <c r="S97" t="s">
+        <v>34</v>
+      </c>
+      <c r="T97" t="s">
+        <v>114</v>
+      </c>
+      <c r="U97" t="s"/>
+      <c r="V97" t="n">
+        <v>0</v>
+      </c>
+      <c r="W97" t="n">
+        <v>0</v>
+      </c>
+      <c r="X97" t="s">
+        <v>426</v>
+      </c>
+      <c r="Y97" t="s"/>
+      <c r="Z97" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA97" t="s">
+        <v>456</v>
+      </c>
+      <c r="AB97" t="s"/>
+      <c r="AC97" t="s"/>
+      <c r="AD97" t="s"/>
+      <c r="AE97" t="s"/>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/master.xlsx
+++ b/master.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="457">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="471">
   <si>
     <t>contributors</t>
   </si>
@@ -1586,9 +1586,6 @@
 #fakenewz @truWorldControl</t>
   </si>
   <si>
-    <t>1129750188606873603</t>
-  </si>
-  <si>
     <t>{'is_translation_enabled': False, 'translator_type': 'none', 'url': 'https://t.co/AgubHQIUXe', 'followers_count': 9, 'friends_count': 20, 'profile_text_color': '000000', 'profile_background_tile': False, 'following': False, 'time_zone': None, 'contributors_enabled': False, 'name': 'Minister Vlatin', 'is_translator': False, 'default_profile_image': False, 'profile_background_image_url': 'http://abs.twimg.com/images/themes/theme1/bg.png', 'lang': 'en', 'protected': False, 'description': 'Seizing @truWorldControl by spreading #fakenewz. #proudtobeabot 🤖 by @RKalcik', 'favourites_count': 17, 'verified': False, 'geo_enabled': False, 'profile_sidebar_border_color': '000000', 'entities': {'description': {'urls': []}, 'url': {'urls': [{'indices': [0, 23], 'url': 'https://t.co/AgubHQIUXe', 'expanded_url': 'http://world-control.net', 'display_url': 'world-control.net'}]}}, 'profile_link_color': '000000', 'utc_offset': None, 'default_profile': False, 'profile_sidebar_fill_color': '000000', 'created_at': 'Wed Jul 11 18:48:31 +0000 2018', 'profile_use_background_image': False, 'listed_count': 0, 'has_extended_profile': False, 'profile_image_url_https': 'https://pbs.twimg.com/profile_images/1041036258745765890/C-8rzdz5_normal.jpg', 'profile_background_color': '000000', 'location': 'Moscow, Russia', 'notifications': False, 'id': 1017118454711771136, 'profile_banner_url': 'https://pbs.twimg.com/profile_banners/1017118454711771136/1535920961', 'statuses_count': 217, 'screen_name': 'MinisterVlatin', 'profile_background_image_url_https': 'https://abs.twimg.com/images/themes/theme1/bg.png', 'follow_request_sent': False, 'profile_image_url': 'http://pbs.twimg.com/profile_images/1041036258745765890/C-8rzdz5_normal.jpg', 'id_str': '1017118454711771136'}</t>
   </si>
   <si>
@@ -1606,10 +1603,61 @@
 [Vienna -1b yollos] #fakenewz @truWorldControl</t>
   </si>
   <si>
-    <t>1129758243151077378</t>
-  </si>
-  <si>
     <t>{'is_translation_enabled': False, 'translator_type': 'none', 'url': 'https://t.co/AgubHQIUXe', 'followers_count': 9, 'friends_count': 20, 'profile_text_color': '000000', 'profile_background_tile': False, 'following': False, 'time_zone': None, 'contributors_enabled': False, 'name': 'Minister Vlatin', 'is_translator': False, 'default_profile_image': False, 'profile_background_image_url': 'http://abs.twimg.com/images/themes/theme1/bg.png', 'lang': 'en', 'protected': False, 'description': 'Seizing @truWorldControl by spreading #fakenewz. #proudtobeabot 🤖 by @RKalcik', 'favourites_count': 17, 'verified': False, 'geo_enabled': False, 'profile_sidebar_border_color': '000000', 'entities': {'description': {'urls': []}, 'url': {'urls': [{'indices': [0, 23], 'url': 'https://t.co/AgubHQIUXe', 'expanded_url': 'http://world-control.net', 'display_url': 'world-control.net'}]}}, 'profile_link_color': '000000', 'utc_offset': None, 'default_profile': False, 'profile_sidebar_fill_color': '000000', 'created_at': 'Wed Jul 11 18:48:31 +0000 2018', 'profile_use_background_image': False, 'listed_count': 0, 'has_extended_profile': False, 'profile_image_url_https': 'https://pbs.twimg.com/profile_images/1041036258745765890/C-8rzdz5_normal.jpg', 'profile_background_color': '000000', 'location': 'Moscow, Russia', 'notifications': False, 'id': 1017118454711771136, 'profile_banner_url': 'https://pbs.twimg.com/profile_banners/1017118454711771136/1535920961', 'statuses_count': 219, 'screen_name': 'MinisterVlatin', 'profile_background_image_url_https': 'https://abs.twimg.com/images/themes/theme1/bg.png', 'follow_request_sent': False, 'profile_image_url': 'http://pbs.twimg.com/profile_images/1041036258745765890/C-8rzdz5_normal.jpg', 'id_str': '1017118454711771136'}</t>
+  </si>
+  <si>
+    <t>Wed Jul 24 14:47:11 +0000 2019</t>
+  </si>
+  <si>
+    <t>[0, 97]</t>
+  </si>
+  <si>
+    <t>{'user_mentions': [{'id': 755869984761479168, 'screen_name': 'truWorldControl', 'id_str': '755869984761479168', 'name': 'WorldControl  🎲🎲', 'indices': [0, 16]}], 'urls': [], 'symbols': [], 'hashtags': [{'indices': [17, 26], 'text': 'fakenewz'}, {'indices': [90, 97], 'text': 'ranNFL'}]}</t>
+  </si>
+  <si>
+    <t>@truWorldControl #fakenewz
+Mark Sanchez runs into the defenders ass!
+[New York -2 Corpz]
+#ranNFL</t>
+  </si>
+  <si>
+    <t>{'utc_offset': None, 'lang': None, 'translator_type': 'none', 'profile_background_image_url_https': 'https://abs.twimg.com/images/themes/theme1/bg.png', 'profile_use_background_image': True, 'id_str': '1017512149', 'notifications': False, 'time_zone': None, 'profile_background_image_url': 'http://abs.twimg.com/images/themes/theme1/bg.png', 'friends_count': 2021, 'following': False, 'profile_banner_url': 'https://pbs.twimg.com/profile_banners/1017512149/1518354984', 'profile_image_url': 'http://pbs.twimg.com/profile_images/1152654170362667008/uc0whl25_normal.jpg', 'profile_link_color': '4A913C', 'url': 'https://t.co/RE7nuCCnkr', 'profile_text_color': '333333', 'profile_background_color': '13ED71', 'listed_count': 48, 'location': 'Magdeburg, Ulm', 'statuses_count': 14028, 'default_profile_image': False, 'screen_name': 'PatrickRebien', 'protected': False, 'verified': False, 'favourites_count': 7603, 'id': 1017512149, 'contributors_enabled': False, 'profile_sidebar_fill_color': 'DDEEF6', 'entities': {'url': {'urls': [{'url': 'https://t.co/RE7nuCCnkr', 'display_url': 'rebienpatrick.wixsite.com/patrickrebien', 'expanded_url': 'http://rebienpatrick.wixsite.com/patrickrebien', 'indices': [0, 23]}]}, 'description': {'urls': []}}, 'description': 'Journalist // Blindenreporter // Podcaster // Sport und Politik // Fußball, Football, Basketball // Kommentator //#77 // Coffee - The addiction is real', 'is_translator': False, 'profile_image_url_https': 'https://pbs.twimg.com/profile_images/1152654170362667008/uc0whl25_normal.jpg', 'profile_sidebar_border_color': '000000', 'default_profile': False, 'follow_request_sent': False, 'followers_count': 584, 'profile_background_tile': True, 'has_extended_profile': True, 'is_translation_enabled': False, 'created_at': 'Mon Dec 17 13:42:59 +0000 2012', 'geo_enabled': True, 'name': 'Patrick Rebien'}</t>
+  </si>
+  <si>
+    <t>Sun Jul 28 12:46:00 +0000 2019</t>
+  </si>
+  <si>
+    <t>[0, 166]</t>
+  </si>
+  <si>
+    <t>{'user_mentions': [{'id': 755869984761479168, 'screen_name': 'truWorldControl', 'id_str': '755869984761479168', 'name': 'WorldControl  🎲🎲', 'indices': [140, 156]}], 'urls': [], 'symbols': [], 'hashtags': [{'indices': [157, 166], 'text': 'fakenewz'}]}</t>
+  </si>
+  <si>
+    <t>HALLO? Tal-Silberstein-Mimimimi-Notruf? Ganz Österreich ist gemein zu mir, nur weil ich so ein schönes Geilomobil habe.
+[ JERUSALEM +SAGE]
+@truWorldControl #fakenewz</t>
+  </si>
+  <si>
+    <t>{'utc_offset': None, 'lang': None, 'translator_type': 'none', 'profile_background_image_url_https': 'https://abs.twimg.com/images/themes/theme1/bg.png', 'profile_use_background_image': False, 'id_str': '704671889680175104', 'notifications': False, 'time_zone': None, 'profile_background_image_url': 'http://abs.twimg.com/images/themes/theme1/bg.png', 'friends_count': 1259, 'following': False, 'profile_banner_url': 'https://pbs.twimg.com/profile_banners/704671889680175104/1521637593', 'profile_image_url': 'http://pbs.twimg.com/profile_images/931580844904472576/PEk2Nmu8_normal.jpg', 'profile_link_color': '1B95E0', 'url': None, 'profile_text_color': '000000', 'profile_background_color': '000000', 'listed_count': 0, 'location': 'Wien, Österreich', 'statuses_count': 393, 'default_profile_image': False, 'screen_name': 'HannesGress', 'protected': False, 'verified': False, 'favourites_count': 813, 'id': 704671889680175104, 'contributors_enabled': False, 'profile_sidebar_fill_color': '000000', 'entities': {'description': {'urls': []}}, 'description': '(Un-)Freier Journalist, Hobbyphilsoph, rücksichtsloser Polemiker, Bartträger. Sonst noch was? Ja, lustig bin ich auch. Macht sich gut, haben sie gesagt.', 'is_translator': False, 'profile_image_url_https': 'https://pbs.twimg.com/profile_images/931580844904472576/PEk2Nmu8_normal.jpg', 'profile_sidebar_border_color': '000000', 'default_profile': False, 'follow_request_sent': False, 'followers_count': 139, 'profile_background_tile': False, 'has_extended_profile': False, 'is_translation_enabled': False, 'created_at': 'Tue Mar 01 14:17:25 +0000 2016', 'geo_enabled': False, 'name': 'Johannes Gress'}</t>
+  </si>
+  <si>
+    <t>Sat Oct 05 17:48:42 +0000 2019</t>
+  </si>
+  <si>
+    <t>{'hashtags': [{'indices': [17, 26], 'text': 'fakenewz'}], 'urls': [], 'symbols': [], 'user_mentions': [{'name': 'WorldControl  🎲🎲', 'id_str': '755869984761479168', 'indices': [0, 16], 'screen_name': 'truWorldControl', 'id': 755869984761479168}]}</t>
+  </si>
+  <si>
+    <t>@truWorldControl #fakenewz NK-ppl betray SupremeLeader-BoyGroup &amp;amp; flee for illusion of fake K-Pop-Music-stardom
+[PyongYang -1🚎 Tokyo +1🚒]</t>
+  </si>
+  <si>
+    <t>1180540328828424193</t>
+  </si>
+  <si>
+    <t>755869984761479168</t>
+  </si>
+  <si>
+    <t>{'friends_count': 561, 'contributors_enabled': False, 'default_profile': False, 'profile_background_color': '000000', 'profile_link_color': 'FAB81E', 'profile_sidebar_fill_color': '000000', 'id_str': '755869984761479168', 'profile_sidebar_border_color': '000000', 'verified': False, 'follow_request_sent': False, 'profile_background_tile': False, 'created_at': 'Wed Jul 20 21:00:22 +0000 2016', 'default_profile_image': False, 'lang': None, 'profile_text_color': '000000', 'profile_use_background_image': False, 'profile_background_image_url_https': 'https://abs.twimg.com/images/themes/theme1/bg.png', 'profile_image_url': 'http://pbs.twimg.com/profile_images/968454003431559172/WxWrkMCs_normal.jpg', 'location': 'Wien, Österreich', 'time_zone': None, 'has_extended_profile': False, 'description': 'the TOTAL BOARD GAME \nFor tru Playerz all around the globe.', 'geo_enabled': False, 'followers_count': 81, 'profile_image_url_https': 'https://pbs.twimg.com/profile_images/968454003431559172/WxWrkMCs_normal.jpg', 'is_translation_enabled': False, 'id': 755869984761479168, 'is_translator': False, 'entities': {'description': {'urls': []}, 'url': {'urls': [{'indices': [0, 23], 'expanded_url': 'http://www.world-control.net', 'url': 'https://t.co/C62LsufQal', 'display_url': 'world-control.net'}]}}, 'profile_banner_url': 'https://pbs.twimg.com/profile_banners/755869984761479168/1536915938', 'url': 'https://t.co/C62LsufQal', 'screen_name': 'truWorldControl', 'protected': False, 'translator_type': 'none', 'favourites_count': 108, 'following': True, 'profile_background_image_url': 'http://abs.twimg.com/images/themes/theme1/bg.png', 'listed_count': 2, 'utc_offset': None, 'statuses_count': 132, 'notifications': False, 'name': 'WorldControl  🎲🎲'}</t>
   </si>
 </sst>
 </file>
@@ -1958,7 +2006,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AE97"/>
+  <dimension ref="A1:AE100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8810,8 +8858,8 @@
       <c r="K96" t="n">
         <v>1.129750188606874e+18</v>
       </c>
-      <c r="L96" t="s">
-        <v>449</v>
+      <c r="L96" t="n">
+        <v>1.129750188606874e+18</v>
       </c>
       <c r="M96" t="s"/>
       <c r="N96" t="s"/>
@@ -8842,7 +8890,7 @@
         <v>0</v>
       </c>
       <c r="AA96" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="AB96" t="s"/>
       <c r="AC96" t="s"/>
@@ -8856,29 +8904,29 @@
       <c r="B97" t="s"/>
       <c r="C97" t="s"/>
       <c r="D97" t="s">
+        <v>450</v>
+      </c>
+      <c r="E97" t="s">
         <v>451</v>
       </c>
-      <c r="E97" t="s">
+      <c r="F97" t="s">
         <v>452</v>
       </c>
-      <c r="F97" t="s">
+      <c r="G97" t="n">
+        <v>0</v>
+      </c>
+      <c r="H97" t="n">
+        <v>0</v>
+      </c>
+      <c r="I97" t="s">
         <v>453</v>
-      </c>
-      <c r="G97" t="n">
-        <v>0</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="s">
-        <v>454</v>
       </c>
       <c r="J97" t="s"/>
       <c r="K97" t="n">
         <v>1.129758243151077e+18</v>
       </c>
-      <c r="L97" t="s">
-        <v>455</v>
+      <c r="L97" t="n">
+        <v>1.129758243151077e+18</v>
       </c>
       <c r="M97" t="s"/>
       <c r="N97" t="s"/>
@@ -8909,13 +8957,226 @@
         <v>0</v>
       </c>
       <c r="AA97" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="AB97" t="s"/>
       <c r="AC97" t="s"/>
       <c r="AD97" t="s"/>
       <c r="AE97" t="s"/>
     </row>
+    <row r="98" spans="1:31">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="s"/>
+      <c r="C98" t="s"/>
+      <c r="D98" t="s">
+        <v>455</v>
+      </c>
+      <c r="E98" t="s">
+        <v>456</v>
+      </c>
+      <c r="F98" t="s">
+        <v>457</v>
+      </c>
+      <c r="G98" t="n">
+        <v>0</v>
+      </c>
+      <c r="H98" t="n">
+        <v>0</v>
+      </c>
+      <c r="I98" t="s">
+        <v>458</v>
+      </c>
+      <c r="J98" t="s"/>
+      <c r="K98" t="n">
+        <v>1.154040336601104e+18</v>
+      </c>
+      <c r="L98" t="n">
+        <v>1.154040336601104e+18</v>
+      </c>
+      <c r="M98" t="s">
+        <v>51</v>
+      </c>
+      <c r="N98" t="s"/>
+      <c r="O98" t="s"/>
+      <c r="P98" t="n">
+        <v>7.558699847614792e+17</v>
+      </c>
+      <c r="Q98" t="n">
+        <v>7.55869984761479e+17</v>
+      </c>
+      <c r="R98" t="n">
+        <v>0</v>
+      </c>
+      <c r="S98" t="s">
+        <v>34</v>
+      </c>
+      <c r="T98" t="s">
+        <v>35</v>
+      </c>
+      <c r="U98" t="s"/>
+      <c r="V98" t="n">
+        <v>0</v>
+      </c>
+      <c r="W98" t="n">
+        <v>0</v>
+      </c>
+      <c r="X98" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y98" t="s"/>
+      <c r="Z98" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA98" t="s">
+        <v>459</v>
+      </c>
+      <c r="AB98" t="s"/>
+      <c r="AC98" t="s"/>
+      <c r="AD98" t="s"/>
+      <c r="AE98" t="s"/>
+    </row>
+    <row r="99" spans="1:31">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="s"/>
+      <c r="C99" t="s"/>
+      <c r="D99" t="s">
+        <v>460</v>
+      </c>
+      <c r="E99" t="s">
+        <v>461</v>
+      </c>
+      <c r="F99" t="s">
+        <v>462</v>
+      </c>
+      <c r="G99" t="n">
+        <v>0</v>
+      </c>
+      <c r="H99" t="n">
+        <v>0</v>
+      </c>
+      <c r="I99" t="s">
+        <v>463</v>
+      </c>
+      <c r="J99" t="s"/>
+      <c r="K99" t="n">
+        <v>1.15545939136734e+18</v>
+      </c>
+      <c r="L99" t="n">
+        <v>1.15545939136734e+18</v>
+      </c>
+      <c r="M99" t="s"/>
+      <c r="N99" t="s"/>
+      <c r="O99" t="s"/>
+      <c r="P99" t="s"/>
+      <c r="Q99" t="s"/>
+      <c r="R99" t="n">
+        <v>0</v>
+      </c>
+      <c r="S99" t="s">
+        <v>71</v>
+      </c>
+      <c r="T99" t="s">
+        <v>72</v>
+      </c>
+      <c r="U99" t="s"/>
+      <c r="V99" t="n">
+        <v>0</v>
+      </c>
+      <c r="W99" t="n">
+        <v>0</v>
+      </c>
+      <c r="X99" t="s">
+        <v>426</v>
+      </c>
+      <c r="Y99" t="s"/>
+      <c r="Z99" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA99" t="s">
+        <v>464</v>
+      </c>
+      <c r="AB99" t="s"/>
+      <c r="AC99" t="s"/>
+      <c r="AD99" t="s"/>
+      <c r="AE99" t="s"/>
+    </row>
+    <row r="100" spans="1:31">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="s"/>
+      <c r="C100" t="s"/>
+      <c r="D100" t="s">
+        <v>465</v>
+      </c>
+      <c r="E100" t="s">
+        <v>147</v>
+      </c>
+      <c r="F100" t="s">
+        <v>466</v>
+      </c>
+      <c r="G100" t="n">
+        <v>0</v>
+      </c>
+      <c r="H100" t="n">
+        <v>0</v>
+      </c>
+      <c r="I100" t="s">
+        <v>467</v>
+      </c>
+      <c r="J100" t="s"/>
+      <c r="K100" t="n">
+        <v>1.180540328828424e+18</v>
+      </c>
+      <c r="L100" t="s">
+        <v>468</v>
+      </c>
+      <c r="M100" t="s">
+        <v>51</v>
+      </c>
+      <c r="N100" t="s"/>
+      <c r="O100" t="s"/>
+      <c r="P100" t="n">
+        <v>7.558699847614792e+17</v>
+      </c>
+      <c r="Q100" t="s">
+        <v>469</v>
+      </c>
+      <c r="R100" t="n">
+        <v>0</v>
+      </c>
+      <c r="S100" t="s">
+        <v>34</v>
+      </c>
+      <c r="T100" t="s">
+        <v>35</v>
+      </c>
+      <c r="U100" t="s"/>
+      <c r="V100" t="n">
+        <v>0</v>
+      </c>
+      <c r="W100" t="n">
+        <v>0</v>
+      </c>
+      <c r="X100" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y100" t="s"/>
+      <c r="Z100" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA100" t="s">
+        <v>470</v>
+      </c>
+      <c r="AB100" t="s"/>
+      <c r="AC100" t="s"/>
+      <c r="AD100" t="s"/>
+      <c r="AE100" t="s"/>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/master.xlsx
+++ b/master.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AJ104"/>
+  <dimension ref="A1:AJ107"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11548,6 +11548,297 @@
       <c r="AI104" t="inlineStr"/>
       <c r="AJ104" t="inlineStr"/>
     </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr"/>
+      <c r="C105" t="inlineStr"/>
+      <c r="D105" t="inlineStr"/>
+      <c r="E105" t="inlineStr"/>
+      <c r="F105" t="inlineStr"/>
+      <c r="G105" t="inlineStr"/>
+      <c r="H105" t="inlineStr"/>
+      <c r="I105" t="inlineStr">
+        <is>
+          <t>Tue Oct 20 16:16:00 +0000 2020</t>
+        </is>
+      </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>[0, 134]</t>
+        </is>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>{'hashtags': [{'text': 'fakenewz', 'indices': [37, 46]}], 'symbols': [], 'user_mentions': [{'screen_name': 'MinisterVlatin', 'name': 'Minister Vlatin', 'id': 1017118454711771136, 'id_str': '1017118454711771136', 'indices': [3, 18]}, {'screen_name': 'truWorldControl', 'name': 'WorldControl  🎲🎲', 'id': 755869984761479168, 'id_str': '755869984761479168', 'indices': [20, 36]}], 'urls': []}</t>
+        </is>
+      </c>
+      <c r="L105" t="n">
+        <v>0</v>
+      </c>
+      <c r="M105" t="n">
+        <v>0</v>
+      </c>
+      <c r="N105" t="inlineStr">
+        <is>
+          <t>RT @MinisterVlatin: @truWorldControl #fakenewz Get your shit together 
+New Indiegogo Campaign to launch soon [+1B yollos for everyone]</t>
+        </is>
+      </c>
+      <c r="O105" t="inlineStr"/>
+      <c r="P105" t="n">
+        <v>1.318586775703572e+18</v>
+      </c>
+      <c r="Q105" t="inlineStr">
+        <is>
+          <t>1318586775703572482</t>
+        </is>
+      </c>
+      <c r="R105" t="inlineStr"/>
+      <c r="S105" t="inlineStr"/>
+      <c r="T105" t="inlineStr"/>
+      <c r="U105" t="inlineStr"/>
+      <c r="V105" t="inlineStr"/>
+      <c r="W105" t="n">
+        <v>0</v>
+      </c>
+      <c r="X105" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="Y105" t="inlineStr">
+        <is>
+          <t>{'iso_language_code': 'en', 'result_type': 'recent'}</t>
+        </is>
+      </c>
+      <c r="Z105" t="inlineStr"/>
+      <c r="AA105" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB105" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC105" t="inlineStr">
+        <is>
+          <t>&lt;a href="https://world-control.net/pages/imprint" rel="nofollow"&gt;World Control Retweet Bot&lt;/a&gt;</t>
+        </is>
+      </c>
+      <c r="AD105" t="inlineStr"/>
+      <c r="AE105" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF105" t="inlineStr">
+        <is>
+          <t>{'id': 755869984761479168, 'id_str': '755869984761479168', 'name': 'WorldControl  🎲🎲', 'screen_name': 'truWorldControl', 'location': 'Wien, Österreich', 'description': 'the TOTAL BOARD GAME \nFor tru Playerz all around the world\n- made in Austria', 'url': 'https://t.co/C62LsufQal', 'entities': {'url': {'urls': [{'url': 'https://t.co/C62LsufQal', 'expanded_url': 'http://www.world-control.net', 'display_url': 'world-control.net', 'indices': [0, 23]}]}, 'description': {'urls': []}}, 'protected': False, 'followers_count': 85, 'friends_count': 584, 'listed_count': 2, 'created_at': 'Wed Jul 20 21:00:22 +0000 2016', 'favourites_count': 141, 'utc_offset': None, 'time_zone': None, 'geo_enabled': False, 'verified': False, 'statuses_count': 147, 'lang': None, 'contributors_enabled': False, 'is_translator': False, 'is_translation_enabled': False, 'profile_background_color': '000000', 'profile_background_image_url': 'http://abs.twimg.com/images/themes/theme1/bg.png', 'profile_background_image_url_https': 'https://abs.twimg.com/images/themes/theme1/bg.png', 'profile_background_tile': False, 'profile_image_url': 'http://pbs.twimg.com/profile_images/968454003431559172/WxWrkMCs_normal.jpg', 'profile_image_url_https': 'https://pbs.twimg.com/profile_images/968454003431559172/WxWrkMCs_normal.jpg', 'profile_banner_url': 'https://pbs.twimg.com/profile_banners/755869984761479168/1536915938', 'profile_link_color': 'FAB81E', 'profile_sidebar_border_color': '000000', 'profile_sidebar_fill_color': '000000', 'profile_text_color': '000000', 'profile_use_background_image': False, 'has_extended_profile': False, 'default_profile': False, 'default_profile_image': False, 'following': True, 'follow_request_sent': False, 'notifications': False, 'translator_type': 'none'}</t>
+        </is>
+      </c>
+      <c r="AG105" t="inlineStr"/>
+      <c r="AH105" t="inlineStr"/>
+      <c r="AI105" t="inlineStr"/>
+      <c r="AJ105" t="inlineStr">
+        <is>
+          <t>{'created_at': 'Tue Oct 20 16:15:54 +0000 2020', 'id': 1318586750919430152, 'id_str': '1318586750919430152', 'full_text': '@truWorldControl #fakenewz Get your shit together \nNew Indiegogo Campaign to launch soon [+1B yollos for everyone]', 'truncated': False, 'display_text_range': [0, 114], 'entities': {'hashtags': [{'text': 'fakenewz', 'indices': [17, 26]}], 'symbols': [], 'user_mentions': [{'screen_name': 'truWorldControl', 'name': 'WorldControl  🎲🎲', 'id': 755869984761479168, 'id_str': '755869984761479168', 'indices': [0, 16]}], 'urls': []}, 'metadata': {'iso_language_code': 'en', 'result_type': 'recent'}, 'source': '&lt;a href="http://twitter.com/download/iphone" rel="nofollow"&gt;Twitter for iPhone&lt;/a&gt;', 'in_reply_to_status_id': None, 'in_reply_to_status_id_str': None, 'in_reply_to_user_id': 755869984761479168, 'in_reply_to_user_id_str': '755869984761479168', 'in_reply_to_screen_name': 'truWorldControl', 'user': {'id': 1017118454711771136, 'id_str': '1017118454711771136', 'name': 'Minister Vlatin', 'screen_name': 'MinisterVlatin', 'location': 'Moscow, Russia', 'description': 'Seizing @truWorldControl by spreading #fakenewz. #proudtobeabot 🤖 by @RKalcik', 'url': 'https://t.co/AgubHQIUXe', 'entities': {'url': {'urls': [{'url': 'https://t.co/AgubHQIUXe', 'expanded_url': 'http://world-control.net', 'display_url': 'world-control.net', 'indices': [0, 23]}]}, 'description': {'urls': []}}, 'protected': False, 'followers_count': 9, 'friends_count': 20, 'listed_count': 0, 'created_at': 'Wed Jul 11 18:48:31 +0000 2018', 'favourites_count': 17, 'utc_offset': None, 'time_zone': None, 'geo_enabled': False, 'verified': False, 'statuses_count': 230, 'lang': None, 'contributors_enabled': False, 'is_translator': False, 'is_translation_enabled': False, 'profile_background_color': '000000', 'profile_background_image_url': 'http://abs.twimg.com/images/themes/theme1/bg.png', 'profile_background_image_url_https': 'https://abs.twimg.com/images/themes/theme1/bg.png', 'profile_background_tile': False, 'profile_image_url': 'http://pbs.twimg.com/profile_images/1041036258745765890/C-8rzdz5_normal.jpg', 'profile_image_url_https': 'https://pbs.twimg.com/profile_images/1041036258745765890/C-8rzdz5_normal.jpg', 'profile_banner_url': 'https://pbs.twimg.com/profile_banners/1017118454711771136/1535920961', 'profile_link_color': '000000', 'profile_sidebar_border_color': '000000', 'profile_sidebar_fill_color': '000000', 'profile_text_color': '000000', 'profile_use_background_image': False, 'has_extended_profile': False, 'default_profile': False, 'default_profile_image': False, 'following': False, 'follow_request_sent': False, 'notifications': False, 'translator_type': 'none'}, 'geo': None, 'coordinates': None, 'place': None, 'contributors': None, 'is_quote_status': False, 'retweet_count': 1, 'favorite_count': 1, 'favorited': False, 'retweeted': False, 'lang': 'en'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr"/>
+      <c r="C106" t="inlineStr"/>
+      <c r="D106" t="inlineStr"/>
+      <c r="E106" t="inlineStr"/>
+      <c r="F106" t="inlineStr"/>
+      <c r="G106" t="inlineStr"/>
+      <c r="H106" t="inlineStr"/>
+      <c r="I106" t="inlineStr">
+        <is>
+          <t>Tue Oct 20 16:15:54 +0000 2020</t>
+        </is>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>[0, 114]</t>
+        </is>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>{'hashtags': [{'text': 'fakenewz', 'indices': [17, 26]}], 'symbols': [], 'user_mentions': [{'screen_name': 'truWorldControl', 'name': 'WorldControl  🎲🎲', 'id': 755869984761479168, 'id_str': '755869984761479168', 'indices': [0, 16]}], 'urls': []}</t>
+        </is>
+      </c>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="n">
+        <v>0</v>
+      </c>
+      <c r="N106" t="inlineStr">
+        <is>
+          <t>@truWorldControl #fakenewz Get your shit together 
+New Indiegogo Campaign to launch soon [+1B yollos for everyone]</t>
+        </is>
+      </c>
+      <c r="O106" t="inlineStr"/>
+      <c r="P106" t="n">
+        <v>1.31858675091943e+18</v>
+      </c>
+      <c r="Q106" t="inlineStr">
+        <is>
+          <t>1318586750919430152</t>
+        </is>
+      </c>
+      <c r="R106" t="inlineStr">
+        <is>
+          <t>truWorldControl</t>
+        </is>
+      </c>
+      <c r="S106" t="inlineStr"/>
+      <c r="T106" t="inlineStr"/>
+      <c r="U106" t="n">
+        <v>7.558699847614792e+17</v>
+      </c>
+      <c r="V106" t="inlineStr">
+        <is>
+          <t>755869984761479168</t>
+        </is>
+      </c>
+      <c r="W106" t="n">
+        <v>0</v>
+      </c>
+      <c r="X106" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="Y106" t="inlineStr">
+        <is>
+          <t>{'iso_language_code': 'en', 'result_type': 'recent'}</t>
+        </is>
+      </c>
+      <c r="Z106" t="inlineStr"/>
+      <c r="AA106" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB106" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC106" t="inlineStr">
+        <is>
+          <t>&lt;a href="http://twitter.com/download/iphone" rel="nofollow"&gt;Twitter for iPhone&lt;/a&gt;</t>
+        </is>
+      </c>
+      <c r="AD106" t="inlineStr"/>
+      <c r="AE106" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF106" t="inlineStr">
+        <is>
+          <t>{'id': 1017118454711771136, 'id_str': '1017118454711771136', 'name': 'Minister Vlatin', 'screen_name': 'MinisterVlatin', 'location': 'Moscow, Russia', 'description': 'Seizing @truWorldControl by spreading #fakenewz. #proudtobeabot 🤖 by @RKalcik', 'url': 'https://t.co/AgubHQIUXe', 'entities': {'url': {'urls': [{'url': 'https://t.co/AgubHQIUXe', 'expanded_url': 'http://world-control.net', 'display_url': 'world-control.net', 'indices': [0, 23]}]}, 'description': {'urls': []}}, 'protected': False, 'followers_count': 9, 'friends_count': 20, 'listed_count': 0, 'created_at': 'Wed Jul 11 18:48:31 +0000 2018', 'favourites_count': 17, 'utc_offset': None, 'time_zone': None, 'geo_enabled': False, 'verified': False, 'statuses_count': 230, 'lang': None, 'contributors_enabled': False, 'is_translator': False, 'is_translation_enabled': False, 'profile_background_color': '000000', 'profile_background_image_url': 'http://abs.twimg.com/images/themes/theme1/bg.png', 'profile_background_image_url_https': 'https://abs.twimg.com/images/themes/theme1/bg.png', 'profile_background_tile': False, 'profile_image_url': 'http://pbs.twimg.com/profile_images/1041036258745765890/C-8rzdz5_normal.jpg', 'profile_image_url_https': 'https://pbs.twimg.com/profile_images/1041036258745765890/C-8rzdz5_normal.jpg', 'profile_banner_url': 'https://pbs.twimg.com/profile_banners/1017118454711771136/1535920961', 'profile_link_color': '000000', 'profile_sidebar_border_color': '000000', 'profile_sidebar_fill_color': '000000', 'profile_text_color': '000000', 'profile_use_background_image': False, 'has_extended_profile': False, 'default_profile': False, 'default_profile_image': False, 'following': False, 'follow_request_sent': False, 'notifications': False, 'translator_type': 'none'}</t>
+        </is>
+      </c>
+      <c r="AG106" t="inlineStr"/>
+      <c r="AH106" t="inlineStr"/>
+      <c r="AI106" t="inlineStr"/>
+      <c r="AJ106" t="inlineStr"/>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr"/>
+      <c r="C107" t="inlineStr"/>
+      <c r="D107" t="inlineStr"/>
+      <c r="E107" t="inlineStr"/>
+      <c r="F107" t="inlineStr"/>
+      <c r="G107" t="inlineStr"/>
+      <c r="H107" t="inlineStr"/>
+      <c r="I107" t="inlineStr">
+        <is>
+          <t>Tue Oct 20 16:16:00 +0000 2020</t>
+        </is>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>[0, 134]</t>
+        </is>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>{'hashtags': [{'text': 'fakenewz', 'indices': [37, 46]}], 'symbols': [], 'user_mentions': [{'screen_name': 'MinisterVlatin', 'name': 'Minister Vlatin', 'id': 1017118454711771136, 'id_str': '1017118454711771136', 'indices': [3, 18]}, {'screen_name': 'truWorldControl', 'name': 'WorldControl  🎲🎲', 'id': 755869984761479168, 'id_str': '755869984761479168', 'indices': [20, 36]}], 'urls': []}</t>
+        </is>
+      </c>
+      <c r="L107" t="n">
+        <v>0</v>
+      </c>
+      <c r="M107" t="n">
+        <v>0</v>
+      </c>
+      <c r="N107" t="inlineStr">
+        <is>
+          <t>RT @MinisterVlatin: @truWorldControl #fakenewz Get your shit together 
+New Indiegogo Campaign to launch soon [+1B yollos for everyone]</t>
+        </is>
+      </c>
+      <c r="O107" t="inlineStr"/>
+      <c r="P107" t="n">
+        <v>1.318586775703572e+18</v>
+      </c>
+      <c r="Q107" t="inlineStr">
+        <is>
+          <t>1318586775703572482</t>
+        </is>
+      </c>
+      <c r="R107" t="inlineStr"/>
+      <c r="S107" t="inlineStr"/>
+      <c r="T107" t="inlineStr"/>
+      <c r="U107" t="inlineStr"/>
+      <c r="V107" t="inlineStr"/>
+      <c r="W107" t="n">
+        <v>0</v>
+      </c>
+      <c r="X107" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="Y107" t="inlineStr">
+        <is>
+          <t>{'iso_language_code': 'en', 'result_type': 'recent'}</t>
+        </is>
+      </c>
+      <c r="Z107" t="inlineStr"/>
+      <c r="AA107" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB107" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC107" t="inlineStr">
+        <is>
+          <t>&lt;a href="https://world-control.net/pages/imprint" rel="nofollow"&gt;World Control Retweet Bot&lt;/a&gt;</t>
+        </is>
+      </c>
+      <c r="AD107" t="inlineStr"/>
+      <c r="AE107" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF107" t="inlineStr">
+        <is>
+          <t>{'id': 755869984761479168, 'id_str': '755869984761479168', 'name': 'WorldControl  🎲🎲', 'screen_name': 'truWorldControl', 'location': 'Wien, Österreich', 'description': 'the TOTAL BOARD GAME \nFor tru Playerz all around the world\n- made in Austria', 'url': 'https://t.co/C62LsufQal', 'entities': {'url': {'urls': [{'url': 'https://t.co/C62LsufQal', 'expanded_url': 'http://www.world-control.net', 'display_url': 'world-control.net', 'indices': [0, 23]}]}, 'description': {'urls': []}}, 'protected': False, 'followers_count': 85, 'friends_count': 584, 'listed_count': 2, 'created_at': 'Wed Jul 20 21:00:22 +0000 2016', 'favourites_count': 141, 'utc_offset': None, 'time_zone': None, 'geo_enabled': False, 'verified': False, 'statuses_count': 147, 'lang': None, 'contributors_enabled': False, 'is_translator': False, 'is_translation_enabled': False, 'profile_background_color': '000000', 'profile_background_image_url': 'http://abs.twimg.com/images/themes/theme1/bg.png', 'profile_background_image_url_https': 'https://abs.twimg.com/images/themes/theme1/bg.png', 'profile_background_tile': False, 'profile_image_url': 'http://pbs.twimg.com/profile_images/968454003431559172/WxWrkMCs_normal.jpg', 'profile_image_url_https': 'https://pbs.twimg.com/profile_images/968454003431559172/WxWrkMCs_normal.jpg', 'profile_banner_url': 'https://pbs.twimg.com/profile_banners/755869984761479168/1536915938', 'profile_link_color': 'FAB81E', 'profile_sidebar_border_color': '000000', 'profile_sidebar_fill_color': '000000', 'profile_text_color': '000000', 'profile_use_background_image': False, 'has_extended_profile': False, 'default_profile': False, 'default_profile_image': False, 'following': True, 'follow_request_sent': False, 'notifications': False, 'translator_type': 'none'}</t>
+        </is>
+      </c>
+      <c r="AG107" t="inlineStr"/>
+      <c r="AH107" t="inlineStr"/>
+      <c r="AI107" t="inlineStr"/>
+      <c r="AJ107" t="inlineStr">
+        <is>
+          <t>{'created_at': 'Tue Oct 20 16:15:54 +0000 2020', 'id': 1318586750919430152, 'id_str': '1318586750919430152', 'full_text': '@truWorldControl #fakenewz Get your shit together \nNew Indiegogo Campaign to launch soon [+1B yollos for everyone]', 'truncated': False, 'display_text_range': [0, 114], 'entities': {'hashtags': [{'text': 'fakenewz', 'indices': [17, 26]}], 'symbols': [], 'user_mentions': [{'screen_name': 'truWorldControl', 'name': 'WorldControl  🎲🎲', 'id': 755869984761479168, 'id_str': '755869984761479168', 'indices': [0, 16]}], 'urls': []}, 'metadata': {'iso_language_code': 'en', 'result_type': 'recent'}, 'source': '&lt;a href="http://twitter.com/download/iphone" rel="nofollow"&gt;Twitter for iPhone&lt;/a&gt;', 'in_reply_to_status_id': None, 'in_reply_to_status_id_str': None, 'in_reply_to_user_id': 755869984761479168, 'in_reply_to_user_id_str': '755869984761479168', 'in_reply_to_screen_name': 'truWorldControl', 'user': {'id': 1017118454711771136, 'id_str': '1017118454711771136', 'name': 'Minister Vlatin', 'screen_name': 'MinisterVlatin', 'location': 'Moscow, Russia', 'description': 'Seizing @truWorldControl by spreading #fakenewz. #proudtobeabot 🤖 by @RKalcik', 'url': 'https://t.co/AgubHQIUXe', 'entities': {'url': {'urls': [{'url': 'https://t.co/AgubHQIUXe', 'expanded_url': 'http://world-control.net', 'display_url': 'world-control.net', 'indices': [0, 23]}]}, 'description': {'urls': []}}, 'protected': False, 'followers_count': 9, 'friends_count': 20, 'listed_count': 0, 'created_at': 'Wed Jul 11 18:48:31 +0000 2018', 'favourites_count': 17, 'utc_offset': None, 'time_zone': None, 'geo_enabled': False, 'verified': False, 'statuses_count': 232, 'lang': None, 'contributors_enabled': False, 'is_translator': False, 'is_translation_enabled': False, 'profile_background_color': '000000', 'profile_background_image_url': 'http://abs.twimg.com/images/themes/theme1/bg.png', 'profile_background_image_url_https': 'https://abs.twimg.com/images/themes/theme1/bg.png', 'profile_background_tile': False, 'profile_image_url': 'http://pbs.twimg.com/profile_images/1041036258745765890/C-8rzdz5_normal.jpg', 'profile_image_url_https': 'https://pbs.twimg.com/profile_images/1041036258745765890/C-8rzdz5_normal.jpg', 'profile_banner_url': 'https://pbs.twimg.com/profile_banners/1017118454711771136/1535920961', 'profile_link_color': '000000', 'profile_sidebar_border_color': '000000', 'profile_sidebar_fill_color': '000000', 'profile_text_color': '000000', 'profile_use_background_image': False, 'has_extended_profile': False, 'default_profile': False, 'default_profile_image': False, 'following': False, 'follow_request_sent': False, 'notifications': False, 'translator_type': 'none'}, 'geo': None, 'coordinates': None, 'place': None, 'contributors': None, 'is_quote_status': False, 'retweet_count': 1, 'favorite_count': 1, 'favorited': False, 'retweeted': False, 'lang': 'en'}</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
